--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8157B4D-CEF9-4FC3-A098-53665FC3F568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53848197-8775-4269-B025-DF0D65408C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="60" windowWidth="12600" windowHeight="12000" firstSheet="2" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="514">
   <si>
     <t>Khaos</t>
   </si>
@@ -1566,6 +1566,12 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>TD ACC &amp;</t>
+  </si>
+  <si>
+    <t>TD DEF %</t>
   </si>
 </sst>
 </file>
@@ -1646,16 +1652,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26934,66 +26940,72 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
-  <dimension ref="A1:U1178"/>
+  <dimension ref="A1:W1178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O276" sqref="O276"/>
+      <selection pane="topRight" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="9" t="s">
+      <c r="S1" s="9"/>
+      <c r="T1" s="11" t="s">
         <v>261</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>274</v>
       </c>
@@ -27024,10 +27036,10 @@
       <c r="J2" t="s">
         <v>266</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>268</v>
       </c>
       <c r="M2" t="s">
@@ -27051,10 +27063,12 @@
       <c r="S2" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="9"/>
+      <c r="T2" s="11"/>
       <c r="U2" s="10"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>Control!A1</f>
         <v>Khaos Williams</v>
@@ -27081,7 +27095,7 @@
       </c>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>Control!A2</f>
         <v>Gabriel Bonfim</v>
@@ -27107,7 +27121,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Control!A3</f>
         <v>Angela Hill</v>
@@ -27133,7 +27147,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Control!A4</f>
         <v>Ketlen Sousa</v>
@@ -27159,7 +27173,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>Control!A5</f>
         <v>Jesus Aguilar</v>
@@ -27185,7 +27199,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>Control!A6</f>
         <v>Raphael Estevam</v>
@@ -27211,7 +27225,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>Control!A7</f>
         <v>Valter Walker</v>
@@ -27237,7 +27251,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>Control!A8</f>
         <v>Vince Morales</v>
@@ -27263,7 +27277,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>Control!A9</f>
         <v>Elijah Smith</v>
@@ -27289,7 +27303,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>Control!A10</f>
         <v>Jacqueline Cavalcanti</v>
@@ -27315,7 +27329,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>Control!A11</f>
         <v>Julia Avila</v>
@@ -27341,7 +27355,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>Control!A12</f>
         <v>Andre Petroski</v>
@@ -27367,7 +27381,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>Control!A13</f>
         <v>Rodolfo Vieira</v>
@@ -27393,7 +27407,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>Control!A14</f>
         <v>Dylan Budka</v>
@@ -29557,10 +29571,10 @@
       <c r="J98">
         <v>1</v>
       </c>
-      <c r="K98" s="11">
+      <c r="K98" s="8">
         <v>3.75</v>
       </c>
-      <c r="L98" s="11">
+      <c r="L98" s="8">
         <v>2.61</v>
       </c>
       <c r="M98">
@@ -30070,10 +30084,10 @@
       <c r="J116">
         <v>0.78</v>
       </c>
-      <c r="K116" s="11">
+      <c r="K116" s="8">
         <v>4.6500000000000004</v>
       </c>
-      <c r="L116" s="11">
+      <c r="L116" s="8">
         <v>4.3</v>
       </c>
       <c r="M116">
@@ -33807,10 +33821,10 @@
       <c r="J258">
         <v>0.71</v>
       </c>
-      <c r="K258" s="11">
+      <c r="K258" s="8">
         <v>4.97</v>
       </c>
-      <c r="L258" s="11">
+      <c r="L258" s="8">
         <v>4.97</v>
       </c>
       <c r="M258">
@@ -33878,10 +33892,10 @@
       <c r="J259">
         <v>0.75</v>
       </c>
-      <c r="K259" s="11">
+      <c r="K259" s="8">
         <v>4.3600000000000003</v>
       </c>
-      <c r="L259" s="11">
+      <c r="L259" s="8">
         <v>5.2</v>
       </c>
       <c r="M259">
@@ -33949,10 +33963,10 @@
       <c r="J260">
         <v>0.5</v>
       </c>
-      <c r="K260" s="11">
+      <c r="K260" s="8">
         <v>5.63</v>
       </c>
-      <c r="L260" s="11">
+      <c r="L260" s="8">
         <v>2.58</v>
       </c>
       <c r="M260">
@@ -34020,10 +34034,10 @@
       <c r="J261">
         <v>0.33</v>
       </c>
-      <c r="K261" s="11">
+      <c r="K261" s="8">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L261" s="11">
+      <c r="L261" s="8">
         <v>1.84</v>
       </c>
       <c r="M261">
@@ -34091,10 +34105,10 @@
       <c r="J262">
         <v>1</v>
       </c>
-      <c r="K262" s="11">
+      <c r="K262" s="8">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L262" s="11">
+      <c r="L262" s="8">
         <v>3.12</v>
       </c>
       <c r="M262">
@@ -34162,10 +34176,10 @@
       <c r="J263">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K263" s="11">
+      <c r="K263" s="8">
         <v>3.17</v>
       </c>
-      <c r="L263" s="11">
+      <c r="L263" s="8">
         <v>2.39</v>
       </c>
       <c r="M263">
@@ -34233,10 +34247,10 @@
       <c r="J264">
         <v>0.33</v>
       </c>
-      <c r="K264" s="11">
+      <c r="K264" s="8">
         <v>3.77</v>
       </c>
-      <c r="L264" s="11">
+      <c r="L264" s="8">
         <v>2.79</v>
       </c>
       <c r="M264">
@@ -34304,10 +34318,10 @@
       <c r="J265">
         <v>0.75</v>
       </c>
-      <c r="K265" s="11">
+      <c r="K265" s="8">
         <v>2.92</v>
       </c>
-      <c r="L265" s="11">
+      <c r="L265" s="8">
         <v>3.9</v>
       </c>
       <c r="M265">
@@ -34375,10 +34389,10 @@
       <c r="J266">
         <v>1</v>
       </c>
-      <c r="K266" s="11">
+      <c r="K266" s="8">
         <v>3.21</v>
       </c>
-      <c r="L266" s="11">
+      <c r="L266" s="8">
         <v>2.2799999999999998</v>
       </c>
       <c r="M266">
@@ -34446,10 +34460,10 @@
       <c r="J267">
         <v>0.33</v>
       </c>
-      <c r="K267" s="11">
+      <c r="K267" s="8">
         <v>2.36</v>
       </c>
-      <c r="L267" s="11">
+      <c r="L267" s="8">
         <v>2</v>
       </c>
       <c r="M267">
@@ -34517,10 +34531,10 @@
       <c r="J268">
         <v>0.2</v>
       </c>
-      <c r="K268" s="11">
+      <c r="K268" s="8">
         <v>5.35</v>
       </c>
-      <c r="L268" s="11">
+      <c r="L268" s="8">
         <v>4.8</v>
       </c>
       <c r="M268">
@@ -34588,10 +34602,10 @@
       <c r="J269">
         <v>0</v>
       </c>
-      <c r="K269" s="11">
+      <c r="K269" s="8">
         <v>4.9400000000000004</v>
       </c>
-      <c r="L269" s="11">
+      <c r="L269" s="8">
         <v>3.45</v>
       </c>
       <c r="M269">
@@ -34659,10 +34673,10 @@
       <c r="J270">
         <v>0</v>
       </c>
-      <c r="K270" s="11">
+      <c r="K270" s="8">
         <v>2.89</v>
       </c>
-      <c r="L270" s="11">
+      <c r="L270" s="8">
         <v>3</v>
       </c>
       <c r="M270">
@@ -34730,10 +34744,10 @@
       <c r="J271">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K271" s="11">
+      <c r="K271" s="8">
         <v>5.33</v>
       </c>
-      <c r="L271" s="11">
+      <c r="L271" s="8">
         <v>4.05</v>
       </c>
       <c r="M271">
@@ -34801,10 +34815,10 @@
       <c r="J272">
         <v>0.25</v>
       </c>
-      <c r="K272" s="11">
+      <c r="K272" s="8">
         <v>3.81</v>
       </c>
-      <c r="L272" s="11">
+      <c r="L272" s="8">
         <v>3.22</v>
       </c>
       <c r="M272">
@@ -34872,10 +34886,10 @@
       <c r="J273">
         <v>1</v>
       </c>
-      <c r="K273" s="11">
+      <c r="K273" s="8">
         <v>3.23</v>
       </c>
-      <c r="L273" s="11">
+      <c r="L273" s="8">
         <v>3.22</v>
       </c>
       <c r="M273">
@@ -34943,10 +34957,10 @@
       <c r="J274">
         <v>1</v>
       </c>
-      <c r="K274" s="11">
+      <c r="K274" s="8">
         <v>4.7</v>
       </c>
-      <c r="L274" s="11">
+      <c r="L274" s="8">
         <v>2.9</v>
       </c>
       <c r="M274">
@@ -35014,10 +35028,10 @@
       <c r="J275">
         <v>1</v>
       </c>
-      <c r="K275" s="11">
+      <c r="K275" s="8">
         <v>4.21</v>
       </c>
-      <c r="L275" s="11">
+      <c r="L275" s="8">
         <v>2.9</v>
       </c>
       <c r="M275">
@@ -43376,7 +43390,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="K1:O1"/>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443ED737-34A5-4931-BD96-374C86F61B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B011CC87-5D97-44FB-AC1B-0F3C8352F138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="534">
   <si>
     <t>Khaos</t>
   </si>
@@ -1187,9 +1187,6 @@
     <t>Jordan Vucenic</t>
   </si>
   <si>
-    <t>Alexia Holland</t>
-  </si>
-  <si>
     <t>Carlos Ulberg</t>
   </si>
   <si>
@@ -1575,6 +1572,66 @@
   </si>
   <si>
     <t>TD AVG</t>
+  </si>
+  <si>
+    <t>Mark Choinski</t>
+  </si>
+  <si>
+    <t>Yanal Ashmouz</t>
+  </si>
+  <si>
+    <t>Quillan Salkilld</t>
+  </si>
+  <si>
+    <t>JooSang Yoo</t>
+  </si>
+  <si>
+    <t>Wang Cong</t>
+  </si>
+  <si>
+    <t>Ariane da Silva</t>
+  </si>
+  <si>
+    <t>Serghei Spivac</t>
+  </si>
+  <si>
+    <t>Azamat Murzakanov</t>
+  </si>
+  <si>
+    <t>Kevin Holland</t>
+  </si>
+  <si>
+    <t>Vicente Luque</t>
+  </si>
+  <si>
+    <t>Patchy Mix</t>
+  </si>
+  <si>
+    <t>Mario Bautista</t>
+  </si>
+  <si>
+    <t>Kayla Harrison</t>
+  </si>
+  <si>
+    <t>Julianna Pena</t>
+  </si>
+  <si>
+    <t>Sean O'Malley</t>
+  </si>
+  <si>
+    <t>Merab Dvalishvilli</t>
+  </si>
+  <si>
+    <t>Jeka Saragih</t>
+  </si>
+  <si>
+    <t>Bruno Silva (FlyW)</t>
+  </si>
+  <si>
+    <t>Alexia Thainara</t>
+  </si>
+  <si>
+    <t>Molly McCann</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1626,6 +1683,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1659,7 +1722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1974,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
-  <dimension ref="A1:AE273"/>
+  <dimension ref="A1:AE290"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B255" sqref="B255:B273"/>
+    <sheetView topLeftCell="A261" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A289" sqref="A289:A290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2010,7 +2073,7 @@
         <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I1">
         <v>77</v>
@@ -5498,7 +5561,7 @@
       </c>
       <c r="B104" s="1">
         <f t="shared" si="2"/>
-        <v>30.75</v>
+        <v>27.4</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -5511,6 +5574,9 @@
       </c>
       <c r="F104">
         <v>0</v>
+      </c>
+      <c r="G104">
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -5631,7 +5697,7 @@
       </c>
       <c r="B109" s="1">
         <f t="shared" si="2"/>
-        <v>106</v>
+        <v>99.875</v>
       </c>
       <c r="C109">
         <v>103</v>
@@ -5655,6 +5721,9 @@
         <f>60*9+49</f>
         <v>589</v>
       </c>
+      <c r="J109">
+        <v>57</v>
+      </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
@@ -5759,7 +5828,7 @@
       </c>
       <c r="B114" s="1">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>102.6</v>
       </c>
       <c r="C114">
         <v>52</v>
@@ -5787,6 +5856,9 @@
       </c>
       <c r="K114">
         <v>32</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.3">
@@ -6233,7 +6305,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>377</v>
       </c>
@@ -6307,7 +6379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>378</v>
       </c>
@@ -6328,7 +6400,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>379</v>
       </c>
@@ -6346,7 +6418,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>380</v>
       </c>
@@ -6364,7 +6436,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>381</v>
       </c>
@@ -6400,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>382</v>
       </c>
@@ -6421,7 +6493,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>383</v>
       </c>
@@ -6467,7 +6539,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -6497,7 +6569,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>384</v>
       </c>
@@ -6512,9 +6584,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>532</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="3"/>
@@ -6527,9 +6599,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>533</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="3"/>
@@ -6578,13 +6650,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>385</v>
+        <v>522</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="3"/>
-        <v>83.541666666666671</v>
+        <v>82.76</v>
       </c>
       <c r="C140">
         <v>70</v>
@@ -6658,8 +6730,11 @@
       <c r="Z140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA140">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -6716,9 +6791,9 @@
         <v>569</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="3"/>
@@ -6755,9 +6830,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="3"/>
@@ -6827,9 +6902,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="3"/>
@@ -6931,7 +7006,7 @@
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="3"/>
@@ -6946,7 +7021,7 @@
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="3"/>
@@ -6964,7 +7039,7 @@
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="3"/>
@@ -7003,7 +7078,7 @@
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="3"/>
@@ -7021,7 +7096,7 @@
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="3"/>
@@ -7051,7 +7126,7 @@
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="3"/>
@@ -7126,7 +7201,7 @@
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="3"/>
@@ -7147,7 +7222,7 @@
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="3"/>
@@ -7190,7 +7265,7 @@
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="3"/>
@@ -7223,7 +7298,7 @@
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="3"/>
@@ -7235,7 +7310,7 @@
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="3"/>
@@ -7283,7 +7358,7 @@
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="3"/>
@@ -7307,7 +7382,7 @@
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="3"/>
@@ -7325,7 +7400,7 @@
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="3"/>
@@ -7344,7 +7419,7 @@
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="3"/>
@@ -7362,7 +7437,7 @@
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="3"/>
@@ -7442,7 +7517,7 @@
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="3"/>
@@ -7472,7 +7547,7 @@
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="3"/>
@@ -7550,7 +7625,7 @@
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="3"/>
@@ -7631,7 +7706,7 @@
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="3"/>
@@ -7655,7 +7730,7 @@
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="3"/>
@@ -7679,7 +7754,7 @@
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="3"/>
@@ -7740,7 +7815,7 @@
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="3"/>
@@ -7762,7 +7837,7 @@
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="3"/>
@@ -7798,7 +7873,7 @@
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="3"/>
@@ -7816,7 +7891,7 @@
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="3"/>
@@ -7846,7 +7921,7 @@
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="3"/>
@@ -7867,7 +7942,7 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="3"/>
@@ -7903,7 +7978,7 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="3"/>
@@ -7921,7 +7996,7 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="3"/>
@@ -7945,7 +8020,7 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="3"/>
@@ -7966,7 +8041,7 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="3"/>
@@ -8017,7 +8092,7 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B183" s="1">
         <f t="shared" si="3"/>
@@ -8065,7 +8140,7 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="3"/>
@@ -8080,7 +8155,7 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="3"/>
@@ -8122,7 +8197,7 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="3"/>
@@ -8137,7 +8212,7 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="3"/>
@@ -8160,7 +8235,7 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="3"/>
@@ -8193,7 +8268,7 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="3"/>
@@ -8262,7 +8337,7 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="3"/>
@@ -8283,7 +8358,7 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="3"/>
@@ -8316,7 +8391,7 @@
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="3"/>
@@ -8353,7 +8428,7 @@
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" ref="B194:B254" si="4" xml:space="preserve"> AVERAGE(C194:BC194)</f>
@@ -8389,7 +8464,7 @@
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="4"/>
@@ -8443,7 +8518,7 @@
     </row>
     <row r="196" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" si="4"/>
@@ -8458,7 +8533,7 @@
     </row>
     <row r="197" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="4"/>
@@ -8476,7 +8551,7 @@
     </row>
     <row r="198" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="4"/>
@@ -8497,7 +8572,7 @@
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="4"/>
@@ -8515,7 +8590,7 @@
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="4"/>
@@ -8530,7 +8605,7 @@
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="4"/>
@@ -8560,7 +8635,7 @@
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="4"/>
@@ -8614,7 +8689,7 @@
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="4"/>
@@ -8641,7 +8716,7 @@
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="4"/>
@@ -8695,7 +8770,7 @@
     </row>
     <row r="205" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="4"/>
@@ -8792,7 +8867,7 @@
     </row>
     <row r="206" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="4"/>
@@ -8832,7 +8907,7 @@
     </row>
     <row r="207" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="4"/>
@@ -8877,7 +8952,7 @@
     </row>
     <row r="208" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="4"/>
@@ -8913,7 +8988,7 @@
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" si="4"/>
@@ -8976,7 +9051,7 @@
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="4"/>
@@ -9021,7 +9096,7 @@
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="4"/>
@@ -9084,7 +9159,7 @@
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="4"/>
@@ -9159,7 +9234,7 @@
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="4"/>
@@ -9199,7 +9274,7 @@
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="4"/>
@@ -9226,7 +9301,7 @@
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="4"/>
@@ -9253,7 +9328,7 @@
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="4"/>
@@ -9283,7 +9358,7 @@
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="4"/>
@@ -9340,7 +9415,7 @@
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="4"/>
@@ -9358,7 +9433,7 @@
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="4"/>
@@ -9376,7 +9451,7 @@
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="4"/>
@@ -9418,7 +9493,7 @@
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="4"/>
@@ -9439,7 +9514,7 @@
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="4"/>
@@ -9454,7 +9529,7 @@
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="4"/>
@@ -9472,7 +9547,7 @@
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B225" s="1">
         <f t="shared" si="4"/>
@@ -9536,7 +9611,7 @@
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="4"/>
@@ -9587,7 +9662,7 @@
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="4"/>
@@ -9599,7 +9674,7 @@
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="4"/>
@@ -9611,7 +9686,7 @@
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="4"/>
@@ -9629,7 +9704,7 @@
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="4"/>
@@ -9644,7 +9719,7 @@
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="4"/>
@@ -9671,7 +9746,7 @@
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="4"/>
@@ -9708,7 +9783,7 @@
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="4"/>
@@ -9735,7 +9810,7 @@
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="4"/>
@@ -9750,7 +9825,7 @@
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="4"/>
@@ -9762,7 +9837,7 @@
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="4"/>
@@ -9795,7 +9870,7 @@
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="4"/>
@@ -9813,7 +9888,7 @@
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="4"/>
@@ -9831,7 +9906,7 @@
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="4"/>
@@ -9870,7 +9945,7 @@
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="4"/>
@@ -9909,7 +9984,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="4"/>
@@ -9921,7 +9996,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="4"/>
@@ -9936,7 +10011,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="4"/>
@@ -9975,7 +10050,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="4"/>
@@ -9996,7 +10071,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="4"/>
@@ -10023,7 +10098,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="4"/>
@@ -10038,7 +10113,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="4"/>
@@ -10071,7 +10146,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="4"/>
@@ -10098,7 +10173,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="4"/>
@@ -10128,7 +10203,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="4"/>
@@ -10152,7 +10227,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="4"/>
@@ -10167,7 +10242,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="4"/>
@@ -10197,7 +10272,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="4"/>
@@ -10231,7 +10306,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="4"/>
@@ -10264,10 +10339,10 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B255" s="1">
-        <f t="shared" ref="B255:B273" si="5" xml:space="preserve"> AVERAGE(C255:BC255)</f>
+        <f t="shared" ref="B255:B290" si="5" xml:space="preserve"> AVERAGE(C255:BC255)</f>
         <v>269.25</v>
       </c>
       <c r="C255">
@@ -10299,11 +10374,11 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="5"/>
-        <v>197.5</v>
+        <v>141.66666666666666</v>
       </c>
       <c r="C256">
         <v>354</v>
@@ -10311,14 +10386,17 @@
       <c r="D256">
         <v>41</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E256">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C257">
         <v>93</v>
@@ -10329,10 +10407,13 @@
       <c r="E257">
         <v>49</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F257">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" si="5"/>
@@ -10348,13 +10429,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" si="5"/>
-        <v>215.14285714285714</v>
+        <v>199.125</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -10377,10 +10458,13 @@
       <c r="I259">
         <v>559</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J259">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="5"/>
@@ -10390,9 +10474,9 @@
         <v>386</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="5"/>
@@ -10429,13 +10513,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="5"/>
-        <v>195.27272727272728</v>
+        <v>181.75</v>
       </c>
       <c r="C262">
         <v>331</v>
@@ -10470,14 +10554,17 @@
       <c r="M262">
         <v>108</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N262">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="5"/>
-        <v>262.41666666666669</v>
+        <v>293.46153846153845</v>
       </c>
       <c r="C263">
         <v>504</v>
@@ -10515,14 +10602,17 @@
       <c r="N263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O263">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="5"/>
-        <v>242</v>
+        <v>287.25</v>
       </c>
       <c r="C264">
         <v>16</v>
@@ -10534,14 +10624,17 @@
       <c r="E264">
         <v>143</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F264">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="5"/>
-        <v>111.5</v>
+        <v>165.2</v>
       </c>
       <c r="C265">
         <v>142</v>
@@ -10555,14 +10648,17 @@
       <c r="F265">
         <v>201</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G265">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="5"/>
-        <v>93.5</v>
+        <v>119.77777777777777</v>
       </c>
       <c r="C266">
         <v>205</v>
@@ -10588,14 +10684,17 @@
       <c r="J266">
         <v>3</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K266">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="5"/>
-        <v>71.400000000000006</v>
+        <v>72.666666666666671</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -10612,14 +10711,17 @@
       <c r="G267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H267">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="5"/>
-        <v>199</v>
+        <v>149.25</v>
       </c>
       <c r="C268">
         <v>15</v>
@@ -10630,14 +10732,17 @@
       <c r="E268">
         <v>559</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="5"/>
-        <v>55.6</v>
+        <v>53.272727272727273</v>
       </c>
       <c r="C269">
         <v>23</v>
@@ -10669,14 +10774,17 @@
       <c r="L269">
         <v>20</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M269">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="5"/>
-        <v>234.8</v>
+        <v>215.54545454545453</v>
       </c>
       <c r="C270">
         <v>3</v>
@@ -10709,14 +10817,17 @@
         <f>8*60+51</f>
         <v>531</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M270">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="5"/>
-        <v>401.5</v>
+        <v>412.72727272727275</v>
       </c>
       <c r="C271">
         <v>209</v>
@@ -10749,10 +10860,13 @@
       <c r="L271">
         <v>299</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M271">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="5"/>
@@ -10789,9 +10903,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="5"/>
@@ -10823,6 +10937,443 @@
       <c r="J273">
         <f>480+54</f>
         <v>534</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A274" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B274" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C274" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>515</v>
+      </c>
+      <c r="B275" s="1">
+        <f t="shared" si="5"/>
+        <v>167.66666666666666</v>
+      </c>
+      <c r="C275">
+        <v>7</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>516</v>
+      </c>
+      <c r="B276" s="1">
+        <f t="shared" si="5"/>
+        <v>230.5</v>
+      </c>
+      <c r="C276">
+        <v>460</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>517</v>
+      </c>
+      <c r="B277" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C277" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>518</v>
+      </c>
+      <c r="B278" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>519</v>
+      </c>
+      <c r="B279" s="1">
+        <f t="shared" si="5"/>
+        <v>61.1</v>
+      </c>
+      <c r="C279">
+        <v>67</v>
+      </c>
+      <c r="D279">
+        <v>28</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>266</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>19</v>
+      </c>
+      <c r="I279">
+        <v>47</v>
+      </c>
+      <c r="J279">
+        <v>58</v>
+      </c>
+      <c r="K279">
+        <v>126</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>520</v>
+      </c>
+      <c r="B280" s="1">
+        <f t="shared" si="5"/>
+        <v>188.6</v>
+      </c>
+      <c r="C280">
+        <v>292</v>
+      </c>
+      <c r="D280">
+        <v>509</v>
+      </c>
+      <c r="E280">
+        <v>291</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>81</v>
+      </c>
+      <c r="H280">
+        <v>397</v>
+      </c>
+      <c r="I280">
+        <v>152</v>
+      </c>
+      <c r="J280">
+        <v>2</v>
+      </c>
+      <c r="K280">
+        <v>34</v>
+      </c>
+      <c r="L280">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>521</v>
+      </c>
+      <c r="B281" s="1">
+        <f t="shared" si="5"/>
+        <v>63.8</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>39</v>
+      </c>
+      <c r="E281">
+        <v>220</v>
+      </c>
+      <c r="F281">
+        <v>16</v>
+      </c>
+      <c r="G281">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>523</v>
+      </c>
+      <c r="B282" s="1">
+        <f t="shared" si="5"/>
+        <v>111.66666666666667</v>
+      </c>
+      <c r="C282">
+        <v>25</v>
+      </c>
+      <c r="D282">
+        <v>66</v>
+      </c>
+      <c r="E282">
+        <v>123</v>
+      </c>
+      <c r="F282">
+        <v>10</v>
+      </c>
+      <c r="G282">
+        <v>37</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <f>12*60+1</f>
+        <v>721</v>
+      </c>
+      <c r="J282">
+        <v>9</v>
+      </c>
+      <c r="K282">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>524</v>
+      </c>
+      <c r="B283" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C283" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>525</v>
+      </c>
+      <c r="B284" s="1">
+        <f t="shared" si="5"/>
+        <v>155.1</v>
+      </c>
+      <c r="C284">
+        <v>55</v>
+      </c>
+      <c r="D284">
+        <v>4</v>
+      </c>
+      <c r="E284">
+        <v>9</v>
+      </c>
+      <c r="F284">
+        <v>390</v>
+      </c>
+      <c r="G284">
+        <v>88</v>
+      </c>
+      <c r="H284">
+        <v>156</v>
+      </c>
+      <c r="I284">
+        <v>156</v>
+      </c>
+      <c r="J284">
+        <v>244</v>
+      </c>
+      <c r="K284">
+        <v>14</v>
+      </c>
+      <c r="L284">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>526</v>
+      </c>
+      <c r="B285" s="1">
+        <f t="shared" si="5"/>
+        <v>382.5</v>
+      </c>
+      <c r="C285">
+        <v>474</v>
+      </c>
+      <c r="D285">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>527</v>
+      </c>
+      <c r="B286" s="1">
+        <f t="shared" si="5"/>
+        <v>195.33333333333334</v>
+      </c>
+      <c r="C286">
+        <v>277</v>
+      </c>
+      <c r="D286">
+        <v>355</v>
+      </c>
+      <c r="E286">
+        <v>175</v>
+      </c>
+      <c r="F286">
+        <v>25</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>528</v>
+      </c>
+      <c r="B287" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>5</v>
+      </c>
+      <c r="F287">
+        <v>4</v>
+      </c>
+      <c r="G287">
+        <v>2</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>2</v>
+      </c>
+      <c r="J287">
+        <v>18</v>
+      </c>
+      <c r="K287">
+        <v>3</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>529</v>
+      </c>
+      <c r="B288" s="1">
+        <f t="shared" si="5"/>
+        <v>330.8</v>
+      </c>
+      <c r="C288">
+        <v>340</v>
+      </c>
+      <c r="D288">
+        <f>9*60+15</f>
+        <v>555</v>
+      </c>
+      <c r="E288">
+        <v>224</v>
+      </c>
+      <c r="F288">
+        <v>102</v>
+      </c>
+      <c r="G288">
+        <v>360</v>
+      </c>
+      <c r="H288">
+        <v>306</v>
+      </c>
+      <c r="I288">
+        <v>413</v>
+      </c>
+      <c r="J288">
+        <v>263</v>
+      </c>
+      <c r="K288">
+        <v>603</v>
+      </c>
+      <c r="L288">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>530</v>
+      </c>
+      <c r="B289" s="1">
+        <f t="shared" si="5"/>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="C289">
+        <v>9</v>
+      </c>
+      <c r="D289">
+        <v>5</v>
+      </c>
+      <c r="E289">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>531</v>
+      </c>
+      <c r="B290" s="1">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="C290">
+        <v>419</v>
+      </c>
+      <c r="D290">
+        <v>91</v>
+      </c>
+      <c r="E290">
+        <v>141</v>
+      </c>
+      <c r="F290">
+        <v>231</v>
+      </c>
+      <c r="G290">
+        <v>2</v>
+      </c>
+      <c r="H290">
+        <v>53</v>
+      </c>
+      <c r="I290">
+        <v>23</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10833,10 +11384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
-  <dimension ref="A1:B273"/>
+  <dimension ref="A1:B290"/>
   <sheetViews>
-    <sheetView topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="B255" sqref="B255:B273"/>
+    <sheetView topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="B273" sqref="B273:B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10850,7 +11401,7 @@
       </c>
       <c r="B1">
         <f>Control!B1/'Fight Time'!B1</f>
-        <v>6.8738656987295824E-2</v>
+        <v>6.8120503597122309E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -11570,7 +12121,7 @@
       </c>
       <c r="B81">
         <f>Control!B81/'Fight Time'!B81</f>
-        <v>4.469873055605221E-2</v>
+        <v>4.3929010718678614E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -11777,7 +12328,7 @@
       </c>
       <c r="B104">
         <f>Control!B104/'Fight Time'!B104</f>
-        <v>5.7800751879699248E-2</v>
+        <v>5.4473161033797214E-2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -11822,7 +12373,7 @@
       </c>
       <c r="B109">
         <f>Control!B109/'Fight Time'!B109</f>
-        <v>0.15142857142857144</v>
+        <v>0.14559037900874636</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -11867,7 +12418,7 @@
       </c>
       <c r="B114">
         <f>Control!B114/'Fight Time'!B114</f>
-        <v>0.16618075801749271</v>
+        <v>0.14956268221574343</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -12101,7 +12652,7 @@
       </c>
       <c r="B140">
         <f>Control!B140/'Fight Time'!B140</f>
-        <v>0.13518069039913702</v>
+        <v>0.13391585760517799</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -13141,25 +13692,25 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B256">
         <f>Control!B256/'Fight Time'!B256</f>
-        <v>0.21944444444444444</v>
+        <v>0.15740740740740738</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B257">
         <f>Control!B257/'Fight Time'!B257</f>
-        <v>5.7777777777777775E-2</v>
+        <v>5.2222222222222225E-2</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B258">
         <f>Control!B258/'Fight Time'!B258</f>
@@ -13168,16 +13719,16 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B259">
         <f>Control!B259/'Fight Time'!B259</f>
-        <v>0.52219140083217752</v>
+        <v>0.4833131067961165</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B260">
         <f>Control!B260/'Fight Time'!B260</f>
@@ -13186,7 +13737,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B261">
         <f>Control!B261/'Fight Time'!B261</f>
@@ -13195,97 +13746,97 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B262">
         <f>Control!B262/'Fight Time'!B262</f>
-        <v>0.33266222704042125</v>
+        <v>0.30962521294718909</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B263">
         <f>Control!B263/'Fight Time'!B263</f>
-        <v>0.28492580528411149</v>
+        <v>0.31863359224922744</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B264">
         <f>Control!B264/'Fight Time'!B264</f>
-        <v>0.33425414364640882</v>
+        <v>0.39675414364640882</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B265">
         <f>Control!B265/'Fight Time'!B265</f>
-        <v>0.21905697445972494</v>
+        <v>0.32455795677799604</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B266">
         <f>Control!B266/'Fight Time'!B266</f>
-        <v>0.21494252873563219</v>
+        <v>0.27535121328224776</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B267">
         <f>Control!B267/'Fight Time'!B267</f>
-        <v>0.27782101167315176</v>
+        <v>0.28274967574578469</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B268">
         <f>Control!B268/'Fight Time'!B268</f>
-        <v>0.35535714285714287</v>
+        <v>0.26651785714285714</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B269">
         <f>Control!B269/'Fight Time'!B269</f>
-        <v>8.7147335423197497E-2</v>
+        <v>8.3499572527785698E-2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B270">
         <f>Control!B270/'Fight Time'!B270</f>
-        <v>0.31772665764546687</v>
+        <v>0.29167179234838231</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B271">
         <f>Control!B271/'Fight Time'!B271</f>
-        <v>0.54403794037940378</v>
+        <v>0.5592510470559251</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B272">
         <f>Control!B272/'Fight Time'!B272</f>
@@ -13294,11 +13845,164 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B273">
         <f>Control!B273/'Fight Time'!B273</f>
         <v>1.0292207792207793</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B274">
+        <f>Control!B274/'Fight Time'!B274</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>515</v>
+      </c>
+      <c r="B275">
+        <f>Control!B275/'Fight Time'!B275</f>
+        <v>0.26826666666666665</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>516</v>
+      </c>
+      <c r="B276">
+        <f>Control!B276/'Fight Time'!B276</f>
+        <v>0.50163220892274207</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>517</v>
+      </c>
+      <c r="B277">
+        <f>Control!B277/'Fight Time'!B277</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>518</v>
+      </c>
+      <c r="B278">
+        <f>Control!B278/'Fight Time'!B278</f>
+        <v>3.9800995024875619E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>519</v>
+      </c>
+      <c r="B279">
+        <f>Control!B279/'Fight Time'!B279</f>
+        <v>9.0007365578197884E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>520</v>
+      </c>
+      <c r="B280">
+        <f>Control!B280/'Fight Time'!B280</f>
+        <v>0.42788830715532283</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>521</v>
+      </c>
+      <c r="B281">
+        <f>Control!B281/'Fight Time'!B281</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>523</v>
+      </c>
+      <c r="B282">
+        <f>Control!B282/'Fight Time'!B282</f>
+        <v>0.19352975158867708</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>524</v>
+      </c>
+      <c r="B283">
+        <f>Control!B283/'Fight Time'!B283</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>525</v>
+      </c>
+      <c r="B284">
+        <f>Control!B284/'Fight Time'!B284</f>
+        <v>0.27978025582158084</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>526</v>
+      </c>
+      <c r="B285">
+        <f>Control!B285/'Fight Time'!B285</f>
+        <v>0.58530986993113998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>527</v>
+      </c>
+      <c r="B286">
+        <f>Control!B286/'Fight Time'!B286</f>
+        <v>0.24055829228243022</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>528</v>
+      </c>
+      <c r="B287">
+        <f>Control!B287/'Fight Time'!B287</f>
+        <v>5.1204819277108436E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>529</v>
+      </c>
+      <c r="B288">
+        <f>Control!B288/'Fight Time'!B288</f>
+        <v>0.32915422885572143</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>530</v>
+      </c>
+      <c r="B289">
+        <f>Control!B289/'Fight Time'!B289</f>
+        <v>6.8549212195621032E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>531</v>
+      </c>
+      <c r="B290">
+        <f>Control!B290/'Fight Time'!B290</f>
+        <v>0.20451640391989775</v>
       </c>
     </row>
   </sheetData>
@@ -13308,10 +14012,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
-  <dimension ref="A1:AE273"/>
+  <dimension ref="A1:AE290"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B255" sqref="B255:B273"/>
+    <sheetView topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B273" sqref="B273:B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16802,7 +17506,7 @@
       </c>
       <c r="B104" s="1">
         <f t="shared" si="1"/>
-        <v>154.5</v>
+        <v>133.4</v>
       </c>
       <c r="C104">
         <v>15</v>
@@ -16815,6 +17519,9 @@
       </c>
       <c r="F104">
         <v>2</v>
+      </c>
+      <c r="G104">
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -16934,7 +17641,7 @@
       </c>
       <c r="B109" s="1">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -16956,6 +17663,9 @@
       </c>
       <c r="I109">
         <v>19</v>
+      </c>
+      <c r="J109">
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -17061,7 +17771,7 @@
       </c>
       <c r="B114" s="1">
         <f t="shared" si="1"/>
-        <v>346.22222222222223</v>
+        <v>320.3</v>
       </c>
       <c r="C114">
         <v>705</v>
@@ -17091,6 +17801,9 @@
         <f>6*60+39</f>
         <v>399</v>
       </c>
+      <c r="L114">
+        <v>87</v>
+      </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
@@ -17533,7 +18246,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -17608,7 +18321,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -17629,7 +18342,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -17647,7 +18360,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -17665,7 +18378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -17701,7 +18414,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -17722,7 +18435,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -17767,7 +18480,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -17797,7 +18510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -17812,7 +18525,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -17827,7 +18540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -17880,13 +18593,13 @@
         <v>204</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="2"/>
-        <v>222.88</v>
+        <v>236.19230769230768</v>
       </c>
       <c r="C140">
         <f>9*60+37</f>
@@ -17965,8 +18678,12 @@
       <c r="AA140">
         <v>569</v>
       </c>
-    </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB140">
+        <f>9*60+29</f>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -18023,7 +18740,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -18062,7 +18779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -18134,7 +18851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -21428,7 +22145,7 @@
         <v>246</v>
       </c>
       <c r="B250" s="1">
-        <f t="shared" ref="B250:B273" si="4">AVERAGE(C250:BA250)</f>
+        <f t="shared" ref="B250:B290" si="4">AVERAGE(C250:BA250)</f>
         <v>0</v>
       </c>
       <c r="C250">
@@ -21593,11 +22310,11 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C256">
         <v>10</v>
@@ -21605,14 +22322,17 @@
       <c r="D256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E256">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="4"/>
-        <v>60.666666666666664</v>
+        <v>53</v>
       </c>
       <c r="C257">
         <v>7</v>
@@ -21623,10 +22343,13 @@
       <c r="E257">
         <v>11</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F257">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" si="4"/>
@@ -21642,13 +22365,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" si="4"/>
-        <v>136.85714285714286</v>
+        <v>119.75</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -21671,10 +22394,13 @@
       <c r="I259">
         <v>57</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="4"/>
@@ -21684,9 +22410,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="4"/>
@@ -21723,13 +22449,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="4"/>
-        <v>148.90909090909091</v>
+        <v>192</v>
       </c>
       <c r="C262">
         <v>13</v>
@@ -21764,14 +22490,17 @@
       <c r="M262">
         <v>79</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N262">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="4"/>
-        <v>183.66666666666666</v>
+        <v>172.07692307692307</v>
       </c>
       <c r="C263">
         <v>45</v>
@@ -21809,14 +22538,17 @@
       <c r="N263">
         <v>474</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O263">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="4"/>
-        <v>318</v>
+        <v>333.5</v>
       </c>
       <c r="C264">
         <f>12*60+4</f>
@@ -21828,14 +22560,17 @@
       <c r="E264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F264">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="4"/>
-        <v>165</v>
+        <v>216.6</v>
       </c>
       <c r="C265">
         <v>149</v>
@@ -21849,14 +22584,17 @@
       <c r="F265">
         <v>4</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G265">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="4"/>
-        <v>43.625</v>
+        <v>47.555555555555557</v>
       </c>
       <c r="C266">
         <v>18</v>
@@ -21882,14 +22620,17 @@
       <c r="J266">
         <v>87</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K266">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>107.5</v>
       </c>
       <c r="C267">
         <v>24</v>
@@ -21906,14 +22647,17 @@
       <c r="G267">
         <v>134</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H267">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="4"/>
-        <v>20.333333333333332</v>
+        <v>22.75</v>
       </c>
       <c r="C268">
         <v>4</v>
@@ -21924,14 +22668,17 @@
       <c r="E268">
         <v>14</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F268">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="4"/>
-        <v>24.2</v>
+        <v>22</v>
       </c>
       <c r="C269">
         <v>43</v>
@@ -21963,14 +22710,17 @@
       <c r="L269">
         <v>40</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="4"/>
-        <v>69.599999999999994</v>
+        <v>111</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -22002,14 +22752,17 @@
       <c r="L270">
         <v>43</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M270">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="4"/>
-        <v>26.8</v>
+        <v>26.454545454545453</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -22041,10 +22794,13 @@
       <c r="L271">
         <v>88</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M271">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="4"/>
@@ -22081,9 +22837,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="4"/>
@@ -22112,6 +22868,441 @@
       </c>
       <c r="J273">
         <v>15</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A274" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B274" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C274" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>515</v>
+      </c>
+      <c r="B275" s="1">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>48</v>
+      </c>
+      <c r="E275">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>516</v>
+      </c>
+      <c r="B276" s="1">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="C276">
+        <v>104</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>517</v>
+      </c>
+      <c r="B277" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C277" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>518</v>
+      </c>
+      <c r="B278" s="1">
+        <f t="shared" si="4"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>28</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>519</v>
+      </c>
+      <c r="B279" s="1">
+        <f t="shared" si="4"/>
+        <v>198</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>459</v>
+      </c>
+      <c r="E279">
+        <v>412</v>
+      </c>
+      <c r="F279">
+        <v>29</v>
+      </c>
+      <c r="G279">
+        <v>11</v>
+      </c>
+      <c r="H279">
+        <v>76</v>
+      </c>
+      <c r="I279">
+        <v>177</v>
+      </c>
+      <c r="J279">
+        <v>20</v>
+      </c>
+      <c r="K279">
+        <v>452</v>
+      </c>
+      <c r="L279">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>520</v>
+      </c>
+      <c r="B280" s="1">
+        <f t="shared" si="4"/>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>211</v>
+      </c>
+      <c r="F280">
+        <v>3</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>23</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>9</v>
+      </c>
+      <c r="K280">
+        <v>49</v>
+      </c>
+      <c r="L280">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>521</v>
+      </c>
+      <c r="B281" s="1">
+        <f t="shared" si="4"/>
+        <v>55.4</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>14</v>
+      </c>
+      <c r="E281">
+        <v>26</v>
+      </c>
+      <c r="F281">
+        <v>186</v>
+      </c>
+      <c r="G281">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>523</v>
+      </c>
+      <c r="B282" s="1">
+        <f t="shared" si="4"/>
+        <v>113.66666666666667</v>
+      </c>
+      <c r="C282">
+        <v>109</v>
+      </c>
+      <c r="D282">
+        <v>52</v>
+      </c>
+      <c r="E282">
+        <v>22</v>
+      </c>
+      <c r="F282">
+        <v>61</v>
+      </c>
+      <c r="G282">
+        <v>449</v>
+      </c>
+      <c r="H282">
+        <v>47</v>
+      </c>
+      <c r="I282">
+        <v>234</v>
+      </c>
+      <c r="J282">
+        <v>49</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>524</v>
+      </c>
+      <c r="B283" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C283" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>525</v>
+      </c>
+      <c r="B284" s="1">
+        <f t="shared" si="4"/>
+        <v>66.5</v>
+      </c>
+      <c r="C284">
+        <v>98</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>86</v>
+      </c>
+      <c r="F284">
+        <v>105</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>16</v>
+      </c>
+      <c r="J284">
+        <v>180</v>
+      </c>
+      <c r="K284">
+        <v>180</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>526</v>
+      </c>
+      <c r="B285" s="1">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>527</v>
+      </c>
+      <c r="B286" s="1">
+        <f t="shared" si="4"/>
+        <v>303</v>
+      </c>
+      <c r="C286">
+        <v>372</v>
+      </c>
+      <c r="D286">
+        <v>48</v>
+      </c>
+      <c r="E286">
+        <v>441</v>
+      </c>
+      <c r="F286">
+        <v>215</v>
+      </c>
+      <c r="G286">
+        <v>709</v>
+      </c>
+      <c r="H286">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>528</v>
+      </c>
+      <c r="B287" s="1">
+        <f t="shared" si="4"/>
+        <v>102.3</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>11</v>
+      </c>
+      <c r="E287">
+        <v>22</v>
+      </c>
+      <c r="F287">
+        <v>9</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>344</v>
+      </c>
+      <c r="J287">
+        <v>34</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>529</v>
+      </c>
+      <c r="B288" s="1">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="C288">
+        <v>5</v>
+      </c>
+      <c r="D288">
+        <v>2</v>
+      </c>
+      <c r="E288">
+        <v>4</v>
+      </c>
+      <c r="F288">
+        <v>177</v>
+      </c>
+      <c r="G288">
+        <v>30</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>125</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>97</v>
+      </c>
+      <c r="L288">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>530</v>
+      </c>
+      <c r="B289" s="1">
+        <f t="shared" si="4"/>
+        <v>154</v>
+      </c>
+      <c r="C289">
+        <v>427</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>531</v>
+      </c>
+      <c r="B290" s="1">
+        <f t="shared" si="4"/>
+        <v>69.75</v>
+      </c>
+      <c r="C290">
+        <v>39</v>
+      </c>
+      <c r="D290">
+        <v>73</v>
+      </c>
+      <c r="E290">
+        <v>227</v>
+      </c>
+      <c r="F290">
+        <v>62</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>155</v>
+      </c>
+      <c r="J290">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -22121,10 +23312,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
-  <dimension ref="A1:B273"/>
+  <dimension ref="A1:B290"/>
   <sheetViews>
-    <sheetView topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="B255" sqref="B255:B273"/>
+    <sheetView topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="B273" sqref="B273:B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22138,7 +23329,7 @@
       </c>
       <c r="B1">
         <f>Controlled!B1/'Fight Time'!B1</f>
-        <v>4.0935672514619888E-2</v>
+        <v>4.0567545963229416E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -22858,7 +24049,7 @@
       </c>
       <c r="B81">
         <f>Controlled!B81/'Fight Time'!B81</f>
-        <v>0.16824602181298048</v>
+        <v>0.1653487963451063</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -23065,7 +24256,7 @@
       </c>
       <c r="B104">
         <f>Controlled!B104/'Fight Time'!B104</f>
-        <v>0.29041353383458646</v>
+        <v>0.26520874751491053</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -23110,7 +24301,7 @@
       </c>
       <c r="B109">
         <f>Controlled!B109/'Fight Time'!B109</f>
-        <v>8.7142857142857147E-2</v>
+        <v>7.8717201166180764E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -23155,7 +24346,7 @@
       </c>
       <c r="B114">
         <f>Controlled!B114/'Fight Time'!B114</f>
-        <v>0.50469711694201491</v>
+        <v>0.46690962099125366</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -23389,7 +24580,7 @@
       </c>
       <c r="B140">
         <f>Controlled!B140/'Fight Time'!B140</f>
-        <v>0.36064724919093849</v>
+        <v>0.38218820014936516</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -24429,25 +25620,25 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B256">
         <f>Controlled!B256/'Fight Time'!B256</f>
-        <v>5.5555555555555558E-3</v>
+        <v>1.5555555555555555E-2</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B257">
         <f>Controlled!B257/'Fight Time'!B257</f>
-        <v>6.7407407407407402E-2</v>
+        <v>5.8888888888888886E-2</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B258">
         <f>Controlled!B258/'Fight Time'!B258</f>
@@ -24456,16 +25647,16 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B259">
         <f>Controlled!B259/'Fight Time'!B259</f>
-        <v>0.33217753120665744</v>
+        <v>0.29065533980582525</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B260">
         <f>Controlled!B260/'Fight Time'!B260</f>
@@ -24474,7 +25665,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B261">
         <f>Controlled!B261/'Fight Time'!B261</f>
@@ -24483,97 +25674,97 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B262">
         <f>Controlled!B262/'Fight Time'!B262</f>
-        <v>0.25367817872076814</v>
+        <v>0.3270868824531516</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B263">
         <f>Controlled!B263/'Fight Time'!B263</f>
-        <v>0.19942091929062611</v>
+        <v>0.18683705002923243</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B264">
         <f>Controlled!B264/'Fight Time'!B264</f>
-        <v>0.43922651933701656</v>
+        <v>0.4606353591160221</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B265">
         <f>Controlled!B265/'Fight Time'!B265</f>
-        <v>0.32416502946954812</v>
+        <v>0.4255402750491159</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B266">
         <f>Controlled!B266/'Fight Time'!B266</f>
-        <v>0.10028735632183908</v>
+        <v>0.10932311621966795</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B267">
         <f>Controlled!B267/'Fight Time'!B267</f>
-        <v>0.24513618677042801</v>
+        <v>0.41828793774319067</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B268">
         <f>Controlled!B268/'Fight Time'!B268</f>
-        <v>3.6309523809523805E-2</v>
+        <v>4.0625000000000001E-2</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B269">
         <f>Controlled!B269/'Fight Time'!B269</f>
-        <v>3.793103448275862E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B270">
         <f>Controlled!B270/'Fight Time'!B270</f>
-        <v>9.4181326116373476E-2</v>
+        <v>0.15020297699594046</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B271">
         <f>Controlled!B271/'Fight Time'!B271</f>
-        <v>3.6314363143631435E-2</v>
+        <v>3.5846267553584624E-2</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B272">
         <f>Controlled!B272/'Fight Time'!B272</f>
@@ -24582,11 +25773,164 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B273">
         <f>Controlled!B273/'Fight Time'!B273</f>
         <v>1.9332939787485241E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B274">
+        <f>Controlled!B274/'Fight Time'!B274</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>515</v>
+      </c>
+      <c r="B275">
+        <f>Controlled!B275/'Fight Time'!B275</f>
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>516</v>
+      </c>
+      <c r="B276">
+        <f>Controlled!B276/'Fight Time'!B276</f>
+        <v>0.11316648531011969</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>517</v>
+      </c>
+      <c r="B277">
+        <f>Controlled!B277/'Fight Time'!B277</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>518</v>
+      </c>
+      <c r="B278">
+        <f>Controlled!B278/'Fight Time'!B278</f>
+        <v>2.228855721393035E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>519</v>
+      </c>
+      <c r="B279">
+        <f>Controlled!B279/'Fight Time'!B279</f>
+        <v>0.29167689663638596</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>520</v>
+      </c>
+      <c r="B280">
+        <f>Controlled!B280/'Fight Time'!B280</f>
+        <v>9.1431064572425821E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>521</v>
+      </c>
+      <c r="B281">
+        <f>Controlled!B281/'Fight Time'!B281</f>
+        <v>9.5517241379310336E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>523</v>
+      </c>
+      <c r="B282">
+        <f>Controlled!B282/'Fight Time'!B282</f>
+        <v>0.19699595609474294</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>524</v>
+      </c>
+      <c r="B283">
+        <f>Controlled!B283/'Fight Time'!B283</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>525</v>
+      </c>
+      <c r="B284">
+        <f>Controlled!B284/'Fight Time'!B284</f>
+        <v>0.11995736306985896</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>526</v>
+      </c>
+      <c r="B285">
+        <f>Controlled!B285/'Fight Time'!B285</f>
+        <v>1.1476664116296864E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>527</v>
+      </c>
+      <c r="B286">
+        <f>Controlled!B286/'Fight Time'!B286</f>
+        <v>0.37315270935960593</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>528</v>
+      </c>
+      <c r="B287">
+        <f>Controlled!B287/'Fight Time'!B287</f>
+        <v>0.15406626506024096</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>529</v>
+      </c>
+      <c r="B288">
+        <f>Controlled!B288/'Fight Time'!B288</f>
+        <v>5.4726368159203981E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>530</v>
+      </c>
+      <c r="B289">
+        <f>Controlled!B289/'Fight Time'!B289</f>
+        <v>0.47268262737875993</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>531</v>
+      </c>
+      <c r="B290">
+        <f>Controlled!B290/'Fight Time'!B290</f>
+        <v>0.11887515977844056</v>
       </c>
     </row>
   </sheetData>
@@ -24596,10 +25940,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
-  <dimension ref="A1:C273"/>
+  <dimension ref="A1:O290"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="B274" sqref="B274"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="A282" sqref="A282:XFD282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24612,8 +25956,8 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>9*60+11</f>
-        <v>551</v>
+        <f>9*60+16</f>
+        <v>556</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -25306,8 +26650,8 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <f>13*60+19</f>
-        <v>799</v>
+        <f>13*60+33</f>
+        <v>813</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -25499,8 +26843,8 @@
         <v>99</v>
       </c>
       <c r="B104">
-        <f>8*60+52</f>
-        <v>532</v>
+        <f>8*60+23</f>
+        <v>503</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -25542,7 +26886,8 @@
         <v>102</v>
       </c>
       <c r="B109">
-        <v>700</v>
+        <f>11*60+26</f>
+        <v>686</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -26782,7 +28127,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B256">
         <v>900</v>
@@ -26790,7 +28135,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B257">
         <v>900</v>
@@ -26798,7 +28143,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B258">
         <v>427</v>
@@ -26806,7 +28151,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B259">
         <f>360+52</f>
@@ -26815,7 +28160,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B260">
         <v>500</v>
@@ -26823,7 +28168,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B261">
         <v>659</v>
@@ -26831,7 +28176,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B262">
         <f>9*60+47</f>
@@ -26840,7 +28185,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B263">
         <v>921</v>
@@ -26848,7 +28193,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B264">
         <f>12*60+4</f>
@@ -26857,7 +28202,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B265">
         <v>509</v>
@@ -26865,7 +28210,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B266">
         <v>435</v>
@@ -26873,7 +28218,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B267">
         <v>257</v>
@@ -26881,7 +28226,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B268">
         <f>9*60+20</f>
@@ -26890,7 +28235,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B269">
         <v>638</v>
@@ -26898,7 +28243,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B270">
         <f>12*60+19</f>
@@ -26907,7 +28252,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B271">
         <v>738</v>
@@ -26915,20 +28260,393 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B272">
         <f>12*60+10</f>
         <v>730</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B273">
         <f>14*60+7</f>
         <v>847</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A274" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B274">
+        <f>AVERAGE(C274:Q274)</f>
+        <v>900</v>
+      </c>
+      <c r="C274" s="10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>515</v>
+      </c>
+      <c r="B275">
+        <f t="shared" ref="B275:B290" si="0">AVERAGE(C275:Q275)</f>
+        <v>625</v>
+      </c>
+      <c r="C275">
+        <v>75</v>
+      </c>
+      <c r="D275">
+        <v>900</v>
+      </c>
+      <c r="E275">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>516</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="0"/>
+        <v>459.5</v>
+      </c>
+      <c r="C276">
+        <v>900</v>
+      </c>
+      <c r="D276">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>517</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="C277" s="10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>518</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="0"/>
+        <v>418.75</v>
+      </c>
+      <c r="C278">
+        <v>184</v>
+      </c>
+      <c r="D278">
+        <v>62</v>
+      </c>
+      <c r="E278">
+        <f>300+180+49</f>
+        <v>529</v>
+      </c>
+      <c r="F278">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>519</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="0"/>
+        <v>678.83333333333337</v>
+      </c>
+      <c r="C279">
+        <v>900</v>
+      </c>
+      <c r="D279">
+        <v>900</v>
+      </c>
+      <c r="E279">
+        <v>900</v>
+      </c>
+      <c r="F279">
+        <v>88</v>
+      </c>
+      <c r="G279">
+        <v>567</v>
+      </c>
+      <c r="H279">
+        <v>900</v>
+      </c>
+      <c r="I279">
+        <f>65+300</f>
+        <v>365</v>
+      </c>
+      <c r="J279">
+        <v>900</v>
+      </c>
+      <c r="K279">
+        <v>900</v>
+      </c>
+      <c r="L279">
+        <v>78</v>
+      </c>
+      <c r="M279">
+        <v>900</v>
+      </c>
+      <c r="N279">
+        <f>600+120+28</f>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>520</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="0"/>
+        <v>440.76923076923077</v>
+      </c>
+      <c r="C280">
+        <v>50</v>
+      </c>
+      <c r="D280">
+        <f>300+180+14</f>
+        <v>494</v>
+      </c>
+      <c r="E280">
+        <v>900</v>
+      </c>
+      <c r="F280">
+        <v>900</v>
+      </c>
+      <c r="G280">
+        <f>300+4*60+32</f>
+        <v>572</v>
+      </c>
+      <c r="H280">
+        <v>900</v>
+      </c>
+      <c r="I280">
+        <v>150</v>
+      </c>
+      <c r="J280">
+        <v>136</v>
+      </c>
+      <c r="K280">
+        <f>300+180+42</f>
+        <v>522</v>
+      </c>
+      <c r="L280">
+        <v>185</v>
+      </c>
+      <c r="M280">
+        <v>524</v>
+      </c>
+      <c r="N280">
+        <v>104</v>
+      </c>
+      <c r="O280">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>521</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+      <c r="C281">
+        <v>180</v>
+      </c>
+      <c r="D281">
+        <v>644</v>
+      </c>
+      <c r="E281">
+        <v>678</v>
+      </c>
+      <c r="F281">
+        <v>900</v>
+      </c>
+      <c r="G281">
+        <f>300+180+18</f>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>523</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="0"/>
+        <v>577</v>
+      </c>
+      <c r="C282">
+        <f>9*60+37</f>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>524</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="C283" s="10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>525</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="0"/>
+        <v>554.36363636363637</v>
+      </c>
+      <c r="C284">
+        <v>900</v>
+      </c>
+      <c r="D284">
+        <v>900</v>
+      </c>
+      <c r="E284">
+        <v>900</v>
+      </c>
+      <c r="F284">
+        <v>198</v>
+      </c>
+      <c r="G284">
+        <v>294</v>
+      </c>
+      <c r="H284">
+        <v>147</v>
+      </c>
+      <c r="I284">
+        <v>900</v>
+      </c>
+      <c r="J284">
+        <v>347</v>
+      </c>
+      <c r="K284">
+        <v>401</v>
+      </c>
+      <c r="L284">
+        <v>900</v>
+      </c>
+      <c r="M284">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>526</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="0"/>
+        <v>653.5</v>
+      </c>
+      <c r="C285">
+        <v>900</v>
+      </c>
+      <c r="D285">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>527</v>
+      </c>
+      <c r="B286">
+        <f>13*60+32</f>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>528</v>
+      </c>
+      <c r="B287">
+        <f>11*60+4</f>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>529</v>
+      </c>
+      <c r="B288">
+        <f>16*60+45</f>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>530</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="0"/>
+        <v>325.8</v>
+      </c>
+      <c r="C289">
+        <f>600+144</f>
+        <v>744</v>
+      </c>
+      <c r="D289">
+        <v>161</v>
+      </c>
+      <c r="E289">
+        <f>300+180+44</f>
+        <v>524</v>
+      </c>
+      <c r="F289">
+        <v>91</v>
+      </c>
+      <c r="G289">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>531</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="0"/>
+        <v>586.75</v>
+      </c>
+      <c r="C290">
+        <v>780</v>
+      </c>
+      <c r="D290">
+        <v>900</v>
+      </c>
+      <c r="E290">
+        <v>900</v>
+      </c>
+      <c r="F290">
+        <f>300+120+56</f>
+        <v>476</v>
+      </c>
+      <c r="G290">
+        <v>60</v>
+      </c>
+      <c r="H290">
+        <v>383</v>
+      </c>
+      <c r="I290">
+        <f>300+120+58</f>
+        <v>478</v>
+      </c>
+      <c r="J290">
+        <f>600+60+57</f>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -26938,11 +28656,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
-  <dimension ref="A1:X1178"/>
+  <dimension ref="A1:X1177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P274" sqref="P274"/>
+    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O280" sqref="O280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26985,10 +28703,10 @@
       <c r="O1" s="9"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>512</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>513</v>
       </c>
       <c r="S1" s="9" t="s">
         <v>259</v>
@@ -27046,7 +28764,7 @@
         <v>271</v>
       </c>
       <c r="P2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
@@ -27062,11 +28780,11 @@
       <c r="V2" t="s">
         <v>273</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" t="s">
         <v>261</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -27074,13 +28792,55 @@
         <f>Control!A1</f>
         <v>Khaos Williams</v>
       </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>183</v>
+      </c>
+      <c r="D3">
+        <v>196</v>
+      </c>
+      <c r="E3">
+        <v>0.47</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.13</v>
+      </c>
+      <c r="H3">
+        <v>0.25</v>
+      </c>
+      <c r="I3">
+        <v>0.4</v>
+      </c>
+      <c r="J3">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="8">
+        <v>5.36</v>
+      </c>
+      <c r="L3" s="8">
+        <v>5.19</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.6</v>
+      </c>
       <c r="S3">
         <f>Control!B1</f>
         <v>37.875</v>
       </c>
       <c r="T3">
         <f>'Ctrl pct'!B1</f>
-        <v>6.8738656987295824E-2</v>
+        <v>6.8120503597122309E-2</v>
       </c>
       <c r="U3">
         <f>Controlled!B1</f>
@@ -27088,13 +28848,15 @@
       </c>
       <c r="V3">
         <f>'Controlled pct'!B1</f>
-        <v>4.0935672514619888E-2</v>
+        <v>4.0567545963229416E-2</v>
       </c>
       <c r="W3">
         <f>'Fight Time'!B1</f>
-        <v>551</v>
-      </c>
-      <c r="X3" s="7"/>
+        <v>556</v>
+      </c>
+      <c r="X3" s="7">
+        <v>-1</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
@@ -29098,7 +30860,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f>Control!A79</f>
         <v>Armen Petrosyan</v>
@@ -29124,7 +30886,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f>Control!A80</f>
         <v>Rei Tsuruya</v>
@@ -29150,18 +30912,60 @@
         <v>620</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f>Control!A81</f>
         <v>Joshua Van</v>
       </c>
+      <c r="B83">
+        <v>23</v>
+      </c>
+      <c r="C83">
+        <v>165</v>
+      </c>
+      <c r="D83">
+        <v>165</v>
+      </c>
+      <c r="E83">
+        <v>0.46</v>
+      </c>
+      <c r="F83">
+        <v>0.5</v>
+      </c>
+      <c r="G83">
+        <v>0.15</v>
+      </c>
+      <c r="H83">
+        <v>0.5</v>
+      </c>
+      <c r="I83">
+        <v>0.38</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="L83" s="8">
+        <v>5.24</v>
+      </c>
+      <c r="P83">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q83">
+        <v>0.63</v>
+      </c>
+      <c r="R83">
+        <v>0.8</v>
+      </c>
       <c r="S83">
         <f>Control!B81</f>
         <v>35.714285714285715</v>
       </c>
       <c r="T83">
         <f>'Ctrl pct'!B81</f>
-        <v>4.469873055605221E-2</v>
+        <v>4.3929010718678614E-2</v>
       </c>
       <c r="U83">
         <f>Controlled!B81</f>
@@ -29169,14 +30973,17 @@
       </c>
       <c r="V83">
         <f>'Controlled pct'!B81</f>
-        <v>0.16824602181298048</v>
+        <v>0.1653487963451063</v>
       </c>
       <c r="W83">
         <f>'Fight Time'!B81</f>
-        <v>799</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+        <v>813</v>
+      </c>
+      <c r="X83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f>Control!A82</f>
         <v>Rizvan Kuniev</v>
@@ -29202,7 +31009,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f>Control!A83</f>
         <v>Curtis Blaydes</v>
@@ -29228,7 +31035,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f>Control!A84</f>
         <v>Mauricio Ruffy</v>
@@ -29254,7 +31061,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f>Control!A85</f>
         <v>Bobby Green</v>
@@ -29280,7 +31087,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f>Control!A86</f>
         <v>Iasmin Lucindo</v>
@@ -29306,7 +31113,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f>Control!A87</f>
         <v>Amanda Lemos</v>
@@ -29332,7 +31139,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f>Control!A88</f>
         <v>Ignacio Bahamondes</v>
@@ -29358,7 +31165,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f>Control!A89</f>
         <v>Jalin Turner</v>
@@ -29384,7 +31191,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f>Control!A90</f>
         <v>Justin Gaethje</v>
@@ -29410,7 +31217,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f>Control!A91</f>
         <v>Rafael Fiziev</v>
@@ -29436,7 +31243,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f>Control!A92</f>
         <v>Magomed Ankalaev</v>
@@ -29462,7 +31269,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f>Control!A93</f>
         <v>Alex Pereira</v>
@@ -29488,7 +31295,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f>Control!A94</f>
         <v>Yuneisy Duben</v>
@@ -29584,6 +31391,18 @@
       <c r="N98">
         <v>0.22</v>
       </c>
+      <c r="O98">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0.85</v>
+      </c>
       <c r="S98">
         <f>Control!B96</f>
         <v>115.33333333333333</v>
@@ -29795,25 +31614,70 @@
         <f>Control!A104</f>
         <v>Brendson Ribeiro</v>
       </c>
+      <c r="B106">
+        <v>28</v>
+      </c>
+      <c r="C106">
+        <v>191</v>
+      </c>
+      <c r="D106">
+        <v>206</v>
+      </c>
+      <c r="E106">
+        <v>0.53</v>
+      </c>
+      <c r="F106">
+        <v>0.43</v>
+      </c>
+      <c r="G106">
+        <v>0.41</v>
+      </c>
+      <c r="H106">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I106">
+        <v>0.06</v>
+      </c>
+      <c r="J106">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K106" s="8">
+        <v>3.34</v>
+      </c>
+      <c r="L106" s="8">
+        <v>3.72</v>
+      </c>
+      <c r="P106">
+        <v>1.07</v>
+      </c>
+      <c r="Q106">
+        <v>0.42</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
       <c r="S106">
         <f>Control!B104</f>
-        <v>30.75</v>
+        <v>27.4</v>
       </c>
       <c r="T106">
         <f>'Ctrl pct'!B104</f>
-        <v>5.7800751879699248E-2</v>
+        <v>5.4473161033797214E-2</v>
       </c>
       <c r="U106">
         <f>Controlled!B104</f>
-        <v>154.5</v>
+        <v>133.4</v>
       </c>
       <c r="V106">
         <f>'Controlled pct'!B104</f>
-        <v>0.29041353383458646</v>
+        <v>0.26520874751491053</v>
       </c>
       <c r="W106">
         <f>'Fight Time'!B104</f>
-        <v>532</v>
+        <v>503</v>
+      </c>
+      <c r="X106">
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.3">
@@ -29925,25 +31789,70 @@
         <f>Control!A109</f>
         <v>Waldo Cortes Acosta</v>
       </c>
+      <c r="B111">
+        <v>33</v>
+      </c>
+      <c r="C111">
+        <v>193</v>
+      </c>
+      <c r="D111">
+        <v>198</v>
+      </c>
+      <c r="E111">
+        <v>0.46</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0.08</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0.46</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" s="8">
+        <v>5.76</v>
+      </c>
+      <c r="L111" s="8">
+        <v>3.47</v>
+      </c>
+      <c r="P111">
+        <v>0.49</v>
+      </c>
+      <c r="Q111">
+        <v>0.5</v>
+      </c>
+      <c r="R111">
+        <v>0.66</v>
+      </c>
       <c r="S111">
         <f>Control!B109</f>
-        <v>106</v>
+        <v>99.875</v>
       </c>
       <c r="T111">
         <f>'Ctrl pct'!B109</f>
-        <v>0.15142857142857144</v>
+        <v>0.14559037900874636</v>
       </c>
       <c r="U111">
         <f>Controlled!B109</f>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V111">
         <f>'Controlled pct'!B109</f>
-        <v>8.7142857142857147E-2</v>
+        <v>7.8717201166180764E-2</v>
       </c>
       <c r="W111">
         <f>'Fight Time'!B109</f>
-        <v>700</v>
+        <v>686</v>
+      </c>
+      <c r="X111">
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.3">
@@ -30097,21 +32006,30 @@
       <c r="O116">
         <v>0.14000000000000001</v>
       </c>
+      <c r="P116">
+        <v>0.66</v>
+      </c>
+      <c r="Q116">
+        <v>0.33</v>
+      </c>
+      <c r="R116">
+        <v>0.39</v>
+      </c>
       <c r="S116">
         <f>Control!B114</f>
-        <v>114</v>
+        <v>102.6</v>
       </c>
       <c r="T116">
         <f>'Ctrl pct'!B114</f>
-        <v>0.16618075801749271</v>
+        <v>0.14956268221574343</v>
       </c>
       <c r="U116">
         <f>Controlled!B114</f>
-        <v>346.22222222222223</v>
+        <v>320.3</v>
       </c>
       <c r="V116">
         <f>'Controlled pct'!B114</f>
-        <v>0.50469711694201491</v>
+        <v>0.46690962099125366</v>
       </c>
       <c r="W116">
         <f>'Fight Time'!B114</f>
@@ -30722,7 +32640,7 @@
     <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f>Control!A138</f>
-        <v>Thainara</v>
+        <v>Alexia Thainara</v>
       </c>
       <c r="S140">
         <f>Control!B138</f>
@@ -30748,7 +32666,7 @@
     <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f>Control!A139</f>
-        <v>McCann</v>
+        <v>Molly McCann</v>
       </c>
       <c r="S141">
         <f>Control!B139</f>
@@ -30774,23 +32692,65 @@
     <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f>Control!A140</f>
-        <v>Alexia Holland</v>
+        <v>Kevin Holland</v>
+      </c>
+      <c r="B142">
+        <v>32</v>
+      </c>
+      <c r="C142">
+        <v>191</v>
+      </c>
+      <c r="D142">
+        <v>206</v>
+      </c>
+      <c r="E142">
+        <v>0.48</v>
+      </c>
+      <c r="F142">
+        <v>0.15</v>
+      </c>
+      <c r="G142">
+        <v>0.33</v>
+      </c>
+      <c r="H142">
+        <v>0.31</v>
+      </c>
+      <c r="I142">
+        <v>0.19</v>
+      </c>
+      <c r="J142">
+        <v>0.54</v>
+      </c>
+      <c r="K142" s="8">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="L142" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="P142">
+        <v>0.77</v>
+      </c>
+      <c r="Q142">
+        <v>0.37</v>
+      </c>
+      <c r="R142">
+        <v>0.54</v>
       </c>
       <c r="S142">
         <f>Control!B140</f>
-        <v>83.541666666666671</v>
+        <v>82.76</v>
       </c>
       <c r="T142">
         <f>'Ctrl pct'!B140</f>
-        <v>0.13518069039913702</v>
+        <v>0.13391585760517799</v>
       </c>
       <c r="U142">
         <f>Controlled!B140</f>
-        <v>222.88</v>
+        <v>236.19230769230768</v>
       </c>
       <c r="V142">
         <f>'Controlled pct'!B140</f>
-        <v>0.36064724919093849</v>
+        <v>0.38218820014936516</v>
       </c>
       <c r="W142">
         <f>'Fight Time'!B140</f>
@@ -31265,7 +33225,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f>Control!A159</f>
         <v>Edgar Chairez</v>
@@ -31291,7 +33251,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f>Control!A160</f>
         <v>Kevin Borjas</v>
@@ -31317,7 +33277,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f>Control!A161</f>
         <v>Ronaldo Rodriguez</v>
@@ -31343,7 +33303,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f>Control!A162</f>
         <v>Saimon Oliveira</v>
@@ -31369,7 +33329,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f>Control!A163</f>
         <v>David Martinez</v>
@@ -31395,7 +33355,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f>Control!A164</f>
         <v>Vince Morales</v>
@@ -31421,7 +33381,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f>Control!A165</f>
         <v>Raul Rosas</v>
@@ -31447,11 +33407,53 @@
         <v>560</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f>Control!A166</f>
         <v>Joe Pyfer</v>
       </c>
+      <c r="B168">
+        <v>28</v>
+      </c>
+      <c r="C168">
+        <v>188</v>
+      </c>
+      <c r="D168">
+        <v>191</v>
+      </c>
+      <c r="E168">
+        <v>0.69</v>
+      </c>
+      <c r="F168">
+        <v>0.33</v>
+      </c>
+      <c r="G168">
+        <v>0.23</v>
+      </c>
+      <c r="H168">
+        <v>0.33</v>
+      </c>
+      <c r="I168">
+        <v>0.08</v>
+      </c>
+      <c r="J168">
+        <v>0.33</v>
+      </c>
+      <c r="K168" s="8">
+        <v>3.72</v>
+      </c>
+      <c r="L168" s="8">
+        <v>3.48</v>
+      </c>
+      <c r="P168">
+        <v>1.45</v>
+      </c>
+      <c r="Q168">
+        <v>0.41</v>
+      </c>
+      <c r="R168">
+        <v>0.5</v>
+      </c>
       <c r="S168">
         <f>Control!B166</f>
         <v>56.428571428571431</v>
@@ -31472,12 +33474,57 @@
         <f>'Fight Time'!B166</f>
         <v>443</v>
       </c>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f>Control!A167</f>
         <v>Kelvin Gastelum</v>
       </c>
+      <c r="B169">
+        <v>33</v>
+      </c>
+      <c r="C169">
+        <v>175</v>
+      </c>
+      <c r="D169">
+        <v>182</v>
+      </c>
+      <c r="E169">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H169">
+        <v>0.33</v>
+      </c>
+      <c r="I169">
+        <v>0.44</v>
+      </c>
+      <c r="J169">
+        <v>0.67</v>
+      </c>
+      <c r="K169" s="8">
+        <v>3.74</v>
+      </c>
+      <c r="L169" s="8">
+        <v>3.48</v>
+      </c>
+      <c r="P169">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q169">
+        <v>0.34</v>
+      </c>
+      <c r="R169">
+        <v>0.59</v>
+      </c>
       <c r="S169">
         <f>Control!B167</f>
         <v>115.30434782608695</v>
@@ -31498,8 +33545,11 @@
         <f>'Fight Time'!B167</f>
         <v>817</v>
       </c>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f>Control!A168</f>
         <v>Drew Dober</v>
@@ -31525,7 +33575,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f>Control!A169</f>
         <v>Manuel Torres</v>
@@ -31551,7 +33601,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
         <f>Control!A170</f>
         <v>Steve Erceg</v>
@@ -31577,7 +33627,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
         <f>Control!A171</f>
         <v>Brandon Moreno</v>
@@ -31603,7 +33653,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
         <f>Control!A172</f>
         <v>Talita Alencar</v>
@@ -31629,7 +33679,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f>Control!A173</f>
         <v>Vanessa Demopoulos</v>
@@ -31655,7 +33705,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f>Control!A174</f>
         <v>Pedro Falcao</v>
@@ -33834,28 +35884,37 @@
       <c r="O258">
         <v>0.15</v>
       </c>
+      <c r="P258">
+        <v>1</v>
+      </c>
+      <c r="Q258">
+        <v>0.4</v>
+      </c>
+      <c r="R258">
+        <v>1</v>
+      </c>
       <c r="S258">
         <f>Control!B256</f>
-        <v>197.5</v>
+        <v>141.66666666666666</v>
       </c>
       <c r="T258">
         <f>'Ctrl pct'!B256</f>
-        <v>0.21944444444444444</v>
+        <v>0.15740740740740738</v>
       </c>
       <c r="U258">
         <f>Controlled!B256</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="V258">
         <f>'Controlled pct'!B256</f>
-        <v>5.5555555555555558E-3</v>
+        <v>1.5555555555555555E-2</v>
       </c>
       <c r="W258">
         <f>'Fight Time'!B256</f>
         <v>900</v>
       </c>
       <c r="X258">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:24" x14ac:dyDescent="0.3">
@@ -33905,28 +35964,37 @@
       <c r="O259">
         <v>0.09</v>
       </c>
+      <c r="P259">
+        <v>0.33</v>
+      </c>
+      <c r="Q259">
+        <v>0.12</v>
+      </c>
+      <c r="R259">
+        <v>0.88</v>
+      </c>
       <c r="S259">
         <f>Control!B257</f>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="T259">
         <f>'Ctrl pct'!B257</f>
-        <v>5.7777777777777775E-2</v>
+        <v>5.2222222222222225E-2</v>
       </c>
       <c r="U259">
         <f>Controlled!B257</f>
-        <v>60.666666666666664</v>
+        <v>53</v>
       </c>
       <c r="V259">
         <f>'Controlled pct'!B257</f>
-        <v>6.7407407407407402E-2</v>
+        <v>5.8888888888888886E-2</v>
       </c>
       <c r="W259">
         <f>'Fight Time'!B257</f>
         <v>900</v>
       </c>
       <c r="X259">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.3">
@@ -33976,6 +36044,15 @@
       <c r="O260">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="P260">
+        <v>2.11</v>
+      </c>
+      <c r="Q260">
+        <v>0.75</v>
+      </c>
+      <c r="R260">
+        <v>0.85</v>
+      </c>
       <c r="S260">
         <f>Control!B258</f>
         <v>62.666666666666664</v>
@@ -33997,7 +36074,7 @@
         <v>427</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.3">
@@ -34047,28 +36124,37 @@
       <c r="O261">
         <v>0.52</v>
       </c>
+      <c r="P261">
+        <v>2.19</v>
+      </c>
+      <c r="Q261">
+        <v>0.25</v>
+      </c>
+      <c r="R261">
+        <v>0.3</v>
+      </c>
       <c r="S261">
         <f>Control!B259</f>
-        <v>215.14285714285714</v>
+        <v>199.125</v>
       </c>
       <c r="T261">
         <f>'Ctrl pct'!B259</f>
-        <v>0.52219140083217752</v>
+        <v>0.4833131067961165</v>
       </c>
       <c r="U261">
         <f>Controlled!B259</f>
-        <v>136.85714285714286</v>
+        <v>119.75</v>
       </c>
       <c r="V261">
         <f>'Controlled pct'!B259</f>
-        <v>0.33217753120665744</v>
+        <v>0.29065533980582525</v>
       </c>
       <c r="W261">
         <f>'Fight Time'!B259</f>
         <v>412</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.3">
@@ -34260,28 +36346,37 @@
       <c r="O264">
         <v>0.09</v>
       </c>
+      <c r="P264">
+        <v>2.37</v>
+      </c>
+      <c r="Q264">
+        <v>0.38</v>
+      </c>
+      <c r="R264">
+        <v>0.7</v>
+      </c>
       <c r="S264">
         <f>Control!B262</f>
-        <v>195.27272727272728</v>
+        <v>181.75</v>
       </c>
       <c r="T264">
         <f>'Ctrl pct'!B262</f>
-        <v>0.33266222704042125</v>
+        <v>0.30962521294718909</v>
       </c>
       <c r="U264">
         <f>Controlled!B262</f>
-        <v>148.90909090909091</v>
+        <v>192</v>
       </c>
       <c r="V264">
         <f>'Controlled pct'!B262</f>
-        <v>0.25367817872076814</v>
+        <v>0.3270868824531516</v>
       </c>
       <c r="W264">
         <f>'Fight Time'!B262</f>
         <v>587</v>
       </c>
       <c r="X264">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:24" x14ac:dyDescent="0.3">
@@ -34331,28 +36426,37 @@
       <c r="O265">
         <v>0.09</v>
       </c>
+      <c r="P265">
+        <v>1.39</v>
+      </c>
+      <c r="Q265">
+        <v>0.44</v>
+      </c>
+      <c r="R265">
+        <v>0.88</v>
+      </c>
       <c r="S265">
         <f>Control!B263</f>
-        <v>262.41666666666669</v>
+        <v>293.46153846153845</v>
       </c>
       <c r="T265">
         <f>'Ctrl pct'!B263</f>
-        <v>0.28492580528411149</v>
+        <v>0.31863359224922744</v>
       </c>
       <c r="U265">
         <f>Controlled!B263</f>
-        <v>183.66666666666666</v>
+        <v>172.07692307692307</v>
       </c>
       <c r="V265">
         <f>'Controlled pct'!B263</f>
-        <v>0.19942091929062611</v>
+        <v>0.18683705002923243</v>
       </c>
       <c r="W265">
         <f>'Fight Time'!B263</f>
         <v>921</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:24" x14ac:dyDescent="0.3">
@@ -34402,28 +36506,37 @@
       <c r="O266">
         <v>0.21</v>
       </c>
+      <c r="P266">
+        <v>1.55</v>
+      </c>
+      <c r="Q266">
+        <v>0.26</v>
+      </c>
+      <c r="R266">
+        <v>0.16</v>
+      </c>
       <c r="S266">
         <f>Control!B264</f>
-        <v>242</v>
+        <v>287.25</v>
       </c>
       <c r="T266">
         <f>'Ctrl pct'!B264</f>
-        <v>0.33425414364640882</v>
+        <v>0.39675414364640882</v>
       </c>
       <c r="U266">
         <f>Controlled!B264</f>
-        <v>318</v>
+        <v>333.5</v>
       </c>
       <c r="V266">
         <f>'Controlled pct'!B264</f>
-        <v>0.43922651933701656</v>
+        <v>0.4606353591160221</v>
       </c>
       <c r="W266">
         <f>'Fight Time'!B264</f>
         <v>724</v>
       </c>
       <c r="X266">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:24" x14ac:dyDescent="0.3">
@@ -34473,28 +36586,37 @@
       <c r="O267">
         <v>0.19</v>
       </c>
+      <c r="P267">
+        <v>1.77</v>
+      </c>
+      <c r="Q267">
+        <v>0.33</v>
+      </c>
+      <c r="R267">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="S267">
         <f>Control!B265</f>
-        <v>111.5</v>
+        <v>165.2</v>
       </c>
       <c r="T267">
         <f>'Ctrl pct'!B265</f>
-        <v>0.21905697445972494</v>
+        <v>0.32455795677799604</v>
       </c>
       <c r="U267">
         <f>Controlled!B265</f>
-        <v>165</v>
+        <v>216.6</v>
       </c>
       <c r="V267">
         <f>'Controlled pct'!B265</f>
-        <v>0.32416502946954812</v>
+        <v>0.4255402750491159</v>
       </c>
       <c r="W267">
         <f>'Fight Time'!B265</f>
         <v>509</v>
       </c>
       <c r="X267">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.3">
@@ -34544,28 +36666,37 @@
       <c r="O268">
         <v>0.06</v>
       </c>
+      <c r="P268">
+        <v>0.92</v>
+      </c>
+      <c r="Q268">
+        <v>0.12</v>
+      </c>
+      <c r="R268">
+        <v>0.45</v>
+      </c>
       <c r="S268">
         <f>Control!B266</f>
-        <v>93.5</v>
+        <v>119.77777777777777</v>
       </c>
       <c r="T268">
         <f>'Ctrl pct'!B266</f>
-        <v>0.21494252873563219</v>
+        <v>0.27535121328224776</v>
       </c>
       <c r="U268">
         <f>Controlled!B266</f>
-        <v>43.625</v>
+        <v>47.555555555555557</v>
       </c>
       <c r="V268">
         <f>'Controlled pct'!B266</f>
-        <v>0.10028735632183908</v>
+        <v>0.10932311621966795</v>
       </c>
       <c r="W268">
         <f>'Fight Time'!B266</f>
         <v>435</v>
       </c>
       <c r="X268">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="269" spans="1:24" x14ac:dyDescent="0.3">
@@ -34615,28 +36746,37 @@
       <c r="O269">
         <v>0.15</v>
       </c>
+      <c r="P269">
+        <v>3.5</v>
+      </c>
+      <c r="Q269">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R269">
+        <v>0.33</v>
+      </c>
       <c r="S269">
         <f>Control!B267</f>
-        <v>71.400000000000006</v>
+        <v>72.666666666666671</v>
       </c>
       <c r="T269">
         <f>'Ctrl pct'!B267</f>
-        <v>0.27782101167315176</v>
+        <v>0.28274967574578469</v>
       </c>
       <c r="U269">
         <f>Controlled!B267</f>
-        <v>63</v>
+        <v>107.5</v>
       </c>
       <c r="V269">
         <f>'Controlled pct'!B267</f>
-        <v>0.24513618677042801</v>
+        <v>0.41828793774319067</v>
       </c>
       <c r="W269">
         <f>'Fight Time'!B267</f>
         <v>257</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:24" x14ac:dyDescent="0.3">
@@ -34686,28 +36826,37 @@
       <c r="O270">
         <v>0.16</v>
       </c>
+      <c r="P270">
+        <v>2.68</v>
+      </c>
+      <c r="Q270">
+        <v>0.33</v>
+      </c>
+      <c r="R270">
+        <v>1</v>
+      </c>
       <c r="S270">
         <f>Control!B268</f>
-        <v>199</v>
+        <v>149.25</v>
       </c>
       <c r="T270">
         <f>'Ctrl pct'!B268</f>
-        <v>0.35535714285714287</v>
+        <v>0.26651785714285714</v>
       </c>
       <c r="U270">
         <f>Controlled!B268</f>
-        <v>20.333333333333332</v>
+        <v>22.75</v>
       </c>
       <c r="V270">
         <f>'Controlled pct'!B268</f>
-        <v>3.6309523809523805E-2</v>
+        <v>4.0625000000000001E-2</v>
       </c>
       <c r="W270">
         <f>'Fight Time'!B268</f>
         <v>560</v>
       </c>
       <c r="X270">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:24" x14ac:dyDescent="0.3">
@@ -34757,28 +36906,37 @@
       <c r="O271">
         <v>0.18</v>
       </c>
+      <c r="P271">
+        <v>0.33</v>
+      </c>
+      <c r="Q271">
+        <v>0.25</v>
+      </c>
+      <c r="R271">
+        <v>0.62</v>
+      </c>
       <c r="S271">
         <f>Control!B269</f>
-        <v>55.6</v>
+        <v>53.272727272727273</v>
       </c>
       <c r="T271">
         <f>'Ctrl pct'!B269</f>
-        <v>8.7147335423197497E-2</v>
+        <v>8.3499572527785698E-2</v>
       </c>
       <c r="U271">
         <f>Controlled!B269</f>
-        <v>24.2</v>
+        <v>22</v>
       </c>
       <c r="V271">
         <f>'Controlled pct'!B269</f>
-        <v>3.793103448275862E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="W271">
         <f>'Fight Time'!B269</f>
         <v>638</v>
       </c>
       <c r="X271">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:24" x14ac:dyDescent="0.3">
@@ -34839,26 +36997,26 @@
       </c>
       <c r="S272">
         <f>Control!B270</f>
-        <v>234.8</v>
+        <v>215.54545454545453</v>
       </c>
       <c r="T272">
         <f>'Ctrl pct'!B270</f>
-        <v>0.31772665764546687</v>
+        <v>0.29167179234838231</v>
       </c>
       <c r="U272">
         <f>Controlled!B270</f>
-        <v>69.599999999999994</v>
+        <v>111</v>
       </c>
       <c r="V272">
         <f>'Controlled pct'!B270</f>
-        <v>9.4181326116373476E-2</v>
+        <v>0.15020297699594046</v>
       </c>
       <c r="W272">
         <f>'Fight Time'!B270</f>
         <v>739</v>
       </c>
       <c r="X272">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:24" x14ac:dyDescent="0.3">
@@ -34919,19 +37077,19 @@
       </c>
       <c r="S273">
         <f>Control!B271</f>
-        <v>401.5</v>
+        <v>412.72727272727275</v>
       </c>
       <c r="T273">
         <f>'Ctrl pct'!B271</f>
-        <v>0.54403794037940378</v>
+        <v>0.5592510470559251</v>
       </c>
       <c r="U273">
         <f>Controlled!B271</f>
-        <v>26.8</v>
+        <v>26.454545454545453</v>
       </c>
       <c r="V273">
         <f>'Controlled pct'!B271</f>
-        <v>3.6314363143631435E-2</v>
+        <v>3.5846267553584624E-2</v>
       </c>
       <c r="W273">
         <f>'Fight Time'!B271</f>
@@ -35084,9 +37242,60 @@
       </c>
     </row>
     <row r="276" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A276">
+      <c r="A276" t="str">
         <f>Control!A274</f>
-        <v>0</v>
+        <v>Mark Choinski</v>
+      </c>
+      <c r="B276">
+        <v>29</v>
+      </c>
+      <c r="C276">
+        <v>173</v>
+      </c>
+      <c r="D276">
+        <v>175</v>
+      </c>
+      <c r="E276">
+        <v>0.13</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>0.63</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>0.25</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276" s="8">
+        <v>5</v>
+      </c>
+      <c r="L276" s="8">
+        <v>5</v>
+      </c>
+      <c r="M276">
+        <v>1</v>
+      </c>
+      <c r="N276">
+        <v>0</v>
+      </c>
+      <c r="O276">
+        <v>0</v>
+      </c>
+      <c r="P276">
+        <v>0</v>
+      </c>
+      <c r="Q276">
+        <v>0</v>
+      </c>
+      <c r="R276">
+        <v>1</v>
       </c>
       <c r="S276">
         <f>Control!B274</f>
@@ -35106,65 +37315,209 @@
       </c>
       <c r="W276">
         <f>'Fight Time'!B274</f>
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="X276">
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A277">
+      <c r="A277" t="str">
         <f>Control!A275</f>
-        <v>0</v>
+        <v>Yanal Ashmouz</v>
+      </c>
+      <c r="B277">
+        <v>30</v>
+      </c>
+      <c r="C277">
+        <v>175</v>
+      </c>
+      <c r="D277">
+        <v>173</v>
+      </c>
+      <c r="E277">
+        <v>0.5</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>0.25</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>0.25</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277" s="8">
+        <v>2.94</v>
+      </c>
+      <c r="L277" s="8">
+        <v>4.54</v>
+      </c>
+      <c r="P277">
+        <v>4.8</v>
+      </c>
+      <c r="Q277">
+        <v>0.5</v>
+      </c>
+      <c r="R277">
+        <v>0.6</v>
       </c>
       <c r="S277">
         <f>Control!B275</f>
-        <v>0</v>
+        <v>167.66666666666666</v>
       </c>
       <c r="T277">
         <f>'Ctrl pct'!B275</f>
-        <v>0</v>
+        <v>0.26826666666666665</v>
       </c>
       <c r="U277">
         <f>Controlled!B275</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V277">
         <f>'Controlled pct'!B275</f>
-        <v>0</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="W277">
         <f>'Fight Time'!B275</f>
-        <v>0</v>
+        <v>625</v>
+      </c>
+      <c r="X277">
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A278">
+      <c r="A278" t="str">
         <f>Control!A276</f>
-        <v>0</v>
+        <v>Quillan Salkilld</v>
+      </c>
+      <c r="B278">
+        <v>25</v>
+      </c>
+      <c r="C278">
+        <v>183</v>
+      </c>
+      <c r="D278">
+        <v>191</v>
+      </c>
+      <c r="E278">
+        <v>0.38</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0.38</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>0.25</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278" s="8">
+        <v>5.68</v>
+      </c>
+      <c r="L278" s="8">
+        <v>4.18</v>
+      </c>
+      <c r="P278">
+        <v>8.81</v>
+      </c>
+      <c r="Q278">
+        <v>0.4</v>
+      </c>
+      <c r="R278">
+        <v>1</v>
       </c>
       <c r="S278">
         <f>Control!B276</f>
-        <v>0</v>
+        <v>230.5</v>
       </c>
       <c r="T278">
         <f>'Ctrl pct'!B276</f>
-        <v>0</v>
+        <v>0.50163220892274207</v>
       </c>
       <c r="U278">
         <f>Controlled!B276</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="V278">
         <f>'Controlled pct'!B276</f>
-        <v>0</v>
+        <v>0.11316648531011969</v>
       </c>
       <c r="W278">
         <f>'Fight Time'!B276</f>
-        <v>0</v>
+        <v>459.5</v>
+      </c>
+      <c r="X278">
+        <v>8</v>
       </c>
     </row>
     <row r="279" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A279">
+      <c r="A279" t="str">
         <f>Control!A277</f>
-        <v>0</v>
+        <v>JooSang Yoo</v>
+      </c>
+      <c r="B279">
+        <v>31</v>
+      </c>
+      <c r="C279">
+        <v>175</v>
+      </c>
+      <c r="D279">
+        <v>181</v>
+      </c>
+      <c r="E279">
+        <v>0.38</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0.13</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>0.5</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279" s="8">
+        <v>5</v>
+      </c>
+      <c r="L279" s="8">
+        <v>5</v>
+      </c>
+      <c r="M279">
+        <v>1</v>
+      </c>
+      <c r="N279">
+        <v>0</v>
+      </c>
+      <c r="O279">
+        <v>0</v>
+      </c>
+      <c r="P279">
+        <v>0</v>
+      </c>
+      <c r="Q279">
+        <v>0</v>
+      </c>
+      <c r="R279">
+        <v>1</v>
       </c>
       <c r="S279">
         <f>Control!B277</f>
@@ -35184,143 +37537,422 @@
       </c>
       <c r="W279">
         <f>'Fight Time'!B277</f>
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="X279">
+        <v>11</v>
       </c>
     </row>
     <row r="280" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A280">
+      <c r="A280" t="str">
         <f>Control!A278</f>
-        <v>0</v>
+        <v>Wang Cong</v>
+      </c>
+      <c r="B280">
+        <v>33</v>
+      </c>
+      <c r="C280">
+        <v>168</v>
+      </c>
+      <c r="D280">
+        <v>169</v>
+      </c>
+      <c r="E280">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280">
+        <v>0.43</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280" s="8">
+        <v>6.38</v>
+      </c>
+      <c r="L280" s="8">
+        <v>1.86</v>
+      </c>
+      <c r="P280">
+        <v>1.61</v>
+      </c>
+      <c r="Q280">
+        <v>0.75</v>
+      </c>
+      <c r="R280">
+        <v>1</v>
       </c>
       <c r="S280">
         <f>Control!B278</f>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="T280">
         <f>'Ctrl pct'!B278</f>
-        <v>0</v>
+        <v>3.9800995024875619E-3</v>
       </c>
       <c r="U280">
         <f>Controlled!B278</f>
-        <v>0</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="V280">
         <f>'Controlled pct'!B278</f>
-        <v>0</v>
+        <v>2.228855721393035E-2</v>
       </c>
       <c r="W280">
         <f>'Fight Time'!B278</f>
-        <v>0</v>
+        <v>418.75</v>
+      </c>
+      <c r="X280">
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A281">
+      <c r="A281" t="str">
         <f>Control!A279</f>
-        <v>0</v>
+        <v>Ariane da Silva</v>
+      </c>
+      <c r="B281">
+        <v>31</v>
+      </c>
+      <c r="C281">
+        <v>168</v>
+      </c>
+      <c r="D281">
+        <v>170</v>
+      </c>
+      <c r="E281">
+        <v>0.35</v>
+      </c>
+      <c r="F281">
+        <v>0.4</v>
+      </c>
+      <c r="G281">
+        <v>0.24</v>
+      </c>
+      <c r="H281">
+        <v>0.1</v>
+      </c>
+      <c r="I281">
+        <v>0.41</v>
+      </c>
+      <c r="J281">
+        <v>0.5</v>
+      </c>
+      <c r="K281" s="8">
+        <v>4.04</v>
+      </c>
+      <c r="L281" s="8">
+        <v>3.87</v>
+      </c>
+      <c r="P281">
+        <v>0.52</v>
+      </c>
+      <c r="Q281">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R281">
+        <v>0.68</v>
       </c>
       <c r="S281">
         <f>Control!B279</f>
-        <v>0</v>
+        <v>61.1</v>
       </c>
       <c r="T281">
         <f>'Ctrl pct'!B279</f>
-        <v>0</v>
+        <v>9.0007365578197884E-2</v>
       </c>
       <c r="U281">
         <f>Controlled!B279</f>
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="V281">
         <f>'Controlled pct'!B279</f>
-        <v>0</v>
+        <v>0.29167689663638596</v>
       </c>
       <c r="W281">
         <f>'Fight Time'!B279</f>
-        <v>0</v>
+        <v>678.83333333333337</v>
+      </c>
+      <c r="X281">
+        <v>-2</v>
       </c>
     </row>
     <row r="282" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A282">
+      <c r="A282" t="str">
         <f>Control!A280</f>
-        <v>0</v>
+        <v>Serghei Spivac</v>
+      </c>
+      <c r="B282">
+        <v>30</v>
+      </c>
+      <c r="C282">
+        <v>190</v>
+      </c>
+      <c r="D282">
+        <v>198</v>
+      </c>
+      <c r="E282">
+        <v>0.41</v>
+      </c>
+      <c r="F282">
+        <v>0.8</v>
+      </c>
+      <c r="G282">
+        <v>0.47</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>0.12</v>
+      </c>
+      <c r="J282">
+        <v>0.2</v>
+      </c>
+      <c r="K282" s="8">
+        <v>3.49</v>
+      </c>
+      <c r="L282" s="8">
+        <v>3.77</v>
+      </c>
+      <c r="P282">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="Q282">
+        <v>0.65</v>
+      </c>
+      <c r="R282">
+        <v>0.63</v>
       </c>
       <c r="S282">
         <f>Control!B280</f>
-        <v>0</v>
+        <v>188.6</v>
       </c>
       <c r="T282">
         <f>'Ctrl pct'!B280</f>
-        <v>0</v>
+        <v>0.42788830715532283</v>
       </c>
       <c r="U282">
         <f>Controlled!B280</f>
-        <v>0</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="V282">
         <f>'Controlled pct'!B280</f>
-        <v>0</v>
+        <v>9.1431064572425821E-2</v>
       </c>
       <c r="W282">
         <f>'Fight Time'!B280</f>
-        <v>0</v>
+        <v>440.76923076923077</v>
+      </c>
+      <c r="X282">
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A283">
+      <c r="A283" t="str">
         <f>Control!A281</f>
-        <v>0</v>
+        <v>Azamat Murzakanov</v>
+      </c>
+      <c r="B283">
+        <v>36</v>
+      </c>
+      <c r="C283">
+        <v>179</v>
+      </c>
+      <c r="D283">
+        <v>182</v>
+      </c>
+      <c r="E283">
+        <v>0.71</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>0.21</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283" s="8">
+        <v>4.72</v>
+      </c>
+      <c r="L283" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="P283">
+        <v>0.62</v>
+      </c>
+      <c r="Q283">
+        <v>0.15</v>
+      </c>
+      <c r="R283">
+        <v>0.83</v>
       </c>
       <c r="S283">
         <f>Control!B281</f>
-        <v>0</v>
+        <v>63.8</v>
       </c>
       <c r="T283">
         <f>'Ctrl pct'!B281</f>
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="U283">
         <f>Controlled!B281</f>
-        <v>0</v>
+        <v>55.4</v>
       </c>
       <c r="V283">
         <f>'Controlled pct'!B281</f>
-        <v>0</v>
+        <v>9.5517241379310336E-2</v>
       </c>
       <c r="W283">
         <f>'Fight Time'!B281</f>
-        <v>0</v>
+        <v>580</v>
+      </c>
+      <c r="X283">
+        <v>14</v>
       </c>
     </row>
     <row r="284" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A284">
+      <c r="A284" t="str">
         <f>Control!A282</f>
-        <v>0</v>
+        <v>Vicente Luque</v>
+      </c>
+      <c r="B284">
+        <v>33</v>
+      </c>
+      <c r="C284">
+        <v>180</v>
+      </c>
+      <c r="D284">
+        <v>193</v>
+      </c>
+      <c r="E284">
+        <v>0.48</v>
+      </c>
+      <c r="F284">
+        <v>0.2</v>
+      </c>
+      <c r="G284">
+        <v>0.39</v>
+      </c>
+      <c r="H284">
+        <v>0.2</v>
+      </c>
+      <c r="I284">
+        <v>0.13</v>
+      </c>
+      <c r="J284">
+        <v>0.6</v>
+      </c>
+      <c r="K284" s="8">
+        <v>5.05</v>
+      </c>
+      <c r="L284" s="8">
+        <v>5.22</v>
+      </c>
+      <c r="P284">
+        <v>0.99</v>
+      </c>
+      <c r="Q284">
+        <v>0.53</v>
+      </c>
+      <c r="R284">
+        <v>0.62</v>
       </c>
       <c r="S284">
         <f>Control!B282</f>
-        <v>0</v>
+        <v>111.66666666666667</v>
       </c>
       <c r="T284">
         <f>'Ctrl pct'!B282</f>
-        <v>0</v>
+        <v>0.19352975158867708</v>
       </c>
       <c r="U284">
         <f>Controlled!B282</f>
-        <v>0</v>
+        <v>113.66666666666667</v>
       </c>
       <c r="V284">
         <f>'Controlled pct'!B282</f>
-        <v>0</v>
+        <v>0.19699595609474294</v>
       </c>
       <c r="W284">
         <f>'Fight Time'!B282</f>
-        <v>0</v>
+        <v>577</v>
+      </c>
+      <c r="X284">
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A285">
+      <c r="A285" t="str">
         <f>Control!A283</f>
-        <v>0</v>
+        <v>Patchy Mix</v>
+      </c>
+      <c r="B285">
+        <v>31</v>
+      </c>
+      <c r="C285">
+        <v>180</v>
+      </c>
+      <c r="D285">
+        <v>182</v>
+      </c>
+      <c r="E285">
+        <v>0.1</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0.65</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>0.25</v>
+      </c>
+      <c r="J285">
+        <v>1</v>
+      </c>
+      <c r="K285" s="8">
+        <v>5</v>
+      </c>
+      <c r="L285" s="8">
+        <v>5</v>
+      </c>
+      <c r="M285">
+        <v>1</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+      <c r="O285">
+        <v>0</v>
+      </c>
+      <c r="P285">
+        <v>0</v>
+      </c>
+      <c r="Q285">
+        <v>0</v>
+      </c>
+      <c r="R285">
+        <v>1</v>
       </c>
       <c r="S285">
         <f>Control!B283</f>
@@ -35340,184 +37972,498 @@
       </c>
       <c r="W285">
         <f>'Fight Time'!B283</f>
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="X285">
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A286">
+      <c r="A286" t="str">
         <f>Control!A284</f>
-        <v>0</v>
+        <v>Mario Bautista</v>
+      </c>
+      <c r="B286">
+        <v>31</v>
+      </c>
+      <c r="C286">
+        <v>175</v>
+      </c>
+      <c r="D286">
+        <v>175</v>
+      </c>
+      <c r="E286">
+        <v>0.2</v>
+      </c>
+      <c r="F286">
+        <v>0.5</v>
+      </c>
+      <c r="G286">
+        <v>0.4</v>
+      </c>
+      <c r="H286">
+        <v>0.5</v>
+      </c>
+      <c r="I286">
+        <v>0.4</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286" s="8">
+        <v>5.33</v>
+      </c>
+      <c r="L286" s="8">
+        <v>3.91</v>
+      </c>
+      <c r="P286">
+        <v>1.92</v>
+      </c>
+      <c r="Q286">
+        <v>0.33</v>
+      </c>
+      <c r="R286">
+        <v>0.66</v>
       </c>
       <c r="S286">
         <f>Control!B284</f>
-        <v>0</v>
+        <v>155.1</v>
       </c>
       <c r="T286">
         <f>'Ctrl pct'!B284</f>
-        <v>0</v>
+        <v>0.27978025582158084</v>
       </c>
       <c r="U286">
         <f>Controlled!B284</f>
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="V286">
         <f>'Controlled pct'!B284</f>
-        <v>0</v>
+        <v>0.11995736306985896</v>
       </c>
       <c r="W286">
         <f>'Fight Time'!B284</f>
-        <v>0</v>
+        <v>554.36363636363637</v>
+      </c>
+      <c r="X286">
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A287">
+      <c r="A287" t="str">
         <f>Control!A285</f>
-        <v>0</v>
+        <v>Kayla Harrison</v>
+      </c>
+      <c r="B287">
+        <v>34</v>
+      </c>
+      <c r="C287">
+        <v>173</v>
+      </c>
+      <c r="D287">
+        <v>168</v>
+      </c>
+      <c r="E287">
+        <v>0.33</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>0.39</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287" s="8">
+        <v>4.87</v>
+      </c>
+      <c r="L287" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="P287">
+        <v>2.75</v>
+      </c>
+      <c r="Q287">
+        <v>0.3</v>
+      </c>
+      <c r="R287">
+        <v>1</v>
       </c>
       <c r="S287">
         <f>Control!B285</f>
-        <v>0</v>
+        <v>382.5</v>
       </c>
       <c r="T287">
         <f>'Ctrl pct'!B285</f>
-        <v>0</v>
+        <v>0.58530986993113998</v>
       </c>
       <c r="U287">
         <f>Controlled!B285</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="V287">
         <f>'Controlled pct'!B285</f>
-        <v>0</v>
+        <v>1.1476664116296864E-2</v>
       </c>
       <c r="W287">
         <f>'Fight Time'!B285</f>
-        <v>0</v>
+        <v>653.5</v>
+      </c>
+      <c r="X287">
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A288">
+      <c r="A288" t="str">
         <f>Control!A286</f>
-        <v>0</v>
+        <v>Julianna Pena</v>
+      </c>
+      <c r="B288">
+        <v>35</v>
+      </c>
+      <c r="C288">
+        <v>168</v>
+      </c>
+      <c r="D288">
+        <v>175</v>
+      </c>
+      <c r="E288">
+        <v>0.27</v>
+      </c>
+      <c r="F288">
+        <v>0.2</v>
+      </c>
+      <c r="G288">
+        <v>0.36</v>
+      </c>
+      <c r="H288">
+        <v>0.4</v>
+      </c>
+      <c r="I288">
+        <v>0.36</v>
+      </c>
+      <c r="J288">
+        <v>0.4</v>
+      </c>
+      <c r="K288" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="L288" s="8">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="P288">
+        <v>1.81</v>
+      </c>
+      <c r="Q288">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R288">
+        <v>0.23</v>
       </c>
       <c r="S288">
         <f>Control!B286</f>
-        <v>0</v>
+        <v>195.33333333333334</v>
       </c>
       <c r="T288">
         <f>'Ctrl pct'!B286</f>
-        <v>0</v>
+        <v>0.24055829228243022</v>
       </c>
       <c r="U288">
         <f>Controlled!B286</f>
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="V288">
         <f>'Controlled pct'!B286</f>
-        <v>0</v>
+        <v>0.37315270935960593</v>
       </c>
       <c r="W288">
         <f>'Fight Time'!B286</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A289">
+        <v>812</v>
+      </c>
+      <c r="X288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A289" t="str">
         <f>Control!A287</f>
-        <v>0</v>
+        <v>Sean O'Malley</v>
+      </c>
+      <c r="B289">
+        <v>30</v>
+      </c>
+      <c r="C289">
+        <v>180</v>
+      </c>
+      <c r="D289">
+        <v>183</v>
+      </c>
+      <c r="E289">
+        <v>0.61</v>
+      </c>
+      <c r="F289">
+        <v>0.5</v>
+      </c>
+      <c r="G289">
+        <v>0.11</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J289">
+        <v>0.5</v>
+      </c>
+      <c r="K289" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="L289" s="8">
+        <v>3.48</v>
+      </c>
+      <c r="P289">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q289">
+        <v>0.42</v>
+      </c>
+      <c r="R289">
+        <v>0.61</v>
       </c>
       <c r="S289">
         <f>Control!B287</f>
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T289">
         <f>'Ctrl pct'!B287</f>
-        <v>0</v>
+        <v>5.1204819277108436E-3</v>
       </c>
       <c r="U289">
         <f>Controlled!B287</f>
-        <v>0</v>
+        <v>102.3</v>
       </c>
       <c r="V289">
         <f>'Controlled pct'!B287</f>
-        <v>0</v>
+        <v>0.15406626506024096</v>
       </c>
       <c r="W289">
         <f>'Fight Time'!B287</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A290">
+        <v>664</v>
+      </c>
+      <c r="X289">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A290" t="str">
         <f>Control!A288</f>
-        <v>0</v>
+        <v>Merab Dvalishvilli</v>
+      </c>
+      <c r="B290">
+        <v>34</v>
+      </c>
+      <c r="C290">
+        <v>168</v>
+      </c>
+      <c r="D290">
+        <v>173</v>
+      </c>
+      <c r="E290">
+        <v>0.16</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0.05</v>
+      </c>
+      <c r="H290">
+        <v>0.25</v>
+      </c>
+      <c r="I290">
+        <v>0.79</v>
+      </c>
+      <c r="J290">
+        <v>0.75</v>
+      </c>
+      <c r="K290" s="8">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="L290" s="8">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="P290">
+        <v>5.89</v>
+      </c>
+      <c r="Q290">
+        <v>0.35</v>
+      </c>
+      <c r="R290">
+        <v>0.82</v>
       </c>
       <c r="S290">
         <f>Control!B288</f>
-        <v>0</v>
+        <v>330.8</v>
       </c>
       <c r="T290">
         <f>'Ctrl pct'!B288</f>
-        <v>0</v>
-      </c>
-      <c r="U290">
-        <f>Controlled!B288</f>
-        <v>0</v>
+        <v>0.32915422885572143</v>
       </c>
       <c r="V290">
         <f>'Controlled pct'!B288</f>
-        <v>0</v>
+        <v>5.4726368159203981E-2</v>
       </c>
       <c r="W290">
         <f>'Fight Time'!B288</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A291">
+        <v>1005</v>
+      </c>
+      <c r="X290">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A291" t="str">
         <f>Control!A289</f>
-        <v>0</v>
+        <v>Jeka Saragih</v>
+      </c>
+      <c r="B291">
+        <v>30</v>
+      </c>
+      <c r="C291">
+        <v>172</v>
+      </c>
+      <c r="D291">
+        <v>175</v>
+      </c>
+      <c r="E291">
+        <v>0.64</v>
+      </c>
+      <c r="F291">
+        <v>0.25</v>
+      </c>
+      <c r="G291">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H291">
+        <v>0.75</v>
+      </c>
+      <c r="I291">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291" s="8">
+        <v>2.73</v>
+      </c>
+      <c r="L291" s="8">
+        <v>2.65</v>
+      </c>
+      <c r="P291">
+        <v>2.21</v>
+      </c>
+      <c r="Q291">
+        <v>0.8</v>
+      </c>
+      <c r="R291">
+        <v>0.66</v>
       </c>
       <c r="S291">
         <f>Control!B289</f>
-        <v>0</v>
+        <v>22.333333333333332</v>
       </c>
       <c r="T291">
         <f>'Ctrl pct'!B289</f>
-        <v>0</v>
+        <v>6.8549212195621032E-2</v>
       </c>
       <c r="V291">
         <f>'Controlled pct'!B289</f>
-        <v>0</v>
+        <v>0.47268262737875993</v>
       </c>
       <c r="W291">
         <f>'Fight Time'!B289</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A292">
+        <v>325.8</v>
+      </c>
+      <c r="X291">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A292" t="str">
         <f>Control!A290</f>
-        <v>0</v>
+        <v>Bruno Silva (FlyW)</v>
+      </c>
+      <c r="B292">
+        <v>35</v>
+      </c>
+      <c r="C292">
+        <v>163</v>
+      </c>
+      <c r="D292">
+        <v>168</v>
+      </c>
+      <c r="E292">
+        <v>0.43</v>
+      </c>
+      <c r="F292">
+        <v>0.33</v>
+      </c>
+      <c r="G292">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H292">
+        <v>0.17</v>
+      </c>
+      <c r="I292">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J292">
+        <v>0.5</v>
+      </c>
+      <c r="K292" s="8">
+        <v>3.54</v>
+      </c>
+      <c r="L292" s="8">
+        <v>4.08</v>
+      </c>
+      <c r="P292">
+        <v>1.92</v>
+      </c>
+      <c r="Q292">
+        <v>0.25</v>
+      </c>
+      <c r="R292">
+        <v>0.6</v>
       </c>
       <c r="S292">
         <f>Control!B290</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="T292">
         <f>'Ctrl pct'!B290</f>
-        <v>0</v>
+        <v>0.20451640391989775</v>
       </c>
       <c r="V292">
         <f>'Controlled pct'!B290</f>
-        <v>0</v>
+        <v>0.11887515977844056</v>
       </c>
       <c r="W292">
         <f>'Fight Time'!B290</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
+        <v>586.75</v>
+      </c>
+      <c r="X292">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A293">
         <f>Control!A291</f>
         <v>0</v>
@@ -35539,7 +38485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A294">
         <f>Control!A292</f>
         <v>0</v>
@@ -35561,7 +38507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A295">
         <f>Control!A293</f>
         <v>0</v>
@@ -35583,7 +38529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A296">
         <f>Control!A294</f>
         <v>0</v>
@@ -35605,7 +38551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A297">
         <f>Control!A295</f>
         <v>0</v>
@@ -35627,7 +38573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A298">
         <f>Control!A296</f>
         <v>0</v>
@@ -35649,7 +38595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A299">
         <f>Control!A297</f>
         <v>0</v>
@@ -35671,7 +38617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A300">
         <f>Control!A298</f>
         <v>0</v>
@@ -35693,7 +38639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A301">
         <f>Control!A299</f>
         <v>0</v>
@@ -35715,7 +38661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A302">
         <f>Control!A300</f>
         <v>0</v>
@@ -35737,7 +38683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A303">
         <f>Control!A301</f>
         <v>0</v>
@@ -35759,7 +38705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A304">
         <f>Control!A302</f>
         <v>0</v>
@@ -38042,10 +40988,6 @@
         <f>'Controlled pct'!B405</f>
         <v>0</v>
       </c>
-      <c r="W407">
-        <f>'Fight Time'!B405</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="408" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A408">
@@ -38240,10 +41182,6 @@
         <f>'Ctrl pct'!B416</f>
         <v>0</v>
       </c>
-      <c r="V418">
-        <f>'Controlled pct'!B416</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="419" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A419">
@@ -38950,10 +41888,6 @@
         <f>Control!A467</f>
         <v>0</v>
       </c>
-      <c r="S469">
-        <f>Control!B467</f>
-        <v>0</v>
-      </c>
       <c r="T469">
         <f>'Ctrl pct'!B467</f>
         <v>0</v>
@@ -39434,10 +42368,6 @@
         <f>Control!A515</f>
         <v>0</v>
       </c>
-      <c r="T517">
-        <f>'Ctrl pct'!B515</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="518" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A518">
@@ -43399,16 +46329,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1178">
-        <f>Control!A1176</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="S1:T1"/>
@@ -43416,6 +46338,8 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B011CC87-5D97-44FB-AC1B-0F3C8352F138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04571406-0CCE-417F-B6BA-6C9B475FC6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
@@ -1719,10 +1719,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10947,7 +10947,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="C274" s="10">
+      <c r="C274" s="9">
         <v>0</v>
       </c>
     </row>
@@ -10992,7 +10992,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="C277" s="10">
+      <c r="C277" s="9">
         <v>0</v>
       </c>
     </row>
@@ -11161,7 +11161,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="C283" s="10">
+      <c r="C283" s="9">
         <v>0</v>
       </c>
     </row>
@@ -22878,7 +22878,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C274" s="10">
+      <c r="C274" s="9">
         <v>0</v>
       </c>
     </row>
@@ -22923,7 +22923,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C277" s="10">
+      <c r="C277" s="9">
         <v>0</v>
       </c>
     </row>
@@ -23091,7 +23091,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C283" s="10">
+      <c r="C283" s="9">
         <v>0</v>
       </c>
     </row>
@@ -28284,7 +28284,7 @@
         <f>AVERAGE(C274:Q274)</f>
         <v>900</v>
       </c>
-      <c r="C274" s="10">
+      <c r="C274" s="9">
         <v>900</v>
       </c>
     </row>
@@ -28329,7 +28329,7 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="C277" s="10">
+      <c r="C277" s="9">
         <v>900</v>
       </c>
     </row>
@@ -28499,7 +28499,7 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="C283" s="10">
+      <c r="C283" s="9">
         <v>900</v>
       </c>
     </row>
@@ -28658,9 +28658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:X1177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O280" sqref="O280"/>
+      <selection pane="topRight" activeCell="P263" sqref="P263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28676,46 +28676,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9" t="s">
+      <c r="T1" s="10"/>
+      <c r="U1" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="V1" s="9"/>
+      <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -28766,8 +28766,8 @@
       <c r="P2" t="s">
         <v>513</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
       <c r="S2" t="s">
         <v>272</v>
       </c>
@@ -36203,6 +36203,15 @@
       </c>
       <c r="O262">
         <v>0.11</v>
+      </c>
+      <c r="P262">
+        <v>3.6</v>
+      </c>
+      <c r="Q262">
+        <v>0.66</v>
+      </c>
+      <c r="R262">
+        <v>1</v>
       </c>
       <c r="S262">
         <f>Control!B260</f>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FC21EF-27CA-4D55-911C-DA469AF0E22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32C1AE9-794F-4F6B-AC5B-60BAFA61F7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -1783,11 +1783,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2112,7 +2112,7 @@
   <cols>
     <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="13" max="25" width="8.88671875" style="11"/>
+    <col min="13" max="25" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
@@ -2218,44 +2218,44 @@
       <c r="L3">
         <v>5</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>55</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>59</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>186</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <v>192</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>37</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="10">
         <v>130</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="10">
         <f>3*60+52</f>
         <v>232</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <v>116</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="10">
         <v>264</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="10">
         <v>128</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="10">
         <v>36</v>
       </c>
-      <c r="X3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="11">
+      <c r="X3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="10">
         <v>431</v>
       </c>
       <c r="Z3">
@@ -2395,7 +2395,7 @@
       <c r="L8">
         <v>182</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="10">
         <v>187</v>
       </c>
     </row>
@@ -2601,13 +2601,13 @@
       <c r="L15">
         <v>41</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="10">
         <v>49</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="10">
         <v>141</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2736,16 +2736,16 @@
         <f>180+42</f>
         <v>222</v>
       </c>
-      <c r="M20" s="11">
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
-        <v>0</v>
-      </c>
-      <c r="O20" s="11">
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
         <v>5</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       <c r="L21">
         <v>127</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
         <f>8*60+20</f>
         <v>500</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="10">
         <v>17</v>
       </c>
     </row>
@@ -2881,28 +2881,28 @@
       <c r="L23">
         <v>30</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="10">
         <v>2</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="10">
         <v>5</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="10">
         <v>254</v>
       </c>
-      <c r="P23" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="11">
+      <c r="P23" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="10">
         <v>187</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="10">
         <v>378</v>
       </c>
-      <c r="S23" s="11">
-        <v>0</v>
-      </c>
-      <c r="T23" s="11">
+      <c r="S23" s="10">
+        <v>0</v>
+      </c>
+      <c r="T23" s="10">
         <v>129</v>
       </c>
     </row>
@@ -2946,16 +2946,16 @@
       <c r="L24">
         <v>72</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="10">
         <v>235</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="10">
         <v>388</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="10">
         <v>19</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="10">
         <v>169</v>
       </c>
     </row>
@@ -3082,19 +3082,19 @@
       <c r="L29">
         <v>242</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="10">
         <v>246</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="10">
         <v>51</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="10">
         <v>180</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P29" s="10">
         <v>31</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="10">
         <v>74</v>
       </c>
     </row>
@@ -3238,43 +3238,43 @@
       <c r="L35">
         <v>50</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M35" s="10">
         <v>201</v>
       </c>
-      <c r="N35" s="11">
-        <v>0</v>
-      </c>
-      <c r="O35" s="11">
+      <c r="N35" s="10">
+        <v>0</v>
+      </c>
+      <c r="O35" s="10">
         <v>5</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P35" s="10">
         <v>123</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q35" s="10">
         <v>106</v>
       </c>
-      <c r="R35" s="11">
+      <c r="R35" s="10">
         <v>34</v>
       </c>
-      <c r="S35" s="11">
+      <c r="S35" s="10">
         <v>45</v>
       </c>
-      <c r="T35" s="11">
-        <v>0</v>
-      </c>
-      <c r="U35" s="11">
+      <c r="T35" s="10">
+        <v>0</v>
+      </c>
+      <c r="U35" s="10">
         <v>258</v>
       </c>
-      <c r="V35" s="11">
+      <c r="V35" s="10">
         <v>175</v>
       </c>
-      <c r="W35" s="11">
+      <c r="W35" s="10">
         <v>15</v>
       </c>
-      <c r="X35" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="11">
+      <c r="X35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="10">
         <v>230</v>
       </c>
       <c r="Z35">
@@ -3332,19 +3332,19 @@
       <c r="L37">
         <v>235</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="10">
         <v>105</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="10">
         <v>123</v>
       </c>
-      <c r="O37" s="11">
-        <v>0</v>
-      </c>
-      <c r="P37" s="11">
+      <c r="O37" s="10">
+        <v>0</v>
+      </c>
+      <c r="P37" s="10">
         <v>51</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="Q37" s="10">
         <v>43</v>
       </c>
     </row>
@@ -3479,31 +3479,31 @@
       <c r="L42">
         <v>11</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M42" s="10">
         <v>38</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N42" s="10">
         <v>73</v>
       </c>
-      <c r="O42" s="11">
+      <c r="O42" s="10">
         <v>128</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P42" s="10">
         <v>18</v>
       </c>
-      <c r="Q42" s="11">
+      <c r="Q42" s="10">
         <v>4</v>
       </c>
-      <c r="R42" s="11">
+      <c r="R42" s="10">
         <v>68</v>
       </c>
-      <c r="S42" s="11">
+      <c r="S42" s="10">
         <v>22</v>
       </c>
-      <c r="T42" s="11">
+      <c r="T42" s="10">
         <v>79</v>
       </c>
-      <c r="U42" s="11">
+      <c r="U42" s="10">
         <v>78</v>
       </c>
     </row>
@@ -3586,23 +3586,23 @@
       <c r="L44">
         <v>144</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M44" s="10">
         <v>252</v>
       </c>
-      <c r="N44" s="11">
+      <c r="N44" s="10">
         <v>149</v>
       </c>
-      <c r="O44" s="11">
+      <c r="O44" s="10">
         <f>7*60+58</f>
         <v>478</v>
       </c>
-      <c r="P44" s="11">
+      <c r="P44" s="10">
         <v>365</v>
       </c>
-      <c r="Q44" s="11">
+      <c r="Q44" s="10">
         <v>366</v>
       </c>
-      <c r="R44" s="11">
+      <c r="R44" s="10">
         <v>178</v>
       </c>
     </row>
@@ -3644,20 +3644,20 @@
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M45" s="10">
         <v>99</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N45" s="10">
         <f>11*60+1</f>
         <v>661</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O45" s="10">
         <v>100</v>
       </c>
-      <c r="P45" s="11">
+      <c r="P45" s="10">
         <v>27</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="Q45" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3701,19 +3701,19 @@
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M46" s="10">
         <v>180</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N46" s="10">
         <v>14</v>
       </c>
-      <c r="O46" s="11">
+      <c r="O46" s="10">
         <v>306</v>
       </c>
-      <c r="P46" s="11">
+      <c r="P46" s="10">
         <v>125</v>
       </c>
-      <c r="Q46" s="11">
+      <c r="Q46" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3755,29 +3755,29 @@
       <c r="L47">
         <v>267</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M47" s="10">
         <f>8*60+48</f>
         <v>528</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N47" s="10">
         <v>11</v>
       </c>
-      <c r="O47" s="11">
+      <c r="O47" s="10">
         <v>122</v>
       </c>
-      <c r="P47" s="11">
+      <c r="P47" s="10">
         <v>212</v>
       </c>
-      <c r="Q47" s="11">
+      <c r="Q47" s="10">
         <v>17</v>
       </c>
-      <c r="R47" s="11">
+      <c r="R47" s="10">
         <v>16</v>
       </c>
-      <c r="S47" s="11">
+      <c r="S47" s="10">
         <v>119</v>
       </c>
-      <c r="T47" s="11">
+      <c r="T47" s="10">
         <v>66</v>
       </c>
     </row>
@@ -3821,10 +3821,10 @@
       <c r="L48">
         <v>37</v>
       </c>
-      <c r="M48" s="11">
-        <v>0</v>
-      </c>
-      <c r="N48" s="11">
+      <c r="M48" s="10">
+        <v>0</v>
+      </c>
+      <c r="N48" s="10">
         <v>129</v>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       <c r="L51">
         <v>178</v>
       </c>
-      <c r="M51" s="11">
+      <c r="M51" s="10">
         <v>88</v>
       </c>
     </row>
@@ -3959,22 +3959,22 @@
       <c r="L52">
         <v>187</v>
       </c>
-      <c r="M52" s="11">
+      <c r="M52" s="10">
         <v>42</v>
       </c>
-      <c r="N52" s="11">
+      <c r="N52" s="10">
         <v>76</v>
       </c>
-      <c r="O52" s="11">
+      <c r="O52" s="10">
         <v>311</v>
       </c>
-      <c r="P52" s="11">
+      <c r="P52" s="10">
         <v>22</v>
       </c>
-      <c r="Q52" s="11">
+      <c r="Q52" s="10">
         <v>309</v>
       </c>
-      <c r="R52" s="11">
+      <c r="R52" s="10">
         <v>80</v>
       </c>
     </row>
@@ -4016,16 +4016,16 @@
       <c r="L53">
         <v>320</v>
       </c>
-      <c r="M53" s="11">
-        <v>0</v>
-      </c>
-      <c r="N53" s="11">
+      <c r="M53" s="10">
+        <v>0</v>
+      </c>
+      <c r="N53" s="10">
         <v>42</v>
       </c>
-      <c r="O53" s="11">
+      <c r="O53" s="10">
         <v>128</v>
       </c>
-      <c r="P53" s="11">
+      <c r="P53" s="10">
         <v>46</v>
       </c>
     </row>
@@ -4142,13 +4142,13 @@
       <c r="L57">
         <v>55</v>
       </c>
-      <c r="M57" s="11">
+      <c r="M57" s="10">
         <v>252</v>
       </c>
-      <c r="N57" s="11">
-        <v>0</v>
-      </c>
-      <c r="O57" s="11">
+      <c r="N57" s="10">
+        <v>0</v>
+      </c>
+      <c r="O57" s="10">
         <v>7</v>
       </c>
     </row>
@@ -4214,16 +4214,16 @@
       <c r="L59">
         <v>1</v>
       </c>
-      <c r="M59" s="11">
+      <c r="M59" s="10">
         <v>118</v>
       </c>
-      <c r="N59" s="11">
+      <c r="N59" s="10">
         <v>87</v>
       </c>
-      <c r="O59" s="11">
+      <c r="O59" s="10">
         <v>249</v>
       </c>
-      <c r="P59" s="11">
+      <c r="P59" s="10">
         <v>28</v>
       </c>
     </row>
@@ -4422,16 +4422,16 @@
       <c r="L67">
         <v>35</v>
       </c>
-      <c r="M67" s="11">
+      <c r="M67" s="10">
         <v>21</v>
       </c>
-      <c r="N67" s="11">
+      <c r="N67" s="10">
         <v>5</v>
       </c>
-      <c r="O67" s="11">
+      <c r="O67" s="10">
         <v>3</v>
       </c>
-      <c r="P67" s="11">
+      <c r="P67" s="10">
         <v>49</v>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       <c r="L69">
         <v>3</v>
       </c>
-      <c r="M69" s="11">
+      <c r="M69" s="10">
         <v>48</v>
       </c>
     </row>
@@ -4643,13 +4643,13 @@
       <c r="L74">
         <v>6</v>
       </c>
-      <c r="M74" s="11">
+      <c r="M74" s="10">
         <v>8</v>
       </c>
-      <c r="N74" s="11">
-        <v>0</v>
-      </c>
-      <c r="O74" s="11">
+      <c r="N74" s="10">
+        <v>0</v>
+      </c>
+      <c r="O74" s="10">
         <v>12</v>
       </c>
     </row>
@@ -4733,43 +4733,43 @@
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77" s="11">
+      <c r="M77" s="10">
         <v>154</v>
       </c>
-      <c r="N77" s="11">
+      <c r="N77" s="10">
         <v>150</v>
       </c>
-      <c r="O77" s="11">
+      <c r="O77" s="10">
         <v>47</v>
       </c>
-      <c r="P77" s="11">
+      <c r="P77" s="10">
         <v>66</v>
       </c>
-      <c r="Q77" s="11">
+      <c r="Q77" s="10">
         <v>83</v>
       </c>
-      <c r="R77" s="11">
+      <c r="R77" s="10">
         <v>14</v>
       </c>
-      <c r="S77" s="11">
+      <c r="S77" s="10">
         <v>1</v>
       </c>
-      <c r="T77" s="11">
-        <v>0</v>
-      </c>
-      <c r="U77" s="11">
+      <c r="T77" s="10">
+        <v>0</v>
+      </c>
+      <c r="U77" s="10">
         <v>13</v>
       </c>
-      <c r="V77" s="11">
-        <v>0</v>
-      </c>
-      <c r="W77" s="11">
+      <c r="V77" s="10">
+        <v>0</v>
+      </c>
+      <c r="W77" s="10">
         <v>56</v>
       </c>
-      <c r="X77" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y77" s="11">
+      <c r="X77" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="10">
         <v>20</v>
       </c>
     </row>
@@ -4946,32 +4946,32 @@
       <c r="L83">
         <v>367</v>
       </c>
-      <c r="M83" s="11">
+      <c r="M83" s="10">
         <v>19</v>
       </c>
-      <c r="N83" s="11">
+      <c r="N83" s="10">
         <f>19*60+52</f>
         <v>1192</v>
       </c>
-      <c r="O83" s="11">
+      <c r="O83" s="10">
         <v>15</v>
       </c>
-      <c r="P83" s="11">
+      <c r="P83" s="10">
         <v>379</v>
       </c>
-      <c r="Q83" s="11">
+      <c r="Q83" s="10">
         <v>3</v>
       </c>
-      <c r="R83" s="11">
+      <c r="R83" s="10">
         <v>1</v>
       </c>
-      <c r="S83" s="11">
-        <v>0</v>
-      </c>
-      <c r="T83" s="11">
+      <c r="S83" s="10">
+        <v>0</v>
+      </c>
+      <c r="T83" s="10">
         <v>9</v>
       </c>
-      <c r="U83" s="11">
+      <c r="U83" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5034,43 +5034,43 @@
       <c r="L85">
         <v>221</v>
       </c>
-      <c r="M85" s="11">
+      <c r="M85" s="10">
         <v>223</v>
       </c>
-      <c r="N85" s="11">
+      <c r="N85" s="10">
         <v>71</v>
       </c>
-      <c r="O85" s="11">
+      <c r="O85" s="10">
         <v>185</v>
       </c>
-      <c r="P85" s="11">
+      <c r="P85" s="10">
         <v>451</v>
       </c>
-      <c r="Q85" s="11">
+      <c r="Q85" s="10">
         <v>71</v>
       </c>
-      <c r="R85" s="11">
-        <v>0</v>
-      </c>
-      <c r="S85" s="11">
+      <c r="R85" s="10">
+        <v>0</v>
+      </c>
+      <c r="S85" s="10">
         <v>15</v>
       </c>
-      <c r="T85" s="11">
-        <v>0</v>
-      </c>
-      <c r="U85" s="11">
-        <v>0</v>
-      </c>
-      <c r="V85" s="11">
+      <c r="T85" s="10">
+        <v>0</v>
+      </c>
+      <c r="U85" s="10">
+        <v>0</v>
+      </c>
+      <c r="V85" s="10">
         <v>11</v>
       </c>
-      <c r="W85" s="11">
+      <c r="W85" s="10">
         <v>205</v>
       </c>
-      <c r="X85" s="11">
+      <c r="X85" s="10">
         <v>5</v>
       </c>
-      <c r="Y85" s="11">
+      <c r="Y85" s="10">
         <v>2</v>
       </c>
       <c r="Z85">
@@ -5148,13 +5148,13 @@
       <c r="L87">
         <v>34</v>
       </c>
-      <c r="M87" s="11">
+      <c r="M87" s="10">
         <v>242</v>
       </c>
-      <c r="N87" s="11">
+      <c r="N87" s="10">
         <v>51</v>
       </c>
-      <c r="O87" s="11">
+      <c r="O87" s="10">
         <v>478</v>
       </c>
     </row>
@@ -5232,13 +5232,13 @@
       <c r="L89">
         <v>18</v>
       </c>
-      <c r="M89" s="11">
+      <c r="M89" s="10">
         <v>12</v>
       </c>
-      <c r="N89" s="11">
+      <c r="N89" s="10">
         <v>2</v>
       </c>
-      <c r="O89" s="11">
+      <c r="O89" s="10">
         <v>103</v>
       </c>
     </row>
@@ -5280,16 +5280,16 @@
       <c r="L90">
         <v>13</v>
       </c>
-      <c r="M90" s="11">
-        <v>0</v>
-      </c>
-      <c r="N90" s="11">
-        <v>0</v>
-      </c>
-      <c r="O90" s="11">
-        <v>0</v>
-      </c>
-      <c r="P90" s="11">
+      <c r="M90" s="10">
+        <v>0</v>
+      </c>
+      <c r="N90" s="10">
+        <v>0</v>
+      </c>
+      <c r="O90" s="10">
+        <v>0</v>
+      </c>
+      <c r="P90" s="10">
         <v>92</v>
       </c>
     </row>
@@ -5370,20 +5370,20 @@
       <c r="L92">
         <v>146</v>
       </c>
-      <c r="M92" s="11">
+      <c r="M92" s="10">
         <f>660+20</f>
         <v>680</v>
       </c>
-      <c r="N92" s="11">
+      <c r="N92" s="10">
         <v>66</v>
       </c>
-      <c r="O92" s="11">
+      <c r="O92" s="10">
         <v>5</v>
       </c>
-      <c r="P92" s="11">
+      <c r="P92" s="10">
         <v>91</v>
       </c>
-      <c r="Q92" s="11">
+      <c r="Q92" s="10">
         <v>342</v>
       </c>
     </row>
@@ -5425,7 +5425,7 @@
       <c r="L93">
         <v>0</v>
       </c>
-      <c r="M93" s="11">
+      <c r="M93" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5747,13 +5747,13 @@
       <c r="L108">
         <v>32</v>
       </c>
-      <c r="M108" s="11">
+      <c r="M108" s="10">
         <v>79</v>
       </c>
-      <c r="N108" s="11">
+      <c r="N108" s="10">
         <v>209</v>
       </c>
-      <c r="O108" s="11">
+      <c r="O108" s="10">
         <v>3</v>
       </c>
     </row>
@@ -5965,16 +5965,16 @@
       <c r="L115">
         <v>248</v>
       </c>
-      <c r="M115" s="11">
+      <c r="M115" s="10">
         <v>23</v>
       </c>
-      <c r="N115" s="11">
+      <c r="N115" s="10">
         <v>35</v>
       </c>
-      <c r="O115" s="11">
+      <c r="O115" s="10">
         <v>142</v>
       </c>
-      <c r="P115" s="11">
+      <c r="P115" s="10">
         <v>40</v>
       </c>
     </row>
@@ -6071,22 +6071,22 @@
       <c r="L118">
         <v>150</v>
       </c>
-      <c r="M118" s="11">
+      <c r="M118" s="10">
         <v>53</v>
       </c>
-      <c r="N118" s="11">
+      <c r="N118" s="10">
         <v>120</v>
       </c>
-      <c r="O118" s="11">
+      <c r="O118" s="10">
         <v>15</v>
       </c>
-      <c r="P118" s="11">
+      <c r="P118" s="10">
         <v>84</v>
       </c>
-      <c r="Q118" s="11">
+      <c r="Q118" s="10">
         <v>333</v>
       </c>
-      <c r="R118" s="11">
+      <c r="R118" s="10">
         <v>20</v>
       </c>
     </row>
@@ -6164,7 +6164,7 @@
       <c r="L120">
         <v>213</v>
       </c>
-      <c r="M120" s="11">
+      <c r="M120" s="10">
         <v>170</v>
       </c>
     </row>
@@ -6207,20 +6207,20 @@
         <f>20*60+1</f>
         <v>1201</v>
       </c>
-      <c r="M121" s="11">
+      <c r="M121" s="10">
         <f>360+55</f>
         <v>415</v>
       </c>
-      <c r="N121" s="11">
+      <c r="N121" s="10">
         <v>207</v>
       </c>
-      <c r="O121" s="11">
+      <c r="O121" s="10">
         <v>28</v>
       </c>
-      <c r="P121" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="11">
+      <c r="P121" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="10">
         <v>28</v>
       </c>
     </row>
@@ -6410,38 +6410,38 @@
       <c r="L129">
         <v>502</v>
       </c>
-      <c r="M129" s="11">
+      <c r="M129" s="10">
         <f>9*60+25</f>
         <v>565</v>
       </c>
-      <c r="N129" s="11">
+      <c r="N129" s="10">
         <v>188</v>
       </c>
-      <c r="O129" s="11">
+      <c r="O129" s="10">
         <v>139</v>
       </c>
-      <c r="P129" s="11">
+      <c r="P129" s="10">
         <v>121</v>
       </c>
-      <c r="Q129" s="11">
+      <c r="Q129" s="10">
         <v>108</v>
       </c>
-      <c r="R129" s="11">
+      <c r="R129" s="10">
         <v>295</v>
       </c>
-      <c r="S129" s="11">
-        <v>0</v>
-      </c>
-      <c r="T129" s="11">
+      <c r="S129" s="10">
+        <v>0</v>
+      </c>
+      <c r="T129" s="10">
         <v>168</v>
       </c>
-      <c r="U129" s="11">
+      <c r="U129" s="10">
         <v>43</v>
       </c>
-      <c r="V129" s="11">
+      <c r="V129" s="10">
         <v>434</v>
       </c>
-      <c r="W129" s="11">
+      <c r="W129" s="10">
         <v>61</v>
       </c>
     </row>
@@ -6598,10 +6598,10 @@
       <c r="L135">
         <v>164</v>
       </c>
-      <c r="M135" s="11">
+      <c r="M135" s="10">
         <v>222</v>
       </c>
-      <c r="N135" s="11">
+      <c r="N135" s="10">
         <v>60</v>
       </c>
     </row>
@@ -6703,16 +6703,16 @@
       <c r="L139">
         <v>0</v>
       </c>
-      <c r="M139" s="11">
+      <c r="M139" s="10">
         <v>7</v>
       </c>
-      <c r="N139" s="11">
+      <c r="N139" s="10">
         <v>68</v>
       </c>
-      <c r="O139" s="11">
+      <c r="O139" s="10">
         <v>211</v>
       </c>
-      <c r="P139" s="11">
+      <c r="P139" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6754,43 +6754,43 @@
       <c r="L140">
         <v>2</v>
       </c>
-      <c r="M140" s="11">
+      <c r="M140" s="10">
         <v>107</v>
       </c>
-      <c r="N140" s="11">
+      <c r="N140" s="10">
         <v>5</v>
       </c>
-      <c r="O140" s="11">
+      <c r="O140" s="10">
         <v>64</v>
       </c>
-      <c r="P140" s="11">
+      <c r="P140" s="10">
         <v>15</v>
       </c>
-      <c r="Q140" s="11">
+      <c r="Q140" s="10">
         <v>9</v>
       </c>
-      <c r="R140" s="11">
-        <v>0</v>
-      </c>
-      <c r="S140" s="11">
+      <c r="R140" s="10">
+        <v>0</v>
+      </c>
+      <c r="S140" s="10">
         <v>81</v>
       </c>
-      <c r="T140" s="11">
+      <c r="T140" s="10">
         <v>64</v>
       </c>
-      <c r="U140" s="11">
+      <c r="U140" s="10">
         <v>40</v>
       </c>
-      <c r="V140" s="11">
-        <v>0</v>
-      </c>
-      <c r="W140" s="11">
+      <c r="V140" s="10">
+        <v>0</v>
+      </c>
+      <c r="W140" s="10">
         <v>242</v>
       </c>
-      <c r="X140" s="11">
+      <c r="X140" s="10">
         <v>15</v>
       </c>
-      <c r="Y140" s="11">
+      <c r="Y140" s="10">
         <v>0</v>
       </c>
       <c r="Z140">
@@ -6838,22 +6838,22 @@
       <c r="L141">
         <v>0</v>
       </c>
-      <c r="M141" s="11">
+      <c r="M141" s="10">
         <v>282</v>
       </c>
-      <c r="N141" s="11">
+      <c r="N141" s="10">
         <v>243</v>
       </c>
-      <c r="O141" s="11">
+      <c r="O141" s="10">
         <v>268</v>
       </c>
-      <c r="P141" s="11">
+      <c r="P141" s="10">
         <v>489</v>
       </c>
-      <c r="Q141" s="11">
+      <c r="Q141" s="10">
         <v>193</v>
       </c>
-      <c r="R141" s="11">
+      <c r="R141" s="10">
         <v>569</v>
       </c>
     </row>
@@ -6934,37 +6934,37 @@
       <c r="L143">
         <v>293</v>
       </c>
-      <c r="M143" s="11">
+      <c r="M143" s="10">
         <v>5</v>
       </c>
-      <c r="N143" s="11">
+      <c r="N143" s="10">
         <v>1</v>
       </c>
-      <c r="O143" s="11">
+      <c r="O143" s="10">
         <v>4</v>
       </c>
-      <c r="P143" s="11">
+      <c r="P143" s="10">
         <v>2</v>
       </c>
-      <c r="Q143" s="11">
+      <c r="Q143" s="10">
         <v>3</v>
       </c>
-      <c r="R143" s="11">
+      <c r="R143" s="10">
         <v>426</v>
       </c>
-      <c r="S143" s="11">
+      <c r="S143" s="10">
         <v>15</v>
       </c>
-      <c r="T143" s="11">
+      <c r="T143" s="10">
         <v>1</v>
       </c>
-      <c r="U143" s="11">
-        <v>0</v>
-      </c>
-      <c r="V143" s="11">
+      <c r="U143" s="10">
+        <v>0</v>
+      </c>
+      <c r="V143" s="10">
         <v>452</v>
       </c>
-      <c r="W143" s="11">
+      <c r="W143" s="10">
         <v>0</v>
       </c>
     </row>
@@ -7042,31 +7042,31 @@
       <c r="L145">
         <v>48</v>
       </c>
-      <c r="M145" s="11">
+      <c r="M145" s="10">
         <v>209</v>
       </c>
-      <c r="N145" s="11">
+      <c r="N145" s="10">
         <v>437</v>
       </c>
-      <c r="O145" s="11">
+      <c r="O145" s="10">
         <v>19</v>
       </c>
-      <c r="P145" s="11">
+      <c r="P145" s="10">
         <v>299</v>
       </c>
-      <c r="Q145" s="11">
+      <c r="Q145" s="10">
         <v>175</v>
       </c>
-      <c r="R145" s="11">
-        <v>0</v>
-      </c>
-      <c r="S145" s="11">
+      <c r="R145" s="10">
+        <v>0</v>
+      </c>
+      <c r="S145" s="10">
         <v>87</v>
       </c>
-      <c r="T145" s="11">
+      <c r="T145" s="10">
         <v>431</v>
       </c>
-      <c r="U145" s="11">
+      <c r="U145" s="10">
         <v>15</v>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
       <c r="L151">
         <v>48</v>
       </c>
-      <c r="M151" s="11">
+      <c r="M151" s="10">
         <v>29</v>
       </c>
     </row>
@@ -7325,7 +7325,7 @@
       <c r="L154">
         <v>112</v>
       </c>
-      <c r="M154" s="11">
+      <c r="M154" s="10">
         <v>101</v>
       </c>
     </row>
@@ -7649,43 +7649,43 @@
       <c r="L167">
         <v>10</v>
       </c>
-      <c r="M167" s="11">
+      <c r="M167" s="10">
         <v>43</v>
       </c>
-      <c r="N167" s="11">
+      <c r="N167" s="10">
         <v>7</v>
       </c>
-      <c r="O167" s="11">
+      <c r="O167" s="10">
         <v>7</v>
       </c>
-      <c r="P167" s="11">
+      <c r="P167" s="10">
         <v>35</v>
       </c>
-      <c r="Q167" s="11">
+      <c r="Q167" s="10">
         <v>81</v>
       </c>
-      <c r="R167" s="11">
+      <c r="R167" s="10">
         <v>163</v>
       </c>
-      <c r="S167" s="11">
+      <c r="S167" s="10">
         <v>33</v>
       </c>
-      <c r="T167" s="11">
+      <c r="T167" s="10">
         <v>410</v>
       </c>
-      <c r="U167" s="11">
+      <c r="U167" s="10">
         <v>26</v>
       </c>
-      <c r="V167" s="11">
+      <c r="V167" s="10">
         <v>151</v>
       </c>
-      <c r="W167" s="11">
+      <c r="W167" s="10">
         <v>81</v>
       </c>
-      <c r="X167" s="11">
+      <c r="X167" s="10">
         <v>19</v>
       </c>
-      <c r="Y167" s="11">
+      <c r="Y167" s="10">
         <v>167</v>
       </c>
     </row>
@@ -7727,43 +7727,43 @@
       <c r="L168">
         <v>25</v>
       </c>
-      <c r="M168" s="11">
+      <c r="M168" s="10">
         <v>467</v>
       </c>
-      <c r="N168" s="11">
+      <c r="N168" s="10">
         <v>61</v>
       </c>
-      <c r="O168" s="11">
+      <c r="O168" s="10">
         <v>5</v>
       </c>
-      <c r="P168" s="11">
+      <c r="P168" s="10">
         <v>6</v>
       </c>
-      <c r="Q168" s="11">
+      <c r="Q168" s="10">
         <v>11</v>
       </c>
-      <c r="R168" s="11">
+      <c r="R168" s="10">
         <v>12</v>
       </c>
-      <c r="S168" s="11">
+      <c r="S168" s="10">
         <v>65</v>
       </c>
-      <c r="T168" s="11">
+      <c r="T168" s="10">
         <v>24</v>
       </c>
-      <c r="U168" s="11">
+      <c r="U168" s="10">
         <v>4</v>
       </c>
-      <c r="V168" s="11">
+      <c r="V168" s="10">
         <v>7</v>
       </c>
-      <c r="W168" s="11">
-        <v>0</v>
-      </c>
-      <c r="X168" s="11">
+      <c r="W168" s="10">
+        <v>0</v>
+      </c>
+      <c r="X168" s="10">
         <v>31</v>
       </c>
-      <c r="Y168" s="11">
+      <c r="Y168" s="10">
         <v>67</v>
       </c>
       <c r="Z168">
@@ -7857,25 +7857,25 @@
       <c r="L171">
         <v>199</v>
       </c>
-      <c r="M171" s="11">
+      <c r="M171" s="10">
         <v>289</v>
       </c>
-      <c r="N171" s="11">
+      <c r="N171" s="10">
         <v>46</v>
       </c>
-      <c r="O171" s="11">
+      <c r="O171" s="10">
         <v>45</v>
       </c>
-      <c r="P171" s="11">
+      <c r="P171" s="10">
         <v>412</v>
       </c>
-      <c r="Q171" s="11">
+      <c r="Q171" s="10">
         <v>241</v>
       </c>
-      <c r="R171" s="11">
+      <c r="R171" s="10">
         <v>174</v>
       </c>
-      <c r="S171" s="11">
+      <c r="S171" s="10">
         <v>0</v>
       </c>
     </row>
@@ -8194,13 +8194,13 @@
       <c r="L183">
         <v>35</v>
       </c>
-      <c r="M183" s="11">
+      <c r="M183" s="10">
         <v>52</v>
       </c>
-      <c r="N183" s="11">
+      <c r="N183" s="10">
         <v>6</v>
       </c>
-      <c r="O183" s="11">
+      <c r="O183" s="10">
         <v>0</v>
       </c>
     </row>
@@ -8257,7 +8257,7 @@
       <c r="L185">
         <v>67</v>
       </c>
-      <c r="M185" s="11">
+      <c r="M185" s="10">
         <v>7</v>
       </c>
     </row>
@@ -8370,13 +8370,13 @@
       <c r="L189">
         <v>0</v>
       </c>
-      <c r="M189" s="11">
+      <c r="M189" s="10">
         <v>8</v>
       </c>
-      <c r="N189" s="11">
-        <v>0</v>
-      </c>
-      <c r="O189" s="11">
+      <c r="N189" s="10">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10">
         <v>4</v>
       </c>
     </row>
@@ -8566,19 +8566,19 @@
       <c r="L195">
         <v>47</v>
       </c>
-      <c r="M195" s="11">
+      <c r="M195" s="10">
         <v>4</v>
       </c>
-      <c r="N195" s="11">
+      <c r="N195" s="10">
         <v>181</v>
       </c>
-      <c r="O195" s="11">
-        <v>0</v>
-      </c>
-      <c r="P195" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q195" s="11">
+      <c r="O195" s="10">
+        <v>0</v>
+      </c>
+      <c r="P195" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q195" s="10">
         <v>219</v>
       </c>
     </row>
@@ -8737,19 +8737,19 @@
       <c r="L202">
         <v>72</v>
       </c>
-      <c r="M202" s="11">
+      <c r="M202" s="10">
         <v>13</v>
       </c>
-      <c r="N202" s="11">
+      <c r="N202" s="10">
         <v>96</v>
       </c>
-      <c r="O202" s="11">
-        <v>0</v>
-      </c>
-      <c r="P202" s="11">
+      <c r="O202" s="10">
+        <v>0</v>
+      </c>
+      <c r="P202" s="10">
         <v>15</v>
       </c>
-      <c r="Q202" s="11">
+      <c r="Q202" s="10">
         <v>4</v>
       </c>
     </row>
@@ -8818,19 +8818,19 @@
       <c r="L204">
         <v>172</v>
       </c>
-      <c r="M204" s="11">
+      <c r="M204" s="10">
         <v>262</v>
       </c>
-      <c r="N204" s="11">
-        <v>0</v>
-      </c>
-      <c r="O204" s="11">
-        <v>0</v>
-      </c>
-      <c r="P204" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q204" s="11">
+      <c r="N204" s="10">
+        <v>0</v>
+      </c>
+      <c r="O204" s="10">
+        <v>0</v>
+      </c>
+      <c r="P204" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="10">
         <v>41</v>
       </c>
     </row>
@@ -8873,43 +8873,43 @@
       <c r="L205">
         <v>74</v>
       </c>
-      <c r="M205" s="11">
+      <c r="M205" s="10">
         <v>483</v>
       </c>
-      <c r="N205" s="11">
+      <c r="N205" s="10">
         <v>163</v>
       </c>
-      <c r="O205" s="11">
+      <c r="O205" s="10">
         <v>511</v>
       </c>
-      <c r="P205" s="11">
+      <c r="P205" s="10">
         <v>522</v>
       </c>
-      <c r="Q205" s="11">
+      <c r="Q205" s="10">
         <v>705</v>
       </c>
-      <c r="R205" s="11">
+      <c r="R205" s="10">
         <v>82</v>
       </c>
-      <c r="S205" s="11">
+      <c r="S205" s="10">
         <v>246</v>
       </c>
-      <c r="T205" s="11">
+      <c r="T205" s="10">
         <v>121</v>
       </c>
-      <c r="U205" s="11">
+      <c r="U205" s="10">
         <v>59</v>
       </c>
-      <c r="V205" s="11">
+      <c r="V205" s="10">
         <v>159</v>
       </c>
-      <c r="W205" s="11">
+      <c r="W205" s="10">
         <v>170</v>
       </c>
-      <c r="X205" s="11">
+      <c r="X205" s="10">
         <v>144</v>
       </c>
-      <c r="Y205" s="11">
+      <c r="Y205" s="10">
         <v>454</v>
       </c>
       <c r="Z205">
@@ -9009,10 +9009,10 @@
       <c r="L207">
         <v>2</v>
       </c>
-      <c r="M207" s="11">
+      <c r="M207" s="10">
         <v>140</v>
       </c>
-      <c r="N207" s="11">
+      <c r="N207" s="10">
         <v>0</v>
       </c>
     </row>
@@ -9090,28 +9090,28 @@
       <c r="L209">
         <v>93</v>
       </c>
-      <c r="M209" s="11">
+      <c r="M209" s="10">
         <v>21</v>
       </c>
-      <c r="N209" s="11">
+      <c r="N209" s="10">
         <v>10</v>
       </c>
-      <c r="O209" s="11">
+      <c r="O209" s="10">
         <v>18</v>
       </c>
-      <c r="P209" s="11">
+      <c r="P209" s="10">
         <v>41</v>
       </c>
-      <c r="Q209" s="11">
+      <c r="Q209" s="10">
         <v>131</v>
       </c>
-      <c r="R209" s="11">
+      <c r="R209" s="10">
         <v>1</v>
       </c>
-      <c r="S209" s="11">
+      <c r="S209" s="10">
         <v>119</v>
       </c>
-      <c r="T209" s="11">
+      <c r="T209" s="10">
         <v>287</v>
       </c>
     </row>
@@ -9153,10 +9153,10 @@
       <c r="L210">
         <v>0</v>
       </c>
-      <c r="M210" s="11">
+      <c r="M210" s="10">
         <v>3</v>
       </c>
-      <c r="N210" s="11">
+      <c r="N210" s="10">
         <v>231</v>
       </c>
     </row>
@@ -9198,28 +9198,28 @@
       <c r="L211">
         <v>100</v>
       </c>
-      <c r="M211" s="11">
+      <c r="M211" s="10">
         <v>143</v>
       </c>
-      <c r="N211" s="11">
+      <c r="N211" s="10">
         <v>279</v>
       </c>
-      <c r="O211" s="11">
+      <c r="O211" s="10">
         <v>680</v>
       </c>
-      <c r="P211" s="11">
+      <c r="P211" s="10">
         <v>104</v>
       </c>
-      <c r="Q211" s="11">
+      <c r="Q211" s="10">
         <v>229</v>
       </c>
-      <c r="R211" s="11">
+      <c r="R211" s="10">
         <v>9</v>
       </c>
-      <c r="S211" s="11">
+      <c r="S211" s="10">
         <v>557</v>
       </c>
-      <c r="T211" s="11">
+      <c r="T211" s="10">
         <v>159</v>
       </c>
     </row>
@@ -9261,16 +9261,16 @@
       <c r="L212">
         <v>80</v>
       </c>
-      <c r="M212" s="11">
-        <v>0</v>
-      </c>
-      <c r="N212" s="11">
-        <v>0</v>
-      </c>
-      <c r="O212" s="11">
-        <v>0</v>
-      </c>
-      <c r="P212" s="11">
+      <c r="M212" s="10">
+        <v>0</v>
+      </c>
+      <c r="N212" s="10">
+        <v>0</v>
+      </c>
+      <c r="O212" s="10">
+        <v>0</v>
+      </c>
+      <c r="P212" s="10">
         <v>92</v>
       </c>
     </row>
@@ -9460,22 +9460,22 @@
       <c r="L218">
         <v>231</v>
       </c>
-      <c r="M218" s="11">
+      <c r="M218" s="10">
         <v>172</v>
       </c>
-      <c r="N218" s="11">
+      <c r="N218" s="10">
         <v>117</v>
       </c>
-      <c r="O218" s="11">
+      <c r="O218" s="10">
         <v>175</v>
       </c>
-      <c r="P218" s="11">
+      <c r="P218" s="10">
         <v>453</v>
       </c>
-      <c r="Q218" s="11">
+      <c r="Q218" s="10">
         <v>19</v>
       </c>
-      <c r="R218" s="11">
+      <c r="R218" s="10">
         <v>0</v>
       </c>
     </row>
@@ -9553,7 +9553,7 @@
       <c r="L221">
         <v>0</v>
       </c>
-      <c r="M221" s="11">
+      <c r="M221" s="10">
         <v>0</v>
       </c>
     </row>
@@ -9649,29 +9649,29 @@
       <c r="L225">
         <v>209</v>
       </c>
-      <c r="M225" s="11">
+      <c r="M225" s="10">
         <v>169</v>
       </c>
-      <c r="N225" s="11">
+      <c r="N225" s="10">
         <v>24</v>
       </c>
-      <c r="O225" s="11">
+      <c r="O225" s="10">
         <v>287</v>
       </c>
-      <c r="P225" s="11">
+      <c r="P225" s="10">
         <v>383</v>
       </c>
-      <c r="Q225" s="11">
+      <c r="Q225" s="10">
         <v>26</v>
       </c>
-      <c r="R225" s="11">
+      <c r="R225" s="10">
         <v>366</v>
       </c>
-      <c r="S225" s="11">
+      <c r="S225" s="10">
         <f>12*60+34</f>
         <v>754</v>
       </c>
-      <c r="T225" s="11">
+      <c r="T225" s="10">
         <v>493</v>
       </c>
     </row>
@@ -9713,16 +9713,16 @@
       <c r="L226">
         <v>15</v>
       </c>
-      <c r="M226" s="11">
+      <c r="M226" s="10">
         <v>5</v>
       </c>
-      <c r="N226" s="11">
+      <c r="N226" s="10">
         <v>123</v>
       </c>
-      <c r="O226" s="11">
-        <v>0</v>
-      </c>
-      <c r="P226" s="11">
+      <c r="O226" s="10">
+        <v>0</v>
+      </c>
+      <c r="P226" s="10">
         <v>11</v>
       </c>
     </row>
@@ -10617,10 +10617,10 @@
       <c r="L262">
         <v>148</v>
       </c>
-      <c r="M262" s="11">
+      <c r="M262" s="10">
         <v>108</v>
       </c>
-      <c r="N262" s="11">
+      <c r="N262" s="10">
         <v>33</v>
       </c>
     </row>
@@ -10662,13 +10662,13 @@
       <c r="L263">
         <v>285</v>
       </c>
-      <c r="M263" s="11">
+      <c r="M263" s="10">
         <v>649</v>
       </c>
-      <c r="N263" s="11">
-        <v>0</v>
-      </c>
-      <c r="O263" s="11">
+      <c r="N263" s="10">
+        <v>0</v>
+      </c>
+      <c r="O263" s="10">
         <v>666</v>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       <c r="L269">
         <v>20</v>
       </c>
-      <c r="M269" s="11">
+      <c r="M269" s="10">
         <v>30</v>
       </c>
     </row>
@@ -10883,7 +10883,7 @@
         <f>8*60+51</f>
         <v>531</v>
       </c>
-      <c r="M270" s="11">
+      <c r="M270" s="10">
         <v>23</v>
       </c>
     </row>
@@ -10926,7 +10926,7 @@
       <c r="L271">
         <v>299</v>
       </c>
-      <c r="M271" s="11">
+      <c r="M271" s="10">
         <v>525</v>
       </c>
     </row>
@@ -11999,7 +11999,7 @@
   <dimension ref="A1:B309"/>
   <sheetViews>
     <sheetView topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="B290" sqref="B290:B309"/>
+      <selection activeCell="B300" sqref="B300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14797,15 +14797,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
   <dimension ref="A1:AE309"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D303" sqref="D303"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F301" sqref="F301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="13" max="29" width="8.88671875" style="12"/>
+    <col min="13" max="29" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
@@ -14910,56 +14910,56 @@
       <c r="L3">
         <v>23</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <v>111</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="11">
         <v>38</v>
       </c>
-      <c r="O3" s="12">
-        <v>0</v>
-      </c>
-      <c r="P3" s="12">
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
         <v>95</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="11">
         <v>167</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="11">
         <v>243</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="11">
         <v>159</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="11">
         <v>16</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="11">
         <v>131</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="11">
         <v>424</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="11">
         <v>17</v>
       </c>
-      <c r="X3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="12">
+      <c r="X3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="11">
         <f>13*60+12</f>
         <v>792</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="Z3" s="11">
         <v>63</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AA3" s="11">
         <v>4</v>
       </c>
-      <c r="AB3" s="12">
+      <c r="AB3" s="11">
         <v>304</v>
       </c>
-      <c r="AC3" s="12">
+      <c r="AC3" s="11">
         <v>3</v>
       </c>
     </row>
@@ -15084,7 +15084,7 @@
       <c r="L8">
         <v>10</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <v>173</v>
       </c>
     </row>
@@ -15283,13 +15283,13 @@
         <f>420+11</f>
         <v>431</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <v>75</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="11">
         <v>21</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="11">
         <v>0</v>
       </c>
     </row>
@@ -15415,16 +15415,16 @@
       <c r="L20">
         <v>9</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="11">
         <v>4</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="11">
         <v>23</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="11">
         <v>643</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="11">
         <v>0</v>
       </c>
     </row>
@@ -15467,7 +15467,7 @@
       <c r="L21">
         <v>109</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <v>0</v>
       </c>
     </row>
@@ -15509,7 +15509,7 @@
       <c r="L22">
         <v>105</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="11">
         <v>129</v>
       </c>
     </row>
@@ -15551,31 +15551,31 @@
       <c r="L23">
         <v>45</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="11">
         <v>130</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="11">
         <v>151</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="11">
         <v>158</v>
       </c>
-      <c r="P23" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="12">
+      <c r="P23" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
         <v>48</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="11">
         <v>28</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="11">
         <v>70</v>
       </c>
-      <c r="T23" s="12">
+      <c r="T23" s="11">
         <v>119</v>
       </c>
-      <c r="U23" s="12">
+      <c r="U23" s="11">
         <v>17</v>
       </c>
     </row>
@@ -15617,16 +15617,16 @@
       <c r="L24">
         <v>431</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="11">
         <v>54</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="11">
         <v>35</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="11">
         <v>64</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="11">
         <v>3</v>
       </c>
     </row>
@@ -15752,19 +15752,19 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="11">
         <v>13</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="11">
         <v>27</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29" s="11">
         <v>14</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="11">
         <v>16</v>
       </c>
-      <c r="Q29" s="12">
+      <c r="Q29" s="11">
         <v>1</v>
       </c>
     </row>
@@ -15908,43 +15908,43 @@
       <c r="L35">
         <v>191</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="11">
         <v>90</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="11">
         <v>50</v>
       </c>
-      <c r="O35" s="12">
-        <v>0</v>
-      </c>
-      <c r="P35" s="12">
+      <c r="O35" s="11">
+        <v>0</v>
+      </c>
+      <c r="P35" s="11">
         <v>255</v>
       </c>
-      <c r="Q35" s="12">
+      <c r="Q35" s="11">
         <v>14</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R35" s="11">
         <v>612</v>
       </c>
-      <c r="S35" s="12">
+      <c r="S35" s="11">
         <v>98</v>
       </c>
-      <c r="T35" s="12">
+      <c r="T35" s="11">
         <v>7</v>
       </c>
-      <c r="U35" s="12">
+      <c r="U35" s="11">
         <v>107</v>
       </c>
-      <c r="V35" s="12">
-        <v>0</v>
-      </c>
-      <c r="W35" s="12">
+      <c r="V35" s="11">
+        <v>0</v>
+      </c>
+      <c r="W35" s="11">
         <v>1</v>
       </c>
-      <c r="X35" s="12">
+      <c r="X35" s="11">
         <v>29</v>
       </c>
-      <c r="Y35" s="12">
+      <c r="Y35" s="11">
         <v>0</v>
       </c>
     </row>
@@ -15999,19 +15999,19 @@
         <f>7*60+55</f>
         <v>475</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="11">
         <v>72</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="11">
         <v>128</v>
       </c>
-      <c r="O37" s="12">
+      <c r="O37" s="11">
         <v>2</v>
       </c>
-      <c r="P37" s="12">
+      <c r="P37" s="11">
         <v>44</v>
       </c>
-      <c r="Q37" s="12">
+      <c r="Q37" s="11">
         <v>331</v>
       </c>
     </row>
@@ -16146,33 +16146,33 @@
       <c r="L42">
         <v>198</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="11">
         <v>151</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="11">
         <v>182</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O42" s="11">
         <f>9*60+6</f>
         <v>546</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P42" s="11">
         <v>125</v>
       </c>
-      <c r="Q42" s="12">
-        <v>0</v>
-      </c>
-      <c r="R42" s="12">
+      <c r="Q42" s="11">
+        <v>0</v>
+      </c>
+      <c r="R42" s="11">
         <f>19*60+38</f>
         <v>1178</v>
       </c>
-      <c r="S42" s="12">
+      <c r="S42" s="11">
         <v>242</v>
       </c>
-      <c r="T42" s="12">
+      <c r="T42" s="11">
         <v>282</v>
       </c>
-      <c r="U42" s="12">
+      <c r="U42" s="11">
         <v>375</v>
       </c>
     </row>
@@ -16254,22 +16254,22 @@
       <c r="L44">
         <v>93</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="11">
         <v>15</v>
       </c>
-      <c r="N44" s="12">
+      <c r="N44" s="11">
         <v>2</v>
       </c>
-      <c r="O44" s="12">
+      <c r="O44" s="11">
         <v>34</v>
       </c>
-      <c r="P44" s="12">
+      <c r="P44" s="11">
         <v>78</v>
       </c>
-      <c r="Q44" s="12">
+      <c r="Q44" s="11">
         <v>347</v>
       </c>
-      <c r="R44" s="12">
+      <c r="R44" s="11">
         <v>622</v>
       </c>
     </row>
@@ -16311,20 +16311,20 @@
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M45" s="11">
         <f>180+47</f>
         <v>227</v>
       </c>
-      <c r="N45" s="12">
+      <c r="N45" s="11">
         <v>51</v>
       </c>
-      <c r="O45" s="12">
-        <v>0</v>
-      </c>
-      <c r="P45" s="12">
+      <c r="O45" s="11">
+        <v>0</v>
+      </c>
+      <c r="P45" s="11">
         <v>107</v>
       </c>
-      <c r="Q45" s="12">
+      <c r="Q45" s="11">
         <v>0</v>
       </c>
     </row>
@@ -16366,19 +16366,19 @@
       <c r="L46">
         <v>9</v>
       </c>
-      <c r="M46" s="12">
-        <v>0</v>
-      </c>
-      <c r="N46" s="12">
-        <v>0</v>
-      </c>
-      <c r="O46" s="12">
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
         <v>240</v>
       </c>
-      <c r="P46" s="12">
+      <c r="P46" s="11">
         <v>443</v>
       </c>
-      <c r="Q46" s="12">
+      <c r="Q46" s="11">
         <v>0</v>
       </c>
     </row>
@@ -16420,28 +16420,28 @@
       <c r="L47">
         <v>92</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M47" s="11">
         <v>118</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N47" s="11">
         <v>4</v>
       </c>
-      <c r="O47" s="12">
+      <c r="O47" s="11">
         <v>130</v>
       </c>
-      <c r="P47" s="12">
+      <c r="P47" s="11">
         <v>74</v>
       </c>
-      <c r="Q47" s="12">
-        <v>0</v>
-      </c>
-      <c r="R47" s="12">
+      <c r="Q47" s="11">
+        <v>0</v>
+      </c>
+      <c r="R47" s="11">
         <v>334</v>
       </c>
-      <c r="S47" s="12">
+      <c r="S47" s="11">
         <v>319</v>
       </c>
-      <c r="T47" s="12">
+      <c r="T47" s="11">
         <v>0</v>
       </c>
     </row>
@@ -16483,10 +16483,10 @@
       <c r="L48">
         <v>345</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48" s="11">
         <v>22</v>
       </c>
-      <c r="N48" s="12">
+      <c r="N48" s="11">
         <v>128</v>
       </c>
     </row>
@@ -16584,7 +16584,7 @@
       <c r="L51">
         <v>50</v>
       </c>
-      <c r="M51" s="12">
+      <c r="M51" s="11">
         <v>23</v>
       </c>
     </row>
@@ -16626,22 +16626,22 @@
       <c r="L52">
         <v>24</v>
       </c>
-      <c r="M52" s="12">
+      <c r="M52" s="11">
         <v>56</v>
       </c>
-      <c r="N52" s="12">
+      <c r="N52" s="11">
         <v>19</v>
       </c>
-      <c r="O52" s="12">
+      <c r="O52" s="11">
         <v>98</v>
       </c>
-      <c r="P52" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="12">
+      <c r="P52" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="11">
         <v>1</v>
       </c>
-      <c r="R52" s="12">
+      <c r="R52" s="11">
         <v>46</v>
       </c>
     </row>
@@ -16684,16 +16684,16 @@
       <c r="L53">
         <v>45</v>
       </c>
-      <c r="M53" s="12">
-        <v>0</v>
-      </c>
-      <c r="N53" s="12">
+      <c r="M53" s="11">
+        <v>0</v>
+      </c>
+      <c r="N53" s="11">
         <v>185</v>
       </c>
-      <c r="O53" s="12">
+      <c r="O53" s="11">
         <v>129</v>
       </c>
-      <c r="P53" s="12">
+      <c r="P53" s="11">
         <v>80</v>
       </c>
     </row>
@@ -16811,13 +16811,13 @@
       <c r="L57">
         <v>150</v>
       </c>
-      <c r="M57" s="12">
+      <c r="M57" s="11">
         <v>22</v>
       </c>
-      <c r="N57" s="12">
+      <c r="N57" s="11">
         <v>119</v>
       </c>
-      <c r="O57" s="12">
+      <c r="O57" s="11">
         <v>5</v>
       </c>
     </row>
@@ -16883,16 +16883,16 @@
       <c r="L59">
         <v>0</v>
       </c>
-      <c r="M59" s="12">
-        <v>0</v>
-      </c>
-      <c r="N59" s="12">
-        <v>0</v>
-      </c>
-      <c r="O59" s="12">
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0</v>
+      </c>
+      <c r="O59" s="11">
         <v>90</v>
       </c>
-      <c r="P59" s="12">
+      <c r="P59" s="11">
         <v>155</v>
       </c>
     </row>
@@ -17086,16 +17086,16 @@
       <c r="L67">
         <v>0</v>
       </c>
-      <c r="M67" s="12">
+      <c r="M67" s="11">
         <v>41</v>
       </c>
-      <c r="N67" s="12">
-        <v>0</v>
-      </c>
-      <c r="O67" s="12">
+      <c r="N67" s="11">
+        <v>0</v>
+      </c>
+      <c r="O67" s="11">
         <v>169</v>
       </c>
-      <c r="P67" s="12">
+      <c r="P67" s="11">
         <v>0</v>
       </c>
     </row>
@@ -17171,7 +17171,7 @@
       <c r="L69">
         <v>27</v>
       </c>
-      <c r="M69" s="12">
+      <c r="M69" s="11">
         <v>30</v>
       </c>
     </row>
@@ -17306,13 +17306,13 @@
       <c r="L74">
         <v>114</v>
       </c>
-      <c r="M74" s="12">
+      <c r="M74" s="11">
         <v>51</v>
       </c>
-      <c r="N74" s="12">
+      <c r="N74" s="11">
         <v>661</v>
       </c>
-      <c r="O74" s="12">
+      <c r="O74" s="11">
         <v>245</v>
       </c>
     </row>
@@ -17396,43 +17396,43 @@
       <c r="L77">
         <v>5</v>
       </c>
-      <c r="M77" s="12">
+      <c r="M77" s="11">
         <v>12</v>
       </c>
-      <c r="N77" s="12">
+      <c r="N77" s="11">
         <v>272</v>
       </c>
-      <c r="O77" s="12">
+      <c r="O77" s="11">
         <v>2</v>
       </c>
-      <c r="P77" s="12">
+      <c r="P77" s="11">
         <v>34</v>
       </c>
-      <c r="Q77" s="12">
+      <c r="Q77" s="11">
         <v>8</v>
       </c>
-      <c r="R77" s="12">
+      <c r="R77" s="11">
         <v>158</v>
       </c>
-      <c r="S77" s="12">
+      <c r="S77" s="11">
         <v>8</v>
       </c>
-      <c r="T77" s="12">
+      <c r="T77" s="11">
         <v>46</v>
       </c>
-      <c r="U77" s="12">
+      <c r="U77" s="11">
         <v>141</v>
       </c>
-      <c r="V77" s="12">
+      <c r="V77" s="11">
         <v>200</v>
       </c>
-      <c r="W77" s="12">
+      <c r="W77" s="11">
         <v>217</v>
       </c>
-      <c r="X77" s="12">
+      <c r="X77" s="11">
         <v>56</v>
       </c>
-      <c r="Y77" s="12">
+      <c r="Y77" s="11">
         <v>3</v>
       </c>
     </row>
@@ -17606,31 +17606,31 @@
       <c r="L83">
         <v>0</v>
       </c>
-      <c r="M83" s="12">
-        <v>0</v>
-      </c>
-      <c r="N83" s="12">
+      <c r="M83" s="11">
+        <v>0</v>
+      </c>
+      <c r="N83" s="11">
         <v>46</v>
       </c>
-      <c r="O83" s="12">
-        <v>0</v>
-      </c>
-      <c r="P83" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="12">
-        <v>0</v>
-      </c>
-      <c r="R83" s="12">
-        <v>0</v>
-      </c>
-      <c r="S83" s="12">
-        <v>0</v>
-      </c>
-      <c r="T83" s="12">
+      <c r="O83" s="11">
+        <v>0</v>
+      </c>
+      <c r="P83" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="11">
+        <v>0</v>
+      </c>
+      <c r="R83" s="11">
+        <v>0</v>
+      </c>
+      <c r="S83" s="11">
+        <v>0</v>
+      </c>
+      <c r="T83" s="11">
         <v>279</v>
       </c>
-      <c r="U83" s="12">
+      <c r="U83" s="11">
         <v>13</v>
       </c>
     </row>
@@ -17693,49 +17693,49 @@
       <c r="L85">
         <v>55</v>
       </c>
-      <c r="M85" s="12">
+      <c r="M85" s="11">
         <v>64</v>
       </c>
-      <c r="N85" s="12">
+      <c r="N85" s="11">
         <v>272</v>
       </c>
-      <c r="O85" s="12">
+      <c r="O85" s="11">
         <v>27</v>
       </c>
-      <c r="P85" s="12">
+      <c r="P85" s="11">
         <v>103</v>
       </c>
-      <c r="Q85" s="12">
+      <c r="Q85" s="11">
         <v>11</v>
       </c>
-      <c r="R85" s="12">
-        <v>0</v>
-      </c>
-      <c r="S85" s="12">
-        <v>0</v>
-      </c>
-      <c r="T85" s="12">
+      <c r="R85" s="11">
+        <v>0</v>
+      </c>
+      <c r="S85" s="11">
+        <v>0</v>
+      </c>
+      <c r="T85" s="11">
         <v>117</v>
       </c>
-      <c r="U85" s="12">
+      <c r="U85" s="11">
         <v>7</v>
       </c>
-      <c r="V85" s="12">
+      <c r="V85" s="11">
         <v>13</v>
       </c>
-      <c r="W85" s="12">
-        <v>0</v>
-      </c>
-      <c r="X85" s="12">
+      <c r="W85" s="11">
+        <v>0</v>
+      </c>
+      <c r="X85" s="11">
         <v>12</v>
       </c>
-      <c r="Y85" s="12">
+      <c r="Y85" s="11">
         <v>1</v>
       </c>
-      <c r="Z85" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="12">
+      <c r="Z85" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="11">
         <v>0</v>
       </c>
     </row>
@@ -17806,13 +17806,13 @@
         <f>16*60+7</f>
         <v>967</v>
       </c>
-      <c r="M87" s="12">
+      <c r="M87" s="11">
         <v>6</v>
       </c>
-      <c r="N87" s="12">
+      <c r="N87" s="11">
         <v>387</v>
       </c>
-      <c r="O87" s="12">
+      <c r="O87" s="11">
         <v>244</v>
       </c>
     </row>
@@ -17891,13 +17891,13 @@
       <c r="L89">
         <v>189</v>
       </c>
-      <c r="M89" s="12">
+      <c r="M89" s="11">
         <v>2</v>
       </c>
-      <c r="N89" s="12">
+      <c r="N89" s="11">
         <v>350</v>
       </c>
-      <c r="O89" s="12">
+      <c r="O89" s="11">
         <v>0</v>
       </c>
     </row>
@@ -17939,16 +17939,16 @@
       <c r="L90">
         <v>39</v>
       </c>
-      <c r="M90" s="12">
+      <c r="M90" s="11">
         <v>5</v>
       </c>
-      <c r="N90" s="12">
-        <v>0</v>
-      </c>
-      <c r="O90" s="12">
-        <v>0</v>
-      </c>
-      <c r="P90" s="12">
+      <c r="N90" s="11">
+        <v>0</v>
+      </c>
+      <c r="O90" s="11">
+        <v>0</v>
+      </c>
+      <c r="P90" s="11">
         <v>40</v>
       </c>
     </row>
@@ -18029,19 +18029,19 @@
       <c r="L92">
         <v>51</v>
       </c>
-      <c r="M92" s="12">
-        <v>0</v>
-      </c>
-      <c r="N92" s="12">
-        <v>0</v>
-      </c>
-      <c r="O92" s="12">
-        <v>0</v>
-      </c>
-      <c r="P92" s="12">
+      <c r="M92" s="11">
+        <v>0</v>
+      </c>
+      <c r="N92" s="11">
+        <v>0</v>
+      </c>
+      <c r="O92" s="11">
+        <v>0</v>
+      </c>
+      <c r="P92" s="11">
         <v>60</v>
       </c>
-      <c r="Q92" s="12">
+      <c r="Q92" s="11">
         <v>0</v>
       </c>
     </row>
@@ -18084,7 +18084,7 @@
       <c r="L93">
         <v>0</v>
       </c>
-      <c r="M93" s="12">
+      <c r="M93" s="11">
         <v>342</v>
       </c>
     </row>
@@ -18409,13 +18409,13 @@
       <c r="L108">
         <v>159</v>
       </c>
-      <c r="M108" s="12">
+      <c r="M108" s="11">
         <v>56</v>
       </c>
-      <c r="N108" s="12">
+      <c r="N108" s="11">
         <v>20</v>
       </c>
-      <c r="O108" s="12">
+      <c r="O108" s="11">
         <v>3</v>
       </c>
     </row>
@@ -18627,16 +18627,16 @@
       <c r="L115">
         <v>80</v>
       </c>
-      <c r="M115" s="12">
+      <c r="M115" s="11">
         <v>40</v>
       </c>
-      <c r="N115" s="12">
+      <c r="N115" s="11">
         <v>7</v>
       </c>
-      <c r="O115" s="12">
+      <c r="O115" s="11">
         <v>378</v>
       </c>
-      <c r="P115" s="12">
+      <c r="P115" s="11">
         <v>5</v>
       </c>
     </row>
@@ -18733,22 +18733,22 @@
       <c r="L118">
         <v>24</v>
       </c>
-      <c r="M118" s="12">
+      <c r="M118" s="11">
         <v>2</v>
       </c>
-      <c r="N118" s="12">
+      <c r="N118" s="11">
         <v>1115</v>
       </c>
-      <c r="O118" s="12">
+      <c r="O118" s="11">
         <v>376</v>
       </c>
-      <c r="P118" s="12">
+      <c r="P118" s="11">
         <v>265</v>
       </c>
-      <c r="Q118" s="12">
+      <c r="Q118" s="11">
         <v>42</v>
       </c>
-      <c r="R118" s="12">
+      <c r="R118" s="11">
         <v>0</v>
       </c>
     </row>
@@ -18823,7 +18823,7 @@
       <c r="L120">
         <v>0</v>
       </c>
-      <c r="M120" s="12">
+      <c r="M120" s="11">
         <v>0</v>
       </c>
     </row>
@@ -18865,19 +18865,19 @@
       <c r="L121">
         <v>3</v>
       </c>
-      <c r="M121" s="12">
+      <c r="M121" s="11">
         <v>36</v>
       </c>
-      <c r="N121" s="12">
+      <c r="N121" s="11">
         <v>47</v>
       </c>
-      <c r="O121" s="12">
+      <c r="O121" s="11">
         <v>12</v>
       </c>
-      <c r="P121" s="12">
+      <c r="P121" s="11">
         <v>14</v>
       </c>
-      <c r="Q121" s="12">
+      <c r="Q121" s="11">
         <v>187</v>
       </c>
     </row>
@@ -19068,40 +19068,40 @@
       <c r="L129">
         <v>0</v>
       </c>
-      <c r="M129" s="12">
+      <c r="M129" s="11">
         <v>16</v>
       </c>
-      <c r="N129" s="12">
+      <c r="N129" s="11">
         <v>19</v>
       </c>
-      <c r="O129" s="12">
+      <c r="O129" s="11">
         <v>2</v>
       </c>
-      <c r="P129" s="12">
+      <c r="P129" s="11">
         <v>6</v>
       </c>
-      <c r="Q129" s="12">
+      <c r="Q129" s="11">
         <v>120</v>
       </c>
-      <c r="R129" s="12">
+      <c r="R129" s="11">
         <v>302</v>
       </c>
-      <c r="S129" s="12">
-        <v>0</v>
-      </c>
-      <c r="T129" s="12">
+      <c r="S129" s="11">
+        <v>0</v>
+      </c>
+      <c r="T129" s="11">
         <v>5</v>
       </c>
-      <c r="U129" s="12">
-        <v>0</v>
-      </c>
-      <c r="V129" s="12">
+      <c r="U129" s="11">
+        <v>0</v>
+      </c>
+      <c r="V129" s="11">
         <v>34</v>
       </c>
-      <c r="W129" s="12">
+      <c r="W129" s="11">
         <v>36</v>
       </c>
-      <c r="X129" s="12">
+      <c r="X129" s="11">
         <v>223</v>
       </c>
     </row>
@@ -19257,10 +19257,10 @@
       <c r="L135">
         <v>402</v>
       </c>
-      <c r="M135" s="12">
+      <c r="M135" s="11">
         <v>332</v>
       </c>
-      <c r="N135" s="12">
+      <c r="N135" s="11">
         <v>202</v>
       </c>
     </row>
@@ -19364,16 +19364,16 @@
       <c r="L139">
         <v>168</v>
       </c>
-      <c r="M139" s="12">
+      <c r="M139" s="11">
         <v>19</v>
       </c>
-      <c r="N139" s="12">
-        <v>0</v>
-      </c>
-      <c r="O139" s="12">
+      <c r="N139" s="11">
+        <v>0</v>
+      </c>
+      <c r="O139" s="11">
         <v>335</v>
       </c>
-      <c r="P139" s="12">
+      <c r="P139" s="11">
         <v>204</v>
       </c>
     </row>
@@ -19417,52 +19417,52 @@
         <f>16*60+55</f>
         <v>1015</v>
       </c>
-      <c r="M140" s="12">
+      <c r="M140" s="11">
         <v>1201</v>
       </c>
-      <c r="N140" s="12">
+      <c r="N140" s="11">
         <v>130</v>
       </c>
-      <c r="O140" s="12">
+      <c r="O140" s="11">
         <v>22</v>
       </c>
-      <c r="P140" s="12">
+      <c r="P140" s="11">
         <v>90</v>
       </c>
-      <c r="Q140" s="12">
+      <c r="Q140" s="11">
         <v>176</v>
       </c>
-      <c r="R140" s="12">
+      <c r="R140" s="11">
         <v>47</v>
       </c>
-      <c r="S140" s="12">
+      <c r="S140" s="11">
         <v>7</v>
       </c>
-      <c r="T140" s="12">
+      <c r="T140" s="11">
         <v>15</v>
       </c>
-      <c r="U140" s="12">
-        <v>0</v>
-      </c>
-      <c r="V140" s="12">
+      <c r="U140" s="11">
+        <v>0</v>
+      </c>
+      <c r="V140" s="11">
         <v>86</v>
       </c>
-      <c r="W140" s="12">
+      <c r="W140" s="11">
         <v>31</v>
       </c>
-      <c r="X140" s="12">
+      <c r="X140" s="11">
         <v>170</v>
       </c>
-      <c r="Y140" s="12">
+      <c r="Y140" s="11">
         <v>205</v>
       </c>
-      <c r="Z140" s="12">
+      <c r="Z140" s="11">
         <v>552</v>
       </c>
-      <c r="AA140" s="12">
+      <c r="AA140" s="11">
         <v>569</v>
       </c>
-      <c r="AB140" s="12">
+      <c r="AB140" s="11">
         <f>9*60+29</f>
         <v>569</v>
       </c>
@@ -19505,22 +19505,22 @@
       <c r="L141">
         <v>3</v>
       </c>
-      <c r="M141" s="12">
+      <c r="M141" s="11">
         <v>186</v>
       </c>
-      <c r="N141" s="12">
+      <c r="N141" s="11">
         <v>209</v>
       </c>
-      <c r="O141" s="12">
+      <c r="O141" s="11">
         <v>115</v>
       </c>
-      <c r="P141" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q141" s="12">
-        <v>0</v>
-      </c>
-      <c r="R141" s="12">
+      <c r="P141" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="11">
+        <v>0</v>
+      </c>
+      <c r="R141" s="11">
         <v>64</v>
       </c>
     </row>
@@ -19601,37 +19601,37 @@
       <c r="L143">
         <v>100</v>
       </c>
-      <c r="M143" s="12">
+      <c r="M143" s="11">
         <v>8</v>
       </c>
-      <c r="N143" s="12">
+      <c r="N143" s="11">
         <v>206</v>
       </c>
-      <c r="O143" s="12">
+      <c r="O143" s="11">
         <v>505</v>
       </c>
-      <c r="P143" s="12">
+      <c r="P143" s="11">
         <v>3</v>
       </c>
-      <c r="Q143" s="12">
-        <v>0</v>
-      </c>
-      <c r="R143" s="12">
+      <c r="Q143" s="11">
+        <v>0</v>
+      </c>
+      <c r="R143" s="11">
         <v>1</v>
       </c>
-      <c r="S143" s="12">
+      <c r="S143" s="11">
         <v>317</v>
       </c>
-      <c r="T143" s="12">
+      <c r="T143" s="11">
         <v>273</v>
       </c>
-      <c r="U143" s="12">
+      <c r="U143" s="11">
         <v>680</v>
       </c>
-      <c r="V143" s="12">
+      <c r="V143" s="11">
         <v>6</v>
       </c>
-      <c r="W143" s="12">
+      <c r="W143" s="11">
         <v>8</v>
       </c>
     </row>
@@ -19709,32 +19709,32 @@
       <c r="L145">
         <v>163</v>
       </c>
-      <c r="M145" s="12">
+      <c r="M145" s="11">
         <v>443</v>
       </c>
-      <c r="N145" s="12">
+      <c r="N145" s="11">
         <v>143</v>
       </c>
-      <c r="O145" s="12">
+      <c r="O145" s="11">
         <v>33</v>
       </c>
-      <c r="P145" s="12">
+      <c r="P145" s="11">
         <v>113</v>
       </c>
-      <c r="Q145" s="12">
+      <c r="Q145" s="11">
         <v>635</v>
       </c>
-      <c r="R145" s="12">
+      <c r="R145" s="11">
         <v>303</v>
       </c>
-      <c r="S145" s="12">
+      <c r="S145" s="11">
         <v>304</v>
       </c>
-      <c r="T145" s="12">
+      <c r="T145" s="11">
         <f>12*60+2</f>
         <v>722</v>
       </c>
-      <c r="U145" s="12">
+      <c r="U145" s="11">
         <v>670</v>
       </c>
     </row>
@@ -19897,7 +19897,7 @@
       <c r="L151">
         <v>310</v>
       </c>
-      <c r="M151" s="12">
+      <c r="M151" s="11">
         <v>30</v>
       </c>
     </row>
@@ -19993,10 +19993,10 @@
       <c r="L154">
         <v>82</v>
       </c>
-      <c r="M154" s="12">
+      <c r="M154" s="11">
         <v>395</v>
       </c>
-      <c r="N154" s="12">
+      <c r="N154" s="11">
         <v>165</v>
       </c>
     </row>
@@ -20321,40 +20321,40 @@
       <c r="L167">
         <v>234</v>
       </c>
-      <c r="M167" s="12">
-        <v>0</v>
-      </c>
-      <c r="N167" s="12">
+      <c r="M167" s="11">
+        <v>0</v>
+      </c>
+      <c r="N167" s="11">
         <v>454</v>
       </c>
-      <c r="O167" s="12">
-        <v>0</v>
-      </c>
-      <c r="P167" s="12">
+      <c r="O167" s="11">
+        <v>0</v>
+      </c>
+      <c r="P167" s="11">
         <v>208</v>
       </c>
-      <c r="Q167" s="12">
+      <c r="Q167" s="11">
         <v>42</v>
       </c>
-      <c r="R167" s="12">
+      <c r="R167" s="11">
         <v>48</v>
       </c>
-      <c r="S167" s="12">
-        <v>0</v>
-      </c>
-      <c r="T167" s="12">
+      <c r="S167" s="11">
+        <v>0</v>
+      </c>
+      <c r="T167" s="11">
         <v>71</v>
       </c>
-      <c r="U167" s="12">
+      <c r="U167" s="11">
         <v>259</v>
       </c>
-      <c r="V167" s="12">
+      <c r="V167" s="11">
         <v>2</v>
       </c>
-      <c r="W167" s="12">
+      <c r="W167" s="11">
         <v>546</v>
       </c>
-      <c r="X167" s="12">
+      <c r="X167" s="11">
         <v>0</v>
       </c>
     </row>
@@ -20396,46 +20396,46 @@
       <c r="L168">
         <v>184</v>
       </c>
-      <c r="M168" s="12">
-        <v>0</v>
-      </c>
-      <c r="N168" s="12">
+      <c r="M168" s="11">
+        <v>0</v>
+      </c>
+      <c r="N168" s="11">
         <v>317</v>
       </c>
-      <c r="O168" s="12">
-        <v>0</v>
-      </c>
-      <c r="P168" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q168" s="12">
+      <c r="O168" s="11">
+        <v>0</v>
+      </c>
+      <c r="P168" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="11">
         <v>67</v>
       </c>
-      <c r="R168" s="12">
+      <c r="R168" s="11">
         <v>566</v>
       </c>
-      <c r="S168" s="12">
+      <c r="S168" s="11">
         <v>150</v>
       </c>
-      <c r="T168" s="12">
+      <c r="T168" s="11">
         <v>93</v>
       </c>
-      <c r="U168" s="12">
+      <c r="U168" s="11">
         <v>141</v>
       </c>
-      <c r="V168" s="12">
+      <c r="V168" s="11">
         <v>11</v>
       </c>
-      <c r="W168" s="12">
+      <c r="W168" s="11">
         <v>8</v>
       </c>
-      <c r="X168" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y168" s="12">
+      <c r="X168" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y168" s="11">
         <v>633</v>
       </c>
-      <c r="Z168" s="12">
+      <c r="Z168" s="11">
         <v>0</v>
       </c>
     </row>
@@ -20525,25 +20525,25 @@
       <c r="L171">
         <v>55</v>
       </c>
-      <c r="M171" s="12">
+      <c r="M171" s="11">
         <v>90</v>
       </c>
-      <c r="N171" s="12">
+      <c r="N171" s="11">
         <v>138</v>
       </c>
-      <c r="O171" s="12">
+      <c r="O171" s="11">
         <v>24</v>
       </c>
-      <c r="P171" s="12">
+      <c r="P171" s="11">
         <v>35</v>
       </c>
-      <c r="Q171" s="12">
+      <c r="Q171" s="11">
         <v>500</v>
       </c>
-      <c r="R171" s="12">
+      <c r="R171" s="11">
         <v>35</v>
       </c>
-      <c r="S171" s="12">
+      <c r="S171" s="11">
         <v>9</v>
       </c>
     </row>
@@ -20861,13 +20861,13 @@
       <c r="L183">
         <v>35</v>
       </c>
-      <c r="M183" s="12">
+      <c r="M183" s="11">
         <v>257</v>
       </c>
-      <c r="N183" s="12">
+      <c r="N183" s="11">
         <v>13</v>
       </c>
-      <c r="O183" s="12">
+      <c r="O183" s="11">
         <v>0</v>
       </c>
     </row>
@@ -20925,7 +20925,7 @@
         <f>9*60+14</f>
         <v>554</v>
       </c>
-      <c r="M185" s="12">
+      <c r="M185" s="11">
         <v>137</v>
       </c>
     </row>
@@ -21036,13 +21036,13 @@
       <c r="L189">
         <v>4</v>
       </c>
-      <c r="M189" s="12">
+      <c r="M189" s="11">
         <v>6</v>
       </c>
-      <c r="N189" s="12">
-        <v>0</v>
-      </c>
-      <c r="O189" s="12">
+      <c r="N189" s="11">
+        <v>0</v>
+      </c>
+      <c r="O189" s="11">
         <v>0</v>
       </c>
     </row>
@@ -21231,16 +21231,16 @@
       <c r="L195">
         <v>0</v>
       </c>
-      <c r="M195" s="12">
-        <v>0</v>
-      </c>
-      <c r="N195" s="12">
+      <c r="M195" s="11">
+        <v>0</v>
+      </c>
+      <c r="N195" s="11">
         <v>215</v>
       </c>
-      <c r="O195" s="12">
-        <v>0</v>
-      </c>
-      <c r="P195" s="12">
+      <c r="O195" s="11">
+        <v>0</v>
+      </c>
+      <c r="P195" s="11">
         <v>6</v>
       </c>
     </row>
@@ -21399,19 +21399,19 @@
       <c r="L202">
         <v>113</v>
       </c>
-      <c r="M202" s="12">
+      <c r="M202" s="11">
         <v>159</v>
       </c>
-      <c r="N202" s="12">
+      <c r="N202" s="11">
         <v>9</v>
       </c>
-      <c r="O202" s="12">
+      <c r="O202" s="11">
         <v>18</v>
       </c>
-      <c r="P202" s="12">
+      <c r="P202" s="11">
         <v>31</v>
       </c>
-      <c r="Q202" s="12">
+      <c r="Q202" s="11">
         <v>159</v>
       </c>
     </row>
@@ -21480,16 +21480,16 @@
       <c r="L204">
         <v>44</v>
       </c>
-      <c r="M204" s="12">
+      <c r="M204" s="11">
         <v>12</v>
       </c>
-      <c r="N204" s="12">
+      <c r="N204" s="11">
         <v>5</v>
       </c>
-      <c r="O204" s="12">
+      <c r="O204" s="11">
         <v>87</v>
       </c>
-      <c r="P204" s="12">
+      <c r="P204" s="11">
         <v>19</v>
       </c>
     </row>
@@ -21531,55 +21531,55 @@
       <c r="L205">
         <v>68</v>
       </c>
-      <c r="M205" s="12">
+      <c r="M205" s="11">
         <v>26</v>
       </c>
-      <c r="N205" s="12">
+      <c r="N205" s="11">
         <v>473</v>
       </c>
-      <c r="O205" s="12">
+      <c r="O205" s="11">
         <v>51</v>
       </c>
-      <c r="P205" s="12">
+      <c r="P205" s="11">
         <v>63</v>
       </c>
-      <c r="Q205" s="12">
+      <c r="Q205" s="11">
         <v>61</v>
       </c>
-      <c r="R205" s="12">
+      <c r="R205" s="11">
         <v>544</v>
       </c>
-      <c r="S205" s="12">
+      <c r="S205" s="11">
         <v>156</v>
       </c>
-      <c r="T205" s="12">
-        <v>0</v>
-      </c>
-      <c r="U205" s="12">
+      <c r="T205" s="11">
+        <v>0</v>
+      </c>
+      <c r="U205" s="11">
         <v>207</v>
       </c>
-      <c r="V205" s="12">
+      <c r="V205" s="11">
         <v>152</v>
       </c>
-      <c r="W205" s="12">
+      <c r="W205" s="11">
         <v>7</v>
       </c>
-      <c r="X205" s="12">
+      <c r="X205" s="11">
         <v>29</v>
       </c>
-      <c r="Y205" s="12">
+      <c r="Y205" s="11">
         <v>10</v>
       </c>
-      <c r="Z205" s="12">
+      <c r="Z205" s="11">
         <v>281</v>
       </c>
-      <c r="AA205" s="12">
+      <c r="AA205" s="11">
         <v>9</v>
       </c>
-      <c r="AB205" s="12">
+      <c r="AB205" s="11">
         <v>56</v>
       </c>
-      <c r="AC205" s="12">
+      <c r="AC205" s="11">
         <v>213</v>
       </c>
       <c r="AD205">
@@ -21666,11 +21666,11 @@
       <c r="L207">
         <v>0</v>
       </c>
-      <c r="M207" s="12">
+      <c r="M207" s="11">
         <f>12*60+44</f>
         <v>764</v>
       </c>
-      <c r="N207" s="12">
+      <c r="N207" s="11">
         <v>16</v>
       </c>
     </row>
@@ -21748,28 +21748,28 @@
       <c r="L209">
         <v>610</v>
       </c>
-      <c r="M209" s="12">
+      <c r="M209" s="11">
         <v>42</v>
       </c>
-      <c r="N209" s="12">
+      <c r="N209" s="11">
         <v>407</v>
       </c>
-      <c r="O209" s="12">
+      <c r="O209" s="11">
         <v>1</v>
       </c>
-      <c r="P209" s="12">
+      <c r="P209" s="11">
         <v>26</v>
       </c>
-      <c r="Q209" s="12">
+      <c r="Q209" s="11">
         <v>453</v>
       </c>
-      <c r="R209" s="12">
-        <v>0</v>
-      </c>
-      <c r="S209" s="12">
+      <c r="R209" s="11">
+        <v>0</v>
+      </c>
+      <c r="S209" s="11">
         <v>246</v>
       </c>
-      <c r="T209" s="12">
+      <c r="T209" s="11">
         <v>137</v>
       </c>
     </row>
@@ -21811,7 +21811,7 @@
       <c r="L210">
         <v>0</v>
       </c>
-      <c r="M210" s="12">
+      <c r="M210" s="11">
         <v>1</v>
       </c>
     </row>
@@ -21853,28 +21853,28 @@
       <c r="L211">
         <v>293</v>
       </c>
-      <c r="M211" s="12">
+      <c r="M211" s="11">
         <v>196</v>
       </c>
-      <c r="N211" s="12">
+      <c r="N211" s="11">
         <v>262</v>
       </c>
-      <c r="O211" s="12">
+      <c r="O211" s="11">
         <v>145</v>
       </c>
-      <c r="P211" s="12">
+      <c r="P211" s="11">
         <v>359</v>
       </c>
-      <c r="Q211" s="12">
+      <c r="Q211" s="11">
         <v>2</v>
       </c>
-      <c r="R211" s="12">
+      <c r="R211" s="11">
         <v>7</v>
       </c>
-      <c r="S211" s="12">
+      <c r="S211" s="11">
         <v>47</v>
       </c>
-      <c r="T211" s="12">
+      <c r="T211" s="11">
         <v>32</v>
       </c>
     </row>
@@ -21916,16 +21916,16 @@
       <c r="L212">
         <v>144</v>
       </c>
-      <c r="M212" s="12">
+      <c r="M212" s="11">
         <v>181</v>
       </c>
-      <c r="N212" s="12">
+      <c r="N212" s="11">
         <v>433</v>
       </c>
-      <c r="O212" s="12">
+      <c r="O212" s="11">
         <v>321</v>
       </c>
-      <c r="P212" s="12">
+      <c r="P212" s="11">
         <v>409</v>
       </c>
     </row>
@@ -22115,22 +22115,22 @@
       <c r="L218">
         <v>54</v>
       </c>
-      <c r="M218" s="12">
-        <v>0</v>
-      </c>
-      <c r="N218" s="12">
+      <c r="M218" s="11">
+        <v>0</v>
+      </c>
+      <c r="N218" s="11">
         <v>16</v>
       </c>
-      <c r="O218" s="12">
+      <c r="O218" s="11">
         <v>457</v>
       </c>
-      <c r="P218" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q218" s="12">
+      <c r="P218" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q218" s="11">
         <v>49</v>
       </c>
-      <c r="R218" s="12">
+      <c r="R218" s="11">
         <v>3</v>
       </c>
     </row>
@@ -22210,7 +22210,7 @@
         <f>660+58</f>
         <v>718</v>
       </c>
-      <c r="M221" s="12">
+      <c r="M221" s="11">
         <v>58</v>
       </c>
     </row>
@@ -22307,28 +22307,28 @@
       <c r="L225">
         <v>280</v>
       </c>
-      <c r="M225" s="12">
+      <c r="M225" s="11">
         <v>6</v>
       </c>
-      <c r="N225" s="12">
+      <c r="N225" s="11">
         <v>187</v>
       </c>
-      <c r="O225" s="12">
+      <c r="O225" s="11">
         <v>29</v>
       </c>
-      <c r="P225" s="12">
+      <c r="P225" s="11">
         <v>54</v>
       </c>
-      <c r="Q225" s="12">
+      <c r="Q225" s="11">
         <v>38</v>
       </c>
-      <c r="R225" s="12">
+      <c r="R225" s="11">
         <v>27</v>
       </c>
-      <c r="S225" s="12">
+      <c r="S225" s="11">
         <v>19</v>
       </c>
-      <c r="T225" s="12">
+      <c r="T225" s="11">
         <v>17</v>
       </c>
     </row>
@@ -22371,17 +22371,17 @@
       <c r="L226">
         <v>186</v>
       </c>
-      <c r="M226" s="12">
+      <c r="M226" s="11">
         <f>12*60+2</f>
         <v>722</v>
       </c>
-      <c r="N226" s="12">
+      <c r="N226" s="11">
         <v>167</v>
       </c>
-      <c r="O226" s="12">
+      <c r="O226" s="11">
         <v>233</v>
       </c>
-      <c r="P226" s="12">
+      <c r="P226" s="11">
         <v>280</v>
       </c>
     </row>
@@ -23271,10 +23271,10 @@
       <c r="L262">
         <v>52</v>
       </c>
-      <c r="M262" s="12">
+      <c r="M262" s="11">
         <v>79</v>
       </c>
-      <c r="N262" s="12">
+      <c r="N262" s="11">
         <v>666</v>
       </c>
     </row>
@@ -23316,13 +23316,13 @@
       <c r="L263">
         <v>78</v>
       </c>
-      <c r="M263" s="12">
+      <c r="M263" s="11">
         <v>131</v>
       </c>
-      <c r="N263" s="12">
+      <c r="N263" s="11">
         <v>474</v>
       </c>
-      <c r="O263" s="12">
+      <c r="O263" s="11">
         <v>33</v>
       </c>
     </row>
@@ -23494,7 +23494,7 @@
       <c r="L269">
         <v>40</v>
       </c>
-      <c r="M269" s="12">
+      <c r="M269" s="11">
         <v>0</v>
       </c>
     </row>
@@ -23536,7 +23536,7 @@
       <c r="L270">
         <v>43</v>
       </c>
-      <c r="M270" s="12">
+      <c r="M270" s="11">
         <v>525</v>
       </c>
     </row>
@@ -23578,7 +23578,7 @@
       <c r="L271">
         <v>88</v>
       </c>
-      <c r="M271" s="12">
+      <c r="M271" s="11">
         <v>23</v>
       </c>
     </row>
@@ -24329,7 +24329,7 @@
       </c>
       <c r="B300" s="1">
         <f t="shared" si="4"/>
-        <v>1793.3333333333333</v>
+        <v>110</v>
       </c>
       <c r="C300">
         <v>41</v>
@@ -24338,15 +24338,19 @@
         <v>135</v>
       </c>
       <c r="E300">
-        <v>10465</v>
+        <v>10</v>
       </c>
       <c r="F300">
+        <f>7*60+45</f>
+        <v>465</v>
+      </c>
+      <c r="G300">
         <v>40</v>
       </c>
-      <c r="G300">
-        <v>0</v>
-      </c>
       <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="I300">
         <v>79</v>
       </c>
     </row>
@@ -27342,7 +27346,7 @@
       </c>
       <c r="B300">
         <f>Controlled!B300/'Fight Time'!B300</f>
-        <v>3.2023809523809521</v>
+        <v>0.19642857142857142</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -30313,7 +30317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:X1177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="B292" sqref="B292"/>
@@ -30332,46 +30336,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10" t="s">
+      <c r="T1" s="12"/>
+      <c r="U1" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="V1" s="10"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -30422,8 +30426,8 @@
       <c r="P2" t="s">
         <v>513</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
       <c r="S2" t="s">
         <v>272</v>
       </c>
@@ -41304,11 +41308,11 @@
       </c>
       <c r="U302">
         <f>Controlled!B300</f>
-        <v>1793.3333333333333</v>
+        <v>110</v>
       </c>
       <c r="V302">
         <f>'Controlled pct'!B300</f>
-        <v>3.2023809523809521</v>
+        <v>0.19642857142857142</v>
       </c>
       <c r="W302">
         <f>'Fight Time'!B300</f>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32C1AE9-794F-4F6B-AC5B-60BAFA61F7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C086CC-1A6C-46A6-90DD-425EB971943F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="10440" yWindow="240" windowWidth="12600" windowHeight="12000" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -2104,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
   <dimension ref="A1:AE309"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D305" sqref="D305"/>
+    <sheetView topLeftCell="A215" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9756,7 +9756,7 @@
       </c>
       <c r="B229" s="1">
         <f t="shared" si="4"/>
-        <v>24.333333333333332</v>
+        <v>81.25</v>
       </c>
       <c r="C229">
         <v>2</v>
@@ -9766,6 +9766,9 @@
       </c>
       <c r="E229">
         <v>47</v>
+      </c>
+      <c r="F229">
+        <v>252</v>
       </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
@@ -9774,13 +9777,16 @@
       </c>
       <c r="B230" s="1">
         <f t="shared" si="4"/>
-        <v>56.5</v>
+        <v>37.666666666666664</v>
       </c>
       <c r="C230">
         <v>0</v>
       </c>
       <c r="D230">
         <v>113</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
@@ -14065,7 +14071,7 @@
       </c>
       <c r="B229">
         <f>Control!B229/'Fight Time'!B229</f>
-        <v>3.7493579866461221E-2</v>
+        <v>0.12519260400616333</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -14074,7 +14080,7 @@
       </c>
       <c r="B230">
         <f>Control!B230/'Fight Time'!B230</f>
-        <v>0.11770833333333333</v>
+        <v>6.0752688172043004E-2</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -14797,8 +14803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
   <dimension ref="A1:AE309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F301" sqref="F301"/>
+    <sheetView topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E230" sqref="E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22415,7 +22421,7 @@
       </c>
       <c r="B229" s="1">
         <f t="shared" si="3"/>
-        <v>99.666666666666671</v>
+        <v>74.75</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -22425,6 +22431,9 @@
       </c>
       <c r="E229">
         <v>293</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
@@ -22433,13 +22442,16 @@
       </c>
       <c r="B230" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>85.333333333333329</v>
       </c>
       <c r="C230">
         <v>4</v>
       </c>
       <c r="D230">
         <v>0</v>
+      </c>
+      <c r="E230">
+        <v>252</v>
       </c>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
@@ -26707,7 +26719,7 @@
       </c>
       <c r="B229">
         <f>Controlled!B229/'Fight Time'!B229</f>
-        <v>0.15356959424756036</v>
+        <v>0.11517719568567027</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -26716,7 +26728,7 @@
       </c>
       <c r="B230">
         <f>Controlled!B230/'Fight Time'!B230</f>
-        <v>4.1666666666666666E-3</v>
+        <v>0.13763440860215054</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -27439,8 +27451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
   <dimension ref="A1:O309"/>
   <sheetViews>
-    <sheetView topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29403,7 +29415,7 @@
         <v>227</v>
       </c>
       <c r="B230">
-        <v>480</v>
+        <v>620</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -30317,10 +30329,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:X1177"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="B292" sqref="B292"/>
+      <selection pane="bottomLeft" activeCell="O233" sqref="O233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37017,7 +37029,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A225" t="str">
         <f>Control!A223</f>
         <v>Le Quand</v>
@@ -37043,7 +37055,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A226" t="str">
         <f>Control!A224</f>
         <v>Gaston Bolanos</v>
@@ -37069,7 +37081,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A227" t="str">
         <f>Control!A225</f>
         <v>Gillian Robertson</v>
@@ -37095,7 +37107,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A228" t="str">
         <f>Control!A226</f>
         <v>Marina Rodriguez</v>
@@ -37121,7 +37133,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A229" t="str">
         <f>Control!A227</f>
         <v>Azamat Bekoev</v>
@@ -37147,7 +37159,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A230" t="str">
         <f>Control!A228</f>
         <v>Ryan Loder</v>
@@ -37173,59 +37185,113 @@
         <v>409</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
         <f>Control!A229</f>
         <v>Serhiy Sidey</v>
       </c>
       <c r="S231">
         <f>Control!B229</f>
-        <v>24.333333333333332</v>
+        <v>81.25</v>
       </c>
       <c r="T231">
         <f>'Ctrl pct'!B229</f>
-        <v>3.7493579866461221E-2</v>
+        <v>0.12519260400616333</v>
       </c>
       <c r="U231">
         <f>Controlled!B229</f>
-        <v>99.666666666666671</v>
+        <v>74.75</v>
       </c>
       <c r="V231">
         <f>'Controlled pct'!B229</f>
-        <v>0.15356959424756036</v>
+        <v>0.11517719568567027</v>
       </c>
       <c r="W231">
         <f>'Fight Time'!B229</f>
         <v>649</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A232" t="str">
         <f>Control!A230</f>
         <v>Cameron Smotherman</v>
       </c>
+      <c r="B232">
+        <v>27</v>
+      </c>
+      <c r="C232">
+        <v>175</v>
+      </c>
+      <c r="D232">
+        <v>175</v>
+      </c>
+      <c r="E232">
+        <v>0.5</v>
+      </c>
+      <c r="F232">
+        <v>0.4</v>
+      </c>
+      <c r="G232">
+        <v>0.08</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0.42</v>
+      </c>
+      <c r="J232">
+        <v>0.6</v>
+      </c>
+      <c r="K232" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L232" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="M232">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N232">
+        <v>0.42</v>
+      </c>
+      <c r="O232">
+        <v>0.03</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="S232">
         <f>Control!B230</f>
-        <v>56.5</v>
+        <v>37.666666666666664</v>
       </c>
       <c r="T232">
         <f>'Ctrl pct'!B230</f>
-        <v>0.11770833333333333</v>
+        <v>6.0752688172043004E-2</v>
       </c>
       <c r="U232">
         <f>Controlled!B230</f>
-        <v>2</v>
+        <v>85.333333333333329</v>
       </c>
       <c r="V232">
         <f>'Controlled pct'!B230</f>
-        <v>4.1666666666666666E-3</v>
+        <v>0.13763440860215054</v>
       </c>
       <c r="W232">
         <f>'Fight Time'!B230</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+      <c r="X232">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A233" t="str">
         <f>Control!A231</f>
         <v>Daniel Marcos</v>
@@ -37251,7 +37317,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A234" t="str">
         <f>Control!A232</f>
         <v>Montel Jackson</v>
@@ -37277,7 +37343,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A235" t="str">
         <f>Control!A233</f>
         <v>Bo Nickal</v>
@@ -37303,7 +37369,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A236" t="str">
         <f>Control!A234</f>
         <v>Reinier de Ridder</v>
@@ -37329,7 +37395,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A237" t="str">
         <f>Control!A235</f>
         <v>Bekzat Almakhan</v>
@@ -37355,7 +37421,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A238" t="str">
         <f>Control!A236</f>
         <v>Brad Katona</v>
@@ -37381,7 +37447,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A239" t="str">
         <f>Control!A237</f>
         <v>Lee Jeong Yeong</v>
@@ -37407,7 +37473,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A240" t="str">
         <f>Control!A238</f>
         <v>Daniel Santos</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B380C331-4B34-492D-9CF1-C2CD10CCF1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF2CAF-1739-4BA8-BD97-BEEB961248A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="120" windowWidth="12600" windowHeight="12000" firstSheet="2" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="10416" yWindow="372" windowWidth="12600" windowHeight="12000" firstSheet="2" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="575">
   <si>
     <t>Khaos</t>
   </si>
@@ -1554,9 +1554,6 @@
   </si>
   <si>
     <t>STREAK</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>TD ACC &amp;</t>
@@ -2180,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
   <dimension ref="A1:AE328"/>
   <sheetViews>
-    <sheetView topLeftCell="A201" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A224" sqref="A224"/>
+    <sheetView topLeftCell="A304" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A310" sqref="A310:A328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2197,7 +2194,7 @@
       </c>
       <c r="B1" s="1">
         <f t="shared" ref="B1:B6" si="0" xml:space="preserve"> AVERAGE(C1:BC1)</f>
-        <v>37.875</v>
+        <v>61.333333333333336</v>
       </c>
       <c r="C1">
         <v>5</v>
@@ -2214,8 +2211,8 @@
       <c r="G1">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
-        <v>508</v>
+      <c r="H1">
+        <v>249</v>
       </c>
       <c r="I1">
         <v>77</v>
@@ -2726,7 +2723,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -6728,7 +6725,7 @@
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="3"/>
@@ -6743,7 +6740,7 @@
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="3"/>
@@ -6794,7 +6791,7 @@
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="3"/>
@@ -9656,7 +9653,7 @@
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="4"/>
@@ -10490,7 +10487,7 @@
         <v>488</v>
       </c>
       <c r="B255" s="1">
-        <f t="shared" ref="B255:B309" si="5" xml:space="preserve"> AVERAGE(C255:BC255)</f>
+        <f t="shared" ref="B255:B318" si="5" xml:space="preserve"> AVERAGE(C255:BC255)</f>
         <v>269.25</v>
       </c>
       <c r="C255">
@@ -11089,7 +11086,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="5"/>
@@ -11101,7 +11098,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="5"/>
@@ -11119,7 +11116,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="5"/>
@@ -11134,7 +11131,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="5"/>
@@ -11146,7 +11143,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="5"/>
@@ -11164,7 +11161,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="5"/>
@@ -11203,7 +11200,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="5"/>
@@ -11242,7 +11239,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="5"/>
@@ -11266,7 +11263,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="5"/>
@@ -11303,7 +11300,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="5"/>
@@ -11315,7 +11312,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="5"/>
@@ -11354,7 +11351,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="5"/>
@@ -11369,7 +11366,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="5"/>
@@ -11396,7 +11393,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="5"/>
@@ -11435,7 +11432,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="5"/>
@@ -11475,7 +11472,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="5"/>
@@ -11493,7 +11490,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="5"/>
@@ -11526,7 +11523,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="5"/>
@@ -11547,7 +11544,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="5"/>
@@ -11574,7 +11571,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="5"/>
@@ -11601,7 +11598,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="5"/>
@@ -11640,7 +11637,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="5"/>
@@ -11652,7 +11649,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="5"/>
@@ -11693,7 +11690,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="5"/>
@@ -11708,7 +11705,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="5"/>
@@ -11723,7 +11720,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="5"/>
@@ -11762,7 +11759,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="5"/>
@@ -11792,7 +11789,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="5"/>
@@ -11813,7 +11810,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="5"/>
@@ -11852,7 +11849,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="5"/>
@@ -11867,7 +11864,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="5"/>
@@ -11901,7 +11898,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="5"/>
@@ -11928,7 +11925,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="5"/>
@@ -11969,7 +11966,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="5"/>
@@ -12002,7 +11999,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="5"/>
@@ -12041,7 +12038,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="5"/>
@@ -12072,97 +12069,423 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
+      </c>
+      <c r="B310" s="1">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C310">
+        <v>64</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>552</v>
+        <v>551</v>
+      </c>
+      <c r="B311" s="1">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>50</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>553</v>
+        <v>552</v>
+      </c>
+      <c r="B312" s="1">
+        <f t="shared" si="5"/>
+        <v>276.33333333333331</v>
+      </c>
+      <c r="C312">
+        <f>8*60+48</f>
+        <v>528</v>
+      </c>
+      <c r="D312">
+        <v>296</v>
+      </c>
+      <c r="E312">
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>554</v>
+        <v>553</v>
+      </c>
+      <c r="B313" s="1">
+        <f t="shared" si="5"/>
+        <v>182.4</v>
+      </c>
+      <c r="C313">
+        <v>2</v>
+      </c>
+      <c r="D313">
+        <f>12*60+3</f>
+        <v>723</v>
+      </c>
+      <c r="E313">
+        <v>187</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>555</v>
+        <v>554</v>
+      </c>
+      <c r="B314" s="1">
+        <f t="shared" si="5"/>
+        <v>226.5</v>
+      </c>
+      <c r="C314">
+        <v>396</v>
+      </c>
+      <c r="D314">
+        <v>57</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>556</v>
+        <v>555</v>
+      </c>
+      <c r="B315" s="1">
+        <f t="shared" si="5"/>
+        <v>327</v>
+      </c>
+      <c r="C315">
+        <v>495</v>
+      </c>
+      <c r="D315">
+        <v>320</v>
+      </c>
+      <c r="E315">
+        <v>166</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="B316" s="1">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>39</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>558</v>
+        <v>557</v>
+      </c>
+      <c r="B317" s="1">
+        <f t="shared" si="5"/>
+        <v>268.60000000000002</v>
+      </c>
+      <c r="C317">
+        <v>208</v>
+      </c>
+      <c r="D317">
+        <f>13*60+11</f>
+        <v>791</v>
+      </c>
+      <c r="E317">
+        <v>229</v>
+      </c>
+      <c r="F317">
+        <v>29</v>
+      </c>
+      <c r="G317">
+        <v>285</v>
+      </c>
+      <c r="H317">
+        <v>277</v>
+      </c>
+      <c r="I317">
+        <v>178</v>
+      </c>
+      <c r="J317">
+        <v>119</v>
+      </c>
+      <c r="K317">
+        <v>178</v>
+      </c>
+      <c r="L317">
+        <v>392</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>559</v>
+        <v>558</v>
+      </c>
+      <c r="B318" s="1">
+        <f t="shared" si="5"/>
+        <v>192.8</v>
+      </c>
+      <c r="C318">
+        <v>229</v>
+      </c>
+      <c r="D318">
+        <v>22</v>
+      </c>
+      <c r="E318">
+        <v>344</v>
+      </c>
+      <c r="F318">
+        <v>18</v>
+      </c>
+      <c r="G318">
+        <v>351</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>560</v>
+        <v>559</v>
+      </c>
+      <c r="B319" s="1">
+        <f t="shared" ref="B319:B328" si="6" xml:space="preserve"> AVERAGE(C319:BC319)</f>
+        <v>85.5</v>
+      </c>
+      <c r="C319">
+        <v>22</v>
+      </c>
+      <c r="D319">
+        <v>149</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
+        <v>560</v>
+      </c>
+      <c r="B320" s="1">
+        <f t="shared" si="6"/>
+        <v>352</v>
+      </c>
+      <c r="C320">
+        <v>227</v>
+      </c>
+      <c r="D320">
+        <f>12*60+4</f>
+        <v>724</v>
+      </c>
+      <c r="E320">
+        <v>295</v>
+      </c>
+      <c r="F320">
+        <v>94</v>
+      </c>
+      <c r="G320">
+        <v>363</v>
+      </c>
+      <c r="H320">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
+      <c r="B321" s="1">
+        <f t="shared" si="6"/>
+        <v>116.66666666666667</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>92</v>
+      </c>
+      <c r="E321">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+      <c r="B322" s="1">
+        <f t="shared" si="6"/>
+        <v>162.5</v>
+      </c>
+      <c r="C322">
+        <v>69</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="E322">
+        <v>402</v>
+      </c>
+      <c r="F322">
+        <v>11</v>
+      </c>
+      <c r="G322">
+        <v>156</v>
+      </c>
+      <c r="H322">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B323" s="1">
+        <f t="shared" si="6"/>
+        <v>15.142857142857142</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>5</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>9</v>
+      </c>
+      <c r="I323">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
+        <v>565</v>
+      </c>
+      <c r="B324" s="1">
+        <f t="shared" si="6"/>
+        <v>334.33333333333331</v>
+      </c>
+      <c r="C324">
+        <v>446</v>
+      </c>
+      <c r="D324">
+        <v>432</v>
+      </c>
+      <c r="E324">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+      <c r="B325" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C325" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+      <c r="B326" s="1">
+        <f t="shared" si="6"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C326">
+        <v>2</v>
+      </c>
+      <c r="D326">
+        <v>2</v>
+      </c>
+      <c r="E326">
+        <v>15</v>
+      </c>
+      <c r="F326">
+        <v>53</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+      <c r="H326">
+        <v>3</v>
+      </c>
+      <c r="I326">
+        <v>86</v>
+      </c>
+      <c r="J326">
+        <v>206</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+      <c r="L326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+      <c r="B327" s="1">
+        <f t="shared" si="6"/>
+        <v>18.2</v>
+      </c>
+      <c r="C327">
+        <v>5</v>
+      </c>
+      <c r="D327">
+        <v>68</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>15</v>
+      </c>
+      <c r="I327">
+        <v>5</v>
+      </c>
+      <c r="J327">
+        <v>31</v>
+      </c>
+      <c r="K327">
+        <v>58</v>
+      </c>
+      <c r="L327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>570</v>
+      <c r="B328" s="1">
+        <f t="shared" si="6"/>
+        <v>366</v>
+      </c>
+      <c r="C328">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -12173,10 +12496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
-  <dimension ref="A1:B329"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
     <sheetView topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="A310" sqref="A310:A329"/>
+      <selection activeCell="B309" sqref="B309:B328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12190,7 +12513,7 @@
       </c>
       <c r="B1">
         <f>Control!B1/'Fight Time'!B1</f>
-        <v>6.8120503597122309E-2</v>
+        <v>0.11031175059952039</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -12343,7 +12666,7 @@
       </c>
       <c r="B18">
         <f>Control!B18/'Fight Time'!B18</f>
-        <v>0.17042682926829267</v>
+        <v>0.19111111111111109</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -12973,7 +13296,7 @@
       </c>
       <c r="B88">
         <f>Control!B88/'Fight Time'!B88</f>
-        <v>5.3846153846153849E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -13000,7 +13323,7 @@
       </c>
       <c r="B91">
         <f>Control!B91/'Fight Time'!B91</f>
-        <v>7.1754636233951494E-2</v>
+        <v>6.9764216366158108E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -14643,7 +14966,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B274">
         <f>Control!B274/'Fight Time'!B274</f>
@@ -14652,7 +14975,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B275">
         <f>Control!B275/'Fight Time'!B275</f>
@@ -14661,7 +14984,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B276">
         <f>Control!B276/'Fight Time'!B276</f>
@@ -14670,7 +14993,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B277">
         <f>Control!B277/'Fight Time'!B277</f>
@@ -14679,7 +15002,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B278">
         <f>Control!B278/'Fight Time'!B278</f>
@@ -14688,7 +15011,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B279">
         <f>Control!B279/'Fight Time'!B279</f>
@@ -14697,7 +15020,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B280">
         <f>Control!B280/'Fight Time'!B280</f>
@@ -14706,7 +15029,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B281">
         <f>Control!B281/'Fight Time'!B281</f>
@@ -14715,7 +15038,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B282">
         <f>Control!B282/'Fight Time'!B282</f>
@@ -14724,7 +15047,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B283">
         <f>Control!B283/'Fight Time'!B283</f>
@@ -14733,7 +15056,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B284">
         <f>Control!B284/'Fight Time'!B284</f>
@@ -14742,7 +15065,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B285">
         <f>Control!B285/'Fight Time'!B285</f>
@@ -14751,7 +15074,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B286">
         <f>Control!B286/'Fight Time'!B286</f>
@@ -14760,7 +15083,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B287">
         <f>Control!B287/'Fight Time'!B287</f>
@@ -14769,7 +15092,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B288">
         <f>Control!B288/'Fight Time'!B288</f>
@@ -14778,7 +15101,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B289">
         <f>Control!B289/'Fight Time'!B289</f>
@@ -14787,7 +15110,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B290">
         <f>Control!B290/'Fight Time'!B290</f>
@@ -14796,7 +15119,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B291">
         <f>Control!B291/'Fight Time'!B291</f>
@@ -14805,7 +15128,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B292">
         <f>Control!B292/'Fight Time'!B292</f>
@@ -14814,7 +15137,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B293">
         <f>Control!B293/'Fight Time'!B293</f>
@@ -14823,7 +15146,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B294">
         <f>Control!B294/'Fight Time'!B294</f>
@@ -14832,7 +15155,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B295">
         <f>Control!B295/'Fight Time'!B295</f>
@@ -14841,7 +15164,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B296">
         <f>Control!B296/'Fight Time'!B296</f>
@@ -14850,7 +15173,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B297">
         <f>Control!B297/'Fight Time'!B297</f>
@@ -14859,7 +15182,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B298">
         <f>Control!B298/'Fight Time'!B298</f>
@@ -14868,7 +15191,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B299">
         <f>Control!B299/'Fight Time'!B299</f>
@@ -14877,7 +15200,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B300">
         <f>Control!B300/'Fight Time'!B300</f>
@@ -14886,7 +15209,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B301">
         <f>Control!B301/'Fight Time'!B301</f>
@@ -14895,7 +15218,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B302">
         <f>Control!B302/'Fight Time'!B302</f>
@@ -14904,7 +15227,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B303">
         <f>Control!B303/'Fight Time'!B303</f>
@@ -14913,7 +15236,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B304">
         <f>Control!B304/'Fight Time'!B304</f>
@@ -14922,7 +15245,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B305">
         <f>Control!B305/'Fight Time'!B305</f>
@@ -14931,7 +15254,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B306">
         <f>Control!B306/'Fight Time'!B306</f>
@@ -14940,7 +15263,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B307">
         <f>Control!B307/'Fight Time'!B307</f>
@@ -14949,7 +15272,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B308">
         <f>Control!B308/'Fight Time'!B308</f>
@@ -14958,7 +15281,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B309">
         <f>Control!B309/'Fight Time'!B309</f>
@@ -14967,102 +15290,173 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
+      </c>
+      <c r="B310">
+        <f>Control!B310/'Fight Time'!B310</f>
+        <v>0.16842105263157894</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>552</v>
+        <v>551</v>
+      </c>
+      <c r="B311">
+        <f>Control!B311/'Fight Time'!B311</f>
+        <v>4.8449612403100778E-2</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>553</v>
+        <v>552</v>
+      </c>
+      <c r="B312">
+        <f>Control!B312/'Fight Time'!B312</f>
+        <v>0.33093812375249498</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>570</v>
+        <v>553</v>
+      </c>
+      <c r="B313">
+        <f>Control!B313/'Fight Time'!B313</f>
+        <v>0.23176620076238882</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>554</v>
       </c>
+      <c r="B314">
+        <f>Control!B314/'Fight Time'!B314</f>
+        <v>0.25166666666666665</v>
+      </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>555</v>
       </c>
+      <c r="B315">
+        <f>Control!B315/'Fight Time'!B315</f>
+        <v>0.55517826825127337</v>
+      </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>556</v>
       </c>
+      <c r="B316">
+        <f>Control!B316/'Fight Time'!B316</f>
+        <v>3.5335689045936397E-2</v>
+      </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>557</v>
       </c>
+      <c r="B317">
+        <f>Control!B317/'Fight Time'!B317</f>
+        <v>0.37937853107344638</v>
+      </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>558</v>
       </c>
+      <c r="B318">
+        <f>Control!B318/'Fight Time'!B318</f>
+        <v>0.21422222222222223</v>
+      </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>559</v>
       </c>
+      <c r="B319">
+        <f>Control!B319/'Fight Time'!B319</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B320">
+        <f>Control!B320/'Fight Time'!B320</f>
+        <v>0.49162011173184356</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <f>Control!B321/'Fight Time'!B321</f>
+        <v>0.22653721682847897</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B322">
+        <f>Control!B322/'Fight Time'!B322</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B323">
+        <f>Control!B323/'Fight Time'!B323</f>
+        <v>3.1094162511000292E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="B324">
+        <f>Control!B324/'Fight Time'!B324</f>
+        <v>0.42644557823129248</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="B325">
+        <f>Control!B325/'Fight Time'!B325</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="B326">
+        <f>Control!B326/'Fight Time'!B326</f>
+        <v>6.7896678966789664E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="B327">
+        <f>Control!B327/'Fight Time'!B327</f>
+        <v>3.5408560311284046E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
         <v>569</v>
+      </c>
+      <c r="B328">
+        <f>Control!B328/'Fight Time'!B328</f>
+        <v>0.40666666666666668</v>
       </c>
     </row>
   </sheetData>
@@ -15072,10 +15466,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
-  <dimension ref="A1:AE329"/>
+  <dimension ref="A1:AE328"/>
   <sheetViews>
     <sheetView topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A310" sqref="A310:A329"/>
+      <selection activeCell="B309" sqref="B309:B328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23212,7 +23606,7 @@
         <v>246</v>
       </c>
       <c r="B250" s="1">
-        <f t="shared" ref="B250:B309" si="4">AVERAGE(C250:BA250)</f>
+        <f t="shared" ref="B250:B313" si="4">AVERAGE(C250:BA250)</f>
         <v>0</v>
       </c>
       <c r="C250">
@@ -23939,7 +24333,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="4"/>
@@ -23951,7 +24345,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="4"/>
@@ -23969,7 +24363,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="4"/>
@@ -23984,7 +24378,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="4"/>
@@ -23996,7 +24390,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="4"/>
@@ -24014,7 +24408,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="4"/>
@@ -24053,7 +24447,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="4"/>
@@ -24092,7 +24486,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="4"/>
@@ -24116,7 +24510,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="4"/>
@@ -24152,7 +24546,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="4"/>
@@ -24164,7 +24558,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="4"/>
@@ -24203,7 +24597,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="4"/>
@@ -24218,7 +24612,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="4"/>
@@ -24245,7 +24639,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="4"/>
@@ -24284,7 +24678,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="4"/>
@@ -24323,7 +24717,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="4"/>
@@ -24341,7 +24735,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="4"/>
@@ -24374,7 +24768,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="4"/>
@@ -24395,7 +24789,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="4"/>
@@ -24422,7 +24816,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="4"/>
@@ -24449,7 +24843,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="4"/>
@@ -24488,7 +24882,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="4"/>
@@ -24500,7 +24894,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="4"/>
@@ -24539,7 +24933,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="4"/>
@@ -24554,7 +24948,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="4"/>
@@ -24569,7 +24963,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="4"/>
@@ -24608,7 +25002,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="4"/>
@@ -24639,7 +25033,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="4"/>
@@ -24660,7 +25054,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="4"/>
@@ -24699,7 +25093,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="4"/>
@@ -24714,7 +25108,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="4"/>
@@ -24747,7 +25141,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="4"/>
@@ -24774,7 +25168,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="4"/>
@@ -24813,7 +25207,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="4"/>
@@ -24847,7 +25241,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="4"/>
@@ -24886,7 +25280,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="4"/>
@@ -24916,102 +25310,420 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
+      </c>
+      <c r="B310" s="1">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="C310">
+        <v>166</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>552</v>
+        <v>551</v>
+      </c>
+      <c r="B311" s="1">
+        <f t="shared" si="4"/>
+        <v>247.5</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>495</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>553</v>
+        <v>552</v>
+      </c>
+      <c r="B312" s="1">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="C312">
+        <v>176</v>
+      </c>
+      <c r="D312">
+        <v>178</v>
+      </c>
+      <c r="E312">
+        <v>6</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>570</v>
+        <v>553</v>
+      </c>
+      <c r="B313" s="1">
+        <f t="shared" si="4"/>
+        <v>22.8</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>53</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>61</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>554</v>
       </c>
+      <c r="B314" s="1">
+        <f t="shared" ref="B314:B328" si="5">AVERAGE(C314:BA314)</f>
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>555</v>
       </c>
+      <c r="B315" s="1">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="C315">
+        <v>50</v>
+      </c>
+      <c r="D315">
+        <v>30</v>
+      </c>
+      <c r="E315">
+        <v>64</v>
+      </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>556</v>
       </c>
+      <c r="B316" s="1">
+        <f t="shared" si="5"/>
+        <v>213</v>
+      </c>
+      <c r="C316">
+        <v>324</v>
+      </c>
+      <c r="D316">
+        <v>102</v>
+      </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>557</v>
       </c>
+      <c r="B317" s="1">
+        <f t="shared" si="5"/>
+        <v>99.1</v>
+      </c>
+      <c r="C317">
+        <v>7</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>34</v>
+      </c>
+      <c r="F317">
+        <v>200</v>
+      </c>
+      <c r="G317">
+        <v>31</v>
+      </c>
+      <c r="H317">
+        <v>39</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>64</v>
+      </c>
+      <c r="K317">
+        <f>9*60+34</f>
+        <v>574</v>
+      </c>
+      <c r="L317">
+        <v>42</v>
+      </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>558</v>
       </c>
+      <c r="B318" s="1">
+        <f t="shared" si="5"/>
+        <v>302.39999999999998</v>
+      </c>
+      <c r="C318">
+        <v>359</v>
+      </c>
+      <c r="D318">
+        <v>675</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>478</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>559</v>
       </c>
+      <c r="B319" s="1">
+        <f t="shared" si="5"/>
+        <v>38.5</v>
+      </c>
+      <c r="C319">
+        <v>30</v>
+      </c>
+      <c r="D319">
+        <v>47</v>
+      </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B320" s="1">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="C320">
+        <v>141</v>
+      </c>
+      <c r="D320">
+        <v>16</v>
+      </c>
+      <c r="E320">
+        <v>52</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>36</v>
+      </c>
+      <c r="H320">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B321" s="1">
+        <f t="shared" si="5"/>
+        <v>72.333333333333329</v>
+      </c>
+      <c r="C321">
+        <v>52</v>
+      </c>
+      <c r="D321">
+        <v>32</v>
+      </c>
+      <c r="E321">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B322" s="1">
+        <f t="shared" si="5"/>
+        <v>148.5</v>
+      </c>
+      <c r="C322">
+        <v>283</v>
+      </c>
+      <c r="D322">
+        <v>148</v>
+      </c>
+      <c r="E322">
+        <v>166</v>
+      </c>
+      <c r="F322">
+        <v>13</v>
+      </c>
+      <c r="G322">
+        <v>66</v>
+      </c>
+      <c r="H322">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B323" s="1">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="C323">
+        <v>47</v>
+      </c>
+      <c r="D323">
+        <v>34</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
+      </c>
+      <c r="G323">
+        <v>268</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="B324" s="1">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+      <c r="C324">
+        <v>2</v>
+      </c>
+      <c r="D324">
+        <v>175</v>
+      </c>
+      <c r="E324">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="B325" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C325" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="B326" s="1">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="C326">
+        <v>139</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>22</v>
+      </c>
+      <c r="I326">
+        <v>354</v>
+      </c>
+      <c r="J326">
+        <v>206</v>
+      </c>
+      <c r="K326">
+        <v>7</v>
+      </c>
+      <c r="L326">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="B327" s="1">
+        <f t="shared" si="5"/>
+        <v>13.3</v>
+      </c>
+      <c r="C327">
+        <v>4</v>
+      </c>
+      <c r="D327">
+        <v>27</v>
+      </c>
+      <c r="E327">
+        <v>80</v>
+      </c>
+      <c r="F327">
+        <v>5</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>4</v>
+      </c>
+      <c r="K327">
+        <v>11</v>
+      </c>
+      <c r="L327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
         <v>569</v>
+      </c>
+      <c r="B328" s="1">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="C328">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -25021,10 +25733,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
-  <dimension ref="A1:B329"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
     <sheetView topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="A310" sqref="A310:A329"/>
+      <selection activeCell="B309" sqref="B309:B328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25191,7 +25903,7 @@
       </c>
       <c r="B18">
         <f>Controlled!B18/'Fight Time'!B18</f>
-        <v>0.18628048780487805</v>
+        <v>0.2088888888888889</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -25821,7 +26533,7 @@
       </c>
       <c r="B88">
         <f>Controlled!B88/'Fight Time'!B88</f>
-        <v>0.11709401709401709</v>
+        <v>0.12791783380018676</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -25848,7 +26560,7 @@
       </c>
       <c r="B91">
         <f>Controlled!B91/'Fight Time'!B91</f>
-        <v>9.3865905848787443E-2</v>
+        <v>9.1262135922330095E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -27491,7 +28203,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B274">
         <f>Controlled!B274/'Fight Time'!B274</f>
@@ -27500,7 +28212,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B275">
         <f>Controlled!B275/'Fight Time'!B275</f>
@@ -27509,7 +28221,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B276">
         <f>Controlled!B276/'Fight Time'!B276</f>
@@ -27518,7 +28230,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B277">
         <f>Controlled!B277/'Fight Time'!B277</f>
@@ -27527,7 +28239,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B278">
         <f>Controlled!B278/'Fight Time'!B278</f>
@@ -27536,7 +28248,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B279">
         <f>Controlled!B279/'Fight Time'!B279</f>
@@ -27545,7 +28257,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B280">
         <f>Controlled!B280/'Fight Time'!B280</f>
@@ -27554,7 +28266,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B281">
         <f>Controlled!B281/'Fight Time'!B281</f>
@@ -27563,7 +28275,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B282">
         <f>Controlled!B282/'Fight Time'!B282</f>
@@ -27572,7 +28284,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B283">
         <f>Controlled!B283/'Fight Time'!B283</f>
@@ -27581,7 +28293,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B284">
         <f>Controlled!B284/'Fight Time'!B284</f>
@@ -27590,7 +28302,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B285">
         <f>Controlled!B285/'Fight Time'!B285</f>
@@ -27599,7 +28311,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B286">
         <f>Controlled!B286/'Fight Time'!B286</f>
@@ -27608,7 +28320,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B287">
         <f>Controlled!B287/'Fight Time'!B287</f>
@@ -27617,7 +28329,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B288">
         <f>Controlled!B288/'Fight Time'!B288</f>
@@ -27626,7 +28338,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B289">
         <f>Controlled!B289/'Fight Time'!B289</f>
@@ -27635,7 +28347,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B290">
         <f>Controlled!B290/'Fight Time'!B290</f>
@@ -27644,7 +28356,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B291">
         <f>Controlled!B291/'Fight Time'!B291</f>
@@ -27653,7 +28365,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B292">
         <f>Controlled!B292/'Fight Time'!B292</f>
@@ -27662,7 +28374,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B293">
         <f>Controlled!B293/'Fight Time'!B293</f>
@@ -27671,7 +28383,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B294">
         <f>Controlled!B294/'Fight Time'!B294</f>
@@ -27680,7 +28392,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B295">
         <f>Controlled!B295/'Fight Time'!B295</f>
@@ -27689,7 +28401,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B296">
         <f>Controlled!B296/'Fight Time'!B296</f>
@@ -27698,7 +28410,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B297">
         <f>Controlled!B297/'Fight Time'!B297</f>
@@ -27707,7 +28419,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B298">
         <f>Controlled!B298/'Fight Time'!B298</f>
@@ -27716,7 +28428,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B299">
         <f>Controlled!B299/'Fight Time'!B299</f>
@@ -27725,7 +28437,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B300">
         <f>Controlled!B300/'Fight Time'!B300</f>
@@ -27734,7 +28446,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B301">
         <f>Controlled!B301/'Fight Time'!B301</f>
@@ -27743,7 +28455,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B302">
         <f>Controlled!B302/'Fight Time'!B302</f>
@@ -27752,7 +28464,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B303">
         <f>Controlled!B303/'Fight Time'!B303</f>
@@ -27761,7 +28473,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B304">
         <f>Controlled!B304/'Fight Time'!B304</f>
@@ -27770,7 +28482,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B305">
         <f>Controlled!B305/'Fight Time'!B305</f>
@@ -27779,7 +28491,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B306">
         <f>Controlled!B306/'Fight Time'!B306</f>
@@ -27788,7 +28500,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B307">
         <f>Controlled!B307/'Fight Time'!B307</f>
@@ -27797,7 +28509,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B308">
         <f>Controlled!B308/'Fight Time'!B308</f>
@@ -27806,7 +28518,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B309">
         <f>Controlled!B309/'Fight Time'!B309</f>
@@ -27815,102 +28527,173 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
+      </c>
+      <c r="B310">
+        <f>Controlled!B310/'Fight Time'!B310</f>
+        <v>0.43684210526315792</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>552</v>
+        <v>551</v>
+      </c>
+      <c r="B311">
+        <f>Controlled!B311/'Fight Time'!B311</f>
+        <v>0.47965116279069769</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>553</v>
+        <v>552</v>
+      </c>
+      <c r="B312">
+        <f>Controlled!B312/'Fight Time'!B312</f>
+        <v>0.1437125748502994</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>570</v>
+        <v>553</v>
+      </c>
+      <c r="B313">
+        <f>Controlled!B313/'Fight Time'!B313</f>
+        <v>2.8970775095298603E-2</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>554</v>
       </c>
+      <c r="B314">
+        <f>Controlled!B314/'Fight Time'!B314</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>555</v>
       </c>
+      <c r="B315">
+        <f>Controlled!B315/'Fight Time'!B315</f>
+        <v>8.1494057724957561E-2</v>
+      </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>556</v>
       </c>
+      <c r="B316">
+        <f>Controlled!B316/'Fight Time'!B316</f>
+        <v>0.37632508833922262</v>
+      </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>557</v>
       </c>
+      <c r="B317">
+        <f>Controlled!B317/'Fight Time'!B317</f>
+        <v>0.13997175141242937</v>
+      </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>558</v>
       </c>
+      <c r="B318">
+        <f>Controlled!B318/'Fight Time'!B318</f>
+        <v>0.33599999999999997</v>
+      </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>559</v>
       </c>
+      <c r="B319">
+        <f>Controlled!B319/'Fight Time'!B319</f>
+        <v>4.2777777777777776E-2</v>
+      </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B320">
+        <f>Controlled!B320/'Fight Time'!B320</f>
+        <v>9.9162011173184364E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <f>Controlled!B321/'Fight Time'!B321</f>
+        <v>0.14045307443365695</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B322">
+        <f>Controlled!B322/'Fight Time'!B322</f>
+        <v>0.22846153846153847</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B323">
+        <f>Controlled!B323/'Fight Time'!B323</f>
+        <v>0.10266940451745379</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="B324">
+        <f>Controlled!B324/'Fight Time'!B324</f>
+        <v>0.13647959183673469</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="B325">
+        <f>Controlled!B325/'Fight Time'!B325</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="B326">
+        <f>Controlled!B326/'Fight Time'!B326</f>
+        <v>0.13837638376383765</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="B327">
+        <f>Controlled!B327/'Fight Time'!B327</f>
+        <v>2.5875486381322959E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
         <v>569</v>
+      </c>
+      <c r="B328">
+        <f>Controlled!B328/'Fight Time'!B328</f>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -27920,10 +28703,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
-  <dimension ref="A1:O329"/>
+  <dimension ref="A1:O328"/>
   <sheetViews>
-    <sheetView topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="A310" sqref="A310:A329"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28088,7 +28871,8 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>656</v>
+        <f>9*60+45</f>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -28686,7 +29470,8 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>650</v>
+        <f>9*60+55</f>
+        <v>595</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -28711,8 +29496,8 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <f>660+41</f>
-        <v>701</v>
+        <f>12*60+1</f>
+        <v>721</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -30256,7 +31041,7 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B274">
         <f>AVERAGE(C274:Q274)</f>
@@ -30268,7 +31053,7 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B275">
         <f t="shared" ref="B275:B290" si="0">AVERAGE(C275:Q275)</f>
@@ -30286,7 +31071,7 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B276">
         <f t="shared" si="0"/>
@@ -30301,7 +31086,7 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B277">
         <f t="shared" si="0"/>
@@ -30313,7 +31098,7 @@
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B278">
         <f t="shared" si="0"/>
@@ -30335,7 +31120,7 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B279">
         <f t="shared" si="0"/>
@@ -30382,7 +31167,7 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B280">
         <f t="shared" si="0"/>
@@ -30433,7 +31218,7 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B281">
         <f t="shared" si="0"/>
@@ -30458,7 +31243,7 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B282">
         <f t="shared" si="0"/>
@@ -30471,7 +31256,7 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B283">
         <f t="shared" si="0"/>
@@ -30483,7 +31268,7 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B284">
         <f t="shared" si="0"/>
@@ -30525,7 +31310,7 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B285">
         <f t="shared" si="0"/>
@@ -30540,7 +31325,7 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B286">
         <f>13*60+32</f>
@@ -30549,7 +31334,7 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B287">
         <f>11*60+4</f>
@@ -30558,7 +31343,7 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B288">
         <f>16*60+45</f>
@@ -30567,7 +31352,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B289">
         <f t="shared" si="0"/>
@@ -30593,7 +31378,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B290">
         <f t="shared" si="0"/>
@@ -30629,7 +31414,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B291">
         <v>900</v>
@@ -30637,7 +31422,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B292">
         <f>13*60+30</f>
@@ -30646,7 +31431,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B293">
         <f>12*60+11</f>
@@ -30655,7 +31440,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B294">
         <f>11*60+51</f>
@@ -30664,7 +31449,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B295">
         <v>900</v>
@@ -30672,7 +31457,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B296">
         <f>9*60+51</f>
@@ -30681,7 +31466,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B297">
         <f>8*60+20</f>
@@ -30690,7 +31475,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B298">
         <v>134</v>
@@ -30698,7 +31483,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B299">
         <f>12*60+32</f>
@@ -30707,7 +31492,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B300">
         <f>9*60+20</f>
@@ -30716,7 +31501,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B301">
         <v>640</v>
@@ -30724,7 +31509,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B302">
         <v>500</v>
@@ -30732,7 +31517,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B303">
         <f>9*60+22</f>
@@ -30741,7 +31526,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B304">
         <f>12*60+41</f>
@@ -30750,7 +31535,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B305">
         <f>9*60+42</f>
@@ -30759,7 +31544,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B306">
         <f>13*60+8</f>
@@ -30768,7 +31553,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B307">
         <v>941</v>
@@ -30776,7 +31561,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B308">
         <v>639</v>
@@ -30784,7 +31569,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B309">
         <f>17*60+27</f>
@@ -30793,102 +31578,162 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
+      </c>
+      <c r="B310">
+        <v>380</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>552</v>
+        <v>551</v>
+      </c>
+      <c r="B311">
+        <v>516</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>553</v>
+        <v>552</v>
+      </c>
+      <c r="B312">
+        <f>13*60+55</f>
+        <v>835</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>570</v>
+        <v>553</v>
+      </c>
+      <c r="B313">
+        <f>13*60+7</f>
+        <v>787</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>554</v>
       </c>
+      <c r="B314">
+        <v>900</v>
+      </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>555</v>
       </c>
+      <c r="B315">
+        <f>9*60+49</f>
+        <v>589</v>
+      </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>556</v>
       </c>
+      <c r="B316">
+        <f>9*60+26</f>
+        <v>566</v>
+      </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>557</v>
       </c>
+      <c r="B317">
+        <f>11*60+48</f>
+        <v>708</v>
+      </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>558</v>
       </c>
+      <c r="B318">
+        <v>900</v>
+      </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>559</v>
       </c>
+      <c r="B319">
+        <v>900</v>
+      </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B320">
+        <f>11*60+56</f>
+        <v>716</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B322">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B323">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="B324">
+        <f>13*60+4</f>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="B325">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="B326">
+        <f>9*60+2</f>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="B327">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
         <v>569</v>
+      </c>
+      <c r="B328">
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -30900,10 +31745,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="I334" sqref="I334"/>
+      <selection pane="bottomLeft" activeCell="S94" sqref="S94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30954,10 +31799,10 @@
       <c r="S1" s="13"/>
       <c r="T1" s="7"/>
       <c r="U1" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>509</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>510</v>
       </c>
       <c r="W1" s="13" t="s">
         <v>259</v>
@@ -30982,16 +31827,16 @@
         <v>264</v>
       </c>
       <c r="E2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F2" t="s">
         <v>574</v>
       </c>
-      <c r="F2" t="s">
-        <v>575</v>
-      </c>
       <c r="G2" t="s">
+        <v>570</v>
+      </c>
+      <c r="H2" t="s">
         <v>571</v>
-      </c>
-      <c r="H2" t="s">
-        <v>572</v>
       </c>
       <c r="I2" t="s">
         <v>265</v>
@@ -31027,7 +31872,7 @@
         <v>271</v>
       </c>
       <c r="T2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
@@ -31111,11 +31956,11 @@
       </c>
       <c r="W3">
         <f>Control!B1</f>
-        <v>37.875</v>
+        <v>61.333333333333336</v>
       </c>
       <c r="X3">
         <f>'Ctrl pct'!B1</f>
-        <v>6.8120503597122309E-2</v>
+        <v>0.11031175059952039</v>
       </c>
       <c r="Y3">
         <f>Controlled!B1</f>
@@ -31886,6 +32731,15 @@
       <c r="P20" s="8">
         <v>5.66</v>
       </c>
+      <c r="Q20">
+        <v>0.71</v>
+      </c>
+      <c r="R20">
+        <v>0.21</v>
+      </c>
+      <c r="S20">
+        <v>0.08</v>
+      </c>
       <c r="T20">
         <v>1.54</v>
       </c>
@@ -31901,7 +32755,7 @@
       </c>
       <c r="X20">
         <f>'Ctrl pct'!B18</f>
-        <v>0.17042682926829267</v>
+        <v>0.19111111111111109</v>
       </c>
       <c r="Y20">
         <f>Controlled!B18</f>
@@ -31909,11 +32763,11 @@
       </c>
       <c r="Z20">
         <f>'Controlled pct'!B18</f>
-        <v>0.18628048780487805</v>
+        <v>0.2088888888888889</v>
       </c>
       <c r="AA20">
         <f>'Fight Time'!B18</f>
-        <v>656</v>
+        <v>585</v>
       </c>
       <c r="AB20">
         <v>10</v>
@@ -34563,6 +35417,15 @@
       <c r="P84" s="8">
         <v>1.25</v>
       </c>
+      <c r="Q84">
+        <v>0.62</v>
+      </c>
+      <c r="R84">
+        <v>0.25</v>
+      </c>
+      <c r="S84">
+        <v>0.13</v>
+      </c>
       <c r="T84">
         <v>2.82</v>
       </c>
@@ -34646,6 +35509,15 @@
       <c r="P85" s="8">
         <v>1.91</v>
       </c>
+      <c r="Q85">
+        <v>0.69</v>
+      </c>
+      <c r="R85">
+        <v>0.12</v>
+      </c>
+      <c r="S85">
+        <v>0.19</v>
+      </c>
       <c r="T85">
         <v>5.69</v>
       </c>
@@ -34881,6 +35753,15 @@
       <c r="P90" s="8">
         <v>4.3600000000000003</v>
       </c>
+      <c r="Q90">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="R90">
+        <v>0.22</v>
+      </c>
+      <c r="S90">
+        <v>0.22</v>
+      </c>
       <c r="T90">
         <v>0</v>
       </c>
@@ -34896,7 +35777,7 @@
       </c>
       <c r="X90">
         <f>'Ctrl pct'!B88</f>
-        <v>5.3846153846153849E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="Y90">
         <f>Controlled!B88</f>
@@ -34904,11 +35785,11 @@
       </c>
       <c r="Z90">
         <f>'Controlled pct'!B88</f>
-        <v>0.11709401709401709</v>
+        <v>0.12791783380018676</v>
       </c>
       <c r="AA90">
         <f>'Fight Time'!B88</f>
-        <v>650</v>
+        <v>595</v>
       </c>
       <c r="AB90">
         <v>3</v>
@@ -35040,6 +35921,15 @@
       <c r="P93" s="8">
         <v>4.95</v>
       </c>
+      <c r="Q93">
+        <v>0.43</v>
+      </c>
+      <c r="R93">
+        <v>0.4</v>
+      </c>
+      <c r="S93">
+        <v>0.17</v>
+      </c>
       <c r="T93">
         <v>0.5</v>
       </c>
@@ -35055,7 +35945,7 @@
       </c>
       <c r="X93">
         <f>'Ctrl pct'!B91</f>
-        <v>7.1754636233951494E-2</v>
+        <v>6.9764216366158108E-2</v>
       </c>
       <c r="Y93">
         <f>Controlled!B91</f>
@@ -35063,11 +35953,11 @@
       </c>
       <c r="Z93">
         <f>'Controlled pct'!B91</f>
-        <v>9.3865905848787443E-2</v>
+        <v>9.1262135922330095E-2</v>
       </c>
       <c r="AA93">
         <f>'Fight Time'!B91</f>
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="AB93">
         <v>-3</v>
@@ -46584,6 +47474,15 @@
       <c r="P312" s="8">
         <v>6</v>
       </c>
+      <c r="Q312">
+        <v>0.42</v>
+      </c>
+      <c r="R312">
+        <v>0.08</v>
+      </c>
+      <c r="S312">
+        <v>0.5</v>
+      </c>
       <c r="T312">
         <v>0</v>
       </c>
@@ -46595,23 +47494,23 @@
       </c>
       <c r="W312">
         <f>Control!B310</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="X312">
         <f>'Ctrl pct'!B310</f>
-        <v>0</v>
+        <v>0.16842105263157894</v>
       </c>
       <c r="Y312">
         <f>Controlled!B310</f>
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="Z312">
         <f>'Controlled pct'!B310</f>
-        <v>0</v>
+        <v>0.43684210526315792</v>
       </c>
       <c r="AA312">
         <f>'Fight Time'!B310</f>
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AB312">
         <v>-1</v>
@@ -46667,6 +47566,15 @@
       <c r="P313" s="8">
         <v>3.55</v>
       </c>
+      <c r="Q313">
+        <v>0.45</v>
+      </c>
+      <c r="R313">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S313">
+        <v>0.41</v>
+      </c>
       <c r="T313">
         <v>0.87</v>
       </c>
@@ -46678,23 +47586,23 @@
       </c>
       <c r="W313">
         <f>Control!B311</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X313">
         <f>'Ctrl pct'!B311</f>
-        <v>0</v>
+        <v>4.8449612403100778E-2</v>
       </c>
       <c r="Y313">
         <f>Controlled!B311</f>
-        <v>0</v>
+        <v>247.5</v>
       </c>
       <c r="Z313">
         <f>'Controlled pct'!B311</f>
-        <v>0</v>
+        <v>0.47965116279069769</v>
       </c>
       <c r="AA313">
         <f>'Fight Time'!B311</f>
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="AB313">
         <v>-1</v>
@@ -46750,6 +47658,15 @@
       <c r="P314" s="8">
         <v>2.25</v>
       </c>
+      <c r="Q314">
+        <v>0.68</v>
+      </c>
+      <c r="R314">
+        <v>0.16</v>
+      </c>
+      <c r="S314">
+        <v>0.16</v>
+      </c>
       <c r="T314">
         <v>2.16</v>
       </c>
@@ -46761,23 +47678,23 @@
       </c>
       <c r="W314">
         <f>Control!B312</f>
-        <v>0</v>
+        <v>276.33333333333331</v>
       </c>
       <c r="X314">
         <f>'Ctrl pct'!B312</f>
-        <v>0</v>
+        <v>0.33093812375249498</v>
       </c>
       <c r="Y314">
         <f>Controlled!B312</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Z314">
         <f>'Controlled pct'!B312</f>
-        <v>0</v>
+        <v>0.1437125748502994</v>
       </c>
       <c r="AA314">
         <f>'Fight Time'!B312</f>
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="AB314">
         <v>10</v>
@@ -46833,6 +47750,15 @@
       <c r="P315" s="8">
         <v>4.41</v>
       </c>
+      <c r="Q315">
+        <v>0.65</v>
+      </c>
+      <c r="R315">
+        <v>0.35</v>
+      </c>
+      <c r="S315">
+        <v>0</v>
+      </c>
       <c r="T315">
         <v>0.69</v>
       </c>
@@ -46844,23 +47770,23 @@
       </c>
       <c r="W315">
         <f>Control!B313</f>
-        <v>0</v>
+        <v>182.4</v>
       </c>
       <c r="X315">
         <f>'Ctrl pct'!B313</f>
-        <v>0</v>
+        <v>0.23176620076238882</v>
       </c>
       <c r="Y315">
         <f>Controlled!B313</f>
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="Z315">
         <f>'Controlled pct'!B313</f>
-        <v>0</v>
+        <v>2.8970775095298603E-2</v>
       </c>
       <c r="AA315">
         <f>'Fight Time'!B313</f>
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="AB315">
         <v>-2</v>
@@ -46916,6 +47842,15 @@
       <c r="P316" s="8">
         <v>3.87</v>
       </c>
+      <c r="Q316">
+        <v>0.75</v>
+      </c>
+      <c r="R316">
+        <v>0.08</v>
+      </c>
+      <c r="S316">
+        <v>0.18</v>
+      </c>
       <c r="T316">
         <v>2</v>
       </c>
@@ -46927,11 +47862,11 @@
       </c>
       <c r="W316">
         <f>Control!B314</f>
-        <v>0</v>
+        <v>226.5</v>
       </c>
       <c r="X316">
         <f>'Ctrl pct'!B314</f>
-        <v>0</v>
+        <v>0.25166666666666665</v>
       </c>
       <c r="Y316">
         <f>Controlled!B314</f>
@@ -46943,7 +47878,7 @@
       </c>
       <c r="AA316">
         <f>'Fight Time'!B314</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AB316">
         <v>6</v>
@@ -46999,6 +47934,15 @@
       <c r="P317" s="8">
         <v>3.26</v>
       </c>
+      <c r="Q317">
+        <v>0.91</v>
+      </c>
+      <c r="R317">
+        <v>0.08</v>
+      </c>
+      <c r="S317">
+        <v>0.01</v>
+      </c>
       <c r="T317">
         <v>1.53</v>
       </c>
@@ -47010,23 +47954,23 @@
       </c>
       <c r="W317">
         <f>Control!B315</f>
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="X317">
         <f>'Ctrl pct'!B315</f>
-        <v>0</v>
+        <v>0.55517826825127337</v>
       </c>
       <c r="Y317">
         <f>Controlled!B315</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Z317">
         <f>'Controlled pct'!B315</f>
-        <v>0</v>
+        <v>8.1494057724957561E-2</v>
       </c>
       <c r="AA317">
         <f>'Fight Time'!B315</f>
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="AB317">
         <v>1</v>
@@ -47082,6 +48026,15 @@
       <c r="P318" s="8">
         <v>1.7</v>
       </c>
+      <c r="Q318">
+        <v>0.65</v>
+      </c>
+      <c r="R318">
+        <v>0.35</v>
+      </c>
+      <c r="S318">
+        <v>0</v>
+      </c>
       <c r="T318">
         <v>0.8</v>
       </c>
@@ -47093,23 +48046,23 @@
       </c>
       <c r="W318">
         <f>Control!B316</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X318">
         <f>'Ctrl pct'!B316</f>
-        <v>0</v>
+        <v>3.5335689045936397E-2</v>
       </c>
       <c r="Y318">
         <f>Controlled!B316</f>
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="Z318">
         <f>'Controlled pct'!B316</f>
-        <v>0</v>
+        <v>0.37632508833922262</v>
       </c>
       <c r="AA318">
         <f>'Fight Time'!B316</f>
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="AB318">
         <v>-1</v>
@@ -47165,6 +48118,15 @@
       <c r="P319" s="8">
         <v>3.42</v>
       </c>
+      <c r="Q319">
+        <v>0.81</v>
+      </c>
+      <c r="R319">
+        <v>0.08</v>
+      </c>
+      <c r="S319">
+        <v>0.11</v>
+      </c>
       <c r="T319">
         <v>1.82</v>
       </c>
@@ -47176,23 +48138,23 @@
       </c>
       <c r="W319">
         <f>Control!B317</f>
-        <v>0</v>
+        <v>268.60000000000002</v>
       </c>
       <c r="X319">
         <f>'Ctrl pct'!B317</f>
-        <v>0</v>
+        <v>0.37937853107344638</v>
       </c>
       <c r="Y319">
         <f>Controlled!B317</f>
-        <v>0</v>
+        <v>99.1</v>
       </c>
       <c r="Z319">
         <f>'Controlled pct'!B317</f>
-        <v>0</v>
+        <v>0.13997175141242937</v>
       </c>
       <c r="AA319">
         <f>'Fight Time'!B317</f>
-        <v>0</v>
+        <v>708</v>
       </c>
       <c r="AB319">
         <v>1</v>
@@ -47248,6 +48210,15 @@
       <c r="P320" s="8">
         <v>1.52</v>
       </c>
+      <c r="Q320">
+        <v>0.54</v>
+      </c>
+      <c r="R320">
+        <v>0.24</v>
+      </c>
+      <c r="S320">
+        <v>0.22</v>
+      </c>
       <c r="T320">
         <v>1.6</v>
       </c>
@@ -47259,23 +48230,23 @@
       </c>
       <c r="W320">
         <f>Control!B318</f>
-        <v>0</v>
+        <v>192.8</v>
       </c>
       <c r="X320">
         <f>'Ctrl pct'!B318</f>
-        <v>0</v>
+        <v>0.21422222222222223</v>
       </c>
       <c r="Y320">
         <f>Controlled!B318</f>
-        <v>0</v>
+        <v>302.39999999999998</v>
       </c>
       <c r="Z320">
         <f>'Controlled pct'!B318</f>
-        <v>0</v>
+        <v>0.33599999999999997</v>
       </c>
       <c r="AA320">
         <f>'Fight Time'!B318</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AB320">
         <v>2</v>
@@ -47331,6 +48302,15 @@
       <c r="P321" s="8">
         <v>5.23</v>
       </c>
+      <c r="Q321">
+        <v>0.69</v>
+      </c>
+      <c r="R321">
+        <v>0.21</v>
+      </c>
+      <c r="S321">
+        <v>0.1</v>
+      </c>
       <c r="T321">
         <v>2</v>
       </c>
@@ -47342,23 +48322,23 @@
       </c>
       <c r="W321">
         <f>Control!B319</f>
-        <v>0</v>
+        <v>85.5</v>
       </c>
       <c r="X321">
         <f>'Ctrl pct'!B319</f>
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Y321">
         <f>Controlled!B319</f>
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="Z321">
         <f>'Controlled pct'!B319</f>
-        <v>0</v>
+        <v>4.2777777777777776E-2</v>
       </c>
       <c r="AA321">
         <f>'Fight Time'!B319</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AB321">
         <v>-1</v>
@@ -47414,6 +48394,15 @@
       <c r="P322" s="8">
         <v>3.2</v>
       </c>
+      <c r="Q322">
+        <v>0.81</v>
+      </c>
+      <c r="R322">
+        <v>0.13</v>
+      </c>
+      <c r="S322">
+        <v>0.06</v>
+      </c>
       <c r="T322">
         <v>3.56</v>
       </c>
@@ -47425,23 +48414,23 @@
       </c>
       <c r="W322">
         <f>Control!B320</f>
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="X322">
         <f>'Ctrl pct'!B320</f>
-        <v>0</v>
+        <v>0.49162011173184356</v>
       </c>
       <c r="Y322">
         <f>Controlled!B320</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="Z322">
         <f>'Controlled pct'!B320</f>
-        <v>0</v>
+        <v>9.9162011173184364E-2</v>
       </c>
       <c r="AA322">
         <f>'Fight Time'!B320</f>
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="AB322">
         <v>3</v>
@@ -47497,6 +48486,15 @@
       <c r="P323" s="8">
         <v>7.84</v>
       </c>
+      <c r="Q323">
+        <v>0.69</v>
+      </c>
+      <c r="R323">
+        <v>0.19</v>
+      </c>
+      <c r="S323">
+        <v>0.12</v>
+      </c>
       <c r="T323">
         <v>3.5</v>
       </c>
@@ -47508,23 +48506,23 @@
       </c>
       <c r="W323">
         <f>Control!B321</f>
-        <v>0</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="X323">
         <f>'Ctrl pct'!B321</f>
-        <v>0</v>
+        <v>0.22653721682847897</v>
       </c>
       <c r="Y323">
         <f>Controlled!B321</f>
-        <v>0</v>
+        <v>72.333333333333329</v>
       </c>
       <c r="Z323">
         <f>'Controlled pct'!B321</f>
-        <v>0</v>
+        <v>0.14045307443365695</v>
       </c>
       <c r="AA323">
         <f>'Fight Time'!B321</f>
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="AB323">
         <v>4</v>
@@ -47580,6 +48578,15 @@
       <c r="P324" s="8">
         <v>3.77</v>
       </c>
+      <c r="Q324">
+        <v>0.61</v>
+      </c>
+      <c r="R324">
+        <v>0.23</v>
+      </c>
+      <c r="S324">
+        <v>0.16</v>
+      </c>
       <c r="T324">
         <v>1.85</v>
       </c>
@@ -47591,23 +48598,23 @@
       </c>
       <c r="W324">
         <f>Control!B322</f>
-        <v>0</v>
+        <v>162.5</v>
       </c>
       <c r="X324">
         <f>'Ctrl pct'!B322</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y324">
         <f>Controlled!B322</f>
-        <v>0</v>
+        <v>148.5</v>
       </c>
       <c r="Z324">
         <f>'Controlled pct'!B322</f>
-        <v>0</v>
+        <v>0.22846153846153847</v>
       </c>
       <c r="AA324">
         <f>'Fight Time'!B322</f>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="AB324">
         <v>1</v>
@@ -47663,6 +48670,15 @@
       <c r="P325" s="8">
         <v>4.5</v>
       </c>
+      <c r="Q325">
+        <v>0.82</v>
+      </c>
+      <c r="R325">
+        <v>0.09</v>
+      </c>
+      <c r="S325">
+        <v>0.09</v>
+      </c>
       <c r="T325">
         <v>0</v>
       </c>
@@ -47674,23 +48690,23 @@
       </c>
       <c r="W325">
         <f>Control!B323</f>
-        <v>0</v>
+        <v>15.142857142857142</v>
       </c>
       <c r="X325">
         <f>'Ctrl pct'!B323</f>
-        <v>0</v>
+        <v>3.1094162511000292E-2</v>
       </c>
       <c r="Y325">
         <f>Controlled!B323</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z325">
         <f>'Controlled pct'!B323</f>
-        <v>0</v>
+        <v>0.10266940451745379</v>
       </c>
       <c r="AA325">
         <f>'Fight Time'!B323</f>
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="AB325">
         <v>2</v>
@@ -47746,6 +48762,15 @@
       <c r="P326" s="8">
         <v>3.39</v>
       </c>
+      <c r="Q326">
+        <v>0.5</v>
+      </c>
+      <c r="R326">
+        <v>0.25</v>
+      </c>
+      <c r="S326">
+        <v>0.25</v>
+      </c>
       <c r="T326">
         <v>5.36</v>
       </c>
@@ -47757,23 +48782,23 @@
       </c>
       <c r="W326">
         <f>Control!B324</f>
-        <v>0</v>
+        <v>334.33333333333331</v>
       </c>
       <c r="X326">
         <f>'Ctrl pct'!B324</f>
-        <v>0</v>
+        <v>0.42644557823129248</v>
       </c>
       <c r="Y326">
         <f>Controlled!B324</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="Z326">
         <f>'Controlled pct'!B324</f>
-        <v>0</v>
+        <v>0.13647959183673469</v>
       </c>
       <c r="AA326">
         <f>'Fight Time'!B324</f>
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="AB326">
         <v>-1</v>
@@ -47856,7 +48881,7 @@
       </c>
       <c r="AA327">
         <f>'Fight Time'!B325</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AB327">
         <v>2</v>
@@ -47912,6 +48937,15 @@
       <c r="P328" s="8">
         <v>4.0199999999999996</v>
       </c>
+      <c r="Q328">
+        <v>0.66</v>
+      </c>
+      <c r="R328">
+        <v>0.26</v>
+      </c>
+      <c r="S328">
+        <v>0.08</v>
+      </c>
       <c r="T328">
         <v>0</v>
       </c>
@@ -47923,23 +48957,23 @@
       </c>
       <c r="W328">
         <f>Control!B326</f>
-        <v>0</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="X328">
         <f>'Ctrl pct'!B326</f>
-        <v>0</v>
+        <v>6.7896678966789664E-2</v>
       </c>
       <c r="Y328">
         <f>Controlled!B326</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Z328">
         <f>'Controlled pct'!B326</f>
-        <v>0</v>
+        <v>0.13837638376383765</v>
       </c>
       <c r="AA328">
         <f>'Fight Time'!B326</f>
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="AB328">
         <v>-2</v>
@@ -47995,6 +49029,15 @@
       <c r="P329" s="8">
         <v>4.51</v>
       </c>
+      <c r="Q329">
+        <v>0.59</v>
+      </c>
+      <c r="R329">
+        <v>0.21</v>
+      </c>
+      <c r="S329">
+        <v>0.2</v>
+      </c>
       <c r="T329">
         <v>0</v>
       </c>
@@ -48006,23 +49049,23 @@
       </c>
       <c r="W329">
         <f>Control!B327</f>
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="X329">
         <f>'Ctrl pct'!B327</f>
-        <v>0</v>
+        <v>3.5408560311284046E-2</v>
       </c>
       <c r="Y329">
         <f>Controlled!B327</f>
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="Z329">
         <f>'Controlled pct'!B327</f>
-        <v>0</v>
+        <v>2.5875486381322959E-2</v>
       </c>
       <c r="AA329">
         <f>'Fight Time'!B327</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="AB329">
         <v>-1</v>
@@ -48078,6 +49121,15 @@
       <c r="P330" s="8">
         <v>3.33</v>
       </c>
+      <c r="Q330">
+        <v>0.83</v>
+      </c>
+      <c r="R330">
+        <v>0.11</v>
+      </c>
+      <c r="S330">
+        <v>0.06</v>
+      </c>
       <c r="T330">
         <v>2</v>
       </c>
@@ -48089,23 +49141,23 @@
       </c>
       <c r="W330">
         <f>Control!B328</f>
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="X330">
         <f>'Ctrl pct'!B328</f>
-        <v>0</v>
+        <v>0.40666666666666668</v>
       </c>
       <c r="Y330">
         <f>Controlled!B328</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="Z330">
         <f>'Controlled pct'!B328</f>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AA330">
         <f>'Fight Time'!B328</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AB330">
         <v>4</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF2CAF-1739-4BA8-BD97-BEEB961248A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC16DE5C-FA26-4EB1-B999-4B30F15F7823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10416" yWindow="372" windowWidth="12600" windowHeight="12000" firstSheet="2" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="594">
   <si>
     <t>Khaos</t>
   </si>
@@ -887,9 +887,6 @@
     <t>Edmen Shabazyan</t>
   </si>
   <si>
-    <t>Rolando Delgado</t>
-  </si>
-  <si>
     <t>Ismael Bonfim</t>
   </si>
   <si>
@@ -1755,6 +1752,66 @@
   </si>
   <si>
     <t>MMA LOSSES</t>
+  </si>
+  <si>
+    <t>Niko Price</t>
+  </si>
+  <si>
+    <t>Jacobe Smith</t>
+  </si>
+  <si>
+    <t>Jhonata Diniz</t>
+  </si>
+  <si>
+    <t>Alvin Hines</t>
+  </si>
+  <si>
+    <t>Jackson McVey</t>
+  </si>
+  <si>
+    <t>Terrance McKinney</t>
+  </si>
+  <si>
+    <t>Viacheslav Borshchev</t>
+  </si>
+  <si>
+    <t>Viviane Araujo</t>
+  </si>
+  <si>
+    <t>Tracy Cortez</t>
+  </si>
+  <si>
+    <t>Jose Delgado</t>
+  </si>
+  <si>
+    <t>Jack Hermansson</t>
+  </si>
+  <si>
+    <t>Payton Talbott</t>
+  </si>
+  <si>
+    <t>Felippe Lima</t>
+  </si>
+  <si>
+    <t>Beneil Dariush</t>
+  </si>
+  <si>
+    <t>Renato Moicano</t>
+  </si>
+  <si>
+    <t>Brandon Royval</t>
+  </si>
+  <si>
+    <t>Alexandre Pantoja</t>
+  </si>
+  <si>
+    <t>Kai Kara-France</t>
+  </si>
+  <si>
+    <t>Charles Oliveira</t>
+  </si>
+  <si>
+    <t>Ilia Topuria</t>
   </si>
 </sst>
 </file>
@@ -2175,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
-  <dimension ref="A1:AE328"/>
+  <dimension ref="A1:AE347"/>
   <sheetViews>
-    <sheetView topLeftCell="A304" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A310" sqref="A310:A328"/>
+    <sheetView topLeftCell="A324" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A347" sqref="A347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2686,7 +2743,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>583</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
@@ -2723,7 +2780,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
@@ -2748,7 +2805,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
@@ -2772,7 +2829,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -2824,7 +2881,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
@@ -2875,7 +2932,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
@@ -2918,7 +2975,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
@@ -3034,7 +3091,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
@@ -3049,7 +3106,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
@@ -3085,7 +3142,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -3097,7 +3154,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
@@ -3173,7 +3230,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
@@ -3203,7 +3260,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -3242,7 +3299,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -3275,7 +3332,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -3368,7 +3425,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
@@ -3423,7 +3480,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
@@ -3474,7 +3531,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
@@ -3495,7 +3552,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -3516,7 +3573,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -3582,7 +3639,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -3623,7 +3680,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -3681,7 +3738,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -3736,7 +3793,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -3792,7 +3849,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -3856,7 +3913,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -3903,7 +3960,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
@@ -3939,7 +3996,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
@@ -3954,7 +4011,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -3996,7 +4053,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -4149,7 +4206,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
@@ -4179,7 +4236,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
@@ -4227,7 +4284,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -4251,7 +4308,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
@@ -4302,7 +4359,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
@@ -4317,7 +4374,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
@@ -4345,7 +4402,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -4363,7 +4420,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
@@ -4387,7 +4444,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
@@ -4409,7 +4466,7 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
@@ -4435,7 +4492,7 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
@@ -4459,7 +4516,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
@@ -4510,7 +4567,7 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="1"/>
@@ -4543,7 +4600,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" ref="B69:B131" si="2" xml:space="preserve"> AVERAGE(C69:BC69)</f>
@@ -4585,7 +4642,7 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="2"/>
@@ -4621,7 +4678,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="2"/>
@@ -4680,7 +4737,7 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="2"/>
@@ -4728,7 +4785,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="2"/>
@@ -4755,7 +4812,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="2"/>
@@ -4770,7 +4827,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="2"/>
@@ -4878,7 +4935,7 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="2"/>
@@ -4911,7 +4968,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="2"/>
@@ -4935,7 +4992,7 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="2"/>
@@ -4965,7 +5022,7 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="2"/>
@@ -4980,7 +5037,7 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="2"/>
@@ -5050,7 +5107,7 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="2"/>
@@ -5071,7 +5128,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="2"/>
@@ -5158,7 +5215,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="2"/>
@@ -5185,7 +5242,7 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="2"/>
@@ -5233,7 +5290,7 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="2"/>
@@ -5269,7 +5326,7 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="2"/>
@@ -5317,7 +5374,7 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="2"/>
@@ -5368,7 +5425,7 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="2"/>
@@ -5407,7 +5464,7 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="2"/>
@@ -5504,7 +5561,7 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="2"/>
@@ -5516,7 +5573,7 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="2"/>
@@ -5531,7 +5588,7 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="2"/>
@@ -5549,7 +5606,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="2"/>
@@ -5570,7 +5627,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="2"/>
@@ -5609,7 +5666,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="2"/>
@@ -5654,7 +5711,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="2"/>
@@ -5672,7 +5729,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="2"/>
@@ -5696,7 +5753,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="2"/>
@@ -5720,7 +5777,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="2"/>
@@ -5769,7 +5826,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="2"/>
@@ -5784,7 +5841,7 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="2"/>
@@ -5832,7 +5889,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="2"/>
@@ -5881,7 +5938,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="2"/>
@@ -5899,7 +5956,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="2"/>
@@ -5933,7 +5990,7 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="2"/>
@@ -5963,7 +6020,7 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="2"/>
@@ -6053,7 +6110,7 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="2"/>
@@ -6068,7 +6125,7 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="2"/>
@@ -6165,7 +6222,7 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="2"/>
@@ -6200,7 +6257,7 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="2"/>
@@ -6243,7 +6300,7 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="2"/>
@@ -6299,7 +6356,7 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="2"/>
@@ -6317,7 +6374,7 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="2"/>
@@ -6341,7 +6398,7 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="2"/>
@@ -6377,7 +6434,7 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="2"/>
@@ -6392,7 +6449,7 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="2"/>
@@ -6419,7 +6476,7 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="2"/>
@@ -6446,7 +6503,7 @@
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="2"/>
@@ -6520,7 +6577,7 @@
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="2"/>
@@ -6541,7 +6598,7 @@
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="2"/>
@@ -6559,7 +6616,7 @@
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" ref="B132:B193" si="3" xml:space="preserve"> AVERAGE(C132:BC132)</f>
@@ -6577,7 +6634,7 @@
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="3"/>
@@ -6613,7 +6670,7 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="3"/>
@@ -6634,7 +6691,7 @@
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" si="3"/>
@@ -6710,7 +6767,7 @@
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="3"/>
@@ -6725,7 +6782,7 @@
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="3"/>
@@ -6740,7 +6797,7 @@
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="3"/>
@@ -6791,7 +6848,7 @@
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="3"/>
@@ -6932,7 +6989,7 @@
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="3"/>
@@ -6971,7 +7028,7 @@
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="3"/>
@@ -7043,7 +7100,7 @@
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="3"/>
@@ -7145,7 +7202,7 @@
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="3"/>
@@ -7160,7 +7217,7 @@
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="3"/>
@@ -7178,7 +7235,7 @@
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="3"/>
@@ -7217,7 +7274,7 @@
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="3"/>
@@ -7235,7 +7292,7 @@
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="3"/>
@@ -7265,7 +7322,7 @@
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="3"/>
@@ -7340,7 +7397,7 @@
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="3"/>
@@ -7361,7 +7418,7 @@
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="3"/>
@@ -7404,7 +7461,7 @@
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="3"/>
@@ -7437,7 +7494,7 @@
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="3"/>
@@ -7449,7 +7506,7 @@
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="3"/>
@@ -7497,7 +7554,7 @@
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="3"/>
@@ -7521,7 +7578,7 @@
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="3"/>
@@ -7539,7 +7596,7 @@
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="3"/>
@@ -7558,7 +7615,7 @@
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="3"/>
@@ -7576,7 +7633,7 @@
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="3"/>
@@ -7656,7 +7713,7 @@
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="3"/>
@@ -7686,7 +7743,7 @@
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="3"/>
@@ -7764,7 +7821,7 @@
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="3"/>
@@ -7845,7 +7902,7 @@
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="3"/>
@@ -7869,7 +7926,7 @@
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="3"/>
@@ -7893,7 +7950,7 @@
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="3"/>
@@ -7954,7 +8011,7 @@
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="3"/>
@@ -7976,7 +8033,7 @@
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="3"/>
@@ -8012,7 +8069,7 @@
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="3"/>
@@ -8030,7 +8087,7 @@
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="3"/>
@@ -8060,7 +8117,7 @@
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="3"/>
@@ -8081,7 +8138,7 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="3"/>
@@ -8117,7 +8174,7 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="3"/>
@@ -8135,7 +8192,7 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="3"/>
@@ -8159,7 +8216,7 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="3"/>
@@ -8180,7 +8237,7 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="3"/>
@@ -8231,7 +8288,7 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B183" s="1">
         <f t="shared" si="3"/>
@@ -8279,7 +8336,7 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="3"/>
@@ -8294,7 +8351,7 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="3"/>
@@ -8336,7 +8393,7 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="3"/>
@@ -8351,7 +8408,7 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="3"/>
@@ -8374,7 +8431,7 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="3"/>
@@ -8407,7 +8464,7 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="3"/>
@@ -8476,7 +8533,7 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="3"/>
@@ -8497,7 +8554,7 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="3"/>
@@ -8530,7 +8587,7 @@
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="3"/>
@@ -8567,7 +8624,7 @@
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" ref="B194:B254" si="4" xml:space="preserve"> AVERAGE(C194:BC194)</f>
@@ -8603,7 +8660,7 @@
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="4"/>
@@ -8657,7 +8714,7 @@
     </row>
     <row r="196" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" si="4"/>
@@ -8672,7 +8729,7 @@
     </row>
     <row r="197" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="4"/>
@@ -8690,7 +8747,7 @@
     </row>
     <row r="198" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="4"/>
@@ -8711,7 +8768,7 @@
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="4"/>
@@ -8729,7 +8786,7 @@
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="4"/>
@@ -8744,7 +8801,7 @@
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="4"/>
@@ -8774,7 +8831,7 @@
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="4"/>
@@ -8828,7 +8885,7 @@
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="4"/>
@@ -8855,7 +8912,7 @@
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="4"/>
@@ -8909,7 +8966,7 @@
     </row>
     <row r="205" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="4"/>
@@ -9006,7 +9063,7 @@
     </row>
     <row r="206" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="4"/>
@@ -9046,7 +9103,7 @@
     </row>
     <row r="207" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="4"/>
@@ -9091,7 +9148,7 @@
     </row>
     <row r="208" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="4"/>
@@ -9127,7 +9184,7 @@
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" si="4"/>
@@ -9190,7 +9247,7 @@
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="4"/>
@@ -9235,7 +9292,7 @@
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="4"/>
@@ -9298,7 +9355,7 @@
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="4"/>
@@ -9373,7 +9430,7 @@
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="4"/>
@@ -9413,7 +9470,7 @@
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="4"/>
@@ -9440,7 +9497,7 @@
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="4"/>
@@ -9467,7 +9524,7 @@
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="4"/>
@@ -9497,7 +9554,7 @@
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="4"/>
@@ -9554,7 +9611,7 @@
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="4"/>
@@ -9572,7 +9629,7 @@
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="4"/>
@@ -9590,7 +9647,7 @@
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="4"/>
@@ -9632,7 +9689,7 @@
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="4"/>
@@ -9653,7 +9710,7 @@
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="4"/>
@@ -9668,7 +9725,7 @@
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="4"/>
@@ -9686,7 +9743,7 @@
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B225" s="1">
         <f t="shared" si="4"/>
@@ -9750,7 +9807,7 @@
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="4"/>
@@ -9801,7 +9858,7 @@
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="4"/>
@@ -9813,7 +9870,7 @@
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="4"/>
@@ -9825,7 +9882,7 @@
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="4"/>
@@ -9846,7 +9903,7 @@
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="4"/>
@@ -9864,7 +9921,7 @@
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="4"/>
@@ -9891,7 +9948,7 @@
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="4"/>
@@ -9928,7 +9985,7 @@
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="4"/>
@@ -9955,7 +10012,7 @@
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="4"/>
@@ -9970,7 +10027,7 @@
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="4"/>
@@ -9982,7 +10039,7 @@
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="4"/>
@@ -10015,7 +10072,7 @@
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="4"/>
@@ -10033,7 +10090,7 @@
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="4"/>
@@ -10051,7 +10108,7 @@
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="4"/>
@@ -10090,7 +10147,7 @@
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="4"/>
@@ -10129,7 +10186,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="4"/>
@@ -10141,7 +10198,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="4"/>
@@ -10156,7 +10213,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="4"/>
@@ -10195,7 +10252,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="4"/>
@@ -10216,7 +10273,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="4"/>
@@ -10243,7 +10300,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="4"/>
@@ -10258,7 +10315,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="4"/>
@@ -10291,7 +10348,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="4"/>
@@ -10318,7 +10375,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="4"/>
@@ -10348,7 +10405,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="4"/>
@@ -10372,7 +10429,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="4"/>
@@ -10387,7 +10444,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="4"/>
@@ -10417,7 +10474,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="4"/>
@@ -10451,7 +10508,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="4"/>
@@ -10484,7 +10541,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B255" s="1">
         <f t="shared" ref="B255:B318" si="5" xml:space="preserve"> AVERAGE(C255:BC255)</f>
@@ -10519,7 +10576,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="5"/>
@@ -10537,7 +10594,7 @@
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="5"/>
@@ -10558,7 +10615,7 @@
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" si="5"/>
@@ -10576,7 +10633,7 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" si="5"/>
@@ -10609,7 +10666,7 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="5"/>
@@ -10621,7 +10678,7 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="5"/>
@@ -10660,7 +10717,7 @@
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="5"/>
@@ -10705,7 +10762,7 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="5"/>
@@ -10753,7 +10810,7 @@
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="5"/>
@@ -10775,7 +10832,7 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="5"/>
@@ -10799,7 +10856,7 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="5"/>
@@ -10835,7 +10892,7 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="5"/>
@@ -10862,7 +10919,7 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="5"/>
@@ -10883,7 +10940,7 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="5"/>
@@ -10925,7 +10982,7 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="5"/>
@@ -10968,7 +11025,7 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="5"/>
@@ -11011,7 +11068,7 @@
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="5"/>
@@ -11050,7 +11107,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="5"/>
@@ -11086,7 +11143,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="5"/>
@@ -11098,7 +11155,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="5"/>
@@ -11116,7 +11173,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="5"/>
@@ -11131,7 +11188,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="5"/>
@@ -11143,7 +11200,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="5"/>
@@ -11161,7 +11218,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="5"/>
@@ -11200,7 +11257,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="5"/>
@@ -11239,7 +11296,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="5"/>
@@ -11263,7 +11320,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="5"/>
@@ -11300,7 +11357,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="5"/>
@@ -11312,7 +11369,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="5"/>
@@ -11351,7 +11408,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="5"/>
@@ -11366,7 +11423,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="5"/>
@@ -11393,7 +11450,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="5"/>
@@ -11432,7 +11489,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="5"/>
@@ -11472,7 +11529,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="5"/>
@@ -11490,7 +11547,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="5"/>
@@ -11523,7 +11580,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="5"/>
@@ -11544,7 +11601,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="5"/>
@@ -11571,7 +11628,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="5"/>
@@ -11598,7 +11655,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="5"/>
@@ -11637,7 +11694,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="5"/>
@@ -11649,7 +11706,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="5"/>
@@ -11690,7 +11747,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="5"/>
@@ -11705,7 +11762,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="5"/>
@@ -11720,7 +11777,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="5"/>
@@ -11759,7 +11816,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="5"/>
@@ -11789,7 +11846,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="5"/>
@@ -11810,7 +11867,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="5"/>
@@ -11849,7 +11906,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="5"/>
@@ -11864,7 +11921,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="5"/>
@@ -11898,7 +11955,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="5"/>
@@ -11925,7 +11982,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="5"/>
@@ -11966,7 +12023,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="5"/>
@@ -11999,7 +12056,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="5"/>
@@ -12038,7 +12095,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="5"/>
@@ -12069,7 +12126,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="5"/>
@@ -12081,7 +12138,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="5"/>
@@ -12096,7 +12153,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="5"/>
@@ -12115,7 +12172,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="5"/>
@@ -12140,7 +12197,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B314" s="1">
         <f t="shared" si="5"/>
@@ -12155,7 +12212,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B315" s="1">
         <f t="shared" si="5"/>
@@ -12173,7 +12230,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="5"/>
@@ -12188,7 +12245,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="5"/>
@@ -12228,7 +12285,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="5"/>
@@ -12252,7 +12309,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" ref="B319:B328" si="6" xml:space="preserve"> AVERAGE(C319:BC319)</f>
@@ -12267,7 +12324,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B320" s="1">
         <f t="shared" si="6"/>
@@ -12295,7 +12352,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="6"/>
@@ -12313,7 +12370,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B322" s="1">
         <f t="shared" si="6"/>
@@ -12340,7 +12397,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="6"/>
@@ -12370,7 +12427,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="6"/>
@@ -12388,7 +12445,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="6"/>
@@ -12400,7 +12457,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="6"/>
@@ -12439,7 +12496,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="6"/>
@@ -12478,7 +12535,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="6"/>
@@ -12486,6 +12543,101 @@
       </c>
       <c r="C328">
         <v>366</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A329" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -12496,10 +12648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
-  <dimension ref="A1:B328"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
-    <sheetView topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="B309" sqref="B309:B328"/>
+    <sheetView topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="A329" sqref="A329:A347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14804,7 +14956,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B256">
         <f>Control!B256/'Fight Time'!B256</f>
@@ -14813,7 +14965,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B257">
         <f>Control!B257/'Fight Time'!B257</f>
@@ -14822,7 +14974,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B258">
         <f>Control!B258/'Fight Time'!B258</f>
@@ -14831,7 +14983,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B259">
         <f>Control!B259/'Fight Time'!B259</f>
@@ -14840,7 +14992,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B260">
         <f>Control!B260/'Fight Time'!B260</f>
@@ -14849,7 +15001,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B261">
         <f>Control!B261/'Fight Time'!B261</f>
@@ -14858,7 +15010,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B262">
         <f>Control!B262/'Fight Time'!B262</f>
@@ -14867,7 +15019,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B263">
         <f>Control!B263/'Fight Time'!B263</f>
@@ -14876,7 +15028,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B264">
         <f>Control!B264/'Fight Time'!B264</f>
@@ -14885,7 +15037,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B265">
         <f>Control!B265/'Fight Time'!B265</f>
@@ -14894,7 +15046,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B266">
         <f>Control!B266/'Fight Time'!B266</f>
@@ -14903,7 +15055,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B267">
         <f>Control!B267/'Fight Time'!B267</f>
@@ -14912,7 +15064,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B268">
         <f>Control!B268/'Fight Time'!B268</f>
@@ -14921,7 +15073,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B269">
         <f>Control!B269/'Fight Time'!B269</f>
@@ -14930,7 +15082,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B270">
         <f>Control!B270/'Fight Time'!B270</f>
@@ -14939,7 +15091,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B271">
         <f>Control!B271/'Fight Time'!B271</f>
@@ -14948,7 +15100,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B272">
         <f>Control!B272/'Fight Time'!B272</f>
@@ -14957,7 +15109,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B273">
         <f>Control!B273/'Fight Time'!B273</f>
@@ -14966,7 +15118,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B274">
         <f>Control!B274/'Fight Time'!B274</f>
@@ -14975,7 +15127,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B275">
         <f>Control!B275/'Fight Time'!B275</f>
@@ -14984,7 +15136,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B276">
         <f>Control!B276/'Fight Time'!B276</f>
@@ -14993,7 +15145,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B277">
         <f>Control!B277/'Fight Time'!B277</f>
@@ -15002,7 +15154,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B278">
         <f>Control!B278/'Fight Time'!B278</f>
@@ -15011,7 +15163,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B279">
         <f>Control!B279/'Fight Time'!B279</f>
@@ -15020,7 +15172,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B280">
         <f>Control!B280/'Fight Time'!B280</f>
@@ -15029,7 +15181,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B281">
         <f>Control!B281/'Fight Time'!B281</f>
@@ -15038,7 +15190,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B282">
         <f>Control!B282/'Fight Time'!B282</f>
@@ -15047,7 +15199,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B283">
         <f>Control!B283/'Fight Time'!B283</f>
@@ -15056,7 +15208,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B284">
         <f>Control!B284/'Fight Time'!B284</f>
@@ -15065,7 +15217,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B285">
         <f>Control!B285/'Fight Time'!B285</f>
@@ -15074,7 +15226,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B286">
         <f>Control!B286/'Fight Time'!B286</f>
@@ -15083,7 +15235,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B287">
         <f>Control!B287/'Fight Time'!B287</f>
@@ -15092,7 +15244,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B288">
         <f>Control!B288/'Fight Time'!B288</f>
@@ -15101,7 +15253,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B289">
         <f>Control!B289/'Fight Time'!B289</f>
@@ -15110,7 +15262,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B290">
         <f>Control!B290/'Fight Time'!B290</f>
@@ -15119,7 +15271,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B291">
         <f>Control!B291/'Fight Time'!B291</f>
@@ -15128,7 +15280,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B292">
         <f>Control!B292/'Fight Time'!B292</f>
@@ -15137,7 +15289,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B293">
         <f>Control!B293/'Fight Time'!B293</f>
@@ -15146,7 +15298,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B294">
         <f>Control!B294/'Fight Time'!B294</f>
@@ -15155,7 +15307,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B295">
         <f>Control!B295/'Fight Time'!B295</f>
@@ -15164,7 +15316,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B296">
         <f>Control!B296/'Fight Time'!B296</f>
@@ -15173,7 +15325,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B297">
         <f>Control!B297/'Fight Time'!B297</f>
@@ -15182,7 +15334,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B298">
         <f>Control!B298/'Fight Time'!B298</f>
@@ -15191,7 +15343,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B299">
         <f>Control!B299/'Fight Time'!B299</f>
@@ -15200,7 +15352,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B300">
         <f>Control!B300/'Fight Time'!B300</f>
@@ -15209,7 +15361,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B301">
         <f>Control!B301/'Fight Time'!B301</f>
@@ -15218,7 +15370,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B302">
         <f>Control!B302/'Fight Time'!B302</f>
@@ -15227,7 +15379,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B303">
         <f>Control!B303/'Fight Time'!B303</f>
@@ -15236,7 +15388,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B304">
         <f>Control!B304/'Fight Time'!B304</f>
@@ -15245,7 +15397,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B305">
         <f>Control!B305/'Fight Time'!B305</f>
@@ -15254,7 +15406,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B306">
         <f>Control!B306/'Fight Time'!B306</f>
@@ -15263,7 +15415,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B307">
         <f>Control!B307/'Fight Time'!B307</f>
@@ -15272,7 +15424,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B308">
         <f>Control!B308/'Fight Time'!B308</f>
@@ -15281,7 +15433,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B309">
         <f>Control!B309/'Fight Time'!B309</f>
@@ -15290,7 +15442,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B310">
         <f>Control!B310/'Fight Time'!B310</f>
@@ -15299,7 +15451,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B311">
         <f>Control!B311/'Fight Time'!B311</f>
@@ -15308,7 +15460,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B312">
         <f>Control!B312/'Fight Time'!B312</f>
@@ -15317,7 +15469,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B313">
         <f>Control!B313/'Fight Time'!B313</f>
@@ -15326,7 +15478,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B314">
         <f>Control!B314/'Fight Time'!B314</f>
@@ -15335,7 +15487,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B315">
         <f>Control!B315/'Fight Time'!B315</f>
@@ -15344,7 +15496,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B316">
         <f>Control!B316/'Fight Time'!B316</f>
@@ -15353,7 +15505,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B317">
         <f>Control!B317/'Fight Time'!B317</f>
@@ -15362,7 +15514,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B318">
         <f>Control!B318/'Fight Time'!B318</f>
@@ -15371,7 +15523,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B319">
         <f>Control!B319/'Fight Time'!B319</f>
@@ -15380,7 +15532,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B320">
         <f>Control!B320/'Fight Time'!B320</f>
@@ -15389,7 +15541,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B321">
         <f>Control!B321/'Fight Time'!B321</f>
@@ -15398,7 +15550,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B322">
         <f>Control!B322/'Fight Time'!B322</f>
@@ -15407,7 +15559,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B323">
         <f>Control!B323/'Fight Time'!B323</f>
@@ -15416,7 +15568,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B324">
         <f>Control!B324/'Fight Time'!B324</f>
@@ -15425,7 +15577,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B325">
         <f>Control!B325/'Fight Time'!B325</f>
@@ -15434,7 +15586,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B326">
         <f>Control!B326/'Fight Time'!B326</f>
@@ -15443,7 +15595,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B327">
         <f>Control!B327/'Fight Time'!B327</f>
@@ -15452,11 +15604,106 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B328">
         <f>Control!B328/'Fight Time'!B328</f>
         <v>0.40666666666666668</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -15466,10 +15713,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
-  <dimension ref="A1:AE328"/>
+  <dimension ref="A1:AE347"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B309" sqref="B309:B328"/>
+    <sheetView topLeftCell="A325" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A329" sqref="A329:A347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23771,7 +24018,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="4"/>
@@ -23789,7 +24036,7 @@
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="4"/>
@@ -23810,7 +24057,7 @@
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" si="4"/>
@@ -23828,7 +24075,7 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" si="4"/>
@@ -23861,7 +24108,7 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="4"/>
@@ -23873,7 +24120,7 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="4"/>
@@ -23912,7 +24159,7 @@
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="4"/>
@@ -23957,7 +24204,7 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="4"/>
@@ -24005,7 +24252,7 @@
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="4"/>
@@ -24027,7 +24274,7 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="4"/>
@@ -24051,7 +24298,7 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="4"/>
@@ -24087,7 +24334,7 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="4"/>
@@ -24114,7 +24361,7 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="4"/>
@@ -24135,7 +24382,7 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="4"/>
@@ -24177,7 +24424,7 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="4"/>
@@ -24219,7 +24466,7 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="4"/>
@@ -24261,7 +24508,7 @@
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="4"/>
@@ -24300,7 +24547,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="4"/>
@@ -24333,7 +24580,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="4"/>
@@ -24345,7 +24592,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="4"/>
@@ -24363,7 +24610,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="4"/>
@@ -24378,7 +24625,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="4"/>
@@ -24390,7 +24637,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="4"/>
@@ -24408,7 +24655,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="4"/>
@@ -24447,7 +24694,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="4"/>
@@ -24486,7 +24733,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="4"/>
@@ -24510,7 +24757,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="4"/>
@@ -24546,7 +24793,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="4"/>
@@ -24558,7 +24805,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="4"/>
@@ -24597,7 +24844,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="4"/>
@@ -24612,7 +24859,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="4"/>
@@ -24639,7 +24886,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="4"/>
@@ -24678,7 +24925,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="4"/>
@@ -24717,7 +24964,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="4"/>
@@ -24735,7 +24982,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="4"/>
@@ -24768,7 +25015,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="4"/>
@@ -24789,7 +25036,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="4"/>
@@ -24816,7 +25063,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="4"/>
@@ -24843,7 +25090,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="4"/>
@@ -24882,7 +25129,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="4"/>
@@ -24894,7 +25141,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="4"/>
@@ -24933,7 +25180,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="4"/>
@@ -24948,7 +25195,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="4"/>
@@ -24963,7 +25210,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="4"/>
@@ -25002,7 +25249,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="4"/>
@@ -25033,7 +25280,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="4"/>
@@ -25054,7 +25301,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="4"/>
@@ -25093,7 +25340,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="4"/>
@@ -25108,7 +25355,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="4"/>
@@ -25141,7 +25388,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="4"/>
@@ -25168,7 +25415,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="4"/>
@@ -25207,7 +25454,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="4"/>
@@ -25241,7 +25488,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="4"/>
@@ -25280,7 +25527,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="4"/>
@@ -25310,7 +25557,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="4"/>
@@ -25322,7 +25569,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="4"/>
@@ -25337,7 +25584,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="4"/>
@@ -25355,7 +25602,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="4"/>
@@ -25379,7 +25626,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B314" s="1">
         <f t="shared" ref="B314:B328" si="5">AVERAGE(C314:BA314)</f>
@@ -25394,7 +25641,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B315" s="1">
         <f t="shared" si="5"/>
@@ -25412,7 +25659,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="5"/>
@@ -25427,7 +25674,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="5"/>
@@ -25467,7 +25714,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="5"/>
@@ -25491,7 +25738,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="5"/>
@@ -25506,7 +25753,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B320" s="1">
         <f t="shared" si="5"/>
@@ -25533,7 +25780,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="5"/>
@@ -25551,7 +25798,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B322" s="1">
         <f t="shared" si="5"/>
@@ -25578,7 +25825,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="5"/>
@@ -25608,7 +25855,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="5"/>
@@ -25626,7 +25873,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="5"/>
@@ -25638,7 +25885,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="5"/>
@@ -25677,7 +25924,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="5"/>
@@ -25716,7 +25963,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="5"/>
@@ -25724,6 +25971,101 @@
       </c>
       <c r="C328">
         <v>54</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A329" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -25733,10 +26075,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
-  <dimension ref="A1:B328"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
-    <sheetView topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="B309" sqref="B309:B328"/>
+    <sheetView topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="A329" sqref="A329:A347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28041,7 +28383,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B256">
         <f>Controlled!B256/'Fight Time'!B256</f>
@@ -28050,7 +28392,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B257">
         <f>Controlled!B257/'Fight Time'!B257</f>
@@ -28059,7 +28401,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B258">
         <f>Controlled!B258/'Fight Time'!B258</f>
@@ -28068,7 +28410,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B259">
         <f>Controlled!B259/'Fight Time'!B259</f>
@@ -28077,7 +28419,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B260">
         <f>Controlled!B260/'Fight Time'!B260</f>
@@ -28086,7 +28428,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B261">
         <f>Controlled!B261/'Fight Time'!B261</f>
@@ -28095,7 +28437,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B262">
         <f>Controlled!B262/'Fight Time'!B262</f>
@@ -28104,7 +28446,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B263">
         <f>Controlled!B263/'Fight Time'!B263</f>
@@ -28113,7 +28455,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B264">
         <f>Controlled!B264/'Fight Time'!B264</f>
@@ -28122,7 +28464,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B265">
         <f>Controlled!B265/'Fight Time'!B265</f>
@@ -28131,7 +28473,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B266">
         <f>Controlled!B266/'Fight Time'!B266</f>
@@ -28140,7 +28482,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B267">
         <f>Controlled!B267/'Fight Time'!B267</f>
@@ -28149,7 +28491,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B268">
         <f>Controlled!B268/'Fight Time'!B268</f>
@@ -28158,7 +28500,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B269">
         <f>Controlled!B269/'Fight Time'!B269</f>
@@ -28167,7 +28509,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B270">
         <f>Controlled!B270/'Fight Time'!B270</f>
@@ -28176,7 +28518,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B271">
         <f>Controlled!B271/'Fight Time'!B271</f>
@@ -28185,7 +28527,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B272">
         <f>Controlled!B272/'Fight Time'!B272</f>
@@ -28194,7 +28536,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B273">
         <f>Controlled!B273/'Fight Time'!B273</f>
@@ -28203,7 +28545,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B274">
         <f>Controlled!B274/'Fight Time'!B274</f>
@@ -28212,7 +28554,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B275">
         <f>Controlled!B275/'Fight Time'!B275</f>
@@ -28221,7 +28563,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B276">
         <f>Controlled!B276/'Fight Time'!B276</f>
@@ -28230,7 +28572,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B277">
         <f>Controlled!B277/'Fight Time'!B277</f>
@@ -28239,7 +28581,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B278">
         <f>Controlled!B278/'Fight Time'!B278</f>
@@ -28248,7 +28590,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B279">
         <f>Controlled!B279/'Fight Time'!B279</f>
@@ -28257,7 +28599,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B280">
         <f>Controlled!B280/'Fight Time'!B280</f>
@@ -28266,7 +28608,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B281">
         <f>Controlled!B281/'Fight Time'!B281</f>
@@ -28275,7 +28617,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B282">
         <f>Controlled!B282/'Fight Time'!B282</f>
@@ -28284,7 +28626,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B283">
         <f>Controlled!B283/'Fight Time'!B283</f>
@@ -28293,7 +28635,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B284">
         <f>Controlled!B284/'Fight Time'!B284</f>
@@ -28302,7 +28644,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B285">
         <f>Controlled!B285/'Fight Time'!B285</f>
@@ -28311,7 +28653,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B286">
         <f>Controlled!B286/'Fight Time'!B286</f>
@@ -28320,7 +28662,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B287">
         <f>Controlled!B287/'Fight Time'!B287</f>
@@ -28329,7 +28671,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B288">
         <f>Controlled!B288/'Fight Time'!B288</f>
@@ -28338,7 +28680,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B289">
         <f>Controlled!B289/'Fight Time'!B289</f>
@@ -28347,7 +28689,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B290">
         <f>Controlled!B290/'Fight Time'!B290</f>
@@ -28356,7 +28698,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B291">
         <f>Controlled!B291/'Fight Time'!B291</f>
@@ -28365,7 +28707,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B292">
         <f>Controlled!B292/'Fight Time'!B292</f>
@@ -28374,7 +28716,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B293">
         <f>Controlled!B293/'Fight Time'!B293</f>
@@ -28383,7 +28725,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B294">
         <f>Controlled!B294/'Fight Time'!B294</f>
@@ -28392,7 +28734,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B295">
         <f>Controlled!B295/'Fight Time'!B295</f>
@@ -28401,7 +28743,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B296">
         <f>Controlled!B296/'Fight Time'!B296</f>
@@ -28410,7 +28752,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B297">
         <f>Controlled!B297/'Fight Time'!B297</f>
@@ -28419,7 +28761,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B298">
         <f>Controlled!B298/'Fight Time'!B298</f>
@@ -28428,7 +28770,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B299">
         <f>Controlled!B299/'Fight Time'!B299</f>
@@ -28437,7 +28779,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B300">
         <f>Controlled!B300/'Fight Time'!B300</f>
@@ -28446,7 +28788,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B301">
         <f>Controlled!B301/'Fight Time'!B301</f>
@@ -28455,7 +28797,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B302">
         <f>Controlled!B302/'Fight Time'!B302</f>
@@ -28464,7 +28806,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B303">
         <f>Controlled!B303/'Fight Time'!B303</f>
@@ -28473,7 +28815,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B304">
         <f>Controlled!B304/'Fight Time'!B304</f>
@@ -28482,7 +28824,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B305">
         <f>Controlled!B305/'Fight Time'!B305</f>
@@ -28491,7 +28833,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B306">
         <f>Controlled!B306/'Fight Time'!B306</f>
@@ -28500,7 +28842,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B307">
         <f>Controlled!B307/'Fight Time'!B307</f>
@@ -28509,7 +28851,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B308">
         <f>Controlled!B308/'Fight Time'!B308</f>
@@ -28518,7 +28860,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B309">
         <f>Controlled!B309/'Fight Time'!B309</f>
@@ -28527,7 +28869,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B310">
         <f>Controlled!B310/'Fight Time'!B310</f>
@@ -28536,7 +28878,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B311">
         <f>Controlled!B311/'Fight Time'!B311</f>
@@ -28545,7 +28887,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B312">
         <f>Controlled!B312/'Fight Time'!B312</f>
@@ -28554,7 +28896,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B313">
         <f>Controlled!B313/'Fight Time'!B313</f>
@@ -28563,7 +28905,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B314">
         <f>Controlled!B314/'Fight Time'!B314</f>
@@ -28572,7 +28914,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B315">
         <f>Controlled!B315/'Fight Time'!B315</f>
@@ -28581,7 +28923,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B316">
         <f>Controlled!B316/'Fight Time'!B316</f>
@@ -28590,7 +28932,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B317">
         <f>Controlled!B317/'Fight Time'!B317</f>
@@ -28599,7 +28941,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B318">
         <f>Controlled!B318/'Fight Time'!B318</f>
@@ -28608,7 +28950,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B319">
         <f>Controlled!B319/'Fight Time'!B319</f>
@@ -28617,7 +28959,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B320">
         <f>Controlled!B320/'Fight Time'!B320</f>
@@ -28626,7 +28968,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B321">
         <f>Controlled!B321/'Fight Time'!B321</f>
@@ -28635,7 +28977,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B322">
         <f>Controlled!B322/'Fight Time'!B322</f>
@@ -28644,7 +28986,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B323">
         <f>Controlled!B323/'Fight Time'!B323</f>
@@ -28653,7 +28995,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B324">
         <f>Controlled!B324/'Fight Time'!B324</f>
@@ -28662,7 +29004,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B325">
         <f>Controlled!B325/'Fight Time'!B325</f>
@@ -28671,7 +29013,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B326">
         <f>Controlled!B326/'Fight Time'!B326</f>
@@ -28680,7 +29022,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B327">
         <f>Controlled!B327/'Fight Time'!B327</f>
@@ -28689,11 +29031,106 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B328">
         <f>Controlled!B328/'Fight Time'!B328</f>
         <v>0.06</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -28703,10 +29140,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
-  <dimension ref="A1:O328"/>
+  <dimension ref="A1:O347"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="B342" sqref="B342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30890,7 +31327,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B256">
         <v>900</v>
@@ -30898,7 +31335,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B257">
         <v>900</v>
@@ -30906,7 +31343,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B258">
         <v>427</v>
@@ -30914,7 +31351,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B259">
         <f>360+52</f>
@@ -30923,7 +31360,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B260">
         <v>500</v>
@@ -30931,7 +31368,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B261">
         <v>659</v>
@@ -30939,7 +31376,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B262">
         <f>9*60+47</f>
@@ -30948,7 +31385,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B263">
         <v>921</v>
@@ -30956,7 +31393,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B264">
         <f>12*60+4</f>
@@ -30965,7 +31402,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B265">
         <v>509</v>
@@ -30973,7 +31410,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B266">
         <v>435</v>
@@ -30981,7 +31418,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B267">
         <v>257</v>
@@ -30989,7 +31426,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B268">
         <f>9*60+20</f>
@@ -30998,7 +31435,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B269">
         <v>638</v>
@@ -31006,7 +31443,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B270">
         <f>12*60+19</f>
@@ -31015,7 +31452,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B271">
         <v>738</v>
@@ -31023,7 +31460,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B272">
         <f>12*60+10</f>
@@ -31032,7 +31469,7 @@
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B273">
         <f>14*60+7</f>
@@ -31041,7 +31478,7 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B274">
         <f>AVERAGE(C274:Q274)</f>
@@ -31053,7 +31490,7 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B275">
         <f t="shared" ref="B275:B290" si="0">AVERAGE(C275:Q275)</f>
@@ -31071,7 +31508,7 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B276">
         <f t="shared" si="0"/>
@@ -31086,7 +31523,7 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B277">
         <f t="shared" si="0"/>
@@ -31098,7 +31535,7 @@
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B278">
         <f t="shared" si="0"/>
@@ -31120,7 +31557,7 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B279">
         <f t="shared" si="0"/>
@@ -31167,7 +31604,7 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B280">
         <f t="shared" si="0"/>
@@ -31218,7 +31655,7 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B281">
         <f t="shared" si="0"/>
@@ -31243,7 +31680,7 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B282">
         <f t="shared" si="0"/>
@@ -31256,7 +31693,7 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B283">
         <f t="shared" si="0"/>
@@ -31268,7 +31705,7 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B284">
         <f t="shared" si="0"/>
@@ -31310,7 +31747,7 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B285">
         <f t="shared" si="0"/>
@@ -31325,7 +31762,7 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B286">
         <f>13*60+32</f>
@@ -31334,7 +31771,7 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B287">
         <f>11*60+4</f>
@@ -31343,7 +31780,7 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B288">
         <f>16*60+45</f>
@@ -31352,7 +31789,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B289">
         <f t="shared" si="0"/>
@@ -31378,7 +31815,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B290">
         <f t="shared" si="0"/>
@@ -31414,7 +31851,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B291">
         <v>900</v>
@@ -31422,7 +31859,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B292">
         <f>13*60+30</f>
@@ -31431,7 +31868,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B293">
         <f>12*60+11</f>
@@ -31440,7 +31877,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B294">
         <f>11*60+51</f>
@@ -31449,7 +31886,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B295">
         <v>900</v>
@@ -31457,7 +31894,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B296">
         <f>9*60+51</f>
@@ -31466,7 +31903,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B297">
         <f>8*60+20</f>
@@ -31475,7 +31912,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B298">
         <v>134</v>
@@ -31483,7 +31920,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B299">
         <f>12*60+32</f>
@@ -31492,7 +31929,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B300">
         <f>9*60+20</f>
@@ -31501,7 +31938,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B301">
         <v>640</v>
@@ -31509,7 +31946,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B302">
         <v>500</v>
@@ -31517,7 +31954,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B303">
         <f>9*60+22</f>
@@ -31526,7 +31963,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B304">
         <f>12*60+41</f>
@@ -31535,7 +31972,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B305">
         <f>9*60+42</f>
@@ -31544,7 +31981,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B306">
         <f>13*60+8</f>
@@ -31553,7 +31990,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B307">
         <v>941</v>
@@ -31561,7 +31998,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B308">
         <v>639</v>
@@ -31569,7 +32006,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B309">
         <f>17*60+27</f>
@@ -31578,7 +32015,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B310">
         <v>380</v>
@@ -31586,7 +32023,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B311">
         <v>516</v>
@@ -31594,7 +32031,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B312">
         <f>13*60+55</f>
@@ -31603,7 +32040,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B313">
         <f>13*60+7</f>
@@ -31612,7 +32049,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B314">
         <v>900</v>
@@ -31620,7 +32057,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B315">
         <f>9*60+49</f>
@@ -31629,7 +32066,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B316">
         <f>9*60+26</f>
@@ -31638,7 +32075,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B317">
         <f>11*60+48</f>
@@ -31647,7 +32084,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B318">
         <v>900</v>
@@ -31655,7 +32092,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B319">
         <v>900</v>
@@ -31663,7 +32100,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B320">
         <f>11*60+56</f>
@@ -31672,7 +32109,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B321">
         <v>515</v>
@@ -31680,7 +32117,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B322">
         <v>650</v>
@@ -31688,7 +32125,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B323">
         <v>487</v>
@@ -31696,7 +32133,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B324">
         <f>13*60+4</f>
@@ -31705,7 +32142,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B325">
         <v>600</v>
@@ -31713,7 +32150,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B326">
         <f>9*60+2</f>
@@ -31722,7 +32159,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B327">
         <v>514</v>
@@ -31730,10 +32167,105 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B328">
         <v>900</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -31745,10 +32277,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="S94" sqref="S94"/>
+      <selection pane="bottomLeft" activeCell="A325" sqref="A325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31799,10 +32331,10 @@
       <c r="S1" s="13"/>
       <c r="T1" s="7"/>
       <c r="U1" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>508</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>509</v>
       </c>
       <c r="W1" s="13" t="s">
         <v>259</v>
@@ -31827,16 +32359,16 @@
         <v>264</v>
       </c>
       <c r="E2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F2" t="s">
         <v>573</v>
       </c>
-      <c r="F2" t="s">
-        <v>574</v>
-      </c>
       <c r="G2" t="s">
+        <v>569</v>
+      </c>
+      <c r="H2" t="s">
         <v>570</v>
-      </c>
-      <c r="H2" t="s">
-        <v>571</v>
       </c>
       <c r="I2" t="s">
         <v>265</v>
@@ -31872,7 +32404,7 @@
         <v>271</v>
       </c>
       <c r="T2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
@@ -31892,7 +32424,7 @@
         <v>261</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -32608,7 +33140,7 @@
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>Control!A16</f>
-        <v>Rolando Delgado</v>
+        <v>Jose Delgado</v>
       </c>
       <c r="E18">
         <v>9</v>
@@ -47439,13 +47971,13 @@
         <v>150</v>
       </c>
       <c r="E312">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F312">
         <v>2</v>
       </c>
       <c r="G312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H312">
         <v>1</v>
@@ -47513,7 +48045,7 @@
         <v>380</v>
       </c>
       <c r="AB312">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:28" x14ac:dyDescent="0.3">
@@ -47534,13 +48066,13 @@
         <v>7</v>
       </c>
       <c r="F313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G313">
         <v>1</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313">
         <v>0.2</v>
@@ -47605,7 +48137,7 @@
         <v>516</v>
       </c>
       <c r="AB313">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="314" spans="1:28" x14ac:dyDescent="0.3">
@@ -47902,13 +48434,13 @@
         <v>7</v>
       </c>
       <c r="F317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G317">
         <v>2</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317">
         <v>0.56000000000000005</v>
@@ -47973,7 +48505,7 @@
         <v>589</v>
       </c>
       <c r="AB317">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:28" x14ac:dyDescent="0.3">
@@ -47991,13 +48523,13 @@
         <v>175</v>
       </c>
       <c r="E318">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F318">
         <v>2</v>
       </c>
       <c r="G318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -48065,7 +48597,7 @@
         <v>566</v>
       </c>
       <c r="AB318">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:28" x14ac:dyDescent="0.3">
@@ -48454,13 +48986,13 @@
         <v>15</v>
       </c>
       <c r="F323">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G323">
         <v>1</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I323">
         <v>0.6</v>
@@ -48525,7 +49057,7 @@
         <v>515</v>
       </c>
       <c r="AB323">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324" spans="1:28" x14ac:dyDescent="0.3">
@@ -48543,13 +49075,13 @@
         <v>178</v>
       </c>
       <c r="E324">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F324">
         <v>3</v>
       </c>
       <c r="G324">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H324">
         <v>1</v>
@@ -48617,7 +49149,7 @@
         <v>650</v>
       </c>
       <c r="AB324">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:28" x14ac:dyDescent="0.3">
@@ -49164,6 +49696,49 @@
       </c>
     </row>
     <row r="331" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A331" t="str">
+        <f>Control!A329</f>
+        <v>Niko Price</v>
+      </c>
+      <c r="B331">
+        <v>35</v>
+      </c>
+      <c r="C331">
+        <v>183</v>
+      </c>
+      <c r="D331">
+        <v>193</v>
+      </c>
+      <c r="E331">
+        <v>16</v>
+      </c>
+      <c r="F331">
+        <v>8</v>
+      </c>
+      <c r="G331">
+        <v>8</v>
+      </c>
+      <c r="H331">
+        <v>8</v>
+      </c>
+      <c r="I331">
+        <v>0.63</v>
+      </c>
+      <c r="J331">
+        <v>0.63</v>
+      </c>
+      <c r="K331">
+        <v>0.19</v>
+      </c>
+      <c r="L331">
+        <v>0.13</v>
+      </c>
+      <c r="M331">
+        <v>0.19</v>
+      </c>
+      <c r="N331">
+        <v>0.25</v>
+      </c>
       <c r="W331">
         <f>Control!B329</f>
         <v>0</v>
@@ -49186,6 +49761,49 @@
       </c>
     </row>
     <row r="332" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A332" t="str">
+        <f>Control!A330</f>
+        <v>Jacobe Smith</v>
+      </c>
+      <c r="B332">
+        <v>29</v>
+      </c>
+      <c r="C332">
+        <v>178</v>
+      </c>
+      <c r="D332">
+        <v>183</v>
+      </c>
+      <c r="E332">
+        <v>10</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
+        <v>0.8</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+      <c r="L332">
+        <v>0</v>
+      </c>
+      <c r="M332">
+        <v>0.2</v>
+      </c>
+      <c r="N332">
+        <v>0</v>
+      </c>
       <c r="W332">
         <f>Control!B330</f>
         <v>0</v>
@@ -49208,6 +49826,49 @@
       </c>
     </row>
     <row r="333" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A333" t="str">
+        <f>Control!A331</f>
+        <v>Jhonata Diniz</v>
+      </c>
+      <c r="B333">
+        <v>34</v>
+      </c>
+      <c r="C333">
+        <v>192</v>
+      </c>
+      <c r="D333">
+        <v>202</v>
+      </c>
+      <c r="E333">
+        <v>8</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+      <c r="G333">
+        <v>2</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
+        <v>0.88</v>
+      </c>
+      <c r="J333">
+        <v>1</v>
+      </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
+      <c r="L333">
+        <v>0</v>
+      </c>
+      <c r="M333">
+        <v>0.13</v>
+      </c>
+      <c r="N333">
+        <v>0</v>
+      </c>
       <c r="W333">
         <f>Control!B331</f>
         <v>0</v>
@@ -49230,6 +49891,49 @@
       </c>
     </row>
     <row r="334" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A334" t="str">
+        <f>Control!A332</f>
+        <v>Alvin Hines</v>
+      </c>
+      <c r="B334">
+        <v>33</v>
+      </c>
+      <c r="C334">
+        <v>188</v>
+      </c>
+      <c r="D334">
+        <v>188</v>
+      </c>
+      <c r="E334">
+        <v>7</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>0.43</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0.43</v>
+      </c>
+      <c r="L334">
+        <v>0</v>
+      </c>
+      <c r="M334">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N334">
+        <v>0</v>
+      </c>
       <c r="W334">
         <f>Control!B332</f>
         <v>0</v>
@@ -49252,6 +49956,49 @@
       </c>
     </row>
     <row r="335" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A335" t="str">
+        <f>Control!A333</f>
+        <v>Jackson McVey</v>
+      </c>
+      <c r="B335">
+        <v>26</v>
+      </c>
+      <c r="C335">
+        <v>193</v>
+      </c>
+      <c r="D335">
+        <v>196</v>
+      </c>
+      <c r="E335">
+        <v>6</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="I335">
+        <v>0.5</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>0.5</v>
+      </c>
+      <c r="L335">
+        <v>0</v>
+      </c>
+      <c r="M335">
+        <v>0</v>
+      </c>
+      <c r="N335">
+        <v>0</v>
+      </c>
       <c r="W335">
         <f>Control!B333</f>
         <v>0</v>
@@ -49274,6 +50021,49 @@
       </c>
     </row>
     <row r="336" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A336" t="str">
+        <f>Control!A334</f>
+        <v>Terrance McKinney</v>
+      </c>
+      <c r="B336">
+        <v>30</v>
+      </c>
+      <c r="C336">
+        <v>178</v>
+      </c>
+      <c r="D336">
+        <v>187</v>
+      </c>
+      <c r="E336">
+        <v>16</v>
+      </c>
+      <c r="F336">
+        <v>7</v>
+      </c>
+      <c r="G336">
+        <v>6</v>
+      </c>
+      <c r="H336">
+        <v>4</v>
+      </c>
+      <c r="I336">
+        <v>0.5</v>
+      </c>
+      <c r="J336">
+        <v>0.71</v>
+      </c>
+      <c r="K336">
+        <v>0.5</v>
+      </c>
+      <c r="L336">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M336">
+        <v>0</v>
+      </c>
+      <c r="N336">
+        <v>0</v>
+      </c>
       <c r="W336">
         <f>Control!B334</f>
         <v>0</v>
@@ -49295,7 +50085,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A337" t="str">
+        <f>Control!A335</f>
+        <v>Viacheslav Borshchev</v>
+      </c>
+      <c r="B337">
+        <v>33</v>
+      </c>
+      <c r="C337">
+        <v>180</v>
+      </c>
+      <c r="D337">
+        <v>175</v>
+      </c>
+      <c r="E337">
+        <v>8</v>
+      </c>
+      <c r="F337">
+        <v>5</v>
+      </c>
+      <c r="G337">
+        <v>3</v>
+      </c>
+      <c r="H337">
+        <v>4</v>
+      </c>
+      <c r="I337">
+        <v>0.75</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+      <c r="L337">
+        <v>0.2</v>
+      </c>
+      <c r="M337">
+        <v>0.25</v>
+      </c>
+      <c r="N337">
+        <v>0.8</v>
+      </c>
       <c r="W337">
         <f>Control!B335</f>
         <v>0</v>
@@ -49317,7 +50150,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A338" t="str">
+        <f>Control!A336</f>
+        <v>Viviane Araujo</v>
+      </c>
+      <c r="B338">
+        <v>38</v>
+      </c>
+      <c r="C338">
+        <v>163</v>
+      </c>
+      <c r="D338">
+        <v>173</v>
+      </c>
+      <c r="E338">
+        <v>13</v>
+      </c>
+      <c r="F338">
+        <v>6</v>
+      </c>
+      <c r="G338">
+        <v>7</v>
+      </c>
+      <c r="H338">
+        <v>5</v>
+      </c>
+      <c r="I338">
+        <v>0.23</v>
+      </c>
+      <c r="J338">
+        <v>0.17</v>
+      </c>
+      <c r="K338">
+        <v>0.31</v>
+      </c>
+      <c r="L338">
+        <v>0</v>
+      </c>
+      <c r="M338">
+        <v>0.46</v>
+      </c>
+      <c r="N338">
+        <v>0.83</v>
+      </c>
       <c r="W338">
         <f>Control!B336</f>
         <v>0</v>
@@ -49339,7 +50215,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A339" t="str">
+        <f>Control!A337</f>
+        <v>Tracy Cortez</v>
+      </c>
+      <c r="B339">
+        <v>31</v>
+      </c>
+      <c r="C339">
+        <v>165</v>
+      </c>
+      <c r="D339">
+        <v>166</v>
+      </c>
+      <c r="E339">
+        <v>11</v>
+      </c>
+      <c r="F339">
+        <v>2</v>
+      </c>
+      <c r="G339">
+        <v>5</v>
+      </c>
+      <c r="H339">
+        <v>1</v>
+      </c>
+      <c r="I339">
+        <v>0.09</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0.09</v>
+      </c>
+      <c r="L339">
+        <v>0.5</v>
+      </c>
+      <c r="M339">
+        <v>0.82</v>
+      </c>
+      <c r="N339">
+        <v>0.5</v>
+      </c>
       <c r="W339">
         <f>Control!B337</f>
         <v>0</v>
@@ -49361,7 +50280,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A340" t="str">
+        <f>Control!A338</f>
+        <v>Jack Hermansson</v>
+      </c>
+      <c r="B340">
+        <v>37</v>
+      </c>
+      <c r="C340">
+        <v>185</v>
+      </c>
+      <c r="D340">
+        <v>197</v>
+      </c>
+      <c r="E340">
+        <v>24</v>
+      </c>
+      <c r="F340">
+        <v>8</v>
+      </c>
+      <c r="G340">
+        <v>11</v>
+      </c>
+      <c r="H340">
+        <v>6</v>
+      </c>
+      <c r="I340">
+        <v>0.42</v>
+      </c>
+      <c r="J340">
+        <v>0.38</v>
+      </c>
+      <c r="K340">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L340">
+        <v>0.25</v>
+      </c>
+      <c r="M340">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N340">
+        <v>0.38</v>
+      </c>
       <c r="W340">
         <f>Control!B338</f>
         <v>0</v>
@@ -49383,7 +50345,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A341" t="str">
+        <f>Control!A339</f>
+        <v>Payton Talbott</v>
+      </c>
+      <c r="B341">
+        <v>26</v>
+      </c>
+      <c r="C341">
+        <v>178</v>
+      </c>
+      <c r="D341">
+        <v>178</v>
+      </c>
+      <c r="E341">
+        <v>9</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+      <c r="G341">
+        <v>3</v>
+      </c>
+      <c r="H341">
+        <v>1</v>
+      </c>
+      <c r="I341">
+        <v>0.78</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0.11</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+      <c r="M341">
+        <v>0.11</v>
+      </c>
+      <c r="N341">
+        <v>1</v>
+      </c>
       <c r="W341">
         <f>Control!B339</f>
         <v>0</v>
@@ -49405,7 +50410,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A342" t="str">
+        <f>Control!A340</f>
+        <v>Felippe Lima</v>
+      </c>
+      <c r="B342">
+        <v>27</v>
+      </c>
+      <c r="C342">
+        <v>168</v>
+      </c>
+      <c r="D342">
+        <v>173</v>
+      </c>
+      <c r="E342">
+        <v>14</v>
+      </c>
+      <c r="F342">
+        <v>1</v>
+      </c>
+      <c r="G342">
+        <v>2</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0.21</v>
+      </c>
+      <c r="L342">
+        <v>1</v>
+      </c>
+      <c r="M342">
+        <v>0.5</v>
+      </c>
+      <c r="N342">
+        <v>0</v>
+      </c>
       <c r="W342">
         <f>Control!B340</f>
         <v>0</v>
@@ -49427,7 +50475,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A343" t="str">
+        <f>Control!A341</f>
+        <v>Beneil Dariush</v>
+      </c>
+      <c r="B343">
+        <v>36</v>
+      </c>
+      <c r="C343">
+        <v>178</v>
+      </c>
+      <c r="D343">
+        <v>183</v>
+      </c>
+      <c r="E343">
+        <v>22</v>
+      </c>
+      <c r="F343">
+        <v>6</v>
+      </c>
+      <c r="G343">
+        <v>16</v>
+      </c>
+      <c r="H343">
+        <v>6</v>
+      </c>
+      <c r="I343">
+        <v>0.23</v>
+      </c>
+      <c r="J343">
+        <v>0.83</v>
+      </c>
+      <c r="K343">
+        <v>0.36</v>
+      </c>
+      <c r="L343">
+        <v>0.17</v>
+      </c>
+      <c r="M343">
+        <v>0.41</v>
+      </c>
+      <c r="N343">
+        <v>0</v>
+      </c>
       <c r="W343">
         <f>Control!B341</f>
         <v>0</v>
@@ -49449,7 +50540,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A344" t="str">
+        <f>Control!A342</f>
+        <v>Renato Moicano</v>
+      </c>
+      <c r="B344">
+        <v>36</v>
+      </c>
+      <c r="C344">
+        <v>181</v>
+      </c>
+      <c r="D344">
+        <v>183</v>
+      </c>
+      <c r="E344">
+        <v>20</v>
+      </c>
+      <c r="F344">
+        <v>6</v>
+      </c>
+      <c r="G344">
+        <v>12</v>
+      </c>
+      <c r="H344">
+        <v>6</v>
+      </c>
+      <c r="I344">
+        <v>0.1</v>
+      </c>
+      <c r="J344">
+        <v>0.5</v>
+      </c>
+      <c r="K344">
+        <v>0.5</v>
+      </c>
+      <c r="L344">
+        <v>0.33</v>
+      </c>
+      <c r="M344">
+        <v>0.4</v>
+      </c>
+      <c r="N344">
+        <v>0.17</v>
+      </c>
       <c r="W344">
         <f>Control!B342</f>
         <v>0</v>
@@ -49471,7 +50605,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A345" t="str">
+        <f>Control!A343</f>
+        <v>Brandon Royval</v>
+      </c>
+      <c r="B345">
+        <v>32</v>
+      </c>
+      <c r="C345">
+        <v>175</v>
+      </c>
+      <c r="D345">
+        <v>179</v>
+      </c>
+      <c r="E345">
+        <v>17</v>
+      </c>
+      <c r="F345">
+        <v>7</v>
+      </c>
+      <c r="G345">
+        <v>7</v>
+      </c>
+      <c r="H345">
+        <v>3</v>
+      </c>
+      <c r="I345">
+        <v>0.24</v>
+      </c>
+      <c r="J345">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K345">
+        <v>0.53</v>
+      </c>
+      <c r="L345">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M345">
+        <v>0.24</v>
+      </c>
+      <c r="N345">
+        <v>0.71</v>
+      </c>
       <c r="W345">
         <f>Control!B343</f>
         <v>0</v>
@@ -49493,7 +50670,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A346" t="str">
+        <f>Control!A344</f>
+        <v>Alexandre Pantoja</v>
+      </c>
+      <c r="B346">
+        <v>35</v>
+      </c>
+      <c r="C346">
+        <v>166</v>
+      </c>
+      <c r="D346">
+        <v>173</v>
+      </c>
+      <c r="E346">
+        <v>29</v>
+      </c>
+      <c r="F346">
+        <v>5</v>
+      </c>
+      <c r="G346">
+        <v>13</v>
+      </c>
+      <c r="H346">
+        <v>3</v>
+      </c>
+      <c r="I346">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>0.38</v>
+      </c>
+      <c r="L346">
+        <v>0</v>
+      </c>
+      <c r="M346">
+        <v>0.34</v>
+      </c>
+      <c r="N346">
+        <v>1</v>
+      </c>
       <c r="W346">
         <f>Control!B344</f>
         <v>0</v>
@@ -49515,7 +50735,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A347" t="str">
+        <f>Control!A345</f>
+        <v>Kai Kara-France</v>
+      </c>
+      <c r="B347">
+        <v>32</v>
+      </c>
+      <c r="C347">
+        <v>163</v>
+      </c>
+      <c r="D347">
+        <v>175</v>
+      </c>
+      <c r="E347">
+        <v>25</v>
+      </c>
+      <c r="F347">
+        <v>11</v>
+      </c>
+      <c r="G347">
+        <v>8</v>
+      </c>
+      <c r="H347">
+        <v>4</v>
+      </c>
+      <c r="I347">
+        <v>0.48</v>
+      </c>
+      <c r="J347">
+        <v>0.27</v>
+      </c>
+      <c r="K347">
+        <v>0.12</v>
+      </c>
+      <c r="L347">
+        <v>0.27</v>
+      </c>
+      <c r="M347">
+        <v>0.4</v>
+      </c>
+      <c r="N347">
+        <v>0.45</v>
+      </c>
       <c r="W347">
         <f>Control!B345</f>
         <v>0</v>
@@ -49537,7 +50800,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A348" t="str">
+        <f>Control!A346</f>
+        <v>Charles Oliveira</v>
+      </c>
+      <c r="B348">
+        <v>35</v>
+      </c>
+      <c r="C348">
+        <v>178</v>
+      </c>
+      <c r="D348">
+        <v>188</v>
+      </c>
+      <c r="E348">
+        <v>35</v>
+      </c>
+      <c r="F348">
+        <v>10</v>
+      </c>
+      <c r="G348">
+        <v>23</v>
+      </c>
+      <c r="H348">
+        <v>10</v>
+      </c>
+      <c r="I348">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J348">
+        <v>0.4</v>
+      </c>
+      <c r="K348">
+        <v>0.6</v>
+      </c>
+      <c r="L348">
+        <v>0.4</v>
+      </c>
+      <c r="M348">
+        <v>0.11</v>
+      </c>
+      <c r="N348">
+        <v>0.2</v>
+      </c>
       <c r="W348">
         <f>Control!B346</f>
         <v>0</v>
@@ -49559,7 +50865,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A349" t="str">
+        <f>Control!A347</f>
+        <v>Ilia Topuria</v>
+      </c>
+      <c r="B349">
+        <v>28</v>
+      </c>
+      <c r="C349">
+        <v>170</v>
+      </c>
+      <c r="D349">
+        <v>175</v>
+      </c>
+      <c r="E349">
+        <v>16</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>8</v>
+      </c>
+      <c r="H349">
+        <v>0</v>
+      </c>
+      <c r="I349">
+        <v>0.38</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0.5</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+      <c r="M349">
+        <v>0.13</v>
+      </c>
+      <c r="N349">
+        <v>0</v>
+      </c>
       <c r="W349">
         <f>Control!B347</f>
         <v>0</v>
@@ -49581,7 +50930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.3">
       <c r="W350">
         <f>Control!B348</f>
         <v>0</v>
@@ -49603,7 +50952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.3">
       <c r="W351">
         <f>Control!B349</f>
         <v>0</v>
@@ -49625,7 +50974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.3">
       <c r="W352">
         <f>Control!B350</f>
         <v>0</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC16DE5C-FA26-4EB1-B999-4B30F15F7823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F767882-2B35-4F83-8500-D4B77185C0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -2234,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
   <dimension ref="A1:AE347"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A347" sqref="A347"/>
+    <sheetView topLeftCell="A175" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I204" sqref="I204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2747,12 +2747,15 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
-        <v>72.5</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>137</v>
       </c>
       <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
         <v>8</v>
       </c>
     </row>
@@ -2935,14 +2938,14 @@
         <v>288</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="1"/>
-        <v>116.09090909090909</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>85</v>
+        <f xml:space="preserve"> AVERAGE(C22:BC22)</f>
+        <v>132.1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>17</v>
+      </c>
+      <c r="D22" s="10">
+        <v>129</v>
       </c>
       <c r="E22">
         <v>200</v>
@@ -2969,9 +2972,6 @@
         <f>8*60+20</f>
         <v>500</v>
       </c>
-      <c r="M22" s="10">
-        <v>17</v>
-      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
-        <v>147.75</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="C64">
         <f>4*60+48</f>
@@ -4463,6 +4463,9 @@
       <c r="F64">
         <v>163</v>
       </c>
+      <c r="G64">
+        <v>163</v>
+      </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
@@ -4996,7 +4999,7 @@
       </c>
       <c r="B81" s="1">
         <f t="shared" si="2"/>
-        <v>35.714285714285715</v>
+        <v>38.875</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5018,6 +5021,9 @@
       </c>
       <c r="I81">
         <v>50</v>
+      </c>
+      <c r="J81">
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.3">
@@ -8889,7 +8895,7 @@
       </c>
       <c r="B203" s="1">
         <f t="shared" si="4"/>
-        <v>156.5</v>
+        <v>134.14285714285714</v>
       </c>
       <c r="C203">
         <v>8</v>
@@ -8908,6 +8914,9 @@
       </c>
       <c r="H203">
         <v>6</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.3">
@@ -12312,7 +12321,7 @@
         <v>558</v>
       </c>
       <c r="B319" s="1">
-        <f t="shared" ref="B319:B328" si="6" xml:space="preserve"> AVERAGE(C319:BC319)</f>
+        <f t="shared" ref="B319:B347" si="6" xml:space="preserve"> AVERAGE(C319:BC319)</f>
         <v>85.5</v>
       </c>
       <c r="C319">
@@ -12549,95 +12558,588 @@
       <c r="A329" s="4" t="s">
         <v>574</v>
       </c>
+      <c r="B329" s="1">
+        <f t="shared" si="6"/>
+        <v>94.5</v>
+      </c>
+      <c r="C329">
+        <v>54</v>
+      </c>
+      <c r="D329">
+        <v>47</v>
+      </c>
+      <c r="E329">
+        <v>109</v>
+      </c>
+      <c r="F329">
+        <v>47</v>
+      </c>
+      <c r="G329">
+        <v>132</v>
+      </c>
+      <c r="H329">
+        <v>190</v>
+      </c>
+      <c r="I329">
+        <v>89</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>217</v>
+      </c>
+      <c r="L329">
+        <v>60</v>
+      </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>575</v>
       </c>
+      <c r="B330" s="1">
+        <f t="shared" si="6"/>
+        <v>188</v>
+      </c>
+      <c r="C330">
+        <v>363</v>
+      </c>
+      <c r="D330">
+        <v>13</v>
+      </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>576</v>
       </c>
+      <c r="B331" s="1">
+        <f t="shared" si="6"/>
+        <v>17.5</v>
+      </c>
+      <c r="C331">
+        <v>2</v>
+      </c>
+      <c r="D331">
+        <v>32</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>36</v>
+      </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>577</v>
       </c>
+      <c r="B332" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C332" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>578</v>
       </c>
+      <c r="B333" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C333" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>579</v>
       </c>
+      <c r="B334" s="1">
+        <f t="shared" si="6"/>
+        <v>73.8</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>123</v>
+      </c>
+      <c r="E334">
+        <v>93</v>
+      </c>
+      <c r="F334">
+        <v>52</v>
+      </c>
+      <c r="G334">
+        <v>136</v>
+      </c>
+      <c r="H334">
+        <v>256</v>
+      </c>
+      <c r="I334">
+        <v>3</v>
+      </c>
+      <c r="J334">
+        <v>15</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+      <c r="L334">
+        <v>60</v>
+      </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>580</v>
       </c>
+      <c r="B335" s="1">
+        <f t="shared" si="6"/>
+        <v>32.555555555555557</v>
+      </c>
+      <c r="C335">
+        <v>2</v>
+      </c>
+      <c r="D335">
+        <v>28</v>
+      </c>
+      <c r="E335">
+        <v>35</v>
+      </c>
+      <c r="F335">
+        <v>14</v>
+      </c>
+      <c r="G335">
+        <v>9</v>
+      </c>
+      <c r="H335">
+        <v>10</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335">
+        <v>3</v>
+      </c>
+      <c r="K335">
+        <v>191</v>
+      </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B336" s="1">
+        <f t="shared" si="6"/>
+        <v>226.3</v>
+      </c>
+      <c r="C336">
+        <v>103</v>
+      </c>
+      <c r="D336">
+        <v>12</v>
+      </c>
+      <c r="E336">
+        <v>186</v>
+      </c>
+      <c r="F336">
+        <v>184</v>
+      </c>
+      <c r="G336">
+        <v>640</v>
+      </c>
+      <c r="H336">
+        <v>209</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>423</v>
+      </c>
+      <c r="K336">
+        <v>361</v>
+      </c>
+      <c r="L336">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B337" s="1">
+        <f t="shared" si="6"/>
+        <v>338.16666666666669</v>
+      </c>
+      <c r="C337">
+        <v>527</v>
+      </c>
+      <c r="D337">
+        <v>558</v>
+      </c>
+      <c r="E337">
+        <v>386</v>
+      </c>
+      <c r="F337">
+        <v>474</v>
+      </c>
+      <c r="G337">
+        <v>26</v>
+      </c>
+      <c r="H337">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B338" s="1">
+        <f t="shared" si="6"/>
+        <v>125.7</v>
+      </c>
+      <c r="C338">
+        <v>10</v>
+      </c>
+      <c r="D338">
+        <v>412</v>
+      </c>
+      <c r="E338">
+        <v>45</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>28</v>
+      </c>
+      <c r="H338">
+        <v>431</v>
+      </c>
+      <c r="I338">
+        <v>31</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>112</v>
+      </c>
+      <c r="L338">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B339" s="1">
+        <f t="shared" si="6"/>
+        <v>64.8</v>
+      </c>
+      <c r="C339">
+        <v>3</v>
+      </c>
+      <c r="D339">
+        <v>205</v>
+      </c>
+      <c r="E339">
+        <v>30</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="G339">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B340" s="1">
+        <f t="shared" si="6"/>
+        <v>120.5</v>
+      </c>
+      <c r="C340">
+        <v>66</v>
+      </c>
+      <c r="D340">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B341" s="1">
+        <f t="shared" si="6"/>
+        <v>298.8</v>
+      </c>
+      <c r="C341">
+        <f>13*60+32</f>
+        <v>812</v>
+      </c>
+      <c r="D341">
+        <v>317</v>
+      </c>
+      <c r="E341">
+        <v>45</v>
+      </c>
+      <c r="F341">
+        <v>261</v>
+      </c>
+      <c r="G341">
+        <v>177</v>
+      </c>
+      <c r="H341">
+        <v>443</v>
+      </c>
+      <c r="I341">
+        <f>12*60+15</f>
+        <v>735</v>
+      </c>
+      <c r="J341">
+        <v>34</v>
+      </c>
+      <c r="K341">
+        <v>164</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B342" s="1">
+        <f t="shared" si="6"/>
+        <v>192.3</v>
+      </c>
+      <c r="C342">
+        <v>25</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>455</v>
+      </c>
+      <c r="F342">
+        <v>103</v>
+      </c>
+      <c r="G342">
+        <v>30</v>
+      </c>
+      <c r="H342">
+        <v>34</v>
+      </c>
+      <c r="I342">
+        <v>633</v>
+      </c>
+      <c r="J342">
+        <v>350</v>
+      </c>
+      <c r="K342">
+        <v>293</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B343" s="1">
+        <f t="shared" si="6"/>
+        <v>63.1</v>
+      </c>
+      <c r="C343">
+        <v>124</v>
+      </c>
+      <c r="D343">
+        <v>151</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>8</v>
+      </c>
+      <c r="G343">
+        <v>103</v>
+      </c>
+      <c r="H343">
+        <v>13</v>
+      </c>
+      <c r="I343">
+        <v>7</v>
+      </c>
+      <c r="J343">
+        <v>47</v>
+      </c>
+      <c r="K343">
+        <v>35</v>
+      </c>
+      <c r="L343">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B344" s="1">
+        <f t="shared" si="6"/>
+        <v>266.39999999999998</v>
+      </c>
+      <c r="C344">
+        <v>74</v>
+      </c>
+      <c r="D344">
+        <v>74</v>
+      </c>
+      <c r="E344">
+        <v>137</v>
+      </c>
+      <c r="F344">
+        <v>24</v>
+      </c>
+      <c r="G344">
+        <v>171</v>
+      </c>
+      <c r="H344">
+        <v>66</v>
+      </c>
+      <c r="I344">
+        <v>506</v>
+      </c>
+      <c r="J344">
+        <v>951</v>
+      </c>
+      <c r="K344">
+        <v>495</v>
+      </c>
+      <c r="L344">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B345" s="1">
+        <f t="shared" si="6"/>
+        <v>21.9</v>
+      </c>
+      <c r="C345">
+        <v>20</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>17</v>
+      </c>
+      <c r="F345">
+        <v>91</v>
+      </c>
+      <c r="G345">
+        <v>1</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>24</v>
+      </c>
+      <c r="K345">
+        <v>58</v>
+      </c>
+      <c r="L345">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B346" s="1">
+        <f t="shared" si="6"/>
+        <v>231.1</v>
+      </c>
+      <c r="C346">
+        <v>2</v>
+      </c>
+      <c r="D346">
+        <v>11</v>
+      </c>
+      <c r="E346">
+        <v>699</v>
+      </c>
+      <c r="F346">
+        <v>102</v>
+      </c>
+      <c r="G346">
+        <v>341</v>
+      </c>
+      <c r="H346">
+        <v>39</v>
+      </c>
+      <c r="I346">
+        <v>42</v>
+      </c>
+      <c r="J346">
+        <v>31</v>
+      </c>
+      <c r="K346">
+        <v>152</v>
+      </c>
+      <c r="L346">
+        <f>14*60+52</f>
+        <v>892</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>593</v>
+      </c>
+      <c r="B347" s="1">
+        <f t="shared" si="6"/>
+        <v>133.375</v>
+      </c>
+      <c r="C347">
+        <v>482</v>
+      </c>
+      <c r="D347">
+        <v>3</v>
+      </c>
+      <c r="E347">
+        <v>80</v>
+      </c>
+      <c r="F347">
+        <v>161</v>
+      </c>
+      <c r="G347">
+        <v>78</v>
+      </c>
+      <c r="H347">
+        <v>215</v>
+      </c>
+      <c r="I347">
+        <v>3</v>
+      </c>
+      <c r="J347">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -12651,7 +13153,7 @@
   <dimension ref="A1:B347"/>
   <sheetViews>
     <sheetView topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="A329" sqref="A329:A347"/>
+      <selection activeCell="B328" sqref="B328:B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12800,7 +13302,7 @@
       </c>
       <c r="B16">
         <f>Control!B16/'Fight Time'!B16</f>
-        <v>0.18831168831168832</v>
+        <v>0.18085106382978725</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -12854,7 +13356,7 @@
       </c>
       <c r="B22">
         <f>Control!B22/'Fight Time'!B22</f>
-        <v>0.2354785174257791</v>
+        <v>0.24830827067669173</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -13232,7 +13734,7 @@
       </c>
       <c r="B64">
         <f>Control!B64/'Fight Time'!B64</f>
-        <v>0.31706008583690987</v>
+        <v>0.26456140350877194</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -13385,7 +13887,7 @@
       </c>
       <c r="B81">
         <f>Control!B81/'Fight Time'!B81</f>
-        <v>4.3929010718678614E-2</v>
+        <v>4.7582619339045285E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -14483,7 +14985,7 @@
       </c>
       <c r="B203">
         <f>Control!B203/'Fight Time'!B203</f>
-        <v>0.27408056042031526</v>
+        <v>0.26199776785714285</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -15615,95 +16117,171 @@
       <c r="A329" s="4" t="s">
         <v>574</v>
       </c>
+      <c r="B329">
+        <f>Control!B329/'Fight Time'!B329</f>
+        <v>0.17897727272727273</v>
+      </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>575</v>
       </c>
+      <c r="B330">
+        <f>Control!B330/'Fight Time'!B330</f>
+        <v>0.68613138686131392</v>
+      </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>576</v>
       </c>
+      <c r="B331">
+        <f>Control!B331/'Fight Time'!B331</f>
+        <v>3.2894736842105261E-2</v>
+      </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>577</v>
       </c>
+      <c r="B332">
+        <f>Control!B332/'Fight Time'!B332</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>578</v>
       </c>
+      <c r="B333">
+        <f>Control!B333/'Fight Time'!B333</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>579</v>
       </c>
+      <c r="B334">
+        <f>Control!B334/'Fight Time'!B334</f>
+        <v>0.41694915254237286</v>
+      </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>580</v>
       </c>
+      <c r="B335">
+        <f>Control!B335/'Fight Time'!B335</f>
+        <v>4.8882215548882217E-2</v>
+      </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B336">
+        <f>Control!B336/'Fight Time'!B336</f>
+        <v>0.24359526372443488</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B337">
+        <f>Control!B337/'Fight Time'!B337</f>
+        <v>0.34296822177146724</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B338">
+        <f>Control!B338/'Fight Time'!B338</f>
+        <v>0.1813852813852814</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B339">
+        <f>Control!B339/'Fight Time'!B339</f>
+        <v>0.11571428571428571</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B340">
+        <f>Control!B340/'Fight Time'!B340</f>
+        <v>0.15291878172588833</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B341">
+        <f>Control!B341/'Fight Time'!B341</f>
+        <v>0.55955056179775287</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B342">
+        <f>Control!B342/'Fight Time'!B342</f>
+        <v>0.35219780219780222</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B343">
+        <f>Control!B343/'Fight Time'!B343</f>
+        <v>8.7517337031900136E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B344">
+        <f>Control!B344/'Fight Time'!B344</f>
+        <v>0.35098814229249009</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B345">
+        <f>Control!B345/'Fight Time'!B345</f>
+        <v>2.963464140730717E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B346">
+        <f>Control!B346/'Fight Time'!B346</f>
+        <v>0.50458515283842797</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>593</v>
+      </c>
+      <c r="B347">
+        <f>Control!B347/'Fight Time'!B347</f>
+        <v>0.21722312703583063</v>
       </c>
     </row>
   </sheetData>
@@ -15715,8 +16293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
   <dimension ref="A1:AE347"/>
   <sheetViews>
-    <sheetView topLeftCell="A325" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A329" sqref="A329:A347"/>
+    <sheetView topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I204" sqref="I204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16217,12 +16795,15 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>30.5</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
+        <v>47</v>
+      </c>
+      <c r="E16">
         <v>47</v>
       </c>
     </row>
@@ -16394,14 +16975,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>40.81818181818182</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>85</v>
+        <f>AVERAGE(C22:BA22)</f>
+        <v>38.1</v>
+      </c>
+      <c r="C22" s="11">
+        <v>129</v>
+      </c>
+      <c r="D22" s="11">
+        <v>17</v>
       </c>
       <c r="E22">
         <v>29</v>
@@ -16426,9 +17007,6 @@
       </c>
       <c r="L22">
         <v>105</v>
-      </c>
-      <c r="M22" s="11">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -17901,7 +18479,7 @@
       </c>
       <c r="B64" s="1">
         <f t="shared" ref="B64:B126" si="1">AVERAGE(C64:BA64)</f>
-        <v>121.5</v>
+        <v>113.6</v>
       </c>
       <c r="C64">
         <v>344</v>
@@ -17913,6 +18491,9 @@
         <v>4</v>
       </c>
       <c r="F64">
+        <v>82</v>
+      </c>
+      <c r="G64">
         <v>82</v>
       </c>
     </row>
@@ -18447,7 +19028,7 @@
       </c>
       <c r="B81" s="1">
         <f t="shared" si="1"/>
-        <v>134.42857142857142</v>
+        <v>118.75</v>
       </c>
       <c r="C81">
         <v>70</v>
@@ -18469,6 +19050,9 @@
       </c>
       <c r="I81">
         <v>229</v>
+      </c>
+      <c r="J81">
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.3">
@@ -22339,7 +22923,7 @@
       </c>
       <c r="B203" s="1">
         <f t="shared" si="3"/>
-        <v>96.5</v>
+        <v>85.285714285714292</v>
       </c>
       <c r="C203">
         <v>16</v>
@@ -22358,6 +22942,9 @@
       </c>
       <c r="H203">
         <v>147</v>
+      </c>
+      <c r="I203">
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.3">
@@ -25629,7 +26216,7 @@
         <v>553</v>
       </c>
       <c r="B314" s="1">
-        <f t="shared" ref="B314:B328" si="5">AVERAGE(C314:BA314)</f>
+        <f t="shared" ref="B314:B347" si="5">AVERAGE(C314:BA314)</f>
         <v>0</v>
       </c>
       <c r="C314">
@@ -25977,95 +26564,588 @@
       <c r="A329" s="4" t="s">
         <v>574</v>
       </c>
+      <c r="B329" s="1">
+        <f t="shared" si="5"/>
+        <v>136.5</v>
+      </c>
+      <c r="C329">
+        <v>217</v>
+      </c>
+      <c r="D329">
+        <v>13</v>
+      </c>
+      <c r="E329">
+        <v>25</v>
+      </c>
+      <c r="F329">
+        <v>50</v>
+      </c>
+      <c r="G329">
+        <v>167</v>
+      </c>
+      <c r="H329">
+        <v>194</v>
+      </c>
+      <c r="I329">
+        <v>89</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>56</v>
+      </c>
+      <c r="L329">
+        <f>9*60+14</f>
+        <v>554</v>
+      </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>575</v>
       </c>
+      <c r="B330" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>576</v>
       </c>
+      <c r="B331" s="1">
+        <f t="shared" si="5"/>
+        <v>216</v>
+      </c>
+      <c r="C331">
+        <v>2</v>
+      </c>
+      <c r="D331">
+        <v>269</v>
+      </c>
+      <c r="E331">
+        <v>159</v>
+      </c>
+      <c r="F331">
+        <v>434</v>
+      </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>577</v>
       </c>
+      <c r="B332" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C332" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>578</v>
       </c>
+      <c r="B333" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C333" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>579</v>
       </c>
+      <c r="B334" s="1">
+        <f t="shared" si="5"/>
+        <v>14.2</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>4</v>
+      </c>
+      <c r="E334">
+        <v>24</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>48</v>
+      </c>
+      <c r="H334">
+        <v>55</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>3</v>
+      </c>
+      <c r="L334">
+        <v>8</v>
+      </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>580</v>
       </c>
+      <c r="B335" s="1">
+        <f t="shared" si="5"/>
+        <v>232.88888888888889</v>
+      </c>
+      <c r="C335">
+        <v>79</v>
+      </c>
+      <c r="D335">
+        <v>90</v>
+      </c>
+      <c r="E335">
+        <v>744</v>
+      </c>
+      <c r="F335">
+        <v>482</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>212</v>
+      </c>
+      <c r="I335">
+        <v>363</v>
+      </c>
+      <c r="J335">
+        <v>5</v>
+      </c>
+      <c r="K335">
+        <v>121</v>
+      </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B336" s="1">
+        <f t="shared" si="5"/>
+        <v>93.2</v>
+      </c>
+      <c r="C336">
+        <v>13</v>
+      </c>
+      <c r="D336">
+        <v>39</v>
+      </c>
+      <c r="E336">
+        <v>36</v>
+      </c>
+      <c r="F336">
+        <v>1</v>
+      </c>
+      <c r="G336">
+        <v>48</v>
+      </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>500</v>
+      </c>
+      <c r="J336">
+        <v>85</v>
+      </c>
+      <c r="K336">
+        <v>0</v>
+      </c>
+      <c r="L336">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B337" s="1">
+        <f t="shared" si="5"/>
+        <v>156.66666666666666</v>
+      </c>
+      <c r="C337">
+        <v>2</v>
+      </c>
+      <c r="D337">
+        <v>127</v>
+      </c>
+      <c r="E337">
+        <v>38</v>
+      </c>
+      <c r="F337">
+        <v>197</v>
+      </c>
+      <c r="G337">
+        <v>180</v>
+      </c>
+      <c r="H337">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B338" s="1">
+        <f t="shared" si="5"/>
+        <v>64.599999999999994</v>
+      </c>
+      <c r="C338">
+        <v>24</v>
+      </c>
+      <c r="D338">
+        <v>29</v>
+      </c>
+      <c r="E338">
+        <v>22</v>
+      </c>
+      <c r="F338">
+        <v>33</v>
+      </c>
+      <c r="G338">
+        <v>347</v>
+      </c>
+      <c r="H338">
+        <v>111</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>30</v>
+      </c>
+      <c r="L338">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B339" s="1">
+        <f t="shared" si="5"/>
+        <v>220.4</v>
+      </c>
+      <c r="C339">
+        <v>173</v>
+      </c>
+      <c r="D339">
+        <v>346</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <f>9*60+43</f>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B340" s="1">
+        <f t="shared" si="5"/>
+        <v>125.5</v>
+      </c>
+      <c r="C340">
+        <v>156</v>
+      </c>
+      <c r="D340">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B341" s="1">
+        <f t="shared" si="5"/>
+        <v>30.9</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>61</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>24</v>
+      </c>
+      <c r="H341">
+        <v>58</v>
+      </c>
+      <c r="I341">
+        <v>5</v>
+      </c>
+      <c r="J341">
+        <v>127</v>
+      </c>
+      <c r="K341">
+        <v>31</v>
+      </c>
+      <c r="L341">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B342" s="1">
+        <f t="shared" si="5"/>
+        <v>94.9</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>4</v>
+      </c>
+      <c r="E342">
+        <v>8</v>
+      </c>
+      <c r="F342">
+        <v>5</v>
+      </c>
+      <c r="G342">
+        <f>13*60+22</f>
+        <v>802</v>
+      </c>
+      <c r="H342">
+        <v>14</v>
+      </c>
+      <c r="I342">
+        <v>22</v>
+      </c>
+      <c r="J342">
+        <v>2</v>
+      </c>
+      <c r="K342">
+        <v>5</v>
+      </c>
+      <c r="L342">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B343" s="1">
+        <f t="shared" si="5"/>
+        <v>305.7</v>
+      </c>
+      <c r="C343">
+        <v>241</v>
+      </c>
+      <c r="D343">
+        <v>91</v>
+      </c>
+      <c r="E343">
+        <v>181</v>
+      </c>
+      <c r="F343">
+        <v>171</v>
+      </c>
+      <c r="G343">
+        <v>461</v>
+      </c>
+      <c r="H343">
+        <v>54</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>951</v>
+      </c>
+      <c r="K343">
+        <v>174</v>
+      </c>
+      <c r="L343">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B344" s="1">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="C344">
+        <v>112</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>311</v>
+      </c>
+      <c r="F344">
+        <v>25</v>
+      </c>
+      <c r="G344">
+        <v>8</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344">
+        <v>241</v>
+      </c>
+      <c r="J344">
+        <v>47</v>
+      </c>
+      <c r="K344">
+        <v>32</v>
+      </c>
+      <c r="L344">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B345" s="1">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="C345">
+        <v>72</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>53</v>
+      </c>
+      <c r="F345">
+        <v>91</v>
+      </c>
+      <c r="G345">
+        <v>195</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+      <c r="I345">
+        <v>314</v>
+      </c>
+      <c r="J345">
+        <v>45</v>
+      </c>
+      <c r="K345">
+        <v>370</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B346" s="1">
+        <f t="shared" si="5"/>
+        <v>170.4</v>
+      </c>
+      <c r="C346">
+        <v>5</v>
+      </c>
+      <c r="D346">
+        <v>390</v>
+      </c>
+      <c r="E346">
+        <v>5</v>
+      </c>
+      <c r="F346">
+        <v>147</v>
+      </c>
+      <c r="G346">
+        <v>35</v>
+      </c>
+      <c r="H346">
+        <v>13</v>
+      </c>
+      <c r="I346">
+        <v>305</v>
+      </c>
+      <c r="J346">
+        <v>164</v>
+      </c>
+      <c r="K346">
+        <v>521</v>
+      </c>
+      <c r="L346">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>593</v>
+      </c>
+      <c r="B347" s="1">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="C347">
+        <v>171</v>
+      </c>
+      <c r="D347">
+        <v>13</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>7</v>
+      </c>
+      <c r="G347">
+        <v>89</v>
+      </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26078,7 +27158,7 @@
   <dimension ref="A1:B347"/>
   <sheetViews>
     <sheetView topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="A329" sqref="A329:A347"/>
+      <selection activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26227,7 +27307,7 @@
       </c>
       <c r="B16">
         <f>Controlled!B16/'Fight Time'!B16</f>
-        <v>7.9220779220779219E-2</v>
+        <v>0.1276595744680851</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -26281,7 +27361,7 @@
       </c>
       <c r="B22">
         <f>Controlled!B22/'Fight Time'!B22</f>
-        <v>8.2795500645399228E-2</v>
+        <v>7.1616541353383467E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -26659,7 +27739,7 @@
       </c>
       <c r="B64">
         <f>Controlled!B64/'Fight Time'!B64</f>
-        <v>0.26072961373390557</v>
+        <v>0.19929824561403509</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -26812,7 +27892,7 @@
       </c>
       <c r="B81">
         <f>Controlled!B81/'Fight Time'!B81</f>
-        <v>0.1653487963451063</v>
+        <v>0.14534883720930233</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -27910,7 +28990,7 @@
       </c>
       <c r="B203">
         <f>Controlled!B203/'Fight Time'!B203</f>
-        <v>0.1690017513134851</v>
+        <v>0.16657366071428573</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -29042,95 +30122,171 @@
       <c r="A329" s="4" t="s">
         <v>574</v>
       </c>
+      <c r="B329">
+        <f>Controlled!B329/'Fight Time'!B329</f>
+        <v>0.25852272727272729</v>
+      </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>575</v>
       </c>
+      <c r="B330">
+        <f>Controlled!B330/'Fight Time'!B330</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>576</v>
       </c>
+      <c r="B331">
+        <f>Controlled!B331/'Fight Time'!B331</f>
+        <v>0.40601503759398494</v>
+      </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>577</v>
       </c>
+      <c r="B332">
+        <f>Controlled!B332/'Fight Time'!B332</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>578</v>
       </c>
+      <c r="B333">
+        <f>Controlled!B333/'Fight Time'!B333</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>579</v>
       </c>
+      <c r="B334">
+        <f>Controlled!B334/'Fight Time'!B334</f>
+        <v>8.0225988700564965E-2</v>
+      </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>580</v>
       </c>
+      <c r="B335">
+        <f>Controlled!B335/'Fight Time'!B335</f>
+        <v>0.34968301634968302</v>
+      </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B336">
+        <f>Controlled!B336/'Fight Time'!B336</f>
+        <v>0.10032292787944026</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B337">
+        <f>Controlled!B337/'Fight Time'!B337</f>
+        <v>0.15889114266396212</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B338">
+        <f>Controlled!B338/'Fight Time'!B338</f>
+        <v>9.3217893217893213E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B339">
+        <f>Controlled!B339/'Fight Time'!B339</f>
+        <v>0.39357142857142857</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B340">
+        <f>Controlled!B340/'Fight Time'!B340</f>
+        <v>0.15926395939086294</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B341">
+        <f>Controlled!B341/'Fight Time'!B341</f>
+        <v>5.7865168539325842E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B342">
+        <f>Controlled!B342/'Fight Time'!B342</f>
+        <v>0.17380952380952383</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B343">
+        <f>Controlled!B343/'Fight Time'!B343</f>
+        <v>0.42399445214979192</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B344">
+        <f>Controlled!B344/'Fight Time'!B344</f>
+        <v>0.10540184453227931</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B345">
+        <f>Controlled!B345/'Fight Time'!B345</f>
+        <v>0.15426251691474965</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B346">
+        <f>Controlled!B346/'Fight Time'!B346</f>
+        <v>0.37205240174672488</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>593</v>
+      </c>
+      <c r="B347">
+        <f>Controlled!B347/'Fight Time'!B347</f>
+        <v>5.7003257328990226E-2</v>
       </c>
     </row>
   </sheetData>
@@ -29142,8 +30298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
   <dimension ref="A1:O347"/>
   <sheetViews>
-    <sheetView topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="B342" sqref="B342"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29290,8 +30446,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f>6*60+25</f>
-        <v>385</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -29343,8 +30498,8 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>8*60+13</f>
-        <v>493</v>
+        <f>480+52</f>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -29702,8 +30857,8 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <f>7*60+46</f>
-        <v>466</v>
+        <f>9*60+30</f>
+        <v>570</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -29849,8 +31004,8 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <f>13*60+33</f>
-        <v>813</v>
+        <f>13*60+37</f>
+        <v>817</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -30882,7 +32037,8 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>571</v>
+        <f>480+32</f>
+        <v>512</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -32177,95 +33333,162 @@
       <c r="A329" s="4" t="s">
         <v>574</v>
       </c>
+      <c r="B329">
+        <f>480+48</f>
+        <v>528</v>
+      </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>575</v>
       </c>
+      <c r="B330">
+        <v>274</v>
+      </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>576</v>
       </c>
+      <c r="B331">
+        <f>480+52</f>
+        <v>532</v>
+      </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>577</v>
       </c>
+      <c r="B332">
+        <v>600</v>
+      </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>578</v>
       </c>
+      <c r="B333">
+        <v>600</v>
+      </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>579</v>
       </c>
+      <c r="B334">
+        <v>177</v>
+      </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>580</v>
       </c>
+      <c r="B335">
+        <v>666</v>
+      </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B336">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B337">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B338">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B339">
+        <f>9*60+20</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B340">
+        <f>13*60+8</f>
+        <v>788</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B341">
+        <f>480+54</f>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B342">
+        <f>9*60+6</f>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B343">
+        <f>12*60+1</f>
+        <v>721</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B344">
+        <f>12*60+39</f>
+        <v>759</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B345">
+        <f>12*60+19</f>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B346">
+        <f>7*60+38</f>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>593</v>
+      </c>
+      <c r="B347">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -32277,10 +33500,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A325" sqref="A325"/>
+      <selection pane="topRight" activeCell="AB206" sqref="AB206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33142,6 +34365,15 @@
         <f>Control!A16</f>
         <v>Jose Delgado</v>
       </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>180</v>
+      </c>
+      <c r="D18">
+        <v>185</v>
+      </c>
       <c r="E18">
         <v>9</v>
       </c>
@@ -33154,25 +34386,61 @@
       <c r="H18">
         <v>0</v>
       </c>
+      <c r="I18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.44</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="P18" s="8">
+        <v>3.52</v>
+      </c>
+      <c r="T18">
+        <v>4.8</v>
+      </c>
+      <c r="U18">
+        <v>0.75</v>
+      </c>
+      <c r="V18">
+        <v>0.66</v>
+      </c>
       <c r="W18">
         <f>Control!B16</f>
-        <v>72.5</v>
+        <v>51</v>
       </c>
       <c r="X18">
         <f>'Ctrl pct'!B16</f>
-        <v>0.18831168831168832</v>
+        <v>0.18085106382978725</v>
       </c>
       <c r="Y18">
         <f>Controlled!B16</f>
-        <v>30.5</v>
+        <v>36</v>
       </c>
       <c r="Z18">
         <f>'Controlled pct'!B16</f>
-        <v>7.9220779220779219E-2</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="AA18">
         <f>'Fight Time'!B16</f>
-        <v>385</v>
+        <v>282</v>
+      </c>
+      <c r="AB18">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
@@ -33424,6 +34692,15 @@
         <f>Control!A22</f>
         <v>Gregory Rodriguez</v>
       </c>
+      <c r="B24">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>191</v>
+      </c>
+      <c r="D24">
+        <v>191</v>
+      </c>
       <c r="E24">
         <v>16</v>
       </c>
@@ -33436,25 +34713,61 @@
       <c r="H24">
         <v>3</v>
       </c>
+      <c r="I24">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J24">
+        <v>0.67</v>
+      </c>
+      <c r="K24">
+        <v>0.25</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0.19</v>
+      </c>
+      <c r="N24">
+        <v>0.33</v>
+      </c>
+      <c r="O24" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="P24" s="8">
+        <v>4.95</v>
+      </c>
+      <c r="T24">
+        <v>2.31</v>
+      </c>
+      <c r="U24">
+        <v>0.38</v>
+      </c>
+      <c r="V24">
+        <v>0.88</v>
+      </c>
       <c r="W24">
         <f>Control!B22</f>
-        <v>116.09090909090909</v>
+        <v>132.1</v>
       </c>
       <c r="X24">
         <f>'Ctrl pct'!B22</f>
-        <v>0.2354785174257791</v>
+        <v>0.24830827067669173</v>
       </c>
       <c r="Y24">
         <f>Controlled!B22</f>
-        <v>40.81818181818182</v>
+        <v>38.1</v>
       </c>
       <c r="Z24">
         <f>'Controlled pct'!B22</f>
-        <v>8.2795500645399228E-2</v>
+        <v>7.1616541353383467E-2</v>
       </c>
       <c r="AA24">
         <f>'Fight Time'!B22</f>
-        <v>493</v>
+        <v>532</v>
+      </c>
+      <c r="AB24">
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
@@ -35127,6 +36440,15 @@
         <f>Control!A64</f>
         <v>Hyder Amil</v>
       </c>
+      <c r="B66">
+        <v>35</v>
+      </c>
+      <c r="C66">
+        <v>175</v>
+      </c>
+      <c r="D66">
+        <v>178</v>
+      </c>
       <c r="E66">
         <v>11</v>
       </c>
@@ -35139,25 +36461,61 @@
       <c r="H66">
         <v>0</v>
       </c>
+      <c r="I66">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0.09</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0.36</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" s="8">
+        <v>6.84</v>
+      </c>
+      <c r="P66" s="8">
+        <v>4</v>
+      </c>
+      <c r="T66">
+        <v>0.78</v>
+      </c>
+      <c r="U66">
+        <v>0.22</v>
+      </c>
+      <c r="V66">
+        <v>0.08</v>
+      </c>
       <c r="W66">
         <f>Control!B64</f>
-        <v>147.75</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="X66">
         <f>'Ctrl pct'!B64</f>
-        <v>0.31706008583690987</v>
+        <v>0.26456140350877194</v>
       </c>
       <c r="Y66">
         <f>Controlled!B64</f>
-        <v>121.5</v>
+        <v>113.6</v>
       </c>
       <c r="Z66">
         <f>'Controlled pct'!B64</f>
-        <v>0.26072961373390557</v>
+        <v>0.19929824561403509</v>
       </c>
       <c r="AA66">
         <f>'Fight Time'!B64</f>
-        <v>466</v>
+        <v>570</v>
+      </c>
+      <c r="AB66">
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.3">
@@ -35831,7 +37189,7 @@
         <v>165</v>
       </c>
       <c r="E83">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -35843,60 +37201,60 @@
         <v>1</v>
       </c>
       <c r="I83">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="J83">
         <v>0.5</v>
       </c>
       <c r="K83">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L83">
         <v>0.5</v>
       </c>
       <c r="M83">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83" s="8">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="P83" s="8">
-        <v>5.24</v>
+        <v>5.3</v>
       </c>
       <c r="T83">
-        <v>1.1100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="U83">
         <v>0.63</v>
       </c>
       <c r="V83">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="W83">
         <f>Control!B81</f>
-        <v>35.714285714285715</v>
+        <v>38.875</v>
       </c>
       <c r="X83">
         <f>'Ctrl pct'!B81</f>
-        <v>4.3929010718678614E-2</v>
+        <v>4.7582619339045285E-2</v>
       </c>
       <c r="Y83">
         <f>Controlled!B81</f>
-        <v>134.42857142857142</v>
+        <v>118.75</v>
       </c>
       <c r="Z83">
         <f>'Controlled pct'!B81</f>
-        <v>0.1653487963451063</v>
+        <v>0.14534883720930233</v>
       </c>
       <c r="AA83">
         <f>'Fight Time'!B81</f>
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="AB83">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.3">
@@ -40623,7 +41981,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
         <f>Control!A191</f>
         <v>Cortavious Romious</v>
@@ -40661,7 +42019,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
         <f>Control!A192</f>
         <v>Joanderson Brito</v>
@@ -40699,7 +42057,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
         <f>Control!A193</f>
         <v>Pat Sabatini</v>
@@ -40737,7 +42095,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
         <f>Control!A194</f>
         <v>Lerone Murphy</v>
@@ -40775,7 +42133,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
         <f>Control!A195</f>
         <v>Josh Emmett</v>
@@ -40813,7 +42171,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
         <f>Control!A196</f>
         <v>Halley Cowan</v>
@@ -40851,7 +42209,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
         <f>Control!A197</f>
         <v>Nora Cornolle</v>
@@ -40889,7 +42247,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
         <f>Control!A198</f>
         <v>Tresean Gore</v>
@@ -40927,7 +42285,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
         <f>Control!A199</f>
         <v>Marco Tullio</v>
@@ -40965,7 +42323,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
         <f>Control!A200</f>
         <v>Mitch Raposo</v>
@@ -41003,7 +42361,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
         <f>Control!A201</f>
         <v>Su Mudaerji</v>
@@ -41041,7 +42399,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
         <f>Control!A202</f>
         <v>Michal Oleksiejczuk</v>
@@ -41079,11 +42437,20 @@
         <v>388</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
         <f>Control!A203</f>
         <v>Sedrique Dumas</v>
       </c>
+      <c r="B205">
+        <v>29</v>
+      </c>
+      <c r="C205">
+        <v>188</v>
+      </c>
+      <c r="D205">
+        <v>201</v>
+      </c>
       <c r="E205">
         <v>10</v>
       </c>
@@ -41096,28 +42463,64 @@
       <c r="H205">
         <v>3</v>
       </c>
+      <c r="I205">
+        <v>0.4</v>
+      </c>
+      <c r="J205">
+        <v>0.67</v>
+      </c>
+      <c r="K205">
+        <v>0.2</v>
+      </c>
+      <c r="L205">
+        <v>0.33</v>
+      </c>
+      <c r="M205">
+        <v>0.4</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="P205" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="T205">
+        <v>1.25</v>
+      </c>
+      <c r="U205">
+        <v>0.35</v>
+      </c>
+      <c r="V205">
+        <v>0.4</v>
+      </c>
       <c r="W205">
         <f>Control!B203</f>
-        <v>156.5</v>
+        <v>134.14285714285714</v>
       </c>
       <c r="X205">
         <f>'Ctrl pct'!B203</f>
-        <v>0.27408056042031526</v>
+        <v>0.26199776785714285</v>
       </c>
       <c r="Y205">
         <f>Controlled!B203</f>
-        <v>96.5</v>
+        <v>85.285714285714292</v>
       </c>
       <c r="Z205">
         <f>'Controlled pct'!B203</f>
-        <v>0.1690017513134851</v>
+        <v>0.16657366071428573</v>
       </c>
       <c r="AA205">
         <f>'Fight Time'!B203</f>
-        <v>571</v>
-      </c>
-    </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
         <f>Control!A204</f>
         <v>Julian Erosa</v>
@@ -41155,7 +42558,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f>Control!A205</f>
         <v>Darren Elkins</v>
@@ -41193,7 +42596,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
         <f>Control!A206</f>
         <v>Virna Jandiroba</v>
@@ -49739,25 +51142,43 @@
       <c r="N331">
         <v>0.25</v>
       </c>
+      <c r="O331" s="8">
+        <v>5.21</v>
+      </c>
+      <c r="P331" s="8">
+        <v>5.58</v>
+      </c>
+      <c r="T331">
+        <v>1.04</v>
+      </c>
+      <c r="U331">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V331">
+        <v>0.52</v>
+      </c>
       <c r="W331">
         <f>Control!B329</f>
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="X331">
         <f>'Ctrl pct'!B329</f>
-        <v>0</v>
+        <v>0.17897727272727273</v>
       </c>
       <c r="Y331">
         <f>Controlled!B329</f>
-        <v>0</v>
+        <v>136.5</v>
       </c>
       <c r="Z331">
         <f>'Controlled pct'!B329</f>
-        <v>0</v>
+        <v>0.25852272727272729</v>
       </c>
       <c r="AA331">
         <f>'Fight Time'!B329</f>
-        <v>0</v>
+        <v>528</v>
+      </c>
+      <c r="AB331">
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:28" x14ac:dyDescent="0.3">
@@ -49804,13 +51225,28 @@
       <c r="N332">
         <v>0</v>
       </c>
+      <c r="O332" s="8">
+        <v>6</v>
+      </c>
+      <c r="P332" s="8">
+        <v>5</v>
+      </c>
+      <c r="T332">
+        <v>2</v>
+      </c>
+      <c r="U332">
+        <v>0.87</v>
+      </c>
+      <c r="V332">
+        <v>1</v>
+      </c>
       <c r="W332">
         <f>Control!B330</f>
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="X332">
         <f>'Ctrl pct'!B330</f>
-        <v>0</v>
+        <v>0.68613138686131392</v>
       </c>
       <c r="Y332">
         <f>Controlled!B330</f>
@@ -49822,7 +51258,10 @@
       </c>
       <c r="AA332">
         <f>'Fight Time'!B330</f>
-        <v>0</v>
+        <v>274</v>
+      </c>
+      <c r="AB332">
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:28" x14ac:dyDescent="0.3">
@@ -49869,25 +51308,43 @@
       <c r="N333">
         <v>0</v>
       </c>
+      <c r="O333" s="8">
+        <v>3.36</v>
+      </c>
+      <c r="P333" s="8">
+        <v>2.96</v>
+      </c>
+      <c r="T333">
+        <v>0</v>
+      </c>
+      <c r="U333">
+        <v>0</v>
+      </c>
+      <c r="V333">
+        <v>0.69</v>
+      </c>
       <c r="W333">
         <f>Control!B331</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="X333">
         <f>'Ctrl pct'!B331</f>
-        <v>0</v>
+        <v>3.2894736842105261E-2</v>
       </c>
       <c r="Y333">
         <f>Controlled!B331</f>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="Z333">
         <f>'Controlled pct'!B331</f>
-        <v>0</v>
+        <v>0.40601503759398494</v>
       </c>
       <c r="AA333">
         <f>'Fight Time'!B331</f>
-        <v>0</v>
+        <v>532</v>
+      </c>
+      <c r="AB333">
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:28" x14ac:dyDescent="0.3">
@@ -49934,6 +51391,21 @@
       <c r="N334">
         <v>0</v>
       </c>
+      <c r="O334" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="P334" s="8">
+        <v>3</v>
+      </c>
+      <c r="T334">
+        <v>0</v>
+      </c>
+      <c r="U334">
+        <v>0</v>
+      </c>
+      <c r="V334">
+        <v>1</v>
+      </c>
       <c r="W334">
         <f>Control!B332</f>
         <v>0</v>
@@ -49952,7 +51424,10 @@
       </c>
       <c r="AA334">
         <f>'Fight Time'!B332</f>
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="AB334">
+        <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:28" x14ac:dyDescent="0.3">
@@ -49999,6 +51474,21 @@
       <c r="N335">
         <v>0</v>
       </c>
+      <c r="O335" s="8">
+        <v>4</v>
+      </c>
+      <c r="P335" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="T335">
+        <v>1</v>
+      </c>
+      <c r="U335">
+        <v>0</v>
+      </c>
+      <c r="V335">
+        <v>1</v>
+      </c>
       <c r="W335">
         <f>Control!B333</f>
         <v>0</v>
@@ -50017,7 +51507,10 @@
       </c>
       <c r="AA335">
         <f>'Fight Time'!B333</f>
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="AB335">
+        <v>6</v>
       </c>
     </row>
     <row r="336" spans="1:28" x14ac:dyDescent="0.3">
@@ -50064,28 +51557,46 @@
       <c r="N336">
         <v>0</v>
       </c>
+      <c r="O336" s="8">
+        <v>5.91</v>
+      </c>
+      <c r="P336" s="8">
+        <v>2.59</v>
+      </c>
+      <c r="T336">
+        <v>3.23</v>
+      </c>
+      <c r="U336">
+        <v>0.36</v>
+      </c>
+      <c r="V336">
+        <v>0.77</v>
+      </c>
       <c r="W336">
         <f>Control!B334</f>
-        <v>0</v>
+        <v>73.8</v>
       </c>
       <c r="X336">
         <f>'Ctrl pct'!B334</f>
-        <v>0</v>
+        <v>0.41694915254237286</v>
       </c>
       <c r="Y336">
         <f>Controlled!B334</f>
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="Z336">
         <f>'Controlled pct'!B334</f>
-        <v>0</v>
+        <v>8.0225988700564965E-2</v>
       </c>
       <c r="AA336">
         <f>'Fight Time'!B334</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="AB336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A337" t="str">
         <f>Control!A335</f>
         <v>Viacheslav Borshchev</v>
@@ -50129,28 +51640,46 @@
       <c r="N337">
         <v>0.8</v>
       </c>
+      <c r="O337" s="8">
+        <v>5.25</v>
+      </c>
+      <c r="P337" s="8">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="T337">
+        <v>0</v>
+      </c>
+      <c r="U337">
+        <v>0</v>
+      </c>
+      <c r="V337">
+        <v>0.43</v>
+      </c>
       <c r="W337">
         <f>Control!B335</f>
-        <v>0</v>
+        <v>32.555555555555557</v>
       </c>
       <c r="X337">
         <f>'Ctrl pct'!B335</f>
-        <v>0</v>
+        <v>4.8882215548882217E-2</v>
       </c>
       <c r="Y337">
         <f>Controlled!B335</f>
-        <v>0</v>
+        <v>232.88888888888889</v>
       </c>
       <c r="Z337">
         <f>'Controlled pct'!B335</f>
-        <v>0</v>
+        <v>0.34968301634968302</v>
       </c>
       <c r="AA337">
         <f>'Fight Time'!B335</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+      <c r="AB337">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A338" t="str">
         <f>Control!A336</f>
         <v>Viviane Araujo</v>
@@ -50194,28 +51723,46 @@
       <c r="N338">
         <v>0.83</v>
       </c>
+      <c r="O338" s="8">
+        <v>4.04</v>
+      </c>
+      <c r="P338" s="8">
+        <v>4.87</v>
+      </c>
+      <c r="T338">
+        <v>1.86</v>
+      </c>
+      <c r="U338">
+        <v>0.43</v>
+      </c>
+      <c r="V338">
+        <v>0.8</v>
+      </c>
       <c r="W338">
         <f>Control!B336</f>
-        <v>0</v>
+        <v>226.3</v>
       </c>
       <c r="X338">
         <f>'Ctrl pct'!B336</f>
-        <v>0</v>
+        <v>0.24359526372443488</v>
       </c>
       <c r="Y338">
         <f>Controlled!B336</f>
-        <v>0</v>
+        <v>93.2</v>
       </c>
       <c r="Z338">
         <f>'Controlled pct'!B336</f>
-        <v>0</v>
+        <v>0.10032292787944026</v>
       </c>
       <c r="AA338">
         <f>'Fight Time'!B336</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.3">
+        <v>929</v>
+      </c>
+      <c r="AB338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A339" t="str">
         <f>Control!A337</f>
         <v>Tracy Cortez</v>
@@ -50259,28 +51806,46 @@
       <c r="N339">
         <v>0.5</v>
       </c>
+      <c r="O339" s="8">
+        <v>3.72</v>
+      </c>
+      <c r="P339" s="8">
+        <v>3.02</v>
+      </c>
+      <c r="T339">
+        <v>2.09</v>
+      </c>
+      <c r="U339">
+        <v>0.45</v>
+      </c>
+      <c r="V339">
+        <v>0.62</v>
+      </c>
       <c r="W339">
         <f>Control!B337</f>
-        <v>0</v>
+        <v>338.16666666666669</v>
       </c>
       <c r="X339">
         <f>'Ctrl pct'!B337</f>
-        <v>0</v>
+        <v>0.34296822177146724</v>
       </c>
       <c r="Y339">
         <f>Controlled!B337</f>
-        <v>0</v>
+        <v>156.66666666666666</v>
       </c>
       <c r="Z339">
         <f>'Controlled pct'!B337</f>
-        <v>0</v>
+        <v>0.15889114266396212</v>
       </c>
       <c r="AA339">
         <f>'Fight Time'!B337</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.3">
+        <v>986</v>
+      </c>
+      <c r="AB339">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A340" t="str">
         <f>Control!A338</f>
         <v>Jack Hermansson</v>
@@ -50324,28 +51889,46 @@
       <c r="N340">
         <v>0.38</v>
       </c>
+      <c r="O340" s="8">
+        <v>5.09</v>
+      </c>
+      <c r="P340" s="8">
+        <v>3.69</v>
+      </c>
+      <c r="T340">
+        <v>1.53</v>
+      </c>
+      <c r="U340">
+        <v>0.3</v>
+      </c>
+      <c r="V340">
+        <v>0.8</v>
+      </c>
       <c r="W340">
         <f>Control!B338</f>
-        <v>0</v>
+        <v>125.7</v>
       </c>
       <c r="X340">
         <f>'Ctrl pct'!B338</f>
-        <v>0</v>
+        <v>0.1813852813852814</v>
       </c>
       <c r="Y340">
         <f>Controlled!B338</f>
-        <v>0</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="Z340">
         <f>'Controlled pct'!B338</f>
-        <v>0</v>
+        <v>9.3217893217893213E-2</v>
       </c>
       <c r="AA340">
         <f>'Fight Time'!B338</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+      <c r="AB340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A341" t="str">
         <f>Control!A339</f>
         <v>Payton Talbott</v>
@@ -50389,28 +51972,46 @@
       <c r="N341">
         <v>1</v>
       </c>
+      <c r="O341" s="8">
+        <v>6.73</v>
+      </c>
+      <c r="P341" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="T341">
+        <v>0.32</v>
+      </c>
+      <c r="U341">
+        <v>0.33</v>
+      </c>
+      <c r="V341">
+        <v>0.75</v>
+      </c>
       <c r="W341">
         <f>Control!B339</f>
-        <v>0</v>
+        <v>64.8</v>
       </c>
       <c r="X341">
         <f>'Ctrl pct'!B339</f>
-        <v>0</v>
+        <v>0.11571428571428571</v>
       </c>
       <c r="Y341">
         <f>Controlled!B339</f>
-        <v>0</v>
+        <v>220.4</v>
       </c>
       <c r="Z341">
         <f>'Controlled pct'!B339</f>
-        <v>0</v>
+        <v>0.39357142857142857</v>
       </c>
       <c r="AA341">
         <f>'Fight Time'!B339</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+      <c r="AB341">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A342" t="str">
         <f>Control!A340</f>
         <v>Felippe Lima</v>
@@ -50454,28 +52055,46 @@
       <c r="N342">
         <v>0</v>
       </c>
+      <c r="O342" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="P342" s="8">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="T342">
+        <v>1.71</v>
+      </c>
+      <c r="U342">
+        <v>0.42</v>
+      </c>
+      <c r="V342">
+        <v>0.83</v>
+      </c>
       <c r="W342">
         <f>Control!B340</f>
-        <v>0</v>
+        <v>120.5</v>
       </c>
       <c r="X342">
         <f>'Ctrl pct'!B340</f>
-        <v>0</v>
+        <v>0.15291878172588833</v>
       </c>
       <c r="Y342">
         <f>Controlled!B340</f>
-        <v>0</v>
+        <v>125.5</v>
       </c>
       <c r="Z342">
         <f>'Controlled pct'!B340</f>
-        <v>0</v>
+        <v>0.15926395939086294</v>
       </c>
       <c r="AA342">
         <f>'Fight Time'!B340</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.3">
+        <v>788</v>
+      </c>
+      <c r="AB342">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A343" t="str">
         <f>Control!A341</f>
         <v>Beneil Dariush</v>
@@ -50519,28 +52138,46 @@
       <c r="N343">
         <v>0</v>
       </c>
+      <c r="O343" s="8">
+        <v>3.78</v>
+      </c>
+      <c r="P343" s="8">
+        <v>2.65</v>
+      </c>
+      <c r="T343">
+        <v>1.9</v>
+      </c>
+      <c r="U343">
+        <v>0.34</v>
+      </c>
+      <c r="V343">
+        <v>0.8</v>
+      </c>
       <c r="W343">
         <f>Control!B341</f>
-        <v>0</v>
+        <v>298.8</v>
       </c>
       <c r="X343">
         <f>'Ctrl pct'!B341</f>
-        <v>0</v>
+        <v>0.55955056179775287</v>
       </c>
       <c r="Y343">
         <f>Controlled!B341</f>
-        <v>0</v>
+        <v>30.9</v>
       </c>
       <c r="Z343">
         <f>'Controlled pct'!B341</f>
-        <v>0</v>
+        <v>5.7865168539325842E-2</v>
       </c>
       <c r="AA343">
         <f>'Fight Time'!B341</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+      <c r="AB343">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A344" t="str">
         <f>Control!A342</f>
         <v>Renato Moicano</v>
@@ -50584,28 +52221,46 @@
       <c r="N344">
         <v>0.17</v>
       </c>
+      <c r="O344" s="8">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="P344" s="8">
+        <v>3.55</v>
+      </c>
+      <c r="T344">
+        <v>1.82</v>
+      </c>
+      <c r="U344">
+        <v>0.44</v>
+      </c>
+      <c r="V344">
+        <v>0.71</v>
+      </c>
       <c r="W344">
         <f>Control!B342</f>
-        <v>0</v>
+        <v>192.3</v>
       </c>
       <c r="X344">
         <f>'Ctrl pct'!B342</f>
-        <v>0</v>
+        <v>0.35219780219780222</v>
       </c>
       <c r="Y344">
         <f>Controlled!B342</f>
-        <v>0</v>
+        <v>94.9</v>
       </c>
       <c r="Z344">
         <f>'Controlled pct'!B342</f>
-        <v>0</v>
+        <v>0.17380952380952383</v>
       </c>
       <c r="AA344">
         <f>'Fight Time'!B342</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+      <c r="AB344">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A345" t="str">
         <f>Control!A343</f>
         <v>Brandon Royval</v>
@@ -50649,28 +52304,46 @@
       <c r="N345">
         <v>0.71</v>
       </c>
+      <c r="O345" s="8">
+        <v>4.46</v>
+      </c>
+      <c r="P345" s="8">
+        <v>3.06</v>
+      </c>
+      <c r="T345">
+        <v>0.75</v>
+      </c>
+      <c r="U345">
+        <v>0.75</v>
+      </c>
+      <c r="V345">
+        <v>0.45</v>
+      </c>
       <c r="W345">
         <f>Control!B343</f>
-        <v>0</v>
+        <v>63.1</v>
       </c>
       <c r="X345">
         <f>'Ctrl pct'!B343</f>
-        <v>0</v>
+        <v>8.7517337031900136E-2</v>
       </c>
       <c r="Y345">
         <f>Controlled!B343</f>
-        <v>0</v>
+        <v>305.7</v>
       </c>
       <c r="Z345">
         <f>'Controlled pct'!B343</f>
-        <v>0</v>
+        <v>0.42399445214979192</v>
       </c>
       <c r="AA345">
         <f>'Fight Time'!B343</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+      <c r="AB345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A346" t="str">
         <f>Control!A344</f>
         <v>Alexandre Pantoja</v>
@@ -50714,28 +52387,46 @@
       <c r="N346">
         <v>1</v>
       </c>
+      <c r="O346" s="8">
+        <v>4.41</v>
+      </c>
+      <c r="P346" s="8">
+        <v>3.92</v>
+      </c>
+      <c r="T346">
+        <v>2.74</v>
+      </c>
+      <c r="U346">
+        <v>0.47</v>
+      </c>
+      <c r="V346">
+        <v>0.68</v>
+      </c>
       <c r="W346">
         <f>Control!B344</f>
-        <v>0</v>
+        <v>266.39999999999998</v>
       </c>
       <c r="X346">
         <f>'Ctrl pct'!B344</f>
-        <v>0</v>
+        <v>0.35098814229249009</v>
       </c>
       <c r="Y346">
         <f>Controlled!B344</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Z346">
         <f>'Controlled pct'!B344</f>
-        <v>0</v>
+        <v>0.10540184453227931</v>
       </c>
       <c r="AA346">
         <f>'Fight Time'!B344</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+      <c r="AB346">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A347" t="str">
         <f>Control!A345</f>
         <v>Kai Kara-France</v>
@@ -50779,28 +52470,46 @@
       <c r="N347">
         <v>0.45</v>
       </c>
+      <c r="O347" s="8">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="P347" s="8">
+        <v>3.22</v>
+      </c>
+      <c r="T347">
+        <v>0.61</v>
+      </c>
+      <c r="U347">
+        <v>0.33</v>
+      </c>
+      <c r="V347">
+        <v>0.88</v>
+      </c>
       <c r="W347">
         <f>Control!B345</f>
-        <v>0</v>
+        <v>21.9</v>
       </c>
       <c r="X347">
         <f>'Ctrl pct'!B345</f>
-        <v>0</v>
+        <v>2.963464140730717E-2</v>
       </c>
       <c r="Y347">
         <f>Controlled!B345</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="Z347">
         <f>'Controlled pct'!B345</f>
-        <v>0</v>
+        <v>0.15426251691474965</v>
       </c>
       <c r="AA347">
         <f>'Fight Time'!B345</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+      <c r="AB347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A348" t="str">
         <f>Control!A346</f>
         <v>Charles Oliveira</v>
@@ -50844,28 +52553,46 @@
       <c r="N348">
         <v>0.2</v>
       </c>
+      <c r="O348" s="8">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="P348" s="8">
+        <v>3.84</v>
+      </c>
+      <c r="T348">
+        <v>2.02</v>
+      </c>
+      <c r="U348">
+        <v>0.61</v>
+      </c>
+      <c r="V348">
+        <v>0.92</v>
+      </c>
       <c r="W348">
         <f>Control!B346</f>
-        <v>0</v>
+        <v>231.1</v>
       </c>
       <c r="X348">
         <f>'Ctrl pct'!B346</f>
-        <v>0</v>
+        <v>0.50458515283842797</v>
       </c>
       <c r="Y348">
         <f>Controlled!B346</f>
-        <v>0</v>
+        <v>170.4</v>
       </c>
       <c r="Z348">
         <f>'Controlled pct'!B346</f>
-        <v>0</v>
+        <v>0.37205240174672488</v>
       </c>
       <c r="AA348">
         <f>'Fight Time'!B346</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="AB348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A349" t="str">
         <f>Control!A347</f>
         <v>Ilia Topuria</v>
@@ -50909,28 +52636,46 @@
       <c r="N349">
         <v>0</v>
       </c>
+      <c r="O349" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="P349" s="8">
+        <v>3.21</v>
+      </c>
+      <c r="T349">
+        <v>2.25</v>
+      </c>
+      <c r="U349">
+        <v>0.4</v>
+      </c>
+      <c r="V349">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="W349">
         <f>Control!B347</f>
-        <v>0</v>
+        <v>133.375</v>
       </c>
       <c r="X349">
         <f>'Ctrl pct'!B347</f>
-        <v>0</v>
+        <v>0.21722312703583063</v>
       </c>
       <c r="Y349">
         <f>Controlled!B347</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Z349">
         <f>'Controlled pct'!B347</f>
-        <v>0</v>
+        <v>5.7003257328990226E-2</v>
       </c>
       <c r="AA349">
         <f>'Fight Time'!B347</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+      <c r="AB349">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="350" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W350">
         <f>Control!B348</f>
         <v>0</v>
@@ -50952,7 +52697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W351">
         <f>Control!B349</f>
         <v>0</v>
@@ -50974,7 +52719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W352">
         <f>Control!B350</f>
         <v>0</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F767882-2B35-4F83-8500-D4B77185C0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9739F3F0-B037-45C6-B3E2-4E49BF1817FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
@@ -33500,10 +33500,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AB206" sqref="AB206"/>
+      <selection pane="topRight" activeCell="AB99" sqref="AB99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38050,10 +38050,10 @@
         <v>1</v>
       </c>
       <c r="O98" s="8">
-        <v>3.75</v>
+        <v>4.84</v>
       </c>
       <c r="P98" s="8">
-        <v>2.61</v>
+        <v>2.99</v>
       </c>
       <c r="Q98">
         <v>0.49</v>
@@ -38094,7 +38094,7 @@
         <v>683</v>
       </c>
       <c r="AB98">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.3">
@@ -46224,10 +46224,10 @@
         <v>0</v>
       </c>
       <c r="O276" s="8">
-        <v>5</v>
+        <v>3.87</v>
       </c>
       <c r="P276" s="8">
-        <v>5</v>
+        <v>7.33</v>
       </c>
       <c r="Q276">
         <v>1</v>
@@ -46239,13 +46239,13 @@
         <v>0</v>
       </c>
       <c r="T276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U276">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="V276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W276">
         <f>Control!B274</f>
@@ -46268,7 +46268,7 @@
         <v>900</v>
       </c>
       <c r="AB276">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:28" x14ac:dyDescent="0.3">

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9739F3F0-B037-45C6-B3E2-4E49BF1817FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EEFA29-09AE-4074-A579-80B786909A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
@@ -33500,10 +33500,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AB99" sqref="AB99"/>
+      <selection pane="topRight" activeCell="AB334" sqref="AB334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34375,13 +34375,13 @@
         <v>185</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -34440,7 +34440,7 @@
         <v>282</v>
       </c>
       <c r="AB18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
@@ -36453,19 +36453,19 @@
         <v>11</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>3</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>0.55000000000000004</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
         <v>0.09</v>
@@ -36492,7 +36492,7 @@
         <v>0.22</v>
       </c>
       <c r="V66">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="W66">
         <f>Control!B64</f>
@@ -36515,7 +36515,7 @@
         <v>570</v>
       </c>
       <c r="AB66">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.3">
@@ -51344,7 +51344,7 @@
         <v>532</v>
       </c>
       <c r="AB333">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:28" x14ac:dyDescent="0.3">
@@ -51365,13 +51365,13 @@
         <v>7</v>
       </c>
       <c r="F334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G334">
         <v>0</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I334">
         <v>0.43</v>
@@ -51389,13 +51389,13 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="N334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O334" s="8">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="P334" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T334">
         <v>0</v>
@@ -51404,7 +51404,7 @@
         <v>0</v>
       </c>
       <c r="V334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W334">
         <f>Control!B332</f>
@@ -51427,7 +51427,7 @@
         <v>600</v>
       </c>
       <c r="AB334">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:28" x14ac:dyDescent="0.3">

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EEFA29-09AE-4074-A579-80B786909A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70DBB4A-DEEB-44C6-BECD-BA022D70E67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="7140" yWindow="24" windowWidth="12600" windowHeight="12000" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -33501,9 +33501,9 @@
   <dimension ref="A1:AB664"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A327" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AB334" sqref="AB334"/>
+      <selection pane="topRight" activeCell="V349" sqref="V349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52554,19 +52554,19 @@
         <v>0.2</v>
       </c>
       <c r="O348" s="8">
-        <v>4.6900000000000004</v>
+        <v>3.41</v>
       </c>
       <c r="P348" s="8">
-        <v>3.84</v>
+        <v>3.26</v>
       </c>
       <c r="T348">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="U348">
-        <v>0.61</v>
+        <v>0.39</v>
       </c>
       <c r="V348">
-        <v>0.92</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W348">
         <f>Control!B346</f>
@@ -52637,19 +52637,19 @@
         <v>0</v>
       </c>
       <c r="O349" s="8">
-        <v>3.4</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="P349" s="8">
-        <v>3.21</v>
+        <v>3.33</v>
       </c>
       <c r="T349">
-        <v>2.25</v>
+        <v>1.96</v>
       </c>
       <c r="U349">
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
       <c r="V349">
-        <v>0.56000000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="W349">
         <f>Control!B347</f>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70DBB4A-DEEB-44C6-BECD-BA022D70E67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD896C0-29E0-400B-921F-50A5CA676D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="24" windowWidth="12600" windowHeight="12000" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="11052" yWindow="0" windowWidth="11460" windowHeight="12360" firstSheet="2" activeTab="4" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="611">
   <si>
     <t>Khaos</t>
   </si>
@@ -1813,6 +1813,57 @@
   <si>
     <t>Ilia Topuria</t>
   </si>
+  <si>
+    <t>Fatima Kline</t>
+  </si>
+  <si>
+    <t>Melissa Martinez</t>
+  </si>
+  <si>
+    <t>Mike Davis</t>
+  </si>
+  <si>
+    <t>Mitch Ramirez</t>
+  </si>
+  <si>
+    <t>Eduarda Moura</t>
+  </si>
+  <si>
+    <t>Lauren Murphy</t>
+  </si>
+  <si>
+    <t>Jake Matthews</t>
+  </si>
+  <si>
+    <t>Chris Curtis</t>
+  </si>
+  <si>
+    <t>Max Griffin</t>
+  </si>
+  <si>
+    <t>Tuco Tokkos</t>
+  </si>
+  <si>
+    <t>Junior Tafa</t>
+  </si>
+  <si>
+    <t>Vitor Petrino</t>
+  </si>
+  <si>
+    <t>Nate Landwehr</t>
+  </si>
+  <si>
+    <t>Steve Garcia</t>
+  </si>
+  <si>
+    <t>Stephen Thompson</t>
+  </si>
+  <si>
+    <t>Tallison Teixeira</t>
+  </si>
+  <si>
+    <t>Derrick Lewis</t>
+  </si>
 </sst>
 </file>
 
@@ -2232,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
-  <dimension ref="A1:AE347"/>
+  <dimension ref="A1:AE364"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I204" sqref="I204"/>
+    <sheetView topLeftCell="A355" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q183" sqref="Q183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2476,7 +2527,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ref="B7:B68" si="1" xml:space="preserve"> AVERAGE(C7:BC7)</f>
-        <v>336.5</v>
+        <v>243.66666666666666</v>
       </c>
       <c r="C7">
         <f>7*60+19</f>
@@ -2486,6 +2537,9 @@
         <f>3*60+54</f>
         <v>234</v>
       </c>
+      <c r="E7">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -6232,7 +6286,7 @@
       </c>
       <c r="B119" s="1">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>127.33333333333333</v>
       </c>
       <c r="C119">
         <f>6*60+49</f>
@@ -6260,6 +6314,9 @@
         <f>9*60+16</f>
         <v>556</v>
       </c>
+      <c r="K119">
+        <v>10</v>
+      </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
@@ -6680,7 +6737,7 @@
       </c>
       <c r="B134" s="1">
         <f t="shared" si="3"/>
-        <v>139.75</v>
+        <v>140.25</v>
       </c>
       <c r="C134">
         <v>3</v>
@@ -6692,7 +6749,7 @@
         <v>132</v>
       </c>
       <c r="F134">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.3">
@@ -12321,7 +12378,7 @@
         <v>558</v>
       </c>
       <c r="B319" s="1">
-        <f t="shared" ref="B319:B347" si="6" xml:space="preserve"> AVERAGE(C319:BC319)</f>
+        <f t="shared" ref="B319:B364" si="6" xml:space="preserve"> AVERAGE(C319:BC319)</f>
         <v>85.5</v>
       </c>
       <c r="C319">
@@ -13140,6 +13197,450 @@
       </c>
       <c r="J347">
         <v>45</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A348" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B348" s="1">
+        <f t="shared" si="6"/>
+        <v>208.5</v>
+      </c>
+      <c r="C348">
+        <v>52</v>
+      </c>
+      <c r="D348">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>595</v>
+      </c>
+      <c r="B349" s="1">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="C349">
+        <v>162</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>596</v>
+      </c>
+      <c r="B350" s="1">
+        <f t="shared" si="6"/>
+        <v>199.66666666666666</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>116</v>
+      </c>
+      <c r="E350">
+        <v>50</v>
+      </c>
+      <c r="F350">
+        <v>482</v>
+      </c>
+      <c r="G350">
+        <v>311</v>
+      </c>
+      <c r="H350">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>597</v>
+      </c>
+      <c r="B351" s="1">
+        <f t="shared" si="6"/>
+        <v>49.5</v>
+      </c>
+      <c r="C351">
+        <v>78</v>
+      </c>
+      <c r="D351">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>598</v>
+      </c>
+      <c r="B352" s="1">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+      <c r="C352">
+        <v>357</v>
+      </c>
+      <c r="D352">
+        <v>396</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>599</v>
+      </c>
+      <c r="B353" s="1">
+        <f t="shared" si="6"/>
+        <v>93.714285714285708</v>
+      </c>
+      <c r="C353">
+        <v>151</v>
+      </c>
+      <c r="D353">
+        <v>53</v>
+      </c>
+      <c r="E353">
+        <v>70</v>
+      </c>
+      <c r="F353">
+        <v>294</v>
+      </c>
+      <c r="G353">
+        <v>1</v>
+      </c>
+      <c r="H353">
+        <v>78</v>
+      </c>
+      <c r="I353">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>600</v>
+      </c>
+      <c r="B354" s="1">
+        <f t="shared" si="6"/>
+        <v>133.77777777777777</v>
+      </c>
+      <c r="C354">
+        <v>504</v>
+      </c>
+      <c r="D354">
+        <v>292</v>
+      </c>
+      <c r="E354">
+        <v>4</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>102</v>
+      </c>
+      <c r="H354">
+        <v>75</v>
+      </c>
+      <c r="I354">
+        <v>3</v>
+      </c>
+      <c r="J354">
+        <v>184</v>
+      </c>
+      <c r="K354">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>601</v>
+      </c>
+      <c r="B355" s="1">
+        <f t="shared" si="6"/>
+        <v>16.3</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>43</v>
+      </c>
+      <c r="E355">
+        <v>35</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>6</v>
+      </c>
+      <c r="H355">
+        <v>1</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>78</v>
+      </c>
+      <c r="L355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>602</v>
+      </c>
+      <c r="B356" s="1">
+        <f t="shared" si="6"/>
+        <v>124.66666666666667</v>
+      </c>
+      <c r="C356">
+        <v>330</v>
+      </c>
+      <c r="D356">
+        <v>32</v>
+      </c>
+      <c r="E356">
+        <v>28</v>
+      </c>
+      <c r="F356">
+        <v>71</v>
+      </c>
+      <c r="G356">
+        <v>39</v>
+      </c>
+      <c r="H356">
+        <v>313</v>
+      </c>
+      <c r="I356">
+        <v>130</v>
+      </c>
+      <c r="J356">
+        <v>100</v>
+      </c>
+      <c r="K356">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>603</v>
+      </c>
+      <c r="B357" s="1">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>604</v>
+      </c>
+      <c r="B358" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>4</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>605</v>
+      </c>
+      <c r="B359" s="1">
+        <f t="shared" si="6"/>
+        <v>234.83333333333334</v>
+      </c>
+      <c r="C359">
+        <v>373</v>
+      </c>
+      <c r="D359">
+        <v>519</v>
+      </c>
+      <c r="E359">
+        <v>139</v>
+      </c>
+      <c r="F359">
+        <v>324</v>
+      </c>
+      <c r="G359">
+        <v>14</v>
+      </c>
+      <c r="H359">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>606</v>
+      </c>
+      <c r="B360" s="1">
+        <f t="shared" si="6"/>
+        <v>76.555555555555557</v>
+      </c>
+      <c r="C360">
+        <v>33</v>
+      </c>
+      <c r="D360">
+        <v>29</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>226</v>
+      </c>
+      <c r="G360">
+        <v>305</v>
+      </c>
+      <c r="H360">
+        <v>24</v>
+      </c>
+      <c r="I360">
+        <v>25</v>
+      </c>
+      <c r="J360">
+        <v>5</v>
+      </c>
+      <c r="K360">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>607</v>
+      </c>
+      <c r="B361" s="1">
+        <f t="shared" si="6"/>
+        <v>76.875</v>
+      </c>
+      <c r="C361">
+        <v>14</v>
+      </c>
+      <c r="D361">
+        <v>355</v>
+      </c>
+      <c r="E361">
+        <v>35</v>
+      </c>
+      <c r="F361">
+        <v>17</v>
+      </c>
+      <c r="G361">
+        <v>15</v>
+      </c>
+      <c r="H361">
+        <v>46</v>
+      </c>
+      <c r="I361">
+        <v>37</v>
+      </c>
+      <c r="J361">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>608</v>
+      </c>
+      <c r="B362" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>52</v>
+      </c>
+      <c r="F362">
+        <v>47</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>609</v>
+      </c>
+      <c r="B363" s="1">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="C363">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>610</v>
+      </c>
+      <c r="B364" s="1">
+        <f t="shared" si="6"/>
+        <v>56.6</v>
+      </c>
+      <c r="C364">
+        <v>159</v>
+      </c>
+      <c r="D364">
+        <v>2</v>
+      </c>
+      <c r="E364">
+        <v>8</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>108</v>
+      </c>
+      <c r="H364">
+        <v>0</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>29</v>
+      </c>
+      <c r="K364">
+        <v>57</v>
+      </c>
+      <c r="L364">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -13150,10 +13651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B364"/>
   <sheetViews>
-    <sheetView topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="B328" sqref="B328:B347"/>
+    <sheetView topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347:B364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13176,7 +13677,7 @@
       </c>
       <c r="B2">
         <f>Control!B2/'Fight Time'!B2</f>
-        <v>0.18783783783783783</v>
+        <v>0.17034313725490197</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -13221,7 +13722,7 @@
       </c>
       <c r="B7">
         <f>Control!B7/'Fight Time'!B7</f>
-        <v>0.56270903010033446</v>
+        <v>0.57468553459119498</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -13338,7 +13839,7 @@
       </c>
       <c r="B20">
         <f>Control!B20/'Fight Time'!B20</f>
-        <v>2.9136400322841E-2</v>
+        <v>2.9103514995162848E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -13707,7 +14208,7 @@
       </c>
       <c r="B61">
         <f>Control!B61/'Fight Time'!B61</f>
-        <v>0.54335585585585588</v>
+        <v>0.532560706401766</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -14229,7 +14730,7 @@
       </c>
       <c r="B119">
         <f>Control!B119/'Fight Time'!B119</f>
-        <v>0.24398625429553264</v>
+        <v>0.22417840375586853</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -14364,7 +14865,7 @@
       </c>
       <c r="B134">
         <f>Control!B134/'Fight Time'!B134</f>
-        <v>0.28755144032921809</v>
+        <v>0.23771186440677966</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -16282,6 +16783,159 @@
       <c r="B347">
         <f>Control!B347/'Fight Time'!B347</f>
         <v>0.21722312703583063</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B348">
+        <f>Control!B348/'Fight Time'!B348</f>
+        <v>0.2840599455040872</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>595</v>
+      </c>
+      <c r="B349">
+        <f>Control!B349/'Fight Time'!B349</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>596</v>
+      </c>
+      <c r="B350">
+        <f>Control!B350/'Fight Time'!B350</f>
+        <v>0.25664095972579259</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>597</v>
+      </c>
+      <c r="B351">
+        <f>Control!B351/'Fight Time'!B351</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>598</v>
+      </c>
+      <c r="B352">
+        <f>Control!B352/'Fight Time'!B352</f>
+        <v>0.40549273021001614</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>599</v>
+      </c>
+      <c r="B353">
+        <f>Control!B353/'Fight Time'!B353</f>
+        <v>0.10710204081632653</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>600</v>
+      </c>
+      <c r="B354">
+        <f>Control!B354/'Fight Time'!B354</f>
+        <v>0.19002525252525251</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>601</v>
+      </c>
+      <c r="B355">
+        <f>Control!B355/'Fight Time'!B355</f>
+        <v>2.1503957783641163E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>602</v>
+      </c>
+      <c r="B356">
+        <f>Control!B356/'Fight Time'!B356</f>
+        <v>0.16086021505376344</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>603</v>
+      </c>
+      <c r="B357">
+        <f>Control!B357/'Fight Time'!B357</f>
+        <v>0.23841059602649006</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>604</v>
+      </c>
+      <c r="B358">
+        <f>Control!B358/'Fight Time'!B358</f>
+        <v>2.8708133971291866E-3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>605</v>
+      </c>
+      <c r="B359">
+        <f>Control!B359/'Fight Time'!B359</f>
+        <v>0.36981627296587927</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>606</v>
+      </c>
+      <c r="B360">
+        <f>Control!B360/'Fight Time'!B360</f>
+        <v>0.13019652305366591</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>607</v>
+      </c>
+      <c r="B361">
+        <f>Control!B361/'Fight Time'!B361</f>
+        <v>0.24959415584415584</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>608</v>
+      </c>
+      <c r="B362">
+        <f>Control!B362/'Fight Time'!B362</f>
+        <v>1.9540229885057471E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>609</v>
+      </c>
+      <c r="B363">
+        <f>Control!B363/'Fight Time'!B363</f>
+        <v>0.14473684210526316</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>610</v>
+      </c>
+      <c r="B364">
+        <f>Control!B364/'Fight Time'!B364</f>
+        <v>0.10309653916211294</v>
       </c>
     </row>
   </sheetData>
@@ -16291,10 +16945,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
-  <dimension ref="A1:AE347"/>
+  <dimension ref="A1:AE364"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I204" sqref="I204"/>
+    <sheetView topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347:B364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16533,12 +17187,15 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>14.333333333333334</v>
       </c>
       <c r="C7">
         <v>43</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -20260,7 +20917,7 @@
       </c>
       <c r="B119" s="1">
         <f t="shared" si="1"/>
-        <v>149.875</v>
+        <v>141.44444444444446</v>
       </c>
       <c r="C119">
         <v>44</v>
@@ -20285,6 +20942,9 @@
       </c>
       <c r="J119">
         <v>149</v>
+      </c>
+      <c r="K119">
+        <v>74</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.3">
@@ -26216,7 +26876,7 @@
         <v>553</v>
       </c>
       <c r="B314" s="1">
-        <f t="shared" ref="B314:B347" si="5">AVERAGE(C314:BA314)</f>
+        <f t="shared" ref="B314:B364" si="5">AVERAGE(C314:BA314)</f>
         <v>0</v>
       </c>
       <c r="C314">
@@ -27146,6 +27806,449 @@
       </c>
       <c r="J347">
         <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A348" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B348" s="1">
+        <f t="shared" si="5"/>
+        <v>312.5</v>
+      </c>
+      <c r="C348">
+        <f>420+48</f>
+        <v>468</v>
+      </c>
+      <c r="D348">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>595</v>
+      </c>
+      <c r="B349" s="1">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="C349">
+        <v>215</v>
+      </c>
+      <c r="D349">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>596</v>
+      </c>
+      <c r="B350" s="1">
+        <f t="shared" si="5"/>
+        <v>142.83333333333334</v>
+      </c>
+      <c r="C350">
+        <v>327</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>51</v>
+      </c>
+      <c r="F350">
+        <v>14</v>
+      </c>
+      <c r="G350">
+        <v>34</v>
+      </c>
+      <c r="H350">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>597</v>
+      </c>
+      <c r="B351" s="1">
+        <f t="shared" si="5"/>
+        <v>209</v>
+      </c>
+      <c r="C351">
+        <v>22</v>
+      </c>
+      <c r="D351">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>598</v>
+      </c>
+      <c r="B352" s="1">
+        <f t="shared" si="5"/>
+        <v>131.66666666666666</v>
+      </c>
+      <c r="C352">
+        <v>2</v>
+      </c>
+      <c r="D352">
+        <v>140</v>
+      </c>
+      <c r="E352">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>599</v>
+      </c>
+      <c r="B353" s="1">
+        <f t="shared" si="5"/>
+        <v>108.57142857142857</v>
+      </c>
+      <c r="C353">
+        <v>37</v>
+      </c>
+      <c r="D353">
+        <v>248</v>
+      </c>
+      <c r="E353">
+        <v>29</v>
+      </c>
+      <c r="F353">
+        <v>6</v>
+      </c>
+      <c r="G353">
+        <v>244</v>
+      </c>
+      <c r="H353">
+        <v>125</v>
+      </c>
+      <c r="I353">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>600</v>
+      </c>
+      <c r="B354" s="1">
+        <f t="shared" si="5"/>
+        <v>145.5</v>
+      </c>
+      <c r="C354">
+        <v>4</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>488</v>
+      </c>
+      <c r="F354">
+        <v>256</v>
+      </c>
+      <c r="G354">
+        <v>63</v>
+      </c>
+      <c r="H354">
+        <v>7</v>
+      </c>
+      <c r="I354">
+        <v>110</v>
+      </c>
+      <c r="J354">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>601</v>
+      </c>
+      <c r="B355" s="1">
+        <f t="shared" si="5"/>
+        <v>78.3</v>
+      </c>
+      <c r="C355">
+        <v>3</v>
+      </c>
+      <c r="D355">
+        <v>18</v>
+      </c>
+      <c r="E355">
+        <v>125</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+      <c r="H355">
+        <v>81</v>
+      </c>
+      <c r="I355">
+        <v>142</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>365</v>
+      </c>
+      <c r="L355">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>602</v>
+      </c>
+      <c r="B356" s="1">
+        <f t="shared" si="5"/>
+        <v>104.55555555555556</v>
+      </c>
+      <c r="C356">
+        <v>213</v>
+      </c>
+      <c r="D356">
+        <v>13</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>273</v>
+      </c>
+      <c r="H356">
+        <v>87</v>
+      </c>
+      <c r="I356">
+        <v>27</v>
+      </c>
+      <c r="J356">
+        <v>100</v>
+      </c>
+      <c r="K356">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>603</v>
+      </c>
+      <c r="B357" s="1">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="C357">
+        <v>210</v>
+      </c>
+      <c r="D357">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>604</v>
+      </c>
+      <c r="B358" s="1">
+        <f t="shared" si="5"/>
+        <v>245.2</v>
+      </c>
+      <c r="C358">
+        <f>12*60+3</f>
+        <v>723</v>
+      </c>
+      <c r="D358">
+        <v>17</v>
+      </c>
+      <c r="E358">
+        <v>206</v>
+      </c>
+      <c r="F358">
+        <v>234</v>
+      </c>
+      <c r="G358">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>605</v>
+      </c>
+      <c r="B359" s="1">
+        <f t="shared" si="5"/>
+        <v>54.666666666666664</v>
+      </c>
+      <c r="C359">
+        <v>280</v>
+      </c>
+      <c r="D359">
+        <v>18</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>10</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>606</v>
+      </c>
+      <c r="B360" s="1">
+        <f t="shared" si="5"/>
+        <v>84.444444444444443</v>
+      </c>
+      <c r="C360">
+        <v>95</v>
+      </c>
+      <c r="D360">
+        <v>84</v>
+      </c>
+      <c r="E360">
+        <v>1</v>
+      </c>
+      <c r="F360">
+        <v>32</v>
+      </c>
+      <c r="G360">
+        <v>73</v>
+      </c>
+      <c r="H360">
+        <v>0</v>
+      </c>
+      <c r="I360">
+        <v>41</v>
+      </c>
+      <c r="J360">
+        <v>1</v>
+      </c>
+      <c r="K360">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>607</v>
+      </c>
+      <c r="B361" s="1">
+        <f t="shared" si="5"/>
+        <v>184.875</v>
+      </c>
+      <c r="C361">
+        <f>14*60+2</f>
+        <v>842</v>
+      </c>
+      <c r="D361">
+        <v>8</v>
+      </c>
+      <c r="E361">
+        <v>1</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>214</v>
+      </c>
+      <c r="H361">
+        <v>281</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>608</v>
+      </c>
+      <c r="B362" s="1">
+        <f t="shared" si="5"/>
+        <v>345.83333333333331</v>
+      </c>
+      <c r="C362">
+        <v>225</v>
+      </c>
+      <c r="D362">
+        <v>334</v>
+      </c>
+      <c r="E362">
+        <f>660+57</f>
+        <v>717</v>
+      </c>
+      <c r="F362">
+        <v>81</v>
+      </c>
+      <c r="G362">
+        <v>465</v>
+      </c>
+      <c r="H362">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>609</v>
+      </c>
+      <c r="B363" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>610</v>
+      </c>
+      <c r="B364" s="1">
+        <f t="shared" si="5"/>
+        <v>230.33333333333334</v>
+      </c>
+      <c r="C364">
+        <v>141</v>
+      </c>
+      <c r="D364">
+        <v>15</v>
+      </c>
+      <c r="E364">
+        <v>81</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>126</v>
+      </c>
+      <c r="H364">
+        <v>2</v>
+      </c>
+      <c r="I364">
+        <v>152</v>
+      </c>
+      <c r="J364">
+        <f>21*60+10</f>
+        <v>1270</v>
+      </c>
+      <c r="K364">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -27155,10 +28258,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B364"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="B330" sqref="B330"/>
+    <sheetView topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="D364" sqref="D364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27181,7 +28284,7 @@
       </c>
       <c r="B2">
         <f>Controlled!B2/'Fight Time'!B2</f>
-        <v>0.12567567567567567</v>
+        <v>0.11397058823529412</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -27226,7 +28329,7 @@
       </c>
       <c r="B7">
         <f>Controlled!B7/'Fight Time'!B7</f>
-        <v>3.595317725752508E-2</v>
+        <v>3.380503144654088E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -27343,7 +28446,7 @@
       </c>
       <c r="B20">
         <f>Controlled!B20/'Fight Time'!B20</f>
-        <v>6.4648910411622282E-2</v>
+        <v>6.4575943244114808E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -27712,7 +28815,7 @@
       </c>
       <c r="B61">
         <f>Controlled!B61/'Fight Time'!B61</f>
-        <v>0.10472972972972973</v>
+        <v>0.10264900662251655</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -28234,7 +29337,7 @@
       </c>
       <c r="B119">
         <f>Controlled!B119/'Fight Time'!B119</f>
-        <v>0.25751718213058417</v>
+        <v>0.24902190923317685</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -28369,7 +29472,7 @@
       </c>
       <c r="B134">
         <f>Controlled!B134/'Fight Time'!B134</f>
-        <v>0.17746913580246915</v>
+        <v>0.1461864406779661</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -30287,6 +31390,159 @@
       <c r="B347">
         <f>Controlled!B347/'Fight Time'!B347</f>
         <v>5.7003257328990226E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B348">
+        <f>Controlled!B348/'Fight Time'!B348</f>
+        <v>0.4257493188010899</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>595</v>
+      </c>
+      <c r="B349">
+        <f>Controlled!B349/'Fight Time'!B349</f>
+        <v>0.14222222222222222</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>596</v>
+      </c>
+      <c r="B350">
+        <f>Controlled!B350/'Fight Time'!B350</f>
+        <v>0.18359040274207369</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>597</v>
+      </c>
+      <c r="B351">
+        <f>Controlled!B351/'Fight Time'!B351</f>
+        <v>0.42222222222222222</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>598</v>
+      </c>
+      <c r="B352">
+        <f>Controlled!B352/'Fight Time'!B352</f>
+        <v>0.21270866989768442</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>599</v>
+      </c>
+      <c r="B353">
+        <f>Controlled!B353/'Fight Time'!B353</f>
+        <v>0.12408163265306123</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>600</v>
+      </c>
+      <c r="B354">
+        <f>Controlled!B354/'Fight Time'!B354</f>
+        <v>0.20667613636363635</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>601</v>
+      </c>
+      <c r="B355">
+        <f>Controlled!B355/'Fight Time'!B355</f>
+        <v>0.10329815303430079</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>602</v>
+      </c>
+      <c r="B356">
+        <f>Controlled!B356/'Fight Time'!B356</f>
+        <v>0.13491039426523296</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>603</v>
+      </c>
+      <c r="B357">
+        <f>Controlled!B357/'Fight Time'!B357</f>
+        <v>0.29139072847682118</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>604</v>
+      </c>
+      <c r="B358">
+        <f>Controlled!B358/'Fight Time'!B358</f>
+        <v>0.58660287081339713</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>605</v>
+      </c>
+      <c r="B359">
+        <f>Controlled!B359/'Fight Time'!B359</f>
+        <v>8.6089238845144356E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>606</v>
+      </c>
+      <c r="B360">
+        <f>Controlled!B360/'Fight Time'!B360</f>
+        <v>0.14361300075585789</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>607</v>
+      </c>
+      <c r="B361">
+        <f>Controlled!B361/'Fight Time'!B361</f>
+        <v>0.60024350649350644</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>608</v>
+      </c>
+      <c r="B362">
+        <f>Controlled!B362/'Fight Time'!B362</f>
+        <v>0.39750957854406127</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>609</v>
+      </c>
+      <c r="B363">
+        <f>Controlled!B363/'Fight Time'!B363</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>610</v>
+      </c>
+      <c r="B364">
+        <f>Controlled!B364/'Fight Time'!B364</f>
+        <v>0.41955069823922286</v>
       </c>
     </row>
   </sheetData>
@@ -30296,10 +31552,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
-  <dimension ref="A1:O347"/>
+  <dimension ref="A1:O364"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30322,8 +31578,8 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <f>6*60+10</f>
-        <v>370</v>
+        <f>6*60+48</f>
+        <v>408</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -30368,8 +31624,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f>9*60+58</f>
-        <v>598</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -30480,8 +31735,8 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f>885</f>
-        <v>885</v>
+        <f>14*60+46</f>
+        <v>886</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -30831,7 +32086,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -31327,8 +32582,8 @@
         <v>112</v>
       </c>
       <c r="B119">
-        <f>9*60+42</f>
-        <v>582</v>
+        <f>9*60+28</f>
+        <v>568</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -31453,7 +32708,8 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>486</v>
+        <f>9*60+50</f>
+        <v>590</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -33489,6 +34745,153 @@
       </c>
       <c r="B347">
         <v>614</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B348">
+        <f>12*60+14</f>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>595</v>
+      </c>
+      <c r="B349">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>596</v>
+      </c>
+      <c r="B350">
+        <f>12*60+58</f>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>597</v>
+      </c>
+      <c r="B351">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>598</v>
+      </c>
+      <c r="B352">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>599</v>
+      </c>
+      <c r="B353">
+        <f>14*60+35</f>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>600</v>
+      </c>
+      <c r="B354">
+        <f>11*60+44</f>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>601</v>
+      </c>
+      <c r="B355">
+        <f>12*60+38</f>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>602</v>
+      </c>
+      <c r="B356">
+        <f>12*60+55</f>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>603</v>
+      </c>
+      <c r="B357">
+        <f>7*60+33</f>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>604</v>
+      </c>
+      <c r="B358">
+        <f>6*60+58</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>605</v>
+      </c>
+      <c r="B359">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>606</v>
+      </c>
+      <c r="B360">
+        <f>9*60+48</f>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>607</v>
+      </c>
+      <c r="B361">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>608</v>
+      </c>
+      <c r="B362">
+        <f>14*60+30</f>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>609</v>
+      </c>
+      <c r="B363">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>610</v>
+      </c>
+      <c r="B364">
+        <f>9*60+9</f>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -33500,10 +34903,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A170" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="V349" sqref="V349"/>
+      <selection pane="topRight" activeCell="AB192" sqref="AB192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33738,8 +35141,17 @@
         <f>Control!A2</f>
         <v>Gabriel Bonfim</v>
       </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>185</v>
+      </c>
+      <c r="D4">
+        <v>184</v>
+      </c>
       <c r="E4">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -33749,6 +35161,48 @@
       </c>
       <c r="H4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0.18</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0.76</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.06</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>5.22</v>
+      </c>
+      <c r="P4" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="Q4">
+        <v>0.68</v>
+      </c>
+      <c r="R4">
+        <v>0.18</v>
+      </c>
+      <c r="S4">
+        <v>0.15</v>
+      </c>
+      <c r="T4">
+        <v>3.68</v>
+      </c>
+      <c r="U4">
+        <v>0.76</v>
+      </c>
+      <c r="V4">
+        <v>0.73</v>
       </c>
       <c r="W4">
         <f>Control!B2</f>
@@ -33756,7 +35210,7 @@
       </c>
       <c r="X4">
         <f>'Ctrl pct'!B2</f>
-        <v>0.18783783783783783</v>
+        <v>0.17034313725490197</v>
       </c>
       <c r="Y4">
         <f>Controlled!B2</f>
@@ -33764,11 +35218,14 @@
       </c>
       <c r="Z4">
         <f>'Controlled pct'!B2</f>
-        <v>0.12567567567567567</v>
+        <v>0.11397058823529412</v>
       </c>
       <c r="AA4">
         <f>'Fight Time'!B2</f>
-        <v>370</v>
+        <v>408</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
@@ -33928,6 +35385,15 @@
         <f>Control!A7</f>
         <v>Valter Walker</v>
       </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>199</v>
+      </c>
+      <c r="D9">
+        <v>199</v>
+      </c>
       <c r="E9">
         <v>13</v>
       </c>
@@ -33940,25 +35406,70 @@
       <c r="H9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>0.46</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.23</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.31</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1.79</v>
+      </c>
+      <c r="P9" s="8">
+        <v>3.02</v>
+      </c>
+      <c r="Q9">
+        <v>0.53</v>
+      </c>
+      <c r="R9">
+        <v>0.16</v>
+      </c>
+      <c r="S9">
+        <v>0.32</v>
+      </c>
+      <c r="T9">
+        <v>4.45</v>
+      </c>
+      <c r="U9">
+        <v>0.7</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
       <c r="W9">
         <f>Control!B7</f>
-        <v>336.5</v>
+        <v>243.66666666666666</v>
       </c>
       <c r="X9">
         <f>'Ctrl pct'!B7</f>
-        <v>0.56270903010033446</v>
+        <v>0.57468553459119498</v>
       </c>
       <c r="Y9">
         <f>Controlled!B7</f>
-        <v>21.5</v>
+        <v>14.333333333333334</v>
       </c>
       <c r="Z9">
         <f>'Controlled pct'!B7</f>
-        <v>3.595317725752508E-2</v>
+        <v>3.380503144654088E-2</v>
       </c>
       <c r="AA9">
         <f>'Fight Time'!B7</f>
-        <v>598</v>
+        <v>424</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -34616,6 +36127,15 @@
         <f>Control!A20</f>
         <v>Calvin Kattar</v>
       </c>
+      <c r="B22">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>180</v>
+      </c>
+      <c r="D22">
+        <v>183</v>
+      </c>
       <c r="E22">
         <v>23</v>
       </c>
@@ -34627,6 +36147,48 @@
       </c>
       <c r="H22">
         <v>7</v>
+      </c>
+      <c r="I22">
+        <v>0.43</v>
+      </c>
+      <c r="J22">
+        <v>0.11</v>
+      </c>
+      <c r="K22">
+        <v>0.13</v>
+      </c>
+      <c r="L22">
+        <v>0.11</v>
+      </c>
+      <c r="M22">
+        <v>0.43</v>
+      </c>
+      <c r="N22">
+        <v>0.78</v>
+      </c>
+      <c r="O22" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P22" s="8">
+        <v>6.62</v>
+      </c>
+      <c r="Q22">
+        <v>0.78</v>
+      </c>
+      <c r="R22">
+        <v>0.13</v>
+      </c>
+      <c r="S22">
+        <v>0.09</v>
+      </c>
+      <c r="T22">
+        <v>0.36</v>
+      </c>
+      <c r="U22">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V22">
+        <v>0.77</v>
       </c>
       <c r="W22">
         <f>Control!B20</f>
@@ -34634,7 +36196,7 @@
       </c>
       <c r="X22">
         <f>'Ctrl pct'!B20</f>
-        <v>2.9136400322841E-2</v>
+        <v>2.9103514995162848E-2</v>
       </c>
       <c r="Y22">
         <f>Controlled!B20</f>
@@ -34642,11 +36204,14 @@
       </c>
       <c r="Z22">
         <f>'Controlled pct'!B20</f>
-        <v>6.4648910411622282E-2</v>
+        <v>6.4575943244114808E-2</v>
       </c>
       <c r="AA22">
         <f>'Fight Time'!B20</f>
-        <v>885</v>
+        <v>886</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
@@ -35813,7 +37378,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f>Control!A47</f>
         <v>Ion Cutelaba</v>
@@ -35851,7 +37416,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f>Control!A48</f>
         <v>Montana De La Rosa</v>
@@ -35883,7 +37448,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>Control!A49</f>
         <v>Luana Carolina</v>
@@ -35915,7 +37480,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f>Control!A50</f>
         <v>Ramazonbek Temirov</v>
@@ -35953,7 +37518,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f>Control!A51</f>
         <v>Charles Johnson</v>
@@ -35991,7 +37556,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f>Control!A52</f>
         <v>JJ Aldrich</v>
@@ -36029,7 +37594,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f>Control!A53</f>
         <v>Andrea Lee</v>
@@ -36067,7 +37632,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f>Control!A54</f>
         <v>Danny Silva</v>
@@ -36105,7 +37670,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f>Control!A55</f>
         <v>Lucas Almeida</v>
@@ -36143,7 +37708,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f>Control!A56</f>
         <v>John Castaneda</v>
@@ -36175,7 +37740,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f>Control!A57</f>
         <v>Douglas de Andrade</v>
@@ -36207,7 +37772,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f>Control!A58</f>
         <v>Chepe Mariscal</v>
@@ -36245,7 +37810,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f>Control!A59</f>
         <v>Ricardo Ramos</v>
@@ -36283,7 +37848,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f>Control!A60</f>
         <v>Marrio Pinto</v>
@@ -36321,11 +37886,20 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f>Control!A61</f>
         <v>Austen Lane</v>
       </c>
+      <c r="B63">
+        <v>37</v>
+      </c>
+      <c r="C63">
+        <v>198</v>
+      </c>
+      <c r="D63">
+        <v>203</v>
+      </c>
       <c r="E63">
         <v>13</v>
       </c>
@@ -36337,6 +37911,48 @@
       </c>
       <c r="H63">
         <v>3</v>
+      </c>
+      <c r="I63">
+        <v>0.85</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0.08</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0.08</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" s="8">
+        <v>2.98</v>
+      </c>
+      <c r="P63" s="8">
+        <v>2.41</v>
+      </c>
+      <c r="Q63">
+        <v>0.6</v>
+      </c>
+      <c r="R63">
+        <v>0.24</v>
+      </c>
+      <c r="S63">
+        <v>0.16</v>
+      </c>
+      <c r="T63">
+        <v>1.7</v>
+      </c>
+      <c r="U63">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V63">
+        <v>0.5</v>
       </c>
       <c r="W63">
         <f>Control!B61</f>
@@ -36344,7 +37960,7 @@
       </c>
       <c r="X63">
         <f>'Ctrl pct'!B61</f>
-        <v>0.54335585585585588</v>
+        <v>0.532560706401766</v>
       </c>
       <c r="Y63">
         <f>Controlled!B61</f>
@@ -36352,14 +37968,17 @@
       </c>
       <c r="Z63">
         <f>'Controlled pct'!B61</f>
-        <v>0.10472972972972973</v>
+        <v>0.10264900662251655</v>
       </c>
       <c r="AA63">
         <f>'Fight Time'!B61</f>
-        <v>296</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="AB63">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f>Control!A62</f>
         <v>Danny Barlow</v>
@@ -39076,6 +40695,15 @@
         <f>Control!A119</f>
         <v>Chidi Njokuani</v>
       </c>
+      <c r="B121">
+        <v>36</v>
+      </c>
+      <c r="C121">
+        <v>191</v>
+      </c>
+      <c r="D121">
+        <v>203</v>
+      </c>
       <c r="E121">
         <v>25</v>
       </c>
@@ -39088,25 +40716,70 @@
       <c r="H121">
         <v>3</v>
       </c>
+      <c r="I121">
+        <v>6</v>
+      </c>
+      <c r="J121">
+        <v>0.5</v>
+      </c>
+      <c r="K121">
+        <v>0.04</v>
+      </c>
+      <c r="L121">
+        <v>0.3</v>
+      </c>
+      <c r="M121">
+        <v>0.36</v>
+      </c>
+      <c r="N121">
+        <v>0.2</v>
+      </c>
+      <c r="O121" s="8">
+        <v>4.72</v>
+      </c>
+      <c r="P121" s="8">
+        <v>2.64</v>
+      </c>
+      <c r="Q121">
+        <v>0.4</v>
+      </c>
+      <c r="R121">
+        <v>0.4</v>
+      </c>
+      <c r="S121">
+        <v>0.2</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0.75</v>
+      </c>
       <c r="W121">
         <f>Control!B119</f>
-        <v>142</v>
+        <v>127.33333333333333</v>
       </c>
       <c r="X121">
         <f>'Ctrl pct'!B119</f>
-        <v>0.24398625429553264</v>
+        <v>0.22417840375586853</v>
       </c>
       <c r="Y121">
         <f>Controlled!B119</f>
-        <v>149.875</v>
+        <v>141.44444444444446</v>
       </c>
       <c r="Z121">
         <f>'Controlled pct'!B119</f>
-        <v>0.25751718213058417</v>
+        <v>0.24902190923317685</v>
       </c>
       <c r="AA121">
         <f>'Fight Time'!B119</f>
-        <v>582</v>
+        <v>568</v>
+      </c>
+      <c r="AB121">
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.3">
@@ -39375,7 +41048,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f>Control!A127</f>
         <v>Christian Leroy Duncan</v>
@@ -39413,7 +41086,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
         <f>Control!A128</f>
         <v>Mick Parkin</v>
@@ -39451,7 +41124,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f>Control!A129</f>
         <v>Marcin Tybura</v>
@@ -39489,7 +41162,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f>Control!A130</f>
         <v>Felippe dos Santos</v>
@@ -39527,7 +41200,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f>Control!A131</f>
         <v>Lone'er Kavanagh</v>
@@ -39565,7 +41238,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f>Control!A132</f>
         <v>Chris Padilla</v>
@@ -39603,7 +41276,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f>Control!A133</f>
         <v>Jai Herbert</v>
@@ -39641,11 +41314,20 @@
         <v>675</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f>Control!A134</f>
         <v>Morgan Charriere</v>
       </c>
+      <c r="B136">
+        <v>29</v>
+      </c>
+      <c r="C136">
+        <v>173</v>
+      </c>
+      <c r="D136">
+        <v>175</v>
+      </c>
       <c r="E136">
         <v>20</v>
       </c>
@@ -39658,13 +41340,55 @@
       <c r="H136">
         <v>2</v>
       </c>
+      <c r="I136">
+        <v>0.6</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0.15</v>
+      </c>
+      <c r="L136">
+        <v>0.09</v>
+      </c>
+      <c r="M136">
+        <v>0.25</v>
+      </c>
+      <c r="N136">
+        <v>0.91</v>
+      </c>
+      <c r="O136" s="8">
+        <v>3.46</v>
+      </c>
+      <c r="P136" s="8">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Q136">
+        <v>0.6</v>
+      </c>
+      <c r="R136">
+        <v>0.27</v>
+      </c>
+      <c r="S136">
+        <v>0.13</v>
+      </c>
+      <c r="T136">
+        <v>1.91</v>
+      </c>
+      <c r="U136">
+        <v>0.5</v>
+      </c>
+      <c r="V136">
+        <v>0.83</v>
+      </c>
       <c r="W136">
         <f>Control!B134</f>
-        <v>139.75</v>
+        <v>140.25</v>
       </c>
       <c r="X136">
         <f>'Ctrl pct'!B134</f>
-        <v>0.28755144032921809</v>
+        <v>0.23771186440677966</v>
       </c>
       <c r="Y136">
         <f>Controlled!B134</f>
@@ -39672,14 +41396,17 @@
       </c>
       <c r="Z136">
         <f>'Controlled pct'!B134</f>
-        <v>0.17746913580246915</v>
+        <v>0.1461864406779661</v>
       </c>
       <c r="AA136">
         <f>'Fight Time'!B134</f>
-        <v>486</v>
-      </c>
-    </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+      <c r="AB136">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f>Control!A135</f>
         <v>Nathaniel Wood</v>
@@ -39717,7 +41444,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f>Control!A136</f>
         <v>Chris Duncan</v>
@@ -39755,7 +41482,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f>Control!A137</f>
         <v>Jordan Vucenic</v>
@@ -39793,7 +41520,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f>Control!A138</f>
         <v>Alexia Thainara</v>
@@ -39831,7 +41558,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f>Control!A139</f>
         <v>Molly McCann</v>
@@ -39869,7 +41596,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f>Control!A140</f>
         <v>Kevin Holland</v>
@@ -39949,7 +41676,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f>Control!A141</f>
         <v>Gunnar Nelson</v>
@@ -39987,7 +41714,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f>Control!A142</f>
         <v>Carlos Ulberg</v>
@@ -41385,7 +43112,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
         <f>Control!A175</f>
         <v>Victor Henry</v>
@@ -41423,7 +43150,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f>Control!A176</f>
         <v>Istela Nunes</v>
@@ -41461,7 +43188,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
         <f>Control!A177</f>
         <v>Loma Lookboonmee</v>
@@ -41499,7 +43226,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
         <f>Control!A178</f>
         <v>Daniel Frunza</v>
@@ -41537,7 +43264,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
         <f>Control!A179</f>
         <v>Rhys McKee</v>
@@ -41575,7 +43302,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f>Control!A180</f>
         <v>Dione Barbosa</v>
@@ -41613,7 +43340,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f>Control!A181</f>
         <v>Diana Belbita</v>
@@ -41651,7 +43378,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
         <f>Control!A182</f>
         <v>Santos Daniel</v>
@@ -41683,7 +43410,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
         <f>Control!A183</f>
         <v>Davey Grant</v>
@@ -41715,7 +43442,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f>Control!A184</f>
         <v>Luis Gurule</v>
@@ -41753,7 +43480,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f>Control!A185</f>
         <v>Ode Osbourne</v>
@@ -41791,7 +43518,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
         <f>Control!A186</f>
         <v>Robert Valentin</v>
@@ -41829,7 +43556,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
         <f>Control!A187</f>
         <v>Torrez Finney</v>
@@ -41867,7 +43594,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
         <f>Control!A188</f>
         <v>Martin Buday</v>
@@ -41905,11 +43632,20 @@
         <v>614</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
         <f>Control!A189</f>
         <v>Kennedy Nzechukwu</v>
       </c>
+      <c r="B191">
+        <v>33</v>
+      </c>
+      <c r="C191">
+        <v>196</v>
+      </c>
+      <c r="D191">
+        <v>211</v>
+      </c>
       <c r="E191">
         <v>14</v>
       </c>
@@ -41921,6 +43657,48 @@
       </c>
       <c r="H191">
         <v>5</v>
+      </c>
+      <c r="I191">
+        <v>0.71</v>
+      </c>
+      <c r="J191">
+        <v>0.4</v>
+      </c>
+      <c r="K191">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L191">
+        <v>0.2</v>
+      </c>
+      <c r="M191">
+        <v>0.21</v>
+      </c>
+      <c r="N191">
+        <v>0.4</v>
+      </c>
+      <c r="O191" s="8">
+        <v>5.37</v>
+      </c>
+      <c r="P191" s="8">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="Q191">
+        <v>0.83</v>
+      </c>
+      <c r="R191">
+        <v>0.16</v>
+      </c>
+      <c r="S191">
+        <v>0.01</v>
+      </c>
+      <c r="T191">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U191">
+        <v>0.45</v>
+      </c>
+      <c r="V191">
+        <v>0.81</v>
       </c>
       <c r="W191">
         <f>Control!B189</f>
@@ -41942,8 +43720,11 @@
         <f>'Fight Time'!B189</f>
         <v>537</v>
       </c>
-    </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
         <f>Control!A190</f>
         <v>Lee ChangHo</v>
@@ -52676,343 +54457,1450 @@
       </c>
     </row>
     <row r="350" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A350" t="str">
+        <f>Control!A348</f>
+        <v>Fatima Kline</v>
+      </c>
+      <c r="B350">
+        <v>25</v>
+      </c>
+      <c r="C350">
+        <v>168</v>
+      </c>
+      <c r="D350">
+        <v>170</v>
+      </c>
+      <c r="E350">
+        <v>7</v>
+      </c>
+      <c r="F350">
+        <v>1</v>
+      </c>
+      <c r="G350">
+        <v>1</v>
+      </c>
+      <c r="H350">
+        <v>1</v>
+      </c>
+      <c r="I350">
+        <v>0.43</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+      <c r="M350">
+        <v>0.43</v>
+      </c>
+      <c r="N350">
+        <v>1</v>
+      </c>
+      <c r="O350" s="8">
+        <v>2.21</v>
+      </c>
+      <c r="P350" s="8">
+        <v>1.68</v>
+      </c>
+      <c r="Q350">
+        <v>0.83</v>
+      </c>
+      <c r="R350">
+        <v>0.11</v>
+      </c>
+      <c r="S350">
+        <v>0.06</v>
+      </c>
+      <c r="T350">
+        <v>1.84</v>
+      </c>
+      <c r="U350">
+        <v>1</v>
+      </c>
+      <c r="V350">
+        <v>0.5</v>
+      </c>
       <c r="W350">
         <f>Control!B348</f>
-        <v>0</v>
+        <v>208.5</v>
       </c>
       <c r="X350">
         <f>'Ctrl pct'!B348</f>
-        <v>0</v>
+        <v>0.2840599455040872</v>
       </c>
       <c r="Y350">
         <f>Controlled!B348</f>
-        <v>0</v>
+        <v>312.5</v>
       </c>
       <c r="Z350">
         <f>'Controlled pct'!B348</f>
-        <v>0</v>
+        <v>0.4257493188010899</v>
       </c>
       <c r="AA350">
         <f>'Fight Time'!B348</f>
-        <v>0</v>
+        <v>734</v>
+      </c>
+      <c r="AB350">
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A351" t="str">
+        <f>Control!A349</f>
+        <v>Melissa Martinez</v>
+      </c>
+      <c r="B351">
+        <v>27</v>
+      </c>
+      <c r="C351">
+        <v>157</v>
+      </c>
+      <c r="D351">
+        <v>168</v>
+      </c>
+      <c r="E351">
+        <v>8</v>
+      </c>
+      <c r="F351">
+        <v>1</v>
+      </c>
+      <c r="G351">
+        <v>1</v>
+      </c>
+      <c r="H351">
+        <v>1</v>
+      </c>
+      <c r="I351">
+        <v>0.63</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351">
+        <v>0</v>
+      </c>
+      <c r="M351">
+        <v>0.38</v>
+      </c>
+      <c r="N351">
+        <v>1</v>
+      </c>
+      <c r="O351" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="P351" s="8">
+        <v>4.33</v>
+      </c>
+      <c r="Q351">
+        <v>0.37</v>
+      </c>
+      <c r="R351">
+        <v>0.3</v>
+      </c>
+      <c r="S351">
+        <v>0.33</v>
+      </c>
+      <c r="T351">
+        <v>0.5</v>
+      </c>
+      <c r="U351">
+        <v>0.5</v>
+      </c>
+      <c r="V351">
+        <v>0.25</v>
+      </c>
       <c r="W351">
         <f>Control!B349</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="X351">
         <f>'Ctrl pct'!B349</f>
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Y351">
         <f>Controlled!B349</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="Z351">
         <f>'Controlled pct'!B349</f>
-        <v>0</v>
+        <v>0.14222222222222222</v>
       </c>
       <c r="AA351">
         <f>'Fight Time'!B349</f>
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="AB351">
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A352" t="str">
+        <f>Control!A350</f>
+        <v>Mike Davis</v>
+      </c>
+      <c r="B352">
+        <v>32</v>
+      </c>
+      <c r="C352">
+        <v>183</v>
+      </c>
+      <c r="D352">
+        <v>184</v>
+      </c>
+      <c r="E352">
+        <v>11</v>
+      </c>
+      <c r="F352">
+        <v>3</v>
+      </c>
+      <c r="G352">
+        <v>4</v>
+      </c>
+      <c r="H352">
+        <v>2</v>
+      </c>
+      <c r="I352">
+        <v>0.64</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>0.18</v>
+      </c>
+      <c r="L352">
+        <v>0.33</v>
+      </c>
+      <c r="M352">
+        <v>0.18</v>
+      </c>
+      <c r="N352">
+        <v>0.67</v>
+      </c>
+      <c r="O352" s="8">
+        <v>4.68</v>
+      </c>
+      <c r="P352" s="8">
+        <v>5.19</v>
+      </c>
+      <c r="T352">
+        <v>2.48</v>
+      </c>
+      <c r="U352">
+        <v>0.44</v>
+      </c>
+      <c r="V352">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="W352">
         <f>Control!B350</f>
-        <v>0</v>
+        <v>199.66666666666666</v>
       </c>
       <c r="X352">
         <f>'Ctrl pct'!B350</f>
-        <v>0</v>
+        <v>0.25664095972579259</v>
       </c>
       <c r="Y352">
         <f>Controlled!B350</f>
-        <v>0</v>
+        <v>142.83333333333334</v>
       </c>
       <c r="Z352">
         <f>'Controlled pct'!B350</f>
-        <v>0</v>
+        <v>0.18359040274207369</v>
       </c>
       <c r="AA352">
         <f>'Fight Time'!B350</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="23:27" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+      <c r="AB352">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A353" t="str">
+        <f>Control!A351</f>
+        <v>Mitch Ramirez</v>
+      </c>
+      <c r="B353">
+        <v>32</v>
+      </c>
+      <c r="C353">
+        <v>180</v>
+      </c>
+      <c r="D353">
+        <v>180</v>
+      </c>
+      <c r="E353">
+        <v>8</v>
+      </c>
+      <c r="F353">
+        <v>2</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+      <c r="H353">
+        <v>1</v>
+      </c>
+      <c r="I353">
+        <v>0.63</v>
+      </c>
+      <c r="J353">
+        <v>1</v>
+      </c>
+      <c r="K353">
+        <v>0.25</v>
+      </c>
+      <c r="L353">
+        <v>0</v>
+      </c>
+      <c r="M353">
+        <v>0.13</v>
+      </c>
+      <c r="N353">
+        <v>0</v>
+      </c>
+      <c r="O353" s="8">
+        <v>2.37</v>
+      </c>
+      <c r="P353" s="8">
+        <v>3.34</v>
+      </c>
+      <c r="Q353">
+        <v>0.33</v>
+      </c>
+      <c r="R353">
+        <v>0.21</v>
+      </c>
+      <c r="S353">
+        <v>0.46</v>
+      </c>
+      <c r="T353">
+        <v>0.91</v>
+      </c>
+      <c r="U353">
+        <v>1</v>
+      </c>
+      <c r="V353">
+        <v>0</v>
+      </c>
       <c r="W353">
         <f>Control!B351</f>
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="X353">
         <f>'Ctrl pct'!B351</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y353">
         <f>Controlled!B351</f>
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="Z353">
         <f>'Controlled pct'!B351</f>
-        <v>0</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="AA353">
         <f>'Fight Time'!B351</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="23:27" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+      <c r="AB353">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A354" t="str">
+        <f>Control!A352</f>
+        <v>Eduarda Moura</v>
+      </c>
+      <c r="B354">
+        <v>31</v>
+      </c>
+      <c r="C354">
+        <v>167</v>
+      </c>
+      <c r="D354">
+        <v>168</v>
+      </c>
+      <c r="E354">
+        <v>11</v>
+      </c>
+      <c r="F354">
+        <v>1</v>
+      </c>
+      <c r="G354">
+        <v>2</v>
+      </c>
+      <c r="H354">
+        <v>1</v>
+      </c>
+      <c r="I354">
+        <v>0.36</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0.45</v>
+      </c>
+      <c r="L354">
+        <v>0</v>
+      </c>
+      <c r="M354">
+        <v>0.18</v>
+      </c>
+      <c r="N354">
+        <v>1</v>
+      </c>
+      <c r="O354" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P354" s="8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="Q354">
+        <v>0.89</v>
+      </c>
+      <c r="R354">
+        <v>0.09</v>
+      </c>
+      <c r="S354">
+        <v>0.02</v>
+      </c>
+      <c r="T354">
+        <v>4.37</v>
+      </c>
+      <c r="U354">
+        <v>0.35</v>
+      </c>
+      <c r="V354">
+        <v>1</v>
+      </c>
       <c r="W354">
         <f>Control!B352</f>
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="X354">
         <f>'Ctrl pct'!B352</f>
-        <v>0</v>
+        <v>0.40549273021001614</v>
       </c>
       <c r="Y354">
         <f>Controlled!B352</f>
-        <v>0</v>
+        <v>131.66666666666666</v>
       </c>
       <c r="Z354">
         <f>'Controlled pct'!B352</f>
-        <v>0</v>
+        <v>0.21270866989768442</v>
       </c>
       <c r="AA354">
         <f>'Fight Time'!B352</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="23:27" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+      <c r="AB354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A355" t="str">
+        <f>Control!A353</f>
+        <v>Lauren Murphy</v>
+      </c>
+      <c r="B355">
+        <v>41</v>
+      </c>
+      <c r="C355">
+        <v>165</v>
+      </c>
+      <c r="D355">
+        <v>173</v>
+      </c>
+      <c r="E355">
+        <v>16</v>
+      </c>
+      <c r="F355">
+        <v>6</v>
+      </c>
+      <c r="G355">
+        <v>8</v>
+      </c>
+      <c r="H355">
+        <v>6</v>
+      </c>
+      <c r="I355">
+        <v>0.5</v>
+      </c>
+      <c r="J355">
+        <v>0.17</v>
+      </c>
+      <c r="K355">
+        <v>0.06</v>
+      </c>
+      <c r="L355">
+        <v>0</v>
+      </c>
+      <c r="M355">
+        <v>0.44</v>
+      </c>
+      <c r="N355">
+        <v>0.83</v>
+      </c>
+      <c r="O355" s="8">
+        <v>4.05</v>
+      </c>
+      <c r="P355" s="8">
+        <v>5.25</v>
+      </c>
+      <c r="Q355">
+        <v>0.73</v>
+      </c>
+      <c r="R355">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S355">
+        <v>0.13</v>
+      </c>
+      <c r="T355">
+        <v>1.03</v>
+      </c>
+      <c r="U355">
+        <v>0.25</v>
+      </c>
+      <c r="V355">
+        <v>0.69</v>
+      </c>
       <c r="W355">
         <f>Control!B353</f>
-        <v>0</v>
+        <v>93.714285714285708</v>
       </c>
       <c r="X355">
         <f>'Ctrl pct'!B353</f>
-        <v>0</v>
+        <v>0.10710204081632653</v>
       </c>
       <c r="Y355">
         <f>Controlled!B353</f>
-        <v>0</v>
+        <v>108.57142857142857</v>
       </c>
       <c r="Z355">
         <f>'Controlled pct'!B353</f>
-        <v>0</v>
+        <v>0.12408163265306123</v>
       </c>
       <c r="AA355">
         <f>'Fight Time'!B353</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="23:27" x14ac:dyDescent="0.3">
+        <v>875</v>
+      </c>
+      <c r="AB355">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A356" t="str">
+        <f>Control!A354</f>
+        <v>Jake Matthews</v>
+      </c>
+      <c r="B356">
+        <v>30</v>
+      </c>
+      <c r="C356">
+        <v>180</v>
+      </c>
+      <c r="D356">
+        <v>185</v>
+      </c>
+      <c r="E356">
+        <v>21</v>
+      </c>
+      <c r="F356">
+        <v>7</v>
+      </c>
+      <c r="G356">
+        <v>14</v>
+      </c>
+      <c r="H356">
+        <v>7</v>
+      </c>
+      <c r="I356">
+        <v>0.24</v>
+      </c>
+      <c r="J356">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K356">
+        <v>0.38</v>
+      </c>
+      <c r="L356">
+        <v>0.43</v>
+      </c>
+      <c r="M356">
+        <v>0.38</v>
+      </c>
+      <c r="N356">
+        <v>0.43</v>
+      </c>
+      <c r="O356" s="8">
+        <v>3.45</v>
+      </c>
+      <c r="P356" s="8">
+        <v>2.63</v>
+      </c>
+      <c r="Q356">
+        <v>0.71</v>
+      </c>
+      <c r="R356">
+        <v>0.17</v>
+      </c>
+      <c r="S356">
+        <v>0.11</v>
+      </c>
+      <c r="T356">
+        <v>1.46</v>
+      </c>
+      <c r="U356">
+        <v>0.41</v>
+      </c>
+      <c r="V356">
+        <v>0.67</v>
+      </c>
       <c r="W356">
         <f>Control!B354</f>
-        <v>0</v>
+        <v>133.77777777777777</v>
       </c>
       <c r="X356">
         <f>'Ctrl pct'!B354</f>
-        <v>0</v>
+        <v>0.19002525252525251</v>
       </c>
       <c r="Y356">
         <f>Controlled!B354</f>
-        <v>0</v>
+        <v>145.5</v>
       </c>
       <c r="Z356">
         <f>'Controlled pct'!B354</f>
-        <v>0</v>
+        <v>0.20667613636363635</v>
       </c>
       <c r="AA356">
         <f>'Fight Time'!B354</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="23:27" x14ac:dyDescent="0.3">
+        <v>704</v>
+      </c>
+      <c r="AB356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A357" t="str">
+        <f>Control!A355</f>
+        <v>Chris Curtis</v>
+      </c>
+      <c r="B357">
+        <v>37</v>
+      </c>
+      <c r="C357">
+        <v>178</v>
+      </c>
+      <c r="D357">
+        <v>192</v>
+      </c>
+      <c r="E357">
+        <v>31</v>
+      </c>
+      <c r="F357">
+        <v>12</v>
+      </c>
+      <c r="G357">
+        <v>5</v>
+      </c>
+      <c r="H357">
+        <v>4</v>
+      </c>
+      <c r="I357">
+        <v>0.48</v>
+      </c>
+      <c r="J357">
+        <v>0.17</v>
+      </c>
+      <c r="K357">
+        <v>0.1</v>
+      </c>
+      <c r="L357">
+        <v>0.08</v>
+      </c>
+      <c r="M357">
+        <v>0.42</v>
+      </c>
+      <c r="N357">
+        <v>0.75</v>
+      </c>
+      <c r="O357" s="8">
+        <v>6.16</v>
+      </c>
+      <c r="P357" s="8">
+        <v>6.43</v>
+      </c>
+      <c r="Q357">
+        <v>0.7</v>
+      </c>
+      <c r="R357">
+        <v>0.25</v>
+      </c>
+      <c r="S357">
+        <v>0.05</v>
+      </c>
+      <c r="T357">
+        <v>0</v>
+      </c>
+      <c r="U357">
+        <v>0</v>
+      </c>
+      <c r="V357">
+        <v>0.82</v>
+      </c>
       <c r="W357">
         <f>Control!B355</f>
-        <v>0</v>
+        <v>16.3</v>
       </c>
       <c r="X357">
         <f>'Ctrl pct'!B355</f>
-        <v>0</v>
+        <v>2.1503957783641163E-2</v>
       </c>
       <c r="Y357">
         <f>Controlled!B355</f>
-        <v>0</v>
+        <v>78.3</v>
       </c>
       <c r="Z357">
         <f>'Controlled pct'!B355</f>
-        <v>0</v>
+        <v>0.10329815303430079</v>
       </c>
       <c r="AA357">
         <f>'Fight Time'!B355</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="23:27" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+      <c r="AB357">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A358" t="str">
+        <f>Control!A356</f>
+        <v>Max Griffin</v>
+      </c>
+      <c r="B358">
+        <v>39</v>
+      </c>
+      <c r="C358">
+        <v>180</v>
+      </c>
+      <c r="D358">
+        <v>193</v>
+      </c>
+      <c r="E358">
+        <v>20</v>
+      </c>
+      <c r="F358">
+        <v>11</v>
+      </c>
+      <c r="G358">
+        <v>8</v>
+      </c>
+      <c r="H358">
+        <v>9</v>
+      </c>
+      <c r="I358">
+        <v>0.45</v>
+      </c>
+      <c r="J358">
+        <v>0.09</v>
+      </c>
+      <c r="K358">
+        <v>0.1</v>
+      </c>
+      <c r="L358">
+        <v>0.09</v>
+      </c>
+      <c r="M358">
+        <v>0.45</v>
+      </c>
+      <c r="N358">
+        <v>0.82</v>
+      </c>
+      <c r="O358" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="P358" s="8">
+        <v>3.66</v>
+      </c>
+      <c r="Q358">
+        <v>0.66</v>
+      </c>
+      <c r="R358">
+        <v>0.2</v>
+      </c>
+      <c r="S358">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T358">
+        <v>1.37</v>
+      </c>
+      <c r="U358">
+        <v>0.4</v>
+      </c>
+      <c r="V358">
+        <v>0.69</v>
+      </c>
       <c r="W358">
         <f>Control!B356</f>
-        <v>0</v>
+        <v>124.66666666666667</v>
       </c>
       <c r="X358">
         <f>'Ctrl pct'!B356</f>
-        <v>0</v>
+        <v>0.16086021505376344</v>
       </c>
       <c r="Y358">
         <f>Controlled!B356</f>
-        <v>0</v>
+        <v>104.55555555555556</v>
       </c>
       <c r="Z358">
         <f>'Controlled pct'!B356</f>
-        <v>0</v>
+        <v>0.13491039426523296</v>
       </c>
       <c r="AA358">
         <f>'Fight Time'!B356</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="23:27" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+      <c r="AB358">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A359" t="str">
+        <f>Control!A357</f>
+        <v>Tuco Tokkos</v>
+      </c>
+      <c r="B359">
+        <v>35</v>
+      </c>
+      <c r="C359">
+        <v>193</v>
+      </c>
+      <c r="D359">
+        <v>193</v>
+      </c>
+      <c r="E359">
+        <v>10</v>
+      </c>
+      <c r="F359">
+        <v>5</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>2</v>
+      </c>
+      <c r="I359">
+        <v>0.6</v>
+      </c>
+      <c r="J359">
+        <v>0.4</v>
+      </c>
+      <c r="K359">
+        <v>0.2</v>
+      </c>
+      <c r="L359">
+        <v>0.2</v>
+      </c>
+      <c r="M359">
+        <v>0.2</v>
+      </c>
+      <c r="N359">
+        <v>0.4</v>
+      </c>
+      <c r="O359" s="8">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="P359" s="8">
+        <v>4.99</v>
+      </c>
+      <c r="Q359">
+        <v>0.63</v>
+      </c>
+      <c r="R359">
+        <v>0.09</v>
+      </c>
+      <c r="S359">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="T359">
+        <v>2.65</v>
+      </c>
+      <c r="U359">
+        <v>0.4</v>
+      </c>
+      <c r="V359">
+        <v>0.33</v>
+      </c>
       <c r="W359">
         <f>Control!B357</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="X359">
         <f>'Ctrl pct'!B357</f>
-        <v>0</v>
+        <v>0.23841059602649006</v>
       </c>
       <c r="Y359">
         <f>Controlled!B357</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="Z359">
         <f>'Controlled pct'!B357</f>
-        <v>0</v>
+        <v>0.29139072847682118</v>
       </c>
       <c r="AA359">
         <f>'Fight Time'!B357</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="23:27" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+      <c r="AB359">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A360" t="str">
+        <f>Control!A358</f>
+        <v>Junior Tafa</v>
+      </c>
+      <c r="B360">
+        <v>28</v>
+      </c>
+      <c r="C360">
+        <v>191</v>
+      </c>
+      <c r="D360">
+        <v>183</v>
+      </c>
+      <c r="E360">
+        <v>6</v>
+      </c>
+      <c r="F360">
+        <v>3</v>
+      </c>
+      <c r="G360">
+        <v>2</v>
+      </c>
+      <c r="H360">
+        <v>3</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+      <c r="J360">
+        <v>0.33</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
+      <c r="L360">
+        <v>0.33</v>
+      </c>
+      <c r="M360">
+        <v>0</v>
+      </c>
+      <c r="N360">
+        <v>0.33</v>
+      </c>
+      <c r="O360" s="8">
+        <v>3.36</v>
+      </c>
+      <c r="P360" s="8">
+        <v>2.84</v>
+      </c>
+      <c r="Q360">
+        <v>0.84</v>
+      </c>
+      <c r="R360">
+        <v>0.15</v>
+      </c>
+      <c r="S360">
+        <v>0.01</v>
+      </c>
+      <c r="T360">
+        <v>0</v>
+      </c>
+      <c r="U360">
+        <v>0</v>
+      </c>
+      <c r="V360">
+        <v>0.77</v>
+      </c>
       <c r="W360">
         <f>Control!B358</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X360">
         <f>'Ctrl pct'!B358</f>
-        <v>0</v>
+        <v>2.8708133971291866E-3</v>
       </c>
       <c r="Y360">
         <f>Controlled!B358</f>
-        <v>0</v>
+        <v>245.2</v>
       </c>
       <c r="Z360">
         <f>'Controlled pct'!B358</f>
-        <v>0</v>
+        <v>0.58660287081339713</v>
       </c>
       <c r="AA360">
         <f>'Fight Time'!B358</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="23:27" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+      <c r="AB360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A361" t="str">
+        <f>Control!A359</f>
+        <v>Vitor Petrino</v>
+      </c>
+      <c r="B361">
+        <v>27</v>
+      </c>
+      <c r="C361">
+        <v>188</v>
+      </c>
+      <c r="D361">
+        <v>197</v>
+      </c>
+      <c r="E361">
+        <v>11</v>
+      </c>
+      <c r="F361">
+        <v>2</v>
+      </c>
+      <c r="G361">
+        <v>4</v>
+      </c>
+      <c r="H361">
+        <v>2</v>
+      </c>
+      <c r="I361">
+        <v>0.64</v>
+      </c>
+      <c r="J361">
+        <v>0.5</v>
+      </c>
+      <c r="K361">
+        <v>0.09</v>
+      </c>
+      <c r="L361">
+        <v>0.5</v>
+      </c>
+      <c r="M361">
+        <v>0.27</v>
+      </c>
+      <c r="N361">
+        <v>0</v>
+      </c>
+      <c r="O361" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="P361" s="8">
+        <v>2.71</v>
+      </c>
+      <c r="Q361">
+        <v>0.72</v>
+      </c>
+      <c r="R361">
+        <v>0.18</v>
+      </c>
+      <c r="S361">
+        <v>0.1</v>
+      </c>
+      <c r="T361">
+        <v>3.24</v>
+      </c>
+      <c r="U361">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V361">
+        <v>0.71</v>
+      </c>
       <c r="W361">
-        <f>Control!B359</f>
         <v>0</v>
       </c>
       <c r="X361">
         <f>'Ctrl pct'!B359</f>
-        <v>0</v>
+        <v>0.36981627296587927</v>
       </c>
       <c r="Y361">
         <f>Controlled!B359</f>
-        <v>0</v>
+        <v>54.666666666666664</v>
       </c>
       <c r="Z361">
         <f>'Controlled pct'!B359</f>
-        <v>0</v>
+        <v>8.6089238845144356E-2</v>
       </c>
       <c r="AA361">
         <f>'Fight Time'!B359</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="23:27" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+      <c r="AB361">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A362" t="str">
+        <f>Control!A360</f>
+        <v>Nate Landwehr</v>
+      </c>
+      <c r="B362">
+        <v>37</v>
+      </c>
+      <c r="C362">
+        <v>175</v>
+      </c>
+      <c r="D362">
+        <v>183</v>
+      </c>
+      <c r="E362">
+        <v>18</v>
+      </c>
+      <c r="F362">
+        <v>6</v>
+      </c>
+      <c r="G362">
+        <v>5</v>
+      </c>
+      <c r="H362">
+        <v>4</v>
+      </c>
+      <c r="I362">
+        <v>0.5</v>
+      </c>
+      <c r="J362">
+        <v>0.5</v>
+      </c>
+      <c r="K362">
+        <v>0.11</v>
+      </c>
+      <c r="L362">
+        <v>0.17</v>
+      </c>
+      <c r="M362">
+        <v>0.39</v>
+      </c>
+      <c r="N362">
+        <v>0.33</v>
+      </c>
+      <c r="O362" s="8">
+        <v>5.59</v>
+      </c>
+      <c r="P362" s="8">
+        <v>5.77</v>
+      </c>
+      <c r="Q362">
+        <v>0.72</v>
+      </c>
+      <c r="R362">
+        <v>0.15</v>
+      </c>
+      <c r="S362">
+        <v>0.13</v>
+      </c>
+      <c r="T362">
+        <v>0.85</v>
+      </c>
+      <c r="U362">
+        <v>0.41</v>
+      </c>
+      <c r="V362">
+        <v>0.74</v>
+      </c>
       <c r="W362">
         <f>Control!B360</f>
-        <v>0</v>
+        <v>76.555555555555557</v>
       </c>
       <c r="X362">
         <f>'Ctrl pct'!B360</f>
-        <v>0</v>
+        <v>0.13019652305366591</v>
       </c>
       <c r="Y362">
         <f>Controlled!B360</f>
-        <v>0</v>
+        <v>84.444444444444443</v>
       </c>
       <c r="Z362">
         <f>'Controlled pct'!B360</f>
-        <v>0</v>
+        <v>0.14361300075585789</v>
       </c>
       <c r="AA362">
         <f>'Fight Time'!B360</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="23:27" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+      <c r="AB362">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A363" t="str">
+        <f>Control!A361</f>
+        <v>Steve Garcia</v>
+      </c>
+      <c r="B363">
+        <v>33</v>
+      </c>
+      <c r="C363">
+        <v>183</v>
+      </c>
+      <c r="D363">
+        <v>185</v>
+      </c>
+      <c r="E363">
+        <v>17</v>
+      </c>
+      <c r="F363">
+        <v>5</v>
+      </c>
+      <c r="G363">
+        <v>6</v>
+      </c>
+      <c r="H363">
+        <v>2</v>
+      </c>
+      <c r="I363">
+        <v>0.82</v>
+      </c>
+      <c r="J363">
+        <v>0.2</v>
+      </c>
+      <c r="K363">
+        <v>0</v>
+      </c>
+      <c r="L363">
+        <v>0.2</v>
+      </c>
+      <c r="M363">
+        <v>0.18</v>
+      </c>
+      <c r="N363">
+        <v>0.6</v>
+      </c>
+      <c r="O363" s="8">
+        <v>5.04</v>
+      </c>
+      <c r="P363" s="8">
+        <v>2.34</v>
+      </c>
+      <c r="Q363">
+        <v>0.77</v>
+      </c>
+      <c r="R363">
+        <v>0.15</v>
+      </c>
+      <c r="S363">
+        <v>0.08</v>
+      </c>
+      <c r="T363">
+        <v>1.17</v>
+      </c>
+      <c r="U363">
+        <v>0.4</v>
+      </c>
+      <c r="V363">
+        <v>0.88</v>
+      </c>
       <c r="W363">
         <f>Control!B361</f>
-        <v>0</v>
+        <v>76.875</v>
       </c>
       <c r="X363">
         <f>'Ctrl pct'!B361</f>
-        <v>0</v>
+        <v>0.24959415584415584</v>
       </c>
       <c r="Y363">
         <f>Controlled!B361</f>
-        <v>0</v>
+        <v>184.875</v>
       </c>
       <c r="Z363">
         <f>'Controlled pct'!B361</f>
-        <v>0</v>
+        <v>0.60024350649350644</v>
       </c>
       <c r="AA363">
         <f>'Fight Time'!B361</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="23:27" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+      <c r="AB363">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A364" t="str">
+        <f>Control!A362</f>
+        <v>Stephen Thompson</v>
+      </c>
+      <c r="B364">
+        <v>42</v>
+      </c>
+      <c r="C364">
+        <v>183</v>
+      </c>
+      <c r="D364">
+        <v>191</v>
+      </c>
+      <c r="E364">
+        <v>17</v>
+      </c>
+      <c r="F364">
+        <v>8</v>
+      </c>
+      <c r="G364">
+        <v>12</v>
+      </c>
+      <c r="H364">
+        <v>8</v>
+      </c>
+      <c r="I364">
+        <v>0.47</v>
+      </c>
+      <c r="J364">
+        <v>0.25</v>
+      </c>
+      <c r="K364">
+        <v>0.06</v>
+      </c>
+      <c r="L364">
+        <v>0.13</v>
+      </c>
+      <c r="M364">
+        <v>0.47</v>
+      </c>
+      <c r="N364">
+        <v>0.63</v>
+      </c>
+      <c r="O364" s="8">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="P364" s="8">
+        <v>3.02</v>
+      </c>
+      <c r="Q364">
+        <v>0.67</v>
+      </c>
+      <c r="R364">
+        <v>0.23</v>
+      </c>
+      <c r="S364">
+        <v>0.1</v>
+      </c>
+      <c r="T364">
+        <v>0.25</v>
+      </c>
+      <c r="U364">
+        <v>0.41</v>
+      </c>
+      <c r="V364">
+        <v>0.63</v>
+      </c>
       <c r="W364">
         <f>Control!B362</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="X364">
         <f>'Ctrl pct'!B362</f>
-        <v>0</v>
+        <v>1.9540229885057471E-2</v>
       </c>
       <c r="Y364">
         <f>Controlled!B362</f>
-        <v>0</v>
+        <v>345.83333333333331</v>
       </c>
       <c r="Z364">
         <f>'Controlled pct'!B362</f>
-        <v>0</v>
+        <v>0.39750957854406127</v>
       </c>
       <c r="AA364">
         <f>'Fight Time'!B362</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="23:27" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+      <c r="AB364">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A365" t="str">
+        <f>Control!A363</f>
+        <v>Tallison Teixeira</v>
+      </c>
+      <c r="B365">
+        <v>25</v>
+      </c>
+      <c r="C365">
+        <v>201</v>
+      </c>
+      <c r="D365">
+        <v>211</v>
+      </c>
+      <c r="E365">
+        <v>8</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>1</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+      <c r="I365">
+        <v>0.88</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>0.12</v>
+      </c>
+      <c r="L365">
+        <v>0</v>
+      </c>
+      <c r="M365">
+        <v>0</v>
+      </c>
+      <c r="N365">
+        <v>0</v>
+      </c>
+      <c r="O365" s="8">
+        <v>14.61</v>
+      </c>
+      <c r="P365" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="Q365">
+        <v>0.68</v>
+      </c>
+      <c r="R365">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S365">
+        <v>0.19</v>
+      </c>
+      <c r="T365">
+        <v>0</v>
+      </c>
+      <c r="U365">
+        <v>0</v>
+      </c>
+      <c r="V365">
+        <v>0</v>
+      </c>
       <c r="W365">
         <f>Control!B363</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X365">
         <f>'Ctrl pct'!B363</f>
-        <v>0</v>
+        <v>0.14473684210526316</v>
       </c>
       <c r="Y365">
         <f>Controlled!B363</f>
@@ -53024,32 +55912,105 @@
       </c>
       <c r="AA365">
         <f>'Fight Time'!B363</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="23:27" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="AB365">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A366" t="str">
+        <f>Control!A364</f>
+        <v>Derrick Lewis</v>
+      </c>
+      <c r="B366">
+        <v>40</v>
+      </c>
+      <c r="C366">
+        <v>191</v>
+      </c>
+      <c r="D366">
+        <v>201</v>
+      </c>
+      <c r="E366">
+        <v>28</v>
+      </c>
+      <c r="F366">
+        <v>12</v>
+      </c>
+      <c r="G366">
+        <v>19</v>
+      </c>
+      <c r="H366">
+        <v>10</v>
+      </c>
+      <c r="I366">
+        <v>0.82</v>
+      </c>
+      <c r="J366">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K366">
+        <v>0.04</v>
+      </c>
+      <c r="L366">
+        <v>0.17</v>
+      </c>
+      <c r="M366">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N366">
+        <v>0.25</v>
+      </c>
+      <c r="O366" s="8">
+        <v>2.48</v>
+      </c>
+      <c r="P366" s="8">
+        <v>2.48</v>
+      </c>
+      <c r="Q366">
+        <v>0.79</v>
+      </c>
+      <c r="R366">
+        <v>0.17</v>
+      </c>
+      <c r="S366">
+        <v>0.04</v>
+      </c>
+      <c r="T366">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U366">
+        <v>0.26</v>
+      </c>
+      <c r="V366">
+        <v>0.52</v>
+      </c>
       <c r="W366">
         <f>Control!B364</f>
-        <v>0</v>
+        <v>56.6</v>
       </c>
       <c r="X366">
         <f>'Ctrl pct'!B364</f>
-        <v>0</v>
+        <v>0.10309653916211294</v>
       </c>
       <c r="Y366">
         <f>Controlled!B364</f>
-        <v>0</v>
+        <v>230.33333333333334</v>
       </c>
       <c r="Z366">
         <f>'Controlled pct'!B364</f>
-        <v>0</v>
+        <v>0.41955069823922286</v>
       </c>
       <c r="AA366">
         <f>'Fight Time'!B364</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="23:27" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="AB366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W367">
         <f>Control!B365</f>
         <v>0</v>
@@ -53071,7 +56032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W368">
         <f>Control!B366</f>
         <v>0</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD896C0-29E0-400B-921F-50A5CA676D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA65F98E-44E6-453C-BD45-E5F695146F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11052" yWindow="0" windowWidth="11460" windowHeight="12360" firstSheet="2" activeTab="4" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="11136" yWindow="312" windowWidth="11460" windowHeight="12000" firstSheet="3" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -31554,7 +31554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
   <dimension ref="A1:O364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+    <sheetView topLeftCell="A172" workbookViewId="0">
       <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
@@ -34903,10 +34903,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView topLeftCell="A170" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AB192" sqref="AB192"/>
+      <selection pane="topRight" activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40717,7 +40717,7 @@
         <v>3</v>
       </c>
       <c r="I121">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="J121">
         <v>0.5</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA65F98E-44E6-453C-BD45-E5F695146F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F076B3B1-AFA1-4BEB-9C9F-06F756D5700D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11136" yWindow="312" windowWidth="11460" windowHeight="12000" firstSheet="3" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
@@ -34903,10 +34903,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="I121" sqref="I121"/>
+      <selection pane="topRight" activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36211,7 +36211,7 @@
         <v>886</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169E9E10-3E7C-4A48-83A2-F32717709A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1A085B-978B-4BEF-BD7F-7F7CB66C7109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
@@ -2342,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
   <dimension ref="A1:AE383"/>
   <sheetViews>
-    <sheetView topLeftCell="A371" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B379" sqref="B379:B383"/>
+    <sheetView topLeftCell="A93" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q109" sqref="Q109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5724,7 +5724,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>350</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>351</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>352</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>117</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>353</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>354</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>355</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>356</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>357</v>
       </c>
@@ -5959,13 +5959,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>358</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="2"/>
-        <v>77.5</v>
+        <v>87</v>
       </c>
       <c r="C108">
         <v>308</v>
@@ -6009,8 +6009,11 @@
       <c r="P108" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q108" s="10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>359</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -6059,7 +6062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>360</v>
       </c>
@@ -6077,7 +6080,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>361</v>
       </c>
@@ -14141,7 +14144,7 @@
       </c>
       <c r="B380" s="1">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>10.285714285714286</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -14159,6 +14162,9 @@
         <v>0</v>
       </c>
       <c r="H380">
+        <v>0</v>
+      </c>
+      <c r="I380">
         <v>0</v>
       </c>
     </row>
@@ -15225,7 +15231,7 @@
       </c>
       <c r="B108">
         <f>Control!B108/'Fight Time'!B108</f>
-        <v>0.23065476190476192</v>
+        <v>0.25892857142857145</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -17673,7 +17679,7 @@
       </c>
       <c r="B380">
         <f>Control!B380/'Fight Time'!B380</f>
-        <v>1.9966722129783693E-2</v>
+        <v>1.7114333254100309E-2</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -17712,8 +17718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
   <dimension ref="A1:AE383"/>
   <sheetViews>
-    <sheetView topLeftCell="A373" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K384" sqref="K384"/>
+    <sheetView topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N116" sqref="N116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21061,7 +21067,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -21083,7 +21089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -21123,7 +21129,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>116</v>
       </c>
@@ -21147,7 +21153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>117</v>
       </c>
@@ -21168,7 +21174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -21186,7 +21192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>97</v>
       </c>
@@ -21198,7 +21204,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -21211,7 +21217,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>99</v>
       </c>
@@ -21235,7 +21241,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>100</v>
       </c>
@@ -21247,7 +21253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -21283,7 +21289,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -21298,13 +21304,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>101</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="1"/>
-        <v>62.428571428571431</v>
+        <v>58.266666666666666</v>
       </c>
       <c r="C108">
         <v>303</v>
@@ -21348,8 +21354,11 @@
       <c r="P108" s="11">
         <v>57</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q108" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>102</v>
       </c>
@@ -21382,7 +21391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -21397,7 +21406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -21415,7 +21424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>105</v>
       </c>
@@ -29458,7 +29467,7 @@
       </c>
       <c r="B380" s="1">
         <f t="shared" si="6"/>
-        <v>176.5</v>
+        <v>182.71428571428572</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -29477,6 +29486,9 @@
       </c>
       <c r="H380">
         <v>4</v>
+      </c>
+      <c r="I380">
+        <v>220</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
@@ -30541,7 +30553,7 @@
       </c>
       <c r="B108">
         <f>Controlled!B108/'Fight Time'!B108</f>
-        <v>0.18579931972789115</v>
+        <v>0.17341269841269841</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -32989,7 +33001,7 @@
       </c>
       <c r="B380">
         <f>Controlled!B380/'Fight Time'!B380</f>
-        <v>0.29367720465890185</v>
+        <v>0.30401711433325412</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -36539,10 +36551,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AB386" sqref="AB386"/>
+      <selection pane="topRight" activeCell="AB111" sqref="AB111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42010,13 +42022,13 @@
         <v>201</v>
       </c>
       <c r="E110">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F110">
         <v>11</v>
       </c>
       <c r="G110">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H110">
         <v>6</v>
@@ -42040,10 +42052,10 @@
         <v>0.27</v>
       </c>
       <c r="O110" s="8">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P110" s="8">
-        <v>4.21</v>
+        <v>4.01</v>
       </c>
       <c r="T110">
         <v>1.17</v>
@@ -42056,26 +42068,26 @@
       </c>
       <c r="W110">
         <f>Control!B108</f>
-        <v>77.5</v>
+        <v>87</v>
       </c>
       <c r="X110">
         <f>'Ctrl pct'!B108</f>
-        <v>0.23065476190476192</v>
+        <v>0.25892857142857145</v>
       </c>
       <c r="Y110">
         <f>Controlled!B108</f>
-        <v>62.428571428571431</v>
+        <v>58.266666666666666</v>
       </c>
       <c r="Z110">
         <f>'Controlled pct'!B108</f>
-        <v>0.18579931972789115</v>
+        <v>0.17341269841269841</v>
       </c>
       <c r="AA110">
         <f>'Fight Time'!B108</f>
         <v>336</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.3">
@@ -59368,69 +59380,69 @@
         <v>9</v>
       </c>
       <c r="F382">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G382">
         <v>1</v>
       </c>
       <c r="H382">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I382">
         <v>0.56000000000000005</v>
       </c>
       <c r="J382">
-        <v>0.67</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K382">
         <v>0.22</v>
       </c>
       <c r="L382">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M382">
         <v>0.22</v>
       </c>
       <c r="N382">
-        <v>0.33</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="O382" s="8">
-        <v>5.0199999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P382" s="8">
-        <v>3.68</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="T382">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="U382">
         <v>0.33</v>
       </c>
       <c r="V382">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="W382">
         <f>Control!B380</f>
-        <v>12</v>
+        <v>10.285714285714286</v>
       </c>
       <c r="X382">
         <f>'Ctrl pct'!B380</f>
-        <v>1.9966722129783693E-2</v>
+        <v>1.7114333254100309E-2</v>
       </c>
       <c r="Y382">
         <f>Controlled!B380</f>
-        <v>176.5</v>
+        <v>182.71428571428572</v>
       </c>
       <c r="Z382">
         <f>'Controlled pct'!B380</f>
-        <v>0.29367720465890185</v>
+        <v>0.30401711433325412</v>
       </c>
       <c r="AA382">
         <f>'Fight Time'!B380</f>
         <v>601</v>
       </c>
       <c r="AB382">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="383" spans="1:28" x14ac:dyDescent="0.3">

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBD04D8-AF26-4495-9AAE-98EFCFEDC8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA0E97D-5EC9-487F-8616-367C28710649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -30464,7 +30464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
   <dimension ref="A1:B396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+    <sheetView topLeftCell="A381" workbookViewId="0">
       <selection activeCell="H397" sqref="H397"/>
     </sheetView>
   </sheetViews>
@@ -37441,10 +37441,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView topLeftCell="A290" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AB298" sqref="AB298"/>
+      <selection pane="topRight" activeCell="AB74" sqref="AB74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41178,7 +41178,7 @@
         <v>785</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.3">

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA0E97D-5EC9-487F-8616-367C28710649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15360BF7-CF19-4D3E-83A2-A5686D34E8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="652">
   <si>
     <t>Khaos</t>
   </si>
@@ -1960,6 +1960,33 @@
   <si>
     <t>Ibo Aslan</t>
   </si>
+  <si>
+    <t>Piera Rodriguez</t>
+  </si>
+  <si>
+    <t>Felipe Bunes</t>
+  </si>
+  <si>
+    <t>Ketlen Souza</t>
+  </si>
+  <si>
+    <t>Rinya Nakamura</t>
+  </si>
+  <si>
+    <t>Karol Rosa</t>
+  </si>
+  <si>
+    <t>Elves Brener</t>
+  </si>
+  <si>
+    <t>Mateusz Rebecki</t>
+  </si>
+  <si>
+    <t>Tatsuro Taira</t>
+  </si>
+  <si>
+    <t>Amir Albazi</t>
+  </si>
 </sst>
 </file>
 
@@ -2379,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
-  <dimension ref="A1:AE396"/>
+  <dimension ref="A1:AE404"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D296" sqref="D296"/>
+    <sheetView topLeftCell="A349" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L365" sqref="L365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2550,7 +2577,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>645</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
@@ -6153,7 +6180,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>361</v>
       </c>
@@ -6186,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>362</v>
       </c>
@@ -6225,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>108</v>
       </c>
@@ -6276,13 +6303,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>363</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="2"/>
-        <v>5.5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="C116">
         <v>11</v>
@@ -6290,8 +6317,11 @@
       <c r="D116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>364</v>
       </c>
@@ -6331,13 +6361,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>111</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="2"/>
-        <v>90.5</v>
+        <v>89.529411764705884</v>
       </c>
       <c r="C118">
         <v>36</v>
@@ -6387,8 +6417,11 @@
       <c r="R118" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S118" s="10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>365</v>
       </c>
@@ -6426,7 +6459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>366</v>
       </c>
@@ -6469,7 +6502,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>367</v>
       </c>
@@ -6528,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>368</v>
       </c>
@@ -6546,7 +6579,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>369</v>
       </c>
@@ -6570,7 +6603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>370</v>
       </c>
@@ -6591,7 +6624,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -6606,7 +6639,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>371</v>
       </c>
@@ -6621,7 +6654,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>372</v>
       </c>
@@ -6648,7 +6681,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>373</v>
       </c>
@@ -8913,7 +8946,7 @@
       </c>
       <c r="B197" s="1">
         <f t="shared" si="4"/>
-        <v>132.33333333333334</v>
+        <v>122.5</v>
       </c>
       <c r="C197">
         <v>131</v>
@@ -8923,6 +8956,9 @@
       </c>
       <c r="E197">
         <v>236</v>
+      </c>
+      <c r="F197">
+        <v>93</v>
       </c>
     </row>
     <row r="198" spans="1:31" x14ac:dyDescent="0.3">
@@ -8931,7 +8967,7 @@
       </c>
       <c r="B198" s="1">
         <f t="shared" si="4"/>
-        <v>71.75</v>
+        <v>58.6</v>
       </c>
       <c r="C198">
         <v>76</v>
@@ -8944,6 +8980,9 @@
       </c>
       <c r="F198">
         <v>45</v>
+      </c>
+      <c r="G198">
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.3">
@@ -14266,7 +14305,7 @@
         <v>628</v>
       </c>
       <c r="B383" s="1">
-        <f t="shared" ref="B383:B396" si="7" xml:space="preserve"> AVERAGE(C383:BC383)</f>
+        <f t="shared" ref="B383:B404" si="7" xml:space="preserve"> AVERAGE(C383:BC383)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="C383">
@@ -14647,6 +14686,218 @@
       </c>
       <c r="K396">
         <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A397" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B397" s="1">
+        <f t="shared" si="7"/>
+        <v>249.66666666666666</v>
+      </c>
+      <c r="C397">
+        <v>158</v>
+      </c>
+      <c r="D397">
+        <v>313</v>
+      </c>
+      <c r="E397">
+        <v>116</v>
+      </c>
+      <c r="F397">
+        <v>54</v>
+      </c>
+      <c r="G397">
+        <v>233</v>
+      </c>
+      <c r="H397">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>644</v>
+      </c>
+      <c r="B398" s="1">
+        <f t="shared" si="7"/>
+        <v>75.5</v>
+      </c>
+      <c r="C398">
+        <v>140</v>
+      </c>
+      <c r="D398">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>646</v>
+      </c>
+      <c r="B399" s="1">
+        <f t="shared" si="7"/>
+        <v>363.25</v>
+      </c>
+      <c r="C399">
+        <v>3</v>
+      </c>
+      <c r="D399">
+        <f>9*60+26</f>
+        <v>566</v>
+      </c>
+      <c r="E399">
+        <f>13*60+3</f>
+        <v>783</v>
+      </c>
+      <c r="F399">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>647</v>
+      </c>
+      <c r="B400" s="1">
+        <f t="shared" si="7"/>
+        <v>239.1</v>
+      </c>
+      <c r="C400">
+        <v>350</v>
+      </c>
+      <c r="D400">
+        <v>673</v>
+      </c>
+      <c r="E400">
+        <v>170</v>
+      </c>
+      <c r="F400">
+        <v>116</v>
+      </c>
+      <c r="G400">
+        <f>9*60+44</f>
+        <v>584</v>
+      </c>
+      <c r="H400">
+        <v>193</v>
+      </c>
+      <c r="I400">
+        <v>41</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>264</v>
+      </c>
+      <c r="L400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>648</v>
+      </c>
+      <c r="B401" s="1">
+        <f t="shared" si="7"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>168</v>
+      </c>
+      <c r="E401">
+        <v>3</v>
+      </c>
+      <c r="F401">
+        <v>175</v>
+      </c>
+      <c r="G401">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>649</v>
+      </c>
+      <c r="B402" s="1">
+        <f t="shared" si="7"/>
+        <v>209.6</v>
+      </c>
+      <c r="C402">
+        <v>507</v>
+      </c>
+      <c r="D402">
+        <v>117</v>
+      </c>
+      <c r="E402">
+        <v>134</v>
+      </c>
+      <c r="F402">
+        <v>146</v>
+      </c>
+      <c r="G402">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>650</v>
+      </c>
+      <c r="B403" s="1">
+        <f t="shared" si="7"/>
+        <v>373.57142857142856</v>
+      </c>
+      <c r="C403">
+        <v>417</v>
+      </c>
+      <c r="D403">
+        <v>379</v>
+      </c>
+      <c r="E403">
+        <v>229</v>
+      </c>
+      <c r="F403">
+        <f>9*60+53</f>
+        <v>593</v>
+      </c>
+      <c r="G403">
+        <v>216</v>
+      </c>
+      <c r="H403">
+        <v>48</v>
+      </c>
+      <c r="I403">
+        <f>12*60+13</f>
+        <v>733</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>651</v>
+      </c>
+      <c r="B404" s="1">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+      <c r="C404">
+        <v>141</v>
+      </c>
+      <c r="D404">
+        <v>218</v>
+      </c>
+      <c r="E404">
+        <v>156</v>
+      </c>
+      <c r="F404">
+        <v>354</v>
+      </c>
+      <c r="G404">
+        <v>370</v>
+      </c>
+      <c r="H404">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -14657,10 +14908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
-  <dimension ref="A1:B396"/>
+  <dimension ref="A1:B404"/>
   <sheetViews>
-    <sheetView topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="B383" sqref="B383:B396"/>
+    <sheetView topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="B396" sqref="B396:B404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14701,7 +14952,7 @@
       </c>
       <c r="B4">
         <f>Control!B4/'Fight Time'!B4</f>
-        <v>0.13194444444444445</v>
+        <v>0.10009578544061302</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -14719,7 +14970,7 @@
       </c>
       <c r="B6">
         <f>Control!B6/'Fight Time'!B6</f>
-        <v>0.75532441802872707</v>
+        <v>0.67959001782531192</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -14782,7 +15033,7 @@
       </c>
       <c r="B13">
         <f>Control!B13/'Fight Time'!B13</f>
-        <v>0.34908536585365851</v>
+        <v>0.31629834254143646</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -14971,7 +15222,7 @@
       </c>
       <c r="B34">
         <f>Control!B34/'Fight Time'!B34</f>
-        <v>2.810810810810811</v>
+        <v>0.3837638376383764</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -15259,7 +15510,7 @@
       </c>
       <c r="B66">
         <f>Control!B66/'Fight Time'!B66</f>
-        <v>3.7522123893805305E-2</v>
+        <v>3.4138486312399352E-2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -15709,7 +15960,7 @@
       </c>
       <c r="B116">
         <f>Control!B116/'Fight Time'!B116</f>
-        <v>1.0536398467432951E-2</v>
+        <v>1.29764801297648E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -15727,7 +15978,7 @@
       </c>
       <c r="B118">
         <f>Control!B118/'Fight Time'!B118</f>
-        <v>0.1258692628650904</v>
+        <v>0.12735335955150198</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -15790,7 +16041,7 @@
       </c>
       <c r="B125">
         <f>Control!B125/'Fight Time'!B125</f>
-        <v>0.5935828877005348</v>
+        <v>0.34850863422291994</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -15889,7 +16140,7 @@
       </c>
       <c r="B136">
         <f>Control!B136/'Fight Time'!B136</f>
-        <v>0.30151260504201682</v>
+        <v>0.29189716889033518</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -16438,7 +16689,7 @@
       </c>
       <c r="B197">
         <f>Control!B197/'Fight Time'!B197</f>
-        <v>0.17366579177602801</v>
+        <v>0.18148148148148149</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -16447,7 +16698,7 @@
       </c>
       <c r="B198">
         <f>Control!B198/'Fight Time'!B198</f>
-        <v>0.18350383631713554</v>
+        <v>0.14223300970873787</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -18230,6 +18481,78 @@
       <c r="B396">
         <f>Control!B396/'Fight Time'!B396</f>
         <v>0.11238175914160667</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B397">
+        <f>Control!B397/'Fight Time'!B397</f>
+        <v>0.3217353951890034</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>644</v>
+      </c>
+      <c r="B398">
+        <f>Control!B398/'Fight Time'!B398</f>
+        <v>0.21695402298850575</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>646</v>
+      </c>
+      <c r="B399">
+        <f>Control!B399/'Fight Time'!B399</f>
+        <v>0.70808966861598444</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>647</v>
+      </c>
+      <c r="B400">
+        <f>Control!B400/'Fight Time'!B400</f>
+        <v>0.26566666666666666</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>648</v>
+      </c>
+      <c r="B401">
+        <f>Control!B401/'Fight Time'!B401</f>
+        <v>0.10068399452804377</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>649</v>
+      </c>
+      <c r="B402">
+        <f>Control!B402/'Fight Time'!B402</f>
+        <v>0.35706984667802383</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>650</v>
+      </c>
+      <c r="B403">
+        <f>Control!B403/'Fight Time'!B403</f>
+        <v>0.52764326069410816</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>651</v>
+      </c>
+      <c r="B404">
+        <f>Control!B404/'Fight Time'!B404</f>
+        <v>0.24046242774566473</v>
       </c>
     </row>
   </sheetData>
@@ -18239,10 +18562,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
-  <dimension ref="A1:AE396"/>
+  <dimension ref="A1:AE404"/>
   <sheetViews>
-    <sheetView topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D296" sqref="D296"/>
+    <sheetView topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G199" sqref="G199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21981,7 +22304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>106</v>
       </c>
@@ -22014,7 +22337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>107</v>
       </c>
@@ -22054,7 +22377,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>108</v>
       </c>
@@ -22105,13 +22428,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>109</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="C116">
         <v>9</v>
@@ -22119,8 +22442,11 @@
       <c r="D116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>110</v>
       </c>
@@ -22159,13 +22485,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>111</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="1"/>
-        <v>181.625</v>
+        <v>171.52941176470588</v>
       </c>
       <c r="C118">
         <v>254</v>
@@ -22216,8 +22542,11 @@
       <c r="R118" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S118" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>112</v>
       </c>
@@ -22253,7 +22582,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>113</v>
       </c>
@@ -22295,7 +22624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -22352,7 +22681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>121</v>
       </c>
@@ -22371,7 +22700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -22395,7 +22724,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -22416,7 +22745,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -22431,7 +22760,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -22446,7 +22775,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -22474,7 +22803,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -24742,7 +25071,7 @@
       </c>
       <c r="B197" s="1">
         <f t="shared" si="3"/>
-        <v>303.66666666666669</v>
+        <v>293.75</v>
       </c>
       <c r="C197">
         <v>522</v>
@@ -24752,6 +25081,9 @@
       </c>
       <c r="E197">
         <v>69</v>
+      </c>
+      <c r="F197">
+        <v>264</v>
       </c>
     </row>
     <row r="198" spans="1:31" x14ac:dyDescent="0.3">
@@ -24760,7 +25092,7 @@
       </c>
       <c r="B198" s="1">
         <f t="shared" si="3"/>
-        <v>82.5</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="C198">
         <v>200</v>
@@ -24773,6 +25105,9 @@
       </c>
       <c r="F198">
         <v>13</v>
+      </c>
+      <c r="G198">
+        <v>43</v>
       </c>
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.3">
@@ -29929,7 +30264,7 @@
         <v>623</v>
       </c>
       <c r="B378" s="1">
-        <f t="shared" ref="B378:B396" si="6">AVERAGE(C378:BA378)</f>
+        <f t="shared" ref="B378:B404" si="6">AVERAGE(C378:BA378)</f>
         <v>256.39999999999998</v>
       </c>
       <c r="C378">
@@ -30453,6 +30788,213 @@
       </c>
       <c r="K396">
         <v>200</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A397" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B397" s="1">
+        <f t="shared" si="6"/>
+        <v>125.66666666666667</v>
+      </c>
+      <c r="C397">
+        <v>64</v>
+      </c>
+      <c r="D397">
+        <v>194</v>
+      </c>
+      <c r="E397">
+        <v>36</v>
+      </c>
+      <c r="F397">
+        <v>383</v>
+      </c>
+      <c r="G397">
+        <v>0</v>
+      </c>
+      <c r="H397">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>644</v>
+      </c>
+      <c r="B398" s="1">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="C398">
+        <v>74</v>
+      </c>
+      <c r="D398">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>646</v>
+      </c>
+      <c r="B399" s="1">
+        <f t="shared" si="6"/>
+        <v>39.25</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+      <c r="E399">
+        <v>0</v>
+      </c>
+      <c r="F399">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>647</v>
+      </c>
+      <c r="B400" s="1">
+        <f t="shared" si="6"/>
+        <v>158.5</v>
+      </c>
+      <c r="C400">
+        <v>6</v>
+      </c>
+      <c r="D400">
+        <v>2</v>
+      </c>
+      <c r="E400">
+        <v>0</v>
+      </c>
+      <c r="F400">
+        <v>627</v>
+      </c>
+      <c r="G400">
+        <v>168</v>
+      </c>
+      <c r="H400">
+        <v>294</v>
+      </c>
+      <c r="I400">
+        <v>233</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>0</v>
+      </c>
+      <c r="L400">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>648</v>
+      </c>
+      <c r="B401" s="1">
+        <f t="shared" si="6"/>
+        <v>151.4</v>
+      </c>
+      <c r="C401">
+        <v>131</v>
+      </c>
+      <c r="D401">
+        <v>143</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401">
+        <v>432</v>
+      </c>
+      <c r="G401">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>649</v>
+      </c>
+      <c r="B402" s="1">
+        <f t="shared" si="6"/>
+        <v>61.4</v>
+      </c>
+      <c r="C402">
+        <v>34</v>
+      </c>
+      <c r="D402">
+        <v>3</v>
+      </c>
+      <c r="E402">
+        <v>13</v>
+      </c>
+      <c r="F402">
+        <v>132</v>
+      </c>
+      <c r="G402">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>650</v>
+      </c>
+      <c r="B403" s="1">
+        <f t="shared" si="6"/>
+        <v>73.142857142857139</v>
+      </c>
+      <c r="C403">
+        <v>208</v>
+      </c>
+      <c r="D403">
+        <v>36</v>
+      </c>
+      <c r="E403">
+        <v>23</v>
+      </c>
+      <c r="F403">
+        <v>25</v>
+      </c>
+      <c r="G403">
+        <v>53</v>
+      </c>
+      <c r="H403">
+        <v>24</v>
+      </c>
+      <c r="I403">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>651</v>
+      </c>
+      <c r="B404" s="1">
+        <f t="shared" si="6"/>
+        <v>17.833333333333332</v>
+      </c>
+      <c r="C404">
+        <v>22</v>
+      </c>
+      <c r="D404">
+        <v>27</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+      <c r="G404">
+        <v>58</v>
+      </c>
+      <c r="H404">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -30462,10 +31004,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
-  <dimension ref="A1:B396"/>
+  <dimension ref="A1:B404"/>
   <sheetViews>
     <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="H397" sqref="H397"/>
+      <selection activeCell="B396" sqref="B396:B404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30506,7 +31048,7 @@
       </c>
       <c r="B4">
         <f>Controlled!B4/'Fight Time'!B4</f>
-        <v>0.33207070707070707</v>
+        <v>0.25191570881226055</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -30524,7 +31066,7 @@
       </c>
       <c r="B6">
         <f>Controlled!B6/'Fight Time'!B6</f>
-        <v>5.7949479940564638E-2</v>
+        <v>5.213903743315508E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -30587,7 +31129,7 @@
       </c>
       <c r="B13">
         <f>Controlled!B13/'Fight Time'!B13</f>
-        <v>5.0304878048780491E-2</v>
+        <v>4.5580110497237571E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -30776,7 +31318,7 @@
       </c>
       <c r="B34">
         <f>Controlled!B34/'Fight Time'!B34</f>
-        <v>0.47297297297297297</v>
+        <v>6.4575645756457564E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -31064,7 +31606,7 @@
       </c>
       <c r="B66">
         <f>Controlled!B66/'Fight Time'!B66</f>
-        <v>0.31964601769911505</v>
+        <v>0.29082125603864734</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -31514,7 +32056,7 @@
       </c>
       <c r="B116">
         <f>Controlled!B116/'Fight Time'!B116</f>
-        <v>9.5785440613026813E-3</v>
+        <v>8.1103000811030019E-3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -31532,7 +32074,7 @@
       </c>
       <c r="B118">
         <f>Controlled!B118/'Fight Time'!B118</f>
-        <v>0.25260778859527122</v>
+        <v>0.24399631829972387</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -31595,7 +32137,7 @@
       </c>
       <c r="B125">
         <f>Controlled!B125/'Fight Time'!B125</f>
-        <v>0.62700534759358284</v>
+        <v>0.36813186813186816</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -31694,7 +32236,7 @@
       </c>
       <c r="B136">
         <f>Controlled!B136/'Fight Time'!B136</f>
-        <v>4.4369747899159664E-2</v>
+        <v>4.2954767328343642E-2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -32243,7 +32785,7 @@
       </c>
       <c r="B197">
         <f>Controlled!B197/'Fight Time'!B197</f>
-        <v>0.39851268591426076</v>
+        <v>0.43518518518518517</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -32252,7 +32794,7 @@
       </c>
       <c r="B198">
         <f>Controlled!B198/'Fight Time'!B198</f>
-        <v>0.21099744245524296</v>
+        <v>0.18106796116504853</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -34035,6 +34577,78 @@
       <c r="B396">
         <f>Controlled!B396/'Fight Time'!B396</f>
         <v>5.3226034166313704E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B397">
+        <f>Controlled!B397/'Fight Time'!B397</f>
+        <v>0.16194158075601375</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>644</v>
+      </c>
+      <c r="B398">
+        <f>Controlled!B398/'Fight Time'!B398</f>
+        <v>0.17528735632183909</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>646</v>
+      </c>
+      <c r="B399">
+        <f>Controlled!B399/'Fight Time'!B399</f>
+        <v>7.6510721247563349E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>647</v>
+      </c>
+      <c r="B400">
+        <f>Controlled!B400/'Fight Time'!B400</f>
+        <v>0.17611111111111111</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>648</v>
+      </c>
+      <c r="B401">
+        <f>Controlled!B401/'Fight Time'!B401</f>
+        <v>0.20711354309165528</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>649</v>
+      </c>
+      <c r="B402">
+        <f>Controlled!B402/'Fight Time'!B402</f>
+        <v>0.10459965928449744</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>650</v>
+      </c>
+      <c r="B403">
+        <f>Controlled!B403/'Fight Time'!B403</f>
+        <v>0.1033091202582728</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>651</v>
+      </c>
+      <c r="B404">
+        <f>Controlled!B404/'Fight Time'!B404</f>
+        <v>2.0616570327552985E-2</v>
       </c>
     </row>
   </sheetData>
@@ -34044,10 +34658,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
-  <dimension ref="A1:C396"/>
+  <dimension ref="A1:C404"/>
   <sheetViews>
-    <sheetView topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="E338" sqref="E338"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="B365" sqref="B365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34089,8 +34703,8 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>6*60+36</f>
-        <v>396</v>
+        <f>8*60+42</f>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -34107,8 +34721,8 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>660+13</f>
-        <v>673</v>
+        <f>12*60+28</f>
+        <v>748</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -34167,8 +34781,8 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f>8*60+12</f>
-        <v>492</v>
+        <f>9*60+3</f>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -34347,7 +34961,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>37</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -34622,8 +35236,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <f>9*60+25</f>
-        <v>565</v>
+        <v>621</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -35049,8 +35662,8 @@
         <v>109</v>
       </c>
       <c r="B116">
-        <f>8*60+42</f>
-        <v>522</v>
+        <f>6*60+51</f>
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -35066,8 +35679,8 @@
         <v>111</v>
       </c>
       <c r="B118">
-        <f>660+59</f>
-        <v>719</v>
+        <f>11*60+43</f>
+        <v>703</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -35126,7 +35739,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>374</v>
+        <v>637</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -35219,7 +35832,8 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>425</v>
+        <f>7*60+19</f>
+        <v>439</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -35737,8 +36351,8 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <f>12*60+42</f>
-        <v>762</v>
+        <f>11*60+15</f>
+        <v>675</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -35746,7 +36360,8 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>391</v>
+        <f>6*60+52</f>
+        <v>412</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -37430,6 +38045,75 @@
       <c r="B396">
         <f>13*60+7</f>
         <v>787</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B397">
+        <f>12*60+56</f>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>644</v>
+      </c>
+      <c r="B398">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>646</v>
+      </c>
+      <c r="B399">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>647</v>
+      </c>
+      <c r="B400">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>648</v>
+      </c>
+      <c r="B401">
+        <f>12*60+11</f>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>649</v>
+      </c>
+      <c r="B402">
+        <f>9*60+47</f>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>650</v>
+      </c>
+      <c r="B403">
+        <f>11*60+48</f>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>651</v>
+      </c>
+      <c r="B404">
+        <f>14*60+25</f>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -37441,10 +38125,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A338" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AB74" sqref="AB74"/>
+      <selection pane="topRight" activeCell="A367" sqref="A367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37807,7 +38491,16 @@
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Control!A4</f>
-        <v>Ketlen Sousa</v>
+        <v>Ketlen Souza</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>161</v>
+      </c>
+      <c r="D6">
+        <v>160</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -37820,6 +38513,39 @@
       </c>
       <c r="H6">
         <v>2</v>
+      </c>
+      <c r="I6">
+        <v>0.53</v>
+      </c>
+      <c r="J6">
+        <v>0.4</v>
+      </c>
+      <c r="K6">
+        <v>0.13</v>
+      </c>
+      <c r="L6">
+        <v>0.4</v>
+      </c>
+      <c r="M6">
+        <v>0.33</v>
+      </c>
+      <c r="N6">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="8">
+        <v>4.92</v>
+      </c>
+      <c r="P6" s="8">
+        <v>4.46</v>
+      </c>
+      <c r="T6">
+        <v>0.43</v>
+      </c>
+      <c r="U6">
+        <v>0.25</v>
+      </c>
+      <c r="V6">
+        <v>0.64</v>
       </c>
       <c r="W6">
         <f>Control!B4</f>
@@ -37827,7 +38553,7 @@
       </c>
       <c r="X6">
         <f>'Ctrl pct'!B4</f>
-        <v>0.13194444444444445</v>
+        <v>0.10009578544061302</v>
       </c>
       <c r="Y6">
         <f>Controlled!B4</f>
@@ -37835,11 +38561,14 @@
       </c>
       <c r="Z6">
         <f>'Controlled pct'!B4</f>
-        <v>0.33207070707070707</v>
+        <v>0.25191570881226055</v>
       </c>
       <c r="AA6">
         <f>'Fight Time'!B4</f>
-        <v>396</v>
+        <v>522</v>
+      </c>
+      <c r="AB6">
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
@@ -37885,6 +38614,15 @@
         <f>Control!A6</f>
         <v>Raphael Estevam</v>
       </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>173</v>
+      </c>
+      <c r="D8">
+        <v>175</v>
+      </c>
       <c r="E8">
         <v>13</v>
       </c>
@@ -37896,6 +38634,39 @@
       </c>
       <c r="H8">
         <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.31</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.23</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.46</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>2.06</v>
+      </c>
+      <c r="P8" s="8">
+        <v>2.94</v>
+      </c>
+      <c r="T8">
+        <v>6.41</v>
+      </c>
+      <c r="U8">
+        <v>0.35</v>
+      </c>
+      <c r="V8">
+        <v>0.6</v>
       </c>
       <c r="W8">
         <f>Control!B6</f>
@@ -37903,7 +38674,7 @@
       </c>
       <c r="X8">
         <f>'Ctrl pct'!B6</f>
-        <v>0.75532441802872707</v>
+        <v>0.67959001782531192</v>
       </c>
       <c r="Y8">
         <f>Controlled!B6</f>
@@ -37911,11 +38682,14 @@
       </c>
       <c r="Z8">
         <f>'Controlled pct'!B6</f>
-        <v>5.7949479940564638E-2</v>
+        <v>5.213903743315508E-2</v>
       </c>
       <c r="AA8">
         <f>'Fight Time'!B6</f>
-        <v>673</v>
+        <v>748</v>
+      </c>
+      <c r="AB8">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
@@ -38246,6 +39020,15 @@
         <f>Control!A13</f>
         <v>Rodolfo Vieira</v>
       </c>
+      <c r="B15">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>183</v>
+      </c>
+      <c r="D15">
+        <v>185</v>
+      </c>
       <c r="E15">
         <v>10</v>
       </c>
@@ -38257,6 +39040,39 @@
       </c>
       <c r="H15">
         <v>3</v>
+      </c>
+      <c r="I15">
+        <v>0.1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.9</v>
+      </c>
+      <c r="L15">
+        <v>0.33</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.67</v>
+      </c>
+      <c r="O15" s="8">
+        <v>3.33</v>
+      </c>
+      <c r="P15" s="8">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="T15">
+        <v>3.52</v>
+      </c>
+      <c r="U15">
+        <v>0.26</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
       </c>
       <c r="W15">
         <f>Control!B13</f>
@@ -38264,7 +39080,7 @@
       </c>
       <c r="X15">
         <f>'Ctrl pct'!B13</f>
-        <v>0.34908536585365851</v>
+        <v>0.31629834254143646</v>
       </c>
       <c r="Y15">
         <f>Controlled!B13</f>
@@ -38272,11 +39088,14 @@
       </c>
       <c r="Z15">
         <f>'Controlled pct'!B13</f>
-        <v>5.0304878048780491E-2</v>
+        <v>4.5580110497237571E-2</v>
       </c>
       <c r="AA15">
         <f>'Fight Time'!B13</f>
-        <v>492</v>
+        <v>543</v>
+      </c>
+      <c r="AB15">
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
@@ -39437,6 +40256,15 @@
         <f>Control!A34</f>
         <v>Nick Klein</v>
       </c>
+      <c r="B36">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>185</v>
+      </c>
+      <c r="D36">
+        <v>196</v>
+      </c>
       <c r="E36">
         <v>6</v>
       </c>
@@ -39448,6 +40276,39 @@
       </c>
       <c r="H36">
         <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0.33</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0.5</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0.17</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" s="8">
+        <v>3.22</v>
+      </c>
+      <c r="P36" s="8">
+        <v>3.33</v>
+      </c>
+      <c r="T36">
+        <v>3.33</v>
+      </c>
+      <c r="U36">
+        <v>0.2</v>
+      </c>
+      <c r="V36">
+        <v>0.6</v>
       </c>
       <c r="W36">
         <f>Control!B34</f>
@@ -39455,7 +40316,7 @@
       </c>
       <c r="X36">
         <f>'Ctrl pct'!B34</f>
-        <v>2.810810810810811</v>
+        <v>0.3837638376383764</v>
       </c>
       <c r="Y36">
         <f>Controlled!B34</f>
@@ -39463,11 +40324,14 @@
       </c>
       <c r="Z36">
         <f>'Controlled pct'!B34</f>
-        <v>0.47297297297297297</v>
+        <v>6.4575645756457564E-2</v>
       </c>
       <c r="AA36">
         <f>'Fight Time'!B34</f>
-        <v>37</v>
+        <v>271</v>
+      </c>
+      <c r="AB36">
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.3">
@@ -40316,6 +41180,15 @@
         <f>Control!A54</f>
         <v>Danny Silva</v>
       </c>
+      <c r="B56">
+        <v>28</v>
+      </c>
+      <c r="C56">
+        <v>180</v>
+      </c>
+      <c r="D56">
+        <v>178</v>
+      </c>
       <c r="E56">
         <v>10</v>
       </c>
@@ -40327,6 +41200,39 @@
       </c>
       <c r="H56">
         <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0.5</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0.5</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" s="8">
+        <v>7.35</v>
+      </c>
+      <c r="P56" s="8">
+        <v>7.96</v>
+      </c>
+      <c r="T56">
+        <v>2.33</v>
+      </c>
+      <c r="U56">
+        <v>0.46</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
       </c>
       <c r="W56">
         <f>Control!B54</f>
@@ -40347,6 +41253,9 @@
       <c r="AA56">
         <f>'Fight Time'!B54</f>
         <v>900</v>
+      </c>
+      <c r="AB56">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.3">
@@ -40859,6 +41768,15 @@
         <f>Control!A66</f>
         <v>Esteban Ribovics</v>
       </c>
+      <c r="B68">
+        <v>29</v>
+      </c>
+      <c r="C68">
+        <v>178</v>
+      </c>
+      <c r="D68">
+        <v>175</v>
+      </c>
       <c r="E68">
         <v>14</v>
       </c>
@@ -40870,6 +41788,39 @@
       </c>
       <c r="H68">
         <v>2</v>
+      </c>
+      <c r="I68">
+        <v>0.5</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0.36</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" s="8">
+        <v>8.08</v>
+      </c>
+      <c r="P68" s="8">
+        <v>5.92</v>
+      </c>
+      <c r="T68">
+        <v>0.48</v>
+      </c>
+      <c r="U68">
+        <v>0.66</v>
+      </c>
+      <c r="V68">
+        <v>0.63</v>
       </c>
       <c r="W68">
         <f>Control!B66</f>
@@ -40877,7 +41828,7 @@
       </c>
       <c r="X68">
         <f>'Ctrl pct'!B66</f>
-        <v>3.7522123893805305E-2</v>
+        <v>3.4138486312399352E-2</v>
       </c>
       <c r="Y68">
         <f>Controlled!B66</f>
@@ -40885,11 +41836,14 @@
       </c>
       <c r="Z68">
         <f>'Controlled pct'!B66</f>
-        <v>0.31964601769911505</v>
+        <v>0.29082125603864734</v>
       </c>
       <c r="AA68">
         <f>'Fight Time'!B66</f>
-        <v>565</v>
+        <v>621</v>
+      </c>
+      <c r="AB68">
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.3">
@@ -43530,6 +44484,15 @@
         <f>Control!A116</f>
         <v>Kevin Vallejos</v>
       </c>
+      <c r="B118">
+        <v>23</v>
+      </c>
+      <c r="C118">
+        <v>170</v>
+      </c>
+      <c r="D118">
+        <v>173</v>
+      </c>
       <c r="E118">
         <v>15</v>
       </c>
@@ -43542,25 +44505,61 @@
       <c r="H118">
         <v>0</v>
       </c>
+      <c r="I118">
+        <v>0.73</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0.13</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0.13</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" s="8">
+        <v>6.48</v>
+      </c>
+      <c r="P118" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0.66</v>
+      </c>
       <c r="W118">
         <f>Control!B116</f>
-        <v>5.5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="X118">
         <f>'Ctrl pct'!B116</f>
-        <v>1.0536398467432951E-2</v>
+        <v>1.29764801297648E-2</v>
       </c>
       <c r="Y118">
         <f>Controlled!B116</f>
-        <v>5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="Z118">
         <f>'Controlled pct'!B116</f>
-        <v>9.5785440613026813E-3</v>
+        <v>8.1103000811030019E-3</v>
       </c>
       <c r="AA118">
         <f>'Fight Time'!B116</f>
-        <v>522</v>
+        <v>411</v>
+      </c>
+      <c r="AB118">
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.3">
@@ -43606,6 +44605,15 @@
         <f>Control!A118</f>
         <v>Elizeu Santos</v>
       </c>
+      <c r="B120">
+        <v>38</v>
+      </c>
+      <c r="C120">
+        <v>180</v>
+      </c>
+      <c r="D120">
+        <v>178</v>
+      </c>
       <c r="E120">
         <v>25</v>
       </c>
@@ -43618,25 +44626,61 @@
       <c r="H120">
         <v>5</v>
       </c>
+      <c r="I120">
+        <v>0.6</v>
+      </c>
+      <c r="J120">
+        <v>0.22</v>
+      </c>
+      <c r="K120">
+        <v>0.12</v>
+      </c>
+      <c r="L120">
+        <v>0.22</v>
+      </c>
+      <c r="M120">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N120">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O120" s="8">
+        <v>4.26</v>
+      </c>
+      <c r="P120" s="8">
+        <v>3.52</v>
+      </c>
+      <c r="T120">
+        <v>0.75</v>
+      </c>
+      <c r="U120">
+        <v>0.2</v>
+      </c>
+      <c r="V120">
+        <v>0.68</v>
+      </c>
       <c r="W120">
         <f>Control!B118</f>
-        <v>90.5</v>
+        <v>89.529411764705884</v>
       </c>
       <c r="X120">
         <f>'Ctrl pct'!B118</f>
-        <v>0.1258692628650904</v>
+        <v>0.12735335955150198</v>
       </c>
       <c r="Y120">
         <f>Controlled!B118</f>
-        <v>181.625</v>
+        <v>171.52941176470588</v>
       </c>
       <c r="Z120">
         <f>'Controlled pct'!B118</f>
-        <v>0.25260778859527122</v>
+        <v>0.24399631829972387</v>
       </c>
       <c r="AA120">
         <f>'Fight Time'!B118</f>
-        <v>719</v>
+        <v>703</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.3">
@@ -43971,6 +45015,15 @@
         <f>Control!A125</f>
         <v>Nathan Fletcher</v>
       </c>
+      <c r="B127">
+        <v>27</v>
+      </c>
+      <c r="C127">
+        <v>170</v>
+      </c>
+      <c r="D127">
+        <v>178</v>
+      </c>
       <c r="E127">
         <v>9</v>
       </c>
@@ -43982,6 +45035,39 @@
       </c>
       <c r="H127">
         <v>1</v>
+      </c>
+      <c r="I127">
+        <v>0.11</v>
+      </c>
+      <c r="J127">
+        <v>0.5</v>
+      </c>
+      <c r="K127">
+        <v>0.78</v>
+      </c>
+      <c r="L127">
+        <v>0.5</v>
+      </c>
+      <c r="M127">
+        <v>0.11</v>
+      </c>
+      <c r="N127">
+        <v>0.5</v>
+      </c>
+      <c r="O127" s="8">
+        <v>3.44</v>
+      </c>
+      <c r="P127" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="T127">
+        <v>3.53</v>
+      </c>
+      <c r="U127">
+        <v>0.38</v>
+      </c>
+      <c r="V127">
+        <v>0.5</v>
       </c>
       <c r="W127">
         <f>Control!B125</f>
@@ -43989,7 +45075,7 @@
       </c>
       <c r="X127">
         <f>'Ctrl pct'!B125</f>
-        <v>0.5935828877005348</v>
+        <v>0.34850863422291994</v>
       </c>
       <c r="Y127">
         <f>Controlled!B125</f>
@@ -43997,11 +45083,14 @@
       </c>
       <c r="Z127">
         <f>'Controlled pct'!B125</f>
-        <v>0.62700534759358284</v>
+        <v>0.36813186813186816</v>
       </c>
       <c r="AA127">
         <f>'Fight Time'!B125</f>
-        <v>374</v>
+        <v>637</v>
+      </c>
+      <c r="AB127">
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.3">
@@ -44009,6 +45098,15 @@
         <f>Control!A126</f>
         <v>Andrey Pulyaev</v>
       </c>
+      <c r="B128">
+        <v>27</v>
+      </c>
+      <c r="C128">
+        <v>193</v>
+      </c>
+      <c r="D128">
+        <v>199</v>
+      </c>
       <c r="E128">
         <v>9</v>
       </c>
@@ -44020,6 +45118,39 @@
       </c>
       <c r="H128">
         <v>1</v>
+      </c>
+      <c r="I128">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J128">
+        <v>0.33</v>
+      </c>
+      <c r="K128">
+        <v>0.22</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0.22</v>
+      </c>
+      <c r="N128">
+        <v>0.67</v>
+      </c>
+      <c r="O128" s="8">
+        <v>3.87</v>
+      </c>
+      <c r="P128" s="8">
+        <v>3.93</v>
+      </c>
+      <c r="T128">
+        <v>0.5</v>
+      </c>
+      <c r="U128">
+        <v>0.16</v>
+      </c>
+      <c r="V128">
+        <v>0.85</v>
       </c>
       <c r="W128">
         <f>Control!B126</f>
@@ -44040,6 +45171,9 @@
       <c r="AA128">
         <f>'Fight Time'!B126</f>
         <v>900</v>
+      </c>
+      <c r="AB128">
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.3">
@@ -44443,6 +45577,15 @@
         <f>Control!A136</f>
         <v>Chris Duncan</v>
       </c>
+      <c r="B138">
+        <v>32</v>
+      </c>
+      <c r="C138">
+        <v>178</v>
+      </c>
+      <c r="D138">
+        <v>182</v>
+      </c>
       <c r="E138">
         <v>13</v>
       </c>
@@ -44454,6 +45597,39 @@
       </c>
       <c r="H138">
         <v>1</v>
+      </c>
+      <c r="I138">
+        <v>0.54</v>
+      </c>
+      <c r="J138">
+        <v>0.5</v>
+      </c>
+      <c r="K138">
+        <v>0.23</v>
+      </c>
+      <c r="L138">
+        <v>0.5</v>
+      </c>
+      <c r="M138">
+        <v>0.23</v>
+      </c>
+      <c r="N138">
+        <v>0.5</v>
+      </c>
+      <c r="O138" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="P138" s="8">
+        <v>3.63</v>
+      </c>
+      <c r="T138">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U138">
+        <v>0.43</v>
+      </c>
+      <c r="V138">
+        <v>0.37</v>
       </c>
       <c r="W138">
         <f>Control!B136</f>
@@ -44461,7 +45637,7 @@
       </c>
       <c r="X138">
         <f>'Ctrl pct'!B136</f>
-        <v>0.30151260504201682</v>
+        <v>0.29189716889033518</v>
       </c>
       <c r="Y138">
         <f>Controlled!B136</f>
@@ -44469,11 +45645,14 @@
       </c>
       <c r="Z138">
         <f>'Controlled pct'!B136</f>
-        <v>4.4369747899159664E-2</v>
+        <v>4.2954767328343642E-2</v>
       </c>
       <c r="AA138">
         <f>'Fight Time'!B136</f>
-        <v>425</v>
+        <v>439</v>
+      </c>
+      <c r="AB138">
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.3">
@@ -47223,6 +48402,15 @@
         <f>Control!A197</f>
         <v>Nora Cornolle</v>
       </c>
+      <c r="B199">
+        <v>35</v>
+      </c>
+      <c r="C199">
+        <v>169</v>
+      </c>
+      <c r="D199">
+        <v>170</v>
+      </c>
       <c r="E199">
         <v>9</v>
       </c>
@@ -47235,25 +48423,61 @@
       <c r="H199">
         <v>1</v>
       </c>
+      <c r="I199">
+        <v>0.67</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0.22</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0.11</v>
+      </c>
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="O199" s="8">
+        <v>3.07</v>
+      </c>
+      <c r="P199" s="8">
+        <v>1.91</v>
+      </c>
+      <c r="T199">
+        <v>0.33</v>
+      </c>
+      <c r="U199">
+        <v>0.11</v>
+      </c>
+      <c r="V199">
+        <v>0.5</v>
+      </c>
       <c r="W199">
         <f>Control!B197</f>
-        <v>132.33333333333334</v>
+        <v>122.5</v>
       </c>
       <c r="X199">
         <f>'Ctrl pct'!B197</f>
-        <v>0.17366579177602801</v>
+        <v>0.18148148148148149</v>
       </c>
       <c r="Y199">
         <f>Controlled!B197</f>
-        <v>303.66666666666669</v>
+        <v>293.75</v>
       </c>
       <c r="Z199">
         <f>'Controlled pct'!B197</f>
-        <v>0.39851268591426076</v>
+        <v>0.43518518518518517</v>
       </c>
       <c r="AA199">
         <f>'Fight Time'!B197</f>
-        <v>762</v>
+        <v>675</v>
+      </c>
+      <c r="AB199">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.3">
@@ -47261,6 +48485,15 @@
         <f>Control!A198</f>
         <v>Tresean Gore</v>
       </c>
+      <c r="B200">
+        <v>31</v>
+      </c>
+      <c r="C200">
+        <v>183</v>
+      </c>
+      <c r="D200">
+        <v>191</v>
+      </c>
       <c r="E200">
         <v>5</v>
       </c>
@@ -47273,25 +48506,61 @@
       <c r="H200">
         <v>3</v>
       </c>
+      <c r="I200">
+        <v>0.2</v>
+      </c>
+      <c r="J200">
+        <v>0.67</v>
+      </c>
+      <c r="K200">
+        <v>0.6</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0.2</v>
+      </c>
+      <c r="N200">
+        <v>0.33</v>
+      </c>
+      <c r="O200" s="8">
+        <v>2.77</v>
+      </c>
+      <c r="P200" s="8">
+        <v>8.16</v>
+      </c>
+      <c r="T200">
+        <v>2.62</v>
+      </c>
+      <c r="U200">
+        <v>0.75</v>
+      </c>
+      <c r="V200">
+        <v>0.83</v>
+      </c>
       <c r="W200">
         <f>Control!B198</f>
-        <v>71.75</v>
+        <v>58.6</v>
       </c>
       <c r="X200">
         <f>'Ctrl pct'!B198</f>
-        <v>0.18350383631713554</v>
+        <v>0.14223300970873787</v>
       </c>
       <c r="Y200">
         <f>Controlled!B198</f>
-        <v>82.5</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="Z200">
         <f>'Controlled pct'!B198</f>
-        <v>0.21099744245524296</v>
+        <v>0.18106796116504853</v>
       </c>
       <c r="AA200">
         <f>'Fight Time'!B198</f>
-        <v>391</v>
+        <v>412</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.3">
@@ -62120,182 +63389,670 @@
       </c>
     </row>
     <row r="399" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A399" t="str">
+        <f>Control!A397</f>
+        <v>Piera Rodriguez</v>
+      </c>
+      <c r="B399">
+        <v>32</v>
+      </c>
+      <c r="C399">
+        <v>161</v>
+      </c>
+      <c r="D399">
+        <v>161</v>
+      </c>
+      <c r="E399">
+        <v>10</v>
+      </c>
+      <c r="F399">
+        <v>2</v>
+      </c>
+      <c r="G399">
+        <v>3</v>
+      </c>
+      <c r="H399">
+        <v>2</v>
+      </c>
+      <c r="I399">
+        <v>0.5</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <v>0</v>
+      </c>
+      <c r="L399">
+        <v>0.5</v>
+      </c>
+      <c r="M399">
+        <v>0.5</v>
+      </c>
+      <c r="N399">
+        <v>0</v>
+      </c>
+      <c r="O399" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="P399" s="8">
+        <v>2.63</v>
+      </c>
+      <c r="T399">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="U399">
+        <v>0.51</v>
+      </c>
+      <c r="V399">
+        <v>0.66</v>
+      </c>
       <c r="W399">
         <f>Control!B397</f>
-        <v>0</v>
+        <v>249.66666666666666</v>
       </c>
       <c r="X399">
         <f>'Ctrl pct'!B397</f>
-        <v>0</v>
+        <v>0.3217353951890034</v>
       </c>
       <c r="Y399">
         <f>Controlled!B397</f>
-        <v>0</v>
+        <v>125.66666666666667</v>
       </c>
       <c r="Z399">
         <f>'Controlled pct'!B397</f>
-        <v>0</v>
+        <v>0.16194158075601375</v>
       </c>
       <c r="AA399">
         <f>'Fight Time'!B397</f>
-        <v>0</v>
+        <v>776</v>
+      </c>
+      <c r="AB399">
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A400" t="str">
+        <f>Control!A398</f>
+        <v>Felipe Bunes</v>
+      </c>
+      <c r="B400">
+        <v>35</v>
+      </c>
+      <c r="C400">
+        <v>170</v>
+      </c>
+      <c r="D400">
+        <v>175</v>
+      </c>
+      <c r="E400">
+        <v>14</v>
+      </c>
+      <c r="F400">
+        <v>7</v>
+      </c>
+      <c r="G400">
+        <v>1</v>
+      </c>
+      <c r="H400">
+        <v>1</v>
+      </c>
+      <c r="I400">
+        <v>0.21</v>
+      </c>
+      <c r="J400">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K400">
+        <v>0.64</v>
+      </c>
+      <c r="L400">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M400">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N400">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O400" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="P400" s="8">
+        <v>7.86</v>
+      </c>
+      <c r="T400">
+        <v>2.59</v>
+      </c>
+      <c r="U400">
+        <v>0.25</v>
+      </c>
+      <c r="V400">
+        <v>0</v>
+      </c>
       <c r="W400">
         <f>Control!B398</f>
-        <v>0</v>
+        <v>75.5</v>
       </c>
       <c r="X400">
         <f>'Ctrl pct'!B398</f>
-        <v>0</v>
+        <v>0.21695402298850575</v>
       </c>
       <c r="Y400">
         <f>Controlled!B398</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="Z400">
         <f>'Controlled pct'!B398</f>
-        <v>0</v>
+        <v>0.17528735632183909</v>
       </c>
       <c r="AA400">
         <f>'Fight Time'!B398</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="23:27" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+      <c r="AB400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A401" t="str">
+        <f>Control!A399</f>
+        <v>Rinya Nakamura</v>
+      </c>
+      <c r="B401">
+        <v>30</v>
+      </c>
+      <c r="C401">
+        <v>170</v>
+      </c>
+      <c r="D401">
+        <v>174</v>
+      </c>
+      <c r="E401">
+        <v>9</v>
+      </c>
+      <c r="F401">
+        <v>1</v>
+      </c>
+      <c r="G401">
+        <v>3</v>
+      </c>
+      <c r="H401">
+        <v>1</v>
+      </c>
+      <c r="I401">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>0.11</v>
+      </c>
+      <c r="L401">
+        <v>0</v>
+      </c>
+      <c r="M401">
+        <v>0.33</v>
+      </c>
+      <c r="N401">
+        <v>1</v>
+      </c>
+      <c r="O401" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="P401" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="T401">
+        <v>2.63</v>
+      </c>
+      <c r="U401">
+        <v>0.81</v>
+      </c>
+      <c r="V401">
+        <v>1</v>
+      </c>
       <c r="W401">
         <f>Control!B399</f>
-        <v>0</v>
+        <v>363.25</v>
       </c>
       <c r="X401">
         <f>'Ctrl pct'!B399</f>
-        <v>0</v>
+        <v>0.70808966861598444</v>
       </c>
       <c r="Y401">
         <f>Controlled!B399</f>
-        <v>0</v>
+        <v>39.25</v>
       </c>
       <c r="Z401">
         <f>'Controlled pct'!B399</f>
-        <v>0</v>
+        <v>7.6510721247563349E-2</v>
       </c>
       <c r="AA401">
         <f>'Fight Time'!B399</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="23:27" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+      <c r="AB401">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A402" t="str">
+        <f>Control!A400</f>
+        <v>Karol Rosa</v>
+      </c>
+      <c r="B402">
+        <v>30</v>
+      </c>
+      <c r="C402">
+        <v>165</v>
+      </c>
+      <c r="D402">
+        <v>171</v>
+      </c>
+      <c r="E402">
+        <v>18</v>
+      </c>
+      <c r="F402">
+        <v>7</v>
+      </c>
+      <c r="G402">
+        <v>7</v>
+      </c>
+      <c r="H402">
+        <v>4</v>
+      </c>
+      <c r="I402">
+        <v>0.22</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>0.11</v>
+      </c>
+      <c r="L402">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M402">
+        <v>0.67</v>
+      </c>
+      <c r="N402">
+        <v>0.71</v>
+      </c>
+      <c r="O402" s="8">
+        <v>6.22</v>
+      </c>
+      <c r="P402" s="8">
+        <v>4.84</v>
+      </c>
+      <c r="T402">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="U402">
+        <v>0.46</v>
+      </c>
+      <c r="V402">
+        <v>0.7</v>
+      </c>
       <c r="W402">
         <f>Control!B400</f>
-        <v>0</v>
+        <v>239.1</v>
       </c>
       <c r="X402">
         <f>'Ctrl pct'!B400</f>
-        <v>0</v>
+        <v>0.26566666666666666</v>
       </c>
       <c r="Y402">
         <f>Controlled!B400</f>
-        <v>0</v>
+        <v>158.5</v>
       </c>
       <c r="Z402">
         <f>'Controlled pct'!B400</f>
-        <v>0</v>
+        <v>0.17611111111111111</v>
       </c>
       <c r="AA402">
         <f>'Fight Time'!B400</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="23:27" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+      <c r="AB402">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A403" t="str">
+        <f>Control!A401</f>
+        <v>Elves Brener</v>
+      </c>
+      <c r="B403">
+        <v>27</v>
+      </c>
+      <c r="C403">
+        <v>178</v>
+      </c>
+      <c r="D403">
+        <v>183</v>
+      </c>
+      <c r="E403">
+        <v>16</v>
+      </c>
+      <c r="F403">
+        <v>5</v>
+      </c>
+      <c r="G403">
+        <v>3</v>
+      </c>
+      <c r="H403">
+        <v>2</v>
+      </c>
+      <c r="I403">
+        <v>0.19</v>
+      </c>
+      <c r="J403">
+        <v>0.2</v>
+      </c>
+      <c r="K403">
+        <v>0.69</v>
+      </c>
+      <c r="L403">
+        <v>0</v>
+      </c>
+      <c r="M403">
+        <v>0.13</v>
+      </c>
+      <c r="N403">
+        <v>0.8</v>
+      </c>
+      <c r="O403" s="8">
+        <v>3.99</v>
+      </c>
+      <c r="P403" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="T403">
+        <v>1.23</v>
+      </c>
+      <c r="U403">
+        <v>0.23</v>
+      </c>
+      <c r="V403">
+        <v>0.76</v>
+      </c>
       <c r="W403">
         <f>Control!B401</f>
-        <v>0</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="X403">
         <f>'Ctrl pct'!B401</f>
-        <v>0</v>
+        <v>0.10068399452804377</v>
       </c>
       <c r="Y403">
         <f>Controlled!B401</f>
-        <v>0</v>
+        <v>151.4</v>
       </c>
       <c r="Z403">
         <f>'Controlled pct'!B401</f>
-        <v>0</v>
+        <v>0.20711354309165528</v>
       </c>
       <c r="AA403">
         <f>'Fight Time'!B401</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="23:27" x14ac:dyDescent="0.3">
+        <v>731</v>
+      </c>
+      <c r="AB403">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A404" t="str">
+        <f>Control!A402</f>
+        <v>Mateusz Rebecki</v>
+      </c>
+      <c r="B404">
+        <v>32</v>
+      </c>
+      <c r="C404">
+        <v>169</v>
+      </c>
+      <c r="D404">
+        <v>168</v>
+      </c>
+      <c r="E404">
+        <v>20</v>
+      </c>
+      <c r="F404">
+        <v>2</v>
+      </c>
+      <c r="G404">
+        <v>4</v>
+      </c>
+      <c r="H404">
+        <v>1</v>
+      </c>
+      <c r="I404">
+        <v>0.45</v>
+      </c>
+      <c r="J404">
+        <v>1</v>
+      </c>
+      <c r="K404">
+        <v>0.35</v>
+      </c>
+      <c r="L404">
+        <v>0</v>
+      </c>
+      <c r="M404">
+        <v>0.2</v>
+      </c>
+      <c r="N404">
+        <v>0</v>
+      </c>
+      <c r="O404" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="P404" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="T404">
+        <v>3.84</v>
+      </c>
+      <c r="U404">
+        <v>0.75</v>
+      </c>
+      <c r="V404">
+        <v>0.45</v>
+      </c>
       <c r="W404">
         <f>Control!B402</f>
-        <v>0</v>
+        <v>209.6</v>
       </c>
       <c r="X404">
         <f>'Ctrl pct'!B402</f>
-        <v>0</v>
+        <v>0.35706984667802383</v>
       </c>
       <c r="Y404">
         <f>Controlled!B402</f>
-        <v>0</v>
+        <v>61.4</v>
       </c>
       <c r="Z404">
         <f>'Controlled pct'!B402</f>
-        <v>0</v>
+        <v>0.10459965928449744</v>
       </c>
       <c r="AA404">
         <f>'Fight Time'!B402</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="23:27" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+      <c r="AB404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A405" t="str">
+        <f>Control!A403</f>
+        <v>Tatsuro Taira</v>
+      </c>
+      <c r="B405">
+        <v>25</v>
+      </c>
+      <c r="C405">
+        <v>170</v>
+      </c>
+      <c r="D405">
+        <v>178</v>
+      </c>
+      <c r="E405">
+        <v>16</v>
+      </c>
+      <c r="F405">
+        <v>1</v>
+      </c>
+      <c r="G405">
+        <v>6</v>
+      </c>
+      <c r="H405">
+        <v>1</v>
+      </c>
+      <c r="I405">
+        <v>0.31</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>0.44</v>
+      </c>
+      <c r="L405">
+        <v>0</v>
+      </c>
+      <c r="M405">
+        <v>0.25</v>
+      </c>
+      <c r="N405">
+        <v>1</v>
+      </c>
+      <c r="O405" s="8">
+        <v>2.99</v>
+      </c>
+      <c r="P405" s="8">
+        <v>2.69</v>
+      </c>
+      <c r="T405">
+        <v>2.73</v>
+      </c>
+      <c r="U405">
+        <v>0.44</v>
+      </c>
+      <c r="V405">
+        <v>0.45</v>
+      </c>
       <c r="W405">
         <f>Control!B403</f>
-        <v>0</v>
+        <v>373.57142857142856</v>
       </c>
       <c r="X405">
         <f>'Ctrl pct'!B403</f>
-        <v>0</v>
+        <v>0.52764326069410816</v>
       </c>
       <c r="Y405">
         <f>Controlled!B403</f>
-        <v>0</v>
+        <v>73.142857142857139</v>
       </c>
       <c r="Z405">
         <f>'Controlled pct'!B403</f>
-        <v>0</v>
+        <v>0.1033091202582728</v>
       </c>
       <c r="AA405">
         <f>'Fight Time'!B403</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="23:27" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+      <c r="AB405">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A406" t="str">
+        <f>Control!A404</f>
+        <v>Amir Albazi</v>
+      </c>
+      <c r="B406">
+        <v>31</v>
+      </c>
+      <c r="C406">
+        <v>165</v>
+      </c>
+      <c r="D406">
+        <v>173</v>
+      </c>
+      <c r="E406">
+        <v>17</v>
+      </c>
+      <c r="F406">
+        <v>2</v>
+      </c>
+      <c r="G406">
+        <v>5</v>
+      </c>
+      <c r="H406">
+        <v>1</v>
+      </c>
+      <c r="I406">
+        <v>0.35</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>0.47</v>
+      </c>
+      <c r="L406">
+        <v>0</v>
+      </c>
+      <c r="M406">
+        <v>0.18</v>
+      </c>
+      <c r="N406">
+        <v>1</v>
+      </c>
+      <c r="O406" s="8">
+        <v>2.72</v>
+      </c>
+      <c r="P406" s="8">
+        <v>3.71</v>
+      </c>
+      <c r="T406">
+        <v>1.39</v>
+      </c>
+      <c r="U406">
+        <v>0.32</v>
+      </c>
+      <c r="V406">
+        <v>0.5</v>
+      </c>
       <c r="W406">
         <f>Control!B404</f>
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="X406">
         <f>'Ctrl pct'!B404</f>
-        <v>0</v>
+        <v>0.24046242774566473</v>
       </c>
       <c r="Y406">
         <f>Controlled!B404</f>
-        <v>0</v>
+        <v>17.833333333333332</v>
       </c>
       <c r="Z406">
         <f>'Controlled pct'!B404</f>
-        <v>0</v>
+        <v>2.0616570327552985E-2</v>
       </c>
       <c r="AA406">
         <f>'Fight Time'!B404</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="23:27" x14ac:dyDescent="0.3">
+        <v>865</v>
+      </c>
+      <c r="AB406">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W407">
         <f>Control!B405</f>
         <v>0</v>
@@ -62317,7 +64074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W408">
         <f>Control!B406</f>
         <v>0</v>
@@ -62339,7 +64096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W409">
         <f>Control!B407</f>
         <v>0</v>
@@ -62361,7 +64118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W410">
         <f>Control!B408</f>
         <v>0</v>
@@ -62383,7 +64140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W411">
         <f>Control!B409</f>
         <v>0</v>
@@ -62405,7 +64162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W412">
         <f>Control!B410</f>
         <v>0</v>
@@ -62427,7 +64184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W413">
         <f>Control!B411</f>
         <v>0</v>
@@ -62449,7 +64206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W414">
         <f>Control!B412</f>
         <v>0</v>
@@ -62471,7 +64228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W415">
         <f>Control!B413</f>
         <v>0</v>
@@ -62493,7 +64250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W416">
         <f>Control!B414</f>
         <v>0</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15360BF7-CF19-4D3E-83A2-A5686D34E8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58454A8-0E7C-4F76-856C-24A04B16ED45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="11568" yWindow="0" windowWidth="11472" windowHeight="12000" firstSheet="3" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="653">
   <si>
     <t>Khaos</t>
   </si>
@@ -1987,6 +1987,9 @@
   <si>
     <t>Amir Albazi</t>
   </si>
+  <si>
+    <t>Hyun Sung Park</t>
+  </si>
 </sst>
 </file>
 
@@ -2406,10 +2409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
-  <dimension ref="A1:AE404"/>
+  <dimension ref="A1:AE405"/>
   <sheetViews>
-    <sheetView topLeftCell="A349" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L365" sqref="L365"/>
+    <sheetView topLeftCell="A392" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D413" sqref="D413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14305,7 +14308,7 @@
         <v>628</v>
       </c>
       <c r="B383" s="1">
-        <f t="shared" ref="B383:B404" si="7" xml:space="preserve"> AVERAGE(C383:BC383)</f>
+        <f t="shared" ref="B383:B405" si="7" xml:space="preserve"> AVERAGE(C383:BC383)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="C383">
@@ -14898,6 +14901,24 @@
       </c>
       <c r="H404">
         <v>9</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>652</v>
+      </c>
+      <c r="B405" s="1">
+        <f t="shared" si="7"/>
+        <v>113.66666666666667</v>
+      </c>
+      <c r="C405">
+        <v>107</v>
+      </c>
+      <c r="D405">
+        <v>201</v>
+      </c>
+      <c r="E405">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -14908,10 +14929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
-  <dimension ref="A1:B404"/>
+  <dimension ref="A1:B405"/>
   <sheetViews>
     <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="B396" sqref="B396:B404"/>
+      <selection activeCell="B404" sqref="B404:B405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18555,6 +18576,15 @@
         <v>0.24046242774566473</v>
       </c>
     </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>652</v>
+      </c>
+      <c r="B405">
+        <f>Control!B405/'Fight Time'!B405</f>
+        <v>0.29991204925241866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18562,10 +18592,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
-  <dimension ref="A1:AE404"/>
+  <dimension ref="A1:AE405"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G199" sqref="G199"/>
+    <sheetView topLeftCell="A400" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B404" sqref="B404:B405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30264,7 +30294,7 @@
         <v>623</v>
       </c>
       <c r="B378" s="1">
-        <f t="shared" ref="B378:B404" si="6">AVERAGE(C378:BA378)</f>
+        <f t="shared" ref="B378:B405" si="6">AVERAGE(C378:BA378)</f>
         <v>256.39999999999998</v>
       </c>
       <c r="C378">
@@ -30994,6 +31024,24 @@
         <v>58</v>
       </c>
       <c r="H404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>652</v>
+      </c>
+      <c r="B405" s="1">
+        <f t="shared" si="6"/>
+        <v>52.666666666666664</v>
+      </c>
+      <c r="C405">
+        <v>158</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+      <c r="E405">
         <v>0</v>
       </c>
     </row>
@@ -31004,10 +31052,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
-  <dimension ref="A1:B404"/>
+  <dimension ref="A1:B405"/>
   <sheetViews>
     <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="B396" sqref="B396:B404"/>
+      <selection activeCell="B404" sqref="B404:B405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34651,6 +34699,15 @@
         <v>2.0616570327552985E-2</v>
       </c>
     </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>652</v>
+      </c>
+      <c r="B405">
+        <f>Controlled!B405/'Fight Time'!B405</f>
+        <v>0.13896218117854001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34658,10 +34715,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
-  <dimension ref="A1:C404"/>
+  <dimension ref="A1:C405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="B365" sqref="B365"/>
+    <sheetView topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="B406" sqref="B406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38116,6 +38173,14 @@
         <v>865</v>
       </c>
     </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>652</v>
+      </c>
+      <c r="B405">
+        <v>379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38125,10 +38190,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView topLeftCell="A338" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A367" sqref="A367"/>
+      <selection pane="topRight" activeCell="AB408" sqref="AB408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45046,7 +45111,7 @@
         <v>0.78</v>
       </c>
       <c r="L127">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M127">
         <v>0.11</v>
@@ -45614,7 +45679,7 @@
         <v>0.23</v>
       </c>
       <c r="N138">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O138" s="8">
         <v>4.2</v>
@@ -64053,25 +64118,86 @@
       </c>
     </row>
     <row r="407" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A407" t="str">
+        <f>Control!A405</f>
+        <v>Hyun Sung Park</v>
+      </c>
+      <c r="B407">
+        <v>29</v>
+      </c>
+      <c r="C407">
+        <v>171</v>
+      </c>
+      <c r="D407">
+        <v>168</v>
+      </c>
+      <c r="E407">
+        <v>10</v>
+      </c>
+      <c r="F407">
+        <v>0</v>
+      </c>
+      <c r="G407">
+        <v>3</v>
+      </c>
+      <c r="H407">
+        <v>0</v>
+      </c>
+      <c r="I407">
+        <v>0.4</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <v>0.5</v>
+      </c>
+      <c r="L407">
+        <v>0</v>
+      </c>
+      <c r="M407">
+        <v>0.1</v>
+      </c>
+      <c r="N407">
+        <v>0</v>
+      </c>
+      <c r="O407" s="8">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="P407" s="8">
+        <v>3.29</v>
+      </c>
+      <c r="T407">
+        <v>1.9</v>
+      </c>
+      <c r="U407">
+        <v>0.33</v>
+      </c>
+      <c r="V407">
+        <v>1</v>
+      </c>
       <c r="W407">
         <f>Control!B405</f>
-        <v>0</v>
+        <v>113.66666666666667</v>
       </c>
       <c r="X407">
         <f>'Ctrl pct'!B405</f>
-        <v>0</v>
+        <v>0.29991204925241866</v>
       </c>
       <c r="Y407">
         <f>Controlled!B405</f>
-        <v>0</v>
+        <v>52.666666666666664</v>
       </c>
       <c r="Z407">
         <f>'Controlled pct'!B405</f>
-        <v>0</v>
+        <v>0.13896218117854001</v>
       </c>
       <c r="AA407">
         <f>'Fight Time'!B405</f>
-        <v>0</v>
+        <v>379</v>
+      </c>
+      <c r="AB407">
+        <v>10</v>
       </c>
     </row>
     <row r="408" spans="1:28" x14ac:dyDescent="0.3">

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58454A8-0E7C-4F76-856C-24A04B16ED45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5644A7D0-7954-42C1-BDA9-486926E8773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11568" yWindow="0" windowWidth="11472" windowHeight="12000" firstSheet="3" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="661">
   <si>
     <t>Khaos</t>
   </si>
@@ -1990,6 +1990,30 @@
   <si>
     <t>Hyun Sung Park</t>
   </si>
+  <si>
+    <t>Uros Medic</t>
+  </si>
+  <si>
+    <t>Gilbert Urbina</t>
+  </si>
+  <si>
+    <t>Joselyne Edwards</t>
+  </si>
+  <si>
+    <t>Toshiomi Kazama</t>
+  </si>
+  <si>
+    <t>Julija Stoliarenko</t>
+  </si>
+  <si>
+    <t>Gabriella Fernandes</t>
+  </si>
+  <si>
+    <t>Miles Johns</t>
+  </si>
+  <si>
+    <t>Eryk Anders</t>
+  </si>
 </sst>
 </file>
 
@@ -2012,7 +2036,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2061,6 +2085,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2074,7 +2104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2095,6 +2125,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2409,10 +2441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
-  <dimension ref="A1:AE405"/>
+  <dimension ref="A1:AE413"/>
   <sheetViews>
-    <sheetView topLeftCell="A392" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D413" sqref="D413"/>
+    <sheetView topLeftCell="A135" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2422,7 +2454,7 @@
     <col min="13" max="25" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>275</v>
       </c>
@@ -2458,7 +2490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>276</v>
       </c>
@@ -2486,99 +2518,46 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" si="0"/>
-        <v>129.7037037037037</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <f>4*60+21</f>
-        <v>261</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>174</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
+        <f xml:space="preserve"> AVERAGE(C3:BC3)</f>
+        <v>192.5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>116</v>
+      </c>
+      <c r="D3" s="14">
+        <v>264</v>
+      </c>
+      <c r="E3" s="14">
+        <v>128</v>
+      </c>
+      <c r="F3" s="14">
+        <v>36</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>431</v>
       </c>
       <c r="I3">
-        <v>121</v>
+        <v>483</v>
       </c>
       <c r="J3">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="K3">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3" s="10">
-        <v>55</v>
-      </c>
-      <c r="N3" s="10">
-        <v>59</v>
-      </c>
-      <c r="O3" s="10">
-        <v>186</v>
-      </c>
-      <c r="P3" s="10">
-        <v>192</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>37</v>
-      </c>
-      <c r="R3" s="10">
-        <v>130</v>
-      </c>
-      <c r="S3" s="10">
-        <f>3*60+52</f>
-        <v>232</v>
-      </c>
-      <c r="T3" s="10">
-        <v>116</v>
-      </c>
-      <c r="U3" s="10">
-        <v>264</v>
-      </c>
-      <c r="V3" s="10">
-        <v>128</v>
-      </c>
-      <c r="W3" s="10">
-        <v>36</v>
-      </c>
-      <c r="X3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>431</v>
-      </c>
-      <c r="Z3">
-        <v>483</v>
-      </c>
-      <c r="AA3">
-        <v>186</v>
-      </c>
-      <c r="AB3">
-        <v>10</v>
-      </c>
-      <c r="AC3">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>645</v>
       </c>
@@ -2599,7 +2578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>277</v>
       </c>
@@ -2626,7 +2605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>278</v>
       </c>
@@ -2647,7 +2626,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2667,7 +2646,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2709,7 +2688,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2724,7 +2703,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>279</v>
       </c>
@@ -2745,7 +2724,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>283</v>
       </c>
@@ -2774,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>280</v>
       </c>
@@ -2817,7 +2796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>281</v>
       </c>
@@ -2850,7 +2829,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>282</v>
       </c>
@@ -2873,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>284</v>
       </c>
@@ -2921,7 +2900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>581</v>
       </c>
@@ -3121,10 +3100,10 @@
         <f xml:space="preserve"> AVERAGE(C22:BC22)</f>
         <v>132.1</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="14">
         <v>17</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="14">
         <v>129</v>
       </c>
       <c r="E22">
@@ -3477,7 +3456,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>296</v>
       </c>
@@ -3495,7 +3474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3510,88 +3489,46 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>297</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="1"/>
-        <v>100.91666666666667</v>
-      </c>
-      <c r="C35">
-        <v>40</v>
-      </c>
-      <c r="D35">
-        <v>192</v>
-      </c>
-      <c r="E35">
-        <v>392</v>
-      </c>
-      <c r="F35">
-        <v>130</v>
-      </c>
-      <c r="G35">
-        <v>7</v>
-      </c>
-      <c r="H35">
-        <v>7</v>
-      </c>
-      <c r="I35">
-        <v>140</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>248</v>
+        <f xml:space="preserve"> AVERAGE(C35:BC35)</f>
+        <v>88.7</v>
+      </c>
+      <c r="C35" s="14">
+        <v>106</v>
+      </c>
+      <c r="D35" s="14">
+        <v>34</v>
+      </c>
+      <c r="E35" s="14">
+        <v>45</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14">
+        <v>258</v>
+      </c>
+      <c r="H35" s="14">
+        <v>175</v>
+      </c>
+      <c r="I35" s="14">
+        <v>15</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14">
+        <v>230</v>
       </c>
       <c r="L35">
-        <v>50</v>
-      </c>
-      <c r="M35" s="10">
-        <v>201</v>
-      </c>
-      <c r="N35" s="10">
-        <v>0</v>
-      </c>
-      <c r="O35" s="10">
-        <v>5</v>
-      </c>
-      <c r="P35" s="10">
-        <v>123</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>106</v>
-      </c>
-      <c r="R35" s="10">
-        <v>34</v>
-      </c>
-      <c r="S35" s="10">
-        <v>45</v>
-      </c>
-      <c r="T35" s="10">
-        <v>0</v>
-      </c>
-      <c r="U35" s="10">
-        <v>258</v>
-      </c>
-      <c r="V35" s="10">
-        <v>175</v>
-      </c>
-      <c r="W35" s="10">
-        <v>15</v>
-      </c>
-      <c r="X35" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="10">
-        <v>230</v>
-      </c>
-      <c r="Z35">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3603,7 +3540,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>298</v>
       </c>
@@ -3658,7 +3595,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -3685,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -3709,7 +3646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>642</v>
       </c>
@@ -3730,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>300</v>
       </c>
@@ -3751,7 +3688,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>301</v>
       </c>
@@ -3817,7 +3754,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>302</v>
       </c>
@@ -3858,7 +3795,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>303</v>
       </c>
@@ -3916,7 +3853,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>304</v>
       </c>
@@ -3971,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>305</v>
       </c>
@@ -4027,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>306</v>
       </c>
@@ -4091,7 +4028,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>307</v>
       </c>
@@ -5819,38 +5756,38 @@
         <v>350</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" si="2"/>
-        <v>13.4</v>
+        <f xml:space="preserve"> AVERAGE(C98:BC98)</f>
+        <v>13.6</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D98">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98">
+        <v>6</v>
+      </c>
+      <c r="H98">
+        <v>27</v>
+      </c>
+      <c r="I98">
+        <v>11</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>5</v>
+      </c>
+      <c r="L98">
         <v>2</v>
-      </c>
-      <c r="G98">
-        <v>17</v>
-      </c>
-      <c r="H98">
-        <v>6</v>
-      </c>
-      <c r="I98">
-        <v>27</v>
-      </c>
-      <c r="J98">
-        <v>11</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,42 +6404,39 @@
         <v>366</v>
       </c>
       <c r="B120" s="1">
-        <f t="shared" si="2"/>
-        <v>213.36363636363637</v>
+        <f xml:space="preserve"> AVERAGE(C120:BC120)</f>
+        <v>192.3</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="D120">
-        <v>436</v>
-      </c>
-      <c r="E120">
-        <v>255</v>
-      </c>
-      <c r="F120">
         <f>9*60+37</f>
         <v>577</v>
       </c>
+      <c r="E120">
+        <v>36</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
       <c r="G120">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I120">
-        <v>30</v>
+        <v>611</v>
       </c>
       <c r="J120">
-        <v>14</v>
-      </c>
-      <c r="K120">
-        <v>611</v>
-      </c>
-      <c r="L120">
         <v>213</v>
       </c>
-      <c r="M120" s="10">
+      <c r="K120" s="14">
         <v>170</v>
+      </c>
+      <c r="L120" s="14">
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
@@ -7774,7 +7708,7 @@
       </c>
       <c r="B159" s="1">
         <f t="shared" si="3"/>
-        <v>15.2</v>
+        <v>80.666666666666671</v>
       </c>
       <c r="C159">
         <v>10</v>
@@ -7790,6 +7724,9 @@
       </c>
       <c r="G159">
         <v>27</v>
+      </c>
+      <c r="H159">
+        <v>408</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.3">
@@ -8146,7 +8083,7 @@
       </c>
       <c r="B170" s="1">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>85.833333333333329</v>
       </c>
       <c r="C170">
         <v>89</v>
@@ -8161,6 +8098,9 @@
         <v>32</v>
       </c>
       <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
         <v>0</v>
       </c>
     </row>
@@ -8570,40 +8510,37 @@
         <v>418</v>
       </c>
       <c r="B185" s="1">
-        <f t="shared" si="3"/>
-        <v>27.90909090909091</v>
+        <f xml:space="preserve"> AVERAGE(C185:BC185)</f>
+        <v>30.3</v>
       </c>
       <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>26</v>
+      </c>
+      <c r="F185">
+        <v>3</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>173</v>
+      </c>
+      <c r="I185">
+        <v>21</v>
+      </c>
+      <c r="J185">
         <v>4</v>
       </c>
-      <c r="D185">
-        <v>2</v>
-      </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185">
-        <v>26</v>
-      </c>
-      <c r="G185">
-        <v>3</v>
-      </c>
-      <c r="H185">
-        <v>0</v>
-      </c>
-      <c r="I185">
-        <v>173</v>
-      </c>
-      <c r="J185">
-        <v>21</v>
-      </c>
       <c r="K185">
-        <v>4</v>
-      </c>
-      <c r="L185">
         <v>67</v>
       </c>
-      <c r="M185" s="10">
+      <c r="L185" s="14">
         <v>7</v>
       </c>
     </row>
@@ -14308,7 +14245,7 @@
         <v>628</v>
       </c>
       <c r="B383" s="1">
-        <f t="shared" ref="B383:B405" si="7" xml:space="preserve"> AVERAGE(C383:BC383)</f>
+        <f t="shared" ref="B383:B413" si="7" xml:space="preserve"> AVERAGE(C383:BC383)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="C383">
@@ -14796,7 +14733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>648</v>
       </c>
@@ -14820,7 +14757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>649</v>
       </c>
@@ -14844,7 +14781,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>650</v>
       </c>
@@ -14876,7 +14813,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>651</v>
       </c>
@@ -14903,7 +14840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>652</v>
       </c>
@@ -14919,6 +14856,234 @@
       </c>
       <c r="E405">
         <v>33</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A406" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B406" s="1">
+        <f t="shared" si="7"/>
+        <v>12.285714285714286</v>
+      </c>
+      <c r="C406">
+        <v>56</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+      <c r="E406">
+        <v>2</v>
+      </c>
+      <c r="F406">
+        <v>22</v>
+      </c>
+      <c r="G406">
+        <v>2</v>
+      </c>
+      <c r="H406">
+        <v>4</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>654</v>
+      </c>
+      <c r="B407" s="1">
+        <f t="shared" si="7"/>
+        <v>117</v>
+      </c>
+      <c r="C407">
+        <v>160</v>
+      </c>
+      <c r="D407">
+        <v>186</v>
+      </c>
+      <c r="E407">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>655</v>
+      </c>
+      <c r="B408" s="1">
+        <f t="shared" si="7"/>
+        <v>152.30000000000001</v>
+      </c>
+      <c r="C408">
+        <v>69</v>
+      </c>
+      <c r="D408">
+        <v>2</v>
+      </c>
+      <c r="E408">
+        <v>98</v>
+      </c>
+      <c r="F408">
+        <v>52</v>
+      </c>
+      <c r="G408">
+        <v>121</v>
+      </c>
+      <c r="H408">
+        <v>29</v>
+      </c>
+      <c r="I408">
+        <v>522</v>
+      </c>
+      <c r="J408">
+        <v>311</v>
+      </c>
+      <c r="K408">
+        <v>270</v>
+      </c>
+      <c r="L408">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>656</v>
+      </c>
+      <c r="B409" s="1">
+        <f t="shared" si="7"/>
+        <v>86.333333333333329</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+      <c r="D409">
+        <v>0</v>
+      </c>
+      <c r="E409">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>657</v>
+      </c>
+      <c r="B410" s="1">
+        <f t="shared" si="7"/>
+        <v>64.625</v>
+      </c>
+      <c r="C410">
+        <v>2</v>
+      </c>
+      <c r="D410">
+        <v>21</v>
+      </c>
+      <c r="E410">
+        <v>212</v>
+      </c>
+      <c r="F410">
+        <v>0</v>
+      </c>
+      <c r="G410">
+        <v>17</v>
+      </c>
+      <c r="H410">
+        <v>19</v>
+      </c>
+      <c r="I410">
+        <v>19</v>
+      </c>
+      <c r="J410">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>658</v>
+      </c>
+      <c r="B411" s="1">
+        <f t="shared" si="7"/>
+        <v>50.5</v>
+      </c>
+      <c r="C411">
+        <v>4</v>
+      </c>
+      <c r="D411">
+        <v>10</v>
+      </c>
+      <c r="E411">
+        <v>160</v>
+      </c>
+      <c r="F411">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>659</v>
+      </c>
+      <c r="B412" s="1">
+        <f t="shared" si="7"/>
+        <v>120.11111111111111</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+      <c r="D412">
+        <v>183</v>
+      </c>
+      <c r="E412">
+        <v>2</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+      <c r="G412">
+        <v>128</v>
+      </c>
+      <c r="H412">
+        <v>279</v>
+      </c>
+      <c r="I412">
+        <v>389</v>
+      </c>
+      <c r="J412">
+        <v>5</v>
+      </c>
+      <c r="K412">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>660</v>
+      </c>
+      <c r="B413" s="1">
+        <f t="shared" si="7"/>
+        <v>236.75</v>
+      </c>
+      <c r="C413">
+        <v>351</v>
+      </c>
+      <c r="D413">
+        <v>155</v>
+      </c>
+      <c r="E413">
+        <v>499</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+      <c r="G413">
+        <v>281</v>
+      </c>
+      <c r="H413">
+        <v>146</v>
+      </c>
+      <c r="I413">
+        <v>198</v>
+      </c>
+      <c r="J413">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -14929,10 +15094,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
-  <dimension ref="A1:B405"/>
+  <dimension ref="A1:B413"/>
   <sheetViews>
-    <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="B404" sqref="B404:B405"/>
+    <sheetView topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="B405" sqref="B405:B413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14964,7 +15129,7 @@
       </c>
       <c r="B3">
         <f>Control!B3/'Fight Time'!B3</f>
-        <v>0.15081826012058569</v>
+        <v>0.22331786542923435</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15252,16 +15417,16 @@
       </c>
       <c r="B35">
         <f>Control!B35/'Fight Time'!B35</f>
-        <v>0.15842490842490844</v>
+        <v>0.14283413848631241</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="e">
+      <c r="B36">
         <f>Control!B36/'Fight Time'!B36</f>
-        <v>#DIV/0!</v>
+        <v>0.36777777777777776</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -15306,7 +15471,7 @@
       </c>
       <c r="B41">
         <f>Control!B41/'Fight Time'!B41</f>
-        <v>0.19468750000000001</v>
+        <v>0.18878787878787878</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -15324,7 +15489,7 @@
       </c>
       <c r="B43">
         <f>Control!B43/'Fight Time'!B43</f>
-        <v>0.68453237410071943</v>
+        <v>0.64838160136286205</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -15711,7 +15876,7 @@
       </c>
       <c r="B86">
         <f>Control!B86/'Fight Time'!B86</f>
-        <v>0.23381877022653721</v>
+        <v>0.23018717642373554</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -15819,7 +15984,7 @@
       </c>
       <c r="B98">
         <f>Control!B98/'Fight Time'!B98</f>
-        <v>2.2905982905982905E-2</v>
+        <v>2.4862888482632541E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -16017,7 +16182,7 @@
       </c>
       <c r="B120">
         <f>Control!B120/'Fight Time'!B120</f>
-        <v>0.31609427609427609</v>
+        <v>0.25846774193548389</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -16080,7 +16245,7 @@
       </c>
       <c r="B127">
         <f>Control!B127/'Fight Time'!B127</f>
-        <v>0.28036845135290733</v>
+        <v>0.25685654008438819</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -16332,7 +16497,7 @@
       </c>
       <c r="B155">
         <f>Control!B155/'Fight Time'!B155</f>
-        <v>0.20367250673854448</v>
+        <v>0.19884868421052632</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -16368,7 +16533,7 @@
       </c>
       <c r="B159">
         <f>Control!B159/'Fight Time'!B159</f>
-        <v>2.4796084828711255E-2</v>
+        <v>0.13159325720500273</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -16467,7 +16632,7 @@
       </c>
       <c r="B170">
         <f>Control!B170/'Fight Time'!B170</f>
-        <v>0.13307493540051679</v>
+        <v>9.5903165735567966E-2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -16602,7 +16767,7 @@
       </c>
       <c r="B185">
         <f>Control!B185/'Fight Time'!B185</f>
-        <v>6.8911335578002247E-2</v>
+        <v>7.4630541871921183E-2</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -18583,6 +18748,78 @@
       <c r="B405">
         <f>Control!B405/'Fight Time'!B405</f>
         <v>0.29991204925241866</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B406">
+        <f>Control!B406/'Fight Time'!B406</f>
+        <v>4.054691183404055E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>654</v>
+      </c>
+      <c r="B407">
+        <f>Control!B407/'Fight Time'!B407</f>
+        <v>0.2932330827067669</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>655</v>
+      </c>
+      <c r="B408">
+        <f>Control!B408/'Fight Time'!B408</f>
+        <v>0.18527980535279806</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>656</v>
+      </c>
+      <c r="B409">
+        <f>Control!B409/'Fight Time'!B409</f>
+        <v>0.21529509559434745</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>657</v>
+      </c>
+      <c r="B410">
+        <f>Control!B410/'Fight Time'!B410</f>
+        <v>0.10629111842105263</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>658</v>
+      </c>
+      <c r="B411">
+        <f>Control!B411/'Fight Time'!B411</f>
+        <v>6.2577447335811651E-2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>659</v>
+      </c>
+      <c r="B412">
+        <f>Control!B412/'Fight Time'!B412</f>
+        <v>0.14939192924267553</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>660</v>
+      </c>
+      <c r="B413">
+        <f>Control!B413/'Fight Time'!B413</f>
+        <v>0.3238714090287278</v>
       </c>
     </row>
   </sheetData>
@@ -18592,10 +18829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
-  <dimension ref="A1:AE405"/>
+  <dimension ref="A1:AE413"/>
   <sheetViews>
-    <sheetView topLeftCell="A400" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B404" sqref="B404:B405"/>
+    <sheetView topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K156" sqref="K156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19282,10 +19519,10 @@
         <f>AVERAGE(C22:BA22)</f>
         <v>38.1</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="15">
         <v>129</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="15">
         <v>17</v>
       </c>
       <c r="E22">
@@ -19637,7 +19874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -19655,7 +19892,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -19670,85 +19907,46 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>104.65217391304348</v>
-      </c>
-      <c r="C35">
-        <v>104</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>314</v>
-      </c>
-      <c r="F35">
-        <v>11</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>234</v>
-      </c>
-      <c r="I35">
-        <v>233</v>
-      </c>
-      <c r="J35">
-        <v>35</v>
-      </c>
-      <c r="K35">
-        <v>22</v>
-      </c>
-      <c r="L35">
-        <v>191</v>
-      </c>
-      <c r="M35" s="11">
-        <v>90</v>
-      </c>
-      <c r="N35" s="11">
-        <v>50</v>
-      </c>
-      <c r="O35" s="11">
-        <v>0</v>
-      </c>
-      <c r="P35" s="11">
+        <f>AVERAGE(C35:BA35)</f>
+        <v>112.3</v>
+      </c>
+      <c r="C35" s="15">
         <v>255</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="D35" s="15">
         <v>14</v>
       </c>
-      <c r="R35" s="11">
+      <c r="E35" s="15">
         <v>612</v>
       </c>
-      <c r="S35" s="11">
+      <c r="F35" s="15">
         <v>98</v>
       </c>
-      <c r="T35" s="11">
+      <c r="G35" s="15">
         <v>7</v>
       </c>
-      <c r="U35" s="11">
+      <c r="H35" s="15">
         <v>107</v>
       </c>
-      <c r="V35" s="11">
-        <v>0</v>
-      </c>
-      <c r="W35" s="11">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
         <v>1</v>
       </c>
-      <c r="X35" s="11">
+      <c r="K35" s="15">
         <v>29</v>
       </c>
-      <c r="Y35" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -19760,7 +19958,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -19815,7 +20013,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -19842,7 +20040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -19866,7 +20064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -19887,7 +20085,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -19908,7 +20106,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -19976,7 +20174,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -20015,7 +20213,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -20073,7 +20271,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -20128,7 +20326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -20182,7 +20380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -20245,7 +20443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -21970,39 +22168,38 @@
         <v>115</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" si="1"/>
-        <v>206.3</v>
+        <f>AVERAGE(C98:BA98)</f>
+        <v>155.1</v>
       </c>
       <c r="C98">
-        <f>8*60+32</f>
-        <v>512</v>
+        <v>74</v>
       </c>
       <c r="D98">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="E98">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="G98">
-        <v>404</v>
+        <v>169</v>
       </c>
       <c r="H98">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="I98">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K98">
-        <v>54</v>
+        <v>685</v>
       </c>
       <c r="L98">
-        <v>685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -22618,39 +22815,36 @@
       </c>
       <c r="B120" s="1">
         <f t="shared" si="1"/>
-        <v>51.272727272727273</v>
+        <v>51.5</v>
       </c>
       <c r="C120">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="D120">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E120">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="H120">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
-      <c r="K120">
-        <v>232</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120" s="11">
+      <c r="K120" s="15">
+        <v>0</v>
+      </c>
+      <c r="L120" s="15">
         <v>0</v>
       </c>
     </row>
@@ -23839,7 +24033,7 @@
       </c>
       <c r="B155" s="1">
         <f t="shared" si="2"/>
-        <v>296.375</v>
+        <v>296</v>
       </c>
       <c r="C155">
         <v>311</v>
@@ -23866,6 +24060,9 @@
       <c r="J155">
         <v>341</v>
       </c>
+      <c r="K155">
+        <v>293</v>
+      </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
@@ -24305,7 +24502,7 @@
       </c>
       <c r="B170" s="1">
         <f t="shared" si="2"/>
-        <v>138.80000000000001</v>
+        <v>129.83333333333334</v>
       </c>
       <c r="C170">
         <v>117</v>
@@ -24321,6 +24518,9 @@
       </c>
       <c r="G170">
         <v>8</v>
+      </c>
+      <c r="H170">
+        <v>85</v>
       </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.3">
@@ -24727,41 +24927,38 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <f t="shared" si="2"/>
-        <v>143.45454545454547</v>
+        <f>AVERAGE(C185:BA185)</f>
+        <v>146</v>
       </c>
       <c r="C185">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E185">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="F185">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="I185">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="J185">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="K185">
-        <v>201</v>
-      </c>
-      <c r="L185">
         <f>9*60+14</f>
         <v>554</v>
       </c>
-      <c r="M185" s="11">
+      <c r="L185" s="15">
         <v>137</v>
       </c>
     </row>
@@ -30294,7 +30491,7 @@
         <v>623</v>
       </c>
       <c r="B378" s="1">
-        <f t="shared" ref="B378:B405" si="6">AVERAGE(C378:BA378)</f>
+        <f t="shared" ref="B378:B413" si="6">AVERAGE(C378:BA378)</f>
         <v>256.39999999999998</v>
       </c>
       <c r="C378">
@@ -30922,7 +31119,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>648</v>
       </c>
@@ -30946,7 +31143,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>649</v>
       </c>
@@ -30970,7 +31167,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>650</v>
       </c>
@@ -31000,7 +31197,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>651</v>
       </c>
@@ -31027,7 +31224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>652</v>
       </c>
@@ -31043,6 +31240,235 @@
       </c>
       <c r="E405">
         <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A406" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B406" s="1">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="C406">
+        <v>11</v>
+      </c>
+      <c r="D406">
+        <v>144</v>
+      </c>
+      <c r="E406">
+        <v>0</v>
+      </c>
+      <c r="F406">
+        <v>73</v>
+      </c>
+      <c r="G406">
+        <v>446</v>
+      </c>
+      <c r="H406">
+        <v>78</v>
+      </c>
+      <c r="I406">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>654</v>
+      </c>
+      <c r="B407" s="1">
+        <f t="shared" si="6"/>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="C407">
+        <v>82</v>
+      </c>
+      <c r="D407">
+        <v>5</v>
+      </c>
+      <c r="E407">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>655</v>
+      </c>
+      <c r="B408" s="1">
+        <f t="shared" si="6"/>
+        <v>267.60000000000002</v>
+      </c>
+      <c r="C408">
+        <v>229</v>
+      </c>
+      <c r="D408">
+        <v>673</v>
+      </c>
+      <c r="E408">
+        <v>700</v>
+      </c>
+      <c r="F408">
+        <v>62</v>
+      </c>
+      <c r="G408">
+        <v>19</v>
+      </c>
+      <c r="H408">
+        <v>449</v>
+      </c>
+      <c r="I408">
+        <v>131</v>
+      </c>
+      <c r="J408">
+        <v>258</v>
+      </c>
+      <c r="K408">
+        <v>155</v>
+      </c>
+      <c r="L408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>656</v>
+      </c>
+      <c r="B409" s="1">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="C409">
+        <v>3</v>
+      </c>
+      <c r="D409">
+        <v>26</v>
+      </c>
+      <c r="E409">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>657</v>
+      </c>
+      <c r="B410" s="1">
+        <f t="shared" si="6"/>
+        <v>274.125</v>
+      </c>
+      <c r="C410">
+        <v>178</v>
+      </c>
+      <c r="D410">
+        <f>13*60+16</f>
+        <v>796</v>
+      </c>
+      <c r="E410">
+        <v>211</v>
+      </c>
+      <c r="F410">
+        <v>549</v>
+      </c>
+      <c r="G410">
+        <v>0</v>
+      </c>
+      <c r="H410">
+        <v>125</v>
+      </c>
+      <c r="I410">
+        <v>7</v>
+      </c>
+      <c r="J410">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>658</v>
+      </c>
+      <c r="B411" s="1">
+        <f t="shared" si="6"/>
+        <v>351.5</v>
+      </c>
+      <c r="C411">
+        <v>691</v>
+      </c>
+      <c r="D411">
+        <v>651</v>
+      </c>
+      <c r="E411">
+        <v>64</v>
+      </c>
+      <c r="F411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>659</v>
+      </c>
+      <c r="B412" s="1">
+        <f t="shared" si="6"/>
+        <v>72.777777777777771</v>
+      </c>
+      <c r="C412">
+        <v>4</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+      <c r="E412">
+        <v>9</v>
+      </c>
+      <c r="F412">
+        <v>105</v>
+      </c>
+      <c r="G412">
+        <v>5</v>
+      </c>
+      <c r="H412">
+        <v>235</v>
+      </c>
+      <c r="I412">
+        <v>115</v>
+      </c>
+      <c r="J412">
+        <v>7</v>
+      </c>
+      <c r="K412">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>660</v>
+      </c>
+      <c r="B413" s="1">
+        <f t="shared" si="6"/>
+        <v>71.625</v>
+      </c>
+      <c r="C413">
+        <v>46</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+      <c r="E413">
+        <v>135</v>
+      </c>
+      <c r="F413">
+        <v>138</v>
+      </c>
+      <c r="G413">
+        <v>35</v>
+      </c>
+      <c r="H413">
+        <v>44</v>
+      </c>
+      <c r="I413">
+        <v>40</v>
+      </c>
+      <c r="J413">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -31052,10 +31478,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
-  <dimension ref="A1:B405"/>
+  <dimension ref="A1:B413"/>
   <sheetViews>
-    <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="B404" sqref="B404:B405"/>
+    <sheetView topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="B405" sqref="B405:B413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31087,7 +31513,7 @@
       </c>
       <c r="B3">
         <f>Controlled!B3/'Fight Time'!B3</f>
-        <v>0.17838070628768304</v>
+        <v>0.17796682993898771</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -31375,16 +31801,16 @@
       </c>
       <c r="B35">
         <f>Controlled!B35/'Fight Time'!B35</f>
-        <v>0.16428912702204629</v>
+        <v>0.18083735909822865</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="e">
+      <c r="B36">
         <f>Controlled!B36/'Fight Time'!B36</f>
-        <v>#DIV/0!</v>
+        <v>4.777777777777778E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -31429,7 +31855,7 @@
       </c>
       <c r="B41">
         <f>Controlled!B41/'Fight Time'!B41</f>
-        <v>0.29531249999999998</v>
+        <v>0.28636363636363638</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -31447,7 +31873,7 @@
       </c>
       <c r="B43">
         <f>Controlled!B43/'Fight Time'!B43</f>
-        <v>0.15755395683453235</v>
+        <v>0.14923339011925041</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -31834,7 +32260,7 @@
       </c>
       <c r="B86">
         <f>Controlled!B86/'Fight Time'!B86</f>
-        <v>0.13834951456310679</v>
+        <v>0.13620071684587814</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -31942,7 +32368,7 @@
       </c>
       <c r="B98">
         <f>Controlled!B98/'Fight Time'!B98</f>
-        <v>0.3526495726495727</v>
+        <v>0.28354661791590491</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -32140,7 +32566,7 @@
       </c>
       <c r="B120">
         <f>Controlled!B120/'Fight Time'!B120</f>
-        <v>7.5959595959595963E-2</v>
+        <v>6.9220430107526876E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -32203,7 +32629,7 @@
       </c>
       <c r="B127">
         <f>Controlled!B127/'Fight Time'!B127</f>
-        <v>0.25129533678756477</v>
+        <v>0.23022151898734178</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -32455,7 +32881,7 @@
       </c>
       <c r="B155">
         <f>Controlled!B155/'Fight Time'!B155</f>
-        <v>0.39942722371967654</v>
+        <v>0.38947368421052631</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -32590,7 +33016,7 @@
       </c>
       <c r="B170">
         <f>Controlled!B170/'Fight Time'!B170</f>
-        <v>0.17932816537467702</v>
+        <v>0.14506517690875234</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -32725,7 +33151,7 @@
       </c>
       <c r="B185">
         <f>Controlled!B185/'Fight Time'!B185</f>
-        <v>0.35420875420875425</v>
+        <v>0.35960591133004927</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -34706,6 +35132,78 @@
       <c r="B405">
         <f>Controlled!B405/'Fight Time'!B405</f>
         <v>0.13896218117854001</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B406">
+        <f>Controlled!B406/'Fight Time'!B406</f>
+        <v>0.35643564356435642</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>654</v>
+      </c>
+      <c r="B407">
+        <f>Controlled!B407/'Fight Time'!B407</f>
+        <v>7.9365079365079375E-2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>655</v>
+      </c>
+      <c r="B408">
+        <f>Controlled!B408/'Fight Time'!B408</f>
+        <v>0.32554744525547447</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>656</v>
+      </c>
+      <c r="B409">
+        <f>Controlled!B409/'Fight Time'!B409</f>
+        <v>0.12718204488778054</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>657</v>
+      </c>
+      <c r="B410">
+        <f>Controlled!B410/'Fight Time'!B410</f>
+        <v>0.45086348684210525</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>658</v>
+      </c>
+      <c r="B411">
+        <f>Controlled!B411/'Fight Time'!B411</f>
+        <v>0.43556381660470878</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>659</v>
+      </c>
+      <c r="B412">
+        <f>Controlled!B412/'Fight Time'!B412</f>
+        <v>9.0519624101713644E-2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>660</v>
+      </c>
+      <c r="B413">
+        <f>Controlled!B413/'Fight Time'!B413</f>
+        <v>9.7982216142270859E-2</v>
       </c>
     </row>
   </sheetData>
@@ -34715,10 +35213,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
-  <dimension ref="A1:C405"/>
+  <dimension ref="A1:C413"/>
   <sheetViews>
-    <sheetView topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="B406" sqref="B406"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34751,8 +35249,8 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>14*60+20</f>
-        <v>860</v>
+        <f>14*60+22</f>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -34943,7 +35441,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -35026,13 +35524,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>637</v>
+        <v>621</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
+      <c r="B36">
+        <v>900</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -35072,8 +35573,8 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <f>13*60+20</f>
-        <v>800</v>
+        <f>13*60+45</f>
+        <v>825</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -35090,8 +35591,8 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <f>9*60+16</f>
-        <v>556</v>
+        <f>9*60+47</f>
+        <v>587</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -35463,8 +35964,8 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <f>13*60+44</f>
-        <v>824</v>
+        <f>13*60+57</f>
+        <v>837</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -35565,8 +36066,8 @@
         <v>115</v>
       </c>
       <c r="B98">
-        <f>9*60+45</f>
-        <v>585</v>
+        <f>9*60+7</f>
+        <v>547</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -35754,8 +36255,8 @@
         <v>113</v>
       </c>
       <c r="B120">
-        <f>11*60+15</f>
-        <v>675</v>
+        <f>12*60+24</f>
+        <v>744</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -35812,8 +36313,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <f>9*60+39</f>
-        <v>579</v>
+        <v>632</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -36045,8 +36545,8 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <f>12*60+22</f>
-        <v>742</v>
+        <f>12*60+40</f>
+        <v>760</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -36174,8 +36674,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <f>12*60+54</f>
-        <v>774</v>
+        <v>895</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -36306,7 +36805,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -38179,6 +38678,74 @@
       </c>
       <c r="B405">
         <v>379</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B406">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>654</v>
+      </c>
+      <c r="B407">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>655</v>
+      </c>
+      <c r="B408">
+        <f>13*60+42</f>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>656</v>
+      </c>
+      <c r="B409">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>657</v>
+      </c>
+      <c r="B410">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>658</v>
+      </c>
+      <c r="B411">
+        <f>13*60+27</f>
+        <v>807</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>659</v>
+      </c>
+      <c r="B412">
+        <f>13*60+24</f>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>660</v>
+      </c>
+      <c r="B413">
+        <f>12*60+11</f>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -38190,10 +38757,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A153" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AB408" sqref="AB408"/>
+      <selection pane="topRight" activeCell="AB188" sqref="AB188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38520,6 +39087,15 @@
         <f>Control!A3</f>
         <v>Angela Hill</v>
       </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>160</v>
+      </c>
+      <c r="D5">
+        <v>164</v>
+      </c>
       <c r="E5">
         <v>18</v>
       </c>
@@ -38532,13 +39108,46 @@
       <c r="H5">
         <v>14</v>
       </c>
+      <c r="I5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.06</v>
+      </c>
+      <c r="L5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.67</v>
+      </c>
+      <c r="N5">
+        <v>0.84</v>
+      </c>
+      <c r="O5" s="8">
+        <v>5.47</v>
+      </c>
+      <c r="P5" s="8">
+        <v>4.92</v>
+      </c>
+      <c r="T5">
+        <v>0.81</v>
+      </c>
+      <c r="U5">
+        <v>0.32</v>
+      </c>
+      <c r="V5">
+        <v>0.75</v>
+      </c>
       <c r="W5">
         <f>Control!B3</f>
-        <v>129.7037037037037</v>
+        <v>192.5</v>
       </c>
       <c r="X5">
         <f>'Ctrl pct'!B3</f>
-        <v>0.15081826012058569</v>
+        <v>0.22331786542923435</v>
       </c>
       <c r="Y5">
         <f>Controlled!B3</f>
@@ -38546,11 +39155,14 @@
       </c>
       <c r="Z5">
         <f>'Controlled pct'!B3</f>
-        <v>0.17838070628768304</v>
+        <v>0.17796682993898771</v>
       </c>
       <c r="AA5">
         <f>'Fight Time'!B3</f>
-        <v>860</v>
+        <v>862</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
@@ -38879,6 +39491,15 @@
         <f>Control!A9</f>
         <v>Elijah Smith</v>
       </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>175</v>
+      </c>
+      <c r="D11">
+        <v>180</v>
+      </c>
       <c r="E11">
         <v>8</v>
       </c>
@@ -38890,6 +39511,39 @@
       </c>
       <c r="H11">
         <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0.13</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0.38</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>3.83</v>
+      </c>
+      <c r="P11" s="8">
+        <v>3.87</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>0.53</v>
+      </c>
+      <c r="V11">
+        <v>0.66</v>
       </c>
       <c r="W11">
         <f>Control!B9</f>
@@ -38910,6 +39564,9 @@
       <c r="AA11">
         <f>'Fight Time'!B9</f>
         <v>900</v>
+      </c>
+      <c r="AB11">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
@@ -39832,6 +40489,15 @@
         <f>Control!A25</f>
         <v>Rafael Cerqueira</v>
       </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>191</v>
+      </c>
+      <c r="D27">
+        <v>193</v>
+      </c>
       <c r="E27">
         <v>11</v>
       </c>
@@ -39844,6 +40510,39 @@
       <c r="H27">
         <v>2</v>
       </c>
+      <c r="I27">
+        <v>0.73</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0.18</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0.09</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" s="8">
+        <v>3.28</v>
+      </c>
+      <c r="P27" s="8">
+        <v>14.43</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
       <c r="W27">
         <f>Control!B25</f>
         <v>0</v>
@@ -39862,7 +40561,10 @@
       </c>
       <c r="AA27">
         <f>'Fight Time'!B25</f>
-        <v>51</v>
+        <v>92</v>
+      </c>
+      <c r="AB27">
+        <v>-2</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
@@ -40404,6 +41106,15 @@
         <f>Control!A35</f>
         <v>Andre Fili</v>
       </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>180</v>
+      </c>
+      <c r="D37">
+        <v>188</v>
+      </c>
       <c r="E37">
         <v>24</v>
       </c>
@@ -40416,25 +41127,61 @@
       <c r="H37">
         <v>11</v>
       </c>
+      <c r="I37">
+        <v>0.42</v>
+      </c>
+      <c r="J37">
+        <v>0.33</v>
+      </c>
+      <c r="K37">
+        <v>0.13</v>
+      </c>
+      <c r="L37">
+        <v>0.25</v>
+      </c>
+      <c r="M37">
+        <v>0.46</v>
+      </c>
+      <c r="N37">
+        <v>0.42</v>
+      </c>
+      <c r="O37" s="8">
+        <v>3.84</v>
+      </c>
+      <c r="P37" s="8">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="T37">
+        <v>2.17</v>
+      </c>
+      <c r="U37">
+        <v>0.44</v>
+      </c>
+      <c r="V37">
+        <v>0.7</v>
+      </c>
       <c r="W37">
         <f>Control!B35</f>
-        <v>100.91666666666667</v>
+        <v>88.7</v>
       </c>
       <c r="X37">
         <f>'Ctrl pct'!B35</f>
-        <v>0.15842490842490844</v>
+        <v>0.14283413848631241</v>
       </c>
       <c r="Y37">
         <f>Controlled!B35</f>
-        <v>104.65217391304348</v>
+        <v>112.3</v>
       </c>
       <c r="Z37">
         <f>'Controlled pct'!B35</f>
-        <v>0.16428912702204629</v>
+        <v>0.18083735909822865</v>
       </c>
       <c r="AA37">
         <f>'Fight Time'!B35</f>
-        <v>637</v>
+        <v>621</v>
+      </c>
+      <c r="AB37">
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.3">
@@ -40442,6 +41189,15 @@
         <f>Control!A36</f>
         <v>Julius Walker</v>
       </c>
+      <c r="B38">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>193</v>
+      </c>
+      <c r="D38">
+        <v>198</v>
+      </c>
       <c r="E38">
         <v>6</v>
       </c>
@@ -40452,27 +41208,63 @@
         <v>0</v>
       </c>
       <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0.67</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0.33</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" s="8">
+        <v>5.73</v>
+      </c>
+      <c r="P38" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>0.11</v>
+      </c>
+      <c r="V38">
         <v>1</v>
       </c>
       <c r="W38">
         <f>Control!B36</f>
         <v>331</v>
       </c>
-      <c r="X38" t="e">
+      <c r="X38">
         <f>'Ctrl pct'!B36</f>
-        <v>#DIV/0!</v>
+        <v>0.36777777777777776</v>
       </c>
       <c r="Y38">
         <f>Controlled!B36</f>
         <v>43</v>
       </c>
-      <c r="Z38" t="e">
+      <c r="Z38">
         <f>'Controlled pct'!B36</f>
-        <v>#DIV/0!</v>
+        <v>4.777777777777778E-2</v>
       </c>
       <c r="AA38">
         <f>'Fight Time'!B36</f>
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
@@ -40718,6 +41510,15 @@
         <f>Control!A41</f>
         <v>Jean Matsumoto</v>
       </c>
+      <c r="B43">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <v>168</v>
+      </c>
+      <c r="D43">
+        <v>174</v>
+      </c>
       <c r="E43">
         <v>16</v>
       </c>
@@ -40729,6 +41530,39 @@
       </c>
       <c r="H43">
         <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0.19</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0.38</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0.44</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" s="8">
+        <v>5.18</v>
+      </c>
+      <c r="P43" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="T43">
+        <v>2.73</v>
+      </c>
+      <c r="U43">
+        <v>0.47</v>
+      </c>
+      <c r="V43">
+        <v>0.56999999999999995</v>
       </c>
       <c r="W43">
         <f>Control!B41</f>
@@ -40736,7 +41570,7 @@
       </c>
       <c r="X43">
         <f>'Ctrl pct'!B41</f>
-        <v>0.19468750000000001</v>
+        <v>0.18878787878787878</v>
       </c>
       <c r="Y43">
         <f>Controlled!B41</f>
@@ -40744,11 +41578,14 @@
       </c>
       <c r="Z43">
         <f>'Controlled pct'!B41</f>
-        <v>0.29531249999999998</v>
+        <v>0.28636363636363638</v>
       </c>
       <c r="AA43">
         <f>'Fight Time'!B41</f>
-        <v>800</v>
+        <v>825</v>
+      </c>
+      <c r="AB43">
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
@@ -40794,6 +41631,15 @@
         <f>Control!A43</f>
         <v>Anthony Hernandez</v>
       </c>
+      <c r="B45">
+        <v>31</v>
+      </c>
+      <c r="C45">
+        <v>183</v>
+      </c>
+      <c r="D45">
+        <v>191</v>
+      </c>
       <c r="E45">
         <v>14</v>
       </c>
@@ -40805,6 +41651,39 @@
       </c>
       <c r="H45">
         <v>2</v>
+      </c>
+      <c r="I45">
+        <v>0.21</v>
+      </c>
+      <c r="J45">
+        <v>0.5</v>
+      </c>
+      <c r="K45">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L45">
+        <v>0.5</v>
+      </c>
+      <c r="M45">
+        <v>0.21</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="P45" s="8">
+        <v>2.61</v>
+      </c>
+      <c r="T45">
+        <v>6.27</v>
+      </c>
+      <c r="U45">
+        <v>0.45</v>
+      </c>
+      <c r="V45">
+        <v>0.66</v>
       </c>
       <c r="W45">
         <f>Control!B43</f>
@@ -40812,7 +41691,7 @@
       </c>
       <c r="X45">
         <f>'Ctrl pct'!B43</f>
-        <v>0.68453237410071943</v>
+        <v>0.64838160136286205</v>
       </c>
       <c r="Y45">
         <f>Controlled!B43</f>
@@ -40820,11 +41699,14 @@
       </c>
       <c r="Z45">
         <f>'Controlled pct'!B43</f>
-        <v>0.15755395683453235</v>
+        <v>0.14923339011925041</v>
       </c>
       <c r="AA45">
         <f>'Fight Time'!B43</f>
-        <v>556</v>
+        <v>587</v>
+      </c>
+      <c r="AB45">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
@@ -42974,6 +43856,15 @@
         <f>Control!A86</f>
         <v>Iasmin Lucindo</v>
       </c>
+      <c r="B88">
+        <v>23</v>
+      </c>
+      <c r="C88">
+        <v>160</v>
+      </c>
+      <c r="D88">
+        <v>168</v>
+      </c>
       <c r="E88">
         <v>17</v>
       </c>
@@ -42985,6 +43876,39 @@
       </c>
       <c r="H88">
         <v>2</v>
+      </c>
+      <c r="I88">
+        <v>0.47</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0.18</v>
+      </c>
+      <c r="L88">
+        <v>0.5</v>
+      </c>
+      <c r="M88">
+        <v>0.35</v>
+      </c>
+      <c r="N88">
+        <v>0.5</v>
+      </c>
+      <c r="O88" s="8">
+        <v>2.94</v>
+      </c>
+      <c r="P88" s="8">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="T88">
+        <v>2.15</v>
+      </c>
+      <c r="U88">
+        <v>0.6</v>
+      </c>
+      <c r="V88">
+        <v>0.54</v>
       </c>
       <c r="W88">
         <f>Control!B86</f>
@@ -42992,7 +43916,7 @@
       </c>
       <c r="X88">
         <f>'Ctrl pct'!B86</f>
-        <v>0.23381877022653721</v>
+        <v>0.23018717642373554</v>
       </c>
       <c r="Y88">
         <f>Controlled!B86</f>
@@ -43000,11 +43924,14 @@
       </c>
       <c r="Z88">
         <f>'Controlled pct'!B86</f>
-        <v>0.13834951456310679</v>
+        <v>0.13620071684587814</v>
       </c>
       <c r="AA88">
         <f>'Fight Time'!B86</f>
-        <v>824</v>
+        <v>837</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.3">
@@ -43631,6 +44558,15 @@
         <f>Control!A98</f>
         <v>Priscila Cachoeira</v>
       </c>
+      <c r="B100">
+        <v>36</v>
+      </c>
+      <c r="C100">
+        <v>170</v>
+      </c>
+      <c r="D100">
+        <v>165</v>
+      </c>
       <c r="E100">
         <v>13</v>
       </c>
@@ -43643,25 +44579,61 @@
       <c r="H100">
         <v>6</v>
       </c>
+      <c r="I100">
+        <v>0.62</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0.67</v>
+      </c>
+      <c r="M100">
+        <v>0.38</v>
+      </c>
+      <c r="N100">
+        <v>0.33</v>
+      </c>
+      <c r="O100" s="8">
+        <v>4.03</v>
+      </c>
+      <c r="P100" s="8">
+        <v>7.15</v>
+      </c>
+      <c r="T100">
+        <v>0.15</v>
+      </c>
+      <c r="U100">
+        <v>0.33</v>
+      </c>
+      <c r="V100">
+        <v>0.65</v>
+      </c>
       <c r="W100">
         <f>Control!B98</f>
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="X100">
         <f>'Ctrl pct'!B98</f>
-        <v>2.2905982905982905E-2</v>
+        <v>2.4862888482632541E-2</v>
       </c>
       <c r="Y100">
         <f>Controlled!B98</f>
-        <v>206.3</v>
+        <v>155.1</v>
       </c>
       <c r="Z100">
         <f>'Controlled pct'!B98</f>
-        <v>0.3526495726495727</v>
+        <v>0.28354661791590491</v>
       </c>
       <c r="AA100">
         <f>'Fight Time'!B98</f>
-        <v>585</v>
+        <v>547</v>
+      </c>
+      <c r="AB100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.3">
@@ -44845,6 +45817,15 @@
         <f>Control!A120</f>
         <v>Roman Dolidze</v>
       </c>
+      <c r="B122">
+        <v>37</v>
+      </c>
+      <c r="C122">
+        <v>188</v>
+      </c>
+      <c r="D122">
+        <v>193</v>
+      </c>
       <c r="E122">
         <v>15</v>
       </c>
@@ -44857,25 +45838,61 @@
       <c r="H122">
         <v>3</v>
       </c>
+      <c r="I122">
+        <v>0.53</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0.2</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0.27</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" s="8">
+        <v>3.58</v>
+      </c>
+      <c r="P122" s="8">
+        <v>3.56</v>
+      </c>
+      <c r="T122">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="U122">
+        <v>0.4</v>
+      </c>
+      <c r="V122">
+        <v>0.33</v>
+      </c>
       <c r="W122">
         <f>Control!B120</f>
-        <v>213.36363636363637</v>
+        <v>192.3</v>
       </c>
       <c r="X122">
         <f>'Ctrl pct'!B120</f>
-        <v>0.31609427609427609</v>
+        <v>0.25846774193548389</v>
       </c>
       <c r="Y122">
         <f>Controlled!B120</f>
-        <v>51.272727272727273</v>
+        <v>51.5</v>
       </c>
       <c r="Z122">
         <f>'Controlled pct'!B120</f>
-        <v>7.5959595959595963E-2</v>
+        <v>6.9220430107526876E-2</v>
       </c>
       <c r="AA122">
         <f>'Fight Time'!B120</f>
-        <v>675</v>
+        <v>744</v>
+      </c>
+      <c r="AB122">
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.3">
@@ -45246,6 +46263,15 @@
         <f>Control!A127</f>
         <v>Christian Leroy Duncan</v>
       </c>
+      <c r="B129">
+        <v>30</v>
+      </c>
+      <c r="C129">
+        <v>188</v>
+      </c>
+      <c r="D129">
+        <v>201</v>
+      </c>
       <c r="E129">
         <v>11</v>
       </c>
@@ -45257,6 +46283,39 @@
       </c>
       <c r="H129">
         <v>2</v>
+      </c>
+      <c r="I129">
+        <v>0.73</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0.09</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0.18</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="P129" s="8">
+        <v>3.01</v>
+      </c>
+      <c r="T129">
+        <v>0.24</v>
+      </c>
+      <c r="U129">
+        <v>0.11</v>
+      </c>
+      <c r="V129">
+        <v>0.72</v>
       </c>
       <c r="W129">
         <f>Control!B127</f>
@@ -45264,7 +46323,7 @@
       </c>
       <c r="X129">
         <f>'Ctrl pct'!B127</f>
-        <v>0.28036845135290733</v>
+        <v>0.25685654008438819</v>
       </c>
       <c r="Y129">
         <f>Controlled!B127</f>
@@ -45272,11 +46331,14 @@
       </c>
       <c r="Z129">
         <f>'Controlled pct'!B127</f>
-        <v>0.25129533678756477</v>
+        <v>0.23022151898734178</v>
       </c>
       <c r="AA129">
         <f>'Fight Time'!B127</f>
-        <v>579</v>
+        <v>632</v>
+      </c>
+      <c r="AB129">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.3">
@@ -46499,6 +47561,15 @@
         <f>Control!A155</f>
         <v>Cristian Rodriguez</v>
       </c>
+      <c r="B157">
+        <v>27</v>
+      </c>
+      <c r="C157">
+        <v>170</v>
+      </c>
+      <c r="D157">
+        <v>182</v>
+      </c>
       <c r="E157">
         <v>12</v>
       </c>
@@ -46510,6 +47581,39 @@
       </c>
       <c r="H157">
         <v>3</v>
+      </c>
+      <c r="I157">
+        <v>0.25</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0.33</v>
+      </c>
+      <c r="L157">
+        <v>0.33</v>
+      </c>
+      <c r="M157">
+        <v>0.42</v>
+      </c>
+      <c r="N157">
+        <v>0.67</v>
+      </c>
+      <c r="O157" s="8">
+        <v>3.63</v>
+      </c>
+      <c r="P157" s="8">
+        <v>2.66</v>
+      </c>
+      <c r="T157">
+        <v>1.84</v>
+      </c>
+      <c r="U157">
+        <v>0.46</v>
+      </c>
+      <c r="V157">
+        <v>0.69</v>
       </c>
       <c r="W157">
         <f>Control!B155</f>
@@ -46517,19 +47621,22 @@
       </c>
       <c r="X157">
         <f>'Ctrl pct'!B155</f>
-        <v>0.20367250673854448</v>
+        <v>0.19884868421052632</v>
       </c>
       <c r="Y157">
         <f>Controlled!B155</f>
-        <v>296.375</v>
+        <v>296</v>
       </c>
       <c r="Z157">
         <f>'Controlled pct'!B155</f>
-        <v>0.39942722371967654</v>
+        <v>0.38947368421052631</v>
       </c>
       <c r="AA157">
         <f>'Fight Time'!B155</f>
-        <v>742</v>
+        <v>760</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.3">
@@ -46710,11 +47817,11 @@
       </c>
       <c r="W161">
         <f>Control!B159</f>
-        <v>15.2</v>
+        <v>80.666666666666671</v>
       </c>
       <c r="X161">
         <f>'Ctrl pct'!B159</f>
-        <v>2.4796084828711255E-2</v>
+        <v>0.13159325720500273</v>
       </c>
       <c r="Y161">
         <f>Controlled!B159</f>
@@ -47204,6 +48311,15 @@
         <f>Control!A170</f>
         <v>Steve Erceg</v>
       </c>
+      <c r="B172">
+        <v>30</v>
+      </c>
+      <c r="C172">
+        <v>173</v>
+      </c>
+      <c r="D172">
+        <v>174</v>
+      </c>
       <c r="E172">
         <v>12</v>
       </c>
@@ -47216,25 +48332,61 @@
       <c r="H172">
         <v>3</v>
       </c>
+      <c r="I172">
+        <v>0.17</v>
+      </c>
+      <c r="J172">
+        <v>0.25</v>
+      </c>
+      <c r="K172">
+        <v>0.5</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0.33</v>
+      </c>
+      <c r="N172">
+        <v>0.75</v>
+      </c>
+      <c r="O172" s="8">
+        <v>4.45</v>
+      </c>
+      <c r="P172" s="8">
+        <v>4.03</v>
+      </c>
+      <c r="T172">
+        <v>0.84</v>
+      </c>
+      <c r="U172">
+        <v>0.26</v>
+      </c>
+      <c r="V172">
+        <v>0.63</v>
+      </c>
       <c r="W172">
         <f>Control!B170</f>
-        <v>103</v>
+        <v>85.833333333333329</v>
       </c>
       <c r="X172">
         <f>'Ctrl pct'!B170</f>
-        <v>0.13307493540051679</v>
+        <v>9.5903165735567966E-2</v>
       </c>
       <c r="Y172">
         <f>Controlled!B170</f>
-        <v>138.80000000000001</v>
+        <v>129.83333333333334</v>
       </c>
       <c r="Z172">
         <f>'Controlled pct'!B170</f>
-        <v>0.17932816537467702</v>
+        <v>0.14506517690875234</v>
       </c>
       <c r="AA172">
         <f>'Fight Time'!B170</f>
-        <v>774</v>
+        <v>895</v>
+      </c>
+      <c r="AB172">
+        <v>-3</v>
       </c>
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.3">
@@ -47867,6 +49019,15 @@
         <f>Control!A185</f>
         <v>Ode Osbourne</v>
       </c>
+      <c r="B187">
+        <v>33</v>
+      </c>
+      <c r="C187">
+        <v>171</v>
+      </c>
+      <c r="D187">
+        <v>185</v>
+      </c>
       <c r="E187">
         <v>13</v>
       </c>
@@ -47879,25 +49040,61 @@
       <c r="H187">
         <v>6</v>
       </c>
+      <c r="I187">
+        <v>0.38</v>
+      </c>
+      <c r="J187">
+        <v>0.25</v>
+      </c>
+      <c r="K187">
+        <v>0.38</v>
+      </c>
+      <c r="L187">
+        <v>0.5</v>
+      </c>
+      <c r="M187">
+        <v>0.23</v>
+      </c>
+      <c r="N187">
+        <v>0.25</v>
+      </c>
+      <c r="O187" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="P187" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="T187">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="U187">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V187">
+        <v>0.65</v>
+      </c>
       <c r="W187">
         <f>Control!B185</f>
-        <v>27.90909090909091</v>
+        <v>30.3</v>
       </c>
       <c r="X187">
         <f>'Ctrl pct'!B185</f>
-        <v>6.8911335578002247E-2</v>
+        <v>7.4630541871921183E-2</v>
       </c>
       <c r="Y187">
         <f>Controlled!B185</f>
-        <v>143.45454545454547</v>
+        <v>146</v>
       </c>
       <c r="Z187">
         <f>'Controlled pct'!B185</f>
-        <v>0.35420875420875425</v>
+        <v>0.35960591133004927</v>
       </c>
       <c r="AA187">
         <f>'Fight Time'!B185</f>
-        <v>405</v>
+        <v>406</v>
+      </c>
+      <c r="AB187">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.3">
@@ -64201,179 +65398,667 @@
       </c>
     </row>
     <row r="408" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A408" t="str">
+        <f>Control!A406</f>
+        <v>Uros Medic</v>
+      </c>
+      <c r="B408">
+        <v>32</v>
+      </c>
+      <c r="C408">
+        <v>185</v>
+      </c>
+      <c r="D408">
+        <v>180</v>
+      </c>
+      <c r="E408">
+        <v>10</v>
+      </c>
+      <c r="F408">
+        <v>3</v>
+      </c>
+      <c r="G408">
+        <v>4</v>
+      </c>
+      <c r="H408">
+        <v>3</v>
+      </c>
+      <c r="I408">
+        <v>0.8</v>
+      </c>
+      <c r="J408">
+        <v>0.33</v>
+      </c>
+      <c r="K408">
+        <v>0.2</v>
+      </c>
+      <c r="L408">
+        <v>0.67</v>
+      </c>
+      <c r="M408">
+        <v>0</v>
+      </c>
+      <c r="N408">
+        <v>0</v>
+      </c>
+      <c r="O408" s="8">
+        <v>5.49</v>
+      </c>
+      <c r="P408" s="8">
+        <v>3.46</v>
+      </c>
+      <c r="T408">
+        <v>0.37</v>
+      </c>
+      <c r="U408">
+        <v>0.5</v>
+      </c>
+      <c r="V408">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="W408">
         <f>Control!B406</f>
-        <v>0</v>
+        <v>12.285714285714286</v>
       </c>
       <c r="X408">
         <f>'Ctrl pct'!B406</f>
-        <v>0</v>
+        <v>4.054691183404055E-2</v>
       </c>
       <c r="Y408">
         <f>Controlled!B406</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="Z408">
         <f>'Controlled pct'!B406</f>
-        <v>0</v>
+        <v>0.35643564356435642</v>
       </c>
       <c r="AA408">
         <f>'Fight Time'!B406</f>
-        <v>0</v>
+        <v>303</v>
+      </c>
+      <c r="AB408">
+        <v>-1</v>
       </c>
     </row>
     <row r="409" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A409" t="str">
+        <f>Control!A407</f>
+        <v>Gilbert Urbina</v>
+      </c>
+      <c r="B409">
+        <v>29</v>
+      </c>
+      <c r="C409">
+        <v>191</v>
+      </c>
+      <c r="D409">
+        <v>191</v>
+      </c>
+      <c r="E409">
+        <v>7</v>
+      </c>
+      <c r="F409">
+        <v>3</v>
+      </c>
+      <c r="G409">
+        <v>1</v>
+      </c>
+      <c r="H409">
+        <v>2</v>
+      </c>
+      <c r="I409">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J409">
+        <v>0.33</v>
+      </c>
+      <c r="K409">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L409">
+        <v>0.33</v>
+      </c>
+      <c r="M409">
+        <v>0.43</v>
+      </c>
+      <c r="N409">
+        <v>0.33</v>
+      </c>
+      <c r="O409" s="8">
+        <v>5.61</v>
+      </c>
+      <c r="P409" s="8">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="T409">
+        <v>3.04</v>
+      </c>
+      <c r="U409">
+        <v>0.44</v>
+      </c>
+      <c r="V409">
+        <v>0</v>
+      </c>
       <c r="W409">
         <f>Control!B407</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="X409">
         <f>'Ctrl pct'!B407</f>
-        <v>0</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="Y409">
         <f>Controlled!B407</f>
-        <v>0</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="Z409">
         <f>'Controlled pct'!B407</f>
-        <v>0</v>
+        <v>7.9365079365079375E-2</v>
       </c>
       <c r="AA409">
         <f>'Fight Time'!B407</f>
-        <v>0</v>
+        <v>399</v>
+      </c>
+      <c r="AB409">
+        <v>-1</v>
       </c>
     </row>
     <row r="410" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A410" t="str">
+        <f>Control!A408</f>
+        <v>Joselyne Edwards</v>
+      </c>
+      <c r="B410">
+        <v>29</v>
+      </c>
+      <c r="C410">
+        <v>173</v>
+      </c>
+      <c r="D410">
+        <v>178</v>
+      </c>
+      <c r="E410">
+        <v>15</v>
+      </c>
+      <c r="F410">
+        <v>6</v>
+      </c>
+      <c r="G410">
+        <v>6</v>
+      </c>
+      <c r="H410">
+        <v>4</v>
+      </c>
+      <c r="I410">
+        <v>0.4</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>0.27</v>
+      </c>
+      <c r="L410">
+        <v>0.17</v>
+      </c>
+      <c r="M410">
+        <v>0.33</v>
+      </c>
+      <c r="N410">
+        <v>0.83</v>
+      </c>
+      <c r="O410" s="8">
+        <v>4.62</v>
+      </c>
+      <c r="P410" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="T410">
+        <v>1.31</v>
+      </c>
+      <c r="U410">
+        <v>0.41</v>
+      </c>
+      <c r="V410">
+        <v>0.61</v>
+      </c>
       <c r="W410">
         <f>Control!B408</f>
-        <v>0</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="X410">
         <f>'Ctrl pct'!B408</f>
-        <v>0</v>
+        <v>0.18527980535279806</v>
       </c>
       <c r="Y410">
         <f>Controlled!B408</f>
-        <v>0</v>
+        <v>267.60000000000002</v>
       </c>
       <c r="Z410">
         <f>'Controlled pct'!B408</f>
-        <v>0</v>
+        <v>0.32554744525547447</v>
       </c>
       <c r="AA410">
         <f>'Fight Time'!B408</f>
-        <v>0</v>
+        <v>822</v>
+      </c>
+      <c r="AB410">
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A411" t="str">
+        <f>Control!A409</f>
+        <v>Toshiomi Kazama</v>
+      </c>
+      <c r="B411">
+        <v>28</v>
+      </c>
+      <c r="C411">
+        <v>170</v>
+      </c>
+      <c r="D411">
+        <v>175</v>
+      </c>
+      <c r="E411">
+        <v>11</v>
+      </c>
+      <c r="F411">
+        <v>4</v>
+      </c>
+      <c r="G411">
+        <v>1</v>
+      </c>
+      <c r="H411">
+        <v>2</v>
+      </c>
+      <c r="I411">
+        <v>0.27</v>
+      </c>
+      <c r="J411">
+        <v>0.75</v>
+      </c>
+      <c r="K411">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L411">
+        <v>0</v>
+      </c>
+      <c r="M411">
+        <v>0.18</v>
+      </c>
+      <c r="N411">
+        <v>0.25</v>
+      </c>
+      <c r="O411" s="8">
+        <v>1.72</v>
+      </c>
+      <c r="P411" s="8">
+        <v>3.89</v>
+      </c>
+      <c r="T411">
+        <v>1.68</v>
+      </c>
+      <c r="U411">
+        <v>0.12</v>
+      </c>
+      <c r="V411">
+        <v>0.66</v>
+      </c>
       <c r="W411">
         <f>Control!B409</f>
-        <v>0</v>
+        <v>86.333333333333329</v>
       </c>
       <c r="X411">
         <f>'Ctrl pct'!B409</f>
-        <v>0</v>
+        <v>0.21529509559434745</v>
       </c>
       <c r="Y411">
         <f>Controlled!B409</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="Z411">
         <f>'Controlled pct'!B409</f>
-        <v>0</v>
+        <v>0.12718204488778054</v>
       </c>
       <c r="AA411">
         <f>'Fight Time'!B409</f>
-        <v>0</v>
+        <v>401</v>
+      </c>
+      <c r="AB411">
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A412" t="str">
+        <f>Control!A410</f>
+        <v>Julija Stoliarenko</v>
+      </c>
+      <c r="B412">
+        <v>32</v>
+      </c>
+      <c r="C412">
+        <v>170</v>
+      </c>
+      <c r="D412">
+        <v>175</v>
+      </c>
+      <c r="E412">
+        <v>11</v>
+      </c>
+      <c r="F412">
+        <v>8</v>
+      </c>
+      <c r="G412">
+        <v>2</v>
+      </c>
+      <c r="H412">
+        <v>6</v>
+      </c>
+      <c r="I412">
+        <v>0</v>
+      </c>
+      <c r="J412">
+        <v>0.5</v>
+      </c>
+      <c r="K412">
+        <v>0.91</v>
+      </c>
+      <c r="L412">
+        <v>0.13</v>
+      </c>
+      <c r="M412">
+        <v>0.09</v>
+      </c>
+      <c r="N412">
+        <v>0.38</v>
+      </c>
+      <c r="O412" s="8">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="P412" s="8">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="T412">
+        <v>0.93</v>
+      </c>
+      <c r="U412">
+        <v>0.27</v>
+      </c>
+      <c r="V412">
+        <v>0.54</v>
+      </c>
       <c r="W412">
         <f>Control!B410</f>
-        <v>0</v>
+        <v>64.625</v>
       </c>
       <c r="X412">
         <f>'Ctrl pct'!B410</f>
-        <v>0</v>
+        <v>0.10629111842105263</v>
       </c>
       <c r="Y412">
         <f>Controlled!B410</f>
-        <v>0</v>
+        <v>274.125</v>
       </c>
       <c r="Z412">
         <f>'Controlled pct'!B410</f>
-        <v>0</v>
+        <v>0.45086348684210525</v>
       </c>
       <c r="AA412">
         <f>'Fight Time'!B410</f>
-        <v>0</v>
+        <v>608</v>
+      </c>
+      <c r="AB412">
+        <v>-1</v>
       </c>
     </row>
     <row r="413" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A413" t="str">
+        <f>Control!A411</f>
+        <v>Gabriella Fernandes</v>
+      </c>
+      <c r="B413">
+        <v>31</v>
+      </c>
+      <c r="C413">
+        <v>168</v>
+      </c>
+      <c r="D413">
+        <v>168</v>
+      </c>
+      <c r="E413">
+        <v>10</v>
+      </c>
+      <c r="F413">
+        <v>3</v>
+      </c>
+      <c r="G413">
+        <v>2</v>
+      </c>
+      <c r="H413">
+        <v>2</v>
+      </c>
+      <c r="I413">
+        <v>0.2</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413">
+        <v>0.4</v>
+      </c>
+      <c r="L413">
+        <v>0</v>
+      </c>
+      <c r="M413">
+        <v>0.4</v>
+      </c>
+      <c r="N413">
+        <v>1</v>
+      </c>
+      <c r="O413" s="8">
+        <v>3.46</v>
+      </c>
+      <c r="P413" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="T413">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U413">
+        <v>0.18</v>
+      </c>
+      <c r="V413">
+        <v>0.6</v>
+      </c>
       <c r="W413">
         <f>Control!B411</f>
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="X413">
         <f>'Ctrl pct'!B411</f>
-        <v>0</v>
+        <v>6.2577447335811651E-2</v>
       </c>
       <c r="Y413">
         <f>Controlled!B411</f>
-        <v>0</v>
+        <v>351.5</v>
       </c>
       <c r="Z413">
         <f>'Controlled pct'!B411</f>
-        <v>0</v>
+        <v>0.43556381660470878</v>
       </c>
       <c r="AA413">
         <f>'Fight Time'!B411</f>
-        <v>0</v>
+        <v>807</v>
+      </c>
+      <c r="AB413">
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A414" t="str">
+        <f>Control!A412</f>
+        <v>Miles Johns</v>
+      </c>
+      <c r="B414">
+        <v>31</v>
+      </c>
+      <c r="C414">
+        <v>170</v>
+      </c>
+      <c r="D414">
+        <v>168</v>
+      </c>
+      <c r="E414">
+        <v>15</v>
+      </c>
+      <c r="F414">
+        <v>3</v>
+      </c>
+      <c r="G414">
+        <v>6</v>
+      </c>
+      <c r="H414">
+        <v>3</v>
+      </c>
+      <c r="I414">
+        <v>0.27</v>
+      </c>
+      <c r="J414">
+        <v>0.33</v>
+      </c>
+      <c r="K414">
+        <v>0.13</v>
+      </c>
+      <c r="L414">
+        <v>0.33</v>
+      </c>
+      <c r="M414">
+        <v>0.6</v>
+      </c>
+      <c r="N414">
+        <v>0.33</v>
+      </c>
+      <c r="O414" s="8">
+        <v>3.16</v>
+      </c>
+      <c r="P414" s="8">
+        <v>2.65</v>
+      </c>
+      <c r="T414">
+        <v>0.92</v>
+      </c>
+      <c r="U414">
+        <v>0.2</v>
+      </c>
+      <c r="V414">
+        <v>0.81</v>
+      </c>
       <c r="W414">
         <f>Control!B412</f>
-        <v>0</v>
+        <v>120.11111111111111</v>
       </c>
       <c r="X414">
         <f>'Ctrl pct'!B412</f>
-        <v>0</v>
+        <v>0.14939192924267553</v>
       </c>
       <c r="Y414">
         <f>Controlled!B412</f>
-        <v>0</v>
+        <v>72.777777777777771</v>
       </c>
       <c r="Z414">
         <f>'Controlled pct'!B412</f>
-        <v>0</v>
+        <v>9.0519624101713644E-2</v>
       </c>
       <c r="AA414">
         <f>'Fight Time'!B412</f>
-        <v>0</v>
+        <v>804</v>
+      </c>
+      <c r="AB414">
+        <v>-1</v>
       </c>
     </row>
     <row r="415" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A415" t="str">
+        <f>Control!A413</f>
+        <v>Eryk Anders</v>
+      </c>
+      <c r="B415">
+        <v>38</v>
+      </c>
+      <c r="C415">
+        <v>185</v>
+      </c>
+      <c r="D415">
+        <v>191</v>
+      </c>
+      <c r="E415">
+        <v>17</v>
+      </c>
+      <c r="F415">
+        <v>8</v>
+      </c>
+      <c r="G415">
+        <v>9</v>
+      </c>
+      <c r="H415">
+        <v>8</v>
+      </c>
+      <c r="I415">
+        <v>0.59</v>
+      </c>
+      <c r="J415">
+        <v>0.13</v>
+      </c>
+      <c r="K415">
+        <v>0.06</v>
+      </c>
+      <c r="L415">
+        <v>0.13</v>
+      </c>
+      <c r="M415">
+        <v>0.35</v>
+      </c>
+      <c r="N415">
+        <v>0.75</v>
+      </c>
+      <c r="O415" s="8">
+        <v>3.54</v>
+      </c>
+      <c r="P415" s="8">
+        <v>4.05</v>
+      </c>
+      <c r="T415">
+        <v>1.71</v>
+      </c>
+      <c r="U415">
+        <v>0.24</v>
+      </c>
+      <c r="V415">
+        <v>0.8</v>
+      </c>
       <c r="W415">
         <f>Control!B413</f>
-        <v>0</v>
+        <v>236.75</v>
       </c>
       <c r="X415">
         <f>'Ctrl pct'!B413</f>
-        <v>0</v>
+        <v>0.3238714090287278</v>
       </c>
       <c r="Y415">
         <f>Controlled!B413</f>
-        <v>0</v>
+        <v>71.625</v>
       </c>
       <c r="Z415">
         <f>'Controlled pct'!B413</f>
-        <v>0</v>
+        <v>9.7982216142270859E-2</v>
       </c>
       <c r="AA415">
         <f>'Fight Time'!B413</f>
-        <v>0</v>
+        <v>731</v>
+      </c>
+      <c r="AB415">
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:28" x14ac:dyDescent="0.3">

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5644A7D0-7954-42C1-BDA9-486926E8773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAA7639-439B-43AC-A10B-DAF3EA62E009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="678">
   <si>
     <t>Khaos</t>
   </si>
@@ -2014,6 +2014,57 @@
   <si>
     <t>Eryk Anders</t>
   </si>
+  <si>
+    <t>Dakkar Klose</t>
+  </si>
+  <si>
+    <t>Edson Barboza</t>
+  </si>
+  <si>
+    <t>Diego Ferreira</t>
+  </si>
+  <si>
+    <t>Gerald Meerschaert</t>
+  </si>
+  <si>
+    <t>Jessica Andrade</t>
+  </si>
+  <si>
+    <t>Bryan Battle</t>
+  </si>
+  <si>
+    <t>Chase Hooper</t>
+  </si>
+  <si>
+    <t>Alexander Hernandez</t>
+  </si>
+  <si>
+    <t>Carlos Prates</t>
+  </si>
+  <si>
+    <t>Geoff Neal</t>
+  </si>
+  <si>
+    <t>Michael Page</t>
+  </si>
+  <si>
+    <t>Kai Asakura</t>
+  </si>
+  <si>
+    <t>Tim Elliott</t>
+  </si>
+  <si>
+    <t>Aaron Pico</t>
+  </si>
+  <si>
+    <t>Khamzat Chimaev</t>
+  </si>
+  <si>
+    <t>Dricus Du Plessis</t>
+  </si>
+  <si>
+    <t>Drakkar Klose</t>
+  </si>
 </sst>
 </file>
 
@@ -2122,11 +2173,11 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2441,10 +2492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
-  <dimension ref="A1:AE413"/>
+  <dimension ref="A1:AE428"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H160" sqref="H160"/>
+    <sheetView topLeftCell="A178" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C202" sqref="C202:L202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2526,22 +2577,22 @@
         <f xml:space="preserve"> AVERAGE(C3:BC3)</f>
         <v>192.5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>116</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>264</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>128</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>36</v>
       </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
         <v>431</v>
       </c>
       <c r="I3">
@@ -2918,7 +2969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2940,7 +2991,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>561</v>
       </c>
@@ -2965,7 +3016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>285</v>
       </c>
@@ -2989,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>286</v>
       </c>
@@ -3041,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>287</v>
       </c>
@@ -3092,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>288</v>
       </c>
@@ -3100,10 +3151,10 @@
         <f xml:space="preserve"> AVERAGE(C22:BC22)</f>
         <v>132.1</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>17</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>129</v>
       </c>
       <c r="E22">
@@ -3132,70 +3183,46 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>289</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="1"/>
-        <v>73.222222222222229</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
+        <f xml:space="preserve"> AVERAGE(C23:BC23)</f>
+        <v>100.7</v>
+      </c>
+      <c r="C23" s="14">
+        <v>22</v>
+      </c>
+      <c r="D23" s="14">
+        <v>30</v>
+      </c>
+      <c r="E23" s="13">
+        <v>2</v>
+      </c>
+      <c r="F23" s="13">
         <v>5</v>
       </c>
-      <c r="E23">
-        <v>189</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>34</v>
-      </c>
-      <c r="H23">
-        <v>22</v>
-      </c>
-      <c r="I23">
-        <v>42</v>
-      </c>
-      <c r="J23">
-        <v>9</v>
-      </c>
-      <c r="K23">
-        <v>22</v>
-      </c>
-      <c r="L23">
-        <v>30</v>
-      </c>
-      <c r="M23" s="10">
-        <v>2</v>
-      </c>
-      <c r="N23" s="10">
-        <v>5</v>
-      </c>
-      <c r="O23" s="10">
+      <c r="G23" s="13">
         <v>254</v>
       </c>
-      <c r="P23" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10">
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
         <v>187</v>
       </c>
-      <c r="R23" s="10">
+      <c r="J23" s="13">
         <v>378</v>
       </c>
-      <c r="S23" s="10">
-        <v>0</v>
-      </c>
-      <c r="T23" s="10">
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3248,7 +3275,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>290</v>
       </c>
@@ -3263,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>291</v>
       </c>
@@ -3299,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>292</v>
       </c>
@@ -3311,13 +3338,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>293</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>55.2</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3331,8 +3358,11 @@
       <c r="F28">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3387,7 +3417,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>294</v>
       </c>
@@ -3417,7 +3447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>295</v>
       </c>
@@ -3438,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3497,31 +3527,31 @@
         <f xml:space="preserve"> AVERAGE(C35:BC35)</f>
         <v>88.7</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="13">
         <v>106</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <v>34</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <v>45</v>
       </c>
-      <c r="F35" s="14">
-        <v>0</v>
-      </c>
-      <c r="G35" s="14">
+      <c r="F35" s="13">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13">
         <v>258</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="13">
         <v>175</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="13">
         <v>15</v>
       </c>
-      <c r="J35" s="14">
-        <v>0</v>
-      </c>
-      <c r="K35" s="14">
+      <c r="J35" s="13">
+        <v>0</v>
+      </c>
+      <c r="K35" s="13">
         <v>230</v>
       </c>
       <c r="L35">
@@ -5110,7 +5140,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>334</v>
       </c>
@@ -5143,7 +5173,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>335</v>
       </c>
@@ -5158,7 +5188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>336</v>
       </c>
@@ -5228,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>337</v>
       </c>
@@ -5249,94 +5279,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>338</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" si="2"/>
-        <v>96.15384615384616</v>
-      </c>
-      <c r="C85">
-        <v>273</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>150</v>
-      </c>
-      <c r="F85">
-        <v>52</v>
-      </c>
-      <c r="G85">
+        <f xml:space="preserve"> AVERAGE(C85:BC85)</f>
+        <v>32.6</v>
+      </c>
+      <c r="C85" s="13">
+        <v>15</v>
+      </c>
+      <c r="D85" s="13">
+        <v>0</v>
+      </c>
+      <c r="E85" s="13">
+        <v>0</v>
+      </c>
+      <c r="F85" s="13">
+        <v>11</v>
+      </c>
+      <c r="G85" s="13">
+        <v>205</v>
+      </c>
+      <c r="H85" s="13">
+        <v>5</v>
+      </c>
+      <c r="I85" s="13">
         <v>2</v>
       </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>148</v>
-      </c>
-      <c r="J85">
-        <v>130</v>
-      </c>
-      <c r="K85">
-        <v>197</v>
-      </c>
-      <c r="L85">
-        <v>221</v>
-      </c>
-      <c r="M85" s="10">
-        <v>223</v>
-      </c>
-      <c r="N85" s="10">
-        <v>71</v>
-      </c>
-      <c r="O85" s="10">
-        <v>185</v>
-      </c>
-      <c r="P85" s="10">
-        <v>451</v>
-      </c>
-      <c r="Q85" s="10">
-        <v>71</v>
-      </c>
-      <c r="R85" s="10">
-        <v>0</v>
-      </c>
-      <c r="S85" s="10">
-        <v>15</v>
-      </c>
-      <c r="T85" s="10">
-        <v>0</v>
-      </c>
-      <c r="U85" s="10">
-        <v>0</v>
-      </c>
-      <c r="V85" s="10">
-        <v>11</v>
-      </c>
-      <c r="W85" s="10">
-        <v>205</v>
-      </c>
-      <c r="X85" s="10">
-        <v>5</v>
-      </c>
-      <c r="Y85" s="10">
-        <v>2</v>
-      </c>
-      <c r="Z85">
+      <c r="J85" s="14">
         <v>54</v>
       </c>
-      <c r="AA85">
+      <c r="K85" s="14">
         <v>34</v>
       </c>
-      <c r="AB85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L85" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>339</v>
       </c>
@@ -5363,7 +5345,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>340</v>
       </c>
@@ -5411,7 +5393,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>341</v>
       </c>
@@ -5447,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>342</v>
       </c>
@@ -5495,7 +5477,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>343</v>
       </c>
@@ -5546,7 +5528,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>344</v>
       </c>
@@ -5585,7 +5567,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>345</v>
       </c>
@@ -5640,7 +5622,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -5682,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>346</v>
       </c>
@@ -5694,7 +5676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>347</v>
       </c>
@@ -5712,7 +5694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>348</v>
       </c>
@@ -6194,53 +6176,41 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>668</v>
       </c>
       <c r="B115" s="1">
-        <f t="shared" si="2"/>
-        <v>73.857142857142861</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>431</v>
-      </c>
-      <c r="E115">
-        <v>22</v>
-      </c>
-      <c r="F115">
-        <v>20</v>
-      </c>
-      <c r="G115">
-        <v>67</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115">
+        <f xml:space="preserve"> AVERAGE(C115:BC115)</f>
+        <v>89.2</v>
+      </c>
+      <c r="C115" s="14">
+        <v>0</v>
+      </c>
+      <c r="D115" s="14">
+        <v>0</v>
+      </c>
+      <c r="E115" s="14">
+        <v>0</v>
+      </c>
+      <c r="F115" s="14">
         <v>5</v>
       </c>
-      <c r="L115">
+      <c r="G115" s="14">
         <v>248</v>
       </c>
-      <c r="M115" s="10">
+      <c r="H115" s="13">
         <v>23</v>
       </c>
-      <c r="N115" s="10">
+      <c r="I115" s="13">
         <v>35</v>
       </c>
-      <c r="O115" s="10">
+      <c r="J115" s="13">
         <v>142</v>
       </c>
-      <c r="P115" s="10">
+      <c r="K115" s="13">
         <v>40</v>
+      </c>
+      <c r="L115" s="13">
+        <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
@@ -6432,10 +6402,10 @@
       <c r="J120">
         <v>213</v>
       </c>
-      <c r="K120" s="14">
+      <c r="K120" s="13">
         <v>170</v>
       </c>
-      <c r="L120" s="14">
+      <c r="L120" s="13">
         <v>15</v>
       </c>
     </row>
@@ -7568,42 +7538,39 @@
         <v>392</v>
       </c>
       <c r="B154" s="1">
-        <f t="shared" si="3"/>
-        <v>213.72727272727272</v>
-      </c>
-      <c r="C154">
-        <v>250</v>
-      </c>
-      <c r="D154">
-        <v>207</v>
-      </c>
-      <c r="E154">
+        <f xml:space="preserve"> AVERAGE(C154:BC154)</f>
+        <v>234.4</v>
+      </c>
+      <c r="C154" s="14">
         <v>452</v>
       </c>
-      <c r="F154">
+      <c r="D154" s="14">
         <f>13*60+26</f>
         <v>806</v>
       </c>
-      <c r="G154">
+      <c r="E154" s="14">
         <v>17</v>
       </c>
-      <c r="H154">
+      <c r="F154" s="14">
         <v>1</v>
       </c>
-      <c r="I154">
+      <c r="G154" s="14">
         <v>13</v>
       </c>
-      <c r="J154">
+      <c r="H154" s="14">
         <v>389</v>
       </c>
-      <c r="K154">
+      <c r="I154" s="14">
         <v>3</v>
       </c>
-      <c r="L154">
+      <c r="J154" s="14">
         <v>112</v>
       </c>
-      <c r="M154" s="10">
+      <c r="K154" s="13">
         <v>101</v>
+      </c>
+      <c r="L154" s="13">
+        <v>450</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
@@ -8540,7 +8507,7 @@
       <c r="K185">
         <v>67</v>
       </c>
-      <c r="L185" s="14">
+      <c r="L185" s="13">
         <v>7</v>
       </c>
     </row>
@@ -8993,53 +8960,38 @@
         <v>434</v>
       </c>
       <c r="B202" s="1">
-        <f t="shared" si="4"/>
-        <v>29.733333333333334</v>
-      </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-      <c r="D202">
-        <v>2</v>
-      </c>
-      <c r="E202">
-        <v>8</v>
-      </c>
-      <c r="F202">
-        <v>90</v>
-      </c>
-      <c r="G202">
-        <v>0</v>
-      </c>
-      <c r="H202">
-        <v>69</v>
-      </c>
-      <c r="I202">
+        <f xml:space="preserve"> AVERAGE(C202:BC202)</f>
+        <v>29.5</v>
+      </c>
+      <c r="C202" s="14">
         <v>3</v>
       </c>
-      <c r="J202">
+      <c r="D202" s="14">
         <v>17</v>
       </c>
-      <c r="K202">
+      <c r="E202" s="14">
         <v>57</v>
       </c>
-      <c r="L202">
+      <c r="F202" s="14">
         <v>72</v>
       </c>
-      <c r="M202" s="10">
+      <c r="G202" s="13">
         <v>13</v>
       </c>
-      <c r="N202" s="10">
+      <c r="H202" s="13">
         <v>96</v>
       </c>
-      <c r="O202" s="10">
-        <v>0</v>
-      </c>
-      <c r="P202" s="10">
+      <c r="I202" s="13">
+        <v>0</v>
+      </c>
+      <c r="J202" s="13">
         <v>15</v>
       </c>
-      <c r="Q202" s="10">
+      <c r="K202" s="13">
         <v>4</v>
+      </c>
+      <c r="L202" s="13">
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.3">
@@ -14245,7 +14197,7 @@
         <v>628</v>
       </c>
       <c r="B383" s="1">
-        <f t="shared" ref="B383:B413" si="7" xml:space="preserve"> AVERAGE(C383:BC383)</f>
+        <f t="shared" ref="B383:B428" si="7" xml:space="preserve"> AVERAGE(C383:BC383)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="C383">
@@ -15084,6 +15036,451 @@
       </c>
       <c r="J413">
         <v>264</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A414" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B414" s="1">
+        <f t="shared" si="7"/>
+        <v>113.66666666666667</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414">
+        <v>116</v>
+      </c>
+      <c r="E414">
+        <v>125</v>
+      </c>
+      <c r="F414">
+        <v>40</v>
+      </c>
+      <c r="G414">
+        <v>333</v>
+      </c>
+      <c r="H414">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>662</v>
+      </c>
+      <c r="B415" s="1">
+        <f t="shared" si="7"/>
+        <v>52.625</v>
+      </c>
+      <c r="C415">
+        <v>115</v>
+      </c>
+      <c r="D415">
+        <v>98</v>
+      </c>
+      <c r="E415">
+        <v>3</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+      <c r="G415">
+        <v>2</v>
+      </c>
+      <c r="H415">
+        <v>2</v>
+      </c>
+      <c r="I415">
+        <v>184</v>
+      </c>
+      <c r="J415">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>663</v>
+      </c>
+      <c r="B416" s="1">
+        <f t="shared" si="7"/>
+        <v>107.85714285714286</v>
+      </c>
+      <c r="C416">
+        <v>234</v>
+      </c>
+      <c r="D416">
+        <v>58</v>
+      </c>
+      <c r="E416">
+        <v>310</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+      <c r="G416">
+        <v>1</v>
+      </c>
+      <c r="H416">
+        <v>132</v>
+      </c>
+      <c r="I416">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>664</v>
+      </c>
+      <c r="B417" s="1">
+        <f t="shared" si="7"/>
+        <v>139</v>
+      </c>
+      <c r="C417">
+        <v>55</v>
+      </c>
+      <c r="D417">
+        <v>194</v>
+      </c>
+      <c r="E417">
+        <v>114</v>
+      </c>
+      <c r="F417">
+        <v>132</v>
+      </c>
+      <c r="G417">
+        <v>0</v>
+      </c>
+      <c r="H417">
+        <v>114</v>
+      </c>
+      <c r="I417">
+        <v>303</v>
+      </c>
+      <c r="J417">
+        <v>21</v>
+      </c>
+      <c r="K417">
+        <v>173</v>
+      </c>
+      <c r="L417">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>665</v>
+      </c>
+      <c r="B418" s="1">
+        <f t="shared" si="7"/>
+        <v>50.3</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>38</v>
+      </c>
+      <c r="E418">
+        <v>71</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+      <c r="H418">
+        <v>17</v>
+      </c>
+      <c r="I418">
+        <v>13</v>
+      </c>
+      <c r="J418">
+        <v>233</v>
+      </c>
+      <c r="K418">
+        <v>131</v>
+      </c>
+      <c r="L418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>666</v>
+      </c>
+      <c r="B419" s="1">
+        <f t="shared" si="7"/>
+        <v>138.44444444444446</v>
+      </c>
+      <c r="C419">
+        <v>82</v>
+      </c>
+      <c r="D419">
+        <v>200</v>
+      </c>
+      <c r="E419">
+        <v>2</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+      <c r="G419">
+        <v>3</v>
+      </c>
+      <c r="H419">
+        <v>210</v>
+      </c>
+      <c r="I419">
+        <v>93</v>
+      </c>
+      <c r="J419">
+        <v>211</v>
+      </c>
+      <c r="K419">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>667</v>
+      </c>
+      <c r="B420" s="1">
+        <f t="shared" si="7"/>
+        <v>220.9</v>
+      </c>
+      <c r="C420">
+        <v>176</v>
+      </c>
+      <c r="D420">
+        <v>44</v>
+      </c>
+      <c r="E420">
+        <v>175</v>
+      </c>
+      <c r="F420">
+        <v>424</v>
+      </c>
+      <c r="G420">
+        <v>0</v>
+      </c>
+      <c r="H420">
+        <v>234</v>
+      </c>
+      <c r="I420">
+        <v>57</v>
+      </c>
+      <c r="J420">
+        <v>363</v>
+      </c>
+      <c r="K420">
+        <v>128</v>
+      </c>
+      <c r="L420">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>669</v>
+      </c>
+      <c r="B421" s="1">
+        <f t="shared" si="7"/>
+        <v>48.6</v>
+      </c>
+      <c r="C421">
+        <v>60</v>
+      </c>
+      <c r="D421">
+        <v>4</v>
+      </c>
+      <c r="E421">
+        <v>4</v>
+      </c>
+      <c r="F421">
+        <v>69</v>
+      </c>
+      <c r="G421">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>670</v>
+      </c>
+      <c r="B422" s="1">
+        <f t="shared" si="7"/>
+        <v>111.85714285714286</v>
+      </c>
+      <c r="C422">
+        <v>226</v>
+      </c>
+      <c r="D422">
+        <v>230</v>
+      </c>
+      <c r="E422">
+        <v>3</v>
+      </c>
+      <c r="F422">
+        <v>0</v>
+      </c>
+      <c r="G422">
+        <v>72</v>
+      </c>
+      <c r="H422">
+        <v>225</v>
+      </c>
+      <c r="I422">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>671</v>
+      </c>
+      <c r="B423" s="1">
+        <f t="shared" si="7"/>
+        <v>79.333333333333329</v>
+      </c>
+      <c r="C423">
+        <v>86</v>
+      </c>
+      <c r="D423">
+        <v>112</v>
+      </c>
+      <c r="E423">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>672</v>
+      </c>
+      <c r="B424" s="1">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="C424">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>673</v>
+      </c>
+      <c r="B425" s="1">
+        <f t="shared" si="7"/>
+        <v>273.88888888888891</v>
+      </c>
+      <c r="C425">
+        <v>122</v>
+      </c>
+      <c r="D425">
+        <v>241</v>
+      </c>
+      <c r="E425">
+        <v>162</v>
+      </c>
+      <c r="F425">
+        <f>13*60+19</f>
+        <v>799</v>
+      </c>
+      <c r="G425">
+        <v>148</v>
+      </c>
+      <c r="H425">
+        <v>52</v>
+      </c>
+      <c r="I425">
+        <v>673</v>
+      </c>
+      <c r="J425">
+        <v>143</v>
+      </c>
+      <c r="K425">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>674</v>
+      </c>
+      <c r="B426" s="1">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="C426" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>675</v>
+      </c>
+      <c r="B427" s="1">
+        <f t="shared" si="7"/>
+        <v>202</v>
+      </c>
+      <c r="C427">
+        <v>354</v>
+      </c>
+      <c r="D427">
+        <v>179</v>
+      </c>
+      <c r="E427">
+        <v>2</v>
+      </c>
+      <c r="F427">
+        <v>183</v>
+      </c>
+      <c r="G427">
+        <v>146</v>
+      </c>
+      <c r="H427">
+        <v>116</v>
+      </c>
+      <c r="I427">
+        <v>436</v>
+      </c>
+      <c r="J427">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>676</v>
+      </c>
+      <c r="B428" s="1">
+        <f t="shared" si="7"/>
+        <v>111.22222222222223</v>
+      </c>
+      <c r="C428">
+        <v>2</v>
+      </c>
+      <c r="D428">
+        <v>94</v>
+      </c>
+      <c r="E428">
+        <v>78</v>
+      </c>
+      <c r="F428">
+        <v>333</v>
+      </c>
+      <c r="G428">
+        <v>85</v>
+      </c>
+      <c r="H428">
+        <v>57</v>
+      </c>
+      <c r="I428">
+        <v>128</v>
+      </c>
+      <c r="J428">
+        <v>219</v>
+      </c>
+      <c r="K428">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -15094,10 +15491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
-  <dimension ref="A1:B413"/>
+  <dimension ref="A1:B428"/>
   <sheetViews>
-    <sheetView topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="B405" sqref="B405:B413"/>
+    <sheetView topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="B413" sqref="B413:B428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15309,7 +15706,7 @@
       </c>
       <c r="B23">
         <f>Control!B23/'Fight Time'!B23</f>
-        <v>8.8646758138283571E-2</v>
+        <v>0.12117930204572804</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -15354,7 +15751,7 @@
       </c>
       <c r="B28">
         <f>Control!B28/'Fight Time'!B28</f>
-        <v>4.7831632653061222E-2</v>
+        <v>0.11452282157676349</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -15867,7 +16264,7 @@
       </c>
       <c r="B85">
         <f>Control!B85/'Fight Time'!B85</f>
-        <v>0.13955565479513229</v>
+        <v>5.0076804915514597E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -16137,7 +16534,7 @@
       </c>
       <c r="B115">
         <f>Control!B115/'Fight Time'!B115</f>
-        <v>0.12068160597572362</v>
+        <v>0.14136291600633916</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -16488,7 +16885,7 @@
       </c>
       <c r="B154">
         <f>Control!B154/'Fight Time'!B154</f>
-        <v>0.26256421710967165</v>
+        <v>0.28550548112058466</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -16848,7 +17245,7 @@
       </c>
       <c r="B194">
         <f>Control!B194/'Fight Time'!B194</f>
-        <v>0.246823465801568</v>
+        <v>0.22618605227300878</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -16920,7 +17317,7 @@
       </c>
       <c r="B202">
         <f>Control!B202/'Fight Time'!B202</f>
-        <v>7.6632302405498287E-2</v>
+        <v>7.8877005347593579E-2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -18820,6 +19217,141 @@
       <c r="B413">
         <f>Control!B413/'Fight Time'!B413</f>
         <v>0.3238714090287278</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B414">
+        <f>Control!B414/'Fight Time'!B414</f>
+        <v>0.16715686274509806</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>662</v>
+      </c>
+      <c r="B415">
+        <f>Control!B415/'Fight Time'!B415</f>
+        <v>7.1892076502732244E-2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>663</v>
+      </c>
+      <c r="B416">
+        <f>Control!B416/'Fight Time'!B416</f>
+        <v>0.1840565577766943</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>664</v>
+      </c>
+      <c r="B417">
+        <f>Control!B417/'Fight Time'!B417</f>
+        <v>0.26375711574952559</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>665</v>
+      </c>
+      <c r="B418">
+        <f>Control!B418/'Fight Time'!B418</f>
+        <v>8.9661319073083778E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>666</v>
+      </c>
+      <c r="B419">
+        <f>Control!B419/'Fight Time'!B419</f>
+        <v>0.26778422523103379</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>667</v>
+      </c>
+      <c r="B420">
+        <f>Control!B420/'Fight Time'!B420</f>
+        <v>0.36272577996715927</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>669</v>
+      </c>
+      <c r="B421">
+        <f>Control!B421/'Fight Time'!B421</f>
+        <v>7.9153094462540721E-2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>670</v>
+      </c>
+      <c r="B422">
+        <f>Control!B422/'Fight Time'!B422</f>
+        <v>0.18991025951976717</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>671</v>
+      </c>
+      <c r="B423">
+        <f>Control!B423/'Fight Time'!B423</f>
+        <v>0.1337830241708825</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>672</v>
+      </c>
+      <c r="B424">
+        <f>Control!B424/'Fight Time'!B424</f>
+        <v>5.647058823529412E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>673</v>
+      </c>
+      <c r="B425">
+        <f>Control!B425/'Fight Time'!B425</f>
+        <v>0.37263794406651551</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>674</v>
+      </c>
+      <c r="B426">
+        <f>Control!B426/'Fight Time'!B426</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>675</v>
+      </c>
+      <c r="B427">
+        <f>Control!B427/'Fight Time'!B427</f>
+        <v>0.55342465753424652</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>676</v>
+      </c>
+      <c r="B428">
+        <f>Control!B428/'Fight Time'!B428</f>
+        <v>0.13481481481481483</v>
       </c>
     </row>
   </sheetData>
@@ -18829,10 +19361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
-  <dimension ref="A1:AE413"/>
+  <dimension ref="A1:AE428"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K156" sqref="K156"/>
+    <sheetView topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N197" sqref="N197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19348,7 +19880,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -19369,7 +19901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -19393,7 +19925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -19417,7 +19949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -19468,7 +20000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -19511,7 +20043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -19519,10 +20051,10 @@
         <f>AVERAGE(C22:BA22)</f>
         <v>38.1</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>129</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>17</v>
       </c>
       <c r="E22">
@@ -19550,73 +20082,46 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>66.315789473684205</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>40</v>
-      </c>
-      <c r="E23">
-        <v>286</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>14</v>
-      </c>
-      <c r="H23">
-        <v>22</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
+        <f>AVERAGE(C23:BA23)</f>
+        <v>76.599999999999994</v>
+      </c>
+      <c r="C23" s="14">
+        <v>45</v>
+      </c>
+      <c r="D23" s="14">
+        <v>130</v>
+      </c>
+      <c r="E23" s="14">
+        <v>151</v>
+      </c>
+      <c r="F23" s="14">
+        <v>158</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
+        <v>48</v>
+      </c>
+      <c r="I23" s="14">
+        <v>28</v>
+      </c>
+      <c r="J23" s="14">
+        <v>70</v>
+      </c>
+      <c r="K23" s="14">
         <v>119</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>45</v>
-      </c>
-      <c r="M23" s="11">
-        <v>130</v>
-      </c>
-      <c r="N23" s="11">
-        <v>151</v>
-      </c>
-      <c r="O23" s="11">
-        <v>158</v>
-      </c>
-      <c r="P23" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="11">
-        <v>48</v>
-      </c>
-      <c r="R23" s="11">
-        <v>28</v>
-      </c>
-      <c r="S23" s="11">
-        <v>70</v>
-      </c>
-      <c r="T23" s="11">
-        <v>119</v>
-      </c>
-      <c r="U23" s="11">
+      <c r="L23" s="14">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -19667,7 +20172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -19682,7 +20187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -19718,7 +20223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -19730,13 +20235,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
-        <v>82.5</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -19750,8 +20255,11 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -19805,7 +20313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -19835,7 +20343,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -19856,7 +20364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -19915,34 +20423,34 @@
         <f>AVERAGE(C35:BA35)</f>
         <v>112.3</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="14">
         <v>255</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <v>14</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="14">
         <v>612</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="14">
         <v>98</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="14">
         <v>7</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="14">
         <v>107</v>
       </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
+      <c r="I35" s="14">
+        <v>0</v>
+      </c>
+      <c r="J35" s="14">
         <v>1</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K35" s="14">
         <v>29</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L35" s="14">
         <v>0</v>
       </c>
     </row>
@@ -21524,7 +22032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -21557,7 +22065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -21572,7 +22080,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -21638,7 +22146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -21659,91 +22167,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" si="1"/>
-        <v>56.96</v>
-      </c>
-      <c r="C85">
-        <v>337</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>185</v>
-      </c>
-      <c r="F85">
-        <v>19</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>16</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>69</v>
-      </c>
-      <c r="K85">
-        <v>116</v>
-      </c>
-      <c r="L85">
-        <v>55</v>
-      </c>
-      <c r="M85" s="11">
-        <v>64</v>
-      </c>
-      <c r="N85" s="11">
-        <v>272</v>
-      </c>
-      <c r="O85" s="11">
-        <v>27</v>
-      </c>
-      <c r="P85" s="11">
-        <v>103</v>
-      </c>
-      <c r="Q85" s="11">
-        <v>11</v>
-      </c>
-      <c r="R85" s="11">
-        <v>0</v>
-      </c>
-      <c r="S85" s="11">
-        <v>0</v>
-      </c>
-      <c r="T85" s="11">
+        <f>AVERAGE(C85:BA85)</f>
+        <v>15.3</v>
+      </c>
+      <c r="C85" s="14">
+        <v>0</v>
+      </c>
+      <c r="D85" s="14">
         <v>117</v>
       </c>
-      <c r="U85" s="11">
+      <c r="E85" s="14">
         <v>7</v>
       </c>
-      <c r="V85" s="11">
+      <c r="F85" s="14">
         <v>13</v>
       </c>
-      <c r="W85" s="11">
-        <v>0</v>
-      </c>
-      <c r="X85" s="11">
+      <c r="G85" s="14">
+        <v>0</v>
+      </c>
+      <c r="H85" s="14">
         <v>12</v>
       </c>
-      <c r="Y85" s="11">
+      <c r="I85" s="14">
         <v>1</v>
       </c>
-      <c r="Z85" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="J85" s="14">
+        <v>0</v>
+      </c>
+      <c r="K85" s="14">
+        <v>0</v>
+      </c>
+      <c r="L85" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -21770,7 +22233,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -21820,7 +22283,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -21856,7 +22319,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -21905,7 +22368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -21956,7 +22419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -21995,7 +22458,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -22049,7 +22512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -22092,7 +22555,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>93</v>
       </c>
@@ -22104,7 +22567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -22122,7 +22585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -22609,50 +23072,38 @@
         <v>108</v>
       </c>
       <c r="B115" s="1">
-        <f t="shared" si="1"/>
-        <v>63.428571428571431</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>235</v>
-      </c>
-      <c r="E115">
-        <v>29</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>11</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115">
+        <f>AVERAGE(C115:BA115)</f>
+        <v>64.5</v>
+      </c>
+      <c r="C115" s="14">
+        <v>0</v>
+      </c>
+      <c r="D115" s="14">
+        <v>0</v>
+      </c>
+      <c r="E115" s="14">
+        <v>0</v>
+      </c>
+      <c r="F115" s="14">
         <v>103</v>
       </c>
-      <c r="L115">
+      <c r="G115" s="14">
         <v>80</v>
       </c>
-      <c r="M115" s="11">
+      <c r="H115" s="14">
         <v>40</v>
       </c>
-      <c r="N115" s="11">
+      <c r="I115" s="14">
         <v>7</v>
       </c>
-      <c r="O115" s="11">
+      <c r="J115" s="14">
         <v>378</v>
       </c>
-      <c r="P115" s="11">
+      <c r="K115" s="14">
         <v>5</v>
+      </c>
+      <c r="L115" s="14">
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
@@ -22841,10 +23292,10 @@
       <c r="J120">
         <v>0</v>
       </c>
-      <c r="K120" s="15">
-        <v>0</v>
-      </c>
-      <c r="L120" s="15">
+      <c r="K120" s="14">
+        <v>0</v>
+      </c>
+      <c r="L120" s="14">
         <v>0</v>
       </c>
     </row>
@@ -23987,44 +24438,38 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <f t="shared" si="2"/>
-        <v>106.75</v>
-      </c>
-      <c r="C154">
-        <v>270</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <v>52</v>
-      </c>
-      <c r="F154">
+        <f>AVERAGE(C154:BA154)</f>
+        <v>97.8</v>
+      </c>
+      <c r="C154" s="14">
         <v>173</v>
       </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
+      <c r="D154" s="14">
+        <v>0</v>
+      </c>
+      <c r="E154" s="14">
         <v>36</v>
       </c>
-      <c r="I154">
+      <c r="F154" s="14">
         <v>75</v>
       </c>
-      <c r="J154">
+      <c r="G154" s="14">
         <v>11</v>
       </c>
-      <c r="K154">
+      <c r="H154" s="14">
         <v>22</v>
       </c>
-      <c r="L154">
+      <c r="I154" s="14">
         <v>82</v>
       </c>
-      <c r="M154" s="11">
+      <c r="J154" s="14">
         <v>395</v>
       </c>
-      <c r="N154" s="11">
+      <c r="K154" s="14">
         <v>165</v>
+      </c>
+      <c r="L154" s="14">
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
@@ -24958,7 +25403,7 @@
         <f>9*60+14</f>
         <v>554</v>
       </c>
-      <c r="L185" s="15">
+      <c r="L185" s="14">
         <v>137</v>
       </c>
     </row>
@@ -25405,53 +25850,38 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <f t="shared" si="3"/>
-        <v>61.06666666666667</v>
-      </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-      <c r="D202">
-        <v>0</v>
-      </c>
-      <c r="E202">
-        <v>0</v>
-      </c>
-      <c r="F202">
-        <v>50</v>
-      </c>
-      <c r="G202">
-        <v>183</v>
-      </c>
-      <c r="H202">
-        <v>4</v>
-      </c>
-      <c r="I202">
-        <v>0</v>
-      </c>
-      <c r="J202">
+        <f>AVERAGE(C202:BA202)</f>
+        <v>67.900000000000006</v>
+      </c>
+      <c r="C202" s="14">
+        <v>0</v>
+      </c>
+      <c r="D202" s="14">
         <v>190</v>
       </c>
-      <c r="K202">
-        <v>0</v>
-      </c>
-      <c r="L202">
+      <c r="E202" s="14">
+        <v>0</v>
+      </c>
+      <c r="F202" s="14">
         <v>113</v>
       </c>
-      <c r="M202" s="11">
+      <c r="G202" s="14">
         <v>159</v>
       </c>
-      <c r="N202" s="11">
+      <c r="H202" s="14">
         <v>9</v>
       </c>
-      <c r="O202" s="11">
+      <c r="I202" s="14">
         <v>18</v>
       </c>
-      <c r="P202" s="11">
+      <c r="J202" s="14">
         <v>31</v>
       </c>
-      <c r="Q202" s="11">
+      <c r="K202" s="14">
         <v>159</v>
+      </c>
+      <c r="L202" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.3">
@@ -30491,7 +30921,7 @@
         <v>623</v>
       </c>
       <c r="B378" s="1">
-        <f t="shared" ref="B378:B413" si="6">AVERAGE(C378:BA378)</f>
+        <f t="shared" ref="B378:B428" si="6">AVERAGE(C378:BA378)</f>
         <v>256.39999999999998</v>
       </c>
       <c r="C378">
@@ -31469,6 +31899,451 @@
       </c>
       <c r="J413">
         <v>135</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A414" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B414" s="1">
+        <f t="shared" si="6"/>
+        <v>92.833333333333329</v>
+      </c>
+      <c r="C414">
+        <v>261</v>
+      </c>
+      <c r="D414">
+        <v>10</v>
+      </c>
+      <c r="E414">
+        <v>174</v>
+      </c>
+      <c r="F414">
+        <v>53</v>
+      </c>
+      <c r="G414">
+        <v>55</v>
+      </c>
+      <c r="H414">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>662</v>
+      </c>
+      <c r="B415" s="1">
+        <f t="shared" si="6"/>
+        <v>205.625</v>
+      </c>
+      <c r="C415">
+        <v>126</v>
+      </c>
+      <c r="D415">
+        <v>193</v>
+      </c>
+      <c r="E415">
+        <v>3</v>
+      </c>
+      <c r="F415">
+        <v>41</v>
+      </c>
+      <c r="G415">
+        <v>688</v>
+      </c>
+      <c r="H415">
+        <v>39</v>
+      </c>
+      <c r="I415">
+        <v>236</v>
+      </c>
+      <c r="J415">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>663</v>
+      </c>
+      <c r="B416" s="1">
+        <f t="shared" si="6"/>
+        <v>195.85714285714286</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+      <c r="D416">
+        <v>443</v>
+      </c>
+      <c r="E416">
+        <v>66</v>
+      </c>
+      <c r="F416">
+        <v>66</v>
+      </c>
+      <c r="G416">
+        <v>0</v>
+      </c>
+      <c r="H416">
+        <v>146</v>
+      </c>
+      <c r="I416">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>664</v>
+      </c>
+      <c r="B417" s="1">
+        <f t="shared" si="6"/>
+        <v>128.5</v>
+      </c>
+      <c r="C417">
+        <v>16</v>
+      </c>
+      <c r="D417">
+        <v>447</v>
+      </c>
+      <c r="E417">
+        <v>325</v>
+      </c>
+      <c r="F417">
+        <v>1</v>
+      </c>
+      <c r="G417">
+        <v>16</v>
+      </c>
+      <c r="H417">
+        <v>126</v>
+      </c>
+      <c r="I417">
+        <v>3</v>
+      </c>
+      <c r="J417">
+        <v>141</v>
+      </c>
+      <c r="K417">
+        <v>209</v>
+      </c>
+      <c r="L417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>665</v>
+      </c>
+      <c r="B418" s="1">
+        <f t="shared" si="6"/>
+        <v>43.7</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="E418">
+        <v>9</v>
+      </c>
+      <c r="F418">
+        <v>63</v>
+      </c>
+      <c r="G418">
+        <v>2</v>
+      </c>
+      <c r="H418">
+        <v>242</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418">
+        <v>49</v>
+      </c>
+      <c r="L418">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>666</v>
+      </c>
+      <c r="B419" s="1">
+        <f t="shared" si="6"/>
+        <v>138.22222222222223</v>
+      </c>
+      <c r="C419">
+        <v>160</v>
+      </c>
+      <c r="D419">
+        <v>76</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <f>14*60+11</f>
+        <v>851</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>33</v>
+      </c>
+      <c r="I419">
+        <v>6</v>
+      </c>
+      <c r="J419">
+        <v>12</v>
+      </c>
+      <c r="K419">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>667</v>
+      </c>
+      <c r="B420" s="1">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+      <c r="C420">
+        <v>151</v>
+      </c>
+      <c r="D420">
+        <v>65</v>
+      </c>
+      <c r="E420">
+        <v>427</v>
+      </c>
+      <c r="F420">
+        <v>254</v>
+      </c>
+      <c r="G420">
+        <v>17</v>
+      </c>
+      <c r="H420">
+        <v>287</v>
+      </c>
+      <c r="I420">
+        <v>59</v>
+      </c>
+      <c r="J420">
+        <v>1</v>
+      </c>
+      <c r="K420">
+        <v>0</v>
+      </c>
+      <c r="L420">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>669</v>
+      </c>
+      <c r="B421" s="1">
+        <f t="shared" si="6"/>
+        <v>82.8</v>
+      </c>
+      <c r="C421">
+        <v>88</v>
+      </c>
+      <c r="D421">
+        <v>23</v>
+      </c>
+      <c r="E421">
+        <v>23</v>
+      </c>
+      <c r="F421">
+        <v>91</v>
+      </c>
+      <c r="G421">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>670</v>
+      </c>
+      <c r="B422" s="1">
+        <f t="shared" si="6"/>
+        <v>58.285714285714285</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+      <c r="D422">
+        <v>103</v>
+      </c>
+      <c r="E422">
+        <v>23</v>
+      </c>
+      <c r="F422">
+        <v>47</v>
+      </c>
+      <c r="G422">
+        <v>223</v>
+      </c>
+      <c r="H422">
+        <v>12</v>
+      </c>
+      <c r="I422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>671</v>
+      </c>
+      <c r="B423" s="1">
+        <f t="shared" si="6"/>
+        <v>253.66666666666666</v>
+      </c>
+      <c r="C423">
+        <v>262</v>
+      </c>
+      <c r="D423">
+        <v>449</v>
+      </c>
+      <c r="E423">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>672</v>
+      </c>
+      <c r="B424" s="1">
+        <f t="shared" si="6"/>
+        <v>166</v>
+      </c>
+      <c r="C424">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>673</v>
+      </c>
+      <c r="B425" s="1">
+        <f t="shared" si="6"/>
+        <v>153.55555555555554</v>
+      </c>
+      <c r="C425">
+        <v>245</v>
+      </c>
+      <c r="D425">
+        <v>124</v>
+      </c>
+      <c r="E425">
+        <v>22</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+      <c r="G425">
+        <v>128</v>
+      </c>
+      <c r="H425">
+        <v>295</v>
+      </c>
+      <c r="I425">
+        <v>64</v>
+      </c>
+      <c r="J425">
+        <v>504</v>
+      </c>
+      <c r="K425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>674</v>
+      </c>
+      <c r="B426" s="1">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="C426" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>675</v>
+      </c>
+      <c r="B427" s="1">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+      <c r="G427">
+        <v>6</v>
+      </c>
+      <c r="H427">
+        <v>0</v>
+      </c>
+      <c r="I427">
+        <v>4</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>676</v>
+      </c>
+      <c r="B428" s="1">
+        <f t="shared" si="6"/>
+        <v>37.555555555555557</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+      <c r="D428">
+        <v>12</v>
+      </c>
+      <c r="E428">
+        <v>121</v>
+      </c>
+      <c r="F428">
+        <v>23</v>
+      </c>
+      <c r="G428">
+        <v>150</v>
+      </c>
+      <c r="H428">
+        <v>23</v>
+      </c>
+      <c r="I428">
+        <v>0</v>
+      </c>
+      <c r="J428">
+        <v>9</v>
+      </c>
+      <c r="K428">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31478,10 +32353,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
-  <dimension ref="A1:B413"/>
+  <dimension ref="A1:B428"/>
   <sheetViews>
-    <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="B405" sqref="B405:B413"/>
+    <sheetView topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="B413" sqref="B413:B428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31693,7 +32568,7 @@
       </c>
       <c r="B23">
         <f>Controlled!B23/'Fight Time'!B23</f>
-        <v>8.0285459411239962E-2</v>
+        <v>9.2178098676293618E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -31738,7 +32613,7 @@
       </c>
       <c r="B28">
         <f>Controlled!B28/'Fight Time'!B28</f>
-        <v>0.21045918367346939</v>
+        <v>0.26597510373443983</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -32251,7 +33126,7 @@
       </c>
       <c r="B85">
         <f>Controlled!B85/'Fight Time'!B85</f>
-        <v>8.2670537010159653E-2</v>
+        <v>2.3502304147465437E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -32521,7 +33396,7 @@
       </c>
       <c r="B115">
         <f>Controlled!B115/'Fight Time'!B115</f>
-        <v>0.10364145658263306</v>
+        <v>0.10221870047543581</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -32872,7 +33747,7 @@
       </c>
       <c r="B154">
         <f>Controlled!B154/'Fight Time'!B154</f>
-        <v>0.13114250614250614</v>
+        <v>0.11912302070645554</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -33232,7 +34107,7 @@
       </c>
       <c r="B194">
         <f>Controlled!B194/'Fight Time'!B194</f>
-        <v>0.16909975669099755</v>
+        <v>0.15496098104793757</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -33304,7 +34179,7 @@
       </c>
       <c r="B202">
         <f>Controlled!B202/'Fight Time'!B202</f>
-        <v>0.15738831615120275</v>
+        <v>0.18155080213903746</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -35204,6 +36079,141 @@
       <c r="B413">
         <f>Controlled!B413/'Fight Time'!B413</f>
         <v>9.7982216142270859E-2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B414">
+        <f>Controlled!B414/'Fight Time'!B414</f>
+        <v>0.13651960784313724</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>662</v>
+      </c>
+      <c r="B415">
+        <f>Controlled!B415/'Fight Time'!B415</f>
+        <v>0.28090846994535518</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>663</v>
+      </c>
+      <c r="B416">
+        <f>Controlled!B416/'Fight Time'!B416</f>
+        <v>0.33422720624085811</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>664</v>
+      </c>
+      <c r="B417">
+        <f>Controlled!B417/'Fight Time'!B417</f>
+        <v>0.24383301707779886</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>665</v>
+      </c>
+      <c r="B418">
+        <f>Controlled!B418/'Fight Time'!B418</f>
+        <v>7.7896613190730837E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>666</v>
+      </c>
+      <c r="B419">
+        <f>Controlled!B419/'Fight Time'!B419</f>
+        <v>0.26735439501396951</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>667</v>
+      </c>
+      <c r="B420">
+        <f>Controlled!B420/'Fight Time'!B420</f>
+        <v>0.22331691297208539</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>669</v>
+      </c>
+      <c r="B421">
+        <f>Controlled!B421/'Fight Time'!B421</f>
+        <v>0.13485342019543972</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>670</v>
+      </c>
+      <c r="B422">
+        <f>Controlled!B422/'Fight Time'!B422</f>
+        <v>9.8957070094591315E-2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>671</v>
+      </c>
+      <c r="B423">
+        <f>Controlled!B423/'Fight Time'!B423</f>
+        <v>0.42776840921866216</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>672</v>
+      </c>
+      <c r="B424">
+        <f>Controlled!B424/'Fight Time'!B424</f>
+        <v>0.39058823529411762</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>673</v>
+      </c>
+      <c r="B425">
+        <f>Controlled!B425/'Fight Time'!B425</f>
+        <v>0.20891912320483746</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>674</v>
+      </c>
+      <c r="B426">
+        <f>Controlled!B426/'Fight Time'!B426</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>675</v>
+      </c>
+      <c r="B427">
+        <f>Controlled!B427/'Fight Time'!B427</f>
+        <v>3.4246575342465752E-3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>676</v>
+      </c>
+      <c r="B428">
+        <f>Controlled!B428/'Fight Time'!B428</f>
+        <v>4.5521885521885526E-2</v>
       </c>
     </row>
   </sheetData>
@@ -35213,10 +36223,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
-  <dimension ref="A1:C413"/>
+  <dimension ref="A1:C428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35423,8 +36433,8 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>13*60+46</f>
-        <v>826</v>
+        <f>13*60+51</f>
+        <v>831</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -35463,8 +36473,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f>6*60+32</f>
-        <v>392</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -35956,7 +36965,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>689</v>
+        <v>651</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -36212,7 +37221,7 @@
         <v>108</v>
       </c>
       <c r="B115">
-        <v>612</v>
+        <v>631</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -36537,7 +37546,8 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>814</v>
+        <f>13*60+41</f>
+        <v>821</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -36881,8 +37891,8 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <f>13*60+42</f>
-        <v>822</v>
+        <f>14*60+57</f>
+        <v>897</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -36949,7 +37959,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -38746,6 +39756,133 @@
       <c r="B413">
         <f>12*60+11</f>
         <v>731</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B414">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>662</v>
+      </c>
+      <c r="B415">
+        <f>12*60+12</f>
+        <v>732</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>663</v>
+      </c>
+      <c r="B416">
+        <f>9*60+46</f>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>664</v>
+      </c>
+      <c r="B417">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>665</v>
+      </c>
+      <c r="B418">
+        <f>9*60+21</f>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>666</v>
+      </c>
+      <c r="B419">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>667</v>
+      </c>
+      <c r="B420">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>669</v>
+      </c>
+      <c r="B421">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>670</v>
+      </c>
+      <c r="B422">
+        <f>9*60+49</f>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>671</v>
+      </c>
+      <c r="B423">
+        <f>9*60+53</f>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>672</v>
+      </c>
+      <c r="B424">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>673</v>
+      </c>
+      <c r="B425">
+        <f>12*60+15</f>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>674</v>
+      </c>
+      <c r="B426">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>675</v>
+      </c>
+      <c r="B427">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>676</v>
+      </c>
+      <c r="B428">
+        <f>13*60+45</f>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -38757,10 +39894,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A408" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AB188" sqref="AB188"/>
+      <selection pane="topRight" activeCell="V431" sqref="V431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38780,50 +39917,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13" t="s">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
       <c r="T1" s="7"/>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13" t="s">
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="Z1" s="13"/>
+      <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -38886,8 +40023,8 @@
       <c r="T2" t="s">
         <v>507</v>
       </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
       <c r="W2" t="s">
         <v>272</v>
       </c>
@@ -40433,23 +41570,23 @@
       </c>
       <c r="W25">
         <f>Control!B23</f>
-        <v>73.222222222222229</v>
+        <v>100.7</v>
       </c>
       <c r="X25">
         <f>'Ctrl pct'!B23</f>
-        <v>8.8646758138283571E-2</v>
+        <v>0.12117930204572804</v>
       </c>
       <c r="Y25">
         <f>Controlled!B23</f>
-        <v>66.315789473684205</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="Z25">
         <f>'Controlled pct'!B23</f>
-        <v>8.0285459411239962E-2</v>
+        <v>9.2178098676293618E-2</v>
       </c>
       <c r="AA25">
         <f>'Fight Time'!B23</f>
-        <v>826</v>
+        <v>831</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
@@ -40662,23 +41799,23 @@
       </c>
       <c r="W30">
         <f>Control!B28</f>
-        <v>18.75</v>
+        <v>55.2</v>
       </c>
       <c r="X30">
         <f>'Ctrl pct'!B28</f>
-        <v>4.7831632653061222E-2</v>
+        <v>0.11452282157676349</v>
       </c>
       <c r="Y30">
         <f>Controlled!B28</f>
-        <v>82.5</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="Z30">
         <f>'Controlled pct'!B28</f>
-        <v>0.21045918367346939</v>
+        <v>0.26597510373443983</v>
       </c>
       <c r="AA30">
         <f>'Fight Time'!B28</f>
-        <v>392</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
@@ -43832,23 +44969,23 @@
       </c>
       <c r="W87">
         <f>Control!B85</f>
-        <v>96.15384615384616</v>
+        <v>32.6</v>
       </c>
       <c r="X87">
         <f>'Ctrl pct'!B85</f>
-        <v>0.13955565479513229</v>
+        <v>5.0076804915514597E-2</v>
       </c>
       <c r="Y87">
         <f>Controlled!B85</f>
-        <v>56.96</v>
+        <v>15.3</v>
       </c>
       <c r="Z87">
         <f>'Controlled pct'!B85</f>
-        <v>8.2670537010159653E-2</v>
+        <v>2.3502304147465437E-2</v>
       </c>
       <c r="AA87">
         <f>'Fight Time'!B85</f>
-        <v>689</v>
+        <v>651</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.3">
@@ -45481,7 +46618,7 @@
     <row r="117" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f>Control!A115</f>
-        <v>Alex Hernandez</v>
+        <v>Alexander Hernandez</v>
       </c>
       <c r="E117">
         <v>16</v>
@@ -45497,23 +46634,23 @@
       </c>
       <c r="W117">
         <f>Control!B115</f>
-        <v>73.857142857142861</v>
+        <v>89.2</v>
       </c>
       <c r="X117">
         <f>'Ctrl pct'!B115</f>
-        <v>0.12068160597572362</v>
+        <v>0.14136291600633916</v>
       </c>
       <c r="Y117">
         <f>Controlled!B115</f>
-        <v>63.428571428571431</v>
+        <v>64.5</v>
       </c>
       <c r="Z117">
         <f>'Controlled pct'!B115</f>
-        <v>0.10364145658263306</v>
+        <v>0.10221870047543581</v>
       </c>
       <c r="AA117">
         <f>'Fight Time'!B115</f>
-        <v>612</v>
+        <v>631</v>
       </c>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.3">
@@ -47537,23 +48674,23 @@
       </c>
       <c r="W156">
         <f>Control!B154</f>
-        <v>213.72727272727272</v>
+        <v>234.4</v>
       </c>
       <c r="X156">
         <f>'Ctrl pct'!B154</f>
-        <v>0.26256421710967165</v>
+        <v>0.28550548112058466</v>
       </c>
       <c r="Y156">
         <f>Controlled!B154</f>
-        <v>106.75</v>
+        <v>97.8</v>
       </c>
       <c r="Z156">
         <f>'Controlled pct'!B154</f>
-        <v>0.13114250614250614</v>
+        <v>0.11912302070645554</v>
       </c>
       <c r="AA156">
         <f>'Fight Time'!B154</f>
-        <v>814</v>
+        <v>821</v>
       </c>
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.3">
@@ -49568,7 +50705,7 @@
       </c>
       <c r="X196">
         <f>'Ctrl pct'!B194</f>
-        <v>0.246823465801568</v>
+        <v>0.22618605227300878</v>
       </c>
       <c r="Y196">
         <f>Controlled!B194</f>
@@ -49576,11 +50713,11 @@
       </c>
       <c r="Z196">
         <f>'Controlled pct'!B194</f>
-        <v>0.16909975669099755</v>
+        <v>0.15496098104793757</v>
       </c>
       <c r="AA196">
         <f>'Fight Time'!B194</f>
-        <v>822</v>
+        <v>897</v>
       </c>
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.3">
@@ -49958,23 +51095,23 @@
       </c>
       <c r="W204">
         <f>Control!B202</f>
-        <v>29.733333333333334</v>
+        <v>29.5</v>
       </c>
       <c r="X204">
         <f>'Ctrl pct'!B202</f>
-        <v>7.6632302405498287E-2</v>
+        <v>7.8877005347593579E-2</v>
       </c>
       <c r="Y204">
         <f>Controlled!B202</f>
-        <v>61.06666666666667</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="Z204">
         <f>'Controlled pct'!B202</f>
-        <v>0.15738831615120275</v>
+        <v>0.18155080213903746</v>
       </c>
       <c r="AA204">
         <f>'Fight Time'!B202</f>
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.3">
@@ -66062,336 +67199,1251 @@
       </c>
     </row>
     <row r="416" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A416" t="str">
+        <f>Control!A414</f>
+        <v>Drakkar Klose</v>
+      </c>
+      <c r="B416">
+        <v>37</v>
+      </c>
+      <c r="C416">
+        <v>175</v>
+      </c>
+      <c r="D416">
+        <v>178</v>
+      </c>
+      <c r="E416">
+        <v>15</v>
+      </c>
+      <c r="F416">
+        <v>3</v>
+      </c>
+      <c r="G416">
+        <v>9</v>
+      </c>
+      <c r="H416">
+        <v>3</v>
+      </c>
+      <c r="I416">
+        <v>0.4</v>
+      </c>
+      <c r="J416">
+        <v>0.67</v>
+      </c>
+      <c r="K416">
+        <v>0</v>
+      </c>
+      <c r="L416">
+        <v>0</v>
+      </c>
+      <c r="M416">
+        <v>0.6</v>
+      </c>
+      <c r="N416">
+        <v>0.33</v>
+      </c>
+      <c r="O416" s="8">
+        <v>4.33</v>
+      </c>
+      <c r="P416" s="8">
+        <v>3.54</v>
+      </c>
+      <c r="T416">
+        <v>1.65</v>
+      </c>
+      <c r="U416">
+        <v>0.27</v>
+      </c>
+      <c r="V416">
+        <v>0.69</v>
+      </c>
       <c r="W416">
         <f>Control!B414</f>
-        <v>0</v>
+        <v>113.66666666666667</v>
       </c>
       <c r="X416">
         <f>'Ctrl pct'!B414</f>
-        <v>0</v>
+        <v>0.16715686274509806</v>
       </c>
       <c r="Y416">
         <f>Controlled!B414</f>
-        <v>0</v>
+        <v>92.833333333333329</v>
       </c>
       <c r="Z416">
         <f>'Controlled pct'!B414</f>
-        <v>0</v>
+        <v>0.13651960784313724</v>
       </c>
       <c r="AA416">
         <f>'Fight Time'!B414</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="23:27" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+      <c r="AB416">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A417" t="str">
+        <f>Control!A415</f>
+        <v>Edson Barboza</v>
+      </c>
+      <c r="B417">
+        <v>39</v>
+      </c>
+      <c r="C417">
+        <v>181</v>
+      </c>
+      <c r="D417">
+        <v>191</v>
+      </c>
+      <c r="E417">
+        <v>24</v>
+      </c>
+      <c r="F417">
+        <v>12</v>
+      </c>
+      <c r="G417">
+        <v>18</v>
+      </c>
+      <c r="H417">
+        <v>12</v>
+      </c>
+      <c r="I417">
+        <v>0.54</v>
+      </c>
+      <c r="J417">
+        <v>0.33</v>
+      </c>
+      <c r="K417">
+        <v>0.08</v>
+      </c>
+      <c r="L417">
+        <v>0.17</v>
+      </c>
+      <c r="M417">
+        <v>0.38</v>
+      </c>
+      <c r="N417">
+        <v>0.5</v>
+      </c>
+      <c r="O417" s="8">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="P417" s="8">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="T417">
+        <v>0.45</v>
+      </c>
+      <c r="U417">
+        <v>0.5</v>
+      </c>
+      <c r="V417">
+        <v>0.72</v>
+      </c>
       <c r="W417">
         <f>Control!B415</f>
-        <v>0</v>
+        <v>52.625</v>
       </c>
       <c r="X417">
         <f>'Ctrl pct'!B415</f>
-        <v>0</v>
+        <v>7.1892076502732244E-2</v>
       </c>
       <c r="Y417">
         <f>Controlled!B415</f>
-        <v>0</v>
+        <v>205.625</v>
       </c>
       <c r="Z417">
         <f>'Controlled pct'!B415</f>
-        <v>0</v>
+        <v>0.28090846994535518</v>
       </c>
       <c r="AA417">
         <f>'Fight Time'!B415</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="23:27" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+      <c r="AB417">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A418" t="str">
+        <f>Control!A416</f>
+        <v>Diego Ferreira</v>
+      </c>
+      <c r="B418">
+        <v>40</v>
+      </c>
+      <c r="C418">
+        <v>175</v>
+      </c>
+      <c r="D418">
+        <v>188</v>
+      </c>
+      <c r="E418">
+        <v>19</v>
+      </c>
+      <c r="F418">
+        <v>6</v>
+      </c>
+      <c r="G418">
+        <v>10</v>
+      </c>
+      <c r="H418">
+        <v>6</v>
+      </c>
+      <c r="I418">
+        <v>0.26</v>
+      </c>
+      <c r="J418">
+        <v>0.5</v>
+      </c>
+      <c r="K418">
+        <v>0.37</v>
+      </c>
+      <c r="L418">
+        <v>0</v>
+      </c>
+      <c r="M418">
+        <v>0.37</v>
+      </c>
+      <c r="N418">
+        <v>0.5</v>
+      </c>
+      <c r="O418" s="8">
+        <v>4.82</v>
+      </c>
+      <c r="P418" s="8">
+        <v>3.46</v>
+      </c>
+      <c r="T418">
+        <v>0.86</v>
+      </c>
+      <c r="U418">
+        <v>0.3</v>
+      </c>
+      <c r="V418">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="W418">
         <f>Control!B416</f>
-        <v>0</v>
+        <v>107.85714285714286</v>
       </c>
       <c r="X418">
         <f>'Ctrl pct'!B416</f>
-        <v>0</v>
+        <v>0.1840565577766943</v>
       </c>
       <c r="Y418">
         <f>Controlled!B416</f>
-        <v>0</v>
+        <v>195.85714285714286</v>
       </c>
       <c r="Z418">
         <f>'Controlled pct'!B416</f>
-        <v>0</v>
+        <v>0.33422720624085811</v>
       </c>
       <c r="AA418">
         <f>'Fight Time'!B416</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="23:27" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+      <c r="AB418">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A419" t="str">
+        <f>Control!A417</f>
+        <v>Gerald Meerschaert</v>
+      </c>
+      <c r="B419">
+        <v>37</v>
+      </c>
+      <c r="C419">
+        <v>185</v>
+      </c>
+      <c r="D419">
+        <v>197</v>
+      </c>
+      <c r="E419">
+        <v>37</v>
+      </c>
+      <c r="F419">
+        <v>19</v>
+      </c>
+      <c r="G419">
+        <v>12</v>
+      </c>
+      <c r="H419">
+        <v>11</v>
+      </c>
+      <c r="I419">
+        <v>0.16</v>
+      </c>
+      <c r="J419">
+        <v>0.21</v>
+      </c>
+      <c r="K419">
+        <v>0.78</v>
+      </c>
+      <c r="L419">
+        <v>0.47</v>
+      </c>
+      <c r="M419">
+        <v>0.05</v>
+      </c>
+      <c r="N419">
+        <v>0.32</v>
+      </c>
+      <c r="O419" s="8">
+        <v>3.05</v>
+      </c>
+      <c r="P419" s="8">
+        <v>3.43</v>
+      </c>
+      <c r="T419">
+        <v>1.86</v>
+      </c>
+      <c r="U419">
+        <v>0.31</v>
+      </c>
+      <c r="V419">
+        <v>0.42</v>
+      </c>
       <c r="W419">
         <f>Control!B417</f>
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="X419">
         <f>'Ctrl pct'!B417</f>
-        <v>0</v>
+        <v>0.26375711574952559</v>
       </c>
       <c r="Y419">
         <f>Controlled!B417</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="Z419">
         <f>'Controlled pct'!B417</f>
-        <v>0</v>
+        <v>0.24383301707779886</v>
       </c>
       <c r="AA419">
         <f>'Fight Time'!B417</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="23:27" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+      <c r="AB419">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A420" t="str">
+        <f>Control!A418</f>
+        <v>Jessica Andrade</v>
+      </c>
+      <c r="B420">
+        <v>33</v>
+      </c>
+      <c r="C420">
+        <v>156</v>
+      </c>
+      <c r="D420">
+        <v>157</v>
+      </c>
+      <c r="E420">
+        <v>26</v>
+      </c>
+      <c r="F420">
+        <v>14</v>
+      </c>
+      <c r="G420">
+        <v>17</v>
+      </c>
+      <c r="H420">
+        <v>12</v>
+      </c>
+      <c r="I420">
+        <v>0.38</v>
+      </c>
+      <c r="J420">
+        <v>0.36</v>
+      </c>
+      <c r="K420">
+        <v>0.31</v>
+      </c>
+      <c r="L420">
+        <v>0.36</v>
+      </c>
+      <c r="M420">
+        <v>0.31</v>
+      </c>
+      <c r="N420">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O420" s="8">
+        <v>6.39</v>
+      </c>
+      <c r="P420" s="8">
+        <v>5.49</v>
+      </c>
+      <c r="T420">
+        <v>2.21</v>
+      </c>
+      <c r="U420">
+        <v>0.54</v>
+      </c>
+      <c r="V420">
+        <v>0.71</v>
+      </c>
       <c r="W420">
         <f>Control!B418</f>
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="X420">
         <f>'Ctrl pct'!B418</f>
-        <v>0</v>
+        <v>8.9661319073083778E-2</v>
       </c>
       <c r="Y420">
         <f>Controlled!B418</f>
-        <v>0</v>
+        <v>43.7</v>
       </c>
       <c r="Z420">
         <f>'Controlled pct'!B418</f>
-        <v>0</v>
+        <v>7.7896613190730837E-2</v>
       </c>
       <c r="AA420">
         <f>'Fight Time'!B418</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="23:27" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+      <c r="AB420">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A421" t="str">
+        <f>Control!A419</f>
+        <v>Bryan Battle</v>
+      </c>
+      <c r="B421">
+        <v>30</v>
+      </c>
+      <c r="C421">
+        <v>185</v>
+      </c>
+      <c r="D421">
+        <v>196</v>
+      </c>
+      <c r="E421">
+        <v>12</v>
+      </c>
+      <c r="F421">
+        <v>2</v>
+      </c>
+      <c r="G421">
+        <v>7</v>
+      </c>
+      <c r="H421">
+        <v>1</v>
+      </c>
+      <c r="I421">
+        <v>0.33</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+      <c r="K421">
+        <v>0.42</v>
+      </c>
+      <c r="L421">
+        <v>0.5</v>
+      </c>
+      <c r="M421">
+        <v>0.25</v>
+      </c>
+      <c r="N421">
+        <v>0.5</v>
+      </c>
+      <c r="O421" s="8">
+        <v>5.12</v>
+      </c>
+      <c r="P421" s="8">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="T421">
+        <v>0.77</v>
+      </c>
+      <c r="U421">
+        <v>0.17</v>
+      </c>
+      <c r="V421">
+        <v>0.53</v>
+      </c>
       <c r="W421">
         <f>Control!B419</f>
-        <v>0</v>
+        <v>138.44444444444446</v>
       </c>
       <c r="X421">
         <f>'Ctrl pct'!B419</f>
-        <v>0</v>
+        <v>0.26778422523103379</v>
       </c>
       <c r="Y421">
         <f>Controlled!B419</f>
-        <v>0</v>
+        <v>138.22222222222223</v>
       </c>
       <c r="Z421">
         <f>'Controlled pct'!B419</f>
-        <v>0</v>
+        <v>0.26735439501396951</v>
       </c>
       <c r="AA421">
         <f>'Fight Time'!B419</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="23:27" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+      <c r="AB421">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A422" t="str">
+        <f>Control!A420</f>
+        <v>Chase Hooper</v>
+      </c>
+      <c r="B422">
+        <v>25</v>
+      </c>
+      <c r="C422">
+        <v>185</v>
+      </c>
+      <c r="D422">
+        <v>188</v>
+      </c>
+      <c r="E422">
+        <v>16</v>
+      </c>
+      <c r="F422">
+        <v>3</v>
+      </c>
+      <c r="G422">
+        <v>8</v>
+      </c>
+      <c r="H422">
+        <v>3</v>
+      </c>
+      <c r="I422">
+        <v>0.25</v>
+      </c>
+      <c r="J422">
+        <v>0.33</v>
+      </c>
+      <c r="K422">
+        <v>0.5</v>
+      </c>
+      <c r="L422">
+        <v>0</v>
+      </c>
+      <c r="M422">
+        <v>0.25</v>
+      </c>
+      <c r="N422">
+        <v>0.67</v>
+      </c>
+      <c r="O422" s="8">
+        <v>4.53</v>
+      </c>
+      <c r="P422" s="8">
+        <v>2.96</v>
+      </c>
+      <c r="T422">
+        <v>2.59</v>
+      </c>
+      <c r="U422">
+        <v>0.34</v>
+      </c>
+      <c r="V422">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="W422">
         <f>Control!B420</f>
-        <v>0</v>
+        <v>220.9</v>
       </c>
       <c r="X422">
         <f>'Ctrl pct'!B420</f>
-        <v>0</v>
+        <v>0.36272577996715927</v>
       </c>
       <c r="Y422">
         <f>Controlled!B420</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="Z422">
         <f>'Controlled pct'!B420</f>
-        <v>0</v>
+        <v>0.22331691297208539</v>
       </c>
       <c r="AA422">
         <f>'Fight Time'!B420</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="23:27" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+      <c r="AB422">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A423" t="str">
+        <f>Control!A421</f>
+        <v>Carlos Prates</v>
+      </c>
+      <c r="B423">
+        <v>31</v>
+      </c>
+      <c r="C423">
+        <v>185</v>
+      </c>
+      <c r="D423">
+        <v>198</v>
+      </c>
+      <c r="E423">
+        <v>21</v>
+      </c>
+      <c r="F423">
+        <v>7</v>
+      </c>
+      <c r="G423">
+        <v>4</v>
+      </c>
+      <c r="H423">
+        <v>1</v>
+      </c>
+      <c r="I423">
+        <v>0.76</v>
+      </c>
+      <c r="J423">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K423">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L423">
+        <v>0.43</v>
+      </c>
+      <c r="M423">
+        <v>0.1</v>
+      </c>
+      <c r="N423">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O423" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="P423" s="8">
+        <v>4.79</v>
+      </c>
+      <c r="T423">
+        <v>0.25</v>
+      </c>
+      <c r="U423">
+        <v>1</v>
+      </c>
+      <c r="V423">
+        <v>0.83</v>
+      </c>
       <c r="W423">
         <f>Control!B421</f>
-        <v>0</v>
+        <v>48.6</v>
       </c>
       <c r="X423">
         <f>'Ctrl pct'!B421</f>
-        <v>0</v>
+        <v>7.9153094462540721E-2</v>
       </c>
       <c r="Y423">
         <f>Controlled!B421</f>
-        <v>0</v>
+        <v>82.8</v>
       </c>
       <c r="Z423">
         <f>'Controlled pct'!B421</f>
-        <v>0</v>
+        <v>0.13485342019543972</v>
       </c>
       <c r="AA423">
         <f>'Fight Time'!B421</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="23:27" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+      <c r="AB423">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A424" t="str">
+        <f>Control!A422</f>
+        <v>Geoff Neal</v>
+      </c>
+      <c r="B424">
+        <v>34</v>
+      </c>
+      <c r="C424">
+        <v>180</v>
+      </c>
+      <c r="D424">
+        <v>191</v>
+      </c>
+      <c r="E424">
+        <v>16</v>
+      </c>
+      <c r="F424">
+        <v>6</v>
+      </c>
+      <c r="G424">
+        <v>8</v>
+      </c>
+      <c r="H424">
+        <v>4</v>
+      </c>
+      <c r="I424">
+        <v>0.63</v>
+      </c>
+      <c r="J424">
+        <v>0.17</v>
+      </c>
+      <c r="K424">
+        <v>0.13</v>
+      </c>
+      <c r="L424">
+        <v>0.33</v>
+      </c>
+      <c r="M424">
+        <v>0.25</v>
+      </c>
+      <c r="N424">
+        <v>0.5</v>
+      </c>
+      <c r="O424" s="8">
+        <v>5.05</v>
+      </c>
+      <c r="P424" s="8">
+        <v>5.44</v>
+      </c>
+      <c r="T424">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U424">
+        <v>0.5</v>
+      </c>
+      <c r="V424">
+        <v>0.87</v>
+      </c>
       <c r="W424">
         <f>Control!B422</f>
-        <v>0</v>
+        <v>111.85714285714286</v>
       </c>
       <c r="X424">
         <f>'Ctrl pct'!B422</f>
-        <v>0</v>
+        <v>0.18991025951976717</v>
       </c>
       <c r="Y424">
         <f>Controlled!B422</f>
-        <v>0</v>
+        <v>58.285714285714285</v>
       </c>
       <c r="Z424">
         <f>'Controlled pct'!B422</f>
-        <v>0</v>
+        <v>9.8957070094591315E-2</v>
       </c>
       <c r="AA424">
         <f>'Fight Time'!B422</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="23:27" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+      <c r="AB424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A425" t="str">
+        <f>Control!A423</f>
+        <v>Michael Page</v>
+      </c>
+      <c r="B425">
+        <v>38</v>
+      </c>
+      <c r="C425">
+        <v>191</v>
+      </c>
+      <c r="D425">
+        <v>201</v>
+      </c>
+      <c r="E425">
+        <v>23</v>
+      </c>
+      <c r="F425">
+        <v>3</v>
+      </c>
+      <c r="G425">
+        <v>2</v>
+      </c>
+      <c r="H425">
+        <v>1</v>
+      </c>
+      <c r="I425">
+        <v>0.52</v>
+      </c>
+      <c r="J425">
+        <v>0.33</v>
+      </c>
+      <c r="K425">
+        <v>0.17</v>
+      </c>
+      <c r="L425">
+        <v>0</v>
+      </c>
+      <c r="M425">
+        <v>0.3</v>
+      </c>
+      <c r="N425">
+        <v>0.67</v>
+      </c>
+      <c r="O425" s="8">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="P425" s="8">
+        <v>1.78</v>
+      </c>
+      <c r="T425">
+        <v>0.3</v>
+      </c>
+      <c r="U425">
+        <v>0.2</v>
+      </c>
+      <c r="V425">
+        <v>0.63</v>
+      </c>
       <c r="W425">
         <f>Control!B423</f>
-        <v>0</v>
+        <v>79.333333333333329</v>
       </c>
       <c r="X425">
         <f>'Ctrl pct'!B423</f>
-        <v>0</v>
+        <v>0.1337830241708825</v>
       </c>
       <c r="Y425">
         <f>Controlled!B423</f>
-        <v>0</v>
+        <v>253.66666666666666</v>
       </c>
       <c r="Z425">
         <f>'Controlled pct'!B423</f>
-        <v>0</v>
+        <v>0.42776840921866216</v>
       </c>
       <c r="AA425">
         <f>'Fight Time'!B423</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="23:27" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+      <c r="AB425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A426" t="str">
+        <f>Control!A424</f>
+        <v>Kai Asakura</v>
+      </c>
+      <c r="B426">
+        <v>31</v>
+      </c>
+      <c r="C426">
+        <v>172</v>
+      </c>
+      <c r="D426">
+        <v>175</v>
+      </c>
+      <c r="E426">
+        <v>21</v>
+      </c>
+      <c r="F426">
+        <v>5</v>
+      </c>
+      <c r="G426">
+        <v>0</v>
+      </c>
+      <c r="H426">
+        <v>1</v>
+      </c>
+      <c r="I426">
+        <v>0.62</v>
+      </c>
+      <c r="J426">
+        <v>0.6</v>
+      </c>
+      <c r="K426">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L426">
+        <v>0.2</v>
+      </c>
+      <c r="M426">
+        <v>0.24</v>
+      </c>
+      <c r="N426">
+        <v>0.2</v>
+      </c>
+      <c r="O426" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="P426" s="8">
+        <v>3.52</v>
+      </c>
+      <c r="T426">
+        <v>0</v>
+      </c>
+      <c r="U426">
+        <v>0</v>
+      </c>
+      <c r="V426">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="W426">
         <f>Control!B424</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X426">
         <f>'Ctrl pct'!B424</f>
-        <v>0</v>
+        <v>5.647058823529412E-2</v>
       </c>
       <c r="Y426">
         <f>Controlled!B424</f>
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="Z426">
         <f>'Controlled pct'!B424</f>
-        <v>0</v>
+        <v>0.39058823529411762</v>
       </c>
       <c r="AA426">
         <f>'Fight Time'!B424</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="23:27" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="AB426">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A427" t="str">
+        <f>Control!A425</f>
+        <v>Tim Elliott</v>
+      </c>
+      <c r="B427">
+        <v>38</v>
+      </c>
+      <c r="C427">
+        <v>170</v>
+      </c>
+      <c r="D427">
+        <v>168</v>
+      </c>
+      <c r="E427">
+        <v>20</v>
+      </c>
+      <c r="F427">
+        <v>13</v>
+      </c>
+      <c r="G427">
+        <v>9</v>
+      </c>
+      <c r="H427">
+        <v>11</v>
+      </c>
+      <c r="I427">
+        <v>0.15</v>
+      </c>
+      <c r="J427">
+        <v>0.08</v>
+      </c>
+      <c r="K427">
+        <v>0.35</v>
+      </c>
+      <c r="L427">
+        <v>0.46</v>
+      </c>
+      <c r="M427">
+        <v>0.5</v>
+      </c>
+      <c r="N427">
+        <v>0.46</v>
+      </c>
+      <c r="O427" s="8">
+        <v>3.39</v>
+      </c>
+      <c r="P427" s="8">
+        <v>2.66</v>
+      </c>
+      <c r="T427">
+        <v>3.73</v>
+      </c>
+      <c r="U427">
+        <v>0.47</v>
+      </c>
+      <c r="V427">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="W427">
         <f>Control!B425</f>
-        <v>0</v>
+        <v>273.88888888888891</v>
       </c>
       <c r="X427">
         <f>'Ctrl pct'!B425</f>
-        <v>0</v>
+        <v>0.37263794406651551</v>
       </c>
       <c r="Y427">
         <f>Controlled!B425</f>
-        <v>0</v>
+        <v>153.55555555555554</v>
       </c>
       <c r="Z427">
         <f>'Controlled pct'!B425</f>
-        <v>0</v>
+        <v>0.20891912320483746</v>
       </c>
       <c r="AA427">
         <f>'Fight Time'!B425</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="23:27" x14ac:dyDescent="0.3">
+        <v>735</v>
+      </c>
+      <c r="AB427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A428" t="str">
+        <f>Control!A426</f>
+        <v>Aaron Pico</v>
+      </c>
+      <c r="B428">
+        <v>28</v>
+      </c>
+      <c r="C428">
+        <v>173</v>
+      </c>
+      <c r="D428">
+        <v>180</v>
+      </c>
+      <c r="E428">
+        <v>13</v>
+      </c>
+      <c r="F428">
+        <v>4</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+      <c r="H428">
+        <v>0</v>
+      </c>
+      <c r="I428">
+        <v>0.69</v>
+      </c>
+      <c r="J428">
+        <v>0.75</v>
+      </c>
+      <c r="K428">
+        <v>0.15</v>
+      </c>
+      <c r="L428">
+        <v>0.25</v>
+      </c>
+      <c r="M428">
+        <v>0.15</v>
+      </c>
+      <c r="N428">
+        <v>0</v>
+      </c>
+      <c r="O428" s="8">
+        <v>5.05</v>
+      </c>
+      <c r="P428" s="8">
+        <v>4</v>
+      </c>
+      <c r="T428">
+        <v>1</v>
+      </c>
+      <c r="U428">
+        <v>0.4</v>
+      </c>
+      <c r="V428">
+        <v>0.7</v>
+      </c>
       <c r="W428">
         <f>Control!B426</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="X428">
         <f>'Ctrl pct'!B426</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y428">
         <f>Controlled!B426</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Z428">
         <f>'Controlled pct'!B426</f>
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AA428">
         <f>'Fight Time'!B426</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="23:27" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+      <c r="AB428">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A429" t="str">
+        <f>Control!A427</f>
+        <v>Khamzat Chimaev</v>
+      </c>
+      <c r="B429">
+        <v>31</v>
+      </c>
+      <c r="C429">
+        <v>188</v>
+      </c>
+      <c r="D429">
+        <v>191</v>
+      </c>
+      <c r="E429">
+        <v>14</v>
+      </c>
+      <c r="F429">
+        <v>0</v>
+      </c>
+      <c r="G429">
+        <v>8</v>
+      </c>
+      <c r="H429">
+        <v>0</v>
+      </c>
+      <c r="I429">
+        <v>0.43</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="K429">
+        <v>0.43</v>
+      </c>
+      <c r="L429">
+        <v>0</v>
+      </c>
+      <c r="M429">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N429">
+        <v>0</v>
+      </c>
+      <c r="O429" s="8">
+        <v>5.36</v>
+      </c>
+      <c r="P429" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="T429">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="U429">
+        <v>0.46</v>
+      </c>
+      <c r="V429">
+        <v>1</v>
+      </c>
       <c r="W429">
         <f>Control!B427</f>
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="X429">
         <f>'Ctrl pct'!B427</f>
-        <v>0</v>
+        <v>0.55342465753424652</v>
       </c>
       <c r="Y429">
         <f>Controlled!B427</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z429">
         <f>'Controlled pct'!B427</f>
-        <v>0</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="AA429">
         <f>'Fight Time'!B427</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="23:27" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+      <c r="AB429">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="430" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A430" t="str">
+        <f>Control!A428</f>
+        <v>Dricus Du Plessis</v>
+      </c>
+      <c r="B430">
+        <v>31</v>
+      </c>
+      <c r="C430">
+        <v>185</v>
+      </c>
+      <c r="D430">
+        <v>193</v>
+      </c>
+      <c r="E430">
+        <v>23</v>
+      </c>
+      <c r="F430">
+        <v>2</v>
+      </c>
+      <c r="G430">
+        <v>9</v>
+      </c>
+      <c r="H430">
+        <v>0</v>
+      </c>
+      <c r="I430">
+        <v>0.39</v>
+      </c>
+      <c r="J430">
+        <v>0.5</v>
+      </c>
+      <c r="K430">
+        <v>0.48</v>
+      </c>
+      <c r="L430">
+        <v>0.5</v>
+      </c>
+      <c r="M430">
+        <v>0.13</v>
+      </c>
+      <c r="N430">
+        <v>0</v>
+      </c>
+      <c r="O430" s="8">
+        <v>6.12</v>
+      </c>
+      <c r="P430" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T430">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="U430">
+        <v>0.5</v>
+      </c>
+      <c r="V430">
+        <v>0.5</v>
+      </c>
       <c r="W430">
         <f>Control!B428</f>
-        <v>0</v>
+        <v>111.22222222222223</v>
       </c>
       <c r="X430">
         <f>'Ctrl pct'!B428</f>
-        <v>0</v>
+        <v>0.13481481481481483</v>
       </c>
       <c r="Y430">
         <f>Controlled!B428</f>
-        <v>0</v>
+        <v>37.555555555555557</v>
       </c>
       <c r="Z430">
         <f>'Controlled pct'!B428</f>
-        <v>0</v>
+        <v>4.5521885521885526E-2</v>
       </c>
       <c r="AA430">
         <f>'Fight Time'!B428</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="23:27" x14ac:dyDescent="0.3">
+        <v>825</v>
+      </c>
+      <c r="AB430">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="431" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W431">
         <f>Control!B429</f>
         <v>0</v>
@@ -66413,7 +68465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W432">
         <f>Control!B430</f>
         <v>0</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAA7639-439B-43AC-A10B-DAF3EA62E009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35712BF-DA29-481C-8A65-3AD503A862BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -36225,7 +36225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
   <dimension ref="A1:C428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+    <sheetView topLeftCell="A178" workbookViewId="0">
       <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
@@ -39894,10 +39894,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView topLeftCell="A408" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="V431" sqref="V431"/>
+      <selection pane="topRight" activeCell="T429" sqref="T429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41556,6 +41556,15 @@
         <f>Control!A23</f>
         <v>Jarred Cannonier</v>
       </c>
+      <c r="B25">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>180</v>
+      </c>
+      <c r="D25">
+        <v>197</v>
+      </c>
       <c r="E25">
         <v>18</v>
       </c>
@@ -41567,6 +41576,39 @@
       </c>
       <c r="H25">
         <v>8</v>
+      </c>
+      <c r="I25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J25">
+        <v>0.38</v>
+      </c>
+      <c r="K25">
+        <v>0.17</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N25">
+        <v>0.63</v>
+      </c>
+      <c r="O25" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P25" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="T25">
+        <v>0.46</v>
+      </c>
+      <c r="U25">
+        <v>0.44</v>
+      </c>
+      <c r="V25">
+        <v>0.64</v>
       </c>
       <c r="W25">
         <f>Control!B23</f>
@@ -41587,6 +41629,9 @@
       <c r="AA25">
         <f>'Fight Time'!B23</f>
         <v>831</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
@@ -41785,8 +41830,17 @@
         <f>Control!A28</f>
         <v>Nusurlton Ruziboev</v>
       </c>
+      <c r="B30">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>196</v>
+      </c>
+      <c r="D30">
+        <v>193</v>
+      </c>
       <c r="E30">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F30">
         <v>9</v>
@@ -41796,6 +41850,39 @@
       </c>
       <c r="H30">
         <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0.36</v>
+      </c>
+      <c r="J30">
+        <v>0.11</v>
+      </c>
+      <c r="K30">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L30">
+        <v>0.11</v>
+      </c>
+      <c r="M30">
+        <v>0.08</v>
+      </c>
+      <c r="N30">
+        <v>0.78</v>
+      </c>
+      <c r="O30" s="8">
+        <v>2.59</v>
+      </c>
+      <c r="P30" s="8">
+        <v>2.89</v>
+      </c>
+      <c r="T30">
+        <v>0.75</v>
+      </c>
+      <c r="U30">
+        <v>0.66</v>
+      </c>
+      <c r="V30">
+        <v>0.33</v>
       </c>
       <c r="W30">
         <f>Control!B28</f>
@@ -41816,6 +41903,9 @@
       <c r="AA30">
         <f>'Fight Time'!B28</f>
         <v>482</v>
+      </c>
+      <c r="AB30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
@@ -44955,6 +45045,15 @@
         <f>Control!A85</f>
         <v>Bobby Green</v>
       </c>
+      <c r="B87">
+        <v>38</v>
+      </c>
+      <c r="C87">
+        <v>175</v>
+      </c>
+      <c r="D87">
+        <v>180</v>
+      </c>
       <c r="E87">
         <v>32</v>
       </c>
@@ -44966,6 +45065,39 @@
       </c>
       <c r="H87">
         <v>12</v>
+      </c>
+      <c r="I87">
+        <v>0.34</v>
+      </c>
+      <c r="J87">
+        <v>0.35</v>
+      </c>
+      <c r="K87">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L87">
+        <v>0.18</v>
+      </c>
+      <c r="M87">
+        <v>0.38</v>
+      </c>
+      <c r="N87">
+        <v>0.47</v>
+      </c>
+      <c r="O87" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="P87" s="8">
+        <v>3.92</v>
+      </c>
+      <c r="T87">
+        <v>1.22</v>
+      </c>
+      <c r="U87">
+        <v>0.34</v>
+      </c>
+      <c r="V87">
+        <v>0.74</v>
       </c>
       <c r="W87">
         <f>Control!B85</f>
@@ -44986,6 +45118,9 @@
       <c r="AA87">
         <f>'Fight Time'!B85</f>
         <v>651</v>
+      </c>
+      <c r="AB87">
+        <v>-2</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.3">
@@ -46620,6 +46755,15 @@
         <f>Control!A115</f>
         <v>Alexander Hernandez</v>
       </c>
+      <c r="B117">
+        <v>32</v>
+      </c>
+      <c r="C117">
+        <v>175</v>
+      </c>
+      <c r="D117">
+        <v>183</v>
+      </c>
       <c r="E117">
         <v>16</v>
       </c>
@@ -46631,6 +46775,39 @@
       </c>
       <c r="H117">
         <v>7</v>
+      </c>
+      <c r="I117">
+        <v>0.38</v>
+      </c>
+      <c r="J117">
+        <v>0.38</v>
+      </c>
+      <c r="K117">
+        <v>0.13</v>
+      </c>
+      <c r="L117">
+        <v>0.13</v>
+      </c>
+      <c r="M117">
+        <v>0.5</v>
+      </c>
+      <c r="N117">
+        <v>0.5</v>
+      </c>
+      <c r="O117" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="P117" s="8">
+        <v>4.62</v>
+      </c>
+      <c r="T117">
+        <v>1.24</v>
+      </c>
+      <c r="U117">
+        <v>0.36</v>
+      </c>
+      <c r="V117">
+        <v>0.71</v>
       </c>
       <c r="W117">
         <f>Control!B115</f>
@@ -46651,6 +46828,9 @@
       <c r="AA117">
         <f>'Fight Time'!B115</f>
         <v>631</v>
+      </c>
+      <c r="AB117">
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.3">
@@ -48660,6 +48840,15 @@
         <f>Control!A154</f>
         <v>Loopy Godinez</v>
       </c>
+      <c r="B156">
+        <v>31</v>
+      </c>
+      <c r="C156">
+        <v>157</v>
+      </c>
+      <c r="D156">
+        <v>155</v>
+      </c>
       <c r="E156">
         <v>13</v>
       </c>
@@ -48671,6 +48860,39 @@
       </c>
       <c r="H156">
         <v>5</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0.23</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0.77</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156" s="8">
+        <v>4.28</v>
+      </c>
+      <c r="P156" s="8">
+        <v>3.87</v>
+      </c>
+      <c r="T156">
+        <v>3.12</v>
+      </c>
+      <c r="U156">
+        <v>0.47</v>
+      </c>
+      <c r="V156">
+        <v>0.81</v>
       </c>
       <c r="W156">
         <f>Control!B154</f>
@@ -48691,6 +48913,9 @@
       <c r="AA156">
         <f>'Fight Time'!B154</f>
         <v>821</v>
+      </c>
+      <c r="AB156">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.3">
@@ -50687,6 +50912,15 @@
         <f>Control!A194</f>
         <v>Lerone Murphy</v>
       </c>
+      <c r="B196">
+        <v>34</v>
+      </c>
+      <c r="C196">
+        <v>175</v>
+      </c>
+      <c r="D196">
+        <v>187</v>
+      </c>
       <c r="E196">
         <v>16</v>
       </c>
@@ -50698,6 +50932,39 @@
       </c>
       <c r="H196">
         <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0.44</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196" s="8">
+        <v>4.53</v>
+      </c>
+      <c r="P196" s="8">
+        <v>2.48</v>
+      </c>
+      <c r="T196">
+        <v>1.45</v>
+      </c>
+      <c r="U196">
+        <v>0.54</v>
+      </c>
+      <c r="V196">
+        <v>0.52</v>
       </c>
       <c r="W196">
         <f>Control!B194</f>
@@ -50718,6 +50985,9 @@
       <c r="AA196">
         <f>'Fight Time'!B194</f>
         <v>897</v>
+      </c>
+      <c r="AB196">
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.3">
@@ -51081,6 +51351,15 @@
         <f>Control!A202</f>
         <v>Michal Oleksiejczuk</v>
       </c>
+      <c r="B204">
+        <v>30</v>
+      </c>
+      <c r="C204">
+        <v>184</v>
+      </c>
+      <c r="D204">
+        <v>188</v>
+      </c>
       <c r="E204">
         <v>20</v>
       </c>
@@ -51092,6 +51371,39 @@
       </c>
       <c r="H204">
         <v>7</v>
+      </c>
+      <c r="I204">
+        <v>0.75</v>
+      </c>
+      <c r="J204">
+        <v>0.11</v>
+      </c>
+      <c r="K204">
+        <v>0.05</v>
+      </c>
+      <c r="L204">
+        <v>0.67</v>
+      </c>
+      <c r="M204">
+        <v>0.2</v>
+      </c>
+      <c r="N204">
+        <v>0.22</v>
+      </c>
+      <c r="O204" s="8">
+        <v>5.27</v>
+      </c>
+      <c r="P204" s="8">
+        <v>4.51</v>
+      </c>
+      <c r="T204">
+        <v>1.05</v>
+      </c>
+      <c r="U204">
+        <v>0.43</v>
+      </c>
+      <c r="V204">
+        <v>0.48</v>
       </c>
       <c r="W204">
         <f>Control!B202</f>
@@ -51112,6 +51424,9 @@
       <c r="AA204">
         <f>'Fight Time'!B202</f>
         <v>374</v>
+      </c>
+      <c r="AB204">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.3">
@@ -68245,7 +68560,7 @@
         <v>4</v>
       </c>
       <c r="T428">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U428">
         <v>0.4</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35712BF-DA29-481C-8A65-3AD503A862BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB51A0E9-98FC-401A-A764-98B339D4707A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="11736" yWindow="0" windowWidth="11472" windowHeight="12000" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -2494,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
   <dimension ref="A1:AE428"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202:L202"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4753,41 +4753,38 @@
         <v>325</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" ref="B69:B131" si="2" xml:space="preserve"> AVERAGE(C69:BC69)</f>
-        <v>62</v>
-      </c>
-      <c r="C69">
-        <v>115</v>
-      </c>
-      <c r="D69">
-        <v>35</v>
-      </c>
-      <c r="E69">
+        <f xml:space="preserve"> AVERAGE(C69:BC69)</f>
+        <v>53.3</v>
+      </c>
+      <c r="C69" s="14">
         <v>78</v>
       </c>
-      <c r="F69">
+      <c r="D69" s="14">
         <v>113</v>
       </c>
-      <c r="G69">
+      <c r="E69" s="14">
         <v>64</v>
       </c>
-      <c r="H69">
+      <c r="F69" s="14">
         <v>113</v>
       </c>
-      <c r="I69">
+      <c r="G69" s="14">
         <v>25</v>
       </c>
-      <c r="J69">
+      <c r="H69" s="14">
         <v>85</v>
       </c>
-      <c r="K69">
+      <c r="I69" s="14">
         <v>3</v>
       </c>
-      <c r="L69">
+      <c r="J69" s="14">
         <v>3</v>
       </c>
-      <c r="M69" s="10">
+      <c r="K69" s="13">
         <v>48</v>
+      </c>
+      <c r="L69" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
@@ -4795,7 +4792,7 @@
         <v>326</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B69:B131" si="2" xml:space="preserve"> AVERAGE(C70:BC70)</f>
         <v>22.666666666666668</v>
       </c>
       <c r="C70">
@@ -15740,9 +15737,9 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="e">
+      <c r="B27">
         <f>Control!B27/'Fight Time'!B27</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -16120,7 +16117,7 @@
       </c>
       <c r="B69">
         <f>Control!B69/'Fight Time'!B69</f>
-        <v>0.17765042979942694</v>
+        <v>0.14366576819407006</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -19363,8 +19360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
   <dimension ref="A1:AE428"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N197" sqref="N197"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21646,42 +21643,38 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="1"/>
-        <v>217.54545454545453</v>
-      </c>
-      <c r="C69">
-        <f>9*60+21</f>
-        <v>561</v>
-      </c>
-      <c r="D69">
-        <v>112</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
+        <f>AVERAGE(C69:BA69)</f>
+        <v>172.7</v>
+      </c>
+      <c r="C69" s="14">
+        <v>0</v>
+      </c>
+      <c r="D69" s="14">
         <v>72</v>
       </c>
-      <c r="G69">
+      <c r="E69" s="14">
         <v>259</v>
       </c>
-      <c r="H69">
+      <c r="F69" s="14">
         <v>668</v>
       </c>
-      <c r="I69">
+      <c r="G69" s="14">
         <v>219</v>
       </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
+      <c r="H69" s="14">
+        <v>0</v>
+      </c>
+      <c r="I69" s="14">
         <v>445</v>
       </c>
-      <c r="L69">
+      <c r="J69" s="14">
         <v>27</v>
       </c>
-      <c r="M69" s="11">
+      <c r="K69" s="14">
         <v>30</v>
+      </c>
+      <c r="L69" s="14">
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
@@ -32602,9 +32595,9 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="e">
+      <c r="B27">
         <f>Controlled!B27/'Fight Time'!B27</f>
-        <v>#DIV/0!</v>
+        <v>0.10810810810810811</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -32982,7 +32975,7 @@
       </c>
       <c r="B69">
         <f>Controlled!B69/'Fight Time'!B69</f>
-        <v>0.62333941130502735</v>
+        <v>0.4654986522911051</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -36225,8 +36218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
   <dimension ref="A1:C428"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36467,6 +36460,9 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>333</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -36829,7 +36825,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>349</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -39894,10 +39890,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="T429" sqref="T429"/>
+      <selection pane="topRight" activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41792,6 +41788,15 @@
         <f>Control!A27</f>
         <v>Eric McConico</v>
       </c>
+      <c r="B29">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>183</v>
+      </c>
+      <c r="D29">
+        <v>196</v>
+      </c>
       <c r="E29">
         <v>9</v>
       </c>
@@ -41804,25 +41809,61 @@
       <c r="H29">
         <v>1</v>
       </c>
+      <c r="I29">
+        <v>0.44</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0.33</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0.22</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="P29" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
       <c r="W29">
         <f>Control!B27</f>
         <v>0</v>
       </c>
-      <c r="X29" t="e">
+      <c r="X29">
         <f>'Ctrl pct'!B27</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <f>Controlled!B27</f>
         <v>36</v>
       </c>
-      <c r="Z29" t="e">
+      <c r="Z29">
         <f>'Controlled pct'!B27</f>
-        <v>#DIV/0!</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="AA29">
         <f>'Fight Time'!B27</f>
-        <v>0</v>
+        <v>333</v>
+      </c>
+      <c r="AB29">
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
@@ -44141,10 +44182,10 @@
         <v>0.33</v>
       </c>
       <c r="O71" s="8">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="P71" s="8">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="Q71">
         <v>0.81</v>
@@ -44156,7 +44197,7 @@
         <v>0.08</v>
       </c>
       <c r="T71">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="U71">
         <v>0.47</v>
@@ -44166,23 +44207,23 @@
       </c>
       <c r="W71">
         <f>Control!B69</f>
-        <v>62</v>
+        <v>53.3</v>
       </c>
       <c r="X71">
         <f>'Ctrl pct'!B69</f>
-        <v>0.17765042979942694</v>
+        <v>0.14366576819407006</v>
       </c>
       <c r="Y71">
         <f>Controlled!B69</f>
-        <v>217.54545454545453</v>
+        <v>172.7</v>
       </c>
       <c r="Z71">
         <f>'Controlled pct'!B69</f>
-        <v>0.62333941130502735</v>
+        <v>0.4654986522911051</v>
       </c>
       <c r="AA71">
         <f>'Fight Time'!B69</f>
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="AB71">
         <v>1</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB51A0E9-98FC-401A-A764-98B339D4707A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50B54BC-2C1D-412F-812A-9D0DD22ADDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11736" yWindow="0" windowWidth="11472" windowHeight="12000" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -2494,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
   <dimension ref="A1:AE428"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A139" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4792,7 +4792,7 @@
         <v>326</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" ref="B69:B131" si="2" xml:space="preserve"> AVERAGE(C70:BC70)</f>
+        <f t="shared" ref="B70:B131" si="2" xml:space="preserve"> AVERAGE(C70:BC70)</f>
         <v>22.666666666666668</v>
       </c>
       <c r="C70">
@@ -39890,10 +39890,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AB30" sqref="AB30"/>
+      <selection pane="topRight" activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41592,19 +41592,19 @@
         <v>0.63</v>
       </c>
       <c r="O25" s="8">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P25" s="8">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="T25">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="U25">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
       <c r="V25">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="W25">
         <f>Control!B23</f>
@@ -48921,19 +48921,19 @@
         <v>1</v>
       </c>
       <c r="O156" s="8">
-        <v>4.28</v>
+        <v>4.3</v>
       </c>
       <c r="P156" s="8">
-        <v>3.87</v>
+        <v>3.8</v>
       </c>
       <c r="T156">
-        <v>3.12</v>
+        <v>3.2</v>
       </c>
       <c r="U156">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="V156">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="W156">
         <f>Control!B154</f>
@@ -67931,13 +67931,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="O420" s="8">
-        <v>6.39</v>
+        <v>6.1</v>
       </c>
       <c r="P420" s="8">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="T420">
-        <v>2.21</v>
+        <v>2.11</v>
       </c>
       <c r="U420">
         <v>0.54</v>
@@ -68346,10 +68346,10 @@
         <v>0.67</v>
       </c>
       <c r="O425" s="8">
-        <v>2.5299999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="P425" s="8">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="T425">
         <v>0.3</v>
@@ -68358,7 +68358,7 @@
         <v>0.2</v>
       </c>
       <c r="V425">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="W425">
         <f>Control!B423</f>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50B54BC-2C1D-412F-812A-9D0DD22ADDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445766FC-6AE2-4385-9EB6-FDF34A9CA9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
@@ -39890,10 +39890,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A410" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A156" sqref="A156"/>
+      <selection pane="topRight" activeCell="U423" sqref="U423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -68180,13 +68180,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="O423" s="8">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P423" s="8">
-        <v>4.79</v>
+        <v>4.7</v>
       </c>
       <c r="T423">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="U423">
         <v>1</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445766FC-6AE2-4385-9EB6-FDF34A9CA9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE87E391-7D19-4141-9688-87EBC55AEB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="694">
   <si>
     <t>Khaos</t>
   </si>
@@ -2065,6 +2065,54 @@
   <si>
     <t>Drakkar Klose</t>
   </si>
+  <si>
+    <t>Uran Satybaldiev</t>
+  </si>
+  <si>
+    <t>Xiao Long</t>
+  </si>
+  <si>
+    <t>Westin Wilson</t>
+  </si>
+  <si>
+    <t>Yizha</t>
+  </si>
+  <si>
+    <t>Kyle Daukaus</t>
+  </si>
+  <si>
+    <t>Michel Pereira</t>
+  </si>
+  <si>
+    <t>Rongzhu</t>
+  </si>
+  <si>
+    <t>Gauge Young</t>
+  </si>
+  <si>
+    <t>Maheshate</t>
+  </si>
+  <si>
+    <t>Kiefer Crosbie</t>
+  </si>
+  <si>
+    <t>Taiyilake Nueraji</t>
+  </si>
+  <si>
+    <t>Sergei Pavlovich</t>
+  </si>
+  <si>
+    <t>Aljamain Sterling</t>
+  </si>
+  <si>
+    <t>Brian Ortega</t>
+  </si>
+  <si>
+    <t>Zhang Mingyang</t>
+  </si>
+  <si>
+    <t>Johnny Walker</t>
+  </si>
 </sst>
 </file>
 
@@ -2492,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
-  <dimension ref="A1:AE428"/>
+  <dimension ref="A1:AE444"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView topLeftCell="A142" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L148" sqref="L148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4161,41 +4209,38 @@
         <v>310</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" si="1"/>
-        <v>61.636363636363633</v>
-      </c>
-      <c r="C51">
-        <v>27</v>
-      </c>
-      <c r="D51">
-        <v>57</v>
-      </c>
-      <c r="E51">
+        <f xml:space="preserve"> AVERAGE(C51:BC51)</f>
+        <v>67.2</v>
+      </c>
+      <c r="C51" s="14">
         <v>99</v>
       </c>
-      <c r="F51">
+      <c r="D51" s="14">
         <v>78</v>
       </c>
-      <c r="G51">
+      <c r="E51" s="14">
         <v>8</v>
       </c>
-      <c r="H51">
+      <c r="F51" s="14">
         <v>43</v>
       </c>
-      <c r="I51">
+      <c r="G51" s="14">
         <v>47</v>
       </c>
-      <c r="J51">
+      <c r="H51" s="14">
         <v>19</v>
       </c>
-      <c r="K51">
+      <c r="I51" s="14">
         <v>34</v>
       </c>
-      <c r="L51">
+      <c r="J51" s="14">
         <v>178</v>
       </c>
-      <c r="M51" s="10">
+      <c r="K51" s="13">
         <v>88</v>
+      </c>
+      <c r="L51" s="13">
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
@@ -5886,10 +5931,13 @@
       </c>
       <c r="B105" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C105">
         <v>1</v>
+      </c>
+      <c r="D105">
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,7 +6052,7 @@
       </c>
       <c r="B109" s="1">
         <f t="shared" si="2"/>
-        <v>99.875</v>
+        <v>88.777777777777771</v>
       </c>
       <c r="C109">
         <v>103</v>
@@ -6031,6 +6079,9 @@
       <c r="J109">
         <v>57</v>
       </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
@@ -6053,7 +6104,7 @@
       </c>
       <c r="B111" s="1">
         <f t="shared" si="2"/>
-        <v>359</v>
+        <v>387.75</v>
       </c>
       <c r="C111">
         <v>627</v>
@@ -6063,6 +6114,9 @@
       </c>
       <c r="E111">
         <v>286</v>
+      </c>
+      <c r="F111">
+        <v>474</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,38 +7406,38 @@
         <v>387</v>
       </c>
       <c r="B148" s="1">
-        <f t="shared" si="3"/>
-        <v>118.4</v>
-      </c>
-      <c r="C148">
-        <v>50</v>
-      </c>
-      <c r="D148">
+        <f xml:space="preserve"> AVERAGE(C148:BC148)</f>
+        <v>158.80000000000001</v>
+      </c>
+      <c r="C148" s="14">
         <v>342</v>
       </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
+      <c r="D148" s="14">
+        <v>0</v>
+      </c>
+      <c r="E148" s="14">
+        <v>0</v>
+      </c>
+      <c r="F148" s="14">
+        <v>0</v>
+      </c>
+      <c r="G148" s="14">
         <v>402</v>
       </c>
-      <c r="I148">
+      <c r="H148" s="14">
         <v>194</v>
       </c>
-      <c r="J148">
+      <c r="I148" s="14">
         <v>143</v>
       </c>
-      <c r="K148">
+      <c r="J148" s="14">
         <v>48</v>
       </c>
-      <c r="L148">
+      <c r="K148" s="14">
         <v>5</v>
+      </c>
+      <c r="L148" s="13">
+        <v>454</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
@@ -7699,7 +7753,7 @@
       </c>
       <c r="B160" s="1">
         <f t="shared" si="3"/>
-        <v>29.333333333333332</v>
+        <v>22.5</v>
       </c>
       <c r="C160">
         <v>67</v>
@@ -7709,6 +7763,9 @@
       </c>
       <c r="E160">
         <v>0</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.3">
@@ -8928,7 +8985,7 @@
       </c>
       <c r="B201" s="1">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>41.125</v>
       </c>
       <c r="C201">
         <v>26</v>
@@ -8950,6 +9007,9 @@
       </c>
       <c r="I201">
         <v>50</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.3">
@@ -14194,7 +14254,7 @@
         <v>628</v>
       </c>
       <c r="B383" s="1">
-        <f t="shared" ref="B383:B428" si="7" xml:space="preserve"> AVERAGE(C383:BC383)</f>
+        <f t="shared" ref="B383:B444" si="7" xml:space="preserve"> AVERAGE(C383:BC383)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="C383">
@@ -15478,6 +15538,373 @@
       </c>
       <c r="K428">
         <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A429" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B429" s="1">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="C429">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>679</v>
+      </c>
+      <c r="B430" s="1">
+        <f t="shared" si="7"/>
+        <v>202.5</v>
+      </c>
+      <c r="C430">
+        <v>379</v>
+      </c>
+      <c r="D430">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>680</v>
+      </c>
+      <c r="B431" s="1">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <v>4</v>
+      </c>
+      <c r="E431">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>681</v>
+      </c>
+      <c r="B432" s="1">
+        <f t="shared" si="7"/>
+        <v>47.333333333333336</v>
+      </c>
+      <c r="C432">
+        <v>118</v>
+      </c>
+      <c r="D432">
+        <v>20</v>
+      </c>
+      <c r="E432">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>682</v>
+      </c>
+      <c r="B433" s="1">
+        <f t="shared" si="7"/>
+        <v>234.71428571428572</v>
+      </c>
+      <c r="C433">
+        <v>464</v>
+      </c>
+      <c r="D433">
+        <v>520</v>
+      </c>
+      <c r="E433">
+        <v>253</v>
+      </c>
+      <c r="F433">
+        <v>130</v>
+      </c>
+      <c r="G433">
+        <v>232</v>
+      </c>
+      <c r="H433">
+        <v>0</v>
+      </c>
+      <c r="I433">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>683</v>
+      </c>
+      <c r="B434" s="1">
+        <f t="shared" si="7"/>
+        <v>41.5</v>
+      </c>
+      <c r="C434">
+        <v>11</v>
+      </c>
+      <c r="D434">
+        <v>81</v>
+      </c>
+      <c r="E434">
+        <v>167</v>
+      </c>
+      <c r="F434">
+        <v>44</v>
+      </c>
+      <c r="G434">
+        <v>1</v>
+      </c>
+      <c r="H434">
+        <v>4</v>
+      </c>
+      <c r="I434">
+        <v>18</v>
+      </c>
+      <c r="J434">
+        <v>9</v>
+      </c>
+      <c r="K434">
+        <v>56</v>
+      </c>
+      <c r="L434">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>684</v>
+      </c>
+      <c r="B435" s="1">
+        <f t="shared" si="7"/>
+        <v>156.19999999999999</v>
+      </c>
+      <c r="C435">
+        <v>164</v>
+      </c>
+      <c r="D435">
+        <f>9*60+27</f>
+        <v>567</v>
+      </c>
+      <c r="E435">
+        <v>20</v>
+      </c>
+      <c r="F435">
+        <v>12</v>
+      </c>
+      <c r="G435">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>685</v>
+      </c>
+      <c r="B436" s="1">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="C436">
+        <v>104</v>
+      </c>
+      <c r="D436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>686</v>
+      </c>
+      <c r="B437" s="1">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>3</v>
+      </c>
+      <c r="G437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>687</v>
+      </c>
+      <c r="B438" s="1">
+        <f t="shared" si="7"/>
+        <v>7.5</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>688</v>
+      </c>
+      <c r="B439" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>689</v>
+      </c>
+      <c r="B440" s="1">
+        <f t="shared" si="7"/>
+        <v>59.571428571428569</v>
+      </c>
+      <c r="C440">
+        <v>12</v>
+      </c>
+      <c r="D440">
+        <v>2</v>
+      </c>
+      <c r="E440">
+        <v>9</v>
+      </c>
+      <c r="F440">
+        <v>2</v>
+      </c>
+      <c r="G440">
+        <v>0</v>
+      </c>
+      <c r="H440">
+        <v>15</v>
+      </c>
+      <c r="I440">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>690</v>
+      </c>
+      <c r="B441" s="1">
+        <f t="shared" si="7"/>
+        <v>284</v>
+      </c>
+      <c r="C441">
+        <v>73</v>
+      </c>
+      <c r="D441">
+        <v>205</v>
+      </c>
+      <c r="E441">
+        <v>511</v>
+      </c>
+      <c r="F441">
+        <v>426</v>
+      </c>
+      <c r="G441">
+        <v>4</v>
+      </c>
+      <c r="H441">
+        <v>34</v>
+      </c>
+      <c r="I441">
+        <v>643</v>
+      </c>
+      <c r="J441">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>691</v>
+      </c>
+      <c r="B442" s="1">
+        <f t="shared" si="7"/>
+        <v>116.4</v>
+      </c>
+      <c r="C442">
+        <v>57</v>
+      </c>
+      <c r="D442">
+        <v>54</v>
+      </c>
+      <c r="E442">
+        <v>144</v>
+      </c>
+      <c r="F442">
+        <v>321</v>
+      </c>
+      <c r="G442">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>692</v>
+      </c>
+      <c r="B443" s="1">
+        <f t="shared" si="7"/>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="C443">
+        <v>2</v>
+      </c>
+      <c r="D443">
+        <v>5</v>
+      </c>
+      <c r="E443">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>693</v>
+      </c>
+      <c r="B444" s="1">
+        <f t="shared" si="7"/>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C444">
+        <v>145</v>
+      </c>
+      <c r="D444">
+        <v>40</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>22</v>
+      </c>
+      <c r="G444">
+        <v>130</v>
+      </c>
+      <c r="H444">
+        <v>4</v>
+      </c>
+      <c r="I444">
+        <v>32</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444">
+        <v>0</v>
+      </c>
+      <c r="L444">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15488,10 +15915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
-  <dimension ref="A1:B428"/>
+  <dimension ref="A1:B444"/>
   <sheetViews>
-    <sheetView topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="B413" sqref="B413:B428"/>
+    <sheetView topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="B428" sqref="B428:B444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15955,7 +16382,7 @@
       </c>
       <c r="B51">
         <f>Control!B51/'Fight Time'!B51</f>
-        <v>7.6188335768063817E-2</v>
+        <v>8.2151589242053791E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -16441,7 +16868,7 @@
       </c>
       <c r="B105">
         <f>Control!B105/'Fight Time'!B105</f>
-        <v>1.953125E-3</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -16477,7 +16904,7 @@
       </c>
       <c r="B109">
         <f>Control!B109/'Fight Time'!B109</f>
-        <v>0.14559037900874636</v>
+        <v>0.1250391236306729</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -16495,7 +16922,7 @@
       </c>
       <c r="B111">
         <f>Control!B111/'Fight Time'!B111</f>
-        <v>0.3988888888888889</v>
+        <v>0.43083333333333335</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -16675,7 +17102,7 @@
       </c>
       <c r="B131">
         <f>Control!B131/'Fight Time'!B131</f>
-        <v>0.25047801147227533</v>
+        <v>0.2021604938271605</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -16826,9 +17253,9 @@
       <c r="A148" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B148" t="e">
+      <c r="B148">
         <f>Control!B148/'Fight Time'!B148</f>
-        <v>#DIV/0!</v>
+        <v>0.205699481865285</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -16936,7 +17363,7 @@
       </c>
       <c r="B160">
         <f>Control!B160/'Fight Time'!B160</f>
-        <v>4.0072859744990891E-2</v>
+        <v>2.9069767441860465E-2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -17305,7 +17732,7 @@
       </c>
       <c r="B201">
         <f>Control!B201/'Fight Time'!B201</f>
-        <v>8.2746478873239437E-2</v>
+        <v>6.741803278688524E-2</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -19349,6 +19776,150 @@
       <c r="B428">
         <f>Control!B428/'Fight Time'!B428</f>
         <v>0.13481481481481483</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B429">
+        <f>Control!B429/'Fight Time'!B429</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>679</v>
+      </c>
+      <c r="B430">
+        <f>Control!B430/'Fight Time'!B430</f>
+        <v>0.23601398601398602</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>680</v>
+      </c>
+      <c r="B431">
+        <f>Control!B431/'Fight Time'!B431</f>
+        <v>7.3033707865168537E-2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>681</v>
+      </c>
+      <c r="B432">
+        <f>Control!B432/'Fight Time'!B432</f>
+        <v>8.146873207114172E-2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>682</v>
+      </c>
+      <c r="B433">
+        <f>Control!B433/'Fight Time'!B433</f>
+        <v>0.40259740259740262</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>683</v>
+      </c>
+      <c r="B434">
+        <f>Control!B434/'Fight Time'!B434</f>
+        <v>6.2032884902840063E-2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>684</v>
+      </c>
+      <c r="B435">
+        <f>Control!B435/'Fight Time'!B435</f>
+        <v>0.2172461752433936</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>685</v>
+      </c>
+      <c r="B436">
+        <f>Control!B436/'Fight Time'!B436</f>
+        <v>5.8888888888888886E-2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>686</v>
+      </c>
+      <c r="B437">
+        <f>Control!B437/'Fight Time'!B437</f>
+        <v>1.1611030478955009E-3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>687</v>
+      </c>
+      <c r="B438">
+        <f>Control!B438/'Fight Time'!B438</f>
+        <v>3.2608695652173912E-2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>688</v>
+      </c>
+      <c r="B439">
+        <f>Control!B439/'Fight Time'!B439</f>
+        <v>5.0251256281407036E-3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>689</v>
+      </c>
+      <c r="B440">
+        <f>Control!B440/'Fight Time'!B440</f>
+        <v>0.20756595321055252</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>690</v>
+      </c>
+      <c r="B441">
+        <f>Control!B441/'Fight Time'!B441</f>
+        <v>0.35411471321695759</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>691</v>
+      </c>
+      <c r="B442">
+        <f>Control!B442/'Fight Time'!B442</f>
+        <v>0.14980694980694981</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>692</v>
+      </c>
+      <c r="B443">
+        <f>Control!B443/'Fight Time'!B443</f>
+        <v>0.17399267399267401</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>693</v>
+      </c>
+      <c r="B444">
+        <f>Control!B444/'Fight Time'!B444</f>
+        <v>9.2555831265508676E-2</v>
       </c>
     </row>
   </sheetData>
@@ -19358,10 +19929,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
-  <dimension ref="A1:AE428"/>
+  <dimension ref="A1:AE444"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J202" sqref="J202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21052,42 +21623,38 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" si="0"/>
-        <v>197.18181818181819</v>
-      </c>
-      <c r="C51">
-        <f>11*60+44</f>
-        <v>704</v>
-      </c>
-      <c r="D51">
+        <f>AVERAGE(C51:BA51)</f>
+        <v>146.5</v>
+      </c>
+      <c r="C51" s="14">
         <v>63</v>
       </c>
-      <c r="E51">
+      <c r="D51" s="14">
         <v>24</v>
       </c>
-      <c r="F51">
+      <c r="E51" s="14">
         <v>173</v>
       </c>
-      <c r="G51">
+      <c r="F51" s="14">
         <v>273</v>
       </c>
-      <c r="H51">
+      <c r="G51" s="14">
         <f>9*60+23</f>
         <v>563</v>
       </c>
-      <c r="I51">
+      <c r="H51" s="14">
         <v>149</v>
       </c>
-      <c r="J51">
+      <c r="I51" s="14">
         <v>132</v>
       </c>
-      <c r="K51">
+      <c r="J51" s="14">
         <v>15</v>
       </c>
-      <c r="L51">
+      <c r="K51" s="14">
         <v>50</v>
       </c>
-      <c r="M51" s="11">
+      <c r="L51" s="14">
         <v>23</v>
       </c>
     </row>
@@ -22776,10 +23343,13 @@
       </c>
       <c r="B105" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="C105">
         <v>15</v>
+      </c>
+      <c r="D105">
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -22893,7 +23463,7 @@
       </c>
       <c r="B109" s="1">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>64.111111111111114</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -22918,6 +23488,9 @@
       </c>
       <c r="J109">
         <v>5</v>
+      </c>
+      <c r="K109">
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -22941,7 +23514,7 @@
       </c>
       <c r="B111" s="1">
         <f t="shared" si="1"/>
-        <v>61.333333333333336</v>
+        <v>46</v>
       </c>
       <c r="C111">
         <v>109</v>
@@ -22951,6 +23524,9 @@
       </c>
       <c r="E111">
         <v>17</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
@@ -24247,38 +24823,38 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <f t="shared" si="2"/>
-        <v>144.4</v>
-      </c>
-      <c r="C148">
-        <v>246</v>
-      </c>
-      <c r="D148">
+        <f>AVERAGE(C148:BA148)</f>
+        <v>129.1</v>
+      </c>
+      <c r="C148" s="14">
         <v>48</v>
       </c>
-      <c r="E148">
+      <c r="D148" s="14">
         <v>481</v>
       </c>
-      <c r="F148">
+      <c r="E148" s="14">
         <v>67</v>
       </c>
-      <c r="G148">
+      <c r="F148" s="14">
         <v>157</v>
       </c>
-      <c r="H148">
+      <c r="G148" s="14">
         <v>91</v>
       </c>
-      <c r="I148">
+      <c r="H148" s="14">
         <v>149</v>
       </c>
-      <c r="J148">
+      <c r="I148" s="14">
         <v>68</v>
       </c>
-      <c r="K148">
+      <c r="J148" s="14">
         <v>97</v>
       </c>
-      <c r="L148">
+      <c r="K148" s="14">
         <v>40</v>
+      </c>
+      <c r="L148" s="14">
+        <v>93</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
@@ -24597,7 +25173,7 @@
       </c>
       <c r="B160" s="1">
         <f t="shared" si="2"/>
-        <v>194.33333333333334</v>
+        <v>160</v>
       </c>
       <c r="C160">
         <f>7*60+57</f>
@@ -24609,6 +25185,9 @@
       <c r="E160">
         <v>43</v>
       </c>
+      <c r="F160">
+        <v>57</v>
+      </c>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
@@ -25814,7 +26393,7 @@
       </c>
       <c r="B201" s="1">
         <f t="shared" si="3"/>
-        <v>248.85714285714286</v>
+        <v>250</v>
       </c>
       <c r="C201">
         <v>1178</v>
@@ -25836,6 +26415,9 @@
       </c>
       <c r="I201">
         <v>178</v>
+      </c>
+      <c r="J201">
+        <v>258</v>
       </c>
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.3">
@@ -30914,7 +31496,7 @@
         <v>623</v>
       </c>
       <c r="B378" s="1">
-        <f t="shared" ref="B378:B428" si="6">AVERAGE(C378:BA378)</f>
+        <f t="shared" ref="B378:B441" si="6">AVERAGE(C378:BA378)</f>
         <v>256.39999999999998</v>
       </c>
       <c r="C378">
@@ -32337,6 +32919,372 @@
       </c>
       <c r="K428">
         <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A429" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B429" s="1">
+        <f t="shared" si="6"/>
+        <v>306</v>
+      </c>
+      <c r="C429">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>679</v>
+      </c>
+      <c r="B430" s="1">
+        <f t="shared" si="6"/>
+        <v>57.5</v>
+      </c>
+      <c r="C430">
+        <v>108</v>
+      </c>
+      <c r="D430">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>680</v>
+      </c>
+      <c r="B431" s="1">
+        <f t="shared" si="6"/>
+        <v>60.333333333333336</v>
+      </c>
+      <c r="C431">
+        <v>128</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+      <c r="E431">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>681</v>
+      </c>
+      <c r="B432" s="1">
+        <f t="shared" si="6"/>
+        <v>185.66666666666666</v>
+      </c>
+      <c r="C432">
+        <v>143</v>
+      </c>
+      <c r="D432">
+        <v>19</v>
+      </c>
+      <c r="E432">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>682</v>
+      </c>
+      <c r="B433" s="1">
+        <f t="shared" si="6"/>
+        <v>150.42857142857142</v>
+      </c>
+      <c r="C433">
+        <v>337</v>
+      </c>
+      <c r="D433">
+        <v>121</v>
+      </c>
+      <c r="E433">
+        <v>334</v>
+      </c>
+      <c r="F433">
+        <v>64</v>
+      </c>
+      <c r="G433">
+        <v>15</v>
+      </c>
+      <c r="H433">
+        <v>36</v>
+      </c>
+      <c r="I433">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>683</v>
+      </c>
+      <c r="B434" s="1">
+        <f t="shared" si="6"/>
+        <v>124.2</v>
+      </c>
+      <c r="C434">
+        <v>8</v>
+      </c>
+      <c r="D434">
+        <v>36</v>
+      </c>
+      <c r="E434">
+        <v>132</v>
+      </c>
+      <c r="F434">
+        <v>45</v>
+      </c>
+      <c r="G434">
+        <v>18</v>
+      </c>
+      <c r="H434">
+        <v>0</v>
+      </c>
+      <c r="I434">
+        <v>0</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434">
+        <v>942</v>
+      </c>
+      <c r="L434">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>684</v>
+      </c>
+      <c r="B435" s="1">
+        <f t="shared" si="6"/>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C435">
+        <v>70</v>
+      </c>
+      <c r="D435">
+        <v>4</v>
+      </c>
+      <c r="E435">
+        <v>81</v>
+      </c>
+      <c r="F435">
+        <v>0</v>
+      </c>
+      <c r="G435">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>685</v>
+      </c>
+      <c r="B436" s="1">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+      <c r="C436">
+        <v>280</v>
+      </c>
+      <c r="D436">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>686</v>
+      </c>
+      <c r="B437" s="1">
+        <f t="shared" si="6"/>
+        <v>101.2</v>
+      </c>
+      <c r="C437">
+        <v>35</v>
+      </c>
+      <c r="D437">
+        <v>370</v>
+      </c>
+      <c r="E437">
+        <v>9</v>
+      </c>
+      <c r="F437">
+        <v>0</v>
+      </c>
+      <c r="G437">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>687</v>
+      </c>
+      <c r="B438" s="1">
+        <f t="shared" si="6"/>
+        <v>50.5</v>
+      </c>
+      <c r="C438">
+        <v>45</v>
+      </c>
+      <c r="D438">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>688</v>
+      </c>
+      <c r="B439" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>689</v>
+      </c>
+      <c r="B440" s="1">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+      <c r="G440">
+        <v>2</v>
+      </c>
+      <c r="H440">
+        <v>0</v>
+      </c>
+      <c r="I440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>690</v>
+      </c>
+      <c r="B441" s="1">
+        <f t="shared" si="6"/>
+        <v>163.25</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>252</v>
+      </c>
+      <c r="E441">
+        <v>353</v>
+      </c>
+      <c r="F441">
+        <v>3</v>
+      </c>
+      <c r="G441">
+        <v>306</v>
+      </c>
+      <c r="H441">
+        <v>18</v>
+      </c>
+      <c r="I441">
+        <v>5</v>
+      </c>
+      <c r="J441">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>691</v>
+      </c>
+      <c r="B442" s="1">
+        <f t="shared" ref="B442:B444" si="7">AVERAGE(C442:BA442)</f>
+        <v>97.6</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>231</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>92</v>
+      </c>
+      <c r="G442">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>692</v>
+      </c>
+      <c r="B443" s="1">
+        <f t="shared" si="7"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+      <c r="E443">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>693</v>
+      </c>
+      <c r="B444" s="1">
+        <f t="shared" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="C444">
+        <v>680</v>
+      </c>
+      <c r="D444">
+        <v>106</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>3</v>
+      </c>
+      <c r="G444">
+        <v>122</v>
+      </c>
+      <c r="H444">
+        <v>0</v>
+      </c>
+      <c r="I444">
+        <v>82</v>
+      </c>
+      <c r="J444">
+        <v>66</v>
+      </c>
+      <c r="K444">
+        <v>5</v>
+      </c>
+      <c r="L444">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -32346,10 +33294,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
-  <dimension ref="A1:B428"/>
+  <dimension ref="A1:B444"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="B413" sqref="B413:B428"/>
+    <sheetView topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="B428" sqref="B428:B444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32813,7 +33761,7 @@
       </c>
       <c r="B51">
         <f>Controlled!B51/'Fight Time'!B51</f>
-        <v>0.24373525115181482</v>
+        <v>0.17909535452322739</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -33299,7 +34247,7 @@
       </c>
       <c r="B105">
         <f>Controlled!B105/'Fight Time'!B105</f>
-        <v>2.9296875E-2</v>
+        <v>3.2222222222222222E-2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -33335,7 +34283,7 @@
       </c>
       <c r="B109">
         <f>Controlled!B109/'Fight Time'!B109</f>
-        <v>7.8717201166180764E-2</v>
+        <v>9.0297339593114243E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -33353,7 +34301,7 @@
       </c>
       <c r="B111">
         <f>Controlled!B111/'Fight Time'!B111</f>
-        <v>6.8148148148148152E-2</v>
+        <v>5.1111111111111114E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -33533,7 +34481,7 @@
       </c>
       <c r="B131">
         <f>Controlled!B131/'Fight Time'!B131</f>
-        <v>5.8636073932441045E-2</v>
+        <v>4.7325102880658436E-2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -33684,9 +34632,9 @@
       <c r="A148" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B148" t="e">
+      <c r="B148">
         <f>Controlled!B148/'Fight Time'!B148</f>
-        <v>#DIV/0!</v>
+        <v>0.16722797927461139</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -33794,7 +34742,7 @@
       </c>
       <c r="B160">
         <f>Controlled!B160/'Fight Time'!B160</f>
-        <v>0.26548269581056466</v>
+        <v>0.20671834625322996</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -34163,7 +35111,7 @@
       </c>
       <c r="B201">
         <f>Controlled!B201/'Fight Time'!B201</f>
-        <v>0.4381287726358149</v>
+        <v>0.4098360655737705</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -36207,6 +37155,150 @@
       <c r="B428">
         <f>Controlled!B428/'Fight Time'!B428</f>
         <v>4.5521885521885526E-2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B429">
+        <f>Controlled!B429/'Fight Time'!B429</f>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>679</v>
+      </c>
+      <c r="B430">
+        <f>Controlled!B430/'Fight Time'!B430</f>
+        <v>6.7016317016317023E-2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>680</v>
+      </c>
+      <c r="B431">
+        <f>Controlled!B431/'Fight Time'!B431</f>
+        <v>0.33895131086142322</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>681</v>
+      </c>
+      <c r="B432">
+        <f>Controlled!B432/'Fight Time'!B432</f>
+        <v>0.31956397016637977</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>682</v>
+      </c>
+      <c r="B433">
+        <f>Controlled!B433/'Fight Time'!B433</f>
+        <v>0.25802499387405048</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>683</v>
+      </c>
+      <c r="B434">
+        <f>Controlled!B434/'Fight Time'!B434</f>
+        <v>0.18565022421524663</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>684</v>
+      </c>
+      <c r="B435">
+        <f>Controlled!B435/'Fight Time'!B435</f>
+        <v>4.4784422809457582E-2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>685</v>
+      </c>
+      <c r="B436">
+        <f>Controlled!B436/'Fight Time'!B436</f>
+        <v>0.16444444444444445</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>686</v>
+      </c>
+      <c r="B437">
+        <f>Controlled!B437/'Fight Time'!B437</f>
+        <v>0.14687953555878083</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>687</v>
+      </c>
+      <c r="B438">
+        <f>Controlled!B438/'Fight Time'!B438</f>
+        <v>0.21956521739130436</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>688</v>
+      </c>
+      <c r="B439">
+        <f>Controlled!B439/'Fight Time'!B439</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>689</v>
+      </c>
+      <c r="B440">
+        <f>Controlled!B440/'Fight Time'!B440</f>
+        <v>9.9552015928322545E-4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>690</v>
+      </c>
+      <c r="B441">
+        <f>Controlled!B441/'Fight Time'!B441</f>
+        <v>0.20355361596009974</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>691</v>
+      </c>
+      <c r="B442">
+        <f>Controlled!B442/'Fight Time'!B442</f>
+        <v>0.1256113256113256</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>692</v>
+      </c>
+      <c r="B443">
+        <f>Controlled!B443/'Fight Time'!B443</f>
+        <v>2.9304029304029304E-2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>693</v>
+      </c>
+      <c r="B444">
+        <f>Controlled!B444/'Fight Time'!B444</f>
+        <v>0.26550868486352358</v>
       </c>
     </row>
   </sheetData>
@@ -36216,10 +37308,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
-  <dimension ref="A1:C428"/>
+  <dimension ref="A1:C444"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36667,8 +37759,8 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>13*60+29</f>
-        <v>809</v>
+        <f>13*60+38</f>
+        <v>818</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -37131,8 +38223,7 @@
         <v>100</v>
       </c>
       <c r="B105">
-        <f>8*60+32</f>
-        <v>512</v>
+        <v>450</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -37165,8 +38256,7 @@
         <v>102</v>
       </c>
       <c r="B109">
-        <f>11*60+26</f>
-        <v>686</v>
+        <v>710</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -37350,8 +38440,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <f>8*60+43</f>
-        <v>523</v>
+        <v>648</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -37494,6 +38583,10 @@
       <c r="A148" s="4" t="s">
         <v>147</v>
       </c>
+      <c r="B148">
+        <f>12*60+52</f>
+        <v>772</v>
+      </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
@@ -37592,8 +38685,8 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <f>12*60+12</f>
-        <v>732</v>
+        <f>12*60+54</f>
+        <v>774</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -37947,7 +39040,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>568</v>
+        <v>610</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -39879,6 +40972,139 @@
       <c r="B428">
         <f>13*60+45</f>
         <v>825</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B429">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>679</v>
+      </c>
+      <c r="B430">
+        <f>14*60+18</f>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>680</v>
+      </c>
+      <c r="B431">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>681</v>
+      </c>
+      <c r="B432">
+        <f>9*60+41</f>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>682</v>
+      </c>
+      <c r="B433">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>683</v>
+      </c>
+      <c r="B434">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>684</v>
+      </c>
+      <c r="B435">
+        <f>11*60+59</f>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>685</v>
+      </c>
+      <c r="B436">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>686</v>
+      </c>
+      <c r="B437">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>687</v>
+      </c>
+      <c r="B438">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>688</v>
+      </c>
+      <c r="B439">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>689</v>
+      </c>
+      <c r="B440">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>690</v>
+      </c>
+      <c r="B441">
+        <f>13*60+22</f>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>691</v>
+      </c>
+      <c r="B442">
+        <f>12*60+57</f>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>692</v>
+      </c>
+      <c r="B443">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>693</v>
+      </c>
+      <c r="B444">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -39890,10 +41116,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A425" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="U423" sqref="U423"/>
+      <selection pane="topRight" activeCell="O447" sqref="O447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43295,23 +44521,23 @@
       </c>
       <c r="W53">
         <f>Control!B51</f>
-        <v>61.636363636363633</v>
+        <v>67.2</v>
       </c>
       <c r="X53">
         <f>'Ctrl pct'!B51</f>
-        <v>7.6188335768063817E-2</v>
+        <v>8.2151589242053791E-2</v>
       </c>
       <c r="Y53">
         <f>Controlled!B51</f>
-        <v>197.18181818181819</v>
+        <v>146.5</v>
       </c>
       <c r="Z53">
         <f>'Controlled pct'!B51</f>
-        <v>0.24373525115181482</v>
+        <v>0.17909535452322739</v>
       </c>
       <c r="AA53">
         <f>'Fight Time'!B51</f>
-        <v>809</v>
+        <v>818</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.3">
@@ -46241,23 +47467,23 @@
       </c>
       <c r="W107">
         <f>Control!B105</f>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="X107">
         <f>'Ctrl pct'!B105</f>
-        <v>1.953125E-3</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="Y107">
         <f>Controlled!B105</f>
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z107">
         <f>'Controlled pct'!B105</f>
-        <v>2.9296875E-2</v>
+        <v>3.2222222222222222E-2</v>
       </c>
       <c r="AA107">
         <f>'Fight Time'!B105</f>
-        <v>512</v>
+        <v>450</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.3">
@@ -46480,23 +47706,23 @@
       </c>
       <c r="W111">
         <f>Control!B109</f>
-        <v>99.875</v>
+        <v>88.777777777777771</v>
       </c>
       <c r="X111">
         <f>'Ctrl pct'!B109</f>
-        <v>0.14559037900874636</v>
+        <v>0.1250391236306729</v>
       </c>
       <c r="Y111">
         <f>Controlled!B109</f>
-        <v>54</v>
+        <v>64.111111111111114</v>
       </c>
       <c r="Z111">
         <f>'Controlled pct'!B109</f>
-        <v>7.8717201166180764E-2</v>
+        <v>9.0297339593114243E-2</v>
       </c>
       <c r="AA111">
         <f>'Fight Time'!B109</f>
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="AB111">
         <v>4</v>
@@ -46559,19 +47785,19 @@
       </c>
       <c r="W113">
         <f>Control!B111</f>
-        <v>359</v>
+        <v>387.75</v>
       </c>
       <c r="X113">
         <f>'Ctrl pct'!B111</f>
-        <v>0.3988888888888889</v>
+        <v>0.43083333333333335</v>
       </c>
       <c r="Y113">
         <f>Controlled!B111</f>
-        <v>61.333333333333336</v>
+        <v>46</v>
       </c>
       <c r="Z113">
         <f>'Controlled pct'!B111</f>
-        <v>6.8148148148148152E-2</v>
+        <v>5.1111111111111114E-2</v>
       </c>
       <c r="AA113">
         <f>'Fight Time'!B111</f>
@@ -47836,7 +49062,7 @@
       </c>
       <c r="X133">
         <f>'Ctrl pct'!B131</f>
-        <v>0.25047801147227533</v>
+        <v>0.2021604938271605</v>
       </c>
       <c r="Y133">
         <f>Controlled!B131</f>
@@ -47844,11 +49070,11 @@
       </c>
       <c r="Z133">
         <f>'Controlled pct'!B131</f>
-        <v>5.8636073932441045E-2</v>
+        <v>4.7325102880658436E-2</v>
       </c>
       <c r="AA133">
         <f>'Fight Time'!B131</f>
-        <v>523</v>
+        <v>648</v>
       </c>
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.3">
@@ -48667,23 +49893,23 @@
       </c>
       <c r="W150">
         <f>Control!B148</f>
-        <v>118.4</v>
-      </c>
-      <c r="X150" t="e">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="X150">
         <f>'Ctrl pct'!B148</f>
-        <v>#DIV/0!</v>
+        <v>0.205699481865285</v>
       </c>
       <c r="Y150">
         <f>Controlled!B148</f>
-        <v>144.4</v>
-      </c>
-      <c r="Z150" t="e">
+        <v>129.1</v>
+      </c>
+      <c r="Z150">
         <f>'Controlled pct'!B148</f>
-        <v>#DIV/0!</v>
+        <v>0.16722797927461139</v>
       </c>
       <c r="AA150">
         <f>'Fight Time'!B148</f>
-        <v>0</v>
+        <v>772</v>
       </c>
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.3">
@@ -49258,23 +50484,23 @@
       </c>
       <c r="W162">
         <f>Control!B160</f>
-        <v>29.333333333333332</v>
+        <v>22.5</v>
       </c>
       <c r="X162">
         <f>'Ctrl pct'!B160</f>
-        <v>4.0072859744990891E-2</v>
+        <v>2.9069767441860465E-2</v>
       </c>
       <c r="Y162">
         <f>Controlled!B160</f>
-        <v>194.33333333333334</v>
+        <v>160</v>
       </c>
       <c r="Z162">
         <f>'Controlled pct'!B160</f>
-        <v>0.26548269581056466</v>
+        <v>0.20671834625322996</v>
       </c>
       <c r="AA162">
         <f>'Fight Time'!B160</f>
-        <v>732</v>
+        <v>774</v>
       </c>
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.3">
@@ -51368,23 +52594,23 @@
       </c>
       <c r="W203">
         <f>Control!B201</f>
-        <v>47</v>
+        <v>41.125</v>
       </c>
       <c r="X203">
         <f>'Ctrl pct'!B201</f>
-        <v>8.2746478873239437E-2</v>
+        <v>6.741803278688524E-2</v>
       </c>
       <c r="Y203">
         <f>Controlled!B201</f>
-        <v>248.85714285714286</v>
+        <v>250</v>
       </c>
       <c r="Z203">
         <f>'Controlled pct'!B201</f>
-        <v>0.4381287726358149</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="AA203">
         <f>'Fight Time'!B201</f>
-        <v>568</v>
+        <v>610</v>
       </c>
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.3">
@@ -68800,233 +70026,901 @@
       </c>
     </row>
     <row r="431" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A431" t="str">
+        <f>Control!A429</f>
+        <v>Uran Satybaldiev</v>
+      </c>
+      <c r="B431">
+        <v>31</v>
+      </c>
+      <c r="C431">
+        <v>193</v>
+      </c>
+      <c r="D431">
+        <v>201</v>
+      </c>
+      <c r="E431">
+        <v>9</v>
+      </c>
+      <c r="F431">
+        <v>1</v>
+      </c>
+      <c r="G431">
+        <v>0</v>
+      </c>
+      <c r="H431">
+        <v>1</v>
+      </c>
+      <c r="I431">
+        <v>0.67</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>0.11</v>
+      </c>
+      <c r="L431">
+        <v>0</v>
+      </c>
+      <c r="M431">
+        <v>0.22</v>
+      </c>
+      <c r="N431">
+        <v>1</v>
+      </c>
+      <c r="O431" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="P431" s="8">
+        <v>3.87</v>
+      </c>
+      <c r="T431">
+        <v>0</v>
+      </c>
+      <c r="U431">
+        <v>0</v>
+      </c>
+      <c r="V431">
+        <v>1</v>
+      </c>
       <c r="W431">
         <f>Control!B429</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X431">
         <f>'Ctrl pct'!B429</f>
-        <v>0</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="Y431">
         <f>Controlled!B429</f>
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="Z431">
         <f>'Controlled pct'!B429</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AA431">
         <f>'Fight Time'!B429</f>
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="AB431">
+        <v>-1</v>
       </c>
     </row>
     <row r="432" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A432" t="str">
+        <f>Control!A430</f>
+        <v>Xiao Long</v>
+      </c>
+      <c r="B432">
+        <v>27</v>
+      </c>
+      <c r="C432">
+        <v>172</v>
+      </c>
+      <c r="D432">
+        <v>178</v>
+      </c>
+      <c r="E432">
+        <v>27</v>
+      </c>
+      <c r="F432">
+        <v>9</v>
+      </c>
+      <c r="G432">
+        <v>1</v>
+      </c>
+      <c r="H432">
+        <v>1</v>
+      </c>
+      <c r="I432">
+        <v>0.19</v>
+      </c>
+      <c r="J432">
+        <v>0.33</v>
+      </c>
+      <c r="K432">
+        <v>0.33</v>
+      </c>
+      <c r="L432">
+        <v>0</v>
+      </c>
+      <c r="M432">
+        <v>0.48</v>
+      </c>
+      <c r="N432">
+        <v>0.67</v>
+      </c>
+      <c r="O432" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="P432" s="8">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="T432">
+        <v>0.84</v>
+      </c>
+      <c r="U432">
+        <v>0.25</v>
+      </c>
+      <c r="V432">
+        <v>0.77</v>
+      </c>
       <c r="W432">
         <f>Control!B430</f>
-        <v>0</v>
+        <v>202.5</v>
       </c>
       <c r="X432">
         <f>'Ctrl pct'!B430</f>
-        <v>0</v>
+        <v>0.23601398601398602</v>
       </c>
       <c r="Y432">
         <f>Controlled!B430</f>
-        <v>0</v>
+        <v>57.5</v>
       </c>
       <c r="Z432">
         <f>'Controlled pct'!B430</f>
-        <v>0</v>
+        <v>6.7016317016317023E-2</v>
       </c>
       <c r="AA432">
         <f>'Fight Time'!B430</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="23:27" x14ac:dyDescent="0.3">
+        <v>858</v>
+      </c>
+      <c r="AB432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A433" t="str">
+        <f>Control!A431</f>
+        <v>Westin Wilson</v>
+      </c>
+      <c r="B433">
+        <v>36</v>
+      </c>
+      <c r="C433">
+        <v>185</v>
+      </c>
+      <c r="D433">
+        <v>185</v>
+      </c>
+      <c r="E433">
+        <v>17</v>
+      </c>
+      <c r="F433">
+        <v>9</v>
+      </c>
+      <c r="G433">
+        <v>1</v>
+      </c>
+      <c r="H433">
+        <v>2</v>
+      </c>
+      <c r="I433">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J433">
+        <v>0.33</v>
+      </c>
+      <c r="K433">
+        <v>0.71</v>
+      </c>
+      <c r="L433">
+        <v>0.44</v>
+      </c>
+      <c r="M433">
+        <v>0</v>
+      </c>
+      <c r="N433">
+        <v>0.22</v>
+      </c>
+      <c r="O433" s="8">
+        <v>1.68</v>
+      </c>
+      <c r="P433" s="8">
+        <v>5.72</v>
+      </c>
+      <c r="T433">
+        <v>1.68</v>
+      </c>
+      <c r="U433">
+        <v>0.16</v>
+      </c>
+      <c r="V433">
+        <v>0.33</v>
+      </c>
       <c r="W433">
         <f>Control!B431</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X433">
         <f>'Ctrl pct'!B431</f>
-        <v>0</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="Y433">
         <f>Controlled!B431</f>
-        <v>0</v>
+        <v>60.333333333333336</v>
       </c>
       <c r="Z433">
         <f>'Controlled pct'!B431</f>
-        <v>0</v>
+        <v>0.33895131086142322</v>
       </c>
       <c r="AA433">
         <f>'Fight Time'!B431</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="23:27" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="AB433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A434" t="str">
+        <f>Control!A432</f>
+        <v>Yizha</v>
+      </c>
+      <c r="B434">
+        <v>28</v>
+      </c>
+      <c r="C434">
+        <v>171</v>
+      </c>
+      <c r="D434">
+        <v>180</v>
+      </c>
+      <c r="E434">
+        <v>25</v>
+      </c>
+      <c r="F434">
+        <v>5</v>
+      </c>
+      <c r="G434">
+        <v>0</v>
+      </c>
+      <c r="H434">
+        <v>2</v>
+      </c>
+      <c r="I434">
+        <v>0.2</v>
+      </c>
+      <c r="J434">
+        <v>0.2</v>
+      </c>
+      <c r="K434">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L434">
+        <v>0.2</v>
+      </c>
+      <c r="M434">
+        <v>0.24</v>
+      </c>
+      <c r="N434">
+        <v>0.6</v>
+      </c>
+      <c r="O434" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="P434" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="T434">
+        <v>3.54</v>
+      </c>
+      <c r="U434">
+        <v>0.3</v>
+      </c>
+      <c r="V434">
+        <v>0.54</v>
+      </c>
       <c r="W434">
         <f>Control!B432</f>
-        <v>0</v>
+        <v>47.333333333333336</v>
       </c>
       <c r="X434">
         <f>'Ctrl pct'!B432</f>
-        <v>0</v>
+        <v>8.146873207114172E-2</v>
       </c>
       <c r="Y434">
         <f>Controlled!B432</f>
-        <v>0</v>
+        <v>185.66666666666666</v>
       </c>
       <c r="Z434">
         <f>'Controlled pct'!B432</f>
-        <v>0</v>
+        <v>0.31956397016637977</v>
       </c>
       <c r="AA434">
         <f>'Fight Time'!B432</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="23:27" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+      <c r="AB434">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A435" t="str">
+        <f>Control!A433</f>
+        <v>Kyle Daukaus</v>
+      </c>
+      <c r="B435">
+        <v>32</v>
+      </c>
+      <c r="C435">
+        <v>191</v>
+      </c>
+      <c r="D435">
+        <v>193</v>
+      </c>
+      <c r="E435">
+        <v>15</v>
+      </c>
+      <c r="F435">
+        <v>4</v>
+      </c>
+      <c r="G435">
+        <v>2</v>
+      </c>
+      <c r="H435">
+        <v>4</v>
+      </c>
+      <c r="I435">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J435">
+        <v>0.5</v>
+      </c>
+      <c r="K435">
+        <v>0.73</v>
+      </c>
+      <c r="L435">
+        <v>0</v>
+      </c>
+      <c r="M435">
+        <v>0.2</v>
+      </c>
+      <c r="N435">
+        <v>0.5</v>
+      </c>
+      <c r="O435" s="8">
+        <v>3.22</v>
+      </c>
+      <c r="P435" s="8">
+        <v>2.94</v>
+      </c>
+      <c r="T435">
+        <v>2.12</v>
+      </c>
+      <c r="U435">
+        <v>0.25</v>
+      </c>
+      <c r="V435">
+        <v>0.82</v>
+      </c>
       <c r="W435">
         <f>Control!B433</f>
-        <v>0</v>
+        <v>234.71428571428572</v>
       </c>
       <c r="X435">
         <f>'Ctrl pct'!B433</f>
-        <v>0</v>
+        <v>0.40259740259740262</v>
       </c>
       <c r="Y435">
         <f>Controlled!B433</f>
-        <v>0</v>
+        <v>150.42857142857142</v>
       </c>
       <c r="Z435">
         <f>'Controlled pct'!B433</f>
-        <v>0</v>
+        <v>0.25802499387405048</v>
       </c>
       <c r="AA435">
         <f>'Fight Time'!B433</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="23:27" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+      <c r="AB435">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A436" t="str">
+        <f>Control!A434</f>
+        <v>Michel Pereira</v>
+      </c>
+      <c r="B436">
+        <v>31</v>
+      </c>
+      <c r="C436">
+        <v>186</v>
+      </c>
+      <c r="D436">
+        <v>185</v>
+      </c>
+      <c r="E436">
+        <v>31</v>
+      </c>
+      <c r="F436">
+        <v>13</v>
+      </c>
+      <c r="G436">
+        <v>9</v>
+      </c>
+      <c r="H436">
+        <v>4</v>
+      </c>
+      <c r="I436">
+        <v>0.37</v>
+      </c>
+      <c r="J436">
+        <v>0.17</v>
+      </c>
+      <c r="K436">
+        <v>0.27</v>
+      </c>
+      <c r="L436">
+        <v>0.08</v>
+      </c>
+      <c r="M436">
+        <v>0.37</v>
+      </c>
+      <c r="N436">
+        <v>0.67</v>
+      </c>
+      <c r="O436" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="P436" s="8">
+        <v>4.33</v>
+      </c>
+      <c r="T436">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="U436">
+        <v>0.52</v>
+      </c>
+      <c r="V436">
+        <v>0.76</v>
+      </c>
       <c r="W436">
         <f>Control!B434</f>
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="X436">
         <f>'Ctrl pct'!B434</f>
-        <v>0</v>
+        <v>6.2032884902840063E-2</v>
       </c>
       <c r="Y436">
         <f>Controlled!B434</f>
-        <v>0</v>
+        <v>124.2</v>
       </c>
       <c r="Z436">
         <f>'Controlled pct'!B434</f>
-        <v>0</v>
+        <v>0.18565022421524663</v>
       </c>
       <c r="AA436">
         <f>'Fight Time'!B434</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="23:27" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+      <c r="AB436">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A437" t="str">
+        <f>Control!A435</f>
+        <v>Rongzhu</v>
+      </c>
+      <c r="B437">
+        <v>25</v>
+      </c>
+      <c r="C437">
+        <v>175</v>
+      </c>
+      <c r="D437">
+        <v>180</v>
+      </c>
+      <c r="E437">
+        <v>26</v>
+      </c>
+      <c r="F437">
+        <v>6</v>
+      </c>
+      <c r="G437">
+        <v>2</v>
+      </c>
+      <c r="H437">
+        <v>3</v>
+      </c>
+      <c r="I437">
+        <v>0.54</v>
+      </c>
+      <c r="J437">
+        <v>0.17</v>
+      </c>
+      <c r="K437">
+        <v>0.27</v>
+      </c>
+      <c r="L437">
+        <v>0.67</v>
+      </c>
+      <c r="M437">
+        <v>0.15</v>
+      </c>
+      <c r="N437">
+        <v>0.17</v>
+      </c>
+      <c r="O437" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="P437" s="8">
+        <v>5.51</v>
+      </c>
+      <c r="T437">
+        <v>1.56</v>
+      </c>
+      <c r="U437">
+        <v>0.62</v>
+      </c>
+      <c r="V437">
+        <v>0.84</v>
+      </c>
       <c r="W437">
         <f>Control!B435</f>
-        <v>0</v>
+        <v>156.19999999999999</v>
       </c>
       <c r="X437">
         <f>'Ctrl pct'!B435</f>
-        <v>0</v>
+        <v>0.2172461752433936</v>
       </c>
       <c r="Y437">
         <f>Controlled!B435</f>
-        <v>0</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="Z437">
         <f>'Controlled pct'!B435</f>
-        <v>0</v>
+        <v>4.4784422809457582E-2</v>
       </c>
       <c r="AA437">
         <f>'Fight Time'!B435</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="23:27" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+      <c r="AB437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A438" t="str">
+        <f>Control!A436</f>
+        <v>Gauge Young</v>
+      </c>
+      <c r="B438">
+        <v>25</v>
+      </c>
+      <c r="C438">
+        <v>175</v>
+      </c>
+      <c r="D438">
+        <v>178</v>
+      </c>
+      <c r="E438">
+        <v>9</v>
+      </c>
+      <c r="F438">
+        <v>3</v>
+      </c>
+      <c r="G438">
+        <v>0</v>
+      </c>
+      <c r="H438">
+        <v>1</v>
+      </c>
+      <c r="I438">
+        <v>0.67</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>0.11</v>
+      </c>
+      <c r="L438">
+        <v>0.33</v>
+      </c>
+      <c r="M438">
+        <v>0.22</v>
+      </c>
+      <c r="N438">
+        <v>0.67</v>
+      </c>
+      <c r="O438" s="8">
+        <v>4.83</v>
+      </c>
+      <c r="P438" s="8">
+        <v>6.53</v>
+      </c>
+      <c r="T438">
+        <v>0</v>
+      </c>
+      <c r="U438">
+        <v>0</v>
+      </c>
+      <c r="V438">
+        <v>0.64</v>
+      </c>
       <c r="W438">
         <f>Control!B436</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="X438">
         <f>'Ctrl pct'!B436</f>
-        <v>0</v>
+        <v>5.8888888888888886E-2</v>
       </c>
       <c r="Y438">
         <f>Controlled!B436</f>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="Z438">
         <f>'Controlled pct'!B436</f>
-        <v>0</v>
+        <v>0.16444444444444445</v>
       </c>
       <c r="AA438">
         <f>'Fight Time'!B436</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="23:27" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+      <c r="AB438">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A439" t="str">
+        <f>Control!A437</f>
+        <v>Maheshate</v>
+      </c>
+      <c r="B439">
+        <v>25</v>
+      </c>
+      <c r="C439">
+        <v>184</v>
+      </c>
+      <c r="D439">
+        <v>182</v>
+      </c>
+      <c r="E439">
+        <v>10</v>
+      </c>
+      <c r="F439">
+        <v>4</v>
+      </c>
+      <c r="G439">
+        <v>2</v>
+      </c>
+      <c r="H439">
+        <v>3</v>
+      </c>
+      <c r="I439">
+        <v>0.4</v>
+      </c>
+      <c r="J439">
+        <v>0.25</v>
+      </c>
+      <c r="K439">
+        <v>0.1</v>
+      </c>
+      <c r="L439">
+        <v>0</v>
+      </c>
+      <c r="M439">
+        <v>0.5</v>
+      </c>
+      <c r="N439">
+        <v>0.75</v>
+      </c>
+      <c r="O439" s="8">
+        <v>3.86</v>
+      </c>
+      <c r="P439" s="8">
+        <v>5.64</v>
+      </c>
+      <c r="T439">
+        <v>0</v>
+      </c>
+      <c r="U439">
+        <v>0</v>
+      </c>
+      <c r="V439">
+        <v>0.45</v>
+      </c>
       <c r="W439">
         <f>Control!B437</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X439">
         <f>'Ctrl pct'!B437</f>
-        <v>0</v>
+        <v>1.1611030478955009E-3</v>
       </c>
       <c r="Y439">
         <f>Controlled!B437</f>
-        <v>0</v>
+        <v>101.2</v>
       </c>
       <c r="Z439">
         <f>'Controlled pct'!B437</f>
-        <v>0</v>
+        <v>0.14687953555878083</v>
       </c>
       <c r="AA439">
         <f>'Fight Time'!B437</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="23:27" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+      <c r="AB439">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A440" t="str">
+        <f>Control!A438</f>
+        <v>Kiefer Crosbie</v>
+      </c>
+      <c r="B440">
+        <v>35</v>
+      </c>
+      <c r="C440">
+        <v>180</v>
+      </c>
+      <c r="D440">
+        <v>178</v>
+      </c>
+      <c r="E440">
+        <v>10</v>
+      </c>
+      <c r="F440">
+        <v>5</v>
+      </c>
+      <c r="G440">
+        <v>0</v>
+      </c>
+      <c r="H440">
+        <v>2</v>
+      </c>
+      <c r="I440">
+        <v>0.5</v>
+      </c>
+      <c r="J440">
+        <v>0.2</v>
+      </c>
+      <c r="K440">
+        <v>0.2</v>
+      </c>
+      <c r="L440">
+        <v>0.6</v>
+      </c>
+      <c r="M440">
+        <v>0.3</v>
+      </c>
+      <c r="N440">
+        <v>0</v>
+      </c>
+      <c r="O440" s="8">
+        <v>6.27</v>
+      </c>
+      <c r="P440" s="8">
+        <v>4.97</v>
+      </c>
+      <c r="T440">
+        <v>0</v>
+      </c>
+      <c r="U440">
+        <v>0</v>
+      </c>
+      <c r="V440">
+        <v>0</v>
+      </c>
       <c r="W440">
         <f>Control!B438</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="X440">
         <f>'Ctrl pct'!B438</f>
-        <v>0</v>
+        <v>3.2608695652173912E-2</v>
       </c>
       <c r="Y440">
         <f>Controlled!B438</f>
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="Z440">
         <f>'Controlled pct'!B438</f>
-        <v>0</v>
+        <v>0.21956521739130436</v>
       </c>
       <c r="AA440">
         <f>'Fight Time'!B438</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="23:27" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="AB440">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A441" t="str">
+        <f>Control!A439</f>
+        <v>Taiyilake Nueraji</v>
+      </c>
+      <c r="B441">
+        <v>24</v>
+      </c>
+      <c r="C441">
+        <v>187</v>
+      </c>
+      <c r="D441">
+        <v>194</v>
+      </c>
+      <c r="E441">
+        <v>11</v>
+      </c>
+      <c r="F441">
+        <v>1</v>
+      </c>
+      <c r="G441">
+        <v>0</v>
+      </c>
+      <c r="H441">
+        <v>0</v>
+      </c>
+      <c r="I441">
+        <v>0.91</v>
+      </c>
+      <c r="J441">
+        <v>1</v>
+      </c>
+      <c r="K441">
+        <v>0.09</v>
+      </c>
+      <c r="L441">
+        <v>0</v>
+      </c>
+      <c r="M441">
+        <v>0</v>
+      </c>
+      <c r="N441">
+        <v>0</v>
+      </c>
+      <c r="O441" s="8">
+        <v>11.01</v>
+      </c>
+      <c r="P441" s="8">
+        <v>7.39</v>
+      </c>
+      <c r="T441">
+        <v>0</v>
+      </c>
+      <c r="U441">
+        <v>0</v>
+      </c>
+      <c r="V441">
+        <v>0</v>
+      </c>
       <c r="W441">
         <f>Control!B439</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X441">
         <f>'Ctrl pct'!B439</f>
-        <v>0</v>
+        <v>5.0251256281407036E-3</v>
       </c>
       <c r="Y441">
         <f>Controlled!B439</f>
@@ -69038,120 +70932,428 @@
       </c>
       <c r="AA441">
         <f>'Fight Time'!B439</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="23:27" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+      <c r="AB441">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A442" t="str">
+        <f>Control!A440</f>
+        <v>Sergei Pavlovich</v>
+      </c>
+      <c r="B442">
+        <v>33</v>
+      </c>
+      <c r="C442">
+        <v>191</v>
+      </c>
+      <c r="D442">
+        <v>213</v>
+      </c>
+      <c r="E442">
+        <v>19</v>
+      </c>
+      <c r="F442">
+        <v>3</v>
+      </c>
+      <c r="G442">
+        <v>7</v>
+      </c>
+      <c r="H442">
+        <v>3</v>
+      </c>
+      <c r="I442">
+        <v>0.79</v>
+      </c>
+      <c r="J442">
+        <v>0.67</v>
+      </c>
+      <c r="K442">
+        <v>0</v>
+      </c>
+      <c r="L442">
+        <v>0</v>
+      </c>
+      <c r="M442">
+        <v>0.21</v>
+      </c>
+      <c r="N442">
+        <v>0.33</v>
+      </c>
+      <c r="O442" s="8">
+        <v>4.54</v>
+      </c>
+      <c r="P442" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="T442">
+        <v>0.63</v>
+      </c>
+      <c r="U442">
+        <v>0.4</v>
+      </c>
+      <c r="V442">
+        <v>0.75</v>
+      </c>
       <c r="W442">
         <f>Control!B440</f>
-        <v>0</v>
+        <v>59.571428571428569</v>
       </c>
       <c r="X442">
         <f>'Ctrl pct'!B440</f>
-        <v>0</v>
+        <v>0.20756595321055252</v>
       </c>
       <c r="Y442">
         <f>Controlled!B440</f>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="Z442">
         <f>'Controlled pct'!B440</f>
-        <v>0</v>
+        <v>9.9552015928322545E-4</v>
       </c>
       <c r="AA442">
         <f>'Fight Time'!B440</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="23:27" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+      <c r="AB442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A443" t="str">
+        <f>Control!A441</f>
+        <v>Aljamain Sterling</v>
+      </c>
+      <c r="B443">
+        <v>36</v>
+      </c>
+      <c r="C443">
+        <v>171</v>
+      </c>
+      <c r="D443">
+        <v>180</v>
+      </c>
+      <c r="E443">
+        <v>24</v>
+      </c>
+      <c r="F443">
+        <v>5</v>
+      </c>
+      <c r="G443">
+        <v>16</v>
+      </c>
+      <c r="H443">
+        <v>5</v>
+      </c>
+      <c r="I443">
+        <v>0.13</v>
+      </c>
+      <c r="J443">
+        <v>0.4</v>
+      </c>
+      <c r="K443">
+        <v>0.33</v>
+      </c>
+      <c r="L443">
+        <v>0</v>
+      </c>
+      <c r="M443">
+        <v>0.5</v>
+      </c>
+      <c r="N443">
+        <v>0.6</v>
+      </c>
+      <c r="O443" s="8">
+        <v>4.41</v>
+      </c>
+      <c r="P443" s="8">
+        <v>2.21</v>
+      </c>
+      <c r="T443">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="U443">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V443">
+        <v>0.42</v>
+      </c>
       <c r="W443">
         <f>Control!B441</f>
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="X443">
         <f>'Ctrl pct'!B441</f>
-        <v>0</v>
+        <v>0.35411471321695759</v>
       </c>
       <c r="Y443">
         <f>Controlled!B441</f>
-        <v>0</v>
+        <v>163.25</v>
       </c>
       <c r="Z443">
         <f>'Controlled pct'!B441</f>
-        <v>0</v>
+        <v>0.20355361596009974</v>
       </c>
       <c r="AA443">
         <f>'Fight Time'!B441</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="23:27" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+      <c r="AB443">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A444" t="str">
+        <f>Control!A442</f>
+        <v>Brian Ortega</v>
+      </c>
+      <c r="B444">
+        <v>34</v>
+      </c>
+      <c r="C444">
+        <v>173</v>
+      </c>
+      <c r="D444">
+        <v>175</v>
+      </c>
+      <c r="E444">
+        <v>16</v>
+      </c>
+      <c r="F444">
+        <v>4</v>
+      </c>
+      <c r="G444">
+        <v>8</v>
+      </c>
+      <c r="H444">
+        <v>4</v>
+      </c>
+      <c r="I444">
+        <v>0.19</v>
+      </c>
+      <c r="J444">
+        <v>0.5</v>
+      </c>
+      <c r="K444">
+        <v>0.5</v>
+      </c>
+      <c r="L444">
+        <v>0</v>
+      </c>
+      <c r="M444">
+        <v>0.31</v>
+      </c>
+      <c r="N444">
+        <v>0.5</v>
+      </c>
+      <c r="O444" s="8">
+        <v>4.08</v>
+      </c>
+      <c r="P444" s="8">
+        <v>6.59</v>
+      </c>
+      <c r="T444">
+        <v>1.07</v>
+      </c>
+      <c r="U444">
+        <v>0.26</v>
+      </c>
+      <c r="V444">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="W444">
         <f>Control!B442</f>
-        <v>0</v>
+        <v>116.4</v>
       </c>
       <c r="X444">
         <f>'Ctrl pct'!B442</f>
-        <v>0</v>
+        <v>0.14980694980694981</v>
       </c>
       <c r="Y444">
         <f>Controlled!B442</f>
-        <v>0</v>
+        <v>97.6</v>
       </c>
       <c r="Z444">
         <f>'Controlled pct'!B442</f>
-        <v>0</v>
+        <v>0.1256113256113256</v>
       </c>
       <c r="AA444">
         <f>'Fight Time'!B442</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="23:27" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+      <c r="AB444">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A445" t="str">
+        <f>Control!A443</f>
+        <v>Zhang Mingyang</v>
+      </c>
+      <c r="B445">
+        <v>27</v>
+      </c>
+      <c r="C445">
+        <v>189</v>
+      </c>
+      <c r="D445">
+        <v>191</v>
+      </c>
+      <c r="E445">
+        <v>19</v>
+      </c>
+      <c r="F445">
+        <v>6</v>
+      </c>
+      <c r="G445">
+        <v>3</v>
+      </c>
+      <c r="H445">
+        <v>0</v>
+      </c>
+      <c r="I445">
+        <v>0.68</v>
+      </c>
+      <c r="J445">
+        <v>0.5</v>
+      </c>
+      <c r="K445">
+        <v>0.32</v>
+      </c>
+      <c r="L445">
+        <v>0.33</v>
+      </c>
+      <c r="M445">
+        <v>0</v>
+      </c>
+      <c r="N445">
+        <v>0.17</v>
+      </c>
+      <c r="O445" s="8">
+        <v>10.91</v>
+      </c>
+      <c r="P445" s="8">
+        <v>4.55</v>
+      </c>
+      <c r="T445">
+        <v>0</v>
+      </c>
+      <c r="U445">
+        <v>0</v>
+      </c>
+      <c r="V445">
+        <v>0.5</v>
+      </c>
       <c r="W445">
         <f>Control!B443</f>
-        <v>0</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="X445">
         <f>'Ctrl pct'!B443</f>
-        <v>0</v>
+        <v>0.17399267399267401</v>
       </c>
       <c r="Y445">
         <f>Controlled!B443</f>
-        <v>0</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="Z445">
         <f>'Controlled pct'!B443</f>
-        <v>0</v>
+        <v>2.9304029304029304E-2</v>
       </c>
       <c r="AA445">
         <f>'Fight Time'!B443</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="23:27" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="AB445">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="446" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A446" t="str">
+        <f>Control!A444</f>
+        <v>Johnny Walker</v>
+      </c>
+      <c r="B446">
+        <v>33</v>
+      </c>
+      <c r="C446">
+        <v>198</v>
+      </c>
+      <c r="D446">
+        <v>209</v>
+      </c>
+      <c r="E446">
+        <v>21</v>
+      </c>
+      <c r="F446">
+        <v>9</v>
+      </c>
+      <c r="G446">
+        <v>7</v>
+      </c>
+      <c r="H446">
+        <v>6</v>
+      </c>
+      <c r="I446">
+        <v>0.76</v>
+      </c>
+      <c r="J446">
+        <v>0.67</v>
+      </c>
+      <c r="K446">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L446">
+        <v>0.11</v>
+      </c>
+      <c r="M446">
+        <v>0.1</v>
+      </c>
+      <c r="N446">
+        <v>0.22</v>
+      </c>
+      <c r="O446" s="8">
+        <v>3.87</v>
+      </c>
+      <c r="P446" s="8">
+        <v>3.12</v>
+      </c>
+      <c r="T446">
+        <v>0.45</v>
+      </c>
+      <c r="U446">
+        <v>1</v>
+      </c>
+      <c r="V446">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="W446">
         <f>Control!B444</f>
-        <v>0</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="X446">
         <f>'Ctrl pct'!B444</f>
-        <v>0</v>
+        <v>9.2555831265508676E-2</v>
       </c>
       <c r="Y446">
         <f>Controlled!B444</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="Z446">
         <f>'Controlled pct'!B444</f>
-        <v>0</v>
+        <v>0.26550868486352358</v>
       </c>
       <c r="AA446">
         <f>'Fight Time'!B444</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="23:27" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+      <c r="AB446">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W447">
         <f>Control!B445</f>
         <v>0</v>
@@ -69173,7 +71375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W448">
         <f>Control!B446</f>
         <v>0</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE87E391-7D19-4141-9688-87EBC55AEB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488AD985-9A85-40B3-B6E7-9DF73B4731CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -2542,7 +2542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
   <dimension ref="A1:AE444"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L148" sqref="L148"/>
     </sheetView>
   </sheetViews>
@@ -37310,7 +37310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
   <dimension ref="A1:C444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+    <sheetView topLeftCell="A183" workbookViewId="0">
       <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
@@ -41116,10 +41116,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView topLeftCell="A425" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="O447" sqref="O447"/>
+      <selection pane="topRight" activeCell="AB204" sqref="AB204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44507,6 +44507,15 @@
         <f>Control!A51</f>
         <v>Charles Johnson</v>
       </c>
+      <c r="B53">
+        <v>34</v>
+      </c>
+      <c r="C53">
+        <v>175</v>
+      </c>
+      <c r="D53">
+        <v>178</v>
+      </c>
       <c r="E53">
         <v>17</v>
       </c>
@@ -44518,6 +44527,39 @@
       </c>
       <c r="H53">
         <v>5</v>
+      </c>
+      <c r="I53">
+        <v>0.35</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0.24</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0.41</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" s="8">
+        <v>4.74</v>
+      </c>
+      <c r="P53" s="8">
+        <v>3.62</v>
+      </c>
+      <c r="T53">
+        <v>0.5</v>
+      </c>
+      <c r="U53">
+        <v>0.2</v>
+      </c>
+      <c r="V53">
+        <v>0.67</v>
       </c>
       <c r="W53">
         <f>Control!B51</f>
@@ -44538,6 +44580,9 @@
       <c r="AA53">
         <f>'Fight Time'!B51</f>
         <v>818</v>
+      </c>
+      <c r="AB53">
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.3">
@@ -47453,6 +47498,15 @@
         <f>Control!A105</f>
         <v>Diyar Nurgozhay</v>
       </c>
+      <c r="B107">
+        <v>28</v>
+      </c>
+      <c r="C107">
+        <v>189</v>
+      </c>
+      <c r="D107">
+        <v>188</v>
+      </c>
       <c r="E107">
         <v>10</v>
       </c>
@@ -47463,6 +47517,39 @@
         <v>0</v>
       </c>
       <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0.6</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0.2</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>0.2</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107" s="8">
+        <v>3.13</v>
+      </c>
+      <c r="P107" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="T107">
+        <v>2</v>
+      </c>
+      <c r="U107">
+        <v>1</v>
+      </c>
+      <c r="V107">
         <v>1</v>
       </c>
       <c r="W107">
@@ -47484,6 +47571,9 @@
       <c r="AA107">
         <f>'Fight Time'!B105</f>
         <v>450</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.3">
@@ -47660,7 +47750,7 @@
         <v>198</v>
       </c>
       <c r="E111">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -47672,31 +47762,31 @@
         <v>1</v>
       </c>
       <c r="I111">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="N111">
         <v>1</v>
       </c>
       <c r="O111" s="8">
-        <v>5.76</v>
+        <v>5.98</v>
       </c>
       <c r="P111" s="8">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="T111">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
       <c r="U111">
         <v>0.5</v>
@@ -47725,7 +47815,7 @@
         <v>710</v>
       </c>
       <c r="AB111">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.3">
@@ -47771,6 +47861,15 @@
         <f>Control!A111</f>
         <v>Su Young You</v>
       </c>
+      <c r="B113">
+        <v>29</v>
+      </c>
+      <c r="C113">
+        <v>168</v>
+      </c>
+      <c r="D113">
+        <v>165</v>
+      </c>
       <c r="E113">
         <v>15</v>
       </c>
@@ -47782,6 +47881,39 @@
       </c>
       <c r="H113">
         <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0.2</v>
+      </c>
+      <c r="J113">
+        <v>0.33</v>
+      </c>
+      <c r="K113">
+        <v>0.33</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0.47</v>
+      </c>
+      <c r="N113">
+        <v>0.67</v>
+      </c>
+      <c r="O113" s="8">
+        <v>1.88</v>
+      </c>
+      <c r="P113" s="8">
+        <v>1.32</v>
+      </c>
+      <c r="T113">
+        <v>4.75</v>
+      </c>
+      <c r="U113">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V113">
+        <v>0.66</v>
       </c>
       <c r="W113">
         <f>Control!B111</f>
@@ -47802,6 +47934,9 @@
       <c r="AA113">
         <f>'Fight Time'!B111</f>
         <v>900</v>
+      </c>
+      <c r="AB113">
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.3">
@@ -49044,6 +49179,15 @@
         <f>Control!A131</f>
         <v>Lone'er Kavanagh</v>
       </c>
+      <c r="B133">
+        <v>26</v>
+      </c>
+      <c r="C133">
+        <v>163</v>
+      </c>
+      <c r="D133">
+        <v>170</v>
+      </c>
       <c r="E133">
         <v>9</v>
       </c>
@@ -49055,6 +49199,39 @@
       </c>
       <c r="H133">
         <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0.44</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0.12</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0.44</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133" s="8">
+        <v>3.73</v>
+      </c>
+      <c r="P133" s="8">
+        <v>3.42</v>
+      </c>
+      <c r="T133">
+        <v>1.85</v>
+      </c>
+      <c r="U133">
+        <v>0.5</v>
+      </c>
+      <c r="V133">
+        <v>1</v>
       </c>
       <c r="W133">
         <f>Control!B131</f>
@@ -49075,6 +49252,9 @@
       <c r="AA133">
         <f>'Fight Time'!B131</f>
         <v>648</v>
+      </c>
+      <c r="AB133">
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.3">
@@ -49879,6 +50059,15 @@
         <f>Control!A148</f>
         <v>Austin Hubbard</v>
       </c>
+      <c r="B150">
+        <v>33</v>
+      </c>
+      <c r="C150">
+        <v>175</v>
+      </c>
+      <c r="D150">
+        <v>178</v>
+      </c>
       <c r="E150">
         <v>16</v>
       </c>
@@ -49890,6 +50079,39 @@
       </c>
       <c r="H150">
         <v>7</v>
+      </c>
+      <c r="I150">
+        <v>0.25</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0.19</v>
+      </c>
+      <c r="L150">
+        <v>0.33</v>
+      </c>
+      <c r="M150">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N150">
+        <v>0.67</v>
+      </c>
+      <c r="O150" s="8">
+        <v>3.87</v>
+      </c>
+      <c r="P150" s="8">
+        <v>3.82</v>
+      </c>
+      <c r="T150">
+        <v>1.59</v>
+      </c>
+      <c r="U150">
+        <v>0.31</v>
+      </c>
+      <c r="V150">
+        <v>0.68</v>
       </c>
       <c r="W150">
         <f>Control!B148</f>
@@ -49910,6 +50132,9 @@
       <c r="AA150">
         <f>'Fight Time'!B148</f>
         <v>772</v>
+      </c>
+      <c r="AB150">
+        <v>-2</v>
       </c>
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.3">
@@ -50470,6 +50695,15 @@
         <f>Control!A160</f>
         <v>Kevin Borjas</v>
       </c>
+      <c r="B162">
+        <v>27</v>
+      </c>
+      <c r="C162">
+        <v>165</v>
+      </c>
+      <c r="D162">
+        <v>173</v>
+      </c>
       <c r="E162">
         <v>10</v>
       </c>
@@ -50481,6 +50715,39 @@
       </c>
       <c r="H162">
         <v>2</v>
+      </c>
+      <c r="I162">
+        <v>0.8</v>
+      </c>
+      <c r="J162">
+        <v>0.33</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0.33</v>
+      </c>
+      <c r="M162">
+        <v>0.2</v>
+      </c>
+      <c r="N162">
+        <v>0.33</v>
+      </c>
+      <c r="O162" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P162" s="8">
+        <v>5.99</v>
+      </c>
+      <c r="T162">
+        <v>0</v>
+      </c>
+      <c r="U162">
+        <v>0</v>
+      </c>
+      <c r="V162">
+        <v>0.65</v>
       </c>
       <c r="W162">
         <f>Control!B160</f>
@@ -50501,6 +50768,9 @@
       <c r="AA162">
         <f>'Fight Time'!B160</f>
         <v>774</v>
+      </c>
+      <c r="AB162">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.3">
@@ -52580,6 +52850,15 @@
         <f>Control!A201</f>
         <v>Su Mudaerji</v>
       </c>
+      <c r="B203">
+        <v>29</v>
+      </c>
+      <c r="C203">
+        <v>173</v>
+      </c>
+      <c r="D203">
+        <v>183</v>
+      </c>
       <c r="E203">
         <v>17</v>
       </c>
@@ -52591,6 +52870,39 @@
       </c>
       <c r="H203">
         <v>4</v>
+      </c>
+      <c r="I203">
+        <v>0.76</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0.06</v>
+      </c>
+      <c r="L203">
+        <v>0.86</v>
+      </c>
+      <c r="M203">
+        <v>0.18</v>
+      </c>
+      <c r="N203">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O203" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P203" s="8">
+        <v>2.63</v>
+      </c>
+      <c r="T203">
+        <v>0.18</v>
+      </c>
+      <c r="U203">
+        <v>0.25</v>
+      </c>
+      <c r="V203">
+        <v>0.67</v>
       </c>
       <c r="W203">
         <f>Control!B201</f>
@@ -52611,6 +52923,9 @@
       <c r="AA203">
         <f>'Fight Time'!B201</f>
         <v>610</v>
+      </c>
+      <c r="AB203">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.3">

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488AD985-9A85-40B3-B6E7-9DF73B4731CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4229A38-531F-4BAA-BFE9-B20A605749A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="706">
   <si>
     <t>Khaos</t>
   </si>
@@ -2113,6 +2113,42 @@
   <si>
     <t>Johnny Walker</t>
   </si>
+  <si>
+    <t>Rinat Fakhretdinov</t>
+  </si>
+  <si>
+    <t>Brad Tavares</t>
+  </si>
+  <si>
+    <t>Robert Bryczek</t>
+  </si>
+  <si>
+    <t>Trey Waters</t>
+  </si>
+  <si>
+    <t>Axel Sola</t>
+  </si>
+  <si>
+    <t>Ante Delija</t>
+  </si>
+  <si>
+    <t>Robert Ruchala</t>
+  </si>
+  <si>
+    <t>Losene Keita</t>
+  </si>
+  <si>
+    <t>Fares Ziam</t>
+  </si>
+  <si>
+    <t>Mason Jones</t>
+  </si>
+  <si>
+    <t>Caio Borralho</t>
+  </si>
+  <si>
+    <t>Nassourdine Imavov</t>
+  </si>
 </sst>
 </file>
 
@@ -2540,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
-  <dimension ref="A1:AE444"/>
+  <dimension ref="A1:AE456"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L148" sqref="L148"/>
+    <sheetView topLeftCell="A349" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D378" sqref="D378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3344,7 +3380,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
-        <v>52.444444444444443</v>
+        <v>55.8</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3372,6 +3408,9 @@
       </c>
       <c r="K26">
         <v>0</v>
+      </c>
+      <c r="L26">
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,7 +5345,7 @@
       </c>
       <c r="B84" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>23.75</v>
       </c>
       <c r="C84">
         <v>72</v>
@@ -5318,7 +5357,7 @@
         <v>16</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
@@ -5907,7 +5946,7 @@
       </c>
       <c r="B104" s="1">
         <f t="shared" si="2"/>
-        <v>27.4</v>
+        <v>22.833333333333332</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -5923,6 +5962,9 @@
       </c>
       <c r="G104">
         <v>14</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,7 +5988,7 @@
       </c>
       <c r="B106" s="1">
         <f t="shared" si="2"/>
-        <v>221.33333333333334</v>
+        <v>225.3</v>
       </c>
       <c r="C106">
         <v>51</v>
@@ -5976,6 +6018,9 @@
       <c r="K106">
         <v>134</v>
       </c>
+      <c r="L106">
+        <v>261</v>
+      </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
@@ -6671,72 +6716,37 @@
         <v>374</v>
       </c>
       <c r="B129" s="1">
-        <f t="shared" si="2"/>
-        <v>206</v>
-      </c>
-      <c r="C129">
-        <v>77</v>
-      </c>
-      <c r="D129">
-        <v>15</v>
-      </c>
-      <c r="E129">
-        <v>173</v>
-      </c>
-      <c r="F129">
-        <f>8*60+37</f>
-        <v>517</v>
-      </c>
-      <c r="G129">
-        <v>24</v>
-      </c>
-      <c r="H129">
-        <v>433</v>
-      </c>
-      <c r="I129">
-        <v>463</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
-        <v>502</v>
-      </c>
-      <c r="M129" s="10">
-        <f>9*60+25</f>
-        <v>565</v>
-      </c>
-      <c r="N129" s="10">
+        <f xml:space="preserve"> AVERAGE(C129:BC129)</f>
+        <v>155.69999999999999</v>
+      </c>
+      <c r="C129" s="13">
         <v>188</v>
       </c>
-      <c r="O129" s="10">
+      <c r="D129" s="13">
         <v>139</v>
       </c>
-      <c r="P129" s="10">
+      <c r="E129" s="13">
         <v>121</v>
       </c>
-      <c r="Q129" s="10">
+      <c r="F129" s="13">
         <v>108</v>
       </c>
-      <c r="R129" s="10">
+      <c r="G129" s="13">
         <v>295</v>
       </c>
-      <c r="S129" s="10">
-        <v>0</v>
-      </c>
-      <c r="T129" s="10">
+      <c r="H129" s="13">
+        <v>0</v>
+      </c>
+      <c r="I129" s="13">
         <v>168</v>
       </c>
-      <c r="U129" s="10">
+      <c r="J129" s="13">
         <v>43</v>
       </c>
-      <c r="V129" s="10">
+      <c r="K129" s="13">
         <v>434</v>
       </c>
-      <c r="W129" s="10">
+      <c r="L129" s="13">
         <v>61</v>
       </c>
     </row>
@@ -10505,7 +10515,7 @@
       </c>
       <c r="B247" s="1">
         <f t="shared" si="4"/>
-        <v>183.75</v>
+        <v>200.22222222222223</v>
       </c>
       <c r="C247">
         <v>115</v>
@@ -10530,6 +10540,9 @@
       </c>
       <c r="J247">
         <v>5</v>
+      </c>
+      <c r="K247">
+        <v>332</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
@@ -10805,7 +10818,7 @@
       </c>
       <c r="B258" s="1">
         <f t="shared" si="5"/>
-        <v>62.666666666666664</v>
+        <v>47</v>
       </c>
       <c r="C258">
         <v>8</v>
@@ -10815,6 +10828,9 @@
       </c>
       <c r="E258">
         <v>71</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.3">
@@ -10856,10 +10872,13 @@
       </c>
       <c r="B260" s="1">
         <f t="shared" si="5"/>
-        <v>386</v>
+        <v>485</v>
       </c>
       <c r="C260">
         <v>386</v>
+      </c>
+      <c r="D260">
+        <v>584</v>
       </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.3">
@@ -12059,38 +12078,38 @@
         <v>539</v>
       </c>
       <c r="B302" s="1">
-        <f t="shared" si="5"/>
-        <v>47.8</v>
+        <f xml:space="preserve"> AVERAGE(C302:BC302)</f>
+        <v>51.2</v>
       </c>
       <c r="C302">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="D302">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="E302">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F302">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G302">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="I302">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="J302">
+        <v>30</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
         <v>34</v>
-      </c>
-      <c r="K302">
-        <v>30</v>
-      </c>
-      <c r="L302">
-        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
@@ -12099,13 +12118,16 @@
       </c>
       <c r="B303" s="1">
         <f t="shared" si="5"/>
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="C303">
         <v>210</v>
       </c>
       <c r="D303">
         <v>182</v>
+      </c>
+      <c r="E303">
+        <v>253</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
@@ -14099,10 +14121,13 @@
       </c>
       <c r="B377" s="1">
         <f t="shared" si="6"/>
-        <v>63</v>
+        <v>113.5</v>
       </c>
       <c r="C377">
         <v>63</v>
+      </c>
+      <c r="D377">
+        <v>164</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
@@ -14254,7 +14279,7 @@
         <v>628</v>
       </c>
       <c r="B383" s="1">
-        <f t="shared" ref="B383:B444" si="7" xml:space="preserve"> AVERAGE(C383:BC383)</f>
+        <f t="shared" ref="B383:B446" si="7" xml:space="preserve"> AVERAGE(C383:BC383)</f>
         <v>40.700000000000003</v>
       </c>
       <c r="C383">
@@ -15905,6 +15930,278 @@
       </c>
       <c r="L444">
         <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A445" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B445" s="1">
+        <f t="shared" si="7"/>
+        <v>414.5</v>
+      </c>
+      <c r="C445">
+        <f>13*60</f>
+        <v>780</v>
+      </c>
+      <c r="D445">
+        <f>14*60+11</f>
+        <v>851</v>
+      </c>
+      <c r="E445">
+        <v>20</v>
+      </c>
+      <c r="F445">
+        <v>265</v>
+      </c>
+      <c r="G445">
+        <v>377</v>
+      </c>
+      <c r="H445">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>695</v>
+      </c>
+      <c r="B446" s="1">
+        <f t="shared" si="7"/>
+        <v>22.25</v>
+      </c>
+      <c r="C446">
+        <v>5</v>
+      </c>
+      <c r="D446">
+        <v>9</v>
+      </c>
+      <c r="E446">
+        <v>121</v>
+      </c>
+      <c r="F446">
+        <v>0</v>
+      </c>
+      <c r="G446">
+        <v>0</v>
+      </c>
+      <c r="H446">
+        <v>0</v>
+      </c>
+      <c r="I446">
+        <v>42</v>
+      </c>
+      <c r="J446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>696</v>
+      </c>
+      <c r="B447" s="1">
+        <f t="shared" ref="B447:B456" si="8" xml:space="preserve"> AVERAGE(C447:BC447)</f>
+        <v>30</v>
+      </c>
+      <c r="C447">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>697</v>
+      </c>
+      <c r="B448" s="1">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>27</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>698</v>
+      </c>
+      <c r="B449" s="1">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="C449" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>699</v>
+      </c>
+      <c r="B450" s="1">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="C450" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>700</v>
+      </c>
+      <c r="B451" s="1">
+        <f t="shared" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="C451" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>701</v>
+      </c>
+      <c r="B452" s="1">
+        <f t="shared" si="8"/>
+        <v>185</v>
+      </c>
+      <c r="C452" s="8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>702</v>
+      </c>
+      <c r="B453" s="1">
+        <f t="shared" si="8"/>
+        <v>258.25</v>
+      </c>
+      <c r="C453" s="14">
+        <v>416</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+      <c r="E453">
+        <v>4</v>
+      </c>
+      <c r="F453">
+        <v>408</v>
+      </c>
+      <c r="G453">
+        <v>252</v>
+      </c>
+      <c r="H453">
+        <v>270</v>
+      </c>
+      <c r="I453">
+        <v>283</v>
+      </c>
+      <c r="J453">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>703</v>
+      </c>
+      <c r="B454" s="1">
+        <f t="shared" si="8"/>
+        <v>262.60000000000002</v>
+      </c>
+      <c r="C454" s="14">
+        <v>51</v>
+      </c>
+      <c r="D454">
+        <v>221</v>
+      </c>
+      <c r="E454">
+        <v>541</v>
+      </c>
+      <c r="F454">
+        <v>137</v>
+      </c>
+      <c r="G454">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>704</v>
+      </c>
+      <c r="B455" s="1">
+        <f t="shared" si="8"/>
+        <v>223.33333333333334</v>
+      </c>
+      <c r="C455" s="14">
+        <v>138</v>
+      </c>
+      <c r="D455">
+        <v>5</v>
+      </c>
+      <c r="E455">
+        <v>611</v>
+      </c>
+      <c r="F455">
+        <v>609</v>
+      </c>
+      <c r="G455">
+        <v>332</v>
+      </c>
+      <c r="H455">
+        <v>159</v>
+      </c>
+      <c r="I455">
+        <v>137</v>
+      </c>
+      <c r="J455">
+        <v>19</v>
+      </c>
+      <c r="K455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>705</v>
+      </c>
+      <c r="B456" s="1">
+        <f t="shared" si="8"/>
+        <v>141.6</v>
+      </c>
+      <c r="C456" s="14">
+        <v>7</v>
+      </c>
+      <c r="D456">
+        <v>71</v>
+      </c>
+      <c r="E456">
+        <v>236</v>
+      </c>
+      <c r="F456">
+        <v>236</v>
+      </c>
+      <c r="G456">
+        <v>12</v>
+      </c>
+      <c r="H456">
+        <v>142</v>
+      </c>
+      <c r="I456">
+        <v>232</v>
+      </c>
+      <c r="J456">
+        <v>70</v>
+      </c>
+      <c r="K456">
+        <v>366</v>
+      </c>
+      <c r="L456">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -15915,10 +16212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
-  <dimension ref="A1:B444"/>
+  <dimension ref="A1:B456"/>
   <sheetViews>
-    <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="B428" sqref="B428:B444"/>
+    <sheetView topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="B444" sqref="B444:B456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16157,7 +16454,7 @@
       </c>
       <c r="B26">
         <f>Control!B26/'Fight Time'!B26</f>
-        <v>8.8738484677570964E-2</v>
+        <v>9.6874999999999989E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -16490,7 +16787,7 @@
       </c>
       <c r="B63">
         <f>Control!B63/'Fight Time'!B63</f>
-        <v>0.26120689655172413</v>
+        <v>0.27174887892376681</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -16508,7 +16805,7 @@
       </c>
       <c r="B65">
         <f>Control!B65/'Fight Time'!B65</f>
-        <v>0.20232558139534884</v>
+        <v>0.20046082949308755</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -16679,7 +16976,7 @@
       </c>
       <c r="B84">
         <f>Control!B84/'Fight Time'!B84</f>
-        <v>3.4431137724550899E-2</v>
+        <v>4.3260473588342438E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -16859,7 +17156,7 @@
       </c>
       <c r="B104">
         <f>Control!B104/'Fight Time'!B104</f>
-        <v>5.4473161033797214E-2</v>
+        <v>5.0293685756240818E-2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -16877,7 +17174,7 @@
       </c>
       <c r="B106">
         <f>Control!B106/'Fight Time'!B106</f>
-        <v>0.2679580306698951</v>
+        <v>0.27046818727490995</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -17021,7 +17318,7 @@
       </c>
       <c r="B122">
         <f>Control!B122/'Fight Time'!B122</f>
-        <v>0.13537414965986394</v>
+        <v>9.544364508393284E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -17084,7 +17381,7 @@
       </c>
       <c r="B129">
         <f>Control!B129/'Fight Time'!B129</f>
-        <v>0.31024096385542171</v>
+        <v>0.23066666666666666</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -17246,7 +17543,7 @@
       </c>
       <c r="B147">
         <f>Control!B147/'Fight Time'!B147</f>
-        <v>4.9629629629629628E-2</v>
+        <v>5.823554976097349E-2</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -17534,7 +17831,7 @@
       </c>
       <c r="B179">
         <f>Control!B179/'Fight Time'!B179</f>
-        <v>0.13518005540166203</v>
+        <v>0.15297805642633228</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -18146,7 +18443,7 @@
       </c>
       <c r="B247">
         <f>Control!B247/'Fight Time'!B247</f>
-        <v>0.4056291390728477</v>
+        <v>0.4419916605347069</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -18245,7 +18542,7 @@
       </c>
       <c r="B258">
         <f>Control!B258/'Fight Time'!B258</f>
-        <v>0.14676034348165495</v>
+        <v>8.6238532110091748E-2</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -18263,7 +18560,7 @@
       </c>
       <c r="B260">
         <f>Control!B260/'Fight Time'!B260</f>
-        <v>0.77200000000000002</v>
+        <v>0.69285714285714284</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -18641,7 +18938,7 @@
       </c>
       <c r="B302">
         <f>Control!B302/'Fight Time'!B302</f>
-        <v>9.5599999999999991E-2</v>
+        <v>0.10448979591836735</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -18650,7 +18947,7 @@
       </c>
       <c r="B303">
         <f>Control!B303/'Fight Time'!B303</f>
-        <v>0.3487544483985765</v>
+        <v>0.31899109792284869</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -19316,7 +19613,7 @@
       </c>
       <c r="B377">
         <f>Control!B377/'Fight Time'!B377</f>
-        <v>6.4285714285714279E-2</v>
+        <v>0.11773858921161826</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -19920,6 +20217,114 @@
       <c r="B444">
         <f>Control!B444/'Fight Time'!B444</f>
         <v>9.2555831265508676E-2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B445">
+        <f>Control!B445/'Fight Time'!B445</f>
+        <v>0.54611330698287219</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>695</v>
+      </c>
+      <c r="B446">
+        <f>Control!B446/'Fight Time'!B446</f>
+        <v>2.8562259306803596E-2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>696</v>
+      </c>
+      <c r="B447">
+        <f>Control!B447/'Fight Time'!B447</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>697</v>
+      </c>
+      <c r="B448">
+        <f>Control!B448/'Fight Time'!B448</f>
+        <v>1.3157894736842105E-2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>698</v>
+      </c>
+      <c r="B449">
+        <f>Control!B449/'Fight Time'!B449</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>699</v>
+      </c>
+      <c r="B450">
+        <f>Control!B450/'Fight Time'!B450</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>700</v>
+      </c>
+      <c r="B451">
+        <f>Control!B451/'Fight Time'!B451</f>
+        <v>0.18888888888888888</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>701</v>
+      </c>
+      <c r="B452">
+        <f>Control!B452/'Fight Time'!B452</f>
+        <v>0.30833333333333335</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>702</v>
+      </c>
+      <c r="B453">
+        <f>Control!B453/'Fight Time'!B453</f>
+        <v>0.32240948813982523</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>703</v>
+      </c>
+      <c r="B454">
+        <f>Control!B454/'Fight Time'!B454</f>
+        <v>0.32540272614622062</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>704</v>
+      </c>
+      <c r="B455">
+        <f>Control!B455/'Fight Time'!B455</f>
+        <v>0.28966709900562043</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>705</v>
+      </c>
+      <c r="B456">
+        <f>Control!B456/'Fight Time'!B456</f>
+        <v>0.16407879490150637</v>
       </c>
     </row>
   </sheetData>
@@ -19929,10 +20334,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
-  <dimension ref="A1:AE444"/>
+  <dimension ref="A1:AE456"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J202" sqref="J202"/>
+    <sheetView topLeftCell="A356" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D378" sqref="D378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20761,7 +21166,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>63.111111111111114</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -20789,6 +21194,9 @@
       </c>
       <c r="K26">
         <v>0</v>
+      </c>
+      <c r="L26">
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -23319,7 +23727,7 @@
       </c>
       <c r="B104" s="1">
         <f t="shared" si="1"/>
-        <v>133.4</v>
+        <v>115.66666666666667</v>
       </c>
       <c r="C104">
         <v>15</v>
@@ -23335,6 +23743,9 @@
       </c>
       <c r="G104">
         <v>49</v>
+      </c>
+      <c r="H104">
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
@@ -23358,7 +23769,7 @@
       </c>
       <c r="B106" s="1">
         <f t="shared" si="1"/>
-        <v>94.222222222222229</v>
+        <v>92.3</v>
       </c>
       <c r="C106">
         <v>15</v>
@@ -23386,6 +23797,9 @@
       </c>
       <c r="K106">
         <v>278</v>
+      </c>
+      <c r="L106">
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
@@ -24079,73 +24493,37 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <f t="shared" si="2"/>
-        <v>97.454545454545453</v>
-      </c>
-      <c r="C129">
-        <v>224</v>
-      </c>
-      <c r="D129">
-        <v>29</v>
-      </c>
-      <c r="E129">
-        <v>503</v>
-      </c>
-      <c r="F129">
-        <v>240</v>
-      </c>
-      <c r="G129">
-        <v>241</v>
-      </c>
-      <c r="H129">
-        <v>136</v>
-      </c>
-      <c r="I129">
+        <f>AVERAGE(C129:BA129)</f>
+        <v>72.8</v>
+      </c>
+      <c r="C129" s="14">
+        <v>2</v>
+      </c>
+      <c r="D129" s="14">
+        <v>6</v>
+      </c>
+      <c r="E129" s="14">
+        <v>120</v>
+      </c>
+      <c r="F129" s="14">
+        <v>302</v>
+      </c>
+      <c r="G129" s="14">
+        <v>0</v>
+      </c>
+      <c r="H129" s="14">
         <v>5</v>
       </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>3</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129" s="11">
-        <v>16</v>
-      </c>
-      <c r="N129" s="11">
-        <v>19</v>
-      </c>
-      <c r="O129" s="11">
-        <v>2</v>
-      </c>
-      <c r="P129" s="11">
-        <v>6</v>
-      </c>
-      <c r="Q129" s="11">
-        <v>120</v>
-      </c>
-      <c r="R129" s="11">
-        <v>302</v>
-      </c>
-      <c r="S129" s="11">
-        <v>0</v>
-      </c>
-      <c r="T129" s="11">
-        <v>5</v>
-      </c>
-      <c r="U129" s="11">
-        <v>0</v>
-      </c>
-      <c r="V129" s="11">
+      <c r="I129" s="14">
+        <v>0</v>
+      </c>
+      <c r="J129" s="14">
         <v>34</v>
       </c>
-      <c r="W129" s="11">
+      <c r="K129" s="14">
         <v>36</v>
       </c>
-      <c r="X129" s="11">
+      <c r="L129" s="14">
         <v>223</v>
       </c>
     </row>
@@ -27907,7 +28285,7 @@
       </c>
       <c r="B247" s="1">
         <f t="shared" si="3"/>
-        <v>49.375</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="C247">
         <v>2</v>
@@ -27932,6 +28310,9 @@
       </c>
       <c r="J247">
         <v>293</v>
+      </c>
+      <c r="K247">
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
@@ -28205,7 +28586,7 @@
       </c>
       <c r="B258" s="1">
         <f t="shared" si="4"/>
-        <v>38.333333333333336</v>
+        <v>28.75</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -28214,6 +28595,9 @@
         <v>115</v>
       </c>
       <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
         <v>0</v>
       </c>
     </row>
@@ -28256,10 +28640,13 @@
       </c>
       <c r="B260" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C260">
         <v>3</v>
+      </c>
+      <c r="D260">
+        <v>137</v>
       </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.3">
@@ -29451,38 +29838,38 @@
         <v>539</v>
       </c>
       <c r="B302" s="1">
-        <f t="shared" si="4"/>
-        <v>134.4</v>
+        <f>AVERAGE(C302:BA302)</f>
+        <v>129.80000000000001</v>
       </c>
       <c r="C302">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D302">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="E302">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="F302">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="G302">
-        <v>309</v>
+        <v>4</v>
       </c>
       <c r="H302">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="I302">
-        <v>107</v>
+        <v>478</v>
       </c>
       <c r="J302">
-        <v>478</v>
+        <v>19</v>
       </c>
       <c r="K302">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L302">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
@@ -29491,13 +29878,16 @@
       </c>
       <c r="B303" s="1">
         <f t="shared" si="4"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="C303">
         <v>0</v>
       </c>
       <c r="D303">
         <v>9</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
@@ -31485,10 +31875,13 @@
       </c>
       <c r="B377" s="1">
         <f t="shared" si="5"/>
-        <v>103</v>
+        <v>55.5</v>
       </c>
       <c r="C377">
         <v>103</v>
+      </c>
+      <c r="D377">
+        <v>8</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
@@ -33211,7 +33604,7 @@
         <v>691</v>
       </c>
       <c r="B442" s="1">
-        <f t="shared" ref="B442:B444" si="7">AVERAGE(C442:BA442)</f>
+        <f t="shared" ref="B442:B456" si="7">AVERAGE(C442:BA442)</f>
         <v>97.6</v>
       </c>
       <c r="C442">
@@ -33285,6 +33678,276 @@
       </c>
       <c r="L444">
         <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A445" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B445" s="1">
+        <f t="shared" si="7"/>
+        <v>62.166666666666664</v>
+      </c>
+      <c r="C445">
+        <v>39</v>
+      </c>
+      <c r="D445">
+        <v>0</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>84</v>
+      </c>
+      <c r="G445">
+        <v>237</v>
+      </c>
+      <c r="H445">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>695</v>
+      </c>
+      <c r="B446" s="1">
+        <f t="shared" si="7"/>
+        <v>190.625</v>
+      </c>
+      <c r="C446">
+        <v>388</v>
+      </c>
+      <c r="D446">
+        <v>102</v>
+      </c>
+      <c r="E446">
+        <v>78</v>
+      </c>
+      <c r="F446">
+        <v>2</v>
+      </c>
+      <c r="G446">
+        <v>81</v>
+      </c>
+      <c r="H446">
+        <v>198</v>
+      </c>
+      <c r="I446">
+        <v>392</v>
+      </c>
+      <c r="J446">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>696</v>
+      </c>
+      <c r="B447" s="1">
+        <f t="shared" si="7"/>
+        <v>157</v>
+      </c>
+      <c r="C447">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>697</v>
+      </c>
+      <c r="B448" s="1">
+        <f t="shared" si="7"/>
+        <v>105.33333333333333</v>
+      </c>
+      <c r="C448">
+        <v>16</v>
+      </c>
+      <c r="D448">
+        <v>54</v>
+      </c>
+      <c r="E448">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>698</v>
+      </c>
+      <c r="B449" s="1">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="C449" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>699</v>
+      </c>
+      <c r="B450" s="1">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="C450" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>700</v>
+      </c>
+      <c r="B451" s="1">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="C451" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>701</v>
+      </c>
+      <c r="B452" s="1">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="C452" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>702</v>
+      </c>
+      <c r="B453" s="1">
+        <f t="shared" si="7"/>
+        <v>176.125</v>
+      </c>
+      <c r="C453">
+        <v>72</v>
+      </c>
+      <c r="D453">
+        <v>189</v>
+      </c>
+      <c r="E453">
+        <v>123</v>
+      </c>
+      <c r="F453">
+        <v>95</v>
+      </c>
+      <c r="G453">
+        <v>90</v>
+      </c>
+      <c r="H453">
+        <v>434</v>
+      </c>
+      <c r="I453">
+        <v>167</v>
+      </c>
+      <c r="J453">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>703</v>
+      </c>
+      <c r="B454" s="1">
+        <f t="shared" si="7"/>
+        <v>95</v>
+      </c>
+      <c r="C454">
+        <v>50</v>
+      </c>
+      <c r="D454">
+        <v>2</v>
+      </c>
+      <c r="E454">
+        <v>11</v>
+      </c>
+      <c r="F454">
+        <v>401</v>
+      </c>
+      <c r="G454">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>704</v>
+      </c>
+      <c r="B455" s="1">
+        <f t="shared" si="7"/>
+        <v>102.22222222222223</v>
+      </c>
+      <c r="C455">
+        <v>373</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+      <c r="E455">
+        <v>22</v>
+      </c>
+      <c r="F455">
+        <v>79</v>
+      </c>
+      <c r="G455">
+        <v>284</v>
+      </c>
+      <c r="H455">
+        <v>13</v>
+      </c>
+      <c r="I455">
+        <v>0</v>
+      </c>
+      <c r="J455">
+        <v>30</v>
+      </c>
+      <c r="K455">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>705</v>
+      </c>
+      <c r="B456" s="1">
+        <f t="shared" si="7"/>
+        <v>249</v>
+      </c>
+      <c r="C456">
+        <v>666</v>
+      </c>
+      <c r="D456">
+        <v>63</v>
+      </c>
+      <c r="E456">
+        <v>144</v>
+      </c>
+      <c r="F456">
+        <v>29</v>
+      </c>
+      <c r="G456">
+        <v>252</v>
+      </c>
+      <c r="H456">
+        <v>0</v>
+      </c>
+      <c r="I456">
+        <v>611</v>
+      </c>
+      <c r="J456">
+        <v>378</v>
+      </c>
+      <c r="K456">
+        <v>347</v>
+      </c>
+      <c r="L456">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -33294,10 +33957,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
-  <dimension ref="A1:B444"/>
+  <dimension ref="A1:B456"/>
   <sheetViews>
-    <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="B428" sqref="B428:B444"/>
+    <sheetView topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="B444" sqref="B444:B456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33536,7 +34199,7 @@
       </c>
       <c r="B26">
         <f>Controlled!B26/'Fight Time'!B26</f>
-        <v>0.10678699003572101</v>
+        <v>0.12309027777777778</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -33869,7 +34532,7 @@
       </c>
       <c r="B63">
         <f>Controlled!B63/'Fight Time'!B63</f>
-        <v>0.11379310344827585</v>
+        <v>0.11838565022421524</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -33887,7 +34550,7 @@
       </c>
       <c r="B65">
         <f>Controlled!B65/'Fight Time'!B65</f>
-        <v>0.2327906976744186</v>
+        <v>0.23064516129032256</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -34058,7 +34721,7 @@
       </c>
       <c r="B84">
         <f>Controlled!B84/'Fight Time'!B84</f>
-        <v>3.8922155688622756E-2</v>
+        <v>4.7358834244080147E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -34238,7 +34901,7 @@
       </c>
       <c r="B104">
         <f>Controlled!B104/'Fight Time'!B104</f>
-        <v>0.26520874751491053</v>
+        <v>0.2547723935389134</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -34256,7 +34919,7 @@
       </c>
       <c r="B106">
         <f>Controlled!B106/'Fight Time'!B106</f>
-        <v>0.11407048695184289</v>
+        <v>0.11080432172869148</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -34400,7 +35063,7 @@
       </c>
       <c r="B122">
         <f>Controlled!B122/'Fight Time'!B122</f>
-        <v>0.35170068027210888</v>
+        <v>0.24796163069544366</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -34463,7 +35126,7 @@
       </c>
       <c r="B129">
         <f>Controlled!B129/'Fight Time'!B129</f>
-        <v>0.14676889375684557</v>
+        <v>0.10785185185185185</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -34625,7 +35288,7 @@
       </c>
       <c r="B147">
         <f>Controlled!B147/'Fight Time'!B147</f>
-        <v>0.23037037037037039</v>
+        <v>0.27031725336810086</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -34913,7 +35576,7 @@
       </c>
       <c r="B179">
         <f>Controlled!B179/'Fight Time'!B179</f>
-        <v>0.20858725761772853</v>
+        <v>0.23605015673981192</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -35525,7 +36188,7 @@
       </c>
       <c r="B247">
         <f>Controlled!B247/'Fight Time'!B247</f>
-        <v>0.10899558498896247</v>
+        <v>9.860191317144959E-2</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -35624,7 +36287,7 @@
       </c>
       <c r="B258">
         <f>Controlled!B258/'Fight Time'!B258</f>
-        <v>8.9773614363778301E-2</v>
+        <v>5.2752293577981654E-2</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -35642,7 +36305,7 @@
       </c>
       <c r="B260">
         <f>Controlled!B260/'Fight Time'!B260</f>
-        <v>6.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -36020,7 +36683,7 @@
       </c>
       <c r="B302">
         <f>Controlled!B302/'Fight Time'!B302</f>
-        <v>0.26880000000000004</v>
+        <v>0.26489795918367348</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -36029,7 +36692,7 @@
       </c>
       <c r="B303">
         <f>Controlled!B303/'Fight Time'!B303</f>
-        <v>8.0071174377224202E-3</v>
+        <v>4.4510385756676559E-3</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -36695,7 +37358,7 @@
       </c>
       <c r="B377">
         <f>Controlled!B377/'Fight Time'!B377</f>
-        <v>0.10510204081632653</v>
+        <v>5.7572614107883814E-2</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -37299,6 +37962,114 @@
       <c r="B444">
         <f>Controlled!B444/'Fight Time'!B444</f>
         <v>0.26550868486352358</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B445">
+        <f>Controlled!B445/'Fight Time'!B445</f>
+        <v>8.1906016688625377E-2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>695</v>
+      </c>
+      <c r="B446">
+        <f>Controlled!B446/'Fight Time'!B446</f>
+        <v>0.24470474967907574</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>696</v>
+      </c>
+      <c r="B447">
+        <f>Controlled!B447/'Fight Time'!B447</f>
+        <v>0.17444444444444446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>697</v>
+      </c>
+      <c r="B448">
+        <f>Controlled!B448/'Fight Time'!B448</f>
+        <v>0.15399610136452241</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>698</v>
+      </c>
+      <c r="B449">
+        <f>Controlled!B449/'Fight Time'!B449</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>699</v>
+      </c>
+      <c r="B450">
+        <f>Controlled!B450/'Fight Time'!B450</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>700</v>
+      </c>
+      <c r="B451">
+        <f>Controlled!B451/'Fight Time'!B451</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>701</v>
+      </c>
+      <c r="B452">
+        <f>Controlled!B452/'Fight Time'!B452</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>702</v>
+      </c>
+      <c r="B453">
+        <f>Controlled!B453/'Fight Time'!B453</f>
+        <v>0.21988139825218478</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>703</v>
+      </c>
+      <c r="B454">
+        <f>Controlled!B454/'Fight Time'!B454</f>
+        <v>0.11771995043370508</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>704</v>
+      </c>
+      <c r="B455">
+        <f>Controlled!B455/'Fight Time'!B455</f>
+        <v>0.13258394581351782</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>705</v>
+      </c>
+      <c r="B456">
+        <f>Controlled!B456/'Fight Time'!B456</f>
+        <v>0.2885283893395133</v>
       </c>
     </row>
   </sheetData>
@@ -37308,10 +38079,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
-  <dimension ref="A1:C444"/>
+  <dimension ref="A1:C456"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="B378" sqref="B378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37544,8 +38315,8 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>9*60+51</f>
-        <v>591</v>
+        <f>9*60+36</f>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -37864,8 +38635,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <f>3*60+52</f>
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -37882,8 +38652,8 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <f>14*60+20</f>
-        <v>860</v>
+        <f>14*60+28</f>
+        <v>868</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -38045,7 +38815,8 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>668</v>
+        <f>9*60+9</f>
+        <v>549</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -38214,8 +38985,7 @@
         <v>99</v>
       </c>
       <c r="B104">
-        <f>8*60+23</f>
-        <v>503</v>
+        <v>454</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -38231,8 +39001,8 @@
         <v>119</v>
       </c>
       <c r="B106">
-        <f>13*60+46</f>
-        <v>826</v>
+        <f>13*60+53</f>
+        <v>833</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -38368,7 +39138,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>490</v>
+        <v>695</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -38424,7 +39194,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>664</v>
+        <v>675</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -38576,7 +39346,8 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>900</v>
+        <f>12*60+47</f>
+        <v>767</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -38851,8 +39622,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <f>12*60+2</f>
-        <v>722</v>
+        <v>638</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -39523,7 +40293,7 @@
         <v>488</v>
       </c>
       <c r="B258">
-        <v>427</v>
+        <v>545</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -39540,7 +40310,7 @@
         <v>490</v>
       </c>
       <c r="B260">
-        <v>500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -39894,7 +40664,7 @@
         <v>539</v>
       </c>
       <c r="B302">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -39902,8 +40672,7 @@
         <v>540</v>
       </c>
       <c r="B303">
-        <f>9*60+22</f>
-        <v>562</v>
+        <v>674</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -40533,8 +41302,8 @@
         <v>622</v>
       </c>
       <c r="B377">
-        <f>16*60+20</f>
-        <v>980</v>
+        <f>16*60+4</f>
+        <v>964</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -41105,6 +41874,107 @@
       </c>
       <c r="B444">
         <v>403</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B445">
+        <f>12*60+39</f>
+        <v>759</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>695</v>
+      </c>
+      <c r="B446">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>696</v>
+      </c>
+      <c r="B447">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>697</v>
+      </c>
+      <c r="B448">
+        <f>11*60+24</f>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>698</v>
+      </c>
+      <c r="B449">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>699</v>
+      </c>
+      <c r="B450">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>700</v>
+      </c>
+      <c r="B451">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>701</v>
+      </c>
+      <c r="B452">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>702</v>
+      </c>
+      <c r="B453">
+        <f>13*60+21</f>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>703</v>
+      </c>
+      <c r="B454">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>704</v>
+      </c>
+      <c r="B455">
+        <f>12*60+51</f>
+        <v>771</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>705</v>
+      </c>
+      <c r="B456">
+        <f>14*60+23</f>
+        <v>863</v>
       </c>
     </row>
   </sheetData>
@@ -41116,10 +41986,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A353" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AB204" sqref="AB204"/>
+      <selection pane="topRight" activeCell="C379" sqref="C379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42976,8 +43846,17 @@
         <f>Control!A26</f>
         <v>Modestas Bukauskas</v>
       </c>
+      <c r="B28">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>191</v>
+      </c>
+      <c r="D28">
+        <v>198</v>
+      </c>
       <c r="E28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -42988,25 +43867,61 @@
       <c r="H28">
         <v>4</v>
       </c>
+      <c r="I28">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J28">
+        <v>0.67</v>
+      </c>
+      <c r="K28">
+        <v>0.17</v>
+      </c>
+      <c r="L28">
+        <v>0.17</v>
+      </c>
+      <c r="M28">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N28">
+        <v>0.17</v>
+      </c>
+      <c r="O28" s="8">
+        <v>3.26</v>
+      </c>
+      <c r="P28" s="8">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>0.31</v>
+      </c>
+      <c r="U28">
+        <v>0.66</v>
+      </c>
+      <c r="V28">
+        <v>0.77</v>
+      </c>
       <c r="W28">
         <f>Control!B26</f>
-        <v>52.444444444444443</v>
+        <v>55.8</v>
       </c>
       <c r="X28">
         <f>'Ctrl pct'!B26</f>
-        <v>8.8738484677570964E-2</v>
+        <v>9.6874999999999989E-2</v>
       </c>
       <c r="Y28">
         <f>Controlled!B26</f>
-        <v>63.111111111111114</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="Z28">
         <f>'Controlled pct'!B26</f>
-        <v>0.10678699003572101</v>
+        <v>0.12309027777777778</v>
       </c>
       <c r="AA28">
         <f>'Fight Time'!B26</f>
-        <v>591</v>
+        <v>576</v>
+      </c>
+      <c r="AB28">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
@@ -45095,6 +46010,15 @@
         <f>Control!A63</f>
         <v>Sam Patterson</v>
       </c>
+      <c r="B65">
+        <v>29</v>
+      </c>
+      <c r="C65">
+        <v>191</v>
+      </c>
+      <c r="D65">
+        <v>198</v>
+      </c>
       <c r="E65">
         <v>13</v>
       </c>
@@ -45106,6 +46030,39 @@
       </c>
       <c r="H65">
         <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0.38</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0.54</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0.08</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" s="8">
+        <v>3.17</v>
+      </c>
+      <c r="P65" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="T65">
+        <v>1.61</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+      <c r="V65">
+        <v>0.33</v>
       </c>
       <c r="W65">
         <f>Control!B63</f>
@@ -45113,7 +46070,7 @@
       </c>
       <c r="X65">
         <f>'Ctrl pct'!B63</f>
-        <v>0.26120689655172413</v>
+        <v>0.27174887892376681</v>
       </c>
       <c r="Y65">
         <f>Controlled!B63</f>
@@ -45121,11 +46078,14 @@
       </c>
       <c r="Z65">
         <f>'Controlled pct'!B63</f>
-        <v>0.11379310344827585</v>
+        <v>0.11838565022421524</v>
       </c>
       <c r="AA65">
         <f>'Fight Time'!B63</f>
-        <v>232</v>
+        <v>223</v>
+      </c>
+      <c r="AB65">
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.3">
@@ -45216,6 +46176,15 @@
         <f>Control!A65</f>
         <v>Williams Gomis</v>
       </c>
+      <c r="B67">
+        <v>28</v>
+      </c>
+      <c r="C67">
+        <v>183</v>
+      </c>
+      <c r="D67">
+        <v>185</v>
+      </c>
       <c r="E67">
         <v>14</v>
       </c>
@@ -45227,6 +46196,39 @@
       </c>
       <c r="H67">
         <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0.5</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L67">
+        <v>0.33</v>
+      </c>
+      <c r="M67">
+        <v>0.43</v>
+      </c>
+      <c r="N67">
+        <v>0.67</v>
+      </c>
+      <c r="O67" s="8">
+        <v>3.53</v>
+      </c>
+      <c r="P67" s="8">
+        <v>2.86</v>
+      </c>
+      <c r="T67">
+        <v>0.61</v>
+      </c>
+      <c r="U67">
+        <v>0.27</v>
+      </c>
+      <c r="V67">
+        <v>0.73</v>
       </c>
       <c r="W67">
         <f>Control!B65</f>
@@ -45234,7 +46236,7 @@
       </c>
       <c r="X67">
         <f>'Ctrl pct'!B65</f>
-        <v>0.20232558139534884</v>
+        <v>0.20046082949308755</v>
       </c>
       <c r="Y67">
         <f>Controlled!B65</f>
@@ -45242,11 +46244,14 @@
       </c>
       <c r="Z67">
         <f>'Controlled pct'!B65</f>
-        <v>0.2327906976744186</v>
+        <v>0.23064516129032256</v>
       </c>
       <c r="AA67">
         <f>'Fight Time'!B65</f>
-        <v>860</v>
+        <v>868</v>
+      </c>
+      <c r="AB67">
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.3">
@@ -46319,6 +47324,15 @@
         <f>Control!A84</f>
         <v>Mauricio Ruffy</v>
       </c>
+      <c r="B86">
+        <v>29</v>
+      </c>
+      <c r="C86">
+        <v>180</v>
+      </c>
+      <c r="D86">
+        <v>191</v>
+      </c>
       <c r="E86">
         <v>12</v>
       </c>
@@ -46331,13 +47345,46 @@
       <c r="H86">
         <v>0</v>
       </c>
+      <c r="I86">
+        <v>0.91</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0.08</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86" s="8">
+        <v>4.54</v>
+      </c>
+      <c r="P86" s="8">
+        <v>4.59</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>1</v>
+      </c>
       <c r="W86">
         <f>Control!B84</f>
-        <v>23</v>
+        <v>23.75</v>
       </c>
       <c r="X86">
         <f>'Ctrl pct'!B84</f>
-        <v>3.4431137724550899E-2</v>
+        <v>4.3260473588342438E-2</v>
       </c>
       <c r="Y86">
         <f>Controlled!B84</f>
@@ -46345,11 +47392,14 @@
       </c>
       <c r="Z86">
         <f>'Controlled pct'!B84</f>
-        <v>3.8922155688622756E-2</v>
+        <v>4.7358834244080147E-2</v>
       </c>
       <c r="AA86">
         <f>'Fight Time'!B84</f>
-        <v>668</v>
+        <v>549</v>
+      </c>
+      <c r="AB86">
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.3">
@@ -47416,7 +48466,7 @@
         <v>Brendson Ribeiro</v>
       </c>
       <c r="B106">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C106">
         <v>191</v>
@@ -47428,7 +48478,7 @@
         <v>17</v>
       </c>
       <c r="F106">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -47440,28 +48490,28 @@
         <v>0.53</v>
       </c>
       <c r="J106">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="K106">
         <v>0.41</v>
       </c>
       <c r="L106">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="M106">
         <v>0.06</v>
       </c>
       <c r="N106">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="O106" s="8">
-        <v>3.34</v>
+        <v>3.26</v>
       </c>
       <c r="P106" s="8">
-        <v>3.72</v>
+        <v>4.04</v>
       </c>
       <c r="T106">
-        <v>1.07</v>
+        <v>0.99</v>
       </c>
       <c r="U106">
         <v>0.42</v>
@@ -47471,26 +48521,26 @@
       </c>
       <c r="W106">
         <f>Control!B104</f>
-        <v>27.4</v>
+        <v>22.833333333333332</v>
       </c>
       <c r="X106">
         <f>'Ctrl pct'!B104</f>
-        <v>5.4473161033797214E-2</v>
+        <v>5.0293685756240818E-2</v>
       </c>
       <c r="Y106">
         <f>Controlled!B104</f>
-        <v>133.4</v>
+        <v>115.66666666666667</v>
       </c>
       <c r="Z106">
         <f>'Controlled pct'!B104</f>
-        <v>0.26520874751491053</v>
+        <v>0.2547723935389134</v>
       </c>
       <c r="AA106">
         <f>'Fight Time'!B104</f>
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="AB106">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.3">
@@ -47581,6 +48631,15 @@
         <f>Control!A106</f>
         <v>Sam Hughes</v>
       </c>
+      <c r="B108">
+        <v>33</v>
+      </c>
+      <c r="C108">
+        <v>165</v>
+      </c>
+      <c r="D108">
+        <v>164</v>
+      </c>
       <c r="E108">
         <v>10</v>
       </c>
@@ -47593,25 +48652,61 @@
       <c r="H108">
         <v>5</v>
       </c>
+      <c r="I108">
+        <v>0.2</v>
+      </c>
+      <c r="J108">
+        <v>0.17</v>
+      </c>
+      <c r="K108">
+        <v>0.3</v>
+      </c>
+      <c r="L108">
+        <v>0.17</v>
+      </c>
+      <c r="M108">
+        <v>0.5</v>
+      </c>
+      <c r="N108">
+        <v>0.67</v>
+      </c>
+      <c r="O108" s="8">
+        <v>4.41</v>
+      </c>
+      <c r="P108" s="8">
+        <v>4.57</v>
+      </c>
+      <c r="T108">
+        <v>1.08</v>
+      </c>
+      <c r="U108">
+        <v>0.32</v>
+      </c>
+      <c r="V108">
+        <v>0.6</v>
+      </c>
       <c r="W108">
         <f>Control!B106</f>
-        <v>221.33333333333334</v>
+        <v>225.3</v>
       </c>
       <c r="X108">
         <f>'Ctrl pct'!B106</f>
-        <v>0.2679580306698951</v>
+        <v>0.27046818727490995</v>
       </c>
       <c r="Y108">
         <f>Controlled!B106</f>
-        <v>94.222222222222229</v>
+        <v>92.3</v>
       </c>
       <c r="Z108">
         <f>'Controlled pct'!B106</f>
-        <v>0.11407048695184289</v>
+        <v>0.11080432172869148</v>
       </c>
       <c r="AA108">
         <f>'Fight Time'!B106</f>
-        <v>826</v>
+        <v>833</v>
+      </c>
+      <c r="AB108">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.3">
@@ -48702,6 +49797,15 @@
         <f>Control!A122</f>
         <v>Kaue Fernandez</v>
       </c>
+      <c r="B124">
+        <v>30</v>
+      </c>
+      <c r="C124">
+        <v>175</v>
+      </c>
+      <c r="D124">
+        <v>185</v>
+      </c>
       <c r="E124">
         <v>10</v>
       </c>
@@ -48713,6 +49817,39 @@
       </c>
       <c r="H124">
         <v>1</v>
+      </c>
+      <c r="I124">
+        <v>0.5</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0.2</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0.3</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124" s="8">
+        <v>4</v>
+      </c>
+      <c r="P124" s="8">
+        <v>1.32</v>
+      </c>
+      <c r="T124">
+        <v>1.3</v>
+      </c>
+      <c r="U124">
+        <v>1</v>
+      </c>
+      <c r="V124">
+        <v>0.76</v>
       </c>
       <c r="W124">
         <f>Control!B122</f>
@@ -48720,7 +49857,7 @@
       </c>
       <c r="X124">
         <f>'Ctrl pct'!B122</f>
-        <v>0.13537414965986394</v>
+        <v>9.544364508393284E-2</v>
       </c>
       <c r="Y124">
         <f>Controlled!B122</f>
@@ -48728,11 +49865,14 @@
       </c>
       <c r="Z124">
         <f>'Controlled pct'!B122</f>
-        <v>0.35170068027210888</v>
+        <v>0.24796163069544366</v>
       </c>
       <c r="AA124">
         <f>'Fight Time'!B122</f>
-        <v>490</v>
+        <v>695</v>
+      </c>
+      <c r="AB124">
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.3">
@@ -49103,11 +50243,20 @@
         <f>Control!A129</f>
         <v>Marcin Tybura</v>
       </c>
+      <c r="B131">
+        <v>39</v>
+      </c>
+      <c r="C131">
+        <v>191</v>
+      </c>
+      <c r="D131">
+        <v>198</v>
+      </c>
       <c r="E131">
         <v>27</v>
       </c>
       <c r="F131">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G131">
         <v>14</v>
@@ -49115,25 +50264,61 @@
       <c r="H131">
         <v>8</v>
       </c>
+      <c r="I131">
+        <v>0.33</v>
+      </c>
+      <c r="J131">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K131">
+        <v>0.3</v>
+      </c>
+      <c r="L131">
+        <v>0.11</v>
+      </c>
+      <c r="M131">
+        <v>0.37</v>
+      </c>
+      <c r="N131">
+        <v>0.33</v>
+      </c>
+      <c r="O131" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="P131" s="8">
+        <v>3.31</v>
+      </c>
+      <c r="T131">
+        <v>1.39</v>
+      </c>
+      <c r="U131">
+        <v>0.33</v>
+      </c>
+      <c r="V131">
+        <v>0.75</v>
+      </c>
       <c r="W131">
         <f>Control!B129</f>
-        <v>206</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="X131">
         <f>'Ctrl pct'!B129</f>
-        <v>0.31024096385542171</v>
+        <v>0.23066666666666666</v>
       </c>
       <c r="Y131">
         <f>Controlled!B129</f>
-        <v>97.454545454545453</v>
+        <v>72.8</v>
       </c>
       <c r="Z131">
         <f>'Controlled pct'!B129</f>
-        <v>0.14676889375684557</v>
+        <v>0.10785185185185185</v>
       </c>
       <c r="AA131">
         <f>'Fight Time'!B129</f>
-        <v>664</v>
+        <v>675</v>
+      </c>
+      <c r="AB131">
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.3">
@@ -50021,6 +51206,15 @@
         <f>Control!A147</f>
         <v>Shauna Bannon</v>
       </c>
+      <c r="B149">
+        <v>31</v>
+      </c>
+      <c r="C149">
+        <v>165</v>
+      </c>
+      <c r="D149">
+        <v>165</v>
+      </c>
       <c r="E149">
         <v>7</v>
       </c>
@@ -50032,6 +51226,39 @@
       </c>
       <c r="H149">
         <v>1</v>
+      </c>
+      <c r="I149">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149" s="8">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="P149" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>0.42</v>
       </c>
       <c r="W149">
         <f>Control!B147</f>
@@ -50039,7 +51266,7 @@
       </c>
       <c r="X149">
         <f>'Ctrl pct'!B147</f>
-        <v>4.9629629629629628E-2</v>
+        <v>5.823554976097349E-2</v>
       </c>
       <c r="Y149">
         <f>Controlled!B147</f>
@@ -50047,11 +51274,14 @@
       </c>
       <c r="Z149">
         <f>'Controlled pct'!B147</f>
-        <v>0.23037037037037039</v>
+        <v>0.27031725336810086</v>
       </c>
       <c r="AA149">
         <f>'Fight Time'!B147</f>
-        <v>900</v>
+        <v>767</v>
+      </c>
+      <c r="AB149">
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.3">
@@ -51651,6 +52881,15 @@
         <f>Control!A179</f>
         <v>Rhys McKee</v>
       </c>
+      <c r="B181">
+        <v>29</v>
+      </c>
+      <c r="C181">
+        <v>188</v>
+      </c>
+      <c r="D181">
+        <v>198</v>
+      </c>
       <c r="E181">
         <v>14</v>
       </c>
@@ -51662,6 +52901,39 @@
       </c>
       <c r="H181">
         <v>4</v>
+      </c>
+      <c r="I181">
+        <v>0.79</v>
+      </c>
+      <c r="J181">
+        <v>0.33</v>
+      </c>
+      <c r="K181">
+        <v>0.21</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0.67</v>
+      </c>
+      <c r="O181" s="8">
+        <v>5.16</v>
+      </c>
+      <c r="P181" s="8">
+        <v>7.92</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+      <c r="U181">
+        <v>0</v>
+      </c>
+      <c r="V181">
+        <v>0.41</v>
       </c>
       <c r="W181">
         <f>Control!B179</f>
@@ -51669,7 +52941,7 @@
       </c>
       <c r="X181">
         <f>'Ctrl pct'!B179</f>
-        <v>0.13518005540166203</v>
+        <v>0.15297805642633228</v>
       </c>
       <c r="Y181">
         <f>Controlled!B179</f>
@@ -51677,11 +52949,14 @@
       </c>
       <c r="Z181">
         <f>'Controlled pct'!B179</f>
-        <v>0.20858725761772853</v>
+        <v>0.23605015673981192</v>
       </c>
       <c r="AA181">
         <f>'Fight Time'!B179</f>
-        <v>722</v>
+        <v>638</v>
+      </c>
+      <c r="AB181">
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.3">
@@ -55012,6 +56287,15 @@
         <f>Control!A247</f>
         <v>Benoit Saint-Denis</v>
       </c>
+      <c r="B249">
+        <v>29</v>
+      </c>
+      <c r="C249">
+        <v>180</v>
+      </c>
+      <c r="D249">
+        <v>185</v>
+      </c>
       <c r="E249">
         <v>14</v>
       </c>
@@ -55024,25 +56308,61 @@
       <c r="H249">
         <v>3</v>
       </c>
+      <c r="I249">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J249">
+        <v>0.67</v>
+      </c>
+      <c r="K249">
+        <v>0.71</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>0.33</v>
+      </c>
+      <c r="O249" s="8">
+        <v>5.39</v>
+      </c>
+      <c r="P249" s="8">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="T249">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="U249">
+        <v>0.39</v>
+      </c>
+      <c r="V249">
+        <v>0.7</v>
+      </c>
       <c r="W249">
         <f>Control!B247</f>
-        <v>183.75</v>
+        <v>200.22222222222223</v>
       </c>
       <c r="X249">
         <f>'Ctrl pct'!B247</f>
-        <v>0.4056291390728477</v>
+        <v>0.4419916605347069</v>
       </c>
       <c r="Y249">
         <f>Controlled!B247</f>
-        <v>49.375</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="Z249">
         <f>'Controlled pct'!B247</f>
-        <v>0.10899558498896247</v>
+        <v>9.860191317144959E-2</v>
       </c>
       <c r="AA249">
         <f>'Fight Time'!B247</f>
         <v>453</v>
+      </c>
+      <c r="AB249">
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.3">
@@ -55560,28 +56880,28 @@
         <v>1</v>
       </c>
       <c r="I260">
-        <v>0.56000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="J260">
         <v>0</v>
       </c>
       <c r="K260">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="L260">
         <v>0.5</v>
       </c>
       <c r="M260">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="N260">
         <v>0.5</v>
       </c>
       <c r="O260" s="8">
-        <v>5.63</v>
+        <v>7.05</v>
       </c>
       <c r="P260" s="8">
-        <v>2.58</v>
+        <v>4.76</v>
       </c>
       <c r="Q260">
         <v>0.81</v>
@@ -55593,7 +56913,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="T260">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="U260">
         <v>0.75</v>
@@ -55603,23 +56923,23 @@
       </c>
       <c r="W260">
         <f>Control!B258</f>
-        <v>62.666666666666664</v>
+        <v>47</v>
       </c>
       <c r="X260">
         <f>'Ctrl pct'!B258</f>
-        <v>0.14676034348165495</v>
+        <v>8.6238532110091748E-2</v>
       </c>
       <c r="Y260">
         <f>Controlled!B258</f>
-        <v>38.333333333333336</v>
+        <v>28.75</v>
       </c>
       <c r="Z260">
         <f>'Controlled pct'!B258</f>
-        <v>8.9773614363778301E-2</v>
+        <v>5.2752293577981654E-2</v>
       </c>
       <c r="AA260">
         <f>'Fight Time'!B258</f>
-        <v>427</v>
+        <v>545</v>
       </c>
       <c r="AB260">
         <v>1</v>
@@ -55726,10 +57046,10 @@
         <v>34</v>
       </c>
       <c r="C262">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D262">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E262">
         <v>12</v>
@@ -55744,28 +57064,28 @@
         <v>0</v>
       </c>
       <c r="I262">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="J262">
         <v>0</v>
       </c>
       <c r="K262">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="L262">
         <v>0</v>
       </c>
       <c r="M262">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="N262">
         <v>1</v>
       </c>
       <c r="O262" s="8">
-        <v>4.5599999999999996</v>
+        <v>5.83</v>
       </c>
       <c r="P262" s="8">
-        <v>3.12</v>
+        <v>2.79</v>
       </c>
       <c r="Q262">
         <v>0.61</v>
@@ -55777,36 +57097,36 @@
         <v>0.11</v>
       </c>
       <c r="T262">
-        <v>3.6</v>
+        <v>6.49</v>
       </c>
       <c r="U262">
-        <v>0.66</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V262">
         <v>1</v>
       </c>
       <c r="W262">
         <f>Control!B260</f>
-        <v>386</v>
+        <v>485</v>
       </c>
       <c r="X262">
         <f>'Ctrl pct'!B260</f>
-        <v>0.77200000000000002</v>
+        <v>0.69285714285714284</v>
       </c>
       <c r="Y262">
         <f>Controlled!B260</f>
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="Z262">
         <f>'Controlled pct'!B260</f>
-        <v>6.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="AA262">
         <f>'Fight Time'!B260</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AB262">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:28" x14ac:dyDescent="0.3">
@@ -59467,10 +60787,10 @@
         <v>0.22</v>
       </c>
       <c r="O304" s="8">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="P304" s="8">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="Q304">
         <v>0.51</v>
@@ -59482,33 +60802,33 @@
         <v>0.18</v>
       </c>
       <c r="T304">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="U304">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="V304">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="W304">
         <f>Control!B302</f>
-        <v>47.8</v>
+        <v>51.2</v>
       </c>
       <c r="X304">
         <f>'Ctrl pct'!B302</f>
-        <v>9.5599999999999991E-2</v>
+        <v>0.10448979591836735</v>
       </c>
       <c r="Y304">
         <f>Controlled!B302</f>
-        <v>134.4</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="Z304">
         <f>'Controlled pct'!B302</f>
-        <v>0.26880000000000004</v>
+        <v>0.26489795918367348</v>
       </c>
       <c r="AA304">
         <f>'Fight Time'!B302</f>
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AB304">
         <v>-3</v>
@@ -59556,13 +60876,13 @@
         <v>0.27</v>
       </c>
       <c r="N305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O305" s="8">
-        <v>4.8099999999999996</v>
+        <v>3.68</v>
       </c>
       <c r="P305" s="8">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="Q305">
         <v>0.49</v>
@@ -59574,36 +60894,36 @@
         <v>0.3</v>
       </c>
       <c r="T305">
-        <v>3.21</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="U305">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="V305">
         <v>1</v>
       </c>
       <c r="W305">
         <f>Control!B303</f>
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="X305">
         <f>'Ctrl pct'!B303</f>
-        <v>0.3487544483985765</v>
+        <v>0.31899109792284869</v>
       </c>
       <c r="Y305">
         <f>Controlled!B303</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Z305">
         <f>'Controlled pct'!B303</f>
-        <v>8.0071174377224202E-3</v>
+        <v>4.4510385756676559E-3</v>
       </c>
       <c r="AA305">
         <f>'Fight Time'!B303</f>
-        <v>562</v>
+        <v>674</v>
       </c>
       <c r="AB305">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:28" x14ac:dyDescent="0.3">
@@ -66036,75 +67356,75 @@
         <v>168</v>
       </c>
       <c r="D379">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E379">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F379">
         <v>8</v>
       </c>
       <c r="G379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H379">
         <v>1</v>
       </c>
       <c r="I379">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="J379">
         <v>0.25</v>
       </c>
       <c r="K379">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="L379">
         <v>0.13</v>
       </c>
       <c r="M379">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="N379">
         <v>0.63</v>
       </c>
       <c r="O379" s="8">
-        <v>2.4500000000000002</v>
+        <v>2.68</v>
       </c>
       <c r="P379" s="8">
-        <v>4.4800000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="T379">
-        <v>0.69</v>
+        <v>1.49</v>
       </c>
       <c r="U379">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="V379">
         <v>0.88</v>
       </c>
       <c r="W379">
         <f>Control!B377</f>
-        <v>63</v>
+        <v>113.5</v>
       </c>
       <c r="X379">
         <f>'Ctrl pct'!B377</f>
-        <v>6.4285714285714279E-2</v>
+        <v>0.11773858921161826</v>
       </c>
       <c r="Y379">
         <f>Controlled!B377</f>
-        <v>103</v>
+        <v>55.5</v>
       </c>
       <c r="Z379">
         <f>'Controlled pct'!B377</f>
-        <v>0.10510204081632653</v>
+        <v>5.7572614107883814E-2</v>
       </c>
       <c r="AA379">
         <f>'Fight Time'!B377</f>
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="AB379">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:28" x14ac:dyDescent="0.3">
@@ -71669,270 +72989,1002 @@
       </c>
     </row>
     <row r="447" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A447" t="str">
+        <f>Control!A445</f>
+        <v>Rinat Fakhretdinov</v>
+      </c>
+      <c r="B447">
+        <v>33</v>
+      </c>
+      <c r="C447">
+        <v>183</v>
+      </c>
+      <c r="D447">
+        <v>188</v>
+      </c>
+      <c r="E447">
+        <v>24</v>
+      </c>
+      <c r="F447">
+        <v>2</v>
+      </c>
+      <c r="G447">
+        <v>5</v>
+      </c>
+      <c r="H447">
+        <v>0</v>
+      </c>
+      <c r="I447">
+        <v>0.46</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L447">
+        <v>0</v>
+      </c>
+      <c r="M447">
+        <v>0.25</v>
+      </c>
+      <c r="N447">
+        <v>1</v>
+      </c>
+      <c r="O447" s="8">
+        <v>4.78</v>
+      </c>
+      <c r="P447" s="8">
+        <v>3.58</v>
+      </c>
+      <c r="T447">
+        <v>3.95</v>
+      </c>
+      <c r="U447">
+        <v>0.34</v>
+      </c>
+      <c r="V447">
+        <v>0.91</v>
+      </c>
       <c r="W447">
         <f>Control!B445</f>
-        <v>0</v>
+        <v>414.5</v>
       </c>
       <c r="X447">
         <f>'Ctrl pct'!B445</f>
-        <v>0</v>
+        <v>0.54611330698287219</v>
       </c>
       <c r="Y447">
         <f>Controlled!B445</f>
-        <v>0</v>
+        <v>62.166666666666664</v>
       </c>
       <c r="Z447">
         <f>'Controlled pct'!B445</f>
-        <v>0</v>
+        <v>8.1906016688625377E-2</v>
       </c>
       <c r="AA447">
         <f>'Fight Time'!B445</f>
-        <v>0</v>
+        <v>759</v>
+      </c>
+      <c r="AB447">
+        <v>11</v>
       </c>
     </row>
     <row r="448" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A448" t="str">
+        <f>Control!A446</f>
+        <v>Brad Tavares</v>
+      </c>
+      <c r="B448">
+        <v>37</v>
+      </c>
+      <c r="C448">
+        <v>185</v>
+      </c>
+      <c r="D448">
+        <v>188</v>
+      </c>
+      <c r="E448">
+        <v>21</v>
+      </c>
+      <c r="F448">
+        <v>10</v>
+      </c>
+      <c r="G448">
+        <v>16</v>
+      </c>
+      <c r="H448">
+        <v>10</v>
+      </c>
+      <c r="I448">
+        <v>0.24</v>
+      </c>
+      <c r="J448">
+        <v>0.5</v>
+      </c>
+      <c r="K448">
+        <v>0.1</v>
+      </c>
+      <c r="L448">
+        <v>0</v>
+      </c>
+      <c r="M448">
+        <v>0.67</v>
+      </c>
+      <c r="N448">
+        <v>0.5</v>
+      </c>
+      <c r="O448" s="8">
+        <v>3.42</v>
+      </c>
+      <c r="P448" s="8">
+        <v>3.28</v>
+      </c>
+      <c r="T448">
+        <v>0.71</v>
+      </c>
+      <c r="U448">
+        <v>0.26</v>
+      </c>
+      <c r="V448">
+        <v>0.81</v>
+      </c>
       <c r="W448">
         <f>Control!B446</f>
-        <v>0</v>
+        <v>22.25</v>
       </c>
       <c r="X448">
         <f>'Ctrl pct'!B446</f>
-        <v>0</v>
+        <v>2.8562259306803596E-2</v>
       </c>
       <c r="Y448">
         <f>Controlled!B446</f>
-        <v>0</v>
+        <v>190.625</v>
       </c>
       <c r="Z448">
         <f>'Controlled pct'!B446</f>
-        <v>0</v>
+        <v>0.24470474967907574</v>
       </c>
       <c r="AA448">
         <f>'Fight Time'!B446</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="23:27" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+      <c r="AB448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A449" t="str">
+        <f>Control!A447</f>
+        <v>Robert Bryczek</v>
+      </c>
+      <c r="B449">
+        <v>35</v>
+      </c>
+      <c r="C449">
+        <v>183</v>
+      </c>
+      <c r="D449">
+        <v>191</v>
+      </c>
+      <c r="E449">
+        <v>17</v>
+      </c>
+      <c r="F449">
+        <v>6</v>
+      </c>
+      <c r="G449">
+        <v>0</v>
+      </c>
+      <c r="H449">
+        <v>1</v>
+      </c>
+      <c r="I449">
+        <v>0.65</v>
+      </c>
+      <c r="J449">
+        <v>0.17</v>
+      </c>
+      <c r="K449">
+        <v>0.06</v>
+      </c>
+      <c r="L449">
+        <v>0.17</v>
+      </c>
+      <c r="M449">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N449">
+        <v>0.67</v>
+      </c>
+      <c r="O449" s="8">
+        <v>2.13</v>
+      </c>
+      <c r="P449" s="8">
+        <v>4.47</v>
+      </c>
+      <c r="T449">
+        <v>0</v>
+      </c>
+      <c r="U449">
+        <v>0</v>
+      </c>
+      <c r="V449">
+        <v>1</v>
+      </c>
       <c r="W449">
         <f>Control!B447</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X449">
         <f>'Ctrl pct'!B447</f>
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="Y449">
         <f>Controlled!B447</f>
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="Z449">
         <f>'Controlled pct'!B447</f>
-        <v>0</v>
+        <v>0.17444444444444446</v>
       </c>
       <c r="AA449">
         <f>'Fight Time'!B447</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="23:27" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+      <c r="AB449">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A450" t="str">
+        <f>Control!A448</f>
+        <v>Trey Waters</v>
+      </c>
+      <c r="B450">
+        <v>30</v>
+      </c>
+      <c r="C450">
+        <v>196</v>
+      </c>
+      <c r="D450">
+        <v>196</v>
+      </c>
+      <c r="E450">
+        <v>9</v>
+      </c>
+      <c r="F450">
+        <v>1</v>
+      </c>
+      <c r="G450">
+        <v>2</v>
+      </c>
+      <c r="H450">
+        <v>0</v>
+      </c>
+      <c r="I450">
+        <v>0.33</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>0.33</v>
+      </c>
+      <c r="L450">
+        <v>1</v>
+      </c>
+      <c r="M450">
+        <v>0.33</v>
+      </c>
+      <c r="N450">
+        <v>0</v>
+      </c>
+      <c r="O450" s="8">
+        <v>6.43</v>
+      </c>
+      <c r="P450" s="8">
+        <v>5.61</v>
+      </c>
+      <c r="T450">
+        <v>0.44</v>
+      </c>
+      <c r="U450">
+        <v>0.33</v>
+      </c>
+      <c r="V450">
+        <v>0.85</v>
+      </c>
       <c r="W450">
         <f>Control!B448</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X450">
         <f>'Ctrl pct'!B448</f>
-        <v>0</v>
+        <v>1.3157894736842105E-2</v>
       </c>
       <c r="Y450">
         <f>Controlled!B448</f>
-        <v>0</v>
+        <v>105.33333333333333</v>
       </c>
       <c r="Z450">
         <f>'Controlled pct'!B448</f>
-        <v>0</v>
+        <v>0.15399610136452241</v>
       </c>
       <c r="AA450">
         <f>'Fight Time'!B448</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="23:27" x14ac:dyDescent="0.3">
+        <v>684</v>
+      </c>
+      <c r="AB450">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A451" t="str">
+        <f>Control!A449</f>
+        <v>Axel Sola</v>
+      </c>
+      <c r="B451">
+        <v>27</v>
+      </c>
+      <c r="C451">
+        <v>180</v>
+      </c>
+      <c r="D451">
+        <v>185</v>
+      </c>
+      <c r="E451">
+        <v>10</v>
+      </c>
+      <c r="F451">
+        <v>0</v>
+      </c>
+      <c r="G451">
+        <v>0</v>
+      </c>
+      <c r="H451">
+        <v>0</v>
+      </c>
+      <c r="I451">
+        <v>0.5</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="K451">
+        <v>0.1</v>
+      </c>
+      <c r="L451">
+        <v>0</v>
+      </c>
+      <c r="M451">
+        <v>0.4</v>
+      </c>
+      <c r="N451">
+        <v>0</v>
+      </c>
+      <c r="O451" s="8">
+        <v>4</v>
+      </c>
+      <c r="P451" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="T451">
+        <v>0.5</v>
+      </c>
+      <c r="U451">
+        <v>0.5</v>
+      </c>
+      <c r="V451">
+        <v>0.5</v>
+      </c>
       <c r="W451">
         <f>Control!B449</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X451">
         <f>'Ctrl pct'!B449</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y451">
         <f>Controlled!B449</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Z451">
         <f>'Controlled pct'!B449</f>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AA451">
         <f>'Fight Time'!B449</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="23:27" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+      <c r="AB451">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="452" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A452" t="str">
+        <f>Control!A450</f>
+        <v>Ante Delija</v>
+      </c>
+      <c r="B452">
+        <v>35</v>
+      </c>
+      <c r="C452">
+        <v>196</v>
+      </c>
+      <c r="D452">
+        <v>201</v>
+      </c>
+      <c r="E452">
+        <v>25</v>
+      </c>
+      <c r="F452">
+        <v>6</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+      <c r="H452">
+        <v>0</v>
+      </c>
+      <c r="I452">
+        <v>0.44</v>
+      </c>
+      <c r="J452">
+        <v>0.5</v>
+      </c>
+      <c r="K452">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L452">
+        <v>0.33</v>
+      </c>
+      <c r="M452">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N452">
+        <v>0.17</v>
+      </c>
+      <c r="O452" s="8">
+        <v>4</v>
+      </c>
+      <c r="P452" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="T452">
+        <v>1</v>
+      </c>
+      <c r="U452">
+        <v>0.5</v>
+      </c>
+      <c r="V452">
+        <v>0.75</v>
+      </c>
       <c r="W452">
         <f>Control!B450</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="X452">
         <f>'Ctrl pct'!B450</f>
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="Y452">
         <f>Controlled!B450</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Z452">
         <f>'Controlled pct'!B450</f>
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AA452">
         <f>'Fight Time'!B450</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="23:27" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="AB452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A453" t="str">
+        <f>Control!A451</f>
+        <v>Robert Ruchala</v>
+      </c>
+      <c r="B453">
+        <v>27</v>
+      </c>
+      <c r="C453">
+        <v>178</v>
+      </c>
+      <c r="D453">
+        <v>184</v>
+      </c>
+      <c r="E453">
+        <v>11</v>
+      </c>
+      <c r="F453">
+        <v>1</v>
+      </c>
+      <c r="G453">
+        <v>0</v>
+      </c>
+      <c r="H453">
+        <v>0</v>
+      </c>
+      <c r="I453">
+        <v>0.27</v>
+      </c>
+      <c r="J453">
+        <v>1</v>
+      </c>
+      <c r="K453">
+        <v>0.27</v>
+      </c>
+      <c r="L453">
+        <v>0</v>
+      </c>
+      <c r="M453">
+        <v>0.45</v>
+      </c>
+      <c r="N453">
+        <v>0</v>
+      </c>
+      <c r="O453" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="P453" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="T453">
+        <v>0.8</v>
+      </c>
+      <c r="U453">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V453">
+        <v>0.8</v>
+      </c>
       <c r="W453">
         <f>Control!B451</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="X453">
         <f>'Ctrl pct'!B451</f>
-        <v>0</v>
+        <v>0.18888888888888888</v>
       </c>
       <c r="Y453">
         <f>Controlled!B451</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z453">
         <f>'Controlled pct'!B451</f>
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="AA453">
         <f>'Fight Time'!B451</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="23:27" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+      <c r="AB453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A454" t="str">
+        <f>Control!A452</f>
+        <v>Losene Keita</v>
+      </c>
+      <c r="B454">
+        <v>27</v>
+      </c>
+      <c r="C454">
+        <v>176</v>
+      </c>
+      <c r="D454">
+        <v>180</v>
+      </c>
+      <c r="E454">
+        <v>16</v>
+      </c>
+      <c r="F454">
+        <v>1</v>
+      </c>
+      <c r="G454">
+        <v>0</v>
+      </c>
+      <c r="H454">
+        <v>0</v>
+      </c>
+      <c r="I454">
+        <v>0.63</v>
+      </c>
+      <c r="J454">
+        <v>1</v>
+      </c>
+      <c r="K454">
+        <v>0</v>
+      </c>
+      <c r="L454">
+        <v>0</v>
+      </c>
+      <c r="M454">
+        <v>0.38</v>
+      </c>
+      <c r="N454">
+        <v>0</v>
+      </c>
+      <c r="O454" s="8">
+        <v>5</v>
+      </c>
+      <c r="P454" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="T454">
+        <v>1.2</v>
+      </c>
+      <c r="U454">
+        <v>0.45</v>
+      </c>
+      <c r="V454">
+        <v>0.75</v>
+      </c>
       <c r="W454">
         <f>Control!B452</f>
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="X454">
         <f>'Ctrl pct'!B452</f>
-        <v>0</v>
+        <v>0.30833333333333335</v>
       </c>
       <c r="Y454">
         <f>Controlled!B452</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Z454">
         <f>'Controlled pct'!B452</f>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AA454">
         <f>'Fight Time'!B452</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="23:27" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+      <c r="AB454">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A455" t="str">
+        <f>Control!A453</f>
+        <v>Fares Ziam</v>
+      </c>
+      <c r="B455">
+        <v>28</v>
+      </c>
+      <c r="C455">
+        <v>185</v>
+      </c>
+      <c r="D455">
+        <v>191</v>
+      </c>
+      <c r="E455">
+        <v>17</v>
+      </c>
+      <c r="F455">
+        <v>4</v>
+      </c>
+      <c r="G455">
+        <v>7</v>
+      </c>
+      <c r="H455">
+        <v>2</v>
+      </c>
+      <c r="I455">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L455">
+        <v>0.75</v>
+      </c>
+      <c r="M455">
+        <v>0.41</v>
+      </c>
+      <c r="N455">
+        <v>0.25</v>
+      </c>
+      <c r="O455" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="P455" s="8">
+        <v>1.62</v>
+      </c>
+      <c r="T455">
+        <v>1.62</v>
+      </c>
+      <c r="U455">
+        <v>0.4</v>
+      </c>
+      <c r="V455">
+        <v>0.7</v>
+      </c>
       <c r="W455">
         <f>Control!B453</f>
-        <v>0</v>
+        <v>258.25</v>
       </c>
       <c r="X455">
         <f>'Ctrl pct'!B453</f>
-        <v>0</v>
+        <v>0.32240948813982523</v>
       </c>
       <c r="Y455">
         <f>Controlled!B453</f>
-        <v>0</v>
+        <v>176.125</v>
       </c>
       <c r="Z455">
         <f>'Controlled pct'!B453</f>
-        <v>0</v>
+        <v>0.21988139825218478</v>
       </c>
       <c r="AA455">
         <f>'Fight Time'!B453</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="23:27" x14ac:dyDescent="0.3">
+        <v>801</v>
+      </c>
+      <c r="AB455">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A456" t="str">
+        <f>Control!A454</f>
+        <v>Mason Jones</v>
+      </c>
+      <c r="B456">
+        <v>30</v>
+      </c>
+      <c r="C456">
+        <v>178</v>
+      </c>
+      <c r="D456">
+        <v>188</v>
+      </c>
+      <c r="E456">
+        <v>16</v>
+      </c>
+      <c r="F456">
+        <v>2</v>
+      </c>
+      <c r="G456">
+        <v>2</v>
+      </c>
+      <c r="H456">
+        <v>2</v>
+      </c>
+      <c r="I456">
+        <v>0.44</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456">
+        <v>0.19</v>
+      </c>
+      <c r="L456">
+        <v>0</v>
+      </c>
+      <c r="M456">
+        <v>0.38</v>
+      </c>
+      <c r="N456">
+        <v>1</v>
+      </c>
+      <c r="O456" s="8">
+        <v>5.56</v>
+      </c>
+      <c r="P456" s="8">
+        <v>4.46</v>
+      </c>
+      <c r="T456">
+        <v>4.24</v>
+      </c>
+      <c r="U456">
+        <v>0.52</v>
+      </c>
+      <c r="V456">
+        <v>0.8</v>
+      </c>
       <c r="W456">
         <f>Control!B454</f>
-        <v>0</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="X456">
         <f>'Ctrl pct'!B454</f>
-        <v>0</v>
+        <v>0.32540272614622062</v>
       </c>
       <c r="Y456">
         <f>Controlled!B454</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="Z456">
         <f>'Controlled pct'!B454</f>
-        <v>0</v>
+        <v>0.11771995043370508</v>
       </c>
       <c r="AA456">
         <f>'Fight Time'!B454</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="23:27" x14ac:dyDescent="0.3">
+        <v>807</v>
+      </c>
+      <c r="AB456">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A457" t="str">
+        <f>Control!A455</f>
+        <v>Caio Borralho</v>
+      </c>
+      <c r="B457">
+        <v>32</v>
+      </c>
+      <c r="C457">
+        <v>187</v>
+      </c>
+      <c r="D457">
+        <v>191</v>
+      </c>
+      <c r="E457">
+        <v>17</v>
+      </c>
+      <c r="F457">
+        <v>1</v>
+      </c>
+      <c r="G457">
+        <v>7</v>
+      </c>
+      <c r="H457">
+        <v>0</v>
+      </c>
+      <c r="I457">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="K457">
+        <v>0.24</v>
+      </c>
+      <c r="L457">
+        <v>0</v>
+      </c>
+      <c r="M457">
+        <v>0.47</v>
+      </c>
+      <c r="N457">
+        <v>1</v>
+      </c>
+      <c r="O457" s="8">
+        <v>3.61</v>
+      </c>
+      <c r="P457" s="8">
+        <v>2.34</v>
+      </c>
+      <c r="T457">
+        <v>1.56</v>
+      </c>
+      <c r="U457">
+        <v>0.6</v>
+      </c>
+      <c r="V457">
+        <v>0.76</v>
+      </c>
       <c r="W457">
         <f>Control!B455</f>
-        <v>0</v>
+        <v>223.33333333333334</v>
       </c>
       <c r="X457">
         <f>'Ctrl pct'!B455</f>
-        <v>0</v>
+        <v>0.28966709900562043</v>
       </c>
       <c r="Y457">
         <f>Controlled!B455</f>
-        <v>0</v>
+        <v>102.22222222222223</v>
       </c>
       <c r="Z457">
         <f>'Controlled pct'!B455</f>
-        <v>0</v>
+        <v>0.13258394581351782</v>
       </c>
       <c r="AA457">
         <f>'Fight Time'!B455</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="23:27" x14ac:dyDescent="0.3">
+        <v>771</v>
+      </c>
+      <c r="AB457">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="458" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A458" t="str">
+        <f>Control!A456</f>
+        <v>Nassourdine Imavov</v>
+      </c>
+      <c r="B458">
+        <v>29</v>
+      </c>
+      <c r="C458">
+        <v>191</v>
+      </c>
+      <c r="D458">
+        <v>191</v>
+      </c>
+      <c r="E458">
+        <v>16</v>
+      </c>
+      <c r="F458">
+        <v>4</v>
+      </c>
+      <c r="G458">
+        <v>8</v>
+      </c>
+      <c r="H458">
+        <v>2</v>
+      </c>
+      <c r="I458">
+        <v>0.44</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458">
+        <v>0.25</v>
+      </c>
+      <c r="L458">
+        <v>0.25</v>
+      </c>
+      <c r="M458">
+        <v>0.31</v>
+      </c>
+      <c r="N458">
+        <v>0.75</v>
+      </c>
+      <c r="O458" s="8">
+        <v>4.45</v>
+      </c>
+      <c r="P458" s="8">
+        <v>3.26</v>
+      </c>
+      <c r="T458">
+        <v>0.85</v>
+      </c>
+      <c r="U458">
+        <v>0.32</v>
+      </c>
+      <c r="V458">
+        <v>0.78</v>
+      </c>
       <c r="W458">
         <f>Control!B456</f>
-        <v>0</v>
+        <v>141.6</v>
       </c>
       <c r="X458">
         <f>'Ctrl pct'!B456</f>
-        <v>0</v>
+        <v>0.16407879490150637</v>
       </c>
       <c r="Y458">
         <f>Controlled!B456</f>
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="Z458">
         <f>'Controlled pct'!B456</f>
-        <v>0</v>
+        <v>0.2885283893395133</v>
       </c>
       <c r="AA458">
         <f>'Fight Time'!B456</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="23:27" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+      <c r="AB458">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W459">
         <f>Control!B457</f>
         <v>0</v>
@@ -71954,7 +74006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W460">
         <f>Control!B458</f>
         <v>0</v>
@@ -71976,7 +74028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W461">
         <f>Control!B459</f>
         <v>0</v>
@@ -71998,7 +74050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W462">
         <f>Control!B460</f>
         <v>0</v>
@@ -72020,7 +74072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W463">
         <f>Control!B461</f>
         <v>0</v>
@@ -72042,7 +74094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W464">
         <f>Control!B462</f>
         <v>0</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4229A38-531F-4BAA-BFE9-B20A605749A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE95802-86B4-4D0B-9E95-44843D577B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="715">
   <si>
     <t>Khaos</t>
   </si>
@@ -2149,6 +2149,33 @@
   <si>
     <t>Nassourdine Imavov</t>
   </si>
+  <si>
+    <t>Montserrat Rendon</t>
+  </si>
+  <si>
+    <t>Alice Pereira</t>
+  </si>
+  <si>
+    <t>Alden Coria</t>
+  </si>
+  <si>
+    <t>Alessandro Costa</t>
+  </si>
+  <si>
+    <t>Tatiana Suarez</t>
+  </si>
+  <si>
+    <t>Joaquim Silva</t>
+  </si>
+  <si>
+    <t>Claudio Puelles</t>
+  </si>
+  <si>
+    <t>Santiago Luna</t>
+  </si>
+  <si>
+    <t>Dustin Stoltzfus</t>
+  </si>
 </sst>
 </file>
 
@@ -2576,10 +2603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
-  <dimension ref="A1:AE456"/>
+  <dimension ref="A1:AE465"/>
   <sheetViews>
-    <sheetView topLeftCell="A349" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D378" sqref="D378"/>
+    <sheetView topLeftCell="A392" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J416" sqref="J416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3311,52 +3338,38 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="1"/>
-        <v>266.42857142857144</v>
-      </c>
-      <c r="C24">
-        <f>4*60+39</f>
-        <v>279</v>
-      </c>
-      <c r="D24">
-        <v>365</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>265</v>
-      </c>
-      <c r="G24">
-        <f>9*60+44</f>
-        <v>584</v>
-      </c>
-      <c r="H24">
+        <f xml:space="preserve"> AVERAGE(C24:BC24)</f>
+        <v>239.3</v>
+      </c>
+      <c r="C24" s="14">
         <v>2</v>
       </c>
-      <c r="I24">
+      <c r="D24" s="14">
         <v>622</v>
       </c>
-      <c r="J24">
+      <c r="E24" s="14">
         <v>367</v>
       </c>
-      <c r="K24">
+      <c r="F24" s="14">
         <v>363</v>
       </c>
-      <c r="L24">
+      <c r="G24" s="14">
         <v>72</v>
       </c>
-      <c r="M24" s="10">
+      <c r="H24" s="13">
         <v>235</v>
       </c>
-      <c r="N24" s="10">
+      <c r="I24" s="13">
         <v>388</v>
       </c>
-      <c r="O24" s="10">
+      <c r="J24" s="13">
         <v>19</v>
       </c>
-      <c r="P24" s="10">
+      <c r="K24" s="13">
         <v>169</v>
+      </c>
+      <c r="L24" s="13">
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,7 +3586,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>296</v>
       </c>
@@ -3591,7 +3604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3606,7 +3619,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>297</v>
       </c>
@@ -3645,7 +3658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3657,7 +3670,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>298</v>
       </c>
@@ -3712,7 +3725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -3739,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -3763,7 +3776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>642</v>
       </c>
@@ -3784,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>300</v>
       </c>
@@ -3805,73 +3818,46 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>301</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" si="1"/>
-        <v>63.526315789473685</v>
-      </c>
-      <c r="C42">
+        <f xml:space="preserve"> AVERAGE(C42:BC42)</f>
+        <v>51.9</v>
+      </c>
+      <c r="C42" s="14">
+        <v>11</v>
+      </c>
+      <c r="D42" s="13">
+        <v>38</v>
+      </c>
+      <c r="E42" s="13">
+        <v>73</v>
+      </c>
+      <c r="F42" s="13">
+        <v>128</v>
+      </c>
+      <c r="G42" s="13">
+        <v>18</v>
+      </c>
+      <c r="H42" s="13">
         <v>4</v>
       </c>
-      <c r="D42">
-        <v>66</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>130</v>
-      </c>
-      <c r="G42">
-        <v>129</v>
-      </c>
-      <c r="H42">
-        <v>5</v>
-      </c>
-      <c r="I42">
-        <v>62</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>291</v>
-      </c>
-      <c r="L42">
-        <v>11</v>
-      </c>
-      <c r="M42" s="10">
-        <v>38</v>
-      </c>
-      <c r="N42" s="10">
-        <v>73</v>
-      </c>
-      <c r="O42" s="10">
-        <v>128</v>
-      </c>
-      <c r="P42" s="10">
-        <v>18</v>
-      </c>
-      <c r="Q42" s="10">
-        <v>4</v>
-      </c>
-      <c r="R42" s="10">
+      <c r="I42" s="13">
         <v>68</v>
       </c>
-      <c r="S42" s="10">
+      <c r="J42" s="13">
         <v>22</v>
       </c>
-      <c r="T42" s="10">
+      <c r="K42" s="13">
         <v>79</v>
       </c>
-      <c r="U42" s="10">
+      <c r="L42" s="13">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>302</v>
       </c>
@@ -3912,7 +3898,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>303</v>
       </c>
@@ -3970,7 +3956,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>304</v>
       </c>
@@ -4025,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>305</v>
       </c>
@@ -4081,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>306</v>
       </c>
@@ -4145,7 +4131,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>307</v>
       </c>
@@ -5431,46 +5417,37 @@
         <v>340</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" si="2"/>
-        <v>116.92307692307692</v>
-      </c>
-      <c r="C87">
+        <f xml:space="preserve"> AVERAGE(C87:BC87)</f>
+        <v>120.4</v>
+      </c>
+      <c r="C87" s="14">
+        <v>73</v>
+      </c>
+      <c r="D87" s="14">
+        <v>4</v>
+      </c>
+      <c r="E87" s="14">
+        <v>131</v>
+      </c>
+      <c r="F87" s="14">
+        <v>0</v>
+      </c>
+      <c r="G87" s="14">
+        <v>5</v>
+      </c>
+      <c r="H87" s="14">
+        <v>186</v>
+      </c>
+      <c r="I87" s="14">
         <v>34</v>
       </c>
-      <c r="D87">
-        <v>140</v>
-      </c>
-      <c r="E87">
-        <v>142</v>
-      </c>
-      <c r="F87">
-        <v>73</v>
-      </c>
-      <c r="G87">
-        <v>4</v>
-      </c>
-      <c r="H87">
-        <v>131</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>5</v>
-      </c>
-      <c r="K87">
-        <v>186</v>
-      </c>
-      <c r="L87">
-        <v>34</v>
-      </c>
-      <c r="M87" s="10">
+      <c r="J87" s="13">
         <v>242</v>
       </c>
-      <c r="N87" s="10">
+      <c r="K87" s="13">
         <v>51</v>
       </c>
-      <c r="O87" s="10">
+      <c r="L87" s="13">
         <v>478</v>
       </c>
     </row>
@@ -6276,7 +6253,7 @@
       </c>
       <c r="B115" s="1">
         <f xml:space="preserve"> AVERAGE(C115:BC115)</f>
-        <v>89.2</v>
+        <v>89.4</v>
       </c>
       <c r="C115" s="14">
         <v>0</v>
@@ -6285,28 +6262,28 @@
         <v>0</v>
       </c>
       <c r="E115" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F115" s="14">
-        <v>5</v>
-      </c>
-      <c r="G115" s="14">
         <v>248</v>
       </c>
+      <c r="G115" s="13">
+        <v>23</v>
+      </c>
       <c r="H115" s="13">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I115" s="13">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="J115" s="13">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="K115" s="13">
-        <v>40</v>
+        <v>399</v>
       </c>
       <c r="L115" s="13">
-        <v>399</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
@@ -7546,7 +7523,7 @@
       </c>
       <c r="B152" s="1">
         <f t="shared" si="3"/>
-        <v>198.125</v>
+        <v>191.11111111111111</v>
       </c>
       <c r="C152">
         <v>21</v>
@@ -7571,6 +7548,9 @@
       </c>
       <c r="J152">
         <v>0</v>
+      </c>
+      <c r="K152">
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
@@ -7688,13 +7668,16 @@
       </c>
       <c r="B157" s="1">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>42.666666666666664</v>
       </c>
       <c r="C157">
         <v>56</v>
       </c>
       <c r="D157">
         <v>72</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.3">
@@ -7821,10 +7804,13 @@
       </c>
       <c r="B163" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C163">
         <v>0</v>
+      </c>
+      <c r="D163">
+        <v>42</v>
       </c>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.3">
@@ -7930,77 +7916,38 @@
         <v>401</v>
       </c>
       <c r="B167" s="1">
-        <f t="shared" si="3"/>
-        <v>115.30434782608695</v>
-      </c>
-      <c r="C167">
-        <v>389</v>
-      </c>
-      <c r="D167">
-        <v>30</v>
-      </c>
-      <c r="E167">
-        <v>89</v>
-      </c>
-      <c r="F167">
-        <v>78</v>
-      </c>
-      <c r="G167">
-        <v>116</v>
-      </c>
-      <c r="H167">
-        <v>42</v>
-      </c>
-      <c r="I167">
-        <v>219</v>
-      </c>
-      <c r="J167">
-        <v>435</v>
-      </c>
-      <c r="K167">
-        <v>21</v>
-      </c>
-      <c r="L167">
-        <v>10</v>
-      </c>
-      <c r="M167" s="10">
-        <v>43</v>
-      </c>
-      <c r="N167" s="10">
-        <v>7</v>
-      </c>
-      <c r="O167" s="10">
-        <v>7</v>
-      </c>
-      <c r="P167" s="10">
-        <v>35</v>
-      </c>
-      <c r="Q167" s="10">
+        <f xml:space="preserve"> AVERAGE(C167:BC167)</f>
+        <v>115.8</v>
+      </c>
+      <c r="C167" s="13">
         <v>81</v>
       </c>
-      <c r="R167" s="10">
+      <c r="D167" s="13">
         <v>163</v>
       </c>
-      <c r="S167" s="10">
+      <c r="E167" s="13">
         <v>33</v>
       </c>
-      <c r="T167" s="10">
+      <c r="F167" s="13">
         <v>410</v>
       </c>
-      <c r="U167" s="10">
+      <c r="G167" s="13">
         <v>26</v>
       </c>
-      <c r="V167" s="10">
+      <c r="H167" s="13">
         <v>151</v>
       </c>
-      <c r="W167" s="10">
+      <c r="I167" s="13">
         <v>81</v>
       </c>
-      <c r="X167" s="10">
+      <c r="J167" s="13">
         <v>19</v>
       </c>
-      <c r="Y167" s="10">
+      <c r="K167" s="13">
         <v>167</v>
+      </c>
+      <c r="L167" s="13">
+        <v>27</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.3">
@@ -9597,7 +9544,7 @@
       </c>
       <c r="B213" s="1">
         <f t="shared" si="4"/>
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="C213">
         <v>9</v>
@@ -9613,6 +9560,9 @@
       </c>
       <c r="G213">
         <v>6</v>
+      </c>
+      <c r="H213">
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.3">
@@ -9718,7 +9668,7 @@
       </c>
       <c r="B217" s="1">
         <f t="shared" si="4"/>
-        <v>69.714285714285708</v>
+        <v>61.625</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -9740,6 +9690,9 @@
       </c>
       <c r="I217">
         <v>165</v>
+      </c>
+      <c r="J217">
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.3">
@@ -9904,13 +9857,16 @@
       </c>
       <c r="B223" s="1">
         <f t="shared" si="4"/>
-        <v>126</v>
+        <v>199.33333333333334</v>
       </c>
       <c r="C223">
         <v>245</v>
       </c>
       <c r="D223">
         <v>7</v>
+      </c>
+      <c r="E223">
+        <v>346</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.3">
@@ -15999,7 +15955,7 @@
         <v>696</v>
       </c>
       <c r="B447" s="1">
-        <f t="shared" ref="B447:B456" si="8" xml:space="preserve"> AVERAGE(C447:BC447)</f>
+        <f t="shared" ref="B447:B465" si="8" xml:space="preserve"> AVERAGE(C447:BC447)</f>
         <v>30</v>
       </c>
       <c r="C447">
@@ -16202,6 +16158,206 @@
       </c>
       <c r="L456">
         <v>44</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A457" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="B457" s="1">
+        <f t="shared" si="8"/>
+        <v>307.5</v>
+      </c>
+      <c r="C457" s="14">
+        <v>291</v>
+      </c>
+      <c r="D457">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>707</v>
+      </c>
+      <c r="B458" s="1">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="C458" s="8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>708</v>
+      </c>
+      <c r="B459" s="1">
+        <f t="shared" si="8"/>
+        <v>170</v>
+      </c>
+      <c r="C459" s="8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>709</v>
+      </c>
+      <c r="B460" s="1">
+        <f t="shared" si="8"/>
+        <v>36.6</v>
+      </c>
+      <c r="C460" s="14">
+        <v>16</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+      <c r="E460">
+        <v>50</v>
+      </c>
+      <c r="F460">
+        <v>74</v>
+      </c>
+      <c r="G460">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>710</v>
+      </c>
+      <c r="B461" s="1">
+        <f t="shared" si="8"/>
+        <v>424.14285714285717</v>
+      </c>
+      <c r="C461">
+        <f>12*60+31</f>
+        <v>751</v>
+      </c>
+      <c r="D461">
+        <v>101</v>
+      </c>
+      <c r="E461">
+        <f>12*60+58</f>
+        <v>778</v>
+      </c>
+      <c r="F461">
+        <v>496</v>
+      </c>
+      <c r="G461">
+        <v>345</v>
+      </c>
+      <c r="H461">
+        <v>142</v>
+      </c>
+      <c r="I461">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>711</v>
+      </c>
+      <c r="B462" s="1">
+        <f t="shared" si="8"/>
+        <v>36.833333333333336</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+      <c r="E462">
+        <v>11</v>
+      </c>
+      <c r="F462">
+        <v>0</v>
+      </c>
+      <c r="G462">
+        <v>155</v>
+      </c>
+      <c r="H462">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>712</v>
+      </c>
+      <c r="B463" s="1">
+        <f t="shared" si="8"/>
+        <v>462.83333333333331</v>
+      </c>
+      <c r="C463">
+        <f>13*60+20</f>
+        <v>800</v>
+      </c>
+      <c r="D463">
+        <v>601</v>
+      </c>
+      <c r="E463">
+        <v>380</v>
+      </c>
+      <c r="F463">
+        <f>9*60+14</f>
+        <v>554</v>
+      </c>
+      <c r="G463">
+        <v>8</v>
+      </c>
+      <c r="H463">
+        <f>7*60+14</f>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>713</v>
+      </c>
+      <c r="B464" s="1">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="C464" s="8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>714</v>
+      </c>
+      <c r="B465" s="1">
+        <f t="shared" si="8"/>
+        <v>173.55555555555554</v>
+      </c>
+      <c r="C465">
+        <v>121</v>
+      </c>
+      <c r="D465">
+        <v>9</v>
+      </c>
+      <c r="E465">
+        <v>447</v>
+      </c>
+      <c r="F465">
+        <v>257</v>
+      </c>
+      <c r="G465">
+        <v>0</v>
+      </c>
+      <c r="H465">
+        <v>132</v>
+      </c>
+      <c r="I465">
+        <v>91</v>
+      </c>
+      <c r="J465">
+        <v>194</v>
+      </c>
+      <c r="K465">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -16212,10 +16368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
-  <dimension ref="A1:B456"/>
+  <dimension ref="A1:B465"/>
   <sheetViews>
-    <sheetView topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="B444" sqref="B444:B456"/>
+    <sheetView topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="B456" sqref="B456:B465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16265,7 +16421,7 @@
       </c>
       <c r="B5">
         <f>Control!B5/'Fight Time'!B5</f>
-        <v>0.32439024390243903</v>
+        <v>0.27032520325203252</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -16436,7 +16592,7 @@
       </c>
       <c r="B24">
         <f>Control!B24/'Fight Time'!B24</f>
-        <v>0.39412510566356723</v>
+        <v>0.36986089644513137</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -16598,7 +16754,7 @@
       </c>
       <c r="B42">
         <f>Control!B42/'Fight Time'!B42</f>
-        <v>8.1758450179502812E-2</v>
+        <v>6.6283524904214561E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -17003,7 +17159,7 @@
       </c>
       <c r="B87">
         <f>Control!B87/'Fight Time'!B87</f>
-        <v>0.20055416281831376</v>
+        <v>0.1983525535420099</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -17255,7 +17411,7 @@
       </c>
       <c r="B115">
         <f>Control!B115/'Fight Time'!B115</f>
-        <v>0.14136291600633916</v>
+        <v>0.14655737704918034</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -17588,7 +17744,7 @@
       </c>
       <c r="B152">
         <f>Control!B152/'Fight Time'!B152</f>
-        <v>0.24796620775969963</v>
+        <v>0.23593964334705075</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -17633,7 +17789,7 @@
       </c>
       <c r="B157">
         <f>Control!B157/'Fight Time'!B157</f>
-        <v>7.1111111111111111E-2</v>
+        <v>6.358668653750621E-2</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -17687,7 +17843,7 @@
       </c>
       <c r="B163">
         <f>Control!B163/'Fight Time'!B163</f>
-        <v>0</v>
+        <v>3.5653650254668934E-2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -17723,7 +17879,7 @@
       </c>
       <c r="B167">
         <f>Control!B167/'Fight Time'!B167</f>
-        <v>0.14113139268798894</v>
+        <v>0.14121951219512194</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -17876,7 +18032,7 @@
       </c>
       <c r="B184">
         <f>Control!B184/'Fight Time'!B184</f>
-        <v>8.1111111111111106E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -18047,7 +18203,7 @@
       </c>
       <c r="B203">
         <f>Control!B203/'Fight Time'!B203</f>
-        <v>0.26199776785714285</v>
+        <v>0.26148705096073516</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -18137,7 +18293,7 @@
       </c>
       <c r="B213">
         <f>Control!B213/'Fight Time'!B213</f>
-        <v>1.2929292929292929E-2</v>
+        <v>1.693227091633466E-2</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -18173,7 +18329,7 @@
       </c>
       <c r="B217">
         <f>Control!B217/'Fight Time'!B217</f>
-        <v>0.13589529379003062</v>
+        <v>0.11497201492537314</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -18227,7 +18383,7 @@
       </c>
       <c r="B223">
         <f>Control!B223/'Fight Time'!B223</f>
-        <v>0.15869017632241814</v>
+        <v>0.2988505747126437</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -18614,7 +18770,7 @@
       </c>
       <c r="B266">
         <f>Control!B266/'Fight Time'!B266</f>
-        <v>0.27535121328224776</v>
+        <v>0.24901824901824901</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -18623,7 +18779,7 @@
       </c>
       <c r="B267">
         <f>Control!B267/'Fight Time'!B267</f>
-        <v>0.28274967574578469</v>
+        <v>0.19908675799086759</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -20325,6 +20481,87 @@
       <c r="B456">
         <f>Control!B456/'Fight Time'!B456</f>
         <v>0.16407879490150637</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="B457">
+        <f>Control!B457/'Fight Time'!B457</f>
+        <v>0.34166666666666667</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>707</v>
+      </c>
+      <c r="B458">
+        <f>Control!B458/'Fight Time'!B458</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>708</v>
+      </c>
+      <c r="B459">
+        <f>Control!B459/'Fight Time'!B459</f>
+        <v>0.22666666666666666</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>709</v>
+      </c>
+      <c r="B460">
+        <f>Control!B460/'Fight Time'!B460</f>
+        <v>5.5623100303951373E-2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>710</v>
+      </c>
+      <c r="B461">
+        <f>Control!B461/'Fight Time'!B461</f>
+        <v>0.62557943531394866</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>711</v>
+      </c>
+      <c r="B462">
+        <f>Control!B462/'Fight Time'!B462</f>
+        <v>5.8188520273828336E-2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>712</v>
+      </c>
+      <c r="B463">
+        <f>Control!B463/'Fight Time'!B463</f>
+        <v>0.68669634025717108</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>713</v>
+      </c>
+      <c r="B464">
+        <f>Control!B464/'Fight Time'!B464</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>714</v>
+      </c>
+      <c r="B465">
+        <f>Control!B465/'Fight Time'!B465</f>
+        <v>0.31103146156909595</v>
       </c>
     </row>
   </sheetData>
@@ -20334,10 +20571,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
-  <dimension ref="A1:AE456"/>
+  <dimension ref="A1:AE465"/>
   <sheetViews>
-    <sheetView topLeftCell="A356" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D378" sqref="D378"/>
+    <sheetView topLeftCell="A404" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J416" sqref="J416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21099,50 +21336,38 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>79.714285714285708</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>37</v>
-      </c>
-      <c r="E24">
-        <v>18</v>
-      </c>
-      <c r="F24">
-        <v>39</v>
-      </c>
-      <c r="G24">
-        <v>130</v>
-      </c>
-      <c r="H24">
+        <f>AVERAGE(C24:BA24)</f>
+        <v>89.2</v>
+      </c>
+      <c r="C24" s="14">
         <v>5</v>
       </c>
-      <c r="I24">
+      <c r="D24" s="14">
         <v>43</v>
       </c>
-      <c r="J24">
+      <c r="E24" s="14">
         <v>10</v>
       </c>
-      <c r="K24">
+      <c r="F24" s="14">
         <v>247</v>
       </c>
-      <c r="L24">
+      <c r="G24" s="14">
         <v>431</v>
       </c>
-      <c r="M24" s="11">
+      <c r="H24" s="14">
         <v>54</v>
       </c>
-      <c r="N24" s="11">
+      <c r="I24" s="14">
         <v>35</v>
       </c>
-      <c r="O24" s="11">
+      <c r="J24" s="14">
         <v>64</v>
       </c>
-      <c r="P24" s="11">
+      <c r="K24" s="14">
         <v>3</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -21358,7 +21583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -21376,7 +21601,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -21391,7 +21616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -21430,7 +21655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -21442,7 +21667,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -21497,7 +21722,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -21524,7 +21749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -21548,7 +21773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -21569,7 +21794,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -21590,75 +21815,48 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>199.10526315789474</v>
-      </c>
-      <c r="C42">
-        <v>17</v>
-      </c>
-      <c r="D42">
-        <v>24</v>
-      </c>
-      <c r="E42">
-        <v>156</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>10</v>
-      </c>
-      <c r="H42">
-        <v>5</v>
-      </c>
-      <c r="I42">
-        <v>4</v>
-      </c>
-      <c r="J42">
-        <v>272</v>
-      </c>
-      <c r="K42">
-        <v>16</v>
-      </c>
-      <c r="L42">
+        <f>AVERAGE(C42:BA42)</f>
+        <v>327.9</v>
+      </c>
+      <c r="C42" s="14">
         <v>198</v>
       </c>
-      <c r="M42" s="11">
+      <c r="D42" s="14">
         <v>151</v>
       </c>
-      <c r="N42" s="11">
+      <c r="E42" s="14">
         <v>182</v>
       </c>
-      <c r="O42" s="11">
+      <c r="F42" s="14">
         <f>9*60+6</f>
         <v>546</v>
       </c>
-      <c r="P42" s="11">
+      <c r="G42" s="14">
         <v>125</v>
       </c>
-      <c r="Q42" s="11">
-        <v>0</v>
-      </c>
-      <c r="R42" s="11">
+      <c r="H42" s="14">
+        <v>0</v>
+      </c>
+      <c r="I42" s="14">
         <f>19*60+38</f>
         <v>1178</v>
       </c>
-      <c r="S42" s="11">
+      <c r="J42" s="14">
         <v>242</v>
       </c>
-      <c r="T42" s="11">
+      <c r="K42" s="14">
         <v>282</v>
       </c>
-      <c r="U42" s="11">
+      <c r="L42" s="14">
         <v>375</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -21697,7 +21895,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -21755,7 +21953,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -21810,7 +22008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -21864,7 +22062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -21927,7 +22125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -23206,48 +23404,38 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" si="1"/>
-        <v>190.46153846153845</v>
-      </c>
-      <c r="C87">
-        <v>88</v>
-      </c>
-      <c r="D87">
-        <v>6</v>
-      </c>
-      <c r="E87">
-        <f>360+53</f>
-        <v>413</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
+        <f>AVERAGE(C87:BA87)</f>
+        <v>196.9</v>
+      </c>
+      <c r="C87" s="14">
+        <v>0</v>
+      </c>
+      <c r="D87" s="14">
+        <v>0</v>
+      </c>
+      <c r="E87" s="14">
         <v>244</v>
       </c>
-      <c r="I87">
+      <c r="F87" s="14">
         <v>38</v>
       </c>
-      <c r="J87">
+      <c r="G87" s="14">
         <v>68</v>
       </c>
-      <c r="K87">
+      <c r="H87" s="14">
         <v>15</v>
       </c>
-      <c r="L87">
+      <c r="I87" s="14">
         <f>16*60+7</f>
         <v>967</v>
       </c>
-      <c r="M87" s="11">
+      <c r="J87" s="14">
         <v>6</v>
       </c>
-      <c r="N87" s="11">
+      <c r="K87" s="14">
         <v>387</v>
       </c>
-      <c r="O87" s="11">
+      <c r="L87" s="14">
         <v>244</v>
       </c>
     </row>
@@ -24056,7 +24244,7 @@
       </c>
       <c r="B115" s="1">
         <f>AVERAGE(C115:BA115)</f>
-        <v>64.5</v>
+        <v>65</v>
       </c>
       <c r="C115" s="14">
         <v>0</v>
@@ -24065,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="E115" s="14">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F115" s="14">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="G115" s="14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H115" s="14">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="I115" s="14">
-        <v>7</v>
+        <v>378</v>
       </c>
       <c r="J115" s="14">
-        <v>378</v>
+        <v>5</v>
       </c>
       <c r="K115" s="14">
+        <v>32</v>
+      </c>
+      <c r="L115" s="14">
         <v>5</v>
-      </c>
-      <c r="L115" s="14">
-        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
@@ -25332,7 +25520,7 @@
       </c>
       <c r="B152" s="1">
         <f t="shared" si="2"/>
-        <v>61.625</v>
+        <v>54.888888888888886</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -25357,6 +25545,9 @@
       </c>
       <c r="J152">
         <v>309</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
@@ -25477,13 +25668,16 @@
       </c>
       <c r="B157" s="1">
         <f t="shared" si="2"/>
-        <v>359.5</v>
+        <v>239.66666666666666</v>
       </c>
       <c r="C157">
         <v>362</v>
       </c>
       <c r="D157">
         <v>357</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.3">
@@ -25609,10 +25803,13 @@
       </c>
       <c r="B163" s="1">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="C163">
         <v>25</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.3">
@@ -25716,74 +25913,38 @@
         <v>165</v>
       </c>
       <c r="B167" s="1">
-        <f t="shared" si="2"/>
-        <v>131.31818181818181</v>
-      </c>
-      <c r="C167">
-        <v>114</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="E167">
-        <v>140</v>
-      </c>
-      <c r="F167">
-        <v>267</v>
-      </c>
-      <c r="G167">
-        <v>3</v>
-      </c>
-      <c r="H167">
-        <v>26</v>
-      </c>
-      <c r="I167">
-        <v>12</v>
-      </c>
-      <c r="J167">
-        <v>334</v>
-      </c>
-      <c r="K167">
-        <v>129</v>
-      </c>
-      <c r="L167">
-        <v>234</v>
-      </c>
-      <c r="M167" s="11">
-        <v>0</v>
-      </c>
-      <c r="N167" s="11">
-        <v>454</v>
-      </c>
-      <c r="O167" s="11">
-        <v>0</v>
-      </c>
-      <c r="P167" s="11">
+        <f>AVERAGE(C167:BA167)</f>
+        <v>120.7</v>
+      </c>
+      <c r="C167" s="14">
         <v>208</v>
       </c>
-      <c r="Q167" s="11">
+      <c r="D167" s="14">
         <v>42</v>
       </c>
-      <c r="R167" s="11">
+      <c r="E167" s="14">
         <v>48</v>
       </c>
-      <c r="S167" s="11">
-        <v>0</v>
-      </c>
-      <c r="T167" s="11">
+      <c r="F167" s="14">
+        <v>0</v>
+      </c>
+      <c r="G167" s="14">
         <v>71</v>
       </c>
-      <c r="U167" s="11">
+      <c r="H167" s="14">
         <v>259</v>
       </c>
-      <c r="V167" s="11">
+      <c r="I167" s="14">
         <v>2</v>
       </c>
-      <c r="W167" s="11">
+      <c r="J167" s="14">
         <v>546</v>
       </c>
-      <c r="X167" s="11">
-        <v>0</v>
+      <c r="K167" s="14">
+        <v>0</v>
+      </c>
+      <c r="L167" s="14">
+        <v>31</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.3">
@@ -27366,7 +27527,7 @@
       </c>
       <c r="B213" s="1">
         <f t="shared" si="3"/>
-        <v>24.4</v>
+        <v>37.5</v>
       </c>
       <c r="C213">
         <v>11</v>
@@ -27382,6 +27543,9 @@
       </c>
       <c r="G213">
         <v>0</v>
+      </c>
+      <c r="H213">
+        <v>103</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.3">
@@ -27487,7 +27651,7 @@
       </c>
       <c r="B217" s="1">
         <f t="shared" si="3"/>
-        <v>160.14285714285714</v>
+        <v>149.875</v>
       </c>
       <c r="C217">
         <v>467</v>
@@ -27509,6 +27673,9 @@
       </c>
       <c r="I217">
         <v>6</v>
+      </c>
+      <c r="J217">
+        <v>78</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.3">
@@ -27675,13 +27842,16 @@
       </c>
       <c r="B223" s="1">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="C223">
         <v>12</v>
       </c>
       <c r="D223">
         <v>26</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.3">
@@ -33604,7 +33774,7 @@
         <v>691</v>
       </c>
       <c r="B442" s="1">
-        <f t="shared" ref="B442:B456" si="7">AVERAGE(C442:BA442)</f>
+        <f t="shared" ref="B442:B465" si="7">AVERAGE(C442:BA442)</f>
         <v>97.6</v>
       </c>
       <c r="C442">
@@ -33948,6 +34118,201 @@
       </c>
       <c r="L456">
         <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A457" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="B457" s="1">
+        <f t="shared" si="7"/>
+        <v>27.5</v>
+      </c>
+      <c r="C457">
+        <v>54</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>707</v>
+      </c>
+      <c r="B458" s="1">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="C458" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>708</v>
+      </c>
+      <c r="B459" s="1">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="C459" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>709</v>
+      </c>
+      <c r="B460" s="1">
+        <f t="shared" si="7"/>
+        <v>158.80000000000001</v>
+      </c>
+      <c r="C460">
+        <v>37</v>
+      </c>
+      <c r="D460">
+        <v>354</v>
+      </c>
+      <c r="E460">
+        <v>14</v>
+      </c>
+      <c r="F460">
+        <v>389</v>
+      </c>
+      <c r="G460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>710</v>
+      </c>
+      <c r="B461" s="1">
+        <f t="shared" si="7"/>
+        <v>102.57142857142857</v>
+      </c>
+      <c r="C461">
+        <v>6</v>
+      </c>
+      <c r="D461">
+        <v>0</v>
+      </c>
+      <c r="E461">
+        <v>4</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+      <c r="G461">
+        <v>37</v>
+      </c>
+      <c r="H461">
+        <v>17</v>
+      </c>
+      <c r="I461">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>711</v>
+      </c>
+      <c r="B462" s="1">
+        <f t="shared" si="7"/>
+        <v>191.33333333333334</v>
+      </c>
+      <c r="C462">
+        <v>3</v>
+      </c>
+      <c r="D462">
+        <v>8</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>541</v>
+      </c>
+      <c r="G462">
+        <v>263</v>
+      </c>
+      <c r="H462">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>712</v>
+      </c>
+      <c r="B463" s="1">
+        <f t="shared" si="7"/>
+        <v>135.16666666666666</v>
+      </c>
+      <c r="C463">
+        <v>48</v>
+      </c>
+      <c r="D463">
+        <v>126</v>
+      </c>
+      <c r="E463">
+        <v>169</v>
+      </c>
+      <c r="F463">
+        <v>70</v>
+      </c>
+      <c r="G463">
+        <v>128</v>
+      </c>
+      <c r="H463">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>713</v>
+      </c>
+      <c r="B464" s="1">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="C464" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>714</v>
+      </c>
+      <c r="B465" s="1">
+        <f t="shared" si="7"/>
+        <v>150.88888888888889</v>
+      </c>
+      <c r="C465">
+        <v>820</v>
+      </c>
+      <c r="D465">
+        <v>130</v>
+      </c>
+      <c r="E465">
+        <v>194</v>
+      </c>
+      <c r="F465">
+        <v>0</v>
+      </c>
+      <c r="G465">
+        <v>2</v>
+      </c>
+      <c r="H465">
+        <v>0</v>
+      </c>
+      <c r="I465">
+        <v>10</v>
+      </c>
+      <c r="J465">
+        <v>1</v>
+      </c>
+      <c r="K465">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -33957,10 +34322,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
-  <dimension ref="A1:B456"/>
+  <dimension ref="A1:B465"/>
   <sheetViews>
     <sheetView topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="B444" sqref="B444:B456"/>
+      <selection activeCell="B456" sqref="B456:B465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34010,7 +34375,7 @@
       </c>
       <c r="B5">
         <f>Controlled!B5/'Fight Time'!B5</f>
-        <v>0.66016260162601625</v>
+        <v>0.55013550135501355</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -34181,7 +34546,7 @@
       </c>
       <c r="B24">
         <f>Controlled!B24/'Fight Time'!B24</f>
-        <v>0.11792054099746406</v>
+        <v>0.13786707882534777</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -34343,7 +34708,7 @@
       </c>
       <c r="B42">
         <f>Controlled!B42/'Fight Time'!B42</f>
-        <v>0.25624872993294046</v>
+        <v>0.41877394636015325</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -34748,7 +35113,7 @@
       </c>
       <c r="B87">
         <f>Controlled!B87/'Fight Time'!B87</f>
-        <v>0.32669217574877951</v>
+        <v>0.3243822075782537</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -35000,7 +35365,7 @@
       </c>
       <c r="B115">
         <f>Controlled!B115/'Fight Time'!B115</f>
-        <v>0.10221870047543581</v>
+        <v>0.10655737704918032</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -35333,7 +35698,7 @@
       </c>
       <c r="B152">
         <f>Controlled!B152/'Fight Time'!B152</f>
-        <v>7.7127659574468085E-2</v>
+        <v>6.7764060356652944E-2</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -35378,7 +35743,7 @@
       </c>
       <c r="B157">
         <f>Controlled!B157/'Fight Time'!B157</f>
-        <v>0.39944444444444444</v>
+        <v>0.35717834078489813</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -35432,7 +35797,7 @@
       </c>
       <c r="B163">
         <f>Controlled!B163/'Fight Time'!B163</f>
-        <v>2.7777777777777776E-2</v>
+        <v>2.1222410865874362E-2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -35468,7 +35833,7 @@
       </c>
       <c r="B167">
         <f>Controlled!B167/'Fight Time'!B167</f>
-        <v>0.16073216868810503</v>
+        <v>0.1471951219512195</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -35621,7 +35986,7 @@
       </c>
       <c r="B184">
         <f>Controlled!B184/'Fight Time'!B184</f>
-        <v>0.18888888888888888</v>
+        <v>0.25875190258751901</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -35792,7 +36157,7 @@
       </c>
       <c r="B203">
         <f>Controlled!B203/'Fight Time'!B203</f>
-        <v>0.16657366071428573</v>
+        <v>0.16624895572263995</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -35882,7 +36247,7 @@
       </c>
       <c r="B213">
         <f>Controlled!B213/'Fight Time'!B213</f>
-        <v>4.9292929292929291E-2</v>
+        <v>7.4701195219123509E-2</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -35918,7 +36283,7 @@
       </c>
       <c r="B217">
         <f>Controlled!B217/'Fight Time'!B217</f>
-        <v>0.31216931216931215</v>
+        <v>0.27961753731343286</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -35972,7 +36337,7 @@
       </c>
       <c r="B223">
         <f>Controlled!B223/'Fight Time'!B223</f>
-        <v>2.3929471032745592E-2</v>
+        <v>1.8990504747626185E-2</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -36359,7 +36724,7 @@
       </c>
       <c r="B266">
         <f>Controlled!B266/'Fight Time'!B266</f>
-        <v>0.10932311621966795</v>
+        <v>9.8868098868098872E-2</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -36368,7 +36733,7 @@
       </c>
       <c r="B267">
         <f>Controlled!B267/'Fight Time'!B267</f>
-        <v>0.41828793774319067</v>
+        <v>0.29452054794520549</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -38070,6 +38435,87 @@
       <c r="B456">
         <f>Controlled!B456/'Fight Time'!B456</f>
         <v>0.2885283893395133</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="B457">
+        <f>Controlled!B457/'Fight Time'!B457</f>
+        <v>3.0555555555555555E-2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>707</v>
+      </c>
+      <c r="B458">
+        <f>Controlled!B458/'Fight Time'!B458</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>708</v>
+      </c>
+      <c r="B459">
+        <f>Controlled!B459/'Fight Time'!B459</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>709</v>
+      </c>
+      <c r="B460">
+        <f>Controlled!B460/'Fight Time'!B460</f>
+        <v>0.24133738601823709</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>710</v>
+      </c>
+      <c r="B461">
+        <f>Controlled!B461/'Fight Time'!B461</f>
+        <v>0.15128529287821324</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>711</v>
+      </c>
+      <c r="B462">
+        <f>Controlled!B462/'Fight Time'!B462</f>
+        <v>0.30226434965771459</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>712</v>
+      </c>
+      <c r="B463">
+        <f>Controlled!B463/'Fight Time'!B463</f>
+        <v>0.20054401582591491</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>713</v>
+      </c>
+      <c r="B464">
+        <f>Controlled!B464/'Fight Time'!B464</f>
+        <v>0.11666666666666667</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>714</v>
+      </c>
+      <c r="B465">
+        <f>Controlled!B465/'Fight Time'!B465</f>
+        <v>0.27041019514137793</v>
       </c>
     </row>
   </sheetData>
@@ -38079,10 +38525,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
-  <dimension ref="A1:C456"/>
+  <dimension ref="A1:C465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="B378" sqref="B378"/>
+    <sheetView topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38133,8 +38579,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>6*60+50</f>
-        <v>410</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -38298,8 +38743,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>11*60+16</f>
-        <v>676</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -38450,8 +38894,8 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <f>12*60+57</f>
-        <v>777</v>
+        <f>13*60+3</f>
+        <v>783</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -38841,7 +39285,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>583</v>
+        <v>607</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -39077,7 +39521,7 @@
         <v>108</v>
       </c>
       <c r="B115">
-        <v>631</v>
+        <v>610</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -39389,7 +39833,8 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>799</v>
+        <f>13*60+30</f>
+        <v>810</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -39432,7 +39877,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>900</v>
+        <v>671</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -39483,7 +39928,8 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>900</v>
+        <f>9*60+49</f>
+        <v>589</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -39518,8 +39964,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <f>13*60+37</f>
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -39666,7 +40111,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>900</v>
+        <v>657</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -39826,8 +40271,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <f>480+32</f>
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -39912,7 +40356,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -39945,7 +40389,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>513</v>
+        <v>536</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -39995,8 +40439,7 @@
         <v>232</v>
       </c>
       <c r="B223">
-        <f>13*60+14</f>
-        <v>794</v>
+        <v>667</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -40360,7 +40803,7 @@
         <v>496</v>
       </c>
       <c r="B266">
-        <v>435</v>
+        <v>481</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -40368,7 +40811,7 @@
         <v>497</v>
       </c>
       <c r="B267">
-        <v>257</v>
+        <v>365</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -41975,6 +42418,78 @@
       <c r="B456">
         <f>14*60+23</f>
         <v>863</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="B457">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>707</v>
+      </c>
+      <c r="B458">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>708</v>
+      </c>
+      <c r="B459">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>709</v>
+      </c>
+      <c r="B460">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>710</v>
+      </c>
+      <c r="B461">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>711</v>
+      </c>
+      <c r="B462">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>712</v>
+      </c>
+      <c r="B463">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>713</v>
+      </c>
+      <c r="B464">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>714</v>
+      </c>
+      <c r="B465">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -41986,10 +42501,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView topLeftCell="A353" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C379" sqref="C379"/>
+      <selection pane="topRight" activeCell="H402" sqref="H402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42482,6 +42997,15 @@
         <f>Control!A5</f>
         <v>Jesus Aguilar</v>
       </c>
+      <c r="B7">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>163</v>
+      </c>
+      <c r="D7">
+        <v>159</v>
+      </c>
       <c r="E7">
         <v>11</v>
       </c>
@@ -42493,6 +43017,39 @@
       </c>
       <c r="H7">
         <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0.09</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.64</v>
+      </c>
+      <c r="L7">
+        <v>0.67</v>
+      </c>
+      <c r="M7">
+        <v>0.27</v>
+      </c>
+      <c r="N7">
+        <v>0.33</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1.73</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T7">
+        <v>1.83</v>
+      </c>
+      <c r="U7">
+        <v>0.35</v>
+      </c>
+      <c r="V7">
+        <v>0.4</v>
       </c>
       <c r="W7">
         <f>Control!B5</f>
@@ -42500,7 +43057,7 @@
       </c>
       <c r="X7">
         <f>'Ctrl pct'!B5</f>
-        <v>0.32439024390243903</v>
+        <v>0.27032520325203252</v>
       </c>
       <c r="Y7">
         <f>Controlled!B5</f>
@@ -42508,11 +43065,14 @@
       </c>
       <c r="Z7">
         <f>'Controlled pct'!B5</f>
-        <v>0.66016260162601625</v>
+        <v>0.55013550135501355</v>
       </c>
       <c r="AA7">
         <f>'Fight Time'!B5</f>
-        <v>410</v>
+        <v>492</v>
+      </c>
+      <c r="AB7">
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
@@ -43731,31 +44291,82 @@
         <f>Control!A24</f>
         <v>Jared Gordon</v>
       </c>
+      <c r="B26">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>175</v>
+      </c>
+      <c r="D26">
+        <v>173</v>
+      </c>
+      <c r="E26">
+        <v>21</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
       <c r="G26">
         <v>9</v>
       </c>
       <c r="H26">
         <v>6</v>
       </c>
+      <c r="I26">
+        <v>0.38</v>
+      </c>
+      <c r="J26">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K26">
+        <v>0.1</v>
+      </c>
+      <c r="L26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M26">
+        <v>0.52</v>
+      </c>
+      <c r="N26">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O26" s="8">
+        <v>5.67</v>
+      </c>
+      <c r="P26" s="8">
+        <v>3.91</v>
+      </c>
+      <c r="T26">
+        <v>1.83</v>
+      </c>
+      <c r="U26">
+        <v>0.32</v>
+      </c>
+      <c r="V26">
+        <v>0.62</v>
+      </c>
       <c r="W26">
         <f>Control!B24</f>
-        <v>266.42857142857144</v>
+        <v>239.3</v>
       </c>
       <c r="X26">
         <f>'Ctrl pct'!B24</f>
-        <v>0.39412510566356723</v>
+        <v>0.36986089644513137</v>
       </c>
       <c r="Y26">
         <f>Controlled!B24</f>
-        <v>79.714285714285708</v>
+        <v>89.2</v>
       </c>
       <c r="Z26">
         <f>'Controlled pct'!B24</f>
-        <v>0.11792054099746406</v>
+        <v>0.13786707882534777</v>
       </c>
       <c r="AA26">
         <f>'Fight Time'!B24</f>
-        <v>676</v>
+        <v>647</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
@@ -45002,6 +45613,15 @@
         <f>Control!A42</f>
         <v>Rob Font</v>
       </c>
+      <c r="B44">
+        <v>38</v>
+      </c>
+      <c r="C44">
+        <v>173</v>
+      </c>
+      <c r="D44">
+        <v>182</v>
+      </c>
       <c r="E44">
         <v>22</v>
       </c>
@@ -45014,25 +45634,61 @@
       <c r="H44">
         <v>7</v>
       </c>
+      <c r="I44">
+        <v>0.41</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0.18</v>
+      </c>
+      <c r="L44">
+        <v>0.13</v>
+      </c>
+      <c r="M44">
+        <v>0.41</v>
+      </c>
+      <c r="N44">
+        <v>0.88</v>
+      </c>
+      <c r="O44" s="8">
+        <v>5.49</v>
+      </c>
+      <c r="P44" s="8">
+        <v>3.67</v>
+      </c>
+      <c r="T44">
+        <v>0.79</v>
+      </c>
+      <c r="U44">
+        <v>0.34</v>
+      </c>
+      <c r="V44">
+        <v>0.42</v>
+      </c>
       <c r="W44">
         <f>Control!B42</f>
-        <v>63.526315789473685</v>
+        <v>51.9</v>
       </c>
       <c r="X44">
         <f>'Ctrl pct'!B42</f>
-        <v>8.1758450179502812E-2</v>
+        <v>6.6283524904214561E-2</v>
       </c>
       <c r="Y44">
         <f>Controlled!B42</f>
-        <v>199.10526315789474</v>
+        <v>327.9</v>
       </c>
       <c r="Z44">
         <f>'Controlled pct'!B42</f>
-        <v>0.25624872993294046</v>
+        <v>0.41877394636015325</v>
       </c>
       <c r="AA44">
         <f>'Fight Time'!B42</f>
-        <v>777</v>
+        <v>783</v>
+      </c>
+      <c r="AB44">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
@@ -47573,6 +48229,15 @@
         <f>Control!A87</f>
         <v>Amanda Lemos</v>
       </c>
+      <c r="B89">
+        <v>38</v>
+      </c>
+      <c r="C89">
+        <v>163</v>
+      </c>
+      <c r="D89">
+        <v>165</v>
+      </c>
       <c r="E89">
         <v>15</v>
       </c>
@@ -47585,25 +48250,61 @@
       <c r="H89">
         <v>4</v>
       </c>
+      <c r="I89">
+        <v>0.53</v>
+      </c>
+      <c r="J89">
+        <v>0.25</v>
+      </c>
+      <c r="K89">
+        <v>0.2</v>
+      </c>
+      <c r="L89">
+        <v>0.5</v>
+      </c>
+      <c r="M89">
+        <v>0.27</v>
+      </c>
+      <c r="N89">
+        <v>0.25</v>
+      </c>
+      <c r="O89" s="8">
+        <v>2.89</v>
+      </c>
+      <c r="P89" s="8">
+        <v>3.46</v>
+      </c>
+      <c r="T89">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="U89">
+        <v>0.62</v>
+      </c>
+      <c r="V89">
+        <v>0.59</v>
+      </c>
       <c r="W89">
         <f>Control!B87</f>
-        <v>116.92307692307692</v>
+        <v>120.4</v>
       </c>
       <c r="X89">
         <f>'Ctrl pct'!B87</f>
-        <v>0.20055416281831376</v>
+        <v>0.1983525535420099</v>
       </c>
       <c r="Y89">
         <f>Controlled!B87</f>
-        <v>190.46153846153845</v>
+        <v>196.9</v>
       </c>
       <c r="Z89">
         <f>'Controlled pct'!B87</f>
-        <v>0.32669217574877951</v>
+        <v>0.3243822075782537</v>
       </c>
       <c r="AA89">
         <f>'Fight Time'!B87</f>
-        <v>583</v>
+        <v>607</v>
+      </c>
+      <c r="AB89">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.3">
@@ -49262,22 +49963,22 @@
         <v>183</v>
       </c>
       <c r="E117">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F117">
         <v>8</v>
       </c>
       <c r="G117">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H117">
         <v>7</v>
       </c>
       <c r="I117">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="J117">
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
       <c r="K117">
         <v>0.13</v>
@@ -49286,48 +49987,48 @@
         <v>0.13</v>
       </c>
       <c r="M117">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="N117">
         <v>0.5</v>
       </c>
       <c r="O117" s="8">
-        <v>4.38</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="P117" s="8">
-        <v>4.62</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="T117">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="U117">
         <v>0.36</v>
       </c>
       <c r="V117">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="W117">
         <f>Control!B115</f>
-        <v>89.2</v>
+        <v>89.4</v>
       </c>
       <c r="X117">
         <f>'Ctrl pct'!B115</f>
-        <v>0.14136291600633916</v>
+        <v>0.14655737704918034</v>
       </c>
       <c r="Y117">
         <f>Controlled!B115</f>
-        <v>64.5</v>
+        <v>65</v>
       </c>
       <c r="Z117">
         <f>'Controlled pct'!B115</f>
-        <v>0.10221870047543581</v>
+        <v>0.10655737704918032</v>
       </c>
       <c r="AA117">
         <f>'Fight Time'!B115</f>
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="AB117">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.3">
@@ -51486,6 +52187,15 @@
         <f>Control!A152</f>
         <v>Rafa Garcia</v>
       </c>
+      <c r="B154">
+        <v>31</v>
+      </c>
+      <c r="C154">
+        <v>170</v>
+      </c>
+      <c r="D154">
+        <v>178</v>
+      </c>
       <c r="E154">
         <v>17</v>
       </c>
@@ -51498,25 +52208,61 @@
       <c r="H154">
         <v>4</v>
       </c>
+      <c r="I154">
+        <v>0.06</v>
+      </c>
+      <c r="J154">
+        <v>0.25</v>
+      </c>
+      <c r="K154">
+        <v>0.5</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0.44</v>
+      </c>
+      <c r="N154">
+        <v>0.75</v>
+      </c>
+      <c r="O154" s="8">
+        <v>4.01</v>
+      </c>
+      <c r="P154" s="8">
+        <v>4.47</v>
+      </c>
+      <c r="T154">
+        <v>3.21</v>
+      </c>
+      <c r="U154">
+        <v>0.43</v>
+      </c>
+      <c r="V154">
+        <v>0.77</v>
+      </c>
       <c r="W154">
         <f>Control!B152</f>
-        <v>198.125</v>
+        <v>191.11111111111111</v>
       </c>
       <c r="X154">
         <f>'Ctrl pct'!B152</f>
-        <v>0.24796620775969963</v>
+        <v>0.23593964334705075</v>
       </c>
       <c r="Y154">
         <f>Controlled!B152</f>
-        <v>61.625</v>
+        <v>54.888888888888886</v>
       </c>
       <c r="Z154">
         <f>'Controlled pct'!B152</f>
-        <v>7.7127659574468085E-2</v>
+        <v>6.7764060356652944E-2</v>
       </c>
       <c r="AA154">
         <f>'Fight Time'!B152</f>
-        <v>799</v>
+        <v>810</v>
+      </c>
+      <c r="AB154">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.3">
@@ -51811,6 +52557,15 @@
         <f>Control!A157</f>
         <v>Jose Medina</v>
       </c>
+      <c r="B159">
+        <v>34</v>
+      </c>
+      <c r="C159">
+        <v>183</v>
+      </c>
+      <c r="D159">
+        <v>189</v>
+      </c>
       <c r="E159">
         <v>11</v>
       </c>
@@ -51823,25 +52578,61 @@
       <c r="H159">
         <v>2</v>
       </c>
+      <c r="I159">
+        <v>0.73</v>
+      </c>
+      <c r="J159">
+        <v>0.2</v>
+      </c>
+      <c r="K159">
+        <v>0.18</v>
+      </c>
+      <c r="L159">
+        <v>0.2</v>
+      </c>
+      <c r="M159">
+        <v>0.09</v>
+      </c>
+      <c r="N159">
+        <v>0.6</v>
+      </c>
+      <c r="O159" s="8">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="P159" s="8">
+        <v>5.25</v>
+      </c>
+      <c r="T159">
+        <v>0.45</v>
+      </c>
+      <c r="U159">
+        <v>0.33</v>
+      </c>
+      <c r="V159">
+        <v>0.31</v>
+      </c>
       <c r="W159">
         <f>Control!B157</f>
-        <v>64</v>
+        <v>42.666666666666664</v>
       </c>
       <c r="X159">
         <f>'Ctrl pct'!B157</f>
-        <v>7.1111111111111111E-2</v>
+        <v>6.358668653750621E-2</v>
       </c>
       <c r="Y159">
         <f>Controlled!B157</f>
-        <v>359.5</v>
+        <v>239.66666666666666</v>
       </c>
       <c r="Z159">
         <f>'Controlled pct'!B157</f>
-        <v>0.39944444444444444</v>
+        <v>0.35717834078489813</v>
       </c>
       <c r="AA159">
         <f>'Fight Time'!B157</f>
-        <v>900</v>
+        <v>671</v>
+      </c>
+      <c r="AB159">
+        <v>-2</v>
       </c>
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.3">
@@ -52084,6 +52875,15 @@
         <f>Control!A163</f>
         <v>David Martinez</v>
       </c>
+      <c r="B165">
+        <v>27</v>
+      </c>
+      <c r="C165">
+        <v>170</v>
+      </c>
+      <c r="D165">
+        <v>171</v>
+      </c>
       <c r="E165">
         <v>12</v>
       </c>
@@ -52096,25 +52896,61 @@
       <c r="H165">
         <v>0</v>
       </c>
+      <c r="I165">
+        <v>0.83</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0.17</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="P165" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165">
+        <v>0</v>
+      </c>
+      <c r="V165">
+        <v>1</v>
+      </c>
       <c r="W165">
         <f>Control!B163</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X165">
         <f>'Ctrl pct'!B163</f>
-        <v>0</v>
+        <v>3.5653650254668934E-2</v>
       </c>
       <c r="Y165">
         <f>Controlled!B163</f>
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="Z165">
         <f>'Controlled pct'!B163</f>
-        <v>2.7777777777777776E-2</v>
+        <v>2.1222410865874362E-2</v>
       </c>
       <c r="AA165">
         <f>'Fight Time'!B163</f>
-        <v>900</v>
+        <v>589</v>
+      </c>
+      <c r="AB165">
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.3">
@@ -52312,51 +53148,51 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="L169">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="M169">
         <v>0.44</v>
       </c>
       <c r="N169">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="O169" s="8">
-        <v>3.74</v>
+        <v>3.67</v>
       </c>
       <c r="P169" s="8">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="T169">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="U169">
         <v>0.34</v>
       </c>
       <c r="V169">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W169">
         <f>Control!B167</f>
-        <v>115.30434782608695</v>
+        <v>115.8</v>
       </c>
       <c r="X169">
         <f>'Ctrl pct'!B167</f>
-        <v>0.14113139268798894</v>
+        <v>0.14121951219512194</v>
       </c>
       <c r="Y169">
         <f>Controlled!B167</f>
-        <v>131.31818181818181</v>
+        <v>120.7</v>
       </c>
       <c r="Z169">
         <f>'Controlled pct'!B167</f>
-        <v>0.16073216868810503</v>
+        <v>0.1471951219512195</v>
       </c>
       <c r="AA169">
         <f>'Fight Time'!B167</f>
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="AB169">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.3">
@@ -53155,6 +53991,15 @@
         <f>Control!A184</f>
         <v>Luis Gurule</v>
       </c>
+      <c r="B186">
+        <v>31</v>
+      </c>
+      <c r="C186">
+        <v>165</v>
+      </c>
+      <c r="D186">
+        <v>163</v>
+      </c>
       <c r="E186">
         <v>10</v>
       </c>
@@ -53166,6 +54011,39 @@
       </c>
       <c r="H186">
         <v>1</v>
+      </c>
+      <c r="I186">
+        <v>0.5</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>0.1</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0.4</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186" s="8">
+        <v>5.34</v>
+      </c>
+      <c r="P186" s="8">
+        <v>3.74</v>
+      </c>
+      <c r="T186">
+        <v>0.68</v>
+      </c>
+      <c r="U186">
+        <v>0.16</v>
+      </c>
+      <c r="V186">
+        <v>0.5</v>
       </c>
       <c r="W186">
         <f>Control!B184</f>
@@ -53173,7 +54051,7 @@
       </c>
       <c r="X186">
         <f>'Ctrl pct'!B184</f>
-        <v>8.1111111111111106E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Y186">
         <f>Controlled!B184</f>
@@ -53181,11 +54059,14 @@
       </c>
       <c r="Z186">
         <f>'Controlled pct'!B184</f>
-        <v>0.18888888888888888</v>
+        <v>0.25875190258751901</v>
       </c>
       <c r="AA186">
         <f>'Fight Time'!B184</f>
-        <v>900</v>
+        <v>657</v>
+      </c>
+      <c r="AB186">
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.3">
@@ -54292,7 +55173,7 @@
         <v>Sedrique Dumas</v>
       </c>
       <c r="B205">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C205">
         <v>188</v>
@@ -54351,7 +55232,7 @@
       </c>
       <c r="X205">
         <f>'Ctrl pct'!B203</f>
-        <v>0.26199776785714285</v>
+        <v>0.26148705096073516</v>
       </c>
       <c r="Y205">
         <f>Controlled!B203</f>
@@ -54359,11 +55240,11 @@
       </c>
       <c r="Z205">
         <f>'Controlled pct'!B203</f>
-        <v>0.16657366071428573</v>
+        <v>0.16624895572263995</v>
       </c>
       <c r="AA205">
         <f>'Fight Time'!B203</f>
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AB205">
         <v>-1</v>
@@ -54806,6 +55687,15 @@
         <f>Control!A213</f>
         <v>Jean Silva</v>
       </c>
+      <c r="B215">
+        <v>28</v>
+      </c>
+      <c r="C215">
+        <v>170</v>
+      </c>
+      <c r="D215">
+        <v>175</v>
+      </c>
       <c r="E215">
         <v>16</v>
       </c>
@@ -54818,25 +55708,61 @@
       <c r="H215">
         <v>0</v>
       </c>
+      <c r="I215">
+        <v>0.75</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0.19</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0.06</v>
+      </c>
+      <c r="N215">
+        <v>1</v>
+      </c>
+      <c r="O215" s="8">
+        <v>4.87</v>
+      </c>
+      <c r="P215" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="T215">
+        <v>0.6</v>
+      </c>
+      <c r="U215">
+        <v>0.5</v>
+      </c>
+      <c r="V215">
+        <v>0.86</v>
+      </c>
       <c r="W215">
         <f>Control!B213</f>
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="X215">
         <f>'Ctrl pct'!B213</f>
-        <v>1.2929292929292929E-2</v>
+        <v>1.693227091633466E-2</v>
       </c>
       <c r="Y215">
         <f>Controlled!B213</f>
-        <v>24.4</v>
+        <v>37.5</v>
       </c>
       <c r="Z215">
         <f>'Controlled pct'!B213</f>
-        <v>4.9292929292929291E-2</v>
+        <v>7.4701195219123509E-2</v>
       </c>
       <c r="AA215">
         <f>'Fight Time'!B213</f>
-        <v>495</v>
+        <v>502</v>
+      </c>
+      <c r="AB215">
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.3">
@@ -55003,6 +55929,15 @@
         <f>Control!A217</f>
         <v>Diego Lopes</v>
       </c>
+      <c r="B219">
+        <v>30</v>
+      </c>
+      <c r="C219">
+        <v>180</v>
+      </c>
+      <c r="D219">
+        <v>184</v>
+      </c>
       <c r="E219">
         <v>26</v>
       </c>
@@ -55015,25 +55950,61 @@
       <c r="H219">
         <v>2</v>
       </c>
+      <c r="I219">
+        <v>0.38</v>
+      </c>
+      <c r="J219">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K219">
+        <v>0.46</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>0.15</v>
+      </c>
+      <c r="N219">
+        <v>0.71</v>
+      </c>
+      <c r="O219" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="P219" s="8">
+        <v>4.76</v>
+      </c>
+      <c r="T219">
+        <v>0.35</v>
+      </c>
+      <c r="U219">
+        <v>0.4</v>
+      </c>
+      <c r="V219">
+        <v>0.67</v>
+      </c>
       <c r="W219">
         <f>Control!B217</f>
-        <v>69.714285714285708</v>
+        <v>61.625</v>
       </c>
       <c r="X219">
         <f>'Ctrl pct'!B217</f>
-        <v>0.13589529379003062</v>
+        <v>0.11497201492537314</v>
       </c>
       <c r="Y219">
         <f>Controlled!B217</f>
-        <v>160.14285714285714</v>
+        <v>149.875</v>
       </c>
       <c r="Z219">
         <f>'Controlled pct'!B217</f>
-        <v>0.31216931216931215</v>
+        <v>0.27961753731343286</v>
       </c>
       <c r="AA219">
         <f>'Fight Time'!B217</f>
-        <v>513</v>
+        <v>536</v>
+      </c>
+      <c r="AB219">
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.3">
@@ -55231,6 +56202,15 @@
         <f>Control!A223</f>
         <v>Le Quang</v>
       </c>
+      <c r="B225">
+        <v>33</v>
+      </c>
+      <c r="C225">
+        <v>169</v>
+      </c>
+      <c r="D225">
+        <v>178</v>
+      </c>
       <c r="E225">
         <v>9</v>
       </c>
@@ -55243,25 +56223,61 @@
       <c r="H225">
         <v>2</v>
       </c>
+      <c r="I225">
+        <v>0.22</v>
+      </c>
+      <c r="J225">
+        <v>0.5</v>
+      </c>
+      <c r="K225">
+        <v>0.44</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0.33</v>
+      </c>
+      <c r="N225">
+        <v>0.5</v>
+      </c>
+      <c r="O225" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="P225" s="8">
+        <v>4.53</v>
+      </c>
+      <c r="T225">
+        <v>3.15</v>
+      </c>
+      <c r="U225">
+        <v>0.35</v>
+      </c>
+      <c r="V225">
+        <v>1</v>
+      </c>
       <c r="W225">
         <f>Control!B223</f>
-        <v>126</v>
+        <v>199.33333333333334</v>
       </c>
       <c r="X225">
         <f>'Ctrl pct'!B223</f>
-        <v>0.15869017632241814</v>
+        <v>0.2988505747126437</v>
       </c>
       <c r="Y225">
         <f>Controlled!B223</f>
-        <v>19</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="Z225">
         <f>'Controlled pct'!B223</f>
-        <v>2.3929471032745592E-2</v>
+        <v>1.8990504747626185E-2</v>
       </c>
       <c r="AA225">
         <f>'Fight Time'!B223</f>
-        <v>794</v>
+        <v>667</v>
+      </c>
+      <c r="AB225">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.3">
@@ -57610,7 +58626,7 @@
         <v>0.67</v>
       </c>
       <c r="J268">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="K268">
         <v>0.25</v>
@@ -57622,13 +58638,13 @@
         <v>0.08</v>
       </c>
       <c r="N268">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="O268" s="8">
-        <v>5.35</v>
+        <v>4.79</v>
       </c>
       <c r="P268" s="8">
-        <v>4.8</v>
+        <v>4.53</v>
       </c>
       <c r="Q268">
         <v>0.67</v>
@@ -57640,13 +58656,13 @@
         <v>0.06</v>
       </c>
       <c r="T268">
-        <v>0.92</v>
+        <v>1.5</v>
       </c>
       <c r="U268">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="V268">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="W268">
         <f>Control!B266</f>
@@ -57654,7 +58670,7 @@
       </c>
       <c r="X268">
         <f>'Ctrl pct'!B266</f>
-        <v>0.27535121328224776</v>
+        <v>0.24901824901824901</v>
       </c>
       <c r="Y268">
         <f>Controlled!B266</f>
@@ -57662,11 +58678,11 @@
       </c>
       <c r="Z268">
         <f>'Controlled pct'!B266</f>
-        <v>0.10932311621966795</v>
+        <v>9.8868098868098872E-2</v>
       </c>
       <c r="AA268">
         <f>'Fight Time'!B266</f>
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="AB268">
         <v>-3</v>
@@ -57699,28 +58715,28 @@
         <v>2</v>
       </c>
       <c r="I269">
-        <v>0.63</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J269">
         <v>1</v>
       </c>
       <c r="K269">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="L269">
         <v>0</v>
       </c>
       <c r="M269">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="N269">
         <v>0</v>
       </c>
       <c r="O269" s="8">
-        <v>4.9400000000000004</v>
+        <v>4.28</v>
       </c>
       <c r="P269" s="8">
-        <v>3.45</v>
+        <v>2.99</v>
       </c>
       <c r="Q269">
         <v>0.6</v>
@@ -57732,13 +58748,13 @@
         <v>0.15</v>
       </c>
       <c r="T269">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="U269">
-        <v>0.55000000000000004</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V269">
-        <v>0.33</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="W269">
         <f>Control!B267</f>
@@ -57746,7 +58762,7 @@
       </c>
       <c r="X269">
         <f>'Ctrl pct'!B267</f>
-        <v>0.28274967574578469</v>
+        <v>0.19908675799086759</v>
       </c>
       <c r="Y269">
         <f>Controlled!B267</f>
@@ -57754,11 +58770,11 @@
       </c>
       <c r="Z269">
         <f>'Controlled pct'!B267</f>
-        <v>0.41828793774319067</v>
+        <v>0.29452054794520549</v>
       </c>
       <c r="AA269">
         <f>'Fight Time'!B267</f>
-        <v>257</v>
+        <v>365</v>
       </c>
       <c r="AB269">
         <v>1</v>
@@ -73985,204 +75001,756 @@
       </c>
     </row>
     <row r="459" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A459" t="str">
+        <f>Control!A457</f>
+        <v>Montserrat Rendon</v>
+      </c>
+      <c r="B459">
+        <v>36</v>
+      </c>
+      <c r="C459">
+        <v>172</v>
+      </c>
+      <c r="D459">
+        <v>173</v>
+      </c>
+      <c r="E459">
+        <v>6</v>
+      </c>
+      <c r="F459">
+        <v>1</v>
+      </c>
+      <c r="G459">
+        <v>1</v>
+      </c>
+      <c r="H459">
+        <v>1</v>
+      </c>
+      <c r="I459">
+        <v>0</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>0</v>
+      </c>
+      <c r="L459">
+        <v>0</v>
+      </c>
+      <c r="M459">
+        <v>1</v>
+      </c>
+      <c r="N459">
+        <v>1</v>
+      </c>
+      <c r="O459" s="8">
+        <v>3.13</v>
+      </c>
+      <c r="P459" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="T459">
+        <v>3</v>
+      </c>
+      <c r="U459">
+        <v>0.54</v>
+      </c>
+      <c r="V459">
+        <v>1</v>
+      </c>
       <c r="W459">
         <f>Control!B457</f>
-        <v>0</v>
+        <v>307.5</v>
       </c>
       <c r="X459">
         <f>'Ctrl pct'!B457</f>
-        <v>0</v>
+        <v>0.34166666666666667</v>
       </c>
       <c r="Y459">
         <f>Controlled!B457</f>
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="Z459">
         <f>'Controlled pct'!B457</f>
-        <v>0</v>
+        <v>3.0555555555555555E-2</v>
       </c>
       <c r="AA459">
         <f>'Fight Time'!B457</f>
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="AB459">
+        <v>-1</v>
       </c>
     </row>
     <row r="460" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A460" t="str">
+        <f>Control!A458</f>
+        <v>Alice Pereira</v>
+      </c>
+      <c r="B460">
+        <v>19</v>
+      </c>
+      <c r="C460">
+        <v>177</v>
+      </c>
+      <c r="D460">
+        <v>180</v>
+      </c>
+      <c r="E460">
+        <v>5</v>
+      </c>
+      <c r="F460">
+        <v>0</v>
+      </c>
+      <c r="G460">
+        <v>0</v>
+      </c>
+      <c r="H460">
+        <v>0</v>
+      </c>
+      <c r="I460">
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L460">
+        <v>0</v>
+      </c>
+      <c r="M460">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N460">
+        <v>0</v>
+      </c>
+      <c r="O460" s="8">
+        <v>4</v>
+      </c>
+      <c r="P460" s="8">
+        <v>3</v>
+      </c>
+      <c r="T460">
+        <v>2</v>
+      </c>
+      <c r="U460">
+        <v>0.6</v>
+      </c>
+      <c r="V460">
+        <v>0.75</v>
+      </c>
       <c r="W460">
         <f>Control!B458</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="X460">
         <f>'Ctrl pct'!B458</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y460">
         <f>Controlled!B458</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Z460">
         <f>'Controlled pct'!B458</f>
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AA460">
         <f>'Fight Time'!B458</f>
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="AB460">
+        <v>6</v>
       </c>
     </row>
     <row r="461" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A461" t="str">
+        <f>Control!A459</f>
+        <v>Alden Coria</v>
+      </c>
+      <c r="B461">
+        <v>27</v>
+      </c>
+      <c r="C461">
+        <v>173</v>
+      </c>
+      <c r="D461">
+        <v>170</v>
+      </c>
+      <c r="E461">
+        <v>10</v>
+      </c>
+      <c r="F461">
+        <v>3</v>
+      </c>
+      <c r="G461">
+        <v>0</v>
+      </c>
+      <c r="H461">
+        <v>0</v>
+      </c>
+      <c r="I461">
+        <v>0.4</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461">
+        <v>0.4</v>
+      </c>
+      <c r="L461">
+        <v>0.33</v>
+      </c>
+      <c r="M461">
+        <v>0.2</v>
+      </c>
+      <c r="N461">
+        <v>0.67</v>
+      </c>
+      <c r="O461" s="8">
+        <v>4</v>
+      </c>
+      <c r="P461" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="T461">
+        <v>1</v>
+      </c>
+      <c r="U461">
+        <v>0.4</v>
+      </c>
+      <c r="V461">
+        <v>0.7</v>
+      </c>
       <c r="W461">
         <f>Control!B459</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="X461">
         <f>'Ctrl pct'!B459</f>
-        <v>0</v>
+        <v>0.22666666666666666</v>
       </c>
       <c r="Y461">
         <f>Controlled!B459</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Z461">
         <f>'Controlled pct'!B459</f>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AA461">
         <f>'Fight Time'!B459</f>
-        <v>0</v>
+        <v>750</v>
+      </c>
+      <c r="AB461">
+        <v>3</v>
       </c>
     </row>
     <row r="462" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A462" t="str">
+        <f>Control!A460</f>
+        <v>Alessandro Costa</v>
+      </c>
+      <c r="B462">
+        <v>29</v>
+      </c>
+      <c r="C462">
+        <v>163</v>
+      </c>
+      <c r="D462">
+        <v>170</v>
+      </c>
+      <c r="E462">
+        <v>14</v>
+      </c>
+      <c r="F462">
+        <v>4</v>
+      </c>
+      <c r="G462">
+        <v>2</v>
+      </c>
+      <c r="H462">
+        <v>2</v>
+      </c>
+      <c r="I462">
+        <v>0.36</v>
+      </c>
+      <c r="J462">
+        <v>0.5</v>
+      </c>
+      <c r="K462">
+        <v>0.43</v>
+      </c>
+      <c r="L462">
+        <v>0</v>
+      </c>
+      <c r="M462">
+        <v>0.21</v>
+      </c>
+      <c r="N462">
+        <v>0.5</v>
+      </c>
+      <c r="O462" s="8">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="P462" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="T462">
+        <v>0.27</v>
+      </c>
+      <c r="U462">
+        <v>0.12</v>
+      </c>
+      <c r="V462">
+        <v>0.9</v>
+      </c>
       <c r="W462">
         <f>Control!B460</f>
-        <v>0</v>
+        <v>36.6</v>
       </c>
       <c r="X462">
         <f>'Ctrl pct'!B460</f>
-        <v>0</v>
+        <v>5.5623100303951373E-2</v>
       </c>
       <c r="Y462">
         <f>Controlled!B460</f>
-        <v>0</v>
+        <v>158.80000000000001</v>
       </c>
       <c r="Z462">
         <f>'Controlled pct'!B460</f>
-        <v>0</v>
+        <v>0.24133738601823709</v>
       </c>
       <c r="AA462">
         <f>'Fight Time'!B460</f>
-        <v>0</v>
+        <v>658</v>
+      </c>
+      <c r="AB462">
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A463" t="str">
+        <f>Control!A461</f>
+        <v>Tatiana Suarez</v>
+      </c>
+      <c r="B463">
+        <v>34</v>
+      </c>
+      <c r="C463">
+        <v>165</v>
+      </c>
+      <c r="D463">
+        <v>168</v>
+      </c>
+      <c r="E463">
+        <v>10</v>
+      </c>
+      <c r="F463">
+        <v>1</v>
+      </c>
+      <c r="G463">
+        <v>7</v>
+      </c>
+      <c r="H463">
+        <v>1</v>
+      </c>
+      <c r="I463">
+        <v>0.2</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463">
+        <v>0.5</v>
+      </c>
+      <c r="L463">
+        <v>0</v>
+      </c>
+      <c r="M463">
+        <v>0.3</v>
+      </c>
+      <c r="N463">
+        <v>1</v>
+      </c>
+      <c r="O463" s="8">
+        <v>3.22</v>
+      </c>
+      <c r="P463" s="8">
+        <v>1.58</v>
+      </c>
+      <c r="T463">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="U463">
+        <v>0.47</v>
+      </c>
+      <c r="V463">
+        <v>0.8</v>
+      </c>
       <c r="W463">
         <f>Control!B461</f>
-        <v>0</v>
+        <v>424.14285714285717</v>
       </c>
       <c r="X463">
         <f>'Ctrl pct'!B461</f>
-        <v>0</v>
+        <v>0.62557943531394866</v>
       </c>
       <c r="Y463">
         <f>Controlled!B461</f>
-        <v>0</v>
+        <v>102.57142857142857</v>
       </c>
       <c r="Z463">
         <f>'Controlled pct'!B461</f>
-        <v>0</v>
+        <v>0.15128529287821324</v>
       </c>
       <c r="AA463">
         <f>'Fight Time'!B461</f>
-        <v>0</v>
+        <v>678</v>
+      </c>
+      <c r="AB463">
+        <v>-1</v>
       </c>
     </row>
     <row r="464" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A464" t="str">
+        <f>Control!A462</f>
+        <v>Joaquim Silva</v>
+      </c>
+      <c r="B464">
+        <v>36</v>
+      </c>
+      <c r="C464">
+        <v>173</v>
+      </c>
+      <c r="D464">
+        <v>175</v>
+      </c>
+      <c r="E464">
+        <v>13</v>
+      </c>
+      <c r="F464">
+        <v>5</v>
+      </c>
+      <c r="G464">
+        <v>6</v>
+      </c>
+      <c r="H464">
+        <v>5</v>
+      </c>
+      <c r="I464">
+        <v>0.54</v>
+      </c>
+      <c r="J464">
+        <v>0.6</v>
+      </c>
+      <c r="K464">
+        <v>0.23</v>
+      </c>
+      <c r="L464">
+        <v>0</v>
+      </c>
+      <c r="M464">
+        <v>0.23</v>
+      </c>
+      <c r="N464">
+        <v>0.4</v>
+      </c>
+      <c r="O464" s="8">
+        <v>3.66</v>
+      </c>
+      <c r="P464" s="8">
+        <v>4.53</v>
+      </c>
+      <c r="T464">
+        <v>0.39</v>
+      </c>
+      <c r="U464">
+        <v>0.5</v>
+      </c>
+      <c r="V464">
+        <v>0.69</v>
+      </c>
       <c r="W464">
         <f>Control!B462</f>
-        <v>0</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="X464">
         <f>'Ctrl pct'!B462</f>
-        <v>0</v>
+        <v>5.8188520273828336E-2</v>
       </c>
       <c r="Y464">
         <f>Controlled!B462</f>
-        <v>0</v>
+        <v>191.33333333333334</v>
       </c>
       <c r="Z464">
         <f>'Controlled pct'!B462</f>
-        <v>0</v>
+        <v>0.30226434965771459</v>
       </c>
       <c r="AA464">
         <f>'Fight Time'!B462</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="23:27" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+      <c r="AB464">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A465" t="str">
+        <f>Control!A463</f>
+        <v>Claudio Puelles</v>
+      </c>
+      <c r="B465">
+        <v>29</v>
+      </c>
+      <c r="C465">
+        <v>178</v>
+      </c>
+      <c r="D465">
+        <v>183</v>
+      </c>
+      <c r="E465">
+        <v>12</v>
+      </c>
+      <c r="F465">
+        <v>4</v>
+      </c>
+      <c r="G465">
+        <v>5</v>
+      </c>
+      <c r="H465">
+        <v>3</v>
+      </c>
+      <c r="I465">
+        <v>0.17</v>
+      </c>
+      <c r="J465">
+        <v>0.5</v>
+      </c>
+      <c r="K465">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L465">
+        <v>0</v>
+      </c>
+      <c r="M465">
+        <v>0.25</v>
+      </c>
+      <c r="N465">
+        <v>0.5</v>
+      </c>
+      <c r="O465" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="P465" s="8">
+        <v>2.78</v>
+      </c>
+      <c r="T465">
+        <v>3.17</v>
+      </c>
+      <c r="U465">
+        <v>0.36</v>
+      </c>
+      <c r="V465">
+        <v>0.6</v>
+      </c>
       <c r="W465">
         <f>Control!B463</f>
-        <v>0</v>
+        <v>462.83333333333331</v>
       </c>
       <c r="X465">
         <f>'Ctrl pct'!B463</f>
-        <v>0</v>
+        <v>0.68669634025717108</v>
       </c>
       <c r="Y465">
         <f>Controlled!B463</f>
-        <v>0</v>
+        <v>135.16666666666666</v>
       </c>
       <c r="Z465">
         <f>'Controlled pct'!B463</f>
-        <v>0</v>
+        <v>0.20054401582591491</v>
       </c>
       <c r="AA465">
         <f>'Fight Time'!B463</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="23:27" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+      <c r="AB465">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A466" t="str">
+        <f>Control!A464</f>
+        <v>Santiago Luna</v>
+      </c>
+      <c r="B466">
+        <v>21</v>
+      </c>
+      <c r="C466">
+        <v>175</v>
+      </c>
+      <c r="D466">
+        <v>180</v>
+      </c>
+      <c r="E466">
+        <v>6</v>
+      </c>
+      <c r="F466">
+        <v>0</v>
+      </c>
+      <c r="G466">
+        <v>0</v>
+      </c>
+      <c r="H466">
+        <v>0</v>
+      </c>
+      <c r="I466">
+        <v>0.33</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="K466">
+        <v>0.67</v>
+      </c>
+      <c r="L466">
+        <v>0</v>
+      </c>
+      <c r="M466">
+        <v>0</v>
+      </c>
+      <c r="N466">
+        <v>0</v>
+      </c>
+      <c r="O466" s="8">
+        <v>5</v>
+      </c>
+      <c r="P466" s="8">
+        <v>4</v>
+      </c>
+      <c r="T466">
+        <v>1</v>
+      </c>
+      <c r="U466">
+        <v>0.5</v>
+      </c>
+      <c r="V466">
+        <v>0.7</v>
+      </c>
       <c r="W466">
         <f>Control!B464</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="X466">
         <f>'Ctrl pct'!B464</f>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="Y466">
         <f>Controlled!B464</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Z466">
         <f>'Controlled pct'!B464</f>
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="AA466">
         <f>'Fight Time'!B464</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="23:27" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+      <c r="AB466">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="467" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A467" t="str">
+        <f>Control!A465</f>
+        <v>Dustin Stoltzfus</v>
+      </c>
+      <c r="B467">
+        <v>33</v>
+      </c>
+      <c r="C467">
+        <v>183</v>
+      </c>
+      <c r="D467">
+        <v>191</v>
+      </c>
+      <c r="E467">
+        <v>16</v>
+      </c>
+      <c r="F467">
+        <v>7</v>
+      </c>
+      <c r="G467">
+        <v>3</v>
+      </c>
+      <c r="H467">
+        <v>6</v>
+      </c>
+      <c r="I467">
+        <v>0.19</v>
+      </c>
+      <c r="J467">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K467">
+        <v>0.38</v>
+      </c>
+      <c r="L467">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M467">
+        <v>0.38</v>
+      </c>
+      <c r="N467">
+        <v>0.43</v>
+      </c>
+      <c r="O467" s="8">
+        <v>3.14</v>
+      </c>
+      <c r="P467" s="8">
+        <v>3.14</v>
+      </c>
+      <c r="T467">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="U467">
+        <v>0.41</v>
+      </c>
+      <c r="V467">
+        <v>0.46</v>
+      </c>
       <c r="W467">
         <f>Control!B465</f>
-        <v>0</v>
+        <v>173.55555555555554</v>
       </c>
       <c r="X467">
         <f>'Ctrl pct'!B465</f>
-        <v>0</v>
+        <v>0.31103146156909595</v>
       </c>
       <c r="Y467">
         <f>Controlled!B465</f>
-        <v>0</v>
+        <v>150.88888888888889</v>
       </c>
       <c r="Z467">
         <f>'Controlled pct'!B465</f>
-        <v>0</v>
+        <v>0.27041019514137793</v>
       </c>
       <c r="AA467">
         <f>'Fight Time'!B465</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="23:27" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+      <c r="AB467">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W468">
         <f>Control!B466</f>
         <v>0</v>
@@ -74204,7 +75772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W469">
         <f>Control!B467</f>
         <v>0</v>
@@ -74226,7 +75794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W470">
         <f>Control!B468</f>
         <v>0</v>
@@ -74248,7 +75816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W471">
         <f>Control!B469</f>
         <v>0</v>
@@ -74270,7 +75838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W472">
         <f>Control!B470</f>
         <v>0</v>
@@ -74292,7 +75860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W473">
         <f>Control!B471</f>
         <v>0</v>
@@ -74314,7 +75882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W474">
         <f>Control!B472</f>
         <v>0</v>
@@ -74336,7 +75904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W475">
         <f>Control!B473</f>
         <v>0</v>
@@ -74358,7 +75926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W476">
         <f>Control!B474</f>
         <v>0</v>
@@ -74380,7 +75948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W477">
         <f>Control!B475</f>
         <v>0</v>
@@ -74402,7 +75970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W478">
         <f>Control!B476</f>
         <v>0</v>
@@ -74424,7 +75992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W479">
         <f>Control!B477</f>
         <v>0</v>
@@ -74446,7 +76014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W480">
         <f>Control!B478</f>
         <v>0</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE95802-86B4-4D0B-9E95-44843D577B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E622FB8-6CDA-4E9D-A4BC-AB65B9047A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="727">
   <si>
     <t>Khaos</t>
   </si>
@@ -2176,6 +2176,42 @@
   <si>
     <t>Dustin Stoltzfus</t>
   </si>
+  <si>
+    <t>Tom Nolan</t>
+  </si>
+  <si>
+    <t>Charlie Campbell</t>
+  </si>
+  <si>
+    <t>Cam Rowston</t>
+  </si>
+  <si>
+    <t>Michelle Montague</t>
+  </si>
+  <si>
+    <t>Rolando Bedoya</t>
+  </si>
+  <si>
+    <t>Jamie Mullarkey</t>
+  </si>
+  <si>
+    <t>Colby Thicknesse</t>
+  </si>
+  <si>
+    <t>Jonathan Micallef</t>
+  </si>
+  <si>
+    <t>Louie Sutherland</t>
+  </si>
+  <si>
+    <t>Justin Tafa</t>
+  </si>
+  <si>
+    <t>Ramon Tavares</t>
+  </si>
+  <si>
+    <t>Jack Jenkins</t>
+  </si>
 </sst>
 </file>
 
@@ -2603,10 +2639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
-  <dimension ref="A1:AE465"/>
+  <dimension ref="A1:AE477"/>
   <sheetViews>
-    <sheetView topLeftCell="A392" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J416" sqref="J416"/>
+    <sheetView topLeftCell="A229" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2920,42 +2956,41 @@
         <v>280</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="1"/>
-        <v>301.3</v>
+        <f xml:space="preserve"> AVERAGE(C12:BC12)</f>
+        <v>257.8</v>
       </c>
       <c r="C12">
-        <f>7*60+38</f>
-        <v>458</v>
-      </c>
-      <c r="D12">
         <f>9*60+39</f>
         <v>579</v>
       </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
       <c r="E12">
-        <v>23</v>
+        <v>479</v>
       </c>
       <c r="F12">
-        <v>479</v>
+        <v>126</v>
       </c>
       <c r="G12">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I12">
-        <v>13</v>
-      </c>
-      <c r="J12">
         <f>12*60+50</f>
         <v>770</v>
       </c>
-      <c r="K12">
+      <c r="J12">
         <f>9*60+20</f>
         <v>560</v>
       </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
       <c r="L12">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -3782,7 +3817,7 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3794,6 +3829,9 @@
         <v>0</v>
       </c>
       <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>0</v>
       </c>
     </row>
@@ -5899,10 +5937,13 @@
       </c>
       <c r="B102" s="1">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="C102">
         <v>246</v>
+      </c>
+      <c r="D102">
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -9381,44 +9422,38 @@
         <v>442</v>
       </c>
       <c r="B210" s="1">
-        <f t="shared" si="4"/>
-        <v>40.916666666666664</v>
-      </c>
-      <c r="C210">
-        <v>6</v>
-      </c>
-      <c r="D210">
-        <v>127</v>
-      </c>
-      <c r="E210">
-        <v>0</v>
-      </c>
-      <c r="F210">
+        <f xml:space="preserve"> AVERAGE(C210:BC210)</f>
+        <v>36</v>
+      </c>
+      <c r="C210" s="14">
         <v>86</v>
       </c>
-      <c r="G210">
-        <v>0</v>
-      </c>
-      <c r="H210">
+      <c r="D210" s="14">
+        <v>0</v>
+      </c>
+      <c r="E210" s="14">
         <v>9</v>
       </c>
-      <c r="I210">
-        <v>0</v>
-      </c>
-      <c r="J210">
-        <v>0</v>
-      </c>
-      <c r="K210">
+      <c r="F210" s="14">
+        <v>0</v>
+      </c>
+      <c r="G210" s="14">
+        <v>0</v>
+      </c>
+      <c r="H210" s="14">
         <v>29</v>
       </c>
-      <c r="L210">
-        <v>0</v>
-      </c>
-      <c r="M210" s="10">
+      <c r="I210" s="14">
+        <v>0</v>
+      </c>
+      <c r="J210" s="13">
         <v>3</v>
       </c>
-      <c r="N210" s="10">
+      <c r="K210" s="13">
         <v>231</v>
+      </c>
+      <c r="L210" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.3">
@@ -10342,10 +10377,13 @@
       </c>
       <c r="B241" s="1">
         <f t="shared" si="4"/>
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="C241">
         <v>319</v>
+      </c>
+      <c r="D241">
+        <v>101</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
@@ -10354,13 +10392,16 @@
       </c>
       <c r="B242" s="1">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C242">
         <v>56</v>
       </c>
       <c r="D242">
         <v>54</v>
+      </c>
+      <c r="E242">
+        <v>181</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
@@ -12324,7 +12365,7 @@
       </c>
       <c r="B312" s="1">
         <f t="shared" si="5"/>
-        <v>276.33333333333331</v>
+        <v>233.25</v>
       </c>
       <c r="C312">
         <f>8*60+48</f>
@@ -12336,6 +12377,9 @@
       <c r="E312">
         <v>5</v>
       </c>
+      <c r="F312">
+        <v>104</v>
+      </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
@@ -13426,7 +13470,7 @@
       </c>
       <c r="B354" s="1">
         <f t="shared" si="6"/>
-        <v>133.77777777777777</v>
+        <v>123.3</v>
       </c>
       <c r="C354">
         <v>504</v>
@@ -13454,6 +13498,9 @@
       </c>
       <c r="K354">
         <v>40</v>
+      </c>
+      <c r="L354">
+        <v>29</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -13552,7 +13599,7 @@
       </c>
       <c r="B358" s="1">
         <f t="shared" si="6"/>
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -13568,6 +13615,9 @@
       </c>
       <c r="G358">
         <v>2</v>
+      </c>
+      <c r="H358">
+        <v>27</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -13749,38 +13799,38 @@
         <v>610</v>
       </c>
       <c r="B365" s="1">
-        <f t="shared" si="6"/>
-        <v>129.5</v>
+        <f xml:space="preserve"> AVERAGE(C365:BC365)</f>
+        <v>127.1</v>
       </c>
       <c r="C365">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="D365">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="E365">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="F365">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G365">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="H365">
-        <v>271</v>
+        <v>70</v>
       </c>
       <c r="I365">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="J365">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K365">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="L365">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -13849,7 +13899,7 @@
       </c>
       <c r="B369" s="1">
         <f t="shared" si="6"/>
-        <v>153.85714285714286</v>
+        <v>155.625</v>
       </c>
       <c r="C369">
         <v>183</v>
@@ -13871,6 +13921,9 @@
       </c>
       <c r="I369">
         <v>232</v>
+      </c>
+      <c r="J369">
+        <v>168</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
@@ -15955,7 +16008,7 @@
         <v>696</v>
       </c>
       <c r="B447" s="1">
-        <f t="shared" ref="B447:B465" si="8" xml:space="preserve"> AVERAGE(C447:BC447)</f>
+        <f t="shared" ref="B447:B477" si="8" xml:space="preserve"> AVERAGE(C447:BC447)</f>
         <v>30</v>
       </c>
       <c r="C447">
@@ -16324,12 +16377,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>714</v>
       </c>
       <c r="B465" s="1">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> AVERAGE(C465:BC465)</f>
         <v>173.55555555555554</v>
       </c>
       <c r="C465">
@@ -16358,6 +16411,252 @@
       </c>
       <c r="K465">
         <v>311</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A466" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B466" s="1">
+        <f t="shared" si="8"/>
+        <v>39.4</v>
+      </c>
+      <c r="C466">
+        <v>52</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+      <c r="E466">
+        <v>2</v>
+      </c>
+      <c r="F466">
+        <v>22</v>
+      </c>
+      <c r="G466">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>716</v>
+      </c>
+      <c r="B467" s="1">
+        <f t="shared" si="8"/>
+        <v>115.33333333333333</v>
+      </c>
+      <c r="C467">
+        <v>3</v>
+      </c>
+      <c r="D467">
+        <v>2</v>
+      </c>
+      <c r="E467">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>717</v>
+      </c>
+      <c r="B468" s="1">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="C468">
+        <v>6</v>
+      </c>
+      <c r="D468">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>718</v>
+      </c>
+      <c r="B469" s="1">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="C469" s="8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>719</v>
+      </c>
+      <c r="B470" s="1">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="C470">
+        <v>7</v>
+      </c>
+      <c r="D470">
+        <v>33</v>
+      </c>
+      <c r="E470">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>720</v>
+      </c>
+      <c r="B471" s="1">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+      <c r="C471">
+        <v>416</v>
+      </c>
+      <c r="D471">
+        <v>4</v>
+      </c>
+      <c r="E471">
+        <v>47</v>
+      </c>
+      <c r="F471">
+        <v>91</v>
+      </c>
+      <c r="G471">
+        <v>17</v>
+      </c>
+      <c r="H471">
+        <v>287</v>
+      </c>
+      <c r="I471">
+        <v>148</v>
+      </c>
+      <c r="J471">
+        <v>0</v>
+      </c>
+      <c r="K471">
+        <v>0</v>
+      </c>
+      <c r="L471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>721</v>
+      </c>
+      <c r="B472" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>722</v>
+      </c>
+      <c r="B473" s="1">
+        <f t="shared" si="8"/>
+        <v>41.5</v>
+      </c>
+      <c r="C473">
+        <v>74</v>
+      </c>
+      <c r="D473">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>723</v>
+      </c>
+      <c r="B474" s="1">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="C474" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>724</v>
+      </c>
+      <c r="B475" s="1">
+        <f t="shared" si="8"/>
+        <v>24.5</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+      <c r="D475">
+        <v>113</v>
+      </c>
+      <c r="E475">
+        <v>11</v>
+      </c>
+      <c r="F475">
+        <v>62</v>
+      </c>
+      <c r="G475">
+        <v>3</v>
+      </c>
+      <c r="H475">
+        <v>5</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="J475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>725</v>
+      </c>
+      <c r="B476" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>2</v>
+      </c>
+      <c r="E476">
+        <v>6</v>
+      </c>
+      <c r="F476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>726</v>
+      </c>
+      <c r="B477" s="1">
+        <f t="shared" si="8"/>
+        <v>225.83333333333334</v>
+      </c>
+      <c r="C477">
+        <v>669</v>
+      </c>
+      <c r="D477">
+        <v>360</v>
+      </c>
+      <c r="E477">
+        <v>15</v>
+      </c>
+      <c r="F477">
+        <v>7</v>
+      </c>
+      <c r="G477">
+        <v>164</v>
+      </c>
+      <c r="H477">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -16368,10 +16667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
-  <dimension ref="A1:B465"/>
+  <dimension ref="A1:B477"/>
   <sheetViews>
-    <sheetView topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="B456" sqref="B456:B465"/>
+    <sheetView topLeftCell="A450" workbookViewId="0">
+      <selection activeCell="B465" sqref="B465:B477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16484,7 +16783,7 @@
       </c>
       <c r="B12">
         <f>Control!B12/'Fight Time'!B12</f>
-        <v>0.45651515151515154</v>
+        <v>0.375254730713246</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -16736,7 +17035,7 @@
       </c>
       <c r="B40">
         <f>Control!B40/'Fight Time'!B40</f>
-        <v>1.1261261261261261E-3</v>
+        <v>1.0230179028132994E-3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -17294,7 +17593,7 @@
       </c>
       <c r="B102">
         <f>Control!B102/'Fight Time'!B102</f>
-        <v>0.27333333333333332</v>
+        <v>0.23357664233576642</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -17618,7 +17917,7 @@
       </c>
       <c r="B138">
         <f>Control!B138/'Fight Time'!B138</f>
-        <v>0.19277777777777777</v>
+        <v>0.2960750853242321</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -17654,7 +17953,7 @@
       </c>
       <c r="B142">
         <f>Control!B142/'Fight Time'!B142</f>
-        <v>4.988009592326139E-2</v>
+        <v>4.4731182795698925E-2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -17969,7 +18268,7 @@
       </c>
       <c r="B177">
         <f>Control!B177/'Fight Time'!B177</f>
-        <v>0.16713464366893968</v>
+        <v>0.16573853089366217</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -18266,7 +18565,7 @@
       </c>
       <c r="B210">
         <f>Control!B210/'Fight Time'!B210</f>
-        <v>8.5243055555555544E-2</v>
+        <v>7.9295154185022032E-2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -18545,7 +18844,7 @@
       </c>
       <c r="B241">
         <f>Control!B241/'Fight Time'!B241</f>
-        <v>0.35444444444444445</v>
+        <v>0.23333333333333334</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -18554,7 +18853,7 @@
       </c>
       <c r="B242">
         <f>Control!B242/'Fight Time'!B242</f>
-        <v>7.3627844712182061E-2</v>
+        <v>0.12985274431057564</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -19184,7 +19483,7 @@
       </c>
       <c r="B312">
         <f>Control!B312/'Fight Time'!B312</f>
-        <v>0.33093812375249498</v>
+        <v>0.27505896226415094</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -19562,7 +19861,7 @@
       </c>
       <c r="B354">
         <f>Control!B354/'Fight Time'!B354</f>
-        <v>0.19002525252525251</v>
+        <v>0.18266666666666667</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -19598,7 +19897,7 @@
       </c>
       <c r="B358">
         <f>Control!B358/'Fight Time'!B358</f>
-        <v>2.8708133971291866E-3</v>
+        <v>1.2443438914027148E-2</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -19661,7 +19960,7 @@
       </c>
       <c r="B365">
         <f>Control!B365/'Fight Time'!B365</f>
-        <v>0.17595108695652173</v>
+        <v>0.17387140902872777</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -19697,7 +19996,7 @@
       </c>
       <c r="B369">
         <f>Control!B369/'Fight Time'!B369</f>
-        <v>0.38177951081176886</v>
+        <v>0.39599236641221375</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -20562,6 +20861,114 @@
       <c r="B465">
         <f>Control!B465/'Fight Time'!B465</f>
         <v>0.31103146156909595</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B466">
+        <f>Control!B466/'Fight Time'!B466</f>
+        <v>9.0574712643678154E-2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>716</v>
+      </c>
+      <c r="B467">
+        <f>Control!B467/'Fight Time'!B467</f>
+        <v>0.28337428337428339</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>717</v>
+      </c>
+      <c r="B468">
+        <f>Control!B468/'Fight Time'!B468</f>
+        <v>5.3803339517625233E-2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>718</v>
+      </c>
+      <c r="B469">
+        <f>Control!B469/'Fight Time'!B469</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>719</v>
+      </c>
+      <c r="B470">
+        <f>Control!B470/'Fight Time'!B470</f>
+        <v>4.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>720</v>
+      </c>
+      <c r="B471">
+        <f>Control!B471/'Fight Time'!B471</f>
+        <v>0.17844522968197879</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>721</v>
+      </c>
+      <c r="B472">
+        <f>Control!B472/'Fight Time'!B472</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>722</v>
+      </c>
+      <c r="B473">
+        <f>Control!B473/'Fight Time'!B473</f>
+        <v>7.6709796672828096E-2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>723</v>
+      </c>
+      <c r="B474">
+        <f>Control!B474/'Fight Time'!B474</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>724</v>
+      </c>
+      <c r="B475">
+        <f>Control!B475/'Fight Time'!B475</f>
+        <v>7.492354740061162E-2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>725</v>
+      </c>
+      <c r="B476">
+        <f>Control!B476/'Fight Time'!B476</f>
+        <v>4.048582995951417E-3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>726</v>
+      </c>
+      <c r="B477">
+        <f>Control!B477/'Fight Time'!B477</f>
+        <v>0.29832672831351831</v>
       </c>
     </row>
   </sheetData>
@@ -20571,10 +20978,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
-  <dimension ref="A1:AE465"/>
+  <dimension ref="A1:AE477"/>
   <sheetViews>
-    <sheetView topLeftCell="A404" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J416" sqref="J416"/>
+    <sheetView topLeftCell="A355" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J370" sqref="J370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20932,38 +21339,38 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>38.9</v>
+        <f>AVERAGE(C12:BA12)</f>
+        <v>40.1</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>114</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>32</v>
+      </c>
+      <c r="I12">
         <v>13</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>114</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>32</v>
-      </c>
       <c r="J12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L12">
-        <v>110</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
@@ -21779,7 +22186,7 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>16.8</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -21792,6 +22199,9 @@
       </c>
       <c r="F40">
         <v>66</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -23890,10 +24300,13 @@
       </c>
       <c r="B102" s="1">
         <f t="shared" si="1"/>
-        <v>231</v>
+        <v>122.5</v>
       </c>
       <c r="C102">
         <v>231</v>
+      </c>
+      <c r="D102">
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -27367,41 +27780,38 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <f t="shared" si="3"/>
-        <v>33.363636363636367</v>
+        <f>AVERAGE(C210:BA210)</f>
+        <v>36.6</v>
       </c>
       <c r="C210">
         <v>0</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F210">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G210">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="H210">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I210">
         <v>3</v>
       </c>
       <c r="J210">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="K210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L210">
         <v>0</v>
-      </c>
-      <c r="M210" s="11">
-        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.3">
@@ -28326,10 +28736,13 @@
       </c>
       <c r="B241" s="1">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C241">
         <v>119</v>
+      </c>
+      <c r="D241">
+        <v>181</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
@@ -28338,13 +28751,16 @@
       </c>
       <c r="B242" s="1">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>105.66666666666667</v>
       </c>
       <c r="C242">
         <v>0</v>
       </c>
       <c r="D242">
         <v>216</v>
+      </c>
+      <c r="E242">
+        <v>101</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
@@ -30295,7 +30711,7 @@
       </c>
       <c r="B312" s="1">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>243.75</v>
       </c>
       <c r="C312">
         <v>176</v>
@@ -30305,6 +30721,9 @@
       </c>
       <c r="E312">
         <v>6</v>
+      </c>
+      <c r="F312">
+        <v>615</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
@@ -31395,7 +31814,7 @@
       </c>
       <c r="B354" s="1">
         <f t="shared" si="5"/>
-        <v>145.5</v>
+        <v>129.33333333333334</v>
       </c>
       <c r="C354">
         <v>4</v>
@@ -31420,6 +31839,9 @@
       </c>
       <c r="J354">
         <v>236</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -31518,7 +31940,7 @@
       </c>
       <c r="B358" s="1">
         <f t="shared" si="5"/>
-        <v>245.2</v>
+        <v>282.83333333333331</v>
       </c>
       <c r="C358">
         <f>12*60+3</f>
@@ -31536,6 +31958,9 @@
       <c r="G358">
         <v>46</v>
       </c>
+      <c r="H358">
+        <v>471</v>
+      </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
@@ -31716,39 +32141,39 @@
         <v>610</v>
       </c>
       <c r="B365" s="1">
-        <f t="shared" si="5"/>
-        <v>198.3</v>
+        <f>AVERAGE(C365:BA365)</f>
+        <v>203.3</v>
       </c>
       <c r="C365">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="D365">
-        <v>39</v>
-      </c>
-      <c r="E365">
         <f>9*60+6</f>
         <v>546</v>
       </c>
+      <c r="E365">
+        <v>76</v>
+      </c>
       <c r="F365">
+        <v>155</v>
+      </c>
+      <c r="G365">
+        <v>278</v>
+      </c>
+      <c r="H365">
+        <v>152</v>
+      </c>
+      <c r="I365">
+        <v>362</v>
+      </c>
+      <c r="J365">
         <v>76</v>
       </c>
-      <c r="G365">
-        <v>155</v>
-      </c>
-      <c r="H365">
-        <v>278</v>
-      </c>
-      <c r="I365">
-        <v>152</v>
-      </c>
-      <c r="J365">
-        <v>362</v>
-      </c>
       <c r="K365">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L365">
-        <v>69</v>
+        <v>280</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -31817,7 +32242,7 @@
       </c>
       <c r="B369" s="1">
         <f t="shared" si="5"/>
-        <v>48.428571428571431</v>
+        <v>43.375</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -31839,6 +32264,9 @@
       </c>
       <c r="I369">
         <v>29</v>
+      </c>
+      <c r="J369">
+        <v>8</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
@@ -33774,7 +34202,7 @@
         <v>691</v>
       </c>
       <c r="B442" s="1">
-        <f t="shared" ref="B442:B465" si="7">AVERAGE(C442:BA442)</f>
+        <f t="shared" ref="B442:B477" si="7">AVERAGE(C442:BA442)</f>
         <v>97.6</v>
       </c>
       <c r="C442">
@@ -34279,7 +34707,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>714</v>
       </c>
@@ -34313,6 +34741,252 @@
       </c>
       <c r="K465">
         <v>201</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A466" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B466" s="1">
+        <f t="shared" si="7"/>
+        <v>100.8</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+      <c r="D466">
+        <v>9</v>
+      </c>
+      <c r="E466">
+        <v>48</v>
+      </c>
+      <c r="F466">
+        <v>256</v>
+      </c>
+      <c r="G466">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>716</v>
+      </c>
+      <c r="B467" s="1">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="C467">
+        <v>2</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>717</v>
+      </c>
+      <c r="B468" s="1">
+        <f t="shared" si="7"/>
+        <v>350.5</v>
+      </c>
+      <c r="C468">
+        <v>701</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>718</v>
+      </c>
+      <c r="B469" s="1">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="C469" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>719</v>
+      </c>
+      <c r="B470" s="1">
+        <f t="shared" si="7"/>
+        <v>48.666666666666664</v>
+      </c>
+      <c r="C470">
+        <v>73</v>
+      </c>
+      <c r="D470">
+        <v>40</v>
+      </c>
+      <c r="E470">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>720</v>
+      </c>
+      <c r="B471" s="1">
+        <f t="shared" si="7"/>
+        <v>13.1</v>
+      </c>
+      <c r="C471">
+        <v>72</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>2</v>
+      </c>
+      <c r="G471">
+        <v>37</v>
+      </c>
+      <c r="H471">
+        <v>10</v>
+      </c>
+      <c r="I471">
+        <v>1</v>
+      </c>
+      <c r="J471">
+        <v>0</v>
+      </c>
+      <c r="K471">
+        <v>5</v>
+      </c>
+      <c r="L471">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>721</v>
+      </c>
+      <c r="B472" s="1">
+        <f t="shared" si="7"/>
+        <v>302</v>
+      </c>
+      <c r="C472">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>722</v>
+      </c>
+      <c r="B473" s="1">
+        <f t="shared" si="7"/>
+        <v>39.5</v>
+      </c>
+      <c r="C473">
+        <v>79</v>
+      </c>
+      <c r="D473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>723</v>
+      </c>
+      <c r="B474" s="1">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="C474">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>724</v>
+      </c>
+      <c r="B475" s="1">
+        <f t="shared" si="7"/>
+        <v>88.375</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>41</v>
+      </c>
+      <c r="E475">
+        <v>24</v>
+      </c>
+      <c r="F475">
+        <v>0</v>
+      </c>
+      <c r="G475">
+        <v>0</v>
+      </c>
+      <c r="H475">
+        <v>0</v>
+      </c>
+      <c r="I475">
+        <v>631</v>
+      </c>
+      <c r="J475">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>725</v>
+      </c>
+      <c r="B476" s="1">
+        <f t="shared" si="7"/>
+        <v>6.5</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+      <c r="E476">
+        <v>24</v>
+      </c>
+      <c r="F476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>726</v>
+      </c>
+      <c r="B477" s="1">
+        <f t="shared" si="7"/>
+        <v>181.66666666666666</v>
+      </c>
+      <c r="C477">
+        <v>38</v>
+      </c>
+      <c r="D477">
+        <v>136</v>
+      </c>
+      <c r="E477">
+        <v>257</v>
+      </c>
+      <c r="F477">
+        <v>166</v>
+      </c>
+      <c r="G477">
+        <v>114</v>
+      </c>
+      <c r="H477">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -34322,10 +34996,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
-  <dimension ref="A1:B465"/>
+  <dimension ref="A1:B477"/>
   <sheetViews>
-    <sheetView topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="B456" sqref="B456:B465"/>
+    <sheetView topLeftCell="A456" workbookViewId="0">
+      <selection activeCell="B465" sqref="B465:B477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34438,7 +35112,7 @@
       </c>
       <c r="B12">
         <f>Controlled!B12/'Fight Time'!B12</f>
-        <v>5.8939393939393937E-2</v>
+        <v>5.8369723435225618E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -34690,7 +35364,7 @@
       </c>
       <c r="B40">
         <f>Controlled!B40/'Fight Time'!B40</f>
-        <v>4.72972972972973E-2</v>
+        <v>4.2966751918158567E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -35248,7 +35922,7 @@
       </c>
       <c r="B102">
         <f>Controlled!B102/'Fight Time'!B102</f>
-        <v>0.25666666666666665</v>
+        <v>0.22354014598540145</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -35572,7 +36246,7 @@
       </c>
       <c r="B138">
         <f>Controlled!B138/'Fight Time'!B138</f>
-        <v>9.4444444444444445E-3</v>
+        <v>1.4505119453924915E-2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -35608,7 +36282,7 @@
       </c>
       <c r="B142">
         <f>Controlled!B142/'Fight Time'!B142</f>
-        <v>1.0791366906474821E-2</v>
+        <v>9.6774193548387101E-3</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -35923,7 +36597,7 @@
       </c>
       <c r="B177">
         <f>Controlled!B177/'Fight Time'!B177</f>
-        <v>0.28185586308329991</v>
+        <v>0.27950145849907188</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -36220,7 +36894,7 @@
       </c>
       <c r="B210">
         <f>Controlled!B210/'Fight Time'!B210</f>
-        <v>6.9507575757575768E-2</v>
+        <v>8.0616740088105723E-2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -36499,7 +37173,7 @@
       </c>
       <c r="B241">
         <f>Controlled!B241/'Fight Time'!B241</f>
-        <v>0.13222222222222221</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -36508,7 +37182,7 @@
       </c>
       <c r="B242">
         <f>Controlled!B242/'Fight Time'!B242</f>
-        <v>0.14457831325301204</v>
+        <v>0.14145470771976798</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -37138,7 +37812,7 @@
       </c>
       <c r="B312">
         <f>Controlled!B312/'Fight Time'!B312</f>
-        <v>0.1437125748502994</v>
+        <v>0.28744103773584906</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -37516,7 +38190,7 @@
       </c>
       <c r="B354">
         <f>Controlled!B354/'Fight Time'!B354</f>
-        <v>0.20667613636363635</v>
+        <v>0.19160493827160496</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -37552,7 +38226,7 @@
       </c>
       <c r="B358">
         <f>Controlled!B358/'Fight Time'!B358</f>
-        <v>0.58660287081339713</v>
+        <v>0.63989441930618396</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -37615,7 +38289,7 @@
       </c>
       <c r="B365">
         <f>Controlled!B365/'Fight Time'!B365</f>
-        <v>0.26942934782608696</v>
+        <v>0.27811217510259917</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -37651,7 +38325,7 @@
       </c>
       <c r="B369">
         <f>Controlled!B369/'Fight Time'!B369</f>
-        <v>0.12017015242821695</v>
+        <v>0.11036895674300254</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -38516,6 +39190,114 @@
       <c r="B465">
         <f>Controlled!B465/'Fight Time'!B465</f>
         <v>0.27041019514137793</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B466">
+        <f>Controlled!B466/'Fight Time'!B466</f>
+        <v>0.23172413793103447</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>716</v>
+      </c>
+      <c r="B467">
+        <f>Controlled!B467/'Fight Time'!B467</f>
+        <v>0.16216216216216217</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>717</v>
+      </c>
+      <c r="B468">
+        <f>Controlled!B468/'Fight Time'!B468</f>
+        <v>0.65027829313543595</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>718</v>
+      </c>
+      <c r="B469">
+        <f>Controlled!B469/'Fight Time'!B469</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>719</v>
+      </c>
+      <c r="B470">
+        <f>Controlled!B470/'Fight Time'!B470</f>
+        <v>5.4074074074074073E-2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>720</v>
+      </c>
+      <c r="B471">
+        <f>Controlled!B471/'Fight Time'!B471</f>
+        <v>2.314487632508834E-2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>721</v>
+      </c>
+      <c r="B472">
+        <f>Controlled!B472/'Fight Time'!B472</f>
+        <v>0.33555555555555555</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>722</v>
+      </c>
+      <c r="B473">
+        <f>Controlled!B473/'Fight Time'!B473</f>
+        <v>7.3012939001848423E-2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>723</v>
+      </c>
+      <c r="B474">
+        <f>Controlled!B474/'Fight Time'!B474</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>724</v>
+      </c>
+      <c r="B475">
+        <f>Controlled!B475/'Fight Time'!B475</f>
+        <v>0.27025993883792049</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>725</v>
+      </c>
+      <c r="B476">
+        <f>Controlled!B476/'Fight Time'!B476</f>
+        <v>1.3157894736842105E-2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>726</v>
+      </c>
+      <c r="B477">
+        <f>Controlled!B477/'Fight Time'!B477</f>
+        <v>0.23998238661382651</v>
       </c>
     </row>
   </sheetData>
@@ -38525,10 +39307,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
-  <dimension ref="A1:C465"/>
+  <dimension ref="A1:C477"/>
   <sheetViews>
-    <sheetView topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+    <sheetView topLeftCell="A468" workbookViewId="0">
+      <selection activeCell="B370" sqref="B370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38639,7 +39421,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>660</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -38877,7 +39659,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>444</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -39413,7 +40195,7 @@
         <v>97</v>
       </c>
       <c r="B102">
-        <v>900</v>
+        <v>548</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -39714,7 +40496,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>900</v>
+        <v>586</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -39746,8 +40528,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <f>6*60+57</f>
-        <v>417</v>
+        <v>465</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -40049,8 +40830,8 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <f>13*60+51</f>
-        <v>831</v>
+        <f>13*60+58</f>
+        <v>838</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -40330,7 +41111,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>480</v>
+        <v>454</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -41191,8 +41972,8 @@
         <v>549</v>
       </c>
       <c r="B312">
-        <f>13*60+55</f>
-        <v>835</v>
+        <f>14*60+8</f>
+        <v>848</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -41548,8 +42329,7 @@
         <v>598</v>
       </c>
       <c r="B354">
-        <f>11*60+44</f>
-        <v>704</v>
+        <v>675</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -41584,8 +42364,7 @@
         <v>602</v>
       </c>
       <c r="B358">
-        <f>6*60+58</f>
-        <v>418</v>
+        <v>442</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -41644,8 +42423,8 @@
         <v>610</v>
       </c>
       <c r="B365">
-        <f>12*60+16</f>
-        <v>736</v>
+        <f>12*60+11</f>
+        <v>731</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -41678,7 +42457,7 @@
         <v>614</v>
       </c>
       <c r="B369">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -42490,6 +43269,103 @@
       </c>
       <c r="B465">
         <v>558</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B466">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>716</v>
+      </c>
+      <c r="B467">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>717</v>
+      </c>
+      <c r="B468">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>718</v>
+      </c>
+      <c r="B469">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>719</v>
+      </c>
+      <c r="B470">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>720</v>
+      </c>
+      <c r="B471">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>721</v>
+      </c>
+      <c r="B472">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>722</v>
+      </c>
+      <c r="B473">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>723</v>
+      </c>
+      <c r="B474">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>724</v>
+      </c>
+      <c r="B475">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>725</v>
+      </c>
+      <c r="B476">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>726</v>
+      </c>
+      <c r="B477">
+        <f>12*60+37</f>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -42501,10 +43377,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A347" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="H402" sqref="H402"/>
+      <selection pane="topRight" activeCell="AB372" sqref="AB372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43452,7 +44328,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>8</v>
@@ -43464,7 +44340,7 @@
         <v>0.31</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K14">
         <v>0.31</v>
@@ -43476,13 +44352,13 @@
         <v>0.38</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O14" s="8">
-        <v>2.89</v>
+        <v>2.82</v>
       </c>
       <c r="P14" s="8">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="Q14">
         <v>0.69</v>
@@ -43494,36 +44370,36 @@
         <v>0.12</v>
       </c>
       <c r="T14">
-        <v>3.38</v>
+        <v>3.21</v>
       </c>
       <c r="U14">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="V14">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="W14">
         <f>Control!B12</f>
-        <v>301.3</v>
+        <v>257.8</v>
       </c>
       <c r="X14">
         <f>'Ctrl pct'!B12</f>
-        <v>0.45651515151515154</v>
+        <v>0.375254730713246</v>
       </c>
       <c r="Y14">
         <f>Controlled!B12</f>
-        <v>38.9</v>
+        <v>40.1</v>
       </c>
       <c r="Z14">
         <f>'Controlled pct'!B12</f>
-        <v>5.8939393939393937E-2</v>
+        <v>5.8369723435225618E-2</v>
       </c>
       <c r="AA14">
         <f>'Fight Time'!B12</f>
-        <v>660</v>
+        <v>687</v>
       </c>
       <c r="AB14">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
@@ -45460,13 +46336,13 @@
         <v>14</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -45478,19 +46354,19 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="O42" s="8">
-        <v>7.84</v>
+        <v>5.09</v>
       </c>
       <c r="P42" s="8">
-        <v>4.43</v>
+        <v>3.47</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -45499,30 +46375,30 @@
         <v>0</v>
       </c>
       <c r="V42">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="W42">
         <f>Control!B40</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="X42">
         <f>'Ctrl pct'!B40</f>
-        <v>1.1261261261261261E-3</v>
+        <v>1.0230179028132994E-3</v>
       </c>
       <c r="Y42">
         <f>Controlled!B40</f>
-        <v>21</v>
+        <v>16.8</v>
       </c>
       <c r="Z42">
         <f>'Controlled pct'!B40</f>
-        <v>4.72972972972973E-2</v>
+        <v>4.2966751918158567E-2</v>
       </c>
       <c r="AA42">
         <f>'Fight Time'!B40</f>
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
@@ -46008,11 +46884,59 @@
         <f>Control!A49</f>
         <v>Luana Carolina</v>
       </c>
+      <c r="B51">
+        <v>32</v>
+      </c>
+      <c r="C51">
+        <v>171</v>
+      </c>
+      <c r="D51">
+        <v>175</v>
+      </c>
+      <c r="E51">
+        <v>11</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
       <c r="G51">
         <v>6</v>
       </c>
       <c r="H51">
         <v>3</v>
+      </c>
+      <c r="I51">
+        <v>0.27</v>
+      </c>
+      <c r="J51">
+        <v>0.25</v>
+      </c>
+      <c r="K51">
+        <v>0.09</v>
+      </c>
+      <c r="L51">
+        <v>0.25</v>
+      </c>
+      <c r="M51">
+        <v>0.64</v>
+      </c>
+      <c r="N51">
+        <v>0.5</v>
+      </c>
+      <c r="O51" s="8">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="P51" s="8">
+        <v>3.54</v>
+      </c>
+      <c r="T51">
+        <v>0.34</v>
+      </c>
+      <c r="U51">
+        <v>0.37</v>
+      </c>
+      <c r="V51">
+        <v>0.74</v>
       </c>
       <c r="W51">
         <f>Control!B49</f>
@@ -46033,6 +46957,9 @@
       <c r="AA51">
         <f>'Fight Time'!B49</f>
         <v>799</v>
+      </c>
+      <c r="AB51">
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.3">
@@ -49090,6 +50017,15 @@
         <f>Control!A102</f>
         <v>Josias Musasa</v>
       </c>
+      <c r="B104">
+        <v>26</v>
+      </c>
+      <c r="C104">
+        <v>172</v>
+      </c>
+      <c r="D104">
+        <v>199</v>
+      </c>
       <c r="E104">
         <v>8</v>
       </c>
@@ -49102,25 +50038,61 @@
       <c r="H104">
         <v>1</v>
       </c>
+      <c r="I104">
+        <v>0.88</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>0.13</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104" s="8">
+        <v>3.45</v>
+      </c>
+      <c r="P104" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T104">
+        <v>0.82</v>
+      </c>
+      <c r="U104">
+        <v>0.5</v>
+      </c>
+      <c r="V104">
+        <v>0.77</v>
+      </c>
       <c r="W104">
         <f>Control!B102</f>
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="X104">
         <f>'Ctrl pct'!B102</f>
-        <v>0.27333333333333332</v>
+        <v>0.23357664233576642</v>
       </c>
       <c r="Y104">
         <f>Controlled!B102</f>
-        <v>231</v>
+        <v>122.5</v>
       </c>
       <c r="Z104">
         <f>'Controlled pct'!B102</f>
-        <v>0.25666666666666665</v>
+        <v>0.22354014598540145</v>
       </c>
       <c r="AA104">
         <f>'Fight Time'!B102</f>
-        <v>900</v>
+        <v>548</v>
+      </c>
+      <c r="AB104">
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.3">
@@ -51475,6 +52447,15 @@
         <f>Control!A138</f>
         <v>Alexia Thainara</v>
       </c>
+      <c r="B140">
+        <v>27</v>
+      </c>
+      <c r="C140">
+        <v>163</v>
+      </c>
+      <c r="D140">
+        <v>170</v>
+      </c>
       <c r="E140">
         <v>12</v>
       </c>
@@ -51485,6 +52466,39 @@
         <v>1</v>
       </c>
       <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0.67</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>0.33</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140" s="8">
+        <v>5.73</v>
+      </c>
+      <c r="P140" s="8">
+        <v>2.82</v>
+      </c>
+      <c r="T140">
+        <v>3.07</v>
+      </c>
+      <c r="U140">
+        <v>1</v>
+      </c>
+      <c r="V140">
         <v>0</v>
       </c>
       <c r="W140">
@@ -51493,7 +52507,7 @@
       </c>
       <c r="X140">
         <f>'Ctrl pct'!B138</f>
-        <v>0.19277777777777777</v>
+        <v>0.2960750853242321</v>
       </c>
       <c r="Y140">
         <f>Controlled!B138</f>
@@ -51501,11 +52515,14 @@
       </c>
       <c r="Z140">
         <f>'Controlled pct'!B138</f>
-        <v>9.4444444444444445E-3</v>
+        <v>1.4505119453924915E-2</v>
       </c>
       <c r="AA140">
         <f>'Fight Time'!B138</f>
-        <v>900</v>
+        <v>586</v>
+      </c>
+      <c r="AB140">
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.3">
@@ -51717,6 +52734,15 @@
         <f>Control!A142</f>
         <v>Carlos Ulberg</v>
       </c>
+      <c r="B144">
+        <v>34</v>
+      </c>
+      <c r="C144">
+        <v>193</v>
+      </c>
+      <c r="D144">
+        <v>196</v>
+      </c>
       <c r="E144">
         <v>12</v>
       </c>
@@ -51728,6 +52754,39 @@
       </c>
       <c r="H144">
         <v>1</v>
+      </c>
+      <c r="I144">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>0.08</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0.33</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144" s="8">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="P144" s="8">
+        <v>4.21</v>
+      </c>
+      <c r="T144">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U144">
+        <v>0.6</v>
+      </c>
+      <c r="V144">
+        <v>0.85</v>
       </c>
       <c r="W144">
         <f>Control!B142</f>
@@ -51735,7 +52794,7 @@
       </c>
       <c r="X144">
         <f>'Ctrl pct'!B142</f>
-        <v>4.988009592326139E-2</v>
+        <v>4.4731182795698925E-2</v>
       </c>
       <c r="Y144">
         <f>Controlled!B142</f>
@@ -51743,11 +52802,14 @@
       </c>
       <c r="Z144">
         <f>'Controlled pct'!B142</f>
-        <v>1.0791366906474821E-2</v>
+        <v>9.6774193548387101E-3</v>
       </c>
       <c r="AA144">
         <f>'Fight Time'!B142</f>
-        <v>417</v>
+        <v>465</v>
+      </c>
+      <c r="AB144">
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.3">
@@ -53641,6 +54703,15 @@
         <f>Control!A177</f>
         <v>Loma Lookboonmee</v>
       </c>
+      <c r="B179">
+        <v>29</v>
+      </c>
+      <c r="C179">
+        <v>155</v>
+      </c>
+      <c r="D179">
+        <v>156</v>
+      </c>
       <c r="E179">
         <v>10</v>
       </c>
@@ -53652,6 +54723,39 @@
       </c>
       <c r="H179">
         <v>2</v>
+      </c>
+      <c r="I179">
+        <v>0.1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0.1</v>
+      </c>
+      <c r="L179">
+        <v>0.33</v>
+      </c>
+      <c r="M179">
+        <v>0.8</v>
+      </c>
+      <c r="N179">
+        <v>0.67</v>
+      </c>
+      <c r="O179" s="8">
+        <v>3.87</v>
+      </c>
+      <c r="P179" s="8">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="T179">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="U179">
+        <v>0.51</v>
+      </c>
+      <c r="V179">
+        <v>0.73</v>
       </c>
       <c r="W179">
         <f>Control!B177</f>
@@ -53659,7 +54763,7 @@
       </c>
       <c r="X179">
         <f>'Ctrl pct'!B177</f>
-        <v>0.16713464366893968</v>
+        <v>0.16573853089366217</v>
       </c>
       <c r="Y179">
         <f>Controlled!B177</f>
@@ -53667,11 +54771,14 @@
       </c>
       <c r="Z179">
         <f>'Controlled pct'!B177</f>
-        <v>0.28185586308329991</v>
+        <v>0.27950145849907188</v>
       </c>
       <c r="AA179">
         <f>'Fight Time'!B177</f>
-        <v>831</v>
+        <v>838</v>
+      </c>
+      <c r="AB179">
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.3">
@@ -55528,6 +56635,15 @@
         <f>Control!A210</f>
         <v>Dominick Reyes</v>
       </c>
+      <c r="B212">
+        <v>35</v>
+      </c>
+      <c r="C212">
+        <v>193</v>
+      </c>
+      <c r="D212">
+        <v>196</v>
+      </c>
       <c r="E212">
         <v>15</v>
       </c>
@@ -55540,25 +56656,61 @@
       <c r="H212">
         <v>4</v>
       </c>
+      <c r="I212">
+        <v>0.67</v>
+      </c>
+      <c r="J212">
+        <v>0.75</v>
+      </c>
+      <c r="K212">
+        <v>0.13</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>0.2</v>
+      </c>
+      <c r="N212">
+        <v>0.25</v>
+      </c>
+      <c r="O212" s="8">
+        <v>5.58</v>
+      </c>
+      <c r="P212" s="8">
+        <v>3.54</v>
+      </c>
+      <c r="T212">
+        <v>0.31</v>
+      </c>
+      <c r="U212">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V212">
+        <v>0.82</v>
+      </c>
       <c r="W212">
         <f>Control!B210</f>
-        <v>40.916666666666664</v>
+        <v>36</v>
       </c>
       <c r="X212">
         <f>'Ctrl pct'!B210</f>
-        <v>8.5243055555555544E-2</v>
+        <v>7.9295154185022032E-2</v>
       </c>
       <c r="Y212">
         <f>Controlled!B210</f>
-        <v>33.363636363636367</v>
+        <v>36.6</v>
       </c>
       <c r="Z212">
         <f>'Controlled pct'!B210</f>
-        <v>6.9507575757575768E-2</v>
+        <v>8.0616740088105723E-2</v>
       </c>
       <c r="AA212">
         <f>'Fight Time'!B210</f>
-        <v>480</v>
+        <v>454</v>
+      </c>
+      <c r="AB212">
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.3">
@@ -57075,6 +58227,15 @@
         <f>Control!A241</f>
         <v>Ivan Erslan</v>
       </c>
+      <c r="B243">
+        <v>33</v>
+      </c>
+      <c r="C243">
+        <v>188</v>
+      </c>
+      <c r="D243">
+        <v>184</v>
+      </c>
       <c r="E243">
         <v>14</v>
       </c>
@@ -57087,25 +58248,61 @@
       <c r="H243">
         <v>2</v>
       </c>
+      <c r="I243">
+        <v>0.71</v>
+      </c>
+      <c r="J243">
+        <v>0.2</v>
+      </c>
+      <c r="K243">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L243">
+        <v>0.2</v>
+      </c>
+      <c r="M243">
+        <v>0.21</v>
+      </c>
+      <c r="N243">
+        <v>0.6</v>
+      </c>
+      <c r="O243" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P243" s="8">
+        <v>5.17</v>
+      </c>
+      <c r="T243">
+        <v>0.5</v>
+      </c>
+      <c r="U243">
+        <v>0.2</v>
+      </c>
+      <c r="V243">
+        <v>0.64</v>
+      </c>
       <c r="W243">
         <f>Control!B241</f>
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="X243">
         <f>'Ctrl pct'!B241</f>
-        <v>0.35444444444444445</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="Y243">
         <f>Controlled!B241</f>
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="Z243">
         <f>'Controlled pct'!B241</f>
-        <v>0.13222222222222221</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AA243">
         <f>'Fight Time'!B241</f>
         <v>900</v>
+      </c>
+      <c r="AB243">
+        <v>-2</v>
       </c>
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.3">
@@ -57113,6 +58310,15 @@
         <f>Control!A242</f>
         <v>Navajo Stirling</v>
       </c>
+      <c r="B244">
+        <v>27</v>
+      </c>
+      <c r="C244">
+        <v>193</v>
+      </c>
+      <c r="D244">
+        <v>201</v>
+      </c>
       <c r="E244">
         <v>7</v>
       </c>
@@ -57125,25 +58331,61 @@
       <c r="H244">
         <v>0</v>
       </c>
+      <c r="I244">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>0.43</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244" s="8">
+        <v>6.43</v>
+      </c>
+      <c r="P244" s="8">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="T244">
+        <v>1.2</v>
+      </c>
+      <c r="U244">
+        <v>0.3</v>
+      </c>
+      <c r="V244">
+        <v>0.78</v>
+      </c>
       <c r="W244">
         <f>Control!B242</f>
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="X244">
         <f>'Ctrl pct'!B242</f>
-        <v>7.3627844712182061E-2</v>
+        <v>0.12985274431057564</v>
       </c>
       <c r="Y244">
         <f>Controlled!B242</f>
-        <v>108</v>
+        <v>105.66666666666667</v>
       </c>
       <c r="Z244">
         <f>'Controlled pct'!B242</f>
-        <v>0.14457831325301204</v>
+        <v>0.14145470771976798</v>
       </c>
       <c r="AA244">
         <f>'Fight Time'!B242</f>
         <v>747</v>
+      </c>
+      <c r="AB244">
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.3">
@@ -61711,10 +62953,10 @@
         <v>0</v>
       </c>
       <c r="O303" s="8">
-        <v>6.28</v>
+        <v>5.84</v>
       </c>
       <c r="P303" s="8">
-        <v>6.31</v>
+        <v>6</v>
       </c>
       <c r="Q303">
         <v>0.64</v>
@@ -61726,10 +62968,10 @@
         <v>0.15</v>
       </c>
       <c r="T303">
-        <v>1.06</v>
+        <v>1.26</v>
       </c>
       <c r="U303">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="V303">
         <v>1</v>
@@ -61755,7 +62997,7 @@
         <v>640</v>
       </c>
       <c r="AB303">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:28" x14ac:dyDescent="0.3">
@@ -62696,19 +63938,19 @@
         <v>12</v>
       </c>
       <c r="F314">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G314">
         <v>3</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I314">
         <v>0.25</v>
       </c>
       <c r="J314">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="K314">
         <v>0.25</v>
@@ -62720,13 +63962,13 @@
         <v>0.5</v>
       </c>
       <c r="N314">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="O314" s="8">
-        <v>4.26</v>
+        <v>3.5</v>
       </c>
       <c r="P314" s="8">
-        <v>2.25</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="Q314">
         <v>0.68</v>
@@ -62738,36 +63980,36 @@
         <v>0.16</v>
       </c>
       <c r="T314">
-        <v>2.16</v>
+        <v>1.7</v>
       </c>
       <c r="U314">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="V314">
-        <v>0.72</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W314">
         <f>Control!B312</f>
-        <v>276.33333333333331</v>
+        <v>233.25</v>
       </c>
       <c r="X314">
         <f>'Ctrl pct'!B312</f>
-        <v>0.33093812375249498</v>
+        <v>0.27505896226415094</v>
       </c>
       <c r="Y314">
         <f>Controlled!B312</f>
-        <v>120</v>
+        <v>243.75</v>
       </c>
       <c r="Z314">
         <f>'Controlled pct'!B312</f>
-        <v>0.1437125748502994</v>
+        <v>0.28744103773584906</v>
       </c>
       <c r="AA314">
         <f>'Fight Time'!B312</f>
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="AB314">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:28" x14ac:dyDescent="0.3">
@@ -66359,7 +67601,7 @@
         <v>Jake Matthews</v>
       </c>
       <c r="B356">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C356">
         <v>180</v>
@@ -66368,37 +67610,37 @@
         <v>185</v>
       </c>
       <c r="E356">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F356">
         <v>7</v>
       </c>
       <c r="G356">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H356">
         <v>7</v>
       </c>
       <c r="I356">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="J356">
         <v>0.14000000000000001</v>
       </c>
       <c r="K356">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="L356">
         <v>0.43</v>
       </c>
       <c r="M356">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="N356">
         <v>0.43</v>
       </c>
       <c r="O356" s="8">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="P356" s="8">
         <v>2.63</v>
@@ -66413,36 +67655,36 @@
         <v>0.11</v>
       </c>
       <c r="T356">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="U356">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="V356">
         <v>0.67</v>
       </c>
       <c r="W356">
         <f>Control!B354</f>
-        <v>133.77777777777777</v>
+        <v>123.3</v>
       </c>
       <c r="X356">
         <f>'Ctrl pct'!B354</f>
-        <v>0.19002525252525251</v>
+        <v>0.18266666666666667</v>
       </c>
       <c r="Y356">
         <f>Controlled!B354</f>
-        <v>145.5</v>
+        <v>129.33333333333334</v>
       </c>
       <c r="Z356">
         <f>'Controlled pct'!B354</f>
-        <v>0.20667613636363635</v>
+        <v>0.19160493827160496</v>
       </c>
       <c r="AA356">
         <f>'Fight Time'!B354</f>
-        <v>704</v>
+        <v>675</v>
       </c>
       <c r="AB356">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:28" x14ac:dyDescent="0.3">
@@ -66727,7 +67969,7 @@
         <v>Junior Tafa</v>
       </c>
       <c r="B360">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C360">
         <v>191</v>
@@ -66739,37 +67981,37 @@
         <v>6</v>
       </c>
       <c r="F360">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G360">
         <v>2</v>
       </c>
       <c r="H360">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I360">
         <v>1</v>
       </c>
       <c r="J360">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="K360">
         <v>0</v>
       </c>
       <c r="L360">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="M360">
         <v>0</v>
       </c>
       <c r="N360">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="O360" s="8">
-        <v>3.36</v>
+        <v>3.19</v>
       </c>
       <c r="P360" s="8">
-        <v>2.84</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="Q360">
         <v>0.84</v>
@@ -66787,30 +68029,30 @@
         <v>0</v>
       </c>
       <c r="V360">
-        <v>0.77</v>
+        <v>0.69</v>
       </c>
       <c r="W360">
         <f>Control!B358</f>
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="X360">
         <f>'Ctrl pct'!B358</f>
-        <v>2.8708133971291866E-3</v>
+        <v>1.2443438914027148E-2</v>
       </c>
       <c r="Y360">
         <f>Controlled!B358</f>
-        <v>245.2</v>
+        <v>282.83333333333331</v>
       </c>
       <c r="Z360">
         <f>'Controlled pct'!B358</f>
-        <v>0.58660287081339713</v>
+        <v>0.63989441930618396</v>
       </c>
       <c r="AA360">
         <f>'Fight Time'!B358</f>
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="AB360">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:28" x14ac:dyDescent="0.3">
@@ -67370,7 +68612,7 @@
         <v>Neil Magny</v>
       </c>
       <c r="B367">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C367">
         <v>191</v>
@@ -67379,72 +68621,72 @@
         <v>203</v>
       </c>
       <c r="E367">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F367">
         <v>13</v>
       </c>
       <c r="G367">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H367">
         <v>12</v>
       </c>
       <c r="I367">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="J367">
         <v>0.31</v>
       </c>
       <c r="K367">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="L367">
         <v>0.46</v>
       </c>
       <c r="M367">
-        <v>0.59</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N367">
         <v>0.23</v>
       </c>
       <c r="O367" s="8">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="P367" s="8">
-        <v>2.48</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="T367">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="U367">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="V367">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W367">
         <f>Control!B365</f>
-        <v>129.5</v>
+        <v>127.1</v>
       </c>
       <c r="X367">
         <f>'Ctrl pct'!B365</f>
-        <v>0.17595108695652173</v>
+        <v>0.17387140902872777</v>
       </c>
       <c r="Y367">
         <f>Controlled!B365</f>
-        <v>198.3</v>
+        <v>203.3</v>
       </c>
       <c r="Z367">
         <f>'Controlled pct'!B365</f>
-        <v>0.26942934782608696</v>
+        <v>0.27811217510259917</v>
       </c>
       <c r="AA367">
         <f>'Fight Time'!B365</f>
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="AB367">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:28" x14ac:dyDescent="0.3">
@@ -67711,43 +68953,43 @@
         <v>188</v>
       </c>
       <c r="E371">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F371">
         <v>4</v>
       </c>
       <c r="G371">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H371">
         <v>4</v>
       </c>
       <c r="I371">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="J371">
         <v>0.5</v>
       </c>
       <c r="K371">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="L371">
         <v>0.5</v>
       </c>
       <c r="M371">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="N371">
         <v>0</v>
       </c>
       <c r="O371" s="8">
-        <v>4.37</v>
+        <v>4.17</v>
       </c>
       <c r="P371" s="8">
-        <v>3.63</v>
+        <v>3.68</v>
       </c>
       <c r="T371">
-        <v>3.86</v>
+        <v>4.2</v>
       </c>
       <c r="U371">
         <v>0.52</v>
@@ -67757,26 +68999,26 @@
       </c>
       <c r="W371">
         <f>Control!B369</f>
-        <v>153.85714285714286</v>
+        <v>155.625</v>
       </c>
       <c r="X371">
         <f>'Ctrl pct'!B369</f>
-        <v>0.38177951081176886</v>
+        <v>0.39599236641221375</v>
       </c>
       <c r="Y371">
         <f>Controlled!B369</f>
-        <v>48.428571428571431</v>
+        <v>43.375</v>
       </c>
       <c r="Z371">
         <f>'Controlled pct'!B369</f>
-        <v>0.12017015242821695</v>
+        <v>0.11036895674300254</v>
       </c>
       <c r="AA371">
         <f>'Fight Time'!B369</f>
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="AB371">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:28" x14ac:dyDescent="0.3">
@@ -75751,138 +76993,562 @@
       </c>
     </row>
     <row r="468" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A468" t="str">
+        <f>Control!A466</f>
+        <v>Tom Nolan</v>
+      </c>
+      <c r="B468">
+        <v>25</v>
+      </c>
+      <c r="C468">
+        <v>191</v>
+      </c>
+      <c r="D468">
+        <v>185</v>
+      </c>
+      <c r="E468">
+        <v>9</v>
+      </c>
+      <c r="F468">
+        <v>1</v>
+      </c>
+      <c r="G468">
+        <v>3</v>
+      </c>
+      <c r="H468">
+        <v>1</v>
+      </c>
+      <c r="I468">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J468">
+        <v>1</v>
+      </c>
+      <c r="K468">
+        <v>0</v>
+      </c>
+      <c r="L468">
+        <v>0</v>
+      </c>
+      <c r="M468">
+        <v>0.44</v>
+      </c>
+      <c r="N468">
+        <v>0</v>
+      </c>
+      <c r="O468" s="8">
+        <v>5.82</v>
+      </c>
+      <c r="P468" s="8">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="T468">
+        <v>0.41</v>
+      </c>
+      <c r="U468">
+        <v>0.12</v>
+      </c>
+      <c r="V468">
+        <v>0.66</v>
+      </c>
       <c r="W468">
         <f>Control!B466</f>
-        <v>0</v>
+        <v>39.4</v>
       </c>
       <c r="X468">
         <f>'Ctrl pct'!B466</f>
-        <v>0</v>
+        <v>9.0574712643678154E-2</v>
       </c>
       <c r="Y468">
         <f>Controlled!B466</f>
-        <v>0</v>
+        <v>100.8</v>
       </c>
       <c r="Z468">
         <f>'Controlled pct'!B466</f>
-        <v>0</v>
+        <v>0.23172413793103447</v>
       </c>
       <c r="AA468">
         <f>'Fight Time'!B466</f>
-        <v>0</v>
+        <v>435</v>
+      </c>
+      <c r="AB468">
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A469" t="str">
+        <f>Control!A467</f>
+        <v>Charlie Campbell</v>
+      </c>
+      <c r="B469">
+        <v>30</v>
+      </c>
+      <c r="C469">
+        <v>183</v>
+      </c>
+      <c r="D469">
+        <v>184</v>
+      </c>
+      <c r="E469">
+        <v>9</v>
+      </c>
+      <c r="F469">
+        <v>2</v>
+      </c>
+      <c r="G469">
+        <v>2</v>
+      </c>
+      <c r="H469">
+        <v>0</v>
+      </c>
+      <c r="I469">
+        <v>0.67</v>
+      </c>
+      <c r="J469">
+        <v>0.5</v>
+      </c>
+      <c r="K469">
+        <v>0</v>
+      </c>
+      <c r="L469">
+        <v>0</v>
+      </c>
+      <c r="M469">
+        <v>0.33</v>
+      </c>
+      <c r="N469">
+        <v>0.5</v>
+      </c>
+      <c r="O469" s="8">
+        <v>5.55</v>
+      </c>
+      <c r="P469" s="8">
+        <v>3.73</v>
+      </c>
+      <c r="T469">
+        <v>2.95</v>
+      </c>
+      <c r="U469">
+        <v>0.4</v>
+      </c>
+      <c r="V469">
+        <v>0.71</v>
+      </c>
       <c r="W469">
         <f>Control!B467</f>
-        <v>0</v>
+        <v>115.33333333333333</v>
       </c>
       <c r="X469">
         <f>'Ctrl pct'!B467</f>
-        <v>0</v>
+        <v>0.28337428337428339</v>
       </c>
       <c r="Y469">
         <f>Controlled!B467</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="Z469">
         <f>'Controlled pct'!B467</f>
-        <v>0</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="AA469">
         <f>'Fight Time'!B467</f>
-        <v>0</v>
+        <v>407</v>
+      </c>
+      <c r="AB469">
+        <v>3</v>
       </c>
     </row>
     <row r="470" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A470" t="str">
+        <f>Control!A468</f>
+        <v>Cam Rowston</v>
+      </c>
+      <c r="B470">
+        <v>30</v>
+      </c>
+      <c r="C470">
+        <v>191</v>
+      </c>
+      <c r="D470">
+        <v>191</v>
+      </c>
+      <c r="E470">
+        <v>12</v>
+      </c>
+      <c r="F470">
+        <v>3</v>
+      </c>
+      <c r="G470">
+        <v>0</v>
+      </c>
+      <c r="H470">
+        <v>0</v>
+      </c>
+      <c r="I470">
+        <v>0.33</v>
+      </c>
+      <c r="J470">
+        <v>0.33</v>
+      </c>
+      <c r="K470">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L470">
+        <v>0</v>
+      </c>
+      <c r="M470">
+        <v>0.08</v>
+      </c>
+      <c r="N470">
+        <v>0.67</v>
+      </c>
+      <c r="O470" s="8">
+        <v>3.23</v>
+      </c>
+      <c r="P470" s="8">
+        <v>2.34</v>
+      </c>
+      <c r="T470">
+        <v>0.83</v>
+      </c>
+      <c r="U470">
+        <v>0.5</v>
+      </c>
+      <c r="V470">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="W470">
         <f>Control!B468</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="X470">
         <f>'Ctrl pct'!B468</f>
-        <v>0</v>
+        <v>5.3803339517625233E-2</v>
       </c>
       <c r="Y470">
         <f>Controlled!B468</f>
-        <v>0</v>
+        <v>350.5</v>
       </c>
       <c r="Z470">
         <f>'Controlled pct'!B468</f>
-        <v>0</v>
+        <v>0.65027829313543595</v>
       </c>
       <c r="AA470">
         <f>'Fight Time'!B468</f>
-        <v>0</v>
+        <v>539</v>
+      </c>
+      <c r="AB470">
+        <v>4</v>
       </c>
     </row>
     <row r="471" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A471" t="str">
+        <f>Control!A469</f>
+        <v>Michelle Montague</v>
+      </c>
+      <c r="B471">
+        <v>31</v>
+      </c>
+      <c r="C471">
+        <v>175</v>
+      </c>
+      <c r="D471">
+        <v>175</v>
+      </c>
+      <c r="E471">
+        <v>6</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+      <c r="G471">
+        <v>0</v>
+      </c>
+      <c r="H471">
+        <v>0</v>
+      </c>
+      <c r="I471">
+        <v>0</v>
+      </c>
+      <c r="J471">
+        <v>0</v>
+      </c>
+      <c r="K471">
+        <v>1</v>
+      </c>
+      <c r="L471">
+        <v>0</v>
+      </c>
+      <c r="M471">
+        <v>0</v>
+      </c>
+      <c r="N471">
+        <v>0</v>
+      </c>
+      <c r="O471" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P471" s="8">
+        <v>3</v>
+      </c>
+      <c r="T471">
+        <v>3.2</v>
+      </c>
+      <c r="U471">
+        <v>0.6</v>
+      </c>
+      <c r="V471">
+        <v>0.9</v>
+      </c>
       <c r="W471">
         <f>Control!B469</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="X471">
         <f>'Ctrl pct'!B469</f>
-        <v>0</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="Y471">
         <f>Controlled!B469</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z471">
         <f>'Controlled pct'!B469</f>
-        <v>0</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="AA471">
         <f>'Fight Time'!B469</f>
-        <v>0</v>
+        <v>450</v>
+      </c>
+      <c r="AB471">
+        <v>6</v>
       </c>
     </row>
     <row r="472" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A472" t="str">
+        <f>Control!A470</f>
+        <v>Rolando Bedoya</v>
+      </c>
+      <c r="B472">
+        <v>28</v>
+      </c>
+      <c r="C472">
+        <v>180</v>
+      </c>
+      <c r="D472">
+        <v>191</v>
+      </c>
+      <c r="E472">
+        <v>14</v>
+      </c>
+      <c r="F472">
+        <v>4</v>
+      </c>
+      <c r="G472">
+        <v>0</v>
+      </c>
+      <c r="H472">
+        <v>3</v>
+      </c>
+      <c r="I472">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J472">
+        <v>0</v>
+      </c>
+      <c r="K472">
+        <v>0.21</v>
+      </c>
+      <c r="L472">
+        <v>0</v>
+      </c>
+      <c r="M472">
+        <v>0.5</v>
+      </c>
+      <c r="N472">
+        <v>1</v>
+      </c>
+      <c r="O472" s="8">
+        <v>7.29</v>
+      </c>
+      <c r="P472" s="8">
+        <v>6.38</v>
+      </c>
+      <c r="T472">
+        <v>0</v>
+      </c>
+      <c r="U472">
+        <v>0</v>
+      </c>
+      <c r="V472">
+        <v>0.33</v>
+      </c>
       <c r="W472">
         <f>Control!B470</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="X472">
         <f>'Ctrl pct'!B470</f>
-        <v>0</v>
+        <v>4.1111111111111112E-2</v>
       </c>
       <c r="Y472">
         <f>Controlled!B470</f>
-        <v>0</v>
+        <v>48.666666666666664</v>
       </c>
       <c r="Z472">
         <f>'Controlled pct'!B470</f>
-        <v>0</v>
+        <v>5.4074074074074073E-2</v>
       </c>
       <c r="AA472">
         <f>'Fight Time'!B470</f>
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="AB472">
+        <v>-3</v>
       </c>
     </row>
     <row r="473" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A473" t="str">
+        <f>Control!A471</f>
+        <v>Jamie Mullarkey</v>
+      </c>
+      <c r="B473">
+        <v>31</v>
+      </c>
+      <c r="C473">
+        <v>183</v>
+      </c>
+      <c r="D473">
+        <v>188</v>
+      </c>
+      <c r="E473">
+        <v>17</v>
+      </c>
+      <c r="F473">
+        <v>8</v>
+      </c>
+      <c r="G473">
+        <v>5</v>
+      </c>
+      <c r="H473">
+        <v>6</v>
+      </c>
+      <c r="I473">
+        <v>0.59</v>
+      </c>
+      <c r="J473">
+        <v>0.75</v>
+      </c>
+      <c r="K473">
+        <v>0.18</v>
+      </c>
+      <c r="L473">
+        <v>0</v>
+      </c>
+      <c r="M473">
+        <v>0.24</v>
+      </c>
+      <c r="N473">
+        <v>0.25</v>
+      </c>
+      <c r="O473" s="8">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="P473" s="8">
+        <v>4.53</v>
+      </c>
+      <c r="T473">
+        <v>2.31</v>
+      </c>
+      <c r="U473">
+        <v>0.34</v>
+      </c>
+      <c r="V473">
+        <v>0.78</v>
+      </c>
       <c r="W473">
         <f>Control!B471</f>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="X473">
         <f>'Ctrl pct'!B471</f>
-        <v>0</v>
+        <v>0.17844522968197879</v>
       </c>
       <c r="Y473">
         <f>Controlled!B471</f>
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="Z473">
         <f>'Controlled pct'!B471</f>
-        <v>0</v>
+        <v>2.314487632508834E-2</v>
       </c>
       <c r="AA473">
         <f>'Fight Time'!B471</f>
-        <v>0</v>
+        <v>566</v>
+      </c>
+      <c r="AB473">
+        <v>-2</v>
       </c>
     </row>
     <row r="474" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A474" t="str">
+        <f>Control!A472</f>
+        <v>Colby Thicknesse</v>
+      </c>
+      <c r="B474">
+        <v>26</v>
+      </c>
+      <c r="C474">
+        <v>170</v>
+      </c>
+      <c r="D474">
+        <v>175</v>
+      </c>
+      <c r="E474">
+        <v>7</v>
+      </c>
+      <c r="F474">
+        <v>1</v>
+      </c>
+      <c r="G474">
+        <v>0</v>
+      </c>
+      <c r="H474">
+        <v>1</v>
+      </c>
+      <c r="I474">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J474">
+        <v>0</v>
+      </c>
+      <c r="K474">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L474">
+        <v>0</v>
+      </c>
+      <c r="M474">
+        <v>0.43</v>
+      </c>
+      <c r="N474">
+        <v>1</v>
+      </c>
+      <c r="O474" s="8">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="P474" s="8">
+        <v>2.73</v>
+      </c>
+      <c r="T474">
+        <v>0</v>
+      </c>
+      <c r="U474">
+        <v>0</v>
+      </c>
+      <c r="V474">
+        <v>0.5</v>
+      </c>
       <c r="W474">
         <f>Control!B472</f>
         <v>0</v>
@@ -75893,125 +77559,433 @@
       </c>
       <c r="Y474">
         <f>Controlled!B472</f>
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="Z474">
         <f>'Controlled pct'!B472</f>
-        <v>0</v>
+        <v>0.33555555555555555</v>
       </c>
       <c r="AA474">
         <f>'Fight Time'!B472</f>
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="AB474">
+        <v>-1</v>
       </c>
     </row>
     <row r="475" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A475" t="str">
+        <f>Control!A473</f>
+        <v>Jonathan Micallef</v>
+      </c>
+      <c r="B475">
+        <v>26</v>
+      </c>
+      <c r="C475">
+        <v>183</v>
+      </c>
+      <c r="D475">
+        <v>196</v>
+      </c>
+      <c r="E475">
+        <v>8</v>
+      </c>
+      <c r="F475">
+        <v>1</v>
+      </c>
+      <c r="G475">
+        <v>1</v>
+      </c>
+      <c r="H475">
+        <v>0</v>
+      </c>
+      <c r="I475">
+        <v>0.25</v>
+      </c>
+      <c r="J475">
+        <v>1</v>
+      </c>
+      <c r="K475">
+        <v>0.38</v>
+      </c>
+      <c r="L475">
+        <v>0</v>
+      </c>
+      <c r="M475">
+        <v>0.38</v>
+      </c>
+      <c r="N475">
+        <v>0</v>
+      </c>
+      <c r="O475" s="8">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="P475" s="8">
+        <v>4</v>
+      </c>
+      <c r="T475">
+        <v>0.83</v>
+      </c>
+      <c r="U475">
+        <v>0.5</v>
+      </c>
+      <c r="V475">
+        <v>0.5</v>
+      </c>
       <c r="W475">
         <f>Control!B473</f>
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="X475">
         <f>'Ctrl pct'!B473</f>
-        <v>0</v>
+        <v>7.6709796672828096E-2</v>
       </c>
       <c r="Y475">
         <f>Controlled!B473</f>
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="Z475">
         <f>'Controlled pct'!B473</f>
-        <v>0</v>
+        <v>7.3012939001848423E-2</v>
       </c>
       <c r="AA475">
         <f>'Fight Time'!B473</f>
-        <v>0</v>
+        <v>541</v>
+      </c>
+      <c r="AB475">
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A476" t="str">
+        <f>Control!A474</f>
+        <v>Louie Sutherland</v>
+      </c>
+      <c r="B476">
+        <v>31</v>
+      </c>
+      <c r="C476">
+        <v>191</v>
+      </c>
+      <c r="D476">
+        <v>193</v>
+      </c>
+      <c r="E476">
+        <v>10</v>
+      </c>
+      <c r="F476">
+        <v>3</v>
+      </c>
+      <c r="G476">
+        <v>0</v>
+      </c>
+      <c r="H476">
+        <v>0</v>
+      </c>
+      <c r="I476">
+        <v>0.8</v>
+      </c>
+      <c r="J476">
+        <v>0</v>
+      </c>
+      <c r="K476">
+        <v>0</v>
+      </c>
+      <c r="L476">
+        <v>0</v>
+      </c>
+      <c r="M476">
+        <v>0.2</v>
+      </c>
+      <c r="N476">
+        <v>1</v>
+      </c>
+      <c r="O476" s="8">
+        <v>4</v>
+      </c>
+      <c r="P476" s="8">
+        <v>3</v>
+      </c>
+      <c r="T476">
+        <v>0.5</v>
+      </c>
+      <c r="U476">
+        <v>0.3</v>
+      </c>
+      <c r="V476">
+        <v>0.7</v>
+      </c>
       <c r="W476">
         <f>Control!B474</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="X476">
         <f>'Ctrl pct'!B474</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y476">
         <f>Controlled!B474</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z476">
         <f>'Controlled pct'!B474</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AA476">
         <f>'Fight Time'!B474</f>
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="AB476">
+        <v>4</v>
       </c>
     </row>
     <row r="477" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A477" t="str">
+        <f>Control!A475</f>
+        <v>Justin Tafa</v>
+      </c>
+      <c r="B477">
+        <v>31</v>
+      </c>
+      <c r="C477">
+        <v>183</v>
+      </c>
+      <c r="D477">
+        <v>188</v>
+      </c>
+      <c r="E477">
+        <v>7</v>
+      </c>
+      <c r="F477">
+        <v>5</v>
+      </c>
+      <c r="G477">
+        <v>4</v>
+      </c>
+      <c r="H477">
+        <v>5</v>
+      </c>
+      <c r="I477">
+        <v>1</v>
+      </c>
+      <c r="J477">
+        <v>0.4</v>
+      </c>
+      <c r="K477">
+        <v>0</v>
+      </c>
+      <c r="L477">
+        <v>0</v>
+      </c>
+      <c r="M477">
+        <v>0</v>
+      </c>
+      <c r="N477">
+        <v>0.6</v>
+      </c>
+      <c r="O477" s="8">
+        <v>4.05</v>
+      </c>
+      <c r="P477" s="8">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="T477">
+        <v>0</v>
+      </c>
+      <c r="U477">
+        <v>0</v>
+      </c>
+      <c r="V477">
+        <v>0.53</v>
+      </c>
       <c r="W477">
         <f>Control!B475</f>
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="X477">
         <f>'Ctrl pct'!B475</f>
-        <v>0</v>
+        <v>7.492354740061162E-2</v>
       </c>
       <c r="Y477">
         <f>Controlled!B475</f>
-        <v>0</v>
+        <v>88.375</v>
       </c>
       <c r="Z477">
         <f>'Controlled pct'!B475</f>
-        <v>0</v>
+        <v>0.27025993883792049</v>
       </c>
       <c r="AA477">
         <f>'Fight Time'!B475</f>
-        <v>0</v>
+        <v>327</v>
+      </c>
+      <c r="AB477">
+        <v>-2</v>
       </c>
     </row>
     <row r="478" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A478" t="str">
+        <f>Control!A476</f>
+        <v>Ramon Tavares</v>
+      </c>
+      <c r="B478">
+        <v>31</v>
+      </c>
+      <c r="C478">
+        <v>173</v>
+      </c>
+      <c r="D478">
+        <v>178</v>
+      </c>
+      <c r="E478">
+        <v>10</v>
+      </c>
+      <c r="F478">
+        <v>3</v>
+      </c>
+      <c r="G478">
+        <v>1</v>
+      </c>
+      <c r="H478">
+        <v>1</v>
+      </c>
+      <c r="I478">
+        <v>0.5</v>
+      </c>
+      <c r="J478">
+        <v>0.67</v>
+      </c>
+      <c r="K478">
+        <v>0.3</v>
+      </c>
+      <c r="L478">
+        <v>0</v>
+      </c>
+      <c r="M478">
+        <v>0.2</v>
+      </c>
+      <c r="N478">
+        <v>0.33</v>
+      </c>
+      <c r="O478" s="8">
+        <v>4.62</v>
+      </c>
+      <c r="P478" s="8">
+        <v>7.41</v>
+      </c>
+      <c r="T478">
+        <v>0</v>
+      </c>
+      <c r="U478">
+        <v>0</v>
+      </c>
+      <c r="V478">
+        <v>1</v>
+      </c>
       <c r="W478">
         <f>Control!B476</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X478">
         <f>'Ctrl pct'!B476</f>
-        <v>0</v>
+        <v>4.048582995951417E-3</v>
       </c>
       <c r="Y478">
         <f>Controlled!B476</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Z478">
         <f>'Controlled pct'!B476</f>
-        <v>0</v>
+        <v>1.3157894736842105E-2</v>
       </c>
       <c r="AA478">
         <f>'Fight Time'!B476</f>
-        <v>0</v>
+        <v>494</v>
+      </c>
+      <c r="AB478">
+        <v>-1</v>
       </c>
     </row>
     <row r="479" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A479" t="str">
+        <f>Control!A477</f>
+        <v>Jack Jenkins</v>
+      </c>
+      <c r="B479">
+        <v>31</v>
+      </c>
+      <c r="C479">
+        <v>170</v>
+      </c>
+      <c r="D479">
+        <v>173</v>
+      </c>
+      <c r="E479">
+        <v>13</v>
+      </c>
+      <c r="F479">
+        <v>4</v>
+      </c>
+      <c r="G479">
+        <v>3</v>
+      </c>
+      <c r="H479">
+        <v>2</v>
+      </c>
+      <c r="I479">
+        <v>0.46</v>
+      </c>
+      <c r="J479">
+        <v>0.25</v>
+      </c>
+      <c r="K479">
+        <v>0.23</v>
+      </c>
+      <c r="L479">
+        <v>0.75</v>
+      </c>
+      <c r="M479">
+        <v>0.31</v>
+      </c>
+      <c r="N479">
+        <v>0</v>
+      </c>
+      <c r="O479" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="P479" s="8">
+        <v>2.97</v>
+      </c>
+      <c r="T479">
+        <v>1.78</v>
+      </c>
+      <c r="U479">
+        <v>0.64</v>
+      </c>
+      <c r="V479">
+        <v>0.67</v>
+      </c>
       <c r="W479">
         <f>Control!B477</f>
-        <v>0</v>
+        <v>225.83333333333334</v>
       </c>
       <c r="X479">
         <f>'Ctrl pct'!B477</f>
-        <v>0</v>
+        <v>0.29832672831351831</v>
       </c>
       <c r="Y479">
         <f>Controlled!B477</f>
-        <v>0</v>
+        <v>181.66666666666666</v>
       </c>
       <c r="Z479">
         <f>'Controlled pct'!B477</f>
-        <v>0</v>
+        <v>0.23998238661382651</v>
       </c>
       <c r="AA479">
         <f>'Fight Time'!B477</f>
-        <v>0</v>
+        <v>757</v>
+      </c>
+      <c r="AB479">
+        <v>-1</v>
       </c>
     </row>
     <row r="480" spans="1:28" x14ac:dyDescent="0.3">

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E622FB8-6CDA-4E9D-A4BC-AB65B9047A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A249E7-775D-44A5-9534-F73D021F9A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="739">
   <si>
     <t>Khaos</t>
   </si>
@@ -2212,6 +2212,42 @@
   <si>
     <t>Jack Jenkins</t>
   </si>
+  <si>
+    <t>Veronica Hardy</t>
+  </si>
+  <si>
+    <t>Brogan Walker</t>
+  </si>
+  <si>
+    <t>Ramiz Brajimaj</t>
+  </si>
+  <si>
+    <t>Austin Vanderford</t>
+  </si>
+  <si>
+    <t>Punahele Soriano</t>
+  </si>
+  <si>
+    <t>Jakub Wiklacz</t>
+  </si>
+  <si>
+    <t>Yana Santos</t>
+  </si>
+  <si>
+    <t>Farid Basharat</t>
+  </si>
+  <si>
+    <t>Andre Muniz</t>
+  </si>
+  <si>
+    <t>Abus Magomedov</t>
+  </si>
+  <si>
+    <t>Jiri Prochazka</t>
+  </si>
+  <si>
+    <t>Cory Sandhagen</t>
+  </si>
 </sst>
 </file>
 
@@ -2639,10 +2675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
-  <dimension ref="A1:AE477"/>
+  <dimension ref="A1:AE489"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D241" sqref="D241"/>
+    <sheetView topLeftCell="A361" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E383" sqref="E383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2652,7 +2688,7 @@
     <col min="13" max="25" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>275</v>
       </c>
@@ -2688,7 +2724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>276</v>
       </c>
@@ -2716,7 +2752,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2755,7 +2791,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>645</v>
       </c>
@@ -2776,7 +2812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>277</v>
       </c>
@@ -2803,7 +2839,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>278</v>
       </c>
@@ -2824,7 +2860,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2844,7 +2880,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2886,7 +2922,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2901,7 +2937,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>279</v>
       </c>
@@ -2922,7 +2958,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>283</v>
       </c>
@@ -2951,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>280</v>
       </c>
@@ -2993,7 +3029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>281</v>
       </c>
@@ -3026,7 +3062,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>282</v>
       </c>
@@ -3049,55 +3085,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>284</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="1"/>
-        <v>92.769230769230774</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>597</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>33</v>
-      </c>
-      <c r="G15">
+        <f xml:space="preserve"> AVERAGE(C15:BC15)</f>
+        <v>58.9</v>
+      </c>
+      <c r="C15" s="14">
         <v>4</v>
       </c>
-      <c r="H15">
+      <c r="D15" s="14">
         <v>3</v>
       </c>
-      <c r="I15">
+      <c r="E15" s="14">
         <v>111</v>
       </c>
-      <c r="J15">
+      <c r="F15" s="14">
         <v>154</v>
       </c>
-      <c r="K15">
+      <c r="G15" s="14">
         <v>68</v>
       </c>
-      <c r="L15">
+      <c r="H15" s="14">
         <v>41</v>
       </c>
-      <c r="M15" s="10">
+      <c r="I15" s="13">
         <v>49</v>
       </c>
-      <c r="N15" s="10">
+      <c r="J15" s="13">
         <v>141</v>
       </c>
-      <c r="O15" s="10">
+      <c r="K15" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L15" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>581</v>
       </c>
@@ -3243,49 +3270,45 @@
         <v>287</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="1"/>
-        <v>232.54545454545453</v>
-      </c>
-      <c r="C21">
-        <f>360+38</f>
-        <v>398</v>
-      </c>
-      <c r="D21">
+        <f xml:space="preserve"> AVERAGE(C21:BC21)</f>
+        <v>216</v>
+      </c>
+      <c r="C21" s="14">
         <f>240+23</f>
         <v>263</v>
       </c>
-      <c r="E21">
+      <c r="D21" s="14">
         <f>360+54</f>
         <v>414</v>
       </c>
-      <c r="F21">
+      <c r="E21" s="14">
         <f>120+51</f>
         <v>171</v>
       </c>
-      <c r="G21">
+      <c r="F21" s="14">
         <f>240+29</f>
         <v>269</v>
       </c>
-      <c r="H21">
+      <c r="G21" s="14">
         <f>360+21</f>
         <v>381</v>
       </c>
-      <c r="I21">
+      <c r="H21" s="14">
         <f>240+52</f>
         <v>292</v>
       </c>
-      <c r="J21">
+      <c r="I21" s="14">
         <f>120+55</f>
         <v>175</v>
       </c>
-      <c r="K21">
+      <c r="J21" s="14">
         <f>68</f>
         <v>68</v>
       </c>
-      <c r="L21">
+      <c r="K21" s="14">
         <v>127</v>
       </c>
-      <c r="M21" s="10">
+      <c r="L21" s="13">
         <v>0</v>
       </c>
     </row>
@@ -4995,47 +5018,38 @@
         <v>328</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" si="2"/>
-        <v>35.230769230769234</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
+        <f xml:space="preserve"> AVERAGE(C74:BC74)</f>
+        <v>30.4</v>
+      </c>
+      <c r="C74" s="14">
+        <v>64</v>
+      </c>
+      <c r="D74" s="14">
+        <v>71</v>
+      </c>
+      <c r="E74" s="14">
+        <v>90</v>
+      </c>
+      <c r="F74" s="14">
+        <v>13</v>
+      </c>
+      <c r="G74" s="14">
+        <v>1</v>
+      </c>
+      <c r="H74" s="14">
+        <v>6</v>
+      </c>
+      <c r="I74" s="13">
         <v>8</v>
       </c>
-      <c r="E74">
-        <v>176</v>
-      </c>
-      <c r="F74">
-        <v>9</v>
-      </c>
-      <c r="G74">
-        <v>64</v>
-      </c>
-      <c r="H74">
-        <v>71</v>
-      </c>
-      <c r="I74">
-        <v>90</v>
-      </c>
-      <c r="J74">
-        <v>13</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74">
-        <v>6</v>
-      </c>
-      <c r="M74" s="10">
-        <v>8</v>
-      </c>
-      <c r="N74" s="10">
-        <v>0</v>
-      </c>
-      <c r="O74" s="10">
+      <c r="J74" s="13">
+        <v>0</v>
+      </c>
+      <c r="K74" s="13">
         <v>12</v>
+      </c>
+      <c r="L74" s="13">
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
@@ -5668,53 +5682,38 @@
         <v>345</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" si="2"/>
-        <v>206.66666666666666</v>
-      </c>
-      <c r="C92">
-        <v>402</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92">
-        <v>348</v>
-      </c>
-      <c r="F92">
-        <v>334</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
+        <f xml:space="preserve"> AVERAGE(C92:BC92)</f>
+        <v>201.4</v>
+      </c>
+      <c r="C92" s="14">
         <v>5</v>
       </c>
-      <c r="I92">
+      <c r="D92" s="14">
         <v>359</v>
       </c>
-      <c r="J92">
+      <c r="E92" s="14">
         <v>105</v>
       </c>
-      <c r="K92">
+      <c r="F92" s="14">
         <v>215</v>
       </c>
-      <c r="L92">
+      <c r="G92" s="14">
         <v>146</v>
       </c>
-      <c r="M92" s="10">
+      <c r="H92" s="13">
         <f>660+20</f>
         <v>680</v>
       </c>
-      <c r="N92" s="10">
+      <c r="I92" s="13">
         <v>66</v>
       </c>
-      <c r="O92" s="10">
+      <c r="J92" s="13">
         <v>5</v>
       </c>
-      <c r="P92" s="10">
+      <c r="K92" s="13">
         <v>91</v>
       </c>
-      <c r="Q92" s="10">
+      <c r="L92" s="13">
         <v>342</v>
       </c>
     </row>
@@ -5723,40 +5722,37 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <f t="shared" si="2"/>
-        <v>12.636363636363637</v>
-      </c>
-      <c r="C93">
-        <v>4</v>
-      </c>
-      <c r="D93">
+        <f xml:space="preserve"> AVERAGE(C93:BC93)</f>
+        <v>13.5</v>
+      </c>
+      <c r="C93" s="14">
         <v>77</v>
       </c>
-      <c r="E93">
+      <c r="D93" s="14">
         <v>3</v>
       </c>
-      <c r="F93">
+      <c r="E93" s="14">
         <v>31</v>
       </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
+      <c r="F93" s="14">
+        <v>0</v>
+      </c>
+      <c r="G93" s="14">
         <v>6</v>
       </c>
-      <c r="I93">
+      <c r="H93" s="14">
         <v>8</v>
       </c>
-      <c r="J93">
+      <c r="I93" s="14">
         <v>7</v>
       </c>
-      <c r="K93">
+      <c r="J93" s="14">
         <v>3</v>
       </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93" s="10">
+      <c r="K93" s="14">
+        <v>0</v>
+      </c>
+      <c r="L93" s="13">
         <v>0</v>
       </c>
     </row>
@@ -8835,52 +8831,37 @@
         <v>427</v>
       </c>
       <c r="B195" s="1">
-        <f t="shared" si="4"/>
-        <v>66.13333333333334</v>
-      </c>
-      <c r="C195">
-        <v>1</v>
-      </c>
-      <c r="D195">
-        <v>239</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <v>165</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-      <c r="H195">
+        <f xml:space="preserve"> AVERAGE(C195:BC195)</f>
+        <v>58.7</v>
+      </c>
+      <c r="C195" s="14">
         <v>21</v>
       </c>
-      <c r="I195">
+      <c r="D195" s="14">
         <v>2</v>
       </c>
-      <c r="J195">
+      <c r="E195" s="14">
         <v>29</v>
       </c>
-      <c r="K195">
+      <c r="F195" s="14">
         <v>84</v>
       </c>
-      <c r="L195">
+      <c r="G195" s="14">
         <v>47</v>
       </c>
-      <c r="M195" s="10">
+      <c r="H195" s="13">
         <v>4</v>
       </c>
-      <c r="N195" s="10">
+      <c r="I195" s="13">
         <v>181</v>
       </c>
-      <c r="O195" s="10">
-        <v>0</v>
-      </c>
-      <c r="P195" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q195" s="10">
+      <c r="J195" s="13">
+        <v>0</v>
+      </c>
+      <c r="K195" s="13">
+        <v>0</v>
+      </c>
+      <c r="L195" s="13">
         <v>219</v>
       </c>
     </row>
@@ -10278,7 +10259,7 @@
       </c>
       <c r="B238" s="1">
         <f t="shared" si="4"/>
-        <v>248.33333333333334</v>
+        <v>277.75</v>
       </c>
       <c r="C238">
         <v>46</v>
@@ -10288,6 +10269,9 @@
       </c>
       <c r="E238">
         <v>647</v>
+      </c>
+      <c r="F238">
+        <v>366</v>
       </c>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
@@ -10922,43 +10906,37 @@
         <v>492</v>
       </c>
       <c r="B262" s="1">
-        <f t="shared" si="5"/>
-        <v>181.75</v>
-      </c>
-      <c r="C262">
-        <v>331</v>
-      </c>
-      <c r="D262">
-        <v>27</v>
-      </c>
-      <c r="E262">
+        <f xml:space="preserve"> AVERAGE(C262:BC262)</f>
+        <v>182.3</v>
+      </c>
+      <c r="C262" s="14">
         <v>197</v>
       </c>
-      <c r="F262">
+      <c r="D262" s="14">
         <v>347</v>
       </c>
-      <c r="G262">
+      <c r="E262" s="14">
         <v>22</v>
       </c>
-      <c r="H262">
+      <c r="F262" s="14">
         <v>228</v>
       </c>
-      <c r="I262">
+      <c r="G262" s="14">
         <v>78</v>
       </c>
-      <c r="J262">
+      <c r="H262" s="14">
         <v>454</v>
       </c>
-      <c r="K262">
+      <c r="I262" s="14">
         <v>208</v>
       </c>
-      <c r="L262">
+      <c r="J262" s="14">
         <v>148</v>
       </c>
-      <c r="M262" s="10">
+      <c r="K262" s="13">
         <v>108</v>
       </c>
-      <c r="N262" s="10">
+      <c r="L262" s="13">
         <v>33</v>
       </c>
     </row>
@@ -11396,7 +11374,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="C277" s="9">
+      <c r="C277" s="14">
         <v>0</v>
       </c>
     </row>
@@ -11565,7 +11543,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="C283" s="9">
+      <c r="C283" s="14">
         <v>0</v>
       </c>
     </row>
@@ -11694,39 +11672,39 @@
         <v>523</v>
       </c>
       <c r="B288" s="1">
-        <f t="shared" si="5"/>
-        <v>330.8</v>
+        <f xml:space="preserve"> AVERAGE(C288:BC288)</f>
+        <v>335.7</v>
       </c>
       <c r="C288">
-        <v>340</v>
-      </c>
-      <c r="D288">
         <f>9*60+15</f>
         <v>555</v>
       </c>
+      <c r="D288">
+        <v>224</v>
+      </c>
       <c r="E288">
-        <v>224</v>
+        <v>102</v>
       </c>
       <c r="F288">
-        <v>102</v>
+        <v>360</v>
       </c>
       <c r="G288">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="H288">
-        <v>306</v>
+        <v>413</v>
       </c>
       <c r="I288">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="J288">
-        <v>263</v>
+        <v>603</v>
       </c>
       <c r="K288">
-        <v>603</v>
+        <v>142</v>
       </c>
       <c r="L288">
-        <v>142</v>
+        <v>389</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
@@ -12710,35 +12688,35 @@
         <v>565</v>
       </c>
       <c r="B327" s="1">
-        <f t="shared" si="6"/>
-        <v>18.2</v>
+        <f xml:space="preserve"> AVERAGE(C327:BC327)</f>
+        <v>17.7</v>
       </c>
       <c r="C327">
+        <v>68</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>15</v>
+      </c>
+      <c r="H327">
         <v>5</v>
       </c>
-      <c r="D327">
-        <v>68</v>
-      </c>
-      <c r="E327">
-        <v>0</v>
-      </c>
-      <c r="F327">
-        <v>0</v>
-      </c>
-      <c r="G327">
-        <v>0</v>
-      </c>
-      <c r="H327">
-        <v>15</v>
-      </c>
       <c r="I327">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J327">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="K327">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="L327">
         <v>0</v>
@@ -14274,13 +14252,16 @@
       </c>
       <c r="B382" s="1">
         <f t="shared" si="6"/>
-        <v>4.5</v>
+        <v>54</v>
       </c>
       <c r="C382">
         <v>9</v>
       </c>
       <c r="D382">
         <v>0</v>
+      </c>
+      <c r="E382">
+        <v>153</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">
@@ -16008,7 +15989,7 @@
         <v>696</v>
       </c>
       <c r="B447" s="1">
-        <f t="shared" ref="B447:B477" si="8" xml:space="preserve"> AVERAGE(C447:BC447)</f>
+        <f t="shared" ref="B447:B490" si="8" xml:space="preserve"> AVERAGE(C447:BC447)</f>
         <v>30</v>
       </c>
       <c r="C447">
@@ -16657,6 +16638,315 @@
       </c>
       <c r="H477">
         <v>140</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A478" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B478" s="1">
+        <f t="shared" si="8"/>
+        <v>112.6</v>
+      </c>
+      <c r="C478">
+        <v>12</v>
+      </c>
+      <c r="D478">
+        <v>456</v>
+      </c>
+      <c r="E478">
+        <v>94</v>
+      </c>
+      <c r="F478">
+        <v>1</v>
+      </c>
+      <c r="G478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>728</v>
+      </c>
+      <c r="B479" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="C479">
+        <v>76</v>
+      </c>
+      <c r="D479">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>729</v>
+      </c>
+      <c r="B480" s="1">
+        <f t="shared" si="8"/>
+        <v>66.428571428571431</v>
+      </c>
+      <c r="C480">
+        <v>13</v>
+      </c>
+      <c r="D480">
+        <v>0</v>
+      </c>
+      <c r="E480">
+        <v>30</v>
+      </c>
+      <c r="F480">
+        <v>93</v>
+      </c>
+      <c r="G480">
+        <v>224</v>
+      </c>
+      <c r="H480">
+        <v>3</v>
+      </c>
+      <c r="I480">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>730</v>
+      </c>
+      <c r="B481" s="1">
+        <f t="shared" si="8"/>
+        <v>441</v>
+      </c>
+      <c r="C481">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>731</v>
+      </c>
+      <c r="B482" s="1">
+        <f t="shared" si="8"/>
+        <v>103.5</v>
+      </c>
+      <c r="C482">
+        <v>38</v>
+      </c>
+      <c r="D482">
+        <v>21</v>
+      </c>
+      <c r="E482">
+        <v>97</v>
+      </c>
+      <c r="F482">
+        <v>4</v>
+      </c>
+      <c r="G482">
+        <v>6</v>
+      </c>
+      <c r="H482">
+        <v>0</v>
+      </c>
+      <c r="I482">
+        <v>658</v>
+      </c>
+      <c r="J482">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>732</v>
+      </c>
+      <c r="B483" s="1">
+        <f t="shared" si="8"/>
+        <v>140</v>
+      </c>
+      <c r="C483" s="8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>733</v>
+      </c>
+      <c r="B484" s="1">
+        <f t="shared" si="8"/>
+        <v>219.14285714285714</v>
+      </c>
+      <c r="C484">
+        <f>13*60+16</f>
+        <v>796</v>
+      </c>
+      <c r="D484">
+        <v>309</v>
+      </c>
+      <c r="E484">
+        <v>11</v>
+      </c>
+      <c r="F484">
+        <v>79</v>
+      </c>
+      <c r="G484">
+        <v>233</v>
+      </c>
+      <c r="H484">
+        <v>60</v>
+      </c>
+      <c r="I484">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>734</v>
+      </c>
+      <c r="B485" s="1">
+        <f t="shared" si="8"/>
+        <v>299.5</v>
+      </c>
+      <c r="C485">
+        <v>328</v>
+      </c>
+      <c r="D485">
+        <v>195</v>
+      </c>
+      <c r="E485">
+        <v>418</v>
+      </c>
+      <c r="F485">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>735</v>
+      </c>
+      <c r="B486" s="1">
+        <f t="shared" si="8"/>
+        <v>152.25</v>
+      </c>
+      <c r="C486">
+        <v>2</v>
+      </c>
+      <c r="D486">
+        <v>70</v>
+      </c>
+      <c r="E486">
+        <v>138</v>
+      </c>
+      <c r="F486">
+        <v>312</v>
+      </c>
+      <c r="G486">
+        <v>15</v>
+      </c>
+      <c r="H486">
+        <v>107</v>
+      </c>
+      <c r="I486">
+        <v>574</v>
+      </c>
+      <c r="J486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>736</v>
+      </c>
+      <c r="B487" s="1">
+        <f t="shared" si="8"/>
+        <v>169.66666666666666</v>
+      </c>
+      <c r="C487">
+        <v>2</v>
+      </c>
+      <c r="D487">
+        <v>23</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <f>11*60+56</f>
+        <v>716</v>
+      </c>
+      <c r="G487">
+        <v>216</v>
+      </c>
+      <c r="H487">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>737</v>
+      </c>
+      <c r="B488" s="1">
+        <f t="shared" si="8"/>
+        <v>94.571428571428569</v>
+      </c>
+      <c r="C488">
+        <v>2</v>
+      </c>
+      <c r="D488">
+        <v>95</v>
+      </c>
+      <c r="E488">
+        <v>269</v>
+      </c>
+      <c r="F488">
+        <v>165</v>
+      </c>
+      <c r="G488">
+        <v>38</v>
+      </c>
+      <c r="H488">
+        <v>71</v>
+      </c>
+      <c r="I488">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>738</v>
+      </c>
+      <c r="B489" s="1">
+        <f t="shared" si="8"/>
+        <v>217.8</v>
+      </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+      <c r="D489">
+        <v>4</v>
+      </c>
+      <c r="E489">
+        <v>2</v>
+      </c>
+      <c r="F489">
+        <v>0</v>
+      </c>
+      <c r="G489">
+        <v>20</v>
+      </c>
+      <c r="H489">
+        <v>227</v>
+      </c>
+      <c r="I489">
+        <v>428</v>
+      </c>
+      <c r="J489">
+        <f>19*60+38</f>
+        <v>1178</v>
+      </c>
+      <c r="K489">
+        <v>12</v>
+      </c>
+      <c r="L489">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -16667,10 +16957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
-  <dimension ref="A1:B477"/>
+  <dimension ref="A1:B489"/>
   <sheetViews>
-    <sheetView topLeftCell="A450" workbookViewId="0">
-      <selection activeCell="B465" sqref="B465:B477"/>
+    <sheetView topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="B477" sqref="B477:B489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16810,7 +17100,7 @@
       </c>
       <c r="B15">
         <f>Control!B15/'Fight Time'!B15</f>
-        <v>0.22035446738534625</v>
+        <v>0.13295711060948082</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -16864,7 +17154,7 @@
       </c>
       <c r="B21">
         <f>Control!B21/'Fight Time'!B21</f>
-        <v>0.31855541718555413</v>
+        <v>0.289544235924933</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -17341,7 +17631,7 @@
       </c>
       <c r="B74">
         <f>Control!B74/'Fight Time'!B74</f>
-        <v>4.403846153846154E-2</v>
+        <v>3.7670384138785623E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -17503,7 +17793,7 @@
       </c>
       <c r="B92">
         <f>Control!B92/'Fight Time'!B92</f>
-        <v>0.29650884744141559</v>
+        <v>0.26817576564580559</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -17512,7 +17802,7 @@
       </c>
       <c r="B93">
         <f>Control!B93/'Fight Time'!B93</f>
-        <v>1.980621259618125E-2</v>
+        <v>1.8828451882845189E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -18169,7 +18459,7 @@
       </c>
       <c r="B166">
         <f>Control!B166/'Fight Time'!B166</f>
-        <v>0.12737826507578201</v>
+        <v>0.11285714285714286</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -18430,7 +18720,7 @@
       </c>
       <c r="B195">
         <f>Control!B195/'Fight Time'!B195</f>
-        <v>8.5223367697594504E-2</v>
+        <v>7.123786407766991E-2</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -18817,7 +19107,7 @@
       </c>
       <c r="B238">
         <f>Control!B238/'Fight Time'!B238</f>
-        <v>0.30395756833945331</v>
+        <v>0.33996328029375766</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -19033,7 +19323,7 @@
       </c>
       <c r="B262">
         <f>Control!B262/'Fight Time'!B262</f>
-        <v>0.30962521294718909</v>
+        <v>0.31056218057921636</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -19267,7 +19557,7 @@
       </c>
       <c r="B288">
         <f>Control!B288/'Fight Time'!B288</f>
-        <v>0.32915422885572143</v>
+        <v>0.33704819277108433</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -19618,7 +19908,7 @@
       </c>
       <c r="B327">
         <f>Control!B327/'Fight Time'!B327</f>
-        <v>3.5408560311284046E-2</v>
+        <v>3.0944055944055943E-2</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -20113,7 +20403,7 @@
       </c>
       <c r="B382">
         <f>Control!B382/'Fight Time'!B382</f>
-        <v>5.7397959183673472E-3</v>
+        <v>6.6420664206642069E-2</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -20969,6 +21259,114 @@
       <c r="B477">
         <f>Control!B477/'Fight Time'!B477</f>
         <v>0.29832672831351831</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B478">
+        <f>Control!B478/'Fight Time'!B478</f>
+        <v>0.15033377837116155</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>728</v>
+      </c>
+      <c r="B479">
+        <f>Control!B479/'Fight Time'!B479</f>
+        <v>8.0552359033371698E-2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>729</v>
+      </c>
+      <c r="B480">
+        <f>Control!B480/'Fight Time'!B480</f>
+        <v>0.1466414380321665</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>730</v>
+      </c>
+      <c r="B481">
+        <f>Control!B481/'Fight Time'!B481</f>
+        <v>0.86811023622047245</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>731</v>
+      </c>
+      <c r="B482">
+        <f>Control!B482/'Fight Time'!B482</f>
+        <v>0.18852459016393441</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>732</v>
+      </c>
+      <c r="B483">
+        <f>Control!B483/'Fight Time'!B483</f>
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>733</v>
+      </c>
+      <c r="B484">
+        <f>Control!B484/'Fight Time'!B484</f>
+        <v>0.28987150415721846</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>734</v>
+      </c>
+      <c r="B485">
+        <f>Control!B485/'Fight Time'!B485</f>
+        <v>0.38845654993514916</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>735</v>
+      </c>
+      <c r="B486">
+        <f>Control!B486/'Fight Time'!B486</f>
+        <v>0.27732240437158467</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>736</v>
+      </c>
+      <c r="B487">
+        <f>Control!B487/'Fight Time'!B487</f>
+        <v>0.24987727049582717</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>737</v>
+      </c>
+      <c r="B488">
+        <f>Control!B488/'Fight Time'!B488</f>
+        <v>0.14616913225877676</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>738</v>
+      </c>
+      <c r="B489">
+        <f>Control!B489/'Fight Time'!B489</f>
+        <v>0.25866983372921615</v>
       </c>
     </row>
   </sheetData>
@@ -20978,10 +21376,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
-  <dimension ref="A1:AE477"/>
+  <dimension ref="A1:AE489"/>
   <sheetViews>
-    <sheetView topLeftCell="A355" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J370" sqref="J370"/>
+    <sheetView topLeftCell="A367" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E383" sqref="E383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21433,50 +21831,41 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>110.69230769230769</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>41</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+        <f>AVERAGE(C15:BA15)</f>
+        <v>141.80000000000001</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
         <v>186</v>
       </c>
-      <c r="I15">
+      <c r="E15" s="14">
         <f>7*60+11</f>
         <v>431</v>
       </c>
-      <c r="J15">
+      <c r="F15" s="14">
         <f>180+56</f>
         <v>236</v>
       </c>
-      <c r="K15">
+      <c r="G15" s="14">
         <v>15</v>
       </c>
-      <c r="L15">
+      <c r="H15" s="14">
         <f>420+11</f>
         <v>431</v>
       </c>
-      <c r="M15" s="11">
+      <c r="I15" s="14">
         <v>75</v>
       </c>
-      <c r="N15" s="11">
+      <c r="J15" s="14">
         <v>21</v>
       </c>
-      <c r="O15" s="11">
-        <v>0</v>
+      <c r="K15" s="14">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
@@ -21622,41 +22011,38 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="C21">
-        <v>85</v>
-      </c>
-      <c r="D21">
+        <f>AVERAGE(C21:BA21)</f>
+        <v>154.30000000000001</v>
+      </c>
+      <c r="C21" s="14">
         <v>334</v>
       </c>
-      <c r="E21">
+      <c r="D21" s="14">
         <v>94</v>
       </c>
-      <c r="F21">
+      <c r="E21" s="14">
         <v>482</v>
       </c>
-      <c r="G21">
+      <c r="F21" s="14">
         <v>209</v>
       </c>
-      <c r="H21">
+      <c r="G21" s="14">
         <v>63</v>
       </c>
-      <c r="I21">
+      <c r="H21" s="14">
         <f>180+51</f>
         <v>231</v>
       </c>
-      <c r="J21">
+      <c r="I21" s="14">
         <v>21</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="J21" s="14">
+        <v>0</v>
+      </c>
+      <c r="K21" s="14">
         <v>109</v>
       </c>
-      <c r="M21" s="11">
+      <c r="L21" s="14">
         <v>0</v>
       </c>
     </row>
@@ -23358,47 +23744,38 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" si="1"/>
-        <v>185.38461538461539</v>
-      </c>
-      <c r="C74">
-        <v>523</v>
-      </c>
-      <c r="D74">
-        <v>47</v>
-      </c>
-      <c r="E74">
-        <v>128</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
+        <f>AVERAGE(C74:BA74)</f>
+        <v>200.2</v>
+      </c>
+      <c r="C74" s="14">
         <v>369</v>
       </c>
-      <c r="H74">
+      <c r="D74" s="14">
         <v>9</v>
       </c>
-      <c r="I74">
+      <c r="E74" s="14">
         <v>239</v>
       </c>
-      <c r="J74">
+      <c r="F74" s="14">
         <v>24</v>
       </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
+      <c r="G74" s="14">
+        <v>0</v>
+      </c>
+      <c r="H74" s="14">
         <v>114</v>
       </c>
-      <c r="M74" s="11">
+      <c r="I74" s="14">
         <v>51</v>
       </c>
-      <c r="N74" s="11">
+      <c r="J74" s="14">
         <v>661</v>
       </c>
-      <c r="O74" s="11">
+      <c r="K74" s="14">
         <v>245</v>
+      </c>
+      <c r="L74" s="14">
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
@@ -24029,52 +24406,37 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" si="1"/>
-        <v>25.8</v>
-      </c>
-      <c r="C92">
-        <v>107</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>28</v>
-      </c>
-      <c r="F92">
-        <v>20</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
+        <f>AVERAGE(C92:BA92)</f>
+        <v>23.2</v>
+      </c>
+      <c r="C92" s="14">
+        <v>0</v>
+      </c>
+      <c r="D92" s="14">
         <v>104</v>
       </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
+      <c r="E92" s="14">
+        <v>0</v>
+      </c>
+      <c r="F92" s="14">
         <v>17</v>
       </c>
-      <c r="L92">
+      <c r="G92" s="14">
         <v>51</v>
       </c>
-      <c r="M92" s="11">
-        <v>0</v>
-      </c>
-      <c r="N92" s="11">
-        <v>0</v>
-      </c>
-      <c r="O92" s="11">
-        <v>0</v>
-      </c>
-      <c r="P92" s="11">
+      <c r="H92" s="14">
+        <v>0</v>
+      </c>
+      <c r="I92" s="14">
+        <v>0</v>
+      </c>
+      <c r="J92" s="14">
+        <v>0</v>
+      </c>
+      <c r="K92" s="14">
         <v>60</v>
       </c>
-      <c r="Q92" s="11">
+      <c r="L92" s="14">
         <v>0</v>
       </c>
     </row>
@@ -24083,41 +24445,38 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <f t="shared" si="1"/>
-        <v>169.18181818181819</v>
-      </c>
-      <c r="C93">
-        <v>240</v>
-      </c>
-      <c r="D93">
+        <f>AVERAGE(C93:BA93)</f>
+        <v>162.1</v>
+      </c>
+      <c r="C93" s="14">
         <v>195</v>
       </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
+      <c r="D93" s="14">
+        <v>0</v>
+      </c>
+      <c r="E93" s="14">
         <v>394</v>
       </c>
-      <c r="G93">
+      <c r="F93" s="14">
         <v>3</v>
       </c>
-      <c r="H93">
+      <c r="G93" s="14">
         <f>420+32</f>
         <v>452</v>
       </c>
-      <c r="I93">
+      <c r="H93" s="14">
         <v>164</v>
       </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
+      <c r="I93" s="14">
+        <v>0</v>
+      </c>
+      <c r="J93" s="14">
         <v>71</v>
       </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93" s="11">
+      <c r="K93" s="14">
+        <v>0</v>
+      </c>
+      <c r="L93" s="14">
         <v>342</v>
       </c>
     </row>
@@ -27200,49 +27559,37 @@
         <v>193</v>
       </c>
       <c r="B195" s="1">
-        <f t="shared" si="3"/>
-        <v>268.07142857142856</v>
-      </c>
-      <c r="C195">
-        <v>7</v>
-      </c>
-      <c r="D195">
-        <v>195</v>
-      </c>
-      <c r="E195">
-        <v>3300</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-      <c r="G195">
+        <f>AVERAGE(C195:BA195)</f>
+        <v>25.1</v>
+      </c>
+      <c r="C195" s="14">
         <v>9</v>
       </c>
-      <c r="H195">
-        <v>0</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-      <c r="J195">
-        <v>0</v>
-      </c>
-      <c r="K195">
+      <c r="D195" s="14">
+        <v>0</v>
+      </c>
+      <c r="E195" s="14">
+        <v>0</v>
+      </c>
+      <c r="F195" s="14">
+        <v>0</v>
+      </c>
+      <c r="G195" s="14">
         <v>21</v>
       </c>
-      <c r="L195">
-        <v>0</v>
-      </c>
-      <c r="M195" s="11">
-        <v>0</v>
-      </c>
-      <c r="N195" s="11">
+      <c r="H195" s="14">
+        <v>0</v>
+      </c>
+      <c r="I195" s="14">
+        <v>0</v>
+      </c>
+      <c r="J195" s="14">
         <v>215</v>
       </c>
-      <c r="O195" s="11">
-        <v>0</v>
-      </c>
-      <c r="P195" s="11">
+      <c r="K195" s="14">
+        <v>0</v>
+      </c>
+      <c r="L195" s="14">
         <v>6</v>
       </c>
     </row>
@@ -28637,7 +28984,7 @@
       </c>
       <c r="B238" s="1">
         <f t="shared" si="3"/>
-        <v>73.666666666666671</v>
+        <v>55.25</v>
       </c>
       <c r="C238">
         <v>18</v>
@@ -28647,6 +28994,9 @@
       </c>
       <c r="E238">
         <v>79</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
@@ -29279,44 +29629,38 @@
         <v>492</v>
       </c>
       <c r="B262" s="1">
-        <f t="shared" si="4"/>
-        <v>192</v>
-      </c>
-      <c r="C262">
-        <v>13</v>
-      </c>
-      <c r="D262">
-        <v>0</v>
-      </c>
-      <c r="E262">
+        <f>AVERAGE(C262:BA262)</f>
+        <v>223.1</v>
+      </c>
+      <c r="C262" s="14">
         <v>226</v>
       </c>
-      <c r="F262">
+      <c r="D262" s="14">
         <v>465</v>
       </c>
-      <c r="G262">
+      <c r="E262" s="14">
         <v>513</v>
       </c>
-      <c r="H262">
+      <c r="F262" s="14">
         <v>135</v>
       </c>
-      <c r="I262">
+      <c r="G262" s="14">
         <v>69</v>
       </c>
-      <c r="J262">
+      <c r="H262" s="14">
         <v>26</v>
       </c>
-      <c r="K262">
+      <c r="I262" s="14">
         <v>60</v>
       </c>
-      <c r="L262">
+      <c r="J262" s="14">
         <v>52</v>
       </c>
-      <c r="M262" s="11">
+      <c r="K262" s="14">
         <v>79</v>
       </c>
-      <c r="N262" s="11">
-        <v>666</v>
+      <c r="L262" s="14">
+        <v>606</v>
       </c>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.3">
@@ -29748,7 +30092,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C277" s="9">
+      <c r="C277" s="14">
         <v>0</v>
       </c>
     </row>
@@ -29916,7 +30260,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="C283" s="9">
+      <c r="C283" s="14">
         <v>0</v>
       </c>
     </row>
@@ -30045,38 +30389,38 @@
         <v>523</v>
       </c>
       <c r="B288" s="1">
-        <f t="shared" si="4"/>
-        <v>55</v>
+        <f>AVERAGE(C288:BA288)</f>
+        <v>54.5</v>
       </c>
       <c r="C288">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D288">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E288">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="F288">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="G288">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="I288">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="J288">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="K288">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="L288">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
@@ -31053,38 +31397,38 @@
         <v>565</v>
       </c>
       <c r="B327" s="1">
-        <f t="shared" si="5"/>
-        <v>13.3</v>
+        <f>AVERAGE(C327:BA327)</f>
+        <v>12.9</v>
       </c>
       <c r="C327">
+        <v>27</v>
+      </c>
+      <c r="D327">
+        <v>80</v>
+      </c>
+      <c r="E327">
+        <v>5</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="I327">
         <v>4</v>
       </c>
-      <c r="D327">
-        <v>27</v>
-      </c>
-      <c r="E327">
-        <v>80</v>
-      </c>
-      <c r="F327">
-        <v>5</v>
-      </c>
-      <c r="G327">
-        <v>0</v>
-      </c>
-      <c r="H327">
-        <v>0</v>
-      </c>
-      <c r="I327">
-        <v>0</v>
-      </c>
       <c r="J327">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K327">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.3">
@@ -32617,13 +32961,16 @@
       </c>
       <c r="B382" s="1">
         <f t="shared" si="6"/>
-        <v>258.5</v>
+        <v>308.66666666666669</v>
       </c>
       <c r="C382">
         <v>76</v>
       </c>
       <c r="D382">
         <v>441</v>
+      </c>
+      <c r="E382">
+        <v>409</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">
@@ -34202,7 +34549,7 @@
         <v>691</v>
       </c>
       <c r="B442" s="1">
-        <f t="shared" ref="B442:B477" si="7">AVERAGE(C442:BA442)</f>
+        <f t="shared" ref="B442:B489" si="7">AVERAGE(C442:BA442)</f>
         <v>97.6</v>
       </c>
       <c r="C442">
@@ -34987,6 +35334,312 @@
       </c>
       <c r="H477">
         <v>379</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A478" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B478" s="1">
+        <f t="shared" si="7"/>
+        <v>216.6</v>
+      </c>
+      <c r="C478">
+        <v>203</v>
+      </c>
+      <c r="D478">
+        <v>79</v>
+      </c>
+      <c r="E478">
+        <v>239</v>
+      </c>
+      <c r="F478">
+        <v>309</v>
+      </c>
+      <c r="G478">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>728</v>
+      </c>
+      <c r="B479" s="1">
+        <f t="shared" si="7"/>
+        <v>313</v>
+      </c>
+      <c r="C479">
+        <v>580</v>
+      </c>
+      <c r="D479">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>729</v>
+      </c>
+      <c r="B480" s="1">
+        <f t="shared" si="7"/>
+        <v>213.28571428571428</v>
+      </c>
+      <c r="C480">
+        <v>32</v>
+      </c>
+      <c r="D480">
+        <v>132</v>
+      </c>
+      <c r="E480">
+        <v>657</v>
+      </c>
+      <c r="F480">
+        <v>0</v>
+      </c>
+      <c r="G480">
+        <v>613</v>
+      </c>
+      <c r="H480">
+        <v>0</v>
+      </c>
+      <c r="I480">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>730</v>
+      </c>
+      <c r="B481" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>731</v>
+      </c>
+      <c r="B482" s="1">
+        <f t="shared" si="7"/>
+        <v>102.125</v>
+      </c>
+      <c r="C482">
+        <v>4</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+      <c r="E482">
+        <v>525</v>
+      </c>
+      <c r="F482">
+        <v>99</v>
+      </c>
+      <c r="G482">
+        <v>10</v>
+      </c>
+      <c r="H482">
+        <v>132</v>
+      </c>
+      <c r="I482">
+        <v>47</v>
+      </c>
+      <c r="J482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>732</v>
+      </c>
+      <c r="B483" s="1">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="C483" s="8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>733</v>
+      </c>
+      <c r="B484" s="1">
+        <f t="shared" si="7"/>
+        <v>245.57142857142858</v>
+      </c>
+      <c r="C484">
+        <v>21</v>
+      </c>
+      <c r="D484">
+        <v>518</v>
+      </c>
+      <c r="E484">
+        <v>84</v>
+      </c>
+      <c r="F484">
+        <v>589</v>
+      </c>
+      <c r="G484">
+        <v>41</v>
+      </c>
+      <c r="H484">
+        <v>161</v>
+      </c>
+      <c r="I484">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>734</v>
+      </c>
+      <c r="B485" s="1">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="C485">
+        <v>158</v>
+      </c>
+      <c r="D485">
+        <v>30</v>
+      </c>
+      <c r="E485">
+        <v>2</v>
+      </c>
+      <c r="F485">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>735</v>
+      </c>
+      <c r="B486" s="1">
+        <f t="shared" si="7"/>
+        <v>106.625</v>
+      </c>
+      <c r="C486">
+        <v>146</v>
+      </c>
+      <c r="D486">
+        <v>53</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>18</v>
+      </c>
+      <c r="G486">
+        <v>250</v>
+      </c>
+      <c r="H486">
+        <v>176</v>
+      </c>
+      <c r="I486">
+        <v>178</v>
+      </c>
+      <c r="J486">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>736</v>
+      </c>
+      <c r="B487" s="1">
+        <f t="shared" si="7"/>
+        <v>36.833333333333336</v>
+      </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+      <c r="D487">
+        <v>10</v>
+      </c>
+      <c r="E487">
+        <v>137</v>
+      </c>
+      <c r="F487">
+        <v>37</v>
+      </c>
+      <c r="G487">
+        <v>13</v>
+      </c>
+      <c r="H487">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>737</v>
+      </c>
+      <c r="B488" s="1">
+        <f t="shared" si="7"/>
+        <v>90.857142857142861</v>
+      </c>
+      <c r="C488">
+        <v>17</v>
+      </c>
+      <c r="D488">
+        <v>29</v>
+      </c>
+      <c r="E488">
+        <v>587</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>0</v>
+      </c>
+      <c r="H488">
+        <v>3</v>
+      </c>
+      <c r="I488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>738</v>
+      </c>
+      <c r="B489" s="1">
+        <f t="shared" si="7"/>
+        <v>117.1</v>
+      </c>
+      <c r="C489">
+        <v>73</v>
+      </c>
+      <c r="D489">
+        <v>9</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>502</v>
+      </c>
+      <c r="G489">
+        <v>69</v>
+      </c>
+      <c r="H489">
+        <v>99</v>
+      </c>
+      <c r="I489">
+        <v>9</v>
+      </c>
+      <c r="J489">
+        <v>68</v>
+      </c>
+      <c r="K489">
+        <v>311</v>
+      </c>
+      <c r="L489">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -34996,10 +35649,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
-  <dimension ref="A1:B477"/>
+  <dimension ref="A1:B489"/>
   <sheetViews>
-    <sheetView topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="B465" sqref="B465:B477"/>
+    <sheetView topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="B477" sqref="B477:B489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35139,7 +35792,7 @@
       </c>
       <c r="B15">
         <f>Controlled!B15/'Fight Time'!B15</f>
-        <v>0.26292709665631281</v>
+        <v>0.32009029345372464</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -35193,7 +35846,7 @@
       </c>
       <c r="B21">
         <f>Controlled!B21/'Fight Time'!B21</f>
-        <v>0.20273972602739726</v>
+        <v>0.20683646112600537</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -35670,7 +36323,7 @@
       </c>
       <c r="B74">
         <f>Controlled!B74/'Fight Time'!B74</f>
-        <v>0.23173076923076924</v>
+        <v>0.24807930607187112</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -35832,7 +36485,7 @@
       </c>
       <c r="B92">
         <f>Controlled!B92/'Fight Time'!B92</f>
-        <v>3.7015781922525109E-2</v>
+        <v>3.0892143808255657E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -35841,7 +36494,7 @@
       </c>
       <c r="B93">
         <f>Controlled!B93/'Fight Time'!B93</f>
-        <v>0.26517526360786547</v>
+        <v>0.22608089260808925</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -36498,7 +37151,7 @@
       </c>
       <c r="B166">
         <f>Controlled!B166/'Fight Time'!B166</f>
-        <v>7.6104482425024184E-2</v>
+        <v>6.7428571428571435E-2</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -36759,7 +37412,7 @@
       </c>
       <c r="B195">
         <f>Controlled!B195/'Fight Time'!B195</f>
-        <v>0.34545287187039764</v>
+        <v>3.0461165048543692E-2</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -37146,7 +37799,7 @@
       </c>
       <c r="B238">
         <f>Controlled!B238/'Fight Time'!B238</f>
-        <v>9.0167278661770711E-2</v>
+        <v>6.7625458996328033E-2</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -37362,7 +38015,7 @@
       </c>
       <c r="B262">
         <f>Controlled!B262/'Fight Time'!B262</f>
-        <v>0.3270868824531516</v>
+        <v>0.38006814310051107</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -37596,7 +38249,7 @@
       </c>
       <c r="B288">
         <f>Controlled!B288/'Fight Time'!B288</f>
-        <v>5.4726368159203981E-2</v>
+        <v>5.4718875502008033E-2</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -37947,7 +38600,7 @@
       </c>
       <c r="B327">
         <f>Controlled!B327/'Fight Time'!B327</f>
-        <v>2.5875486381322959E-2</v>
+        <v>2.2552447552447553E-2</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -38442,7 +39095,7 @@
       </c>
       <c r="B382">
         <f>Controlled!B382/'Fight Time'!B382</f>
-        <v>0.32971938775510207</v>
+        <v>0.3796637966379664</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -39298,6 +39951,114 @@
       <c r="B477">
         <f>Controlled!B477/'Fight Time'!B477</f>
         <v>0.23998238661382651</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B478">
+        <f>Controlled!B478/'Fight Time'!B478</f>
+        <v>0.28918558077436579</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>728</v>
+      </c>
+      <c r="B479">
+        <f>Controlled!B479/'Fight Time'!B479</f>
+        <v>0.36018411967779057</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>729</v>
+      </c>
+      <c r="B480">
+        <f>Controlled!B480/'Fight Time'!B480</f>
+        <v>0.47082939135919266</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>730</v>
+      </c>
+      <c r="B481">
+        <f>Controlled!B481/'Fight Time'!B481</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>731</v>
+      </c>
+      <c r="B482">
+        <f>Controlled!B482/'Fight Time'!B482</f>
+        <v>0.1860200364298725</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>732</v>
+      </c>
+      <c r="B483">
+        <f>Controlled!B483/'Fight Time'!B483</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>733</v>
+      </c>
+      <c r="B484">
+        <f>Controlled!B484/'Fight Time'!B484</f>
+        <v>0.32482993197278914</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>734</v>
+      </c>
+      <c r="B485">
+        <f>Controlled!B485/'Fight Time'!B485</f>
+        <v>6.744487678339818E-2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>735</v>
+      </c>
+      <c r="B486">
+        <f>Controlled!B486/'Fight Time'!B486</f>
+        <v>0.19421675774134792</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>736</v>
+      </c>
+      <c r="B487">
+        <f>Controlled!B487/'Fight Time'!B487</f>
+        <v>5.424644084437899E-2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>737</v>
+      </c>
+      <c r="B488">
+        <f>Controlled!B488/'Fight Time'!B488</f>
+        <v>0.140428350629278</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>738</v>
+      </c>
+      <c r="B489">
+        <f>Controlled!B489/'Fight Time'!B489</f>
+        <v>0.13907363420427551</v>
       </c>
     </row>
   </sheetData>
@@ -39307,10 +40068,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
-  <dimension ref="A1:C477"/>
+  <dimension ref="A1:C489"/>
   <sheetViews>
-    <sheetView topLeftCell="A468" workbookViewId="0">
-      <selection activeCell="B370" sqref="B370"/>
+    <sheetView topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="B383" sqref="B383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39447,7 +40208,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>421</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -39498,8 +40259,8 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f>12*60+10</f>
-        <v>730</v>
+        <f>12*60+26</f>
+        <v>746</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -39956,8 +40717,8 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <f>13*60+20</f>
-        <v>800</v>
+        <f>13*60+27</f>
+        <v>807</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -40110,8 +40871,8 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <f>660+37</f>
-        <v>697</v>
+        <f>12*60+31</f>
+        <v>751</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -40119,7 +40880,8 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>638</v>
+        <f>11*60+57</f>
+        <v>717</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -40736,8 +41498,8 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <f>7*60+23</f>
-        <v>443</v>
+        <f>8*60+20</f>
+        <v>500</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -40985,8 +41747,8 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <f>12*60+56</f>
-        <v>776</v>
+        <f>13*60+44</f>
+        <v>824</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -41677,7 +42439,7 @@
         <v>511</v>
       </c>
       <c r="B277">
-        <v>900</v>
+        <v>28</v>
       </c>
       <c r="C277" s="9"/>
     </row>
@@ -41768,8 +42530,8 @@
         <v>523</v>
       </c>
       <c r="B288">
-        <f>16*60+45</f>
-        <v>1005</v>
+        <f>16*60+36</f>
+        <v>996</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -42100,7 +42862,8 @@
         <v>565</v>
       </c>
       <c r="B327">
-        <v>514</v>
+        <f>9*60+32</f>
+        <v>572</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -42567,8 +43330,8 @@
         <v>627</v>
       </c>
       <c r="B382">
-        <f>13*60+4</f>
-        <v>784</v>
+        <f>13*60+33</f>
+        <v>813</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -43366,6 +44129,107 @@
       <c r="B477">
         <f>12*60+37</f>
         <v>757</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B478">
+        <f>12*60+29</f>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>728</v>
+      </c>
+      <c r="B479">
+        <f>14*60+29</f>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>729</v>
+      </c>
+      <c r="B480">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>730</v>
+      </c>
+      <c r="B481">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>731</v>
+      </c>
+      <c r="B482">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>732</v>
+      </c>
+      <c r="B483">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>733</v>
+      </c>
+      <c r="B484">
+        <f>12*60+36</f>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>734</v>
+      </c>
+      <c r="B485">
+        <f>12*60+51</f>
+        <v>771</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>735</v>
+      </c>
+      <c r="B486">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>736</v>
+      </c>
+      <c r="B487">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>737</v>
+      </c>
+      <c r="B488">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>738</v>
+      </c>
+      <c r="B489">
+        <f>14*60+2</f>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -43377,10 +44241,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A356" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AB372" sqref="AB372"/>
+      <selection pane="topRight" activeCell="AB385" sqref="AB385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44538,7 +45402,7 @@
         <v>191</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -44550,7 +45414,7 @@
         <v>5</v>
       </c>
       <c r="I17">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="J17">
         <v>0.6</v>
@@ -44562,16 +45426,16 @@
         <v>0.2</v>
       </c>
       <c r="M17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
       <c r="N17">
         <v>0.2</v>
       </c>
       <c r="O17" s="8">
-        <v>3.78</v>
+        <v>3.74</v>
       </c>
       <c r="P17" s="8">
-        <v>3.85</v>
+        <v>3.62</v>
       </c>
       <c r="Q17">
         <v>0.67</v>
@@ -44583,36 +45447,36 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="T17">
-        <v>1.97</v>
+        <v>1.69</v>
       </c>
       <c r="U17">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="V17">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="W17">
         <f>Control!B15</f>
-        <v>92.769230769230774</v>
+        <v>58.9</v>
       </c>
       <c r="X17">
         <f>'Ctrl pct'!B15</f>
-        <v>0.22035446738534625</v>
+        <v>0.13295711060948082</v>
       </c>
       <c r="Y17">
         <f>Controlled!B15</f>
-        <v>110.69230769230769</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="Z17">
         <f>'Controlled pct'!B15</f>
-        <v>0.26292709665631281</v>
+        <v>0.32009029345372464</v>
       </c>
       <c r="AA17">
         <f>'Fight Time'!B15</f>
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
@@ -44963,6 +45827,15 @@
         <f>Control!A21</f>
         <v>Youssef Zalal</v>
       </c>
+      <c r="B23">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>178</v>
+      </c>
+      <c r="D23">
+        <v>183</v>
+      </c>
       <c r="E23">
         <v>17</v>
       </c>
@@ -44975,25 +45848,61 @@
       <c r="H23">
         <v>3</v>
       </c>
+      <c r="I23">
+        <v>0.24</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0.53</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.24</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" s="8">
+        <v>3.07</v>
+      </c>
+      <c r="P23" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2.09</v>
+      </c>
+      <c r="U23">
+        <v>0.3</v>
+      </c>
+      <c r="V23">
+        <v>0.59</v>
+      </c>
       <c r="W23">
         <f>Control!B21</f>
-        <v>232.54545454545453</v>
+        <v>216</v>
       </c>
       <c r="X23">
         <f>'Ctrl pct'!B21</f>
-        <v>0.31855541718555413</v>
+        <v>0.289544235924933</v>
       </c>
       <c r="Y23">
         <f>Controlled!B21</f>
-        <v>148</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="Z23">
         <f>'Controlled pct'!B21</f>
-        <v>0.20273972602739726</v>
+        <v>0.20683646112600537</v>
       </c>
       <c r="AA23">
         <f>'Fight Time'!B21</f>
-        <v>730</v>
+        <v>746</v>
+      </c>
+      <c r="AB23">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
@@ -48290,31 +49199,82 @@
         <f>Control!A74</f>
         <v>Chris Gutierrez</v>
       </c>
+      <c r="B76">
+        <v>34</v>
+      </c>
+      <c r="C76">
+        <v>175</v>
+      </c>
+      <c r="D76">
+        <v>170</v>
+      </c>
+      <c r="E76">
+        <v>22</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
       <c r="G76">
         <v>10</v>
       </c>
       <c r="H76">
         <v>3</v>
       </c>
+      <c r="I76">
+        <v>0.41</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0.05</v>
+      </c>
+      <c r="L76">
+        <v>0.2</v>
+      </c>
+      <c r="M76">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N76">
+        <v>0.8</v>
+      </c>
+      <c r="O76" s="8">
+        <v>4.59</v>
+      </c>
+      <c r="P76" s="8">
+        <v>2.65</v>
+      </c>
+      <c r="T76">
+        <v>0.24</v>
+      </c>
+      <c r="U76">
+        <v>0.25</v>
+      </c>
+      <c r="V76">
+        <v>0.7</v>
+      </c>
       <c r="W76">
         <f>Control!B74</f>
-        <v>35.230769230769234</v>
+        <v>30.4</v>
       </c>
       <c r="X76">
         <f>'Ctrl pct'!B74</f>
-        <v>4.403846153846154E-2</v>
+        <v>3.7670384138785623E-2</v>
       </c>
       <c r="Y76">
         <f>Controlled!B74</f>
-        <v>185.38461538461539</v>
+        <v>200.2</v>
       </c>
       <c r="Z76">
         <f>'Controlled pct'!B74</f>
-        <v>0.23173076923076924</v>
+        <v>0.24807930607187112</v>
       </c>
       <c r="AA76">
         <f>'Fight Time'!B74</f>
-        <v>800</v>
+        <v>807</v>
+      </c>
+      <c r="AB76">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.3">
@@ -49499,6 +50459,15 @@
         <f>Control!A92</f>
         <v>Magomed Ankalaev</v>
       </c>
+      <c r="B94">
+        <v>33</v>
+      </c>
+      <c r="C94">
+        <v>191</v>
+      </c>
+      <c r="D94">
+        <v>191</v>
+      </c>
       <c r="E94">
         <v>21</v>
       </c>
@@ -49511,25 +50480,61 @@
       <c r="H94">
         <v>1</v>
       </c>
+      <c r="I94">
+        <v>0.52</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0.48</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" s="8">
+        <v>3.66</v>
+      </c>
+      <c r="P94" s="8">
+        <v>2.46</v>
+      </c>
+      <c r="T94">
+        <v>0.8</v>
+      </c>
+      <c r="U94">
+        <v>0.22</v>
+      </c>
+      <c r="V94">
+        <v>0.87</v>
+      </c>
       <c r="W94">
         <f>Control!B92</f>
-        <v>206.66666666666666</v>
+        <v>201.4</v>
       </c>
       <c r="X94">
         <f>'Ctrl pct'!B92</f>
-        <v>0.29650884744141559</v>
+        <v>0.26817576564580559</v>
       </c>
       <c r="Y94">
         <f>Controlled!B92</f>
-        <v>25.8</v>
+        <v>23.2</v>
       </c>
       <c r="Z94">
         <f>'Controlled pct'!B92</f>
-        <v>3.7015781922525109E-2</v>
+        <v>3.0892143808255657E-2</v>
       </c>
       <c r="AA94">
         <f>'Fight Time'!B92</f>
-        <v>697</v>
+        <v>751</v>
+      </c>
+      <c r="AB94">
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.3">
@@ -49537,6 +50542,15 @@
         <f>Control!A93</f>
         <v>Alex Pereira</v>
       </c>
+      <c r="B95">
+        <v>38</v>
+      </c>
+      <c r="C95">
+        <v>194</v>
+      </c>
+      <c r="D95">
+        <v>203</v>
+      </c>
       <c r="E95">
         <v>12</v>
       </c>
@@ -49549,25 +50563,61 @@
       <c r="H95">
         <v>2</v>
       </c>
+      <c r="I95">
+        <v>0.83</v>
+      </c>
+      <c r="J95">
+        <v>0.33</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0.33</v>
+      </c>
+      <c r="M95">
+        <v>0.17</v>
+      </c>
+      <c r="N95">
+        <v>0.34</v>
+      </c>
+      <c r="O95" s="8">
+        <v>5</v>
+      </c>
+      <c r="P95" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="T95">
+        <v>0.1</v>
+      </c>
+      <c r="U95">
+        <v>0.5</v>
+      </c>
+      <c r="V95">
+        <v>0.75</v>
+      </c>
       <c r="W95">
         <f>Control!B93</f>
-        <v>12.636363636363637</v>
+        <v>13.5</v>
       </c>
       <c r="X95">
         <f>'Ctrl pct'!B93</f>
-        <v>1.980621259618125E-2</v>
+        <v>1.8828451882845189E-2</v>
       </c>
       <c r="Y95">
         <f>Controlled!B93</f>
-        <v>169.18181818181819</v>
+        <v>162.1</v>
       </c>
       <c r="Z95">
         <f>'Controlled pct'!B93</f>
-        <v>0.26517526360786547</v>
+        <v>0.22608089260808925</v>
       </c>
       <c r="AA95">
         <f>'Fight Time'!B93</f>
-        <v>638</v>
+        <v>717</v>
+      </c>
+      <c r="AB95">
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.3">
@@ -54097,7 +55147,7 @@
         <v>Joe Pyfer</v>
       </c>
       <c r="B168">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C168">
         <v>188</v>
@@ -54118,37 +55168,37 @@
         <v>1</v>
       </c>
       <c r="I168">
-        <v>0.69</v>
+        <v>0.64</v>
       </c>
       <c r="J168">
         <v>0.33</v>
       </c>
       <c r="K168">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="L168">
         <v>0.33</v>
       </c>
       <c r="M168">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N168">
         <v>0.33</v>
       </c>
       <c r="O168" s="8">
-        <v>3.72</v>
+        <v>3.74</v>
       </c>
       <c r="P168" s="8">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="T168">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="U168">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="V168">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W168">
         <f>Control!B166</f>
@@ -54156,7 +55206,7 @@
       </c>
       <c r="X168">
         <f>'Ctrl pct'!B166</f>
-        <v>0.12737826507578201</v>
+        <v>0.11285714285714286</v>
       </c>
       <c r="Y168">
         <f>Controlled!B166</f>
@@ -54164,14 +55214,14 @@
       </c>
       <c r="Z168">
         <f>'Controlled pct'!B166</f>
-        <v>7.6104482425024184E-2</v>
+        <v>6.7428571428571435E-2</v>
       </c>
       <c r="AA168">
         <f>'Fight Time'!B166</f>
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="AB168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.3">
@@ -55795,6 +56845,15 @@
         <f>Control!A195</f>
         <v>Josh Emmett</v>
       </c>
+      <c r="B197">
+        <v>40</v>
+      </c>
+      <c r="C197">
+        <v>168</v>
+      </c>
+      <c r="D197">
+        <v>178</v>
+      </c>
       <c r="E197">
         <v>19</v>
       </c>
@@ -55807,25 +56866,61 @@
       <c r="H197">
         <v>5</v>
       </c>
+      <c r="I197">
+        <v>0.37</v>
+      </c>
+      <c r="J197">
+        <v>0.2</v>
+      </c>
+      <c r="K197">
+        <v>0.11</v>
+      </c>
+      <c r="L197">
+        <v>0.2</v>
+      </c>
+      <c r="M197">
+        <v>0.53</v>
+      </c>
+      <c r="N197">
+        <v>0.6</v>
+      </c>
+      <c r="O197" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="P197" s="8">
+        <v>4.46</v>
+      </c>
+      <c r="T197">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="U197">
+        <v>0.37</v>
+      </c>
+      <c r="V197">
+        <v>0.46</v>
+      </c>
       <c r="W197">
         <f>Control!B195</f>
-        <v>66.13333333333334</v>
+        <v>58.7</v>
       </c>
       <c r="X197">
         <f>'Ctrl pct'!B195</f>
-        <v>8.5223367697594504E-2</v>
+        <v>7.123786407766991E-2</v>
       </c>
       <c r="Y197">
         <f>Controlled!B195</f>
-        <v>268.07142857142856</v>
+        <v>25.1</v>
       </c>
       <c r="Z197">
         <f>'Controlled pct'!B195</f>
-        <v>0.34545287187039764</v>
+        <v>3.0461165048543692E-2</v>
       </c>
       <c r="AA197">
         <f>'Fight Time'!B195</f>
-        <v>776</v>
+        <v>824</v>
+      </c>
+      <c r="AB197">
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.3">
@@ -58068,6 +59163,15 @@
         <f>Control!A238</f>
         <v>Daniel Santos</v>
       </c>
+      <c r="B240">
+        <v>30</v>
+      </c>
+      <c r="C240">
+        <v>170</v>
+      </c>
+      <c r="D240">
+        <v>170</v>
+      </c>
       <c r="E240">
         <v>12</v>
       </c>
@@ -58080,25 +59184,61 @@
       <c r="H240">
         <v>1</v>
       </c>
+      <c r="I240">
+        <v>0.42</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0.16</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>0.42</v>
+      </c>
+      <c r="N240">
+        <v>1</v>
+      </c>
+      <c r="O240" s="8">
+        <v>4.74</v>
+      </c>
+      <c r="P240" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="T240">
+        <v>3.03</v>
+      </c>
+      <c r="U240">
+        <v>0.39</v>
+      </c>
+      <c r="V240">
+        <v>0.73</v>
+      </c>
       <c r="W240">
         <f>Control!B238</f>
-        <v>248.33333333333334</v>
+        <v>277.75</v>
       </c>
       <c r="X240">
         <f>'Ctrl pct'!B238</f>
-        <v>0.30395756833945331</v>
+        <v>0.33996328029375766</v>
       </c>
       <c r="Y240">
         <f>Controlled!B238</f>
-        <v>73.666666666666671</v>
+        <v>55.25</v>
       </c>
       <c r="Z240">
         <f>'Controlled pct'!B238</f>
-        <v>9.0167278661770711E-2</v>
+        <v>6.7625458996328033E-2</v>
       </c>
       <c r="AA240">
         <f>'Fight Time'!B238</f>
         <v>817</v>
+      </c>
+      <c r="AB240">
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.3">
@@ -59476,7 +60616,7 @@
         <v>Macy Chiasson</v>
       </c>
       <c r="B264">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C264">
         <v>180</v>
@@ -59500,25 +60640,25 @@
         <v>0.3</v>
       </c>
       <c r="J264">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="K264">
         <v>0.3</v>
       </c>
       <c r="L264">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="M264">
         <v>0.4</v>
       </c>
       <c r="N264">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="O264" s="8">
-        <v>3.77</v>
+        <v>3.49</v>
       </c>
       <c r="P264" s="8">
-        <v>2.79</v>
+        <v>2.68</v>
       </c>
       <c r="Q264">
         <v>0.56999999999999995</v>
@@ -59530,29 +60670,29 @@
         <v>0.09</v>
       </c>
       <c r="T264">
-        <v>2.37</v>
+        <v>2.08</v>
       </c>
       <c r="U264">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="V264">
         <v>0.7</v>
       </c>
       <c r="W264">
         <f>Control!B262</f>
-        <v>181.75</v>
+        <v>182.3</v>
       </c>
       <c r="X264">
         <f>'Ctrl pct'!B262</f>
-        <v>0.30962521294718909</v>
+        <v>0.31056218057921636</v>
       </c>
       <c r="Y264">
         <f>Controlled!B262</f>
-        <v>192</v>
+        <v>223.1</v>
       </c>
       <c r="Z264">
         <f>'Controlled pct'!B262</f>
-        <v>0.3270868824531516</v>
+        <v>0.38006814310051107</v>
       </c>
       <c r="AA264">
         <f>'Fight Time'!B262</f>
@@ -60823,7 +61963,7 @@
         <v>31</v>
       </c>
       <c r="C279">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D279">
         <v>181</v>
@@ -60841,37 +61981,28 @@
         <v>0</v>
       </c>
       <c r="I279">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="J279">
         <v>0</v>
       </c>
       <c r="K279">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="L279">
         <v>0</v>
       </c>
       <c r="M279">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="N279">
         <v>0</v>
       </c>
       <c r="O279" s="8">
-        <v>5</v>
+        <v>12.86</v>
       </c>
       <c r="P279" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q279">
-        <v>1</v>
-      </c>
-      <c r="R279">
-        <v>0</v>
-      </c>
-      <c r="S279">
-        <v>0</v>
+        <v>4.29</v>
       </c>
       <c r="T279">
         <v>0</v>
@@ -60880,7 +62011,7 @@
         <v>0</v>
       </c>
       <c r="V279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W279">
         <f>Control!B277</f>
@@ -60900,10 +62031,10 @@
       </c>
       <c r="AA279">
         <f>'Fight Time'!B277</f>
-        <v>900</v>
+        <v>28</v>
       </c>
       <c r="AB279">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:28" x14ac:dyDescent="0.3">
@@ -61366,19 +62497,10 @@
         <v>1</v>
       </c>
       <c r="O285" s="8">
-        <v>5</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="P285" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q285">
-        <v>1</v>
-      </c>
-      <c r="R285">
-        <v>0</v>
-      </c>
-      <c r="S285">
-        <v>0</v>
+        <v>11.53</v>
       </c>
       <c r="T285">
         <v>0</v>
@@ -61387,7 +62509,7 @@
         <v>0</v>
       </c>
       <c r="V285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W285">
         <f>Control!B283</f>
@@ -61410,7 +62532,7 @@
         <v>900</v>
       </c>
       <c r="AB285">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:28" x14ac:dyDescent="0.3">
@@ -61772,31 +62894,31 @@
         <v>2</v>
       </c>
       <c r="I290">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="J290">
         <v>0</v>
       </c>
       <c r="K290">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L290">
         <v>0.25</v>
       </c>
       <c r="M290">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="N290">
         <v>0.75</v>
       </c>
       <c r="O290" s="8">
-        <v>4.3600000000000003</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="P290" s="8">
-        <v>2.5099999999999998</v>
+        <v>2.58</v>
       </c>
       <c r="T290">
-        <v>5.89</v>
+        <v>5.8</v>
       </c>
       <c r="U290">
         <v>0.35</v>
@@ -61806,26 +62928,26 @@
       </c>
       <c r="W290">
         <f>Control!B288</f>
-        <v>330.8</v>
+        <v>335.7</v>
       </c>
       <c r="X290">
         <f>'Ctrl pct'!B288</f>
-        <v>0.32915422885572143</v>
+        <v>0.33704819277108433</v>
       </c>
       <c r="Y290">
         <f>Controlled!B288</f>
-        <v>55</v>
+        <v>54.5</v>
       </c>
       <c r="Z290">
         <f>'Controlled pct'!B288</f>
-        <v>5.4726368159203981E-2</v>
+        <v>5.4718875502008033E-2</v>
       </c>
       <c r="AA290">
         <f>'Fight Time'!B288</f>
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="AB290">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291" spans="1:28" x14ac:dyDescent="0.3">
@@ -65306,19 +66428,19 @@
         <v>194</v>
       </c>
       <c r="E329">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F329">
         <v>6</v>
       </c>
       <c r="G329">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H329">
         <v>6</v>
       </c>
       <c r="I329">
-        <v>0.69</v>
+        <v>0.64</v>
       </c>
       <c r="J329">
         <v>0.5</v>
@@ -65330,16 +66452,16 @@
         <v>0.17</v>
       </c>
       <c r="M329">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="N329">
         <v>0.33</v>
       </c>
       <c r="O329" s="8">
-        <v>3.73</v>
+        <v>3.79</v>
       </c>
       <c r="P329" s="8">
-        <v>4.51</v>
+        <v>4.24</v>
       </c>
       <c r="Q329">
         <v>0.59</v>
@@ -65361,26 +66483,26 @@
       </c>
       <c r="W329">
         <f>Control!B327</f>
-        <v>18.2</v>
+        <v>17.7</v>
       </c>
       <c r="X329">
         <f>'Ctrl pct'!B327</f>
-        <v>3.5408560311284046E-2</v>
+        <v>3.0944055944055943E-2</v>
       </c>
       <c r="Y329">
         <f>Controlled!B327</f>
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="Z329">
         <f>'Controlled pct'!B327</f>
-        <v>2.5875486381322959E-2</v>
+        <v>2.2552447552447553E-2</v>
       </c>
       <c r="AA329">
         <f>'Fight Time'!B327</f>
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="AB329">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:28" x14ac:dyDescent="0.3">
@@ -70032,19 +71154,19 @@
         <v>188</v>
       </c>
       <c r="E384">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F384">
         <v>6</v>
       </c>
       <c r="G384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H384">
         <v>2</v>
       </c>
       <c r="I384">
-        <v>0.75</v>
+        <v>0.69</v>
       </c>
       <c r="J384">
         <v>0.33</v>
@@ -70056,48 +71178,48 @@
         <v>0.17</v>
       </c>
       <c r="M384">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="N384">
         <v>0.5</v>
       </c>
       <c r="O384" s="8">
-        <v>2.73</v>
+        <v>3.01</v>
       </c>
       <c r="P384" s="8">
-        <v>3.54</v>
+        <v>3.43</v>
       </c>
       <c r="T384">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U384">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="V384">
-        <v>0.56999999999999995</v>
+        <v>0.62</v>
       </c>
       <c r="W384">
         <f>Control!B382</f>
-        <v>4.5</v>
+        <v>54</v>
       </c>
       <c r="X384">
         <f>'Ctrl pct'!B382</f>
-        <v>5.7397959183673472E-3</v>
+        <v>6.6420664206642069E-2</v>
       </c>
       <c r="Y384">
         <f>Controlled!B382</f>
-        <v>258.5</v>
+        <v>308.66666666666669</v>
       </c>
       <c r="Z384">
         <f>'Controlled pct'!B382</f>
-        <v>0.32971938775510207</v>
+        <v>0.3796637966379664</v>
       </c>
       <c r="AA384">
         <f>'Fight Time'!B382</f>
-        <v>784</v>
+        <v>813</v>
       </c>
       <c r="AB384">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:28" x14ac:dyDescent="0.3">
@@ -77989,79 +79111,320 @@
       </c>
     </row>
     <row r="480" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A480" t="str">
+        <f>Control!A478</f>
+        <v>Veronica Hardy</v>
+      </c>
+      <c r="B480">
+        <v>29</v>
+      </c>
+      <c r="C480">
+        <v>163</v>
+      </c>
+      <c r="D480">
+        <v>163</v>
+      </c>
+      <c r="E480">
+        <v>9</v>
+      </c>
+      <c r="F480">
+        <v>5</v>
+      </c>
+      <c r="G480">
+        <v>4</v>
+      </c>
+      <c r="H480">
+        <v>5</v>
+      </c>
+      <c r="I480">
+        <v>0.11</v>
+      </c>
+      <c r="J480">
+        <v>0.2</v>
+      </c>
+      <c r="K480">
+        <v>0.22</v>
+      </c>
+      <c r="L480">
+        <v>0.2</v>
+      </c>
+      <c r="M480">
+        <v>0.67</v>
+      </c>
+      <c r="N480">
+        <v>0.6</v>
+      </c>
+      <c r="O480" s="8">
+        <v>3.12</v>
+      </c>
+      <c r="P480" s="8">
+        <v>3.48</v>
+      </c>
+      <c r="T480">
+        <v>0.93</v>
+      </c>
+      <c r="U480">
+        <v>0.41</v>
+      </c>
+      <c r="V480">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="W480">
         <f>Control!B478</f>
-        <v>0</v>
+        <v>112.6</v>
       </c>
       <c r="X480">
         <f>'Ctrl pct'!B478</f>
-        <v>0</v>
+        <v>0.15033377837116155</v>
       </c>
       <c r="Y480">
         <f>Controlled!B478</f>
-        <v>0</v>
+        <v>216.6</v>
       </c>
       <c r="Z480">
         <f>'Controlled pct'!B478</f>
-        <v>0</v>
+        <v>0.28918558077436579</v>
       </c>
       <c r="AA480">
         <f>'Fight Time'!B478</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="23:27" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+      <c r="AB480">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A481" t="str">
+        <f>Control!A479</f>
+        <v>Brogan Walker</v>
+      </c>
+      <c r="B481">
+        <v>36</v>
+      </c>
+      <c r="C481">
+        <v>163</v>
+      </c>
+      <c r="D481">
+        <v>170</v>
+      </c>
+      <c r="E481">
+        <v>7</v>
+      </c>
+      <c r="F481">
+        <v>4</v>
+      </c>
+      <c r="G481">
+        <v>0</v>
+      </c>
+      <c r="H481">
+        <v>2</v>
+      </c>
+      <c r="I481">
+        <v>0</v>
+      </c>
+      <c r="J481">
+        <v>0.25</v>
+      </c>
+      <c r="K481">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L481">
+        <v>0</v>
+      </c>
+      <c r="M481">
+        <v>0.86</v>
+      </c>
+      <c r="N481">
+        <v>0.75</v>
+      </c>
+      <c r="O481" s="8">
+        <v>2.04</v>
+      </c>
+      <c r="P481" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="T481">
+        <v>0</v>
+      </c>
+      <c r="U481">
+        <v>0</v>
+      </c>
+      <c r="V481">
+        <v>0.11</v>
+      </c>
       <c r="W481">
         <f>Control!B479</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="X481">
         <f>'Ctrl pct'!B479</f>
-        <v>0</v>
+        <v>8.0552359033371698E-2</v>
       </c>
       <c r="Y481">
         <f>Controlled!B479</f>
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="Z481">
         <f>'Controlled pct'!B479</f>
-        <v>0</v>
+        <v>0.36018411967779057</v>
       </c>
       <c r="AA481">
         <f>'Fight Time'!B479</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="23:27" x14ac:dyDescent="0.3">
+        <v>869</v>
+      </c>
+      <c r="AB481">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A482" t="str">
+        <f>Control!A480</f>
+        <v>Ramiz Brajimaj</v>
+      </c>
+      <c r="B482">
+        <v>32</v>
+      </c>
+      <c r="C482">
+        <v>178</v>
+      </c>
+      <c r="D482">
+        <v>183</v>
+      </c>
+      <c r="E482">
+        <v>12</v>
+      </c>
+      <c r="F482">
+        <v>5</v>
+      </c>
+      <c r="G482">
+        <v>4</v>
+      </c>
+      <c r="H482">
+        <v>3</v>
+      </c>
+      <c r="I482">
+        <v>0.08</v>
+      </c>
+      <c r="J482">
+        <v>0.2</v>
+      </c>
+      <c r="K482">
+        <v>0.92</v>
+      </c>
+      <c r="L482">
+        <v>0</v>
+      </c>
+      <c r="M482">
+        <v>0</v>
+      </c>
+      <c r="N482">
+        <v>0.8</v>
+      </c>
+      <c r="O482" s="8">
+        <v>2.14</v>
+      </c>
+      <c r="P482" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="T482">
+        <v>1.99</v>
+      </c>
+      <c r="U482">
+        <v>0.41</v>
+      </c>
+      <c r="V482">
+        <v>0.47</v>
+      </c>
       <c r="W482">
         <f>Control!B480</f>
-        <v>0</v>
+        <v>66.428571428571431</v>
       </c>
       <c r="X482">
         <f>'Ctrl pct'!B480</f>
-        <v>0</v>
+        <v>0.1466414380321665</v>
       </c>
       <c r="Y482">
         <f>Controlled!B480</f>
-        <v>0</v>
+        <v>213.28571428571428</v>
       </c>
       <c r="Z482">
         <f>'Controlled pct'!B480</f>
-        <v>0</v>
+        <v>0.47082939135919266</v>
       </c>
       <c r="AA482">
         <f>'Fight Time'!B480</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="23:27" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+      <c r="AB482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A483" t="str">
+        <f>Control!A481</f>
+        <v>Austin Vanderford</v>
+      </c>
+      <c r="B483">
+        <v>35</v>
+      </c>
+      <c r="C483">
+        <v>180</v>
+      </c>
+      <c r="D483">
+        <v>188</v>
+      </c>
+      <c r="E483">
+        <v>13</v>
+      </c>
+      <c r="F483">
+        <v>2</v>
+      </c>
+      <c r="G483">
+        <v>1</v>
+      </c>
+      <c r="H483">
+        <v>0</v>
+      </c>
+      <c r="I483">
+        <v>0.38</v>
+      </c>
+      <c r="J483">
+        <v>1</v>
+      </c>
+      <c r="K483">
+        <v>0.23</v>
+      </c>
+      <c r="L483">
+        <v>0</v>
+      </c>
+      <c r="M483">
+        <v>0.38</v>
+      </c>
+      <c r="N483">
+        <v>0</v>
+      </c>
+      <c r="O483" s="8">
+        <v>4.08</v>
+      </c>
+      <c r="P483" s="8">
+        <v>2.66</v>
+      </c>
+      <c r="T483">
+        <v>1.77</v>
+      </c>
+      <c r="U483">
+        <v>0.25</v>
+      </c>
+      <c r="V483">
+        <v>1</v>
+      </c>
       <c r="W483">
         <f>Control!B481</f>
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="X483">
         <f>'Ctrl pct'!B481</f>
-        <v>0</v>
+        <v>0.86811023622047245</v>
       </c>
       <c r="Y483">
         <f>Controlled!B481</f>
@@ -78073,186 +79436,677 @@
       </c>
       <c r="AA483">
         <f>'Fight Time'!B481</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="23:27" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+      <c r="AB483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A484" t="str">
+        <f>Control!A482</f>
+        <v>Punahele Soriano</v>
+      </c>
+      <c r="B484">
+        <v>32</v>
+      </c>
+      <c r="C484">
+        <v>180</v>
+      </c>
+      <c r="D484">
+        <v>184</v>
+      </c>
+      <c r="E484">
+        <v>11</v>
+      </c>
+      <c r="F484">
+        <v>4</v>
+      </c>
+      <c r="G484">
+        <v>5</v>
+      </c>
+      <c r="H484">
+        <v>4</v>
+      </c>
+      <c r="I484">
+        <v>0.64</v>
+      </c>
+      <c r="J484">
+        <v>0.25</v>
+      </c>
+      <c r="K484">
+        <v>0.18</v>
+      </c>
+      <c r="L484">
+        <v>0.25</v>
+      </c>
+      <c r="M484">
+        <v>0.18</v>
+      </c>
+      <c r="N484">
+        <v>0.5</v>
+      </c>
+      <c r="O484" s="8">
+        <v>5</v>
+      </c>
+      <c r="P484" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="T484">
+        <v>1.47</v>
+      </c>
+      <c r="U484">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V484">
+        <v>0.37</v>
+      </c>
       <c r="W484">
         <f>Control!B482</f>
-        <v>0</v>
+        <v>103.5</v>
       </c>
       <c r="X484">
         <f>'Ctrl pct'!B482</f>
-        <v>0</v>
+        <v>0.18852459016393441</v>
       </c>
       <c r="Y484">
         <f>Controlled!B482</f>
-        <v>0</v>
+        <v>102.125</v>
       </c>
       <c r="Z484">
         <f>'Controlled pct'!B482</f>
-        <v>0</v>
+        <v>0.1860200364298725</v>
       </c>
       <c r="AA484">
         <f>'Fight Time'!B482</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="23:27" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="AB484">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A485" t="str">
+        <f>Control!A483</f>
+        <v>Jakub Wiklacz</v>
+      </c>
+      <c r="B485">
+        <v>29</v>
+      </c>
+      <c r="C485">
+        <v>176</v>
+      </c>
+      <c r="D485">
+        <v>185</v>
+      </c>
+      <c r="E485">
+        <v>16</v>
+      </c>
+      <c r="F485">
+        <v>3</v>
+      </c>
+      <c r="G485">
+        <v>0</v>
+      </c>
+      <c r="H485">
+        <v>0</v>
+      </c>
+      <c r="I485">
+        <v>0</v>
+      </c>
+      <c r="J485">
+        <v>0.67</v>
+      </c>
+      <c r="K485">
+        <v>0.63</v>
+      </c>
+      <c r="L485">
+        <v>0.33</v>
+      </c>
+      <c r="M485">
+        <v>0.38</v>
+      </c>
+      <c r="N485">
+        <v>0</v>
+      </c>
+      <c r="O485" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="P485" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="T485">
+        <v>0.8</v>
+      </c>
+      <c r="U485">
+        <v>0.4</v>
+      </c>
+      <c r="V485">
+        <v>0.6</v>
+      </c>
       <c r="W485">
         <f>Control!B483</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="X485">
         <f>'Ctrl pct'!B483</f>
-        <v>0</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="Y485">
         <f>Controlled!B483</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="Z485">
         <f>'Controlled pct'!B483</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AA485">
         <f>'Fight Time'!B483</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="23:27" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+      <c r="AB485">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="486" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A486" t="str">
+        <f>Control!A484</f>
+        <v>Yana Santos</v>
+      </c>
+      <c r="B486">
+        <v>35</v>
+      </c>
+      <c r="C486">
+        <v>168</v>
+      </c>
+      <c r="D486">
+        <v>174</v>
+      </c>
+      <c r="E486">
+        <v>16</v>
+      </c>
+      <c r="F486">
+        <v>8</v>
+      </c>
+      <c r="G486">
+        <v>6</v>
+      </c>
+      <c r="H486">
+        <v>5</v>
+      </c>
+      <c r="I486">
+        <v>0.44</v>
+      </c>
+      <c r="J486">
+        <v>0.38</v>
+      </c>
+      <c r="K486">
+        <v>0.06</v>
+      </c>
+      <c r="L486">
+        <v>0.25</v>
+      </c>
+      <c r="M486">
+        <v>0.5</v>
+      </c>
+      <c r="N486">
+        <v>0.38</v>
+      </c>
+      <c r="O486" s="8">
+        <v>4.42</v>
+      </c>
+      <c r="P486" s="8">
+        <v>3.07</v>
+      </c>
+      <c r="T486">
+        <v>0.87</v>
+      </c>
+      <c r="U486">
+        <v>0.5</v>
+      </c>
+      <c r="V486">
+        <v>0.53</v>
+      </c>
       <c r="W486">
         <f>Control!B484</f>
-        <v>0</v>
+        <v>219.14285714285714</v>
       </c>
       <c r="X486">
         <f>'Ctrl pct'!B484</f>
-        <v>0</v>
+        <v>0.28987150415721846</v>
       </c>
       <c r="Y486">
         <f>Controlled!B484</f>
-        <v>0</v>
+        <v>245.57142857142858</v>
       </c>
       <c r="Z486">
         <f>'Controlled pct'!B484</f>
-        <v>0</v>
+        <v>0.32482993197278914</v>
       </c>
       <c r="AA486">
         <f>'Fight Time'!B484</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487" spans="23:27" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+      <c r="AB486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A487" t="str">
+        <f>Control!A485</f>
+        <v>Farid Basharat</v>
+      </c>
+      <c r="B487">
+        <v>28</v>
+      </c>
+      <c r="C487">
+        <v>173</v>
+      </c>
+      <c r="D487">
+        <v>180</v>
+      </c>
+      <c r="E487">
+        <v>13</v>
+      </c>
+      <c r="F487">
+        <v>0</v>
+      </c>
+      <c r="G487">
+        <v>4</v>
+      </c>
+      <c r="H487">
+        <v>0</v>
+      </c>
+      <c r="I487">
+        <v>0.08</v>
+      </c>
+      <c r="J487">
+        <v>0</v>
+      </c>
+      <c r="K487">
+        <v>0.46</v>
+      </c>
+      <c r="L487">
+        <v>0</v>
+      </c>
+      <c r="M487">
+        <v>0.46</v>
+      </c>
+      <c r="N487">
+        <v>0</v>
+      </c>
+      <c r="O487" s="8">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="P487" s="8">
+        <v>2.57</v>
+      </c>
+      <c r="T487">
+        <v>3.97</v>
+      </c>
+      <c r="U487">
+        <v>0.44</v>
+      </c>
+      <c r="V487">
+        <v>0.8</v>
+      </c>
       <c r="W487">
         <f>Control!B485</f>
-        <v>0</v>
+        <v>299.5</v>
       </c>
       <c r="X487">
         <f>'Ctrl pct'!B485</f>
-        <v>0</v>
+        <v>0.38845654993514916</v>
       </c>
       <c r="Y487">
         <f>Controlled!B485</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Z487">
         <f>'Controlled pct'!B485</f>
-        <v>0</v>
+        <v>6.744487678339818E-2</v>
       </c>
       <c r="AA487">
         <f>'Fight Time'!B485</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="23:27" x14ac:dyDescent="0.3">
+        <v>771</v>
+      </c>
+      <c r="AB487">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="488" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A488" t="str">
+        <f>Control!A486</f>
+        <v>Andre Muniz</v>
+      </c>
+      <c r="B488">
+        <v>35</v>
+      </c>
+      <c r="C488">
+        <v>185</v>
+      </c>
+      <c r="D488">
+        <v>198</v>
+      </c>
+      <c r="E488">
+        <v>24</v>
+      </c>
+      <c r="F488">
+        <v>7</v>
+      </c>
+      <c r="G488">
+        <v>6</v>
+      </c>
+      <c r="H488">
+        <v>3</v>
+      </c>
+      <c r="I488">
+        <v>0.17</v>
+      </c>
+      <c r="J488">
+        <v>0.86</v>
+      </c>
+      <c r="K488">
+        <v>0.63</v>
+      </c>
+      <c r="L488">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M488">
+        <v>0.21</v>
+      </c>
+      <c r="N488">
+        <v>0</v>
+      </c>
+      <c r="O488" s="8">
+        <v>2.04</v>
+      </c>
+      <c r="P488" s="8">
+        <v>2.33</v>
+      </c>
+      <c r="T488">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="U488">
+        <v>0.49</v>
+      </c>
+      <c r="V488">
+        <v>0.35</v>
+      </c>
       <c r="W488">
         <f>Control!B486</f>
-        <v>0</v>
+        <v>152.25</v>
       </c>
       <c r="X488">
         <f>'Ctrl pct'!B486</f>
-        <v>0</v>
+        <v>0.27732240437158467</v>
       </c>
       <c r="Y488">
         <f>Controlled!B486</f>
-        <v>0</v>
+        <v>106.625</v>
       </c>
       <c r="Z488">
         <f>'Controlled pct'!B486</f>
-        <v>0</v>
+        <v>0.19421675774134792</v>
       </c>
       <c r="AA488">
         <f>'Fight Time'!B486</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="23:27" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="AB488">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A489" t="str">
+        <f>Control!A487</f>
+        <v>Abus Magomedov</v>
+      </c>
+      <c r="B489">
+        <v>35</v>
+      </c>
+      <c r="C489">
+        <v>188</v>
+      </c>
+      <c r="D489">
+        <v>198</v>
+      </c>
+      <c r="E489">
+        <v>28</v>
+      </c>
+      <c r="F489">
+        <v>6</v>
+      </c>
+      <c r="G489">
+        <v>4</v>
+      </c>
+      <c r="H489">
+        <v>2</v>
+      </c>
+      <c r="I489">
+        <v>0.5</v>
+      </c>
+      <c r="J489">
+        <v>0.33</v>
+      </c>
+      <c r="K489">
+        <v>0.25</v>
+      </c>
+      <c r="L489">
+        <v>0.33</v>
+      </c>
+      <c r="M489">
+        <v>0.25</v>
+      </c>
+      <c r="N489">
+        <v>0.33</v>
+      </c>
+      <c r="O489" s="8">
+        <v>3.21</v>
+      </c>
+      <c r="P489" s="8">
+        <v>3.68</v>
+      </c>
+      <c r="T489">
+        <v>2.65</v>
+      </c>
+      <c r="U489">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V489">
+        <v>1</v>
+      </c>
       <c r="W489">
         <f>Control!B487</f>
-        <v>0</v>
+        <v>169.66666666666666</v>
       </c>
       <c r="X489">
         <f>'Ctrl pct'!B487</f>
-        <v>0</v>
+        <v>0.24987727049582717</v>
       </c>
       <c r="Y489">
         <f>Controlled!B487</f>
-        <v>0</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="Z489">
         <f>'Controlled pct'!B487</f>
-        <v>0</v>
+        <v>5.424644084437899E-2</v>
       </c>
       <c r="AA489">
         <f>'Fight Time'!B487</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="23:27" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+      <c r="AB489">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A490" t="str">
+        <f>Control!A488</f>
+        <v>Jiri Prochazka</v>
+      </c>
+      <c r="B490">
+        <v>32</v>
+      </c>
+      <c r="C490">
+        <v>191</v>
+      </c>
+      <c r="D490">
+        <v>203</v>
+      </c>
+      <c r="E490">
+        <v>31</v>
+      </c>
+      <c r="F490">
+        <v>5</v>
+      </c>
+      <c r="G490">
+        <v>5</v>
+      </c>
+      <c r="H490">
+        <v>2</v>
+      </c>
+      <c r="I490">
+        <v>0.87</v>
+      </c>
+      <c r="J490">
+        <v>0.8</v>
+      </c>
+      <c r="K490">
+        <v>0.1</v>
+      </c>
+      <c r="L490">
+        <v>0.2</v>
+      </c>
+      <c r="M490">
+        <v>0.03</v>
+      </c>
+      <c r="N490">
+        <v>0</v>
+      </c>
+      <c r="O490" s="8">
+        <v>5.74</v>
+      </c>
+      <c r="P490" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="T490">
+        <v>0.6</v>
+      </c>
+      <c r="U490">
+        <v>0.6</v>
+      </c>
+      <c r="V490">
+        <v>0.68</v>
+      </c>
       <c r="W490">
         <f>Control!B488</f>
-        <v>0</v>
+        <v>94.571428571428569</v>
       </c>
       <c r="X490">
         <f>'Ctrl pct'!B488</f>
-        <v>0</v>
+        <v>0.14616913225877676</v>
       </c>
       <c r="Y490">
         <f>Controlled!B488</f>
-        <v>0</v>
+        <v>90.857142857142861</v>
       </c>
       <c r="Z490">
         <f>'Controlled pct'!B488</f>
-        <v>0</v>
+        <v>0.140428350629278</v>
       </c>
       <c r="AA490">
         <f>'Fight Time'!B488</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="23:27" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+      <c r="AB490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A491" t="str">
+        <f>Control!A489</f>
+        <v>Cory Sandhagen</v>
+      </c>
+      <c r="B491">
+        <v>33</v>
+      </c>
+      <c r="C491">
+        <v>180</v>
+      </c>
+      <c r="D491">
+        <v>178</v>
+      </c>
+      <c r="E491">
+        <v>18</v>
+      </c>
+      <c r="F491">
+        <v>5</v>
+      </c>
+      <c r="G491">
+        <v>11</v>
+      </c>
+      <c r="H491">
+        <v>4</v>
+      </c>
+      <c r="I491">
+        <v>0.44</v>
+      </c>
+      <c r="J491">
+        <v>0</v>
+      </c>
+      <c r="K491">
+        <v>0.17</v>
+      </c>
+      <c r="L491">
+        <v>0.2</v>
+      </c>
+      <c r="M491">
+        <v>0.39</v>
+      </c>
+      <c r="N491">
+        <v>0.8</v>
+      </c>
+      <c r="O491" s="8">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="P491" s="8">
+        <v>3.34</v>
+      </c>
+      <c r="T491">
+        <v>1.28</v>
+      </c>
+      <c r="U491">
+        <v>0.34</v>
+      </c>
+      <c r="V491">
+        <v>0.63</v>
+      </c>
       <c r="W491">
         <f>Control!B489</f>
-        <v>0</v>
+        <v>217.8</v>
       </c>
       <c r="X491">
         <f>'Ctrl pct'!B489</f>
-        <v>0</v>
+        <v>0.25866983372921615</v>
       </c>
       <c r="Y491">
         <f>Controlled!B489</f>
-        <v>0</v>
+        <v>117.1</v>
       </c>
       <c r="Z491">
         <f>'Controlled pct'!B489</f>
-        <v>0</v>
+        <v>0.13907363420427551</v>
       </c>
       <c r="AA491">
         <f>'Fight Time'!B489</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="23:27" x14ac:dyDescent="0.3">
+        <v>842</v>
+      </c>
+      <c r="AB491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W492">
         <f>Control!B490</f>
         <v>0</v>
@@ -78274,7 +80128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W493">
         <f>Control!B491</f>
         <v>0</v>
@@ -78296,7 +80150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W494">
         <f>Control!B492</f>
         <v>0</v>
@@ -78318,7 +80172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W495">
         <f>Control!B493</f>
         <v>0</v>
@@ -78340,7 +80194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W496">
         <f>Control!B494</f>
         <v>0</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A249E7-775D-44A5-9534-F73D021F9A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F361F872-2232-4E21-812F-6D1A83DCE6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="749">
   <si>
     <t>Khaos</t>
   </si>
@@ -2248,6 +2248,36 @@
   <si>
     <t>Cory Sandhagen</t>
   </si>
+  <si>
+    <t>Luan Lacerda</t>
+  </si>
+  <si>
+    <t>Karolina Kowalkiewicz</t>
+  </si>
+  <si>
+    <t>Stewart Nicoll</t>
+  </si>
+  <si>
+    <t>Lucas Rocha</t>
+  </si>
+  <si>
+    <t>Beatriz Mesquita</t>
+  </si>
+  <si>
+    <t>Clayton Carpenter</t>
+  </si>
+  <si>
+    <t>Michael Aswell</t>
+  </si>
+  <si>
+    <t>Kaan Ofli</t>
+  </si>
+  <si>
+    <t>Joel Alvarez</t>
+  </si>
+  <si>
+    <t>Deiveson Figueiredo</t>
+  </si>
 </sst>
 </file>
 
@@ -2675,10 +2705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
-  <dimension ref="A1:AE489"/>
+  <dimension ref="A1:AE499"/>
   <sheetViews>
-    <sheetView topLeftCell="A361" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E383" sqref="E383"/>
+    <sheetView topLeftCell="A331" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I360" sqref="I360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2866,7 +2896,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ref="B7:B68" si="1" xml:space="preserve"> AVERAGE(C7:BC7)</f>
-        <v>243.66666666666666</v>
+        <v>189.75</v>
       </c>
       <c r="C7">
         <f>7*60+19</f>
@@ -2879,6 +2909,9 @@
       <c r="E7">
         <v>58</v>
       </c>
+      <c r="F7">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -4589,49 +4622,37 @@
         <v>315</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" si="1"/>
-        <v>82.5</v>
-      </c>
-      <c r="C59">
-        <v>102</v>
-      </c>
-      <c r="D59">
-        <v>37</v>
-      </c>
-      <c r="E59">
-        <v>58</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
+        <f xml:space="preserve"> AVERAGE(C59:BC59)</f>
+        <v>95.8</v>
+      </c>
+      <c r="C59" s="14">
         <v>146</v>
       </c>
-      <c r="H59">
+      <c r="D59" s="14">
         <v>66</v>
       </c>
-      <c r="I59">
+      <c r="E59" s="14">
         <v>57</v>
       </c>
-      <c r="J59">
+      <c r="F59" s="14">
         <v>206</v>
       </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
+      <c r="G59" s="14">
+        <v>0</v>
+      </c>
+      <c r="H59" s="14">
         <v>1</v>
       </c>
-      <c r="M59" s="10">
+      <c r="I59" s="13">
         <v>118</v>
       </c>
-      <c r="N59" s="10">
+      <c r="J59" s="13">
         <v>87</v>
       </c>
-      <c r="O59" s="10">
+      <c r="K59" s="13">
         <v>249</v>
       </c>
-      <c r="P59" s="10">
+      <c r="L59" s="13">
         <v>28</v>
       </c>
     </row>
@@ -7596,7 +7617,7 @@
       </c>
       <c r="B153" s="1">
         <f t="shared" si="3"/>
-        <v>167.5</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -7609,6 +7630,9 @@
       </c>
       <c r="F153">
         <v>193</v>
+      </c>
+      <c r="G153">
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
@@ -7823,7 +7847,7 @@
       </c>
       <c r="B162" s="1">
         <f t="shared" si="3"/>
-        <v>177.66666666666666</v>
+        <v>133.25</v>
       </c>
       <c r="C162">
         <v>383</v>
@@ -7833,6 +7857,9 @@
       </c>
       <c r="E162">
         <v>135</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.3">
@@ -9852,7 +9879,7 @@
       </c>
       <c r="B222" s="1">
         <f t="shared" si="4"/>
-        <v>128</v>
+        <v>268.2</v>
       </c>
       <c r="C222">
         <v>276</v>
@@ -9865,6 +9892,10 @@
       </c>
       <c r="F222">
         <v>8</v>
+      </c>
+      <c r="G222">
+        <f>13*60+49</f>
+        <v>829</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.3">
@@ -10114,7 +10145,7 @@
       </c>
       <c r="B232" s="1">
         <f t="shared" si="4"/>
-        <v>262.22222222222223</v>
+        <v>257.7</v>
       </c>
       <c r="C232">
         <v>45</v>
@@ -10144,6 +10175,9 @@
       <c r="K232">
         <v>2</v>
       </c>
+      <c r="L232">
+        <v>217</v>
+      </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
@@ -11208,41 +11242,38 @@
         <v>501</v>
       </c>
       <c r="B271" s="1">
-        <f t="shared" si="5"/>
-        <v>412.72727272727275</v>
-      </c>
-      <c r="C271">
-        <v>209</v>
-      </c>
-      <c r="D271">
+        <f xml:space="preserve"> AVERAGE(C271:BC271)</f>
+        <v>433.1</v>
+      </c>
+      <c r="C271" s="14">
         <v>50</v>
       </c>
-      <c r="E271">
+      <c r="D271" s="14">
         <v>46</v>
       </c>
-      <c r="F271">
+      <c r="E271" s="14">
         <v>65</v>
       </c>
-      <c r="G271">
+      <c r="F271" s="14">
         <v>2298</v>
       </c>
-      <c r="H271">
+      <c r="G271" s="14">
         <v>127</v>
       </c>
-      <c r="I271">
+      <c r="H271" s="14">
         <f>360+52</f>
         <v>412</v>
       </c>
-      <c r="J271">
+      <c r="I271" s="14">
         <v>88</v>
       </c>
-      <c r="K271">
+      <c r="J271" s="14">
         <v>421</v>
       </c>
-      <c r="L271">
+      <c r="K271" s="14">
         <v>299</v>
       </c>
-      <c r="M271" s="10">
+      <c r="L271" s="13">
         <v>525</v>
       </c>
     </row>
@@ -11504,7 +11535,7 @@
       </c>
       <c r="B282" s="1">
         <f t="shared" si="5"/>
-        <v>111.66666666666667</v>
+        <v>100.5</v>
       </c>
       <c r="C282">
         <v>25</v>
@@ -11534,6 +11565,9 @@
       <c r="K282">
         <v>14</v>
       </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
@@ -12328,13 +12362,16 @@
       </c>
       <c r="B311" s="1">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C311">
         <v>0</v>
       </c>
       <c r="D311">
         <v>50</v>
+      </c>
+      <c r="E311">
+        <v>103</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
@@ -12365,7 +12402,7 @@
       </c>
       <c r="B313" s="1">
         <f t="shared" si="5"/>
-        <v>182.4</v>
+        <v>152</v>
       </c>
       <c r="C313">
         <v>2</v>
@@ -12383,6 +12420,9 @@
       <c r="G313">
         <v>0</v>
       </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
@@ -12794,7 +12834,7 @@
       </c>
       <c r="B331" s="1">
         <f t="shared" si="6"/>
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="C331">
         <v>2</v>
@@ -12807,6 +12847,9 @@
       </c>
       <c r="F331">
         <v>36</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.3">
@@ -13254,39 +13297,39 @@
         <v>590</v>
       </c>
       <c r="B346" s="1">
-        <f t="shared" si="6"/>
-        <v>231.1</v>
+        <f xml:space="preserve"> AVERAGE(C346:BC346)</f>
+        <v>233</v>
       </c>
       <c r="C346">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D346">
-        <v>11</v>
+        <v>699</v>
       </c>
       <c r="E346">
-        <v>699</v>
+        <v>102</v>
       </c>
       <c r="F346">
-        <v>102</v>
+        <v>341</v>
       </c>
       <c r="G346">
-        <v>341</v>
+        <v>39</v>
       </c>
       <c r="H346">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I346">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J346">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="K346">
-        <v>152</v>
-      </c>
-      <c r="L346">
         <f>14*60+52</f>
         <v>892</v>
+      </c>
+      <c r="L346">
+        <v>21</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.3">
@@ -13604,7 +13647,7 @@
       </c>
       <c r="B359" s="1">
         <f t="shared" si="6"/>
-        <v>234.83333333333334</v>
+        <v>227.42857142857142</v>
       </c>
       <c r="C359">
         <v>373</v>
@@ -13623,6 +13666,9 @@
       </c>
       <c r="H359">
         <v>40</v>
+      </c>
+      <c r="I359">
+        <v>183</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -15989,7 +16035,7 @@
         <v>696</v>
       </c>
       <c r="B447" s="1">
-        <f t="shared" ref="B447:B490" si="8" xml:space="preserve"> AVERAGE(C447:BC447)</f>
+        <f t="shared" ref="B447:B499" si="8" xml:space="preserve"> AVERAGE(C447:BC447)</f>
         <v>30</v>
       </c>
       <c r="C447">
@@ -16947,6 +16993,198 @@
       </c>
       <c r="L489">
         <v>307</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A490" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B490" s="1">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="C490">
+        <v>94</v>
+      </c>
+      <c r="D490">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>740</v>
+      </c>
+      <c r="B491" s="1">
+        <f t="shared" si="8"/>
+        <v>109.125</v>
+      </c>
+      <c r="C491">
+        <v>105</v>
+      </c>
+      <c r="D491">
+        <v>26</v>
+      </c>
+      <c r="E491">
+        <v>190</v>
+      </c>
+      <c r="F491">
+        <v>243</v>
+      </c>
+      <c r="G491">
+        <v>112</v>
+      </c>
+      <c r="H491">
+        <v>135</v>
+      </c>
+      <c r="I491">
+        <v>0</v>
+      </c>
+      <c r="J491">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>741</v>
+      </c>
+      <c r="B492" s="1">
+        <f t="shared" si="8"/>
+        <v>124</v>
+      </c>
+      <c r="C492">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>742</v>
+      </c>
+      <c r="B493" s="1">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="C493">
+        <v>18</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>743</v>
+      </c>
+      <c r="B494" s="1">
+        <f t="shared" si="8"/>
+        <v>140</v>
+      </c>
+      <c r="C494" s="8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>744</v>
+      </c>
+      <c r="B495" s="1">
+        <f t="shared" si="8"/>
+        <v>201.75</v>
+      </c>
+      <c r="C495">
+        <v>269</v>
+      </c>
+      <c r="D495">
+        <v>79</v>
+      </c>
+      <c r="E495">
+        <v>278</v>
+      </c>
+      <c r="F495">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>745</v>
+      </c>
+      <c r="B496" s="1">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="C496">
+        <v>32</v>
+      </c>
+      <c r="D496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>746</v>
+      </c>
+      <c r="B497" s="1">
+        <f t="shared" si="8"/>
+        <v>154</v>
+      </c>
+      <c r="C497">
+        <v>93</v>
+      </c>
+      <c r="D497">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>747</v>
+      </c>
+      <c r="B498" s="1">
+        <f t="shared" si="8"/>
+        <v>20.428571428571427</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498">
+        <v>0</v>
+      </c>
+      <c r="E498">
+        <v>2</v>
+      </c>
+      <c r="F498">
+        <v>0</v>
+      </c>
+      <c r="G498">
+        <v>86</v>
+      </c>
+      <c r="H498">
+        <v>51</v>
+      </c>
+      <c r="I498">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>748</v>
+      </c>
+      <c r="B499" s="1">
+        <f t="shared" si="8"/>
+        <v>165.4</v>
+      </c>
+      <c r="C499">
+        <v>242</v>
+      </c>
+      <c r="D499">
+        <v>223</v>
+      </c>
+      <c r="E499">
+        <v>150</v>
+      </c>
+      <c r="F499">
+        <v>181</v>
+      </c>
+      <c r="G499">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -16957,10 +17195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
-  <dimension ref="A1:B489"/>
+  <dimension ref="A1:B499"/>
   <sheetViews>
     <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="B477" sqref="B477:B489"/>
+      <selection activeCell="B489" sqref="B489:B499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17028,7 +17266,7 @@
       </c>
       <c r="B7">
         <f>Control!B7/'Fight Time'!B7</f>
-        <v>0.57468553459119498</v>
+        <v>0.57153614457831325</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -17460,7 +17698,7 @@
       </c>
       <c r="B55">
         <f>Control!B55/'Fight Time'!B55</f>
-        <v>5.9891598915989164E-2</v>
+        <v>5.5555555555555559E-2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -17496,7 +17734,7 @@
       </c>
       <c r="B59">
         <f>Control!B59/'Fight Time'!B59</f>
-        <v>0.14972776769509982</v>
+        <v>0.16631944444444444</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -17505,7 +17743,7 @@
       </c>
       <c r="B60">
         <f>Control!B60/'Fight Time'!B60</f>
-        <v>9.7087378640776698E-2</v>
+        <v>4.5248868778280542E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -18342,7 +18580,7 @@
       </c>
       <c r="B153">
         <f>Control!B153/'Fight Time'!B153</f>
-        <v>0.2065351418002466</v>
+        <v>0.16622436670687576</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -18423,7 +18661,7 @@
       </c>
       <c r="B162">
         <f>Control!B162/'Fight Time'!B162</f>
-        <v>0.23815907059874886</v>
+        <v>0.21184419713831479</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -18963,7 +19201,7 @@
       </c>
       <c r="B222">
         <f>Control!B222/'Fight Time'!B222</f>
-        <v>0.21694915254237288</v>
+        <v>0.4113496932515337</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -19053,7 +19291,7 @@
       </c>
       <c r="B232">
         <f>Control!B232/'Fight Time'!B232</f>
-        <v>0.43776664811723243</v>
+        <v>0.41298076923076921</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -19350,7 +19588,7 @@
       </c>
       <c r="B265">
         <f>Control!B265/'Fight Time'!B265</f>
-        <v>0.32455795677799604</v>
+        <v>0.28143100511073255</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -19404,7 +19642,7 @@
       </c>
       <c r="B271">
         <f>Control!B271/'Fight Time'!B271</f>
-        <v>0.5592510470559251</v>
+        <v>0.5759308510638298</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -19503,7 +19741,7 @@
       </c>
       <c r="B282">
         <f>Control!B282/'Fight Time'!B282</f>
-        <v>0.19352975158867708</v>
+        <v>0.17693661971830985</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -19764,7 +20002,7 @@
       </c>
       <c r="B311">
         <f>Control!B311/'Fight Time'!B311</f>
-        <v>4.8449612403100778E-2</v>
+        <v>7.9192546583850928E-2</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -19782,7 +20020,7 @@
       </c>
       <c r="B313">
         <f>Control!B313/'Fight Time'!B313</f>
-        <v>0.23176620076238882</v>
+        <v>0.18858560794044665</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -19944,7 +20182,7 @@
       </c>
       <c r="B331">
         <f>Control!B331/'Fight Time'!B331</f>
-        <v>3.2894736842105261E-2</v>
+        <v>2.3140495867768594E-2</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -20079,7 +20317,7 @@
       </c>
       <c r="B346">
         <f>Control!B346/'Fight Time'!B346</f>
-        <v>0.50458515283842797</v>
+        <v>0.51777777777777778</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -20196,7 +20434,7 @@
       </c>
       <c r="B359">
         <f>Control!B359/'Fight Time'!B359</f>
-        <v>0.36981627296587927</v>
+        <v>0.38678328474246837</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -21367,6 +21605,96 @@
       <c r="B489">
         <f>Control!B489/'Fight Time'!B489</f>
         <v>0.25866983372921615</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B490">
+        <f>Control!B490/'Fight Time'!B490</f>
+        <v>8.3682008368200833E-2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>740</v>
+      </c>
+      <c r="B491">
+        <f>Control!B491/'Fight Time'!B491</f>
+        <v>0.13726415094339622</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>741</v>
+      </c>
+      <c r="B492">
+        <f>Control!B492/'Fight Time'!B492</f>
+        <v>0.77987421383647804</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>742</v>
+      </c>
+      <c r="B493">
+        <f>Control!B493/'Fight Time'!B493</f>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>743</v>
+      </c>
+      <c r="B494">
+        <f>Control!B494/'Fight Time'!B494</f>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>744</v>
+      </c>
+      <c r="B495">
+        <f>Control!B495/'Fight Time'!B495</f>
+        <v>0.33292079207920794</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>745</v>
+      </c>
+      <c r="B496">
+        <f>Control!B496/'Fight Time'!B496</f>
+        <v>1.7777777777777778E-2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>746</v>
+      </c>
+      <c r="B497">
+        <f>Control!B497/'Fight Time'!B497</f>
+        <v>0.23875968992248062</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>747</v>
+      </c>
+      <c r="B498">
+        <f>Control!B498/'Fight Time'!B498</f>
+        <v>4.818059299191374E-2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>748</v>
+      </c>
+      <c r="B499">
+        <f>Control!B499/'Fight Time'!B499</f>
+        <v>0.21820580474934037</v>
       </c>
     </row>
   </sheetData>
@@ -21376,10 +21704,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
-  <dimension ref="A1:AE489"/>
+  <dimension ref="A1:AE499"/>
   <sheetViews>
-    <sheetView topLeftCell="A367" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E383" sqref="E383"/>
+    <sheetView topLeftCell="A343" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I360" sqref="I360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21618,7 +21946,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>14.333333333333334</v>
+        <v>11.5</v>
       </c>
       <c r="C7">
         <v>43</v>
@@ -21628,6 +21956,9 @@
       </c>
       <c r="E7">
         <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
@@ -23322,49 +23653,37 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" si="0"/>
-        <v>62.785714285714285</v>
-      </c>
-      <c r="C59">
-        <v>211</v>
-      </c>
-      <c r="D59">
-        <v>100</v>
-      </c>
-      <c r="E59">
-        <v>127</v>
-      </c>
-      <c r="F59">
-        <v>5</v>
-      </c>
-      <c r="G59">
+        <f>AVERAGE(C59:BA59)</f>
+        <v>43.6</v>
+      </c>
+      <c r="C59" s="14">
         <v>10</v>
       </c>
-      <c r="H59">
+      <c r="D59" s="14">
         <v>3</v>
       </c>
-      <c r="I59">
+      <c r="E59" s="14">
         <v>82</v>
       </c>
-      <c r="J59">
+      <c r="F59" s="14">
         <v>41</v>
       </c>
-      <c r="K59">
+      <c r="G59" s="14">
         <v>55</v>
       </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59" s="11">
-        <v>0</v>
-      </c>
-      <c r="N59" s="11">
-        <v>0</v>
-      </c>
-      <c r="O59" s="11">
+      <c r="H59" s="14">
+        <v>0</v>
+      </c>
+      <c r="I59" s="14">
+        <v>0</v>
+      </c>
+      <c r="J59" s="14">
+        <v>0</v>
+      </c>
+      <c r="K59" s="14">
         <v>90</v>
       </c>
-      <c r="P59" s="11">
+      <c r="L59" s="14">
         <v>155</v>
       </c>
     </row>
@@ -26328,7 +26647,7 @@
       </c>
       <c r="B153" s="1">
         <f t="shared" si="2"/>
-        <v>213.5</v>
+        <v>260.8</v>
       </c>
       <c r="C153">
         <v>491</v>
@@ -26341,6 +26660,9 @@
       </c>
       <c r="F153">
         <v>320</v>
+      </c>
+      <c r="G153">
+        <v>450</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
@@ -26557,7 +26879,7 @@
       </c>
       <c r="B162" s="1">
         <f t="shared" si="2"/>
-        <v>276.66666666666669</v>
+        <v>218</v>
       </c>
       <c r="C162">
         <v>82</v>
@@ -26567,6 +26889,9 @@
       </c>
       <c r="E162">
         <v>60</v>
+      </c>
+      <c r="F162">
+        <v>42</v>
       </c>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.3">
@@ -28578,7 +28903,7 @@
       </c>
       <c r="B222" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="C222">
         <v>8</v>
@@ -28590,6 +28915,9 @@
         <v>0</v>
       </c>
       <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
         <v>0</v>
       </c>
     </row>
@@ -28842,7 +29170,7 @@
       </c>
       <c r="B232" s="1">
         <f t="shared" si="3"/>
-        <v>116.77777777777777</v>
+        <v>139.6</v>
       </c>
       <c r="C232">
         <v>347</v>
@@ -28872,6 +29200,9 @@
       <c r="K232">
         <v>0</v>
       </c>
+      <c r="L232">
+        <v>345</v>
+      </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
@@ -29930,40 +30261,37 @@
         <v>501</v>
       </c>
       <c r="B271" s="1">
-        <f t="shared" si="4"/>
-        <v>26.454545454545453</v>
-      </c>
-      <c r="C271">
-        <v>1</v>
-      </c>
-      <c r="D271">
-        <v>0</v>
-      </c>
-      <c r="E271">
+        <f>AVERAGE(C271:BA271)</f>
+        <v>29</v>
+      </c>
+      <c r="C271" s="14">
+        <v>0</v>
+      </c>
+      <c r="D271" s="14">
         <v>3</v>
       </c>
-      <c r="F271">
-        <v>0</v>
-      </c>
-      <c r="G271">
+      <c r="E271" s="14">
+        <v>0</v>
+      </c>
+      <c r="F271" s="14">
         <v>99</v>
       </c>
-      <c r="H271">
+      <c r="G271" s="14">
         <v>34</v>
       </c>
-      <c r="I271">
+      <c r="H271" s="14">
         <v>32</v>
       </c>
-      <c r="J271">
-        <v>0</v>
-      </c>
-      <c r="K271">
+      <c r="I271" s="14">
+        <v>0</v>
+      </c>
+      <c r="J271" s="14">
         <v>11</v>
       </c>
-      <c r="L271">
+      <c r="K271" s="14">
         <v>88</v>
       </c>
-      <c r="M271" s="11">
+      <c r="L271" s="14">
         <v>23</v>
       </c>
     </row>
@@ -30222,7 +30550,7 @@
       </c>
       <c r="B282" s="1">
         <f t="shared" si="4"/>
-        <v>113.66666666666667</v>
+        <v>103.6</v>
       </c>
       <c r="C282">
         <v>109</v>
@@ -30250,6 +30578,9 @@
       </c>
       <c r="K282">
         <v>0</v>
+      </c>
+      <c r="L282">
+        <v>13</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
@@ -31040,13 +31371,16 @@
       </c>
       <c r="B311" s="1">
         <f t="shared" si="4"/>
-        <v>247.5</v>
+        <v>210</v>
       </c>
       <c r="C311">
         <v>0</v>
       </c>
       <c r="D311">
         <v>495</v>
+      </c>
+      <c r="E311">
+        <v>135</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
@@ -31076,7 +31410,7 @@
       </c>
       <c r="B313" s="1">
         <f t="shared" si="4"/>
-        <v>22.8</v>
+        <v>19.333333333333332</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -31092,6 +31426,9 @@
       </c>
       <c r="G313">
         <v>61</v>
+      </c>
+      <c r="H313">
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.3">
@@ -31504,7 +31841,7 @@
       </c>
       <c r="B331" s="1">
         <f t="shared" si="5"/>
-        <v>216</v>
+        <v>173.8</v>
       </c>
       <c r="C331">
         <v>2</v>
@@ -31517,6 +31854,9 @@
       </c>
       <c r="F331">
         <v>434</v>
+      </c>
+      <c r="G331">
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.3">
@@ -31964,38 +32304,38 @@
         <v>590</v>
       </c>
       <c r="B346" s="1">
-        <f t="shared" si="5"/>
-        <v>170.4</v>
+        <f>AVERAGE(C346:BA346)</f>
+        <v>176</v>
       </c>
       <c r="C346">
+        <v>390</v>
+      </c>
+      <c r="D346">
         <v>5</v>
       </c>
-      <c r="D346">
-        <v>390</v>
-      </c>
       <c r="E346">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="F346">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="G346">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H346">
-        <v>13</v>
+        <v>305</v>
       </c>
       <c r="I346">
-        <v>305</v>
+        <v>164</v>
       </c>
       <c r="J346">
-        <v>164</v>
+        <v>521</v>
       </c>
       <c r="K346">
-        <v>521</v>
+        <v>119</v>
       </c>
       <c r="L346">
-        <v>119</v>
+        <v>61</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.3">
@@ -32312,7 +32652,7 @@
       </c>
       <c r="B359" s="1">
         <f t="shared" si="5"/>
-        <v>54.666666666666664</v>
+        <v>46.857142857142854</v>
       </c>
       <c r="C359">
         <v>280</v>
@@ -32331,6 +32671,9 @@
       </c>
       <c r="H359">
         <v>20</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -34549,7 +34892,7 @@
         <v>691</v>
       </c>
       <c r="B442" s="1">
-        <f t="shared" ref="B442:B489" si="7">AVERAGE(C442:BA442)</f>
+        <f t="shared" ref="B442:B499" si="7">AVERAGE(C442:BA442)</f>
         <v>97.6</v>
       </c>
       <c r="C442">
@@ -35640,6 +35983,198 @@
       </c>
       <c r="L489">
         <v>31</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A490" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B490" s="1">
+        <f t="shared" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>740</v>
+      </c>
+      <c r="B491" s="1">
+        <f t="shared" si="7"/>
+        <v>158.25</v>
+      </c>
+      <c r="C491">
+        <v>306</v>
+      </c>
+      <c r="D491">
+        <v>193</v>
+      </c>
+      <c r="E491">
+        <v>1</v>
+      </c>
+      <c r="F491">
+        <v>10</v>
+      </c>
+      <c r="G491">
+        <v>0</v>
+      </c>
+      <c r="H491">
+        <v>53</v>
+      </c>
+      <c r="I491">
+        <v>356</v>
+      </c>
+      <c r="J491">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>741</v>
+      </c>
+      <c r="B492" s="1">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="C492">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>742</v>
+      </c>
+      <c r="B493" s="1">
+        <f t="shared" si="7"/>
+        <v>259.5</v>
+      </c>
+      <c r="C493">
+        <v>241</v>
+      </c>
+      <c r="D493">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>743</v>
+      </c>
+      <c r="B494" s="1">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="C494" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>744</v>
+      </c>
+      <c r="B495" s="1">
+        <f t="shared" si="7"/>
+        <v>125.25</v>
+      </c>
+      <c r="C495">
+        <v>10</v>
+      </c>
+      <c r="D495">
+        <v>82</v>
+      </c>
+      <c r="E495">
+        <v>0</v>
+      </c>
+      <c r="F495">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>745</v>
+      </c>
+      <c r="B496" s="1">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="C496">
+        <v>92</v>
+      </c>
+      <c r="D496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>746</v>
+      </c>
+      <c r="B497" s="1">
+        <f t="shared" si="7"/>
+        <v>169</v>
+      </c>
+      <c r="C497">
+        <v>2</v>
+      </c>
+      <c r="D497">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>747</v>
+      </c>
+      <c r="B498" s="1">
+        <f t="shared" si="7"/>
+        <v>110.42857142857143</v>
+      </c>
+      <c r="C498">
+        <v>9</v>
+      </c>
+      <c r="D498">
+        <v>117</v>
+      </c>
+      <c r="E498">
+        <v>0</v>
+      </c>
+      <c r="F498">
+        <v>368</v>
+      </c>
+      <c r="G498">
+        <v>189</v>
+      </c>
+      <c r="H498">
+        <v>22</v>
+      </c>
+      <c r="I498">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>748</v>
+      </c>
+      <c r="B499" s="1">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="C499">
+        <v>22</v>
+      </c>
+      <c r="D499">
+        <v>2</v>
+      </c>
+      <c r="E499">
+        <v>8</v>
+      </c>
+      <c r="F499">
+        <v>201</v>
+      </c>
+      <c r="G499">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -35649,10 +36184,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
-  <dimension ref="A1:B489"/>
+  <dimension ref="A1:B499"/>
   <sheetViews>
-    <sheetView topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="B477" sqref="B477:B489"/>
+    <sheetView topLeftCell="A489" workbookViewId="0">
+      <selection activeCell="B489" sqref="B489:B499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35720,7 +36255,7 @@
       </c>
       <c r="B7">
         <f>Controlled!B7/'Fight Time'!B7</f>
-        <v>3.380503144654088E-2</v>
+        <v>3.463855421686747E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -36152,7 +36687,7 @@
       </c>
       <c r="B55">
         <f>Controlled!B55/'Fight Time'!B55</f>
-        <v>0.25013550135501356</v>
+        <v>0.23202614379084968</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -36188,7 +36723,7 @@
       </c>
       <c r="B59">
         <f>Controlled!B59/'Fight Time'!B59</f>
-        <v>0.11394866476536168</v>
+        <v>7.5694444444444453E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -36197,7 +36732,7 @@
       </c>
       <c r="B60">
         <f>Controlled!B60/'Fight Time'!B60</f>
-        <v>0.25728155339805825</v>
+        <v>0.11990950226244344</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -37034,7 +37569,7 @@
       </c>
       <c r="B153">
         <f>Controlled!B153/'Fight Time'!B153</f>
-        <v>0.26325524044389642</v>
+        <v>0.31459589867310012</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -37115,7 +37650,7 @@
       </c>
       <c r="B162">
         <f>Controlled!B162/'Fight Time'!B162</f>
-        <v>0.3708668453976765</v>
+        <v>0.34658187599364071</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -37655,7 +38190,7 @@
       </c>
       <c r="B222">
         <f>Controlled!B222/'Fight Time'!B222</f>
-        <v>5.084745762711864E-3</v>
+        <v>3.6809815950920245E-3</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -37745,7 +38280,7 @@
       </c>
       <c r="B232">
         <f>Controlled!B232/'Fight Time'!B232</f>
-        <v>0.19495455388610647</v>
+        <v>0.2237179487179487</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -38042,7 +38577,7 @@
       </c>
       <c r="B265">
         <f>Controlled!B265/'Fight Time'!B265</f>
-        <v>0.4255402750491159</v>
+        <v>0.36899488926746166</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -38096,7 +38631,7 @@
       </c>
       <c r="B271">
         <f>Controlled!B271/'Fight Time'!B271</f>
-        <v>3.5846267553584624E-2</v>
+        <v>3.8563829787234043E-2</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -38195,7 +38730,7 @@
       </c>
       <c r="B282">
         <f>Controlled!B282/'Fight Time'!B282</f>
-        <v>0.19699595609474294</v>
+        <v>0.18239436619718308</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -38456,7 +38991,7 @@
       </c>
       <c r="B311">
         <f>Controlled!B311/'Fight Time'!B311</f>
-        <v>0.47965116279069769</v>
+        <v>0.32608695652173914</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -38474,7 +39009,7 @@
       </c>
       <c r="B313">
         <f>Controlled!B313/'Fight Time'!B313</f>
-        <v>2.8970775095298603E-2</v>
+        <v>2.3986765922249791E-2</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -38636,7 +39171,7 @@
       </c>
       <c r="B331">
         <f>Controlled!B331/'Fight Time'!B331</f>
-        <v>0.40601503759398494</v>
+        <v>0.28727272727272729</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -38771,7 +39306,7 @@
       </c>
       <c r="B346">
         <f>Controlled!B346/'Fight Time'!B346</f>
-        <v>0.37205240174672488</v>
+        <v>0.39111111111111113</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -38888,7 +39423,7 @@
       </c>
       <c r="B359">
         <f>Controlled!B359/'Fight Time'!B359</f>
-        <v>8.6089238845144356E-2</v>
+        <v>7.9689018464528666E-2</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -40059,6 +40594,96 @@
       <c r="B489">
         <f>Controlled!B489/'Fight Time'!B489</f>
         <v>0.13907363420427551</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B490">
+        <f>Controlled!B490/'Fight Time'!B490</f>
+        <v>9.3444909344490928E-2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>740</v>
+      </c>
+      <c r="B491">
+        <f>Controlled!B491/'Fight Time'!B491</f>
+        <v>0.19905660377358492</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>741</v>
+      </c>
+      <c r="B492">
+        <f>Controlled!B492/'Fight Time'!B492</f>
+        <v>0.10062893081761007</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>742</v>
+      </c>
+      <c r="B493">
+        <f>Controlled!B493/'Fight Time'!B493</f>
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>743</v>
+      </c>
+      <c r="B494">
+        <f>Controlled!B494/'Fight Time'!B494</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>744</v>
+      </c>
+      <c r="B495">
+        <f>Controlled!B495/'Fight Time'!B495</f>
+        <v>0.20668316831683167</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>745</v>
+      </c>
+      <c r="B496">
+        <f>Controlled!B496/'Fight Time'!B496</f>
+        <v>5.1111111111111114E-2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>746</v>
+      </c>
+      <c r="B497">
+        <f>Controlled!B497/'Fight Time'!B497</f>
+        <v>0.262015503875969</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>747</v>
+      </c>
+      <c r="B498">
+        <f>Controlled!B498/'Fight Time'!B498</f>
+        <v>0.26044474393530997</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>748</v>
+      </c>
+      <c r="B499">
+        <f>Controlled!B499/'Fight Time'!B499</f>
+        <v>0.14248021108179421</v>
       </c>
     </row>
   </sheetData>
@@ -40068,10 +40693,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
-  <dimension ref="A1:C489"/>
+  <dimension ref="A1:C499"/>
   <sheetViews>
-    <sheetView topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="B383" sqref="B383"/>
+    <sheetView topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="B360" sqref="B360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40139,7 +40764,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>424</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -40553,7 +41178,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>615</v>
+        <v>663</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -40588,8 +41213,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <f>9*60+11</f>
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -40597,7 +41221,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>103</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -41385,8 +42009,8 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <f>13*60+31</f>
-        <v>811</v>
+        <f>13*60+49</f>
+        <v>829</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -41462,8 +42086,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <f>12*60+26</f>
-        <v>746</v>
+        <v>629</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -41974,7 +42597,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>590</v>
+        <v>652</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -42058,7 +42681,7 @@
         <v>229</v>
       </c>
       <c r="B232">
-        <v>599</v>
+        <v>624</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -42338,7 +42961,7 @@
         <v>495</v>
       </c>
       <c r="B265">
-        <v>509</v>
+        <v>587</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -42388,7 +43011,8 @@
         <v>501</v>
       </c>
       <c r="B271">
-        <v>738</v>
+        <f>12*60+32</f>
+        <v>752</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -42480,7 +43104,7 @@
         <v>517</v>
       </c>
       <c r="B282">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -42726,7 +43350,7 @@
         <v>548</v>
       </c>
       <c r="B311">
-        <v>516</v>
+        <v>644</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -42743,8 +43367,8 @@
         <v>550</v>
       </c>
       <c r="B313">
-        <f>13*60+7</f>
-        <v>787</v>
+        <f>13*60+26</f>
+        <v>806</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -42896,8 +43520,7 @@
         <v>574</v>
       </c>
       <c r="B331">
-        <f>480+52</f>
-        <v>532</v>
+        <v>605</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -43024,8 +43647,7 @@
         <v>590</v>
       </c>
       <c r="B346">
-        <f>7*60+38</f>
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -43135,7 +43757,7 @@
         <v>603</v>
       </c>
       <c r="B359">
-        <v>635</v>
+        <v>588</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -44230,6 +44852,89 @@
       <c r="B489">
         <f>14*60+2</f>
         <v>842</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B490">
+        <f>11*60+57</f>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>740</v>
+      </c>
+      <c r="B491">
+        <f>13*60+15</f>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>741</v>
+      </c>
+      <c r="B492">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>742</v>
+      </c>
+      <c r="B493">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>743</v>
+      </c>
+      <c r="B494">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>744</v>
+      </c>
+      <c r="B495">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>745</v>
+      </c>
+      <c r="B496">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>746</v>
+      </c>
+      <c r="B497">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>747</v>
+      </c>
+      <c r="B498">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>748</v>
+      </c>
+      <c r="B499">
+        <f>12*60+38</f>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -44241,10 +44946,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A359" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AB385" sqref="AB385"/>
+      <selection pane="topRight" activeCell="AB362" sqref="AB362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44913,40 +45618,40 @@
         <v>199</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.23</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" s="8">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="P9" s="8">
-        <v>3.02</v>
+        <v>2.89</v>
       </c>
       <c r="Q9">
         <v>0.53</v>
@@ -44958,36 +45663,36 @@
         <v>0.32</v>
       </c>
       <c r="T9">
-        <v>4.45</v>
+        <v>5.43</v>
       </c>
       <c r="U9">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <f>Control!B7</f>
-        <v>243.66666666666666</v>
+        <v>189.75</v>
       </c>
       <c r="X9">
         <f>'Ctrl pct'!B7</f>
-        <v>0.57468553459119498</v>
+        <v>0.57153614457831325</v>
       </c>
       <c r="Y9">
         <f>Controlled!B7</f>
-        <v>14.333333333333334</v>
+        <v>11.5</v>
       </c>
       <c r="Z9">
         <f>'Controlled pct'!B7</f>
-        <v>3.380503144654088E-2</v>
+        <v>3.463855421686747E-2</v>
       </c>
       <c r="AA9">
         <f>'Fight Time'!B7</f>
-        <v>424</v>
+        <v>332</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -48156,6 +48861,15 @@
         <f>Control!A55</f>
         <v>Lucas Almeida</v>
       </c>
+      <c r="B57">
+        <v>34</v>
+      </c>
+      <c r="C57">
+        <v>180</v>
+      </c>
+      <c r="D57">
+        <v>180</v>
+      </c>
       <c r="E57">
         <v>15</v>
       </c>
@@ -48167,6 +48881,39 @@
       </c>
       <c r="H57">
         <v>3</v>
+      </c>
+      <c r="I57">
+        <v>0.6</v>
+      </c>
+      <c r="J57">
+        <v>0.25</v>
+      </c>
+      <c r="K57">
+        <v>0.33</v>
+      </c>
+      <c r="L57">
+        <v>0.25</v>
+      </c>
+      <c r="M57">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N57">
+        <v>0.5</v>
+      </c>
+      <c r="O57" s="8">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="P57" s="8">
+        <v>5.04</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0.53</v>
       </c>
       <c r="W57">
         <f>Control!B55</f>
@@ -48174,7 +48921,7 @@
       </c>
       <c r="X57">
         <f>'Ctrl pct'!B55</f>
-        <v>5.9891598915989164E-2</v>
+        <v>5.5555555555555559E-2</v>
       </c>
       <c r="Y57">
         <f>Controlled!B55</f>
@@ -48182,11 +48929,14 @@
       </c>
       <c r="Z57">
         <f>'Controlled pct'!B55</f>
-        <v>0.25013550135501356</v>
+        <v>0.23202614379084968</v>
       </c>
       <c r="AA57">
         <f>'Fight Time'!B55</f>
-        <v>615</v>
+        <v>663</v>
+      </c>
+      <c r="AB57">
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.3">
@@ -48296,6 +49046,15 @@
         <f>Control!A59</f>
         <v>Ricardo Ramos</v>
       </c>
+      <c r="B61">
+        <v>30</v>
+      </c>
+      <c r="C61">
+        <v>175</v>
+      </c>
+      <c r="D61">
+        <v>183</v>
+      </c>
       <c r="E61">
         <v>17</v>
       </c>
@@ -48308,25 +49067,61 @@
       <c r="H61">
         <v>6</v>
       </c>
+      <c r="I61">
+        <v>0.24</v>
+      </c>
+      <c r="J61">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K61">
+        <v>0.41</v>
+      </c>
+      <c r="L61">
+        <v>0.43</v>
+      </c>
+      <c r="M61">
+        <v>0.35</v>
+      </c>
+      <c r="N61">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O61" s="8">
+        <v>2.97</v>
+      </c>
+      <c r="P61" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="T61">
+        <v>2.57</v>
+      </c>
+      <c r="U61">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V61">
+        <v>0.7</v>
+      </c>
       <c r="W61">
         <f>Control!B59</f>
-        <v>82.5</v>
+        <v>95.8</v>
       </c>
       <c r="X61">
         <f>'Ctrl pct'!B59</f>
-        <v>0.14972776769509982</v>
+        <v>0.16631944444444444</v>
       </c>
       <c r="Y61">
         <f>Controlled!B59</f>
-        <v>62.785714285714285</v>
+        <v>43.6</v>
       </c>
       <c r="Z61">
         <f>'Controlled pct'!B59</f>
-        <v>0.11394866476536168</v>
+        <v>7.5694444444444453E-2</v>
       </c>
       <c r="AA61">
         <f>'Fight Time'!B59</f>
-        <v>551</v>
+        <v>576</v>
+      </c>
+      <c r="AB61">
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.3">
@@ -48334,6 +49129,15 @@
         <f>Control!A60</f>
         <v>Marrio Pinto</v>
       </c>
+      <c r="B62">
+        <v>27</v>
+      </c>
+      <c r="C62">
+        <v>196</v>
+      </c>
+      <c r="D62">
+        <v>201</v>
+      </c>
       <c r="E62">
         <v>10</v>
       </c>
@@ -48345,6 +49149,39 @@
       </c>
       <c r="H62">
         <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0.6</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0.1</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0.3</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" s="8">
+        <v>3.67</v>
+      </c>
+      <c r="P62" s="8">
+        <v>5.29</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
       </c>
       <c r="W62">
         <f>Control!B60</f>
@@ -48352,7 +49189,7 @@
       </c>
       <c r="X62">
         <f>'Ctrl pct'!B60</f>
-        <v>9.7087378640776698E-2</v>
+        <v>4.5248868778280542E-2</v>
       </c>
       <c r="Y62">
         <f>Controlled!B60</f>
@@ -48360,11 +49197,14 @@
       </c>
       <c r="Z62">
         <f>'Controlled pct'!B60</f>
-        <v>0.25728155339805825</v>
+        <v>0.11990950226244344</v>
       </c>
       <c r="AA62">
         <f>'Fight Time'!B60</f>
-        <v>103</v>
+        <v>221</v>
+      </c>
+      <c r="AB62">
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.3">
@@ -54382,6 +55222,15 @@
         <f>Control!A153</f>
         <v>Julia Polastri</v>
       </c>
+      <c r="B155">
+        <v>27</v>
+      </c>
+      <c r="C155">
+        <v>157</v>
+      </c>
+      <c r="D155">
+        <v>160</v>
+      </c>
       <c r="E155">
         <v>13</v>
       </c>
@@ -54394,25 +55243,61 @@
       <c r="H155">
         <v>2</v>
       </c>
+      <c r="I155">
+        <v>0.31</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0.23</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0.46</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" s="8">
+        <v>5.62</v>
+      </c>
+      <c r="P155" s="8">
+        <v>5.37</v>
+      </c>
+      <c r="T155">
+        <v>0.87</v>
+      </c>
+      <c r="U155">
+        <v>0.8</v>
+      </c>
+      <c r="V155">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="W155">
         <f>Control!B153</f>
-        <v>167.5</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="X155">
         <f>'Ctrl pct'!B153</f>
-        <v>0.2065351418002466</v>
+        <v>0.16622436670687576</v>
       </c>
       <c r="Y155">
         <f>Controlled!B153</f>
-        <v>213.5</v>
+        <v>260.8</v>
       </c>
       <c r="Z155">
         <f>'Controlled pct'!B153</f>
-        <v>0.26325524044389642</v>
+        <v>0.31459589867310012</v>
       </c>
       <c r="AA155">
         <f>'Fight Time'!B153</f>
-        <v>811</v>
+        <v>829</v>
+      </c>
+      <c r="AB155">
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.3">
@@ -54949,6 +55834,15 @@
         <f>Control!A162</f>
         <v>Saimon Oliveira</v>
       </c>
+      <c r="B164">
+        <v>34</v>
+      </c>
+      <c r="C164">
+        <v>163</v>
+      </c>
+      <c r="D164">
+        <v>183</v>
+      </c>
       <c r="E164">
         <v>18</v>
       </c>
@@ -54961,25 +55855,61 @@
       <c r="H164">
         <v>3</v>
       </c>
+      <c r="I164">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J164">
+        <v>0.33</v>
+      </c>
+      <c r="K164">
+        <v>0.61</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0.11</v>
+      </c>
+      <c r="N164">
+        <v>0.67</v>
+      </c>
+      <c r="O164" s="8">
+        <v>2.67</v>
+      </c>
+      <c r="P164" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="T164">
+        <v>1.02</v>
+      </c>
+      <c r="U164">
+        <v>0.25</v>
+      </c>
+      <c r="V164">
+        <v>0.38</v>
+      </c>
       <c r="W164">
         <f>Control!B162</f>
-        <v>177.66666666666666</v>
+        <v>133.25</v>
       </c>
       <c r="X164">
         <f>'Ctrl pct'!B162</f>
-        <v>0.23815907059874886</v>
+        <v>0.21184419713831479</v>
       </c>
       <c r="Y164">
         <f>Controlled!B162</f>
-        <v>276.66666666666669</v>
+        <v>218</v>
       </c>
       <c r="Z164">
         <f>'Controlled pct'!B162</f>
-        <v>0.3708668453976765</v>
+        <v>0.34658187599364071</v>
       </c>
       <c r="AA164">
         <f>'Fight Time'!B162</f>
-        <v>746</v>
+        <v>629</v>
+      </c>
+      <c r="AB164">
+        <v>-3</v>
       </c>
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.3">
@@ -58411,6 +59341,15 @@
         <f>Control!A222</f>
         <v>Thomas Petersen</v>
       </c>
+      <c r="B224">
+        <v>30</v>
+      </c>
+      <c r="C224">
+        <v>185</v>
+      </c>
+      <c r="D224">
+        <v>188</v>
+      </c>
       <c r="E224">
         <v>10</v>
       </c>
@@ -58423,25 +59362,61 @@
       <c r="H224">
         <v>2</v>
       </c>
+      <c r="I224">
+        <v>0.7</v>
+      </c>
+      <c r="J224">
+        <v>0.67</v>
+      </c>
+      <c r="K224">
+        <v>0.1</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0.2</v>
+      </c>
+      <c r="N224">
+        <v>0.33</v>
+      </c>
+      <c r="O224" s="8">
+        <v>3.74</v>
+      </c>
+      <c r="P224" s="8">
+        <v>2.94</v>
+      </c>
+      <c r="T224">
+        <v>4.42</v>
+      </c>
+      <c r="U224">
+        <v>0.66</v>
+      </c>
+      <c r="V224">
+        <v>1</v>
+      </c>
       <c r="W224">
         <f>Control!B222</f>
-        <v>128</v>
+        <v>268.2</v>
       </c>
       <c r="X224">
         <f>'Ctrl pct'!B222</f>
-        <v>0.21694915254237288</v>
+        <v>0.4113496932515337</v>
       </c>
       <c r="Y224">
         <f>Controlled!B222</f>
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Z224">
         <f>'Controlled pct'!B222</f>
-        <v>5.084745762711864E-3</v>
+        <v>3.6809815950920245E-3</v>
       </c>
       <c r="AA224">
         <f>'Fight Time'!B222</f>
-        <v>590</v>
+        <v>652</v>
+      </c>
+      <c r="AB224">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.3">
@@ -58859,10 +59834,10 @@
         <v>1</v>
       </c>
       <c r="G233">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W233">
         <f>Control!B231</f>
@@ -58890,6 +59865,15 @@
         <f>Control!A232</f>
         <v>Montel Jackson</v>
       </c>
+      <c r="B234">
+        <v>33</v>
+      </c>
+      <c r="C234">
+        <v>178</v>
+      </c>
+      <c r="D234">
+        <v>192</v>
+      </c>
       <c r="E234">
         <v>15</v>
       </c>
@@ -58897,30 +59881,66 @@
         <v>2</v>
       </c>
       <c r="G234">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H234">
+        <v>2</v>
+      </c>
+      <c r="I234">
+        <v>0.53</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>0.4</v>
+      </c>
+      <c r="N234">
         <v>1</v>
+      </c>
+      <c r="O234" s="8">
+        <v>3.22</v>
+      </c>
+      <c r="P234" s="8">
+        <v>1.39</v>
+      </c>
+      <c r="T234">
+        <v>3.24</v>
+      </c>
+      <c r="U234">
+        <v>0.62</v>
+      </c>
+      <c r="V234">
+        <v>0.68</v>
       </c>
       <c r="W234">
         <f>Control!B232</f>
-        <v>262.22222222222223</v>
+        <v>257.7</v>
       </c>
       <c r="X234">
         <f>'Ctrl pct'!B232</f>
-        <v>0.43776664811723243</v>
+        <v>0.41298076923076921</v>
       </c>
       <c r="Y234">
         <f>Controlled!B232</f>
-        <v>116.77777777777777</v>
+        <v>139.6</v>
       </c>
       <c r="Z234">
         <f>'Controlled pct'!B232</f>
-        <v>0.19495455388610647</v>
+        <v>0.2237179487179487</v>
       </c>
       <c r="AA234">
         <f>'Fight Time'!B232</f>
-        <v>599</v>
+        <v>624</v>
+      </c>
+      <c r="AB234">
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.3">
@@ -60922,19 +61942,19 @@
         <v>0.63</v>
       </c>
       <c r="L267">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="M267">
         <v>0.06</v>
       </c>
       <c r="N267">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="O267" s="8">
-        <v>2.36</v>
+        <v>1.92</v>
       </c>
       <c r="P267" s="8">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="Q267">
         <v>0.6</v>
@@ -60946,13 +61966,13 @@
         <v>0.19</v>
       </c>
       <c r="T267">
-        <v>1.77</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="U267">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="V267">
-        <v>0.55000000000000004</v>
+        <v>0.66</v>
       </c>
       <c r="W267">
         <f>Control!B265</f>
@@ -60960,7 +61980,7 @@
       </c>
       <c r="X267">
         <f>'Ctrl pct'!B265</f>
-        <v>0.32455795677799604</v>
+        <v>0.28143100511073255</v>
       </c>
       <c r="Y267">
         <f>Controlled!B265</f>
@@ -60968,11 +61988,11 @@
       </c>
       <c r="Z267">
         <f>'Controlled pct'!B265</f>
-        <v>0.4255402750491159</v>
+        <v>0.36899488926746166</v>
       </c>
       <c r="AA267">
         <f>'Fight Time'!B265</f>
-        <v>509</v>
+        <v>587</v>
       </c>
       <c r="AB267">
         <v>-1</v>
@@ -61465,28 +62485,28 @@
         <v>3</v>
       </c>
       <c r="I273">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="J273">
         <v>0</v>
       </c>
       <c r="K273">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="L273">
         <v>0</v>
       </c>
       <c r="M273">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="N273">
         <v>1</v>
       </c>
       <c r="O273" s="8">
-        <v>3.23</v>
+        <v>3.35</v>
       </c>
       <c r="P273" s="8">
-        <v>3.22</v>
+        <v>3.04</v>
       </c>
       <c r="Q273">
         <v>0.75</v>
@@ -61498,36 +62518,36 @@
         <v>0.11</v>
       </c>
       <c r="T273">
-        <v>5.25</v>
+        <v>5.33</v>
       </c>
       <c r="U273">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="V273">
         <v>0.9</v>
       </c>
       <c r="W273">
         <f>Control!B271</f>
-        <v>412.72727272727275</v>
+        <v>433.1</v>
       </c>
       <c r="X273">
         <f>'Ctrl pct'!B271</f>
-        <v>0.5592510470559251</v>
+        <v>0.5759308510638298</v>
       </c>
       <c r="Y273">
         <f>Controlled!B271</f>
-        <v>26.454545454545453</v>
+        <v>29</v>
       </c>
       <c r="Z273">
         <f>'Controlled pct'!B271</f>
-        <v>3.5846267553584624E-2</v>
+        <v>3.8563829787234043E-2</v>
       </c>
       <c r="AA273">
         <f>'Fight Time'!B271</f>
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="AB273">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:28" x14ac:dyDescent="0.3">
@@ -62399,57 +63419,57 @@
         <v>0.48</v>
       </c>
       <c r="J284">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="K284">
         <v>0.39</v>
       </c>
       <c r="L284">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="M284">
         <v>0.13</v>
       </c>
       <c r="N284">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O284" s="8">
-        <v>5.05</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="P284" s="8">
-        <v>5.22</v>
+        <v>5.25</v>
       </c>
       <c r="T284">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="U284">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="V284">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="W284">
         <f>Control!B282</f>
-        <v>111.66666666666667</v>
+        <v>100.5</v>
       </c>
       <c r="X284">
         <f>'Ctrl pct'!B282</f>
-        <v>0.19352975158867708</v>
+        <v>0.17693661971830985</v>
       </c>
       <c r="Y284">
         <f>Controlled!B282</f>
-        <v>113.66666666666667</v>
+        <v>103.6</v>
       </c>
       <c r="Z284">
         <f>'Controlled pct'!B282</f>
-        <v>0.19699595609474294</v>
+        <v>0.18239436619718308</v>
       </c>
       <c r="AA284">
         <f>'Fight Time'!B282</f>
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="AB284">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:28" x14ac:dyDescent="0.3">
@@ -64956,7 +65976,7 @@
         <v>Irina Alekseeva</v>
       </c>
       <c r="B313">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C313">
         <v>173</v>
@@ -64965,10 +65985,10 @@
         <v>168</v>
       </c>
       <c r="E313">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F313">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G313">
         <v>1</v>
@@ -64995,10 +66015,10 @@
         <v>1</v>
       </c>
       <c r="O313" s="8">
-        <v>3.84</v>
+        <v>4.01</v>
       </c>
       <c r="P313" s="8">
-        <v>3.55</v>
+        <v>5.03</v>
       </c>
       <c r="Q313">
         <v>0.45</v>
@@ -65010,33 +66030,33 @@
         <v>0.41</v>
       </c>
       <c r="T313">
-        <v>0.87</v>
+        <v>0.47</v>
       </c>
       <c r="U313">
         <v>0.2</v>
       </c>
       <c r="V313">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="W313">
         <f>Control!B311</f>
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="X313">
         <f>'Ctrl pct'!B311</f>
-        <v>4.8449612403100778E-2</v>
+        <v>7.9192546583850928E-2</v>
       </c>
       <c r="Y313">
         <f>Controlled!B311</f>
-        <v>247.5</v>
+        <v>210</v>
       </c>
       <c r="Z313">
         <f>'Controlled pct'!B311</f>
-        <v>0.47965116279069769</v>
+        <v>0.32608695652173914</v>
       </c>
       <c r="AA313">
         <f>'Fight Time'!B311</f>
-        <v>516</v>
+        <v>644</v>
       </c>
       <c r="AB313">
         <v>-2</v>
@@ -65149,7 +66169,7 @@
         <v>201</v>
       </c>
       <c r="E315">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F315">
         <v>4</v>
@@ -65158,31 +66178,31 @@
         <v>3</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I315">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="J315">
         <v>0</v>
       </c>
       <c r="K315">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="L315">
         <v>0.25</v>
       </c>
       <c r="M315">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="N315">
         <v>0.75</v>
       </c>
       <c r="O315" s="8">
-        <v>3.41</v>
+        <v>3.85</v>
       </c>
       <c r="P315" s="8">
-        <v>4.41</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="Q315">
         <v>0.65</v>
@@ -65194,36 +66214,36 @@
         <v>0</v>
       </c>
       <c r="T315">
-        <v>0.69</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U315">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V315">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="W315">
         <f>Control!B313</f>
-        <v>182.4</v>
+        <v>152</v>
       </c>
       <c r="X315">
         <f>'Ctrl pct'!B313</f>
-        <v>0.23176620076238882</v>
+        <v>0.18858560794044665</v>
       </c>
       <c r="Y315">
         <f>Controlled!B313</f>
-        <v>22.8</v>
+        <v>19.333333333333332</v>
       </c>
       <c r="Z315">
         <f>'Controlled pct'!B313</f>
-        <v>2.8970775095298603E-2</v>
+        <v>2.3986765922249791E-2</v>
       </c>
       <c r="AA315">
         <f>'Fight Time'!B313</f>
-        <v>787</v>
+        <v>806</v>
       </c>
       <c r="AB315">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:28" x14ac:dyDescent="0.3">
@@ -66778,19 +67798,19 @@
         <v>202</v>
       </c>
       <c r="E333">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F333">
         <v>1</v>
       </c>
       <c r="G333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H333">
         <v>1</v>
       </c>
       <c r="I333">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="J333">
         <v>1</v>
@@ -66802,16 +67822,16 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="N333">
         <v>0</v>
       </c>
       <c r="O333" s="8">
-        <v>3.36</v>
+        <v>4.58</v>
       </c>
       <c r="P333" s="8">
-        <v>2.96</v>
+        <v>3.71</v>
       </c>
       <c r="T333">
         <v>0</v>
@@ -66820,27 +67840,27 @@
         <v>0</v>
       </c>
       <c r="V333">
-        <v>0.69</v>
+        <v>0.78</v>
       </c>
       <c r="W333">
         <f>Control!B331</f>
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="X333">
         <f>'Ctrl pct'!B331</f>
-        <v>3.2894736842105261E-2</v>
+        <v>2.3140495867768594E-2</v>
       </c>
       <c r="Y333">
         <f>Controlled!B331</f>
-        <v>216</v>
+        <v>173.8</v>
       </c>
       <c r="Z333">
         <f>'Controlled pct'!B331</f>
-        <v>0.40601503759398494</v>
+        <v>0.28727272727272729</v>
       </c>
       <c r="AA333">
         <f>'Fight Time'!B331</f>
-        <v>532</v>
+        <v>605</v>
       </c>
       <c r="AB333">
         <v>1</v>
@@ -68026,31 +69046,31 @@
         <v>35</v>
       </c>
       <c r="F348">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G348">
         <v>23</v>
       </c>
       <c r="H348">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I348">
         <v>0.28000000000000003</v>
       </c>
       <c r="J348">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="K348">
         <v>0.6</v>
       </c>
       <c r="L348">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="M348">
         <v>0.11</v>
       </c>
       <c r="N348">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="O348" s="8">
         <v>3.41</v>
@@ -68069,26 +69089,26 @@
       </c>
       <c r="W348">
         <f>Control!B346</f>
-        <v>231.1</v>
+        <v>233</v>
       </c>
       <c r="X348">
         <f>'Ctrl pct'!B346</f>
-        <v>0.50458515283842797</v>
+        <v>0.51777777777777778</v>
       </c>
       <c r="Y348">
         <f>Controlled!B346</f>
-        <v>170.4</v>
+        <v>176</v>
       </c>
       <c r="Z348">
         <f>'Controlled pct'!B346</f>
-        <v>0.37205240174672488</v>
+        <v>0.39111111111111113</v>
       </c>
       <c r="AA348">
         <f>'Fight Time'!B346</f>
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="AB348">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:28" x14ac:dyDescent="0.3">
@@ -69192,40 +70212,40 @@
         <v>197</v>
       </c>
       <c r="E361">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F361">
         <v>2</v>
       </c>
       <c r="G361">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H361">
         <v>2</v>
       </c>
       <c r="I361">
-        <v>0.64</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J361">
         <v>0.5</v>
       </c>
       <c r="K361">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="L361">
         <v>0.5</v>
       </c>
       <c r="M361">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="N361">
         <v>0</v>
       </c>
       <c r="O361" s="8">
-        <v>2.83</v>
+        <v>2.72</v>
       </c>
       <c r="P361" s="8">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="Q361">
         <v>0.72</v>
@@ -69237,10 +70257,10 @@
         <v>0.1</v>
       </c>
       <c r="T361">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="U361">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V361">
         <v>0.71</v>
@@ -69250,22 +70270,22 @@
       </c>
       <c r="X361">
         <f>'Ctrl pct'!B359</f>
-        <v>0.36981627296587927</v>
+        <v>0.38678328474246837</v>
       </c>
       <c r="Y361">
         <f>Controlled!B359</f>
-        <v>54.666666666666664</v>
+        <v>46.857142857142854</v>
       </c>
       <c r="Z361">
         <f>'Controlled pct'!B359</f>
-        <v>8.6089238845144356E-2</v>
+        <v>7.9689018464528666E-2</v>
       </c>
       <c r="AA361">
         <f>'Fight Time'!B359</f>
-        <v>635</v>
+        <v>588</v>
       </c>
       <c r="AB361">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:28" x14ac:dyDescent="0.3">
@@ -80107,226 +81127,836 @@
       </c>
     </row>
     <row r="492" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A492" t="str">
+        <f>Control!A490</f>
+        <v>Luan Lacerda</v>
+      </c>
+      <c r="B492">
+        <v>32</v>
+      </c>
+      <c r="C492">
+        <v>170</v>
+      </c>
+      <c r="D492">
+        <v>182</v>
+      </c>
+      <c r="E492">
+        <v>12</v>
+      </c>
+      <c r="F492">
+        <v>3</v>
+      </c>
+      <c r="G492">
+        <v>0</v>
+      </c>
+      <c r="H492">
+        <v>2</v>
+      </c>
+      <c r="I492">
+        <v>0</v>
+      </c>
+      <c r="J492">
+        <v>0.33</v>
+      </c>
+      <c r="K492">
+        <v>0.83</v>
+      </c>
+      <c r="L492">
+        <v>0.33</v>
+      </c>
+      <c r="M492">
+        <v>0.17</v>
+      </c>
+      <c r="N492">
+        <v>0.33</v>
+      </c>
+      <c r="O492" s="8">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="P492" s="8">
+        <v>7.07</v>
+      </c>
+      <c r="T492">
+        <v>1.26</v>
+      </c>
+      <c r="U492">
+        <v>0.25</v>
+      </c>
+      <c r="V492">
+        <v>0.75</v>
+      </c>
       <c r="W492">
         <f>Control!B490</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="X492">
         <f>'Ctrl pct'!B490</f>
-        <v>0</v>
+        <v>8.3682008368200833E-2</v>
       </c>
       <c r="Y492">
         <f>Controlled!B490</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Z492">
         <f>'Controlled pct'!B490</f>
-        <v>0</v>
+        <v>9.3444909344490928E-2</v>
       </c>
       <c r="AA492">
         <f>'Fight Time'!B490</f>
-        <v>0</v>
+        <v>717</v>
+      </c>
+      <c r="AB492">
+        <v>-2</v>
       </c>
     </row>
     <row r="493" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A493" t="str">
+        <f>Control!A491</f>
+        <v>Karolina Kowalkiewicz</v>
+      </c>
+      <c r="B493">
+        <v>39</v>
+      </c>
+      <c r="C493">
+        <v>160</v>
+      </c>
+      <c r="D493">
+        <v>163</v>
+      </c>
+      <c r="E493">
+        <v>16</v>
+      </c>
+      <c r="F493">
+        <v>9</v>
+      </c>
+      <c r="G493">
+        <v>9</v>
+      </c>
+      <c r="H493">
+        <v>9</v>
+      </c>
+      <c r="I493">
+        <v>0.06</v>
+      </c>
+      <c r="J493">
+        <v>0.11</v>
+      </c>
+      <c r="K493">
+        <v>0.19</v>
+      </c>
+      <c r="L493">
+        <v>0.22</v>
+      </c>
+      <c r="M493">
+        <v>0.75</v>
+      </c>
+      <c r="N493">
+        <v>0.67</v>
+      </c>
+      <c r="O493" s="8">
+        <v>5.54</v>
+      </c>
+      <c r="P493" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="T493">
+        <v>0.31</v>
+      </c>
+      <c r="U493">
+        <v>0.22</v>
+      </c>
+      <c r="V493">
+        <v>0.74</v>
+      </c>
       <c r="W493">
         <f>Control!B491</f>
-        <v>0</v>
+        <v>109.125</v>
       </c>
       <c r="X493">
         <f>'Ctrl pct'!B491</f>
-        <v>0</v>
+        <v>0.13726415094339622</v>
       </c>
       <c r="Y493">
         <f>Controlled!B491</f>
-        <v>0</v>
+        <v>158.25</v>
       </c>
       <c r="Z493">
         <f>'Controlled pct'!B491</f>
-        <v>0</v>
+        <v>0.19905660377358492</v>
       </c>
       <c r="AA493">
         <f>'Fight Time'!B491</f>
-        <v>0</v>
+        <v>795</v>
+      </c>
+      <c r="AB493">
+        <v>-2</v>
       </c>
     </row>
     <row r="494" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A494" t="str">
+        <f>Control!A492</f>
+        <v>Stewart Nicoll</v>
+      </c>
+      <c r="B494">
+        <v>30</v>
+      </c>
+      <c r="C494">
+        <v>165</v>
+      </c>
+      <c r="D494">
+        <v>166</v>
+      </c>
+      <c r="E494">
+        <v>8</v>
+      </c>
+      <c r="F494">
+        <v>1</v>
+      </c>
+      <c r="G494">
+        <v>0</v>
+      </c>
+      <c r="H494">
+        <v>1</v>
+      </c>
+      <c r="I494">
+        <v>0.5</v>
+      </c>
+      <c r="J494">
+        <v>0</v>
+      </c>
+      <c r="K494">
+        <v>0.38</v>
+      </c>
+      <c r="L494">
+        <v>1</v>
+      </c>
+      <c r="M494">
+        <v>0.13</v>
+      </c>
+      <c r="N494">
+        <v>0</v>
+      </c>
+      <c r="O494" s="8">
+        <v>3.02</v>
+      </c>
+      <c r="P494" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="T494">
+        <v>5.66</v>
+      </c>
+      <c r="U494">
+        <v>1</v>
+      </c>
+      <c r="V494">
+        <v>0</v>
+      </c>
       <c r="W494">
         <f>Control!B492</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="X494">
         <f>'Ctrl pct'!B492</f>
-        <v>0</v>
+        <v>0.77987421383647804</v>
       </c>
       <c r="Y494">
         <f>Controlled!B492</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z494">
         <f>'Controlled pct'!B492</f>
-        <v>0</v>
+        <v>0.10062893081761007</v>
       </c>
       <c r="AA494">
         <f>'Fight Time'!B492</f>
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="AB494">
+        <v>-1</v>
       </c>
     </row>
     <row r="495" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A495" t="str">
+        <f>Control!A493</f>
+        <v>Lucas Rocha</v>
+      </c>
+      <c r="B495">
+        <v>25</v>
+      </c>
+      <c r="C495">
+        <v>160</v>
+      </c>
+      <c r="D495">
+        <v>163</v>
+      </c>
+      <c r="E495">
+        <v>17</v>
+      </c>
+      <c r="F495">
+        <v>2</v>
+      </c>
+      <c r="G495">
+        <v>0</v>
+      </c>
+      <c r="H495">
+        <v>1</v>
+      </c>
+      <c r="I495">
+        <v>0.59</v>
+      </c>
+      <c r="J495">
+        <v>0.5</v>
+      </c>
+      <c r="K495">
+        <v>0.24</v>
+      </c>
+      <c r="L495">
+        <v>0.5</v>
+      </c>
+      <c r="M495">
+        <v>0.18</v>
+      </c>
+      <c r="N495">
+        <v>0</v>
+      </c>
+      <c r="O495" s="8">
+        <v>2</v>
+      </c>
+      <c r="P495" s="8">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T495">
+        <v>0</v>
+      </c>
+      <c r="U495">
+        <v>0</v>
+      </c>
+      <c r="V495">
+        <v>0.61</v>
+      </c>
       <c r="W495">
         <f>Control!B493</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X495">
         <f>'Ctrl pct'!B493</f>
-        <v>0</v>
+        <v>2.4E-2</v>
       </c>
       <c r="Y495">
         <f>Controlled!B493</f>
-        <v>0</v>
+        <v>259.5</v>
       </c>
       <c r="Z495">
         <f>'Controlled pct'!B493</f>
-        <v>0</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="AA495">
         <f>'Fight Time'!B493</f>
-        <v>0</v>
+        <v>375</v>
+      </c>
+      <c r="AB495">
+        <v>-1</v>
       </c>
     </row>
     <row r="496" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A496" t="str">
+        <f>Control!A494</f>
+        <v>Beatriz Mesquita</v>
+      </c>
+      <c r="B496">
+        <v>34</v>
+      </c>
+      <c r="C496">
+        <v>163</v>
+      </c>
+      <c r="D496">
+        <v>168</v>
+      </c>
+      <c r="E496">
+        <v>5</v>
+      </c>
+      <c r="F496">
+        <v>0</v>
+      </c>
+      <c r="G496">
+        <v>0</v>
+      </c>
+      <c r="H496">
+        <v>0</v>
+      </c>
+      <c r="I496">
+        <v>0.2</v>
+      </c>
+      <c r="J496">
+        <v>0</v>
+      </c>
+      <c r="K496">
+        <v>0.6</v>
+      </c>
+      <c r="L496">
+        <v>0</v>
+      </c>
+      <c r="M496">
+        <v>0</v>
+      </c>
+      <c r="N496">
+        <v>0</v>
+      </c>
+      <c r="O496" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="P496" s="8">
+        <v>3</v>
+      </c>
+      <c r="T496">
+        <v>3</v>
+      </c>
+      <c r="U496">
+        <v>0.6</v>
+      </c>
+      <c r="V496">
+        <v>0.8</v>
+      </c>
       <c r="W496">
         <f>Control!B494</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="X496">
         <f>'Ctrl pct'!B494</f>
-        <v>0</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="Y496">
         <f>Controlled!B494</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z496">
         <f>'Controlled pct'!B494</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AA496">
         <f>'Fight Time'!B494</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="23:27" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="AB496">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A497" t="str">
+        <f>Control!A495</f>
+        <v>Clayton Carpenter</v>
+      </c>
+      <c r="B497">
+        <v>29</v>
+      </c>
+      <c r="C497">
+        <v>168</v>
+      </c>
+      <c r="D497">
+        <v>168</v>
+      </c>
+      <c r="E497">
+        <v>8</v>
+      </c>
+      <c r="F497">
+        <v>1</v>
+      </c>
+      <c r="G497">
+        <v>2</v>
+      </c>
+      <c r="H497">
+        <v>1</v>
+      </c>
+      <c r="I497">
+        <v>0.25</v>
+      </c>
+      <c r="J497">
+        <v>0</v>
+      </c>
+      <c r="K497">
+        <v>0.5</v>
+      </c>
+      <c r="L497">
+        <v>0</v>
+      </c>
+      <c r="M497">
+        <v>0.25</v>
+      </c>
+      <c r="N497">
+        <v>1</v>
+      </c>
+      <c r="O497" s="8">
+        <v>3.91</v>
+      </c>
+      <c r="P497" s="8">
+        <v>2.75</v>
+      </c>
+      <c r="T497">
+        <v>2.23</v>
+      </c>
+      <c r="U497">
+        <v>0.46</v>
+      </c>
+      <c r="V497">
+        <v>0.42</v>
+      </c>
       <c r="W497">
         <f>Control!B495</f>
-        <v>0</v>
+        <v>201.75</v>
       </c>
       <c r="X497">
         <f>'Ctrl pct'!B495</f>
-        <v>0</v>
+        <v>0.33292079207920794</v>
       </c>
       <c r="Y497">
         <f>Controlled!B495</f>
-        <v>0</v>
+        <v>125.25</v>
       </c>
       <c r="Z497">
         <f>'Controlled pct'!B495</f>
-        <v>0</v>
+        <v>0.20668316831683167</v>
       </c>
       <c r="AA497">
         <f>'Fight Time'!B495</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="23:27" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+      <c r="AB497">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A498" t="str">
+        <f>Control!A496</f>
+        <v>Michael Aswell</v>
+      </c>
+      <c r="B498">
+        <v>25</v>
+      </c>
+      <c r="C498">
+        <v>173</v>
+      </c>
+      <c r="D498">
+        <v>175</v>
+      </c>
+      <c r="E498">
+        <v>10</v>
+      </c>
+      <c r="F498">
+        <v>3</v>
+      </c>
+      <c r="G498">
+        <v>0</v>
+      </c>
+      <c r="H498">
+        <v>1</v>
+      </c>
+      <c r="I498">
+        <v>0.5</v>
+      </c>
+      <c r="J498">
+        <v>0</v>
+      </c>
+      <c r="K498">
+        <v>0</v>
+      </c>
+      <c r="L498">
+        <v>0</v>
+      </c>
+      <c r="M498">
+        <v>0.5</v>
+      </c>
+      <c r="N498">
+        <v>1</v>
+      </c>
+      <c r="O498" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="P498" s="8">
+        <v>7.93</v>
+      </c>
+      <c r="T498">
+        <v>0</v>
+      </c>
+      <c r="U498">
+        <v>0</v>
+      </c>
+      <c r="V498">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="W498">
         <f>Control!B496</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X498">
         <f>'Ctrl pct'!B496</f>
-        <v>0</v>
+        <v>1.7777777777777778E-2</v>
       </c>
       <c r="Y498">
         <f>Controlled!B496</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Z498">
         <f>'Controlled pct'!B496</f>
-        <v>0</v>
+        <v>5.1111111111111114E-2</v>
       </c>
       <c r="AA498">
         <f>'Fight Time'!B496</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="23:27" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+      <c r="AB498">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A499" t="str">
+        <f>Control!A497</f>
+        <v>Kaan Ofli</v>
+      </c>
+      <c r="B499">
+        <v>32</v>
+      </c>
+      <c r="C499">
+        <v>170</v>
+      </c>
+      <c r="D499">
+        <v>168</v>
+      </c>
+      <c r="E499">
+        <v>11</v>
+      </c>
+      <c r="F499">
+        <v>4</v>
+      </c>
+      <c r="G499">
+        <v>0</v>
+      </c>
+      <c r="H499">
+        <v>2</v>
+      </c>
+      <c r="I499">
+        <v>0.18</v>
+      </c>
+      <c r="J499">
+        <v>0.25</v>
+      </c>
+      <c r="K499">
+        <v>0.45</v>
+      </c>
+      <c r="L499">
+        <v>0</v>
+      </c>
+      <c r="M499">
+        <v>0.36</v>
+      </c>
+      <c r="N499">
+        <v>0.75</v>
+      </c>
+      <c r="O499" s="8">
+        <v>2</v>
+      </c>
+      <c r="P499" s="8">
+        <v>2.92</v>
+      </c>
+      <c r="T499">
+        <v>0</v>
+      </c>
+      <c r="U499">
+        <v>0</v>
+      </c>
+      <c r="V499">
+        <v>0</v>
+      </c>
       <c r="W499">
         <f>Control!B497</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="X499">
         <f>'Ctrl pct'!B497</f>
-        <v>0</v>
+        <v>0.23875968992248062</v>
       </c>
       <c r="Y499">
         <f>Controlled!B497</f>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="Z499">
         <f>'Controlled pct'!B497</f>
-        <v>0</v>
+        <v>0.262015503875969</v>
       </c>
       <c r="AA499">
         <f>'Fight Time'!B497</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="23:27" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+      <c r="AB499">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A500" t="str">
+        <f>Control!A498</f>
+        <v>Joel Alvarez</v>
+      </c>
+      <c r="B500">
+        <v>32</v>
+      </c>
+      <c r="C500">
+        <v>191</v>
+      </c>
+      <c r="D500">
+        <v>196</v>
+      </c>
+      <c r="E500">
+        <v>22</v>
+      </c>
+      <c r="F500">
+        <v>3</v>
+      </c>
+      <c r="G500">
+        <v>7</v>
+      </c>
+      <c r="H500">
+        <v>2</v>
+      </c>
+      <c r="I500">
+        <v>0.23</v>
+      </c>
+      <c r="J500">
+        <v>0.67</v>
+      </c>
+      <c r="K500">
+        <v>0.77</v>
+      </c>
+      <c r="L500">
+        <v>0</v>
+      </c>
+      <c r="M500">
+        <v>0</v>
+      </c>
+      <c r="N500">
+        <v>0.33</v>
+      </c>
+      <c r="O500" s="8">
+        <v>4.51</v>
+      </c>
+      <c r="P500" s="8">
+        <v>3.32</v>
+      </c>
+      <c r="T500">
+        <v>0</v>
+      </c>
+      <c r="U500">
+        <v>0</v>
+      </c>
+      <c r="V500">
+        <v>0.4</v>
+      </c>
       <c r="W500">
         <f>Control!B498</f>
-        <v>0</v>
+        <v>20.428571428571427</v>
       </c>
       <c r="X500">
         <f>'Ctrl pct'!B498</f>
-        <v>0</v>
+        <v>4.818059299191374E-2</v>
       </c>
       <c r="Y500">
         <f>Controlled!B498</f>
-        <v>0</v>
+        <v>110.42857142857143</v>
       </c>
       <c r="Z500">
         <f>'Controlled pct'!B498</f>
-        <v>0</v>
+        <v>0.26044474393530997</v>
       </c>
       <c r="AA500">
         <f>'Fight Time'!B498</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="23:27" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="AB500">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A501" t="str">
+        <f>Control!A499</f>
+        <v>Deiveson Figueiredo</v>
+      </c>
+      <c r="B501">
+        <v>37</v>
+      </c>
+      <c r="C501">
+        <v>165</v>
+      </c>
+      <c r="D501">
+        <v>173</v>
+      </c>
+      <c r="E501">
+        <v>24</v>
+      </c>
+      <c r="F501">
+        <v>5</v>
+      </c>
+      <c r="G501">
+        <v>13</v>
+      </c>
+      <c r="H501">
+        <v>5</v>
+      </c>
+      <c r="I501">
+        <v>0.38</v>
+      </c>
+      <c r="J501">
+        <v>0.4</v>
+      </c>
+      <c r="K501">
+        <v>0.38</v>
+      </c>
+      <c r="L501">
+        <v>0.2</v>
+      </c>
+      <c r="M501">
+        <v>0.25</v>
+      </c>
+      <c r="N501">
+        <v>0.4</v>
+      </c>
+      <c r="O501" s="8">
+        <v>2.82</v>
+      </c>
+      <c r="P501" s="8">
+        <v>3.64</v>
+      </c>
+      <c r="T501">
+        <v>1.69</v>
+      </c>
+      <c r="U501">
+        <v>0.35</v>
+      </c>
+      <c r="V501">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="W501">
         <f>Control!B499</f>
-        <v>0</v>
+        <v>165.4</v>
       </c>
       <c r="X501">
         <f>'Ctrl pct'!B499</f>
-        <v>0</v>
+        <v>0.21820580474934037</v>
       </c>
       <c r="Y501">
         <f>Controlled!B499</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="Z501">
         <f>'Controlled pct'!B499</f>
-        <v>0</v>
+        <v>0.14248021108179421</v>
       </c>
       <c r="AA501">
         <f>'Fight Time'!B499</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="23:27" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+      <c r="AB501">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W502">
         <f>Control!B500</f>
         <v>0</v>
@@ -80348,7 +81978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W503">
         <f>Control!B501</f>
         <v>0</v>
@@ -80370,7 +82000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W504">
         <f>Control!B502</f>
         <v>0</v>
@@ -80392,7 +82022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W505">
         <f>Control!B503</f>
         <v>0</v>
@@ -80414,7 +82044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W506">
         <f>Control!B504</f>
         <v>0</v>
@@ -80436,7 +82066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W507">
         <f>Control!B505</f>
         <v>0</v>
@@ -80458,7 +82088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W508">
         <f>Control!B506</f>
         <v>0</v>
@@ -80480,7 +82110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W509">
         <f>Control!B507</f>
         <v>0</v>
@@ -80502,7 +82132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W510">
         <f>Control!B508</f>
         <v>0</v>
@@ -80524,7 +82154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W511">
         <f>Control!B509</f>
         <v>0</v>
@@ -80546,7 +82176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W512">
         <f>Control!B510</f>
         <v>0</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F361F872-2232-4E21-812F-6D1A83DCE6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D72A11-F3B1-4023-9E20-151FEBF255BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="761">
   <si>
     <t>Khaos</t>
   </si>
@@ -2278,6 +2278,42 @@
   <si>
     <t>Deiveson Figueiredo</t>
   </si>
+  <si>
+    <t>Mizuki Inoue</t>
+  </si>
+  <si>
+    <t>Jaqueline Amorim</t>
+  </si>
+  <si>
+    <t>Chris Barnett</t>
+  </si>
+  <si>
+    <t>Matheus Camilo</t>
+  </si>
+  <si>
+    <t>Abdul Al-Selwady</t>
+  </si>
+  <si>
+    <t>Aleksandar Rakic</t>
+  </si>
+  <si>
+    <t>Alexander Volkov</t>
+  </si>
+  <si>
+    <t>Jailton Almeida</t>
+  </si>
+  <si>
+    <t>Umar Nurmagomedov</t>
+  </si>
+  <si>
+    <t>Mackenzie Dern</t>
+  </si>
+  <si>
+    <t>Ciryl Gane</t>
+  </si>
+  <si>
+    <t>Tom Aspinall</t>
+  </si>
 </sst>
 </file>
 
@@ -2705,10 +2741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
-  <dimension ref="A1:AE499"/>
+  <dimension ref="A1:AE511"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I360" sqref="I360"/>
+    <sheetView topLeftCell="A382" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H403" sqref="H403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3163,7 +3199,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>38.75</v>
       </c>
       <c r="C16">
         <v>137</v>
@@ -3173,6 +3209,9 @@
       </c>
       <c r="E16">
         <v>8</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,49 +4860,37 @@
         <v>323</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" si="1"/>
-        <v>29.357142857142858</v>
-      </c>
-      <c r="C67">
-        <v>81</v>
-      </c>
-      <c r="D67">
-        <v>34</v>
-      </c>
-      <c r="E67">
-        <v>175</v>
-      </c>
-      <c r="F67">
+        <f xml:space="preserve"> AVERAGE(C67:BC67)</f>
+        <v>11.8</v>
+      </c>
+      <c r="C67" s="14">
+        <v>0</v>
+      </c>
+      <c r="D67" s="14">
+        <v>2</v>
+      </c>
+      <c r="E67" s="14">
+        <v>0</v>
+      </c>
+      <c r="F67" s="14">
         <v>3</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
+      <c r="G67" s="14">
+        <v>0</v>
+      </c>
+      <c r="H67" s="14">
+        <v>35</v>
+      </c>
+      <c r="I67" s="13">
+        <v>21</v>
+      </c>
+      <c r="J67" s="13">
+        <v>5</v>
+      </c>
+      <c r="K67" s="13">
         <v>3</v>
       </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>35</v>
-      </c>
-      <c r="M67" s="10">
-        <v>21</v>
-      </c>
-      <c r="N67" s="10">
-        <v>5</v>
-      </c>
-      <c r="O67" s="10">
-        <v>3</v>
-      </c>
-      <c r="P67" s="10">
+      <c r="L67" s="13">
         <v>49</v>
       </c>
     </row>
@@ -6904,44 +6931,37 @@
         <v>380</v>
       </c>
       <c r="B135" s="1">
-        <f t="shared" si="3"/>
-        <v>96.083333333333329</v>
-      </c>
-      <c r="C135">
-        <v>41</v>
-      </c>
-      <c r="D135">
-        <f>8*0+35</f>
-        <v>35</v>
-      </c>
-      <c r="E135">
+        <f xml:space="preserve"> AVERAGE(C135:BC135)</f>
+        <v>107.7</v>
+      </c>
+      <c r="C135" s="14">
         <v>72</v>
       </c>
-      <c r="F135">
+      <c r="D135" s="14">
         <v>48</v>
       </c>
-      <c r="G135">
+      <c r="E135" s="14">
         <v>49</v>
       </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
+      <c r="F135" s="14">
+        <v>0</v>
+      </c>
+      <c r="G135" s="14">
         <v>85</v>
       </c>
-      <c r="J135">
+      <c r="H135" s="14">
         <v>270</v>
       </c>
-      <c r="K135">
+      <c r="I135" s="14">
         <v>107</v>
       </c>
-      <c r="L135">
+      <c r="J135" s="14">
         <v>164</v>
       </c>
-      <c r="M135" s="10">
+      <c r="K135" s="13">
         <v>222</v>
       </c>
-      <c r="N135" s="10">
+      <c r="L135" s="13">
         <v>60</v>
       </c>
     </row>
@@ -8976,13 +8996,16 @@
       </c>
       <c r="B200" s="1">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="C200">
         <v>99</v>
       </c>
       <c r="D200">
         <v>9</v>
+      </c>
+      <c r="E200">
+        <v>258</v>
       </c>
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.3">
@@ -9243,39 +9266,39 @@
         <v>438</v>
       </c>
       <c r="B206" s="1">
-        <f t="shared" si="4"/>
-        <v>286.89999999999998</v>
+        <f xml:space="preserve"> AVERAGE(C206:BC206)</f>
+        <v>324.60000000000002</v>
       </c>
       <c r="C206">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D206">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="E206">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="F206">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="G206">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="H206">
-        <v>186</v>
+        <v>426</v>
       </c>
       <c r="I206">
-        <v>426</v>
-      </c>
-      <c r="J206">
         <f>12*60+2</f>
         <v>722</v>
       </c>
+      <c r="J206">
+        <v>395</v>
+      </c>
       <c r="K206">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="L206">
-        <v>387</v>
+        <v>599</v>
       </c>
     </row>
     <row r="207" spans="1:31" x14ac:dyDescent="0.3">
@@ -11199,41 +11222,38 @@
         <v>500</v>
       </c>
       <c r="B270" s="1">
-        <f t="shared" si="5"/>
-        <v>215.54545454545453</v>
+        <f xml:space="preserve"> AVERAGE(C270:BC270)</f>
+        <v>236.8</v>
       </c>
       <c r="C270">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="D270">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="E270">
-        <v>32</v>
+        <v>399</v>
       </c>
       <c r="F270">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G270">
-        <v>401</v>
+        <v>194</v>
       </c>
       <c r="H270">
-        <v>194</v>
+        <v>365</v>
       </c>
       <c r="I270">
-        <v>365</v>
+        <v>27</v>
       </c>
       <c r="J270">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="K270">
-        <v>188</v>
-      </c>
-      <c r="L270">
         <f>8*60+51</f>
         <v>531</v>
       </c>
-      <c r="M270" s="10">
+      <c r="L270">
         <v>23</v>
       </c>
     </row>
@@ -11388,13 +11408,16 @@
       </c>
       <c r="B276" s="1">
         <f t="shared" si="5"/>
-        <v>230.5</v>
+        <v>305.33333333333331</v>
       </c>
       <c r="C276">
         <v>460</v>
       </c>
       <c r="D276">
         <v>1</v>
+      </c>
+      <c r="E276">
+        <v>455</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -11511,7 +11534,7 @@
       </c>
       <c r="B281" s="1">
         <f t="shared" si="5"/>
-        <v>63.8</v>
+        <v>57.666666666666664</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -11527,6 +11550,9 @@
       </c>
       <c r="G281">
         <v>44</v>
+      </c>
+      <c r="H281">
+        <v>27</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
@@ -11586,38 +11612,38 @@
         <v>519</v>
       </c>
       <c r="B284" s="1">
-        <f t="shared" si="5"/>
-        <v>155.1</v>
+        <f xml:space="preserve"> AVERAGE(C284:BC284)</f>
+        <v>149.6</v>
       </c>
       <c r="C284">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="D284">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E284">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="F284">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="G284">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="H284">
         <v>156</v>
       </c>
       <c r="I284">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="J284">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="K284">
-        <v>14</v>
+        <v>435</v>
       </c>
       <c r="L284">
-        <v>435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
@@ -12430,13 +12456,16 @@
       </c>
       <c r="B314" s="1">
         <f t="shared" si="5"/>
-        <v>226.5</v>
+        <v>151.66666666666666</v>
       </c>
       <c r="C314">
         <v>396</v>
       </c>
       <c r="D314">
         <v>57</v>
+      </c>
+      <c r="E314">
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
@@ -12477,39 +12506,39 @@
         <v>554</v>
       </c>
       <c r="B317" s="1">
-        <f t="shared" si="5"/>
-        <v>268.60000000000002</v>
+        <f xml:space="preserve"> AVERAGE(C317:BC317)</f>
+        <v>287.7</v>
       </c>
       <c r="C317">
-        <v>208</v>
-      </c>
-      <c r="D317">
         <f>13*60+11</f>
         <v>791</v>
       </c>
+      <c r="D317">
+        <v>229</v>
+      </c>
       <c r="E317">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="F317">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="G317">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H317">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="I317">
+        <v>119</v>
+      </c>
+      <c r="J317">
         <v>178</v>
       </c>
-      <c r="J317">
-        <v>119</v>
-      </c>
       <c r="K317">
-        <v>178</v>
+        <v>392</v>
       </c>
       <c r="L317">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
@@ -12542,13 +12571,16 @@
       </c>
       <c r="B319" s="1">
         <f t="shared" ref="B319:B382" si="6" xml:space="preserve"> AVERAGE(C319:BC319)</f>
-        <v>85.5</v>
+        <v>75.666666666666671</v>
       </c>
       <c r="C319">
         <v>22</v>
       </c>
       <c r="D319">
         <v>149</v>
+      </c>
+      <c r="E319">
+        <v>56</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
@@ -14833,7 +14865,7 @@
       </c>
       <c r="B402" s="1">
         <f t="shared" si="7"/>
-        <v>209.6</v>
+        <v>188.5</v>
       </c>
       <c r="C402">
         <v>507</v>
@@ -14849,6 +14881,9 @@
       </c>
       <c r="G402">
         <v>144</v>
+      </c>
+      <c r="H402">
+        <v>83</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.3">
@@ -16035,7 +16070,7 @@
         <v>696</v>
       </c>
       <c r="B447" s="1">
-        <f t="shared" ref="B447:B499" si="8" xml:space="preserve"> AVERAGE(C447:BC447)</f>
+        <f t="shared" ref="B447:B510" si="8" xml:space="preserve"> AVERAGE(C447:BC447)</f>
         <v>30</v>
       </c>
       <c r="C447">
@@ -17118,7 +17153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>746</v>
       </c>
@@ -17133,7 +17168,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>747</v>
       </c>
@@ -17163,7 +17198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>748</v>
       </c>
@@ -17185,6 +17220,361 @@
       </c>
       <c r="G499">
         <v>31</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A500" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B500" s="1">
+        <f t="shared" si="8"/>
+        <v>260</v>
+      </c>
+      <c r="C500">
+        <v>36</v>
+      </c>
+      <c r="D500">
+        <v>533</v>
+      </c>
+      <c r="E500">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>750</v>
+      </c>
+      <c r="B501" s="1">
+        <f t="shared" si="8"/>
+        <v>257.2</v>
+      </c>
+      <c r="C501">
+        <v>222</v>
+      </c>
+      <c r="D501">
+        <v>485</v>
+      </c>
+      <c r="E501">
+        <v>0</v>
+      </c>
+      <c r="F501">
+        <v>185</v>
+      </c>
+      <c r="G501">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>751</v>
+      </c>
+      <c r="B502" s="1">
+        <f t="shared" si="8"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C502">
+        <v>2</v>
+      </c>
+      <c r="D502">
+        <v>12</v>
+      </c>
+      <c r="E502">
+        <v>17</v>
+      </c>
+      <c r="F502">
+        <v>67</v>
+      </c>
+      <c r="G502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>752</v>
+      </c>
+      <c r="B503" s="1">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="C503">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>753</v>
+      </c>
+      <c r="B504" s="1">
+        <f t="shared" si="8"/>
+        <v>142</v>
+      </c>
+      <c r="C504">
+        <v>120</v>
+      </c>
+      <c r="D504">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>754</v>
+      </c>
+      <c r="B505" s="1">
+        <f t="shared" si="8"/>
+        <v>220</v>
+      </c>
+      <c r="C505">
+        <v>13</v>
+      </c>
+      <c r="D505">
+        <f>12*60+23</f>
+        <v>743</v>
+      </c>
+      <c r="E505">
+        <v>66</v>
+      </c>
+      <c r="F505">
+        <v>1</v>
+      </c>
+      <c r="G505">
+        <v>158</v>
+      </c>
+      <c r="H505">
+        <f>12*60+14</f>
+        <v>734</v>
+      </c>
+      <c r="I505">
+        <v>152</v>
+      </c>
+      <c r="J505">
+        <v>273</v>
+      </c>
+      <c r="K505">
+        <v>0</v>
+      </c>
+      <c r="L505">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>755</v>
+      </c>
+      <c r="B506" s="1">
+        <f t="shared" si="8"/>
+        <v>62.6</v>
+      </c>
+      <c r="C506">
+        <v>5</v>
+      </c>
+      <c r="D506">
+        <v>11</v>
+      </c>
+      <c r="E506">
+        <v>0</v>
+      </c>
+      <c r="F506">
+        <v>120</v>
+      </c>
+      <c r="G506">
+        <v>0</v>
+      </c>
+      <c r="H506">
+        <v>0</v>
+      </c>
+      <c r="I506">
+        <v>63</v>
+      </c>
+      <c r="J506">
+        <v>155</v>
+      </c>
+      <c r="K506">
+        <v>0</v>
+      </c>
+      <c r="L506">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>756</v>
+      </c>
+      <c r="B507" s="1">
+        <f t="shared" si="8"/>
+        <v>345.77777777777777</v>
+      </c>
+      <c r="C507">
+        <v>168</v>
+      </c>
+      <c r="D507">
+        <v>269</v>
+      </c>
+      <c r="E507">
+        <v>254</v>
+      </c>
+      <c r="F507">
+        <v>448</v>
+      </c>
+      <c r="G507">
+        <v>189</v>
+      </c>
+      <c r="H507">
+        <f>21*60+10</f>
+        <v>1270</v>
+      </c>
+      <c r="I507">
+        <v>279</v>
+      </c>
+      <c r="J507">
+        <v>127</v>
+      </c>
+      <c r="K507">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>757</v>
+      </c>
+      <c r="B508" s="1">
+        <f t="shared" si="8"/>
+        <v>287</v>
+      </c>
+      <c r="C508">
+        <v>177</v>
+      </c>
+      <c r="D508">
+        <v>87</v>
+      </c>
+      <c r="E508">
+        <v>649</v>
+      </c>
+      <c r="F508">
+        <v>2</v>
+      </c>
+      <c r="G508">
+        <v>686</v>
+      </c>
+      <c r="H508">
+        <v>311</v>
+      </c>
+      <c r="I508">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>758</v>
+      </c>
+      <c r="B509" s="1">
+        <f t="shared" si="8"/>
+        <v>332.2</v>
+      </c>
+      <c r="C509">
+        <v>154</v>
+      </c>
+      <c r="D509">
+        <v>240</v>
+      </c>
+      <c r="E509">
+        <v>441</v>
+      </c>
+      <c r="F509">
+        <v>144</v>
+      </c>
+      <c r="G509">
+        <v>559</v>
+      </c>
+      <c r="H509">
+        <f>13*60+12</f>
+        <v>792</v>
+      </c>
+      <c r="I509">
+        <v>13</v>
+      </c>
+      <c r="J509">
+        <v>360</v>
+      </c>
+      <c r="K509">
+        <v>165</v>
+      </c>
+      <c r="L509">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>759</v>
+      </c>
+      <c r="B510" s="1">
+        <f t="shared" si="8"/>
+        <v>79.5</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="D510">
+        <v>25</v>
+      </c>
+      <c r="E510">
+        <v>269</v>
+      </c>
+      <c r="F510">
+        <v>19</v>
+      </c>
+      <c r="G510">
+        <v>81</v>
+      </c>
+      <c r="H510">
+        <v>171</v>
+      </c>
+      <c r="I510">
+        <v>1</v>
+      </c>
+      <c r="J510">
+        <v>0</v>
+      </c>
+      <c r="K510">
+        <v>9</v>
+      </c>
+      <c r="L510">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>760</v>
+      </c>
+      <c r="B511" s="1">
+        <f t="shared" ref="B511" si="9" xml:space="preserve"> AVERAGE(C511:BC511)</f>
+        <v>34</v>
+      </c>
+      <c r="C511">
+        <v>2</v>
+      </c>
+      <c r="D511">
+        <v>30</v>
+      </c>
+      <c r="E511">
+        <v>137</v>
+      </c>
+      <c r="F511">
+        <v>3</v>
+      </c>
+      <c r="G511">
+        <v>114</v>
+      </c>
+      <c r="H511">
+        <v>0</v>
+      </c>
+      <c r="I511">
+        <v>5</v>
+      </c>
+      <c r="J511">
+        <v>2</v>
+      </c>
+      <c r="K511">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -17195,10 +17585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
-  <dimension ref="A1:B499"/>
+  <dimension ref="A1:B511"/>
   <sheetViews>
-    <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="B489" sqref="B489:B499"/>
+    <sheetView topLeftCell="A486" workbookViewId="0">
+      <selection activeCell="B499" sqref="B499:B511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17347,7 +17737,7 @@
       </c>
       <c r="B16">
         <f>Control!B16/'Fight Time'!B16</f>
-        <v>0.18085106382978725</v>
+        <v>0.19770408163265307</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -17806,7 +18196,7 @@
       </c>
       <c r="B67">
         <f>Control!B67/'Fight Time'!B67</f>
-        <v>4.010538641686183E-2</v>
+        <v>1.5860215053763442E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -18418,7 +18808,7 @@
       </c>
       <c r="B135">
         <f>Control!B135/'Fight Time'!B135</f>
-        <v>0.12193316412859559</v>
+        <v>0.13496240601503759</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -19003,7 +19393,7 @@
       </c>
       <c r="B200">
         <f>Control!B200/'Fight Time'!B200</f>
-        <v>7.7586206896551727E-2</v>
+        <v>0.15968586387434555</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -19057,7 +19447,7 @@
       </c>
       <c r="B206">
         <f>Control!B206/'Fight Time'!B206</f>
-        <v>0.40579915134370576</v>
+        <v>0.44834254143646413</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -19633,7 +20023,7 @@
       </c>
       <c r="B270">
         <f>Control!B270/'Fight Time'!B270</f>
-        <v>0.29167179234838231</v>
+        <v>0.37527733755942949</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -19687,7 +20077,7 @@
       </c>
       <c r="B276">
         <f>Control!B276/'Fight Time'!B276</f>
-        <v>0.50108695652173918</v>
+        <v>0.50385038503850377</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -19732,7 +20122,7 @@
       </c>
       <c r="B281">
         <f>Control!B281/'Fight Time'!B281</f>
-        <v>0.11</v>
+        <v>0.11132561132561132</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -19759,7 +20149,7 @@
       </c>
       <c r="B284">
         <f>Control!B284/'Fight Time'!B284</f>
-        <v>0.27945945945945944</v>
+        <v>0.25660377358490566</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -20029,7 +20419,7 @@
       </c>
       <c r="B314">
         <f>Control!B314/'Fight Time'!B314</f>
-        <v>0.25166666666666665</v>
+        <v>0.16851851851851851</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -20056,7 +20446,7 @@
       </c>
       <c r="B317">
         <f>Control!B317/'Fight Time'!B317</f>
-        <v>0.37937853107344638</v>
+        <v>0.39737569060773481</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -20074,7 +20464,7 @@
       </c>
       <c r="B319">
         <f>Control!B319/'Fight Time'!B319</f>
-        <v>9.5000000000000001E-2</v>
+        <v>8.4074074074074079E-2</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -20821,7 +21211,7 @@
       </c>
       <c r="B402">
         <f>Control!B402/'Fight Time'!B402</f>
-        <v>0.35706984667802383</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -21695,6 +22085,114 @@
       <c r="B499">
         <f>Control!B499/'Fight Time'!B499</f>
         <v>0.21820580474934037</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B500">
+        <f>Control!B500/'Fight Time'!B500</f>
+        <v>0.28888888888888886</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>750</v>
+      </c>
+      <c r="B501">
+        <f>Control!B501/'Fight Time'!B501</f>
+        <v>0.52813141683778231</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>751</v>
+      </c>
+      <c r="B502">
+        <f>Control!B502/'Fight Time'!B502</f>
+        <v>4.2982456140350879E-2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>752</v>
+      </c>
+      <c r="B503">
+        <f>Control!B503/'Fight Time'!B503</f>
+        <v>0.28680688336520077</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>753</v>
+      </c>
+      <c r="B504">
+        <f>Control!B504/'Fight Time'!B504</f>
+        <v>0.1832258064516129</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>754</v>
+      </c>
+      <c r="B505">
+        <f>Control!B505/'Fight Time'!B505</f>
+        <v>0.32069970845481049</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>755</v>
+      </c>
+      <c r="B506">
+        <f>Control!B506/'Fight Time'!B506</f>
+        <v>8.0566280566280568E-2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>756</v>
+      </c>
+      <c r="B507">
+        <f>Control!B507/'Fight Time'!B507</f>
+        <v>0.84336043360433599</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>757</v>
+      </c>
+      <c r="B508">
+        <f>Control!B508/'Fight Time'!B508</f>
+        <v>0.34661835748792269</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>758</v>
+      </c>
+      <c r="B509">
+        <f>Control!B509/'Fight Time'!B509</f>
+        <v>0.41164807930607183</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>759</v>
+      </c>
+      <c r="B510">
+        <f>Control!B510/'Fight Time'!B510</f>
+        <v>9.2982456140350875E-2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>760</v>
+      </c>
+      <c r="B511">
+        <f>Control!B511/'Fight Time'!B511</f>
+        <v>0.27868852459016391</v>
       </c>
     </row>
   </sheetData>
@@ -21704,10 +22202,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
-  <dimension ref="A1:AE499"/>
+  <dimension ref="A1:AE511"/>
   <sheetViews>
-    <sheetView topLeftCell="A343" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I360" sqref="I360"/>
+    <sheetView topLeftCell="A387" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H403" sqref="H403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22205,7 +22703,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -22215,6 +22713,9 @@
       </c>
       <c r="E16">
         <v>47</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -23847,49 +24348,37 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" si="1"/>
-        <v>82.857142857142861</v>
-      </c>
-      <c r="C67">
-        <v>445</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
+        <f>AVERAGE(C67:BA67)</f>
+        <v>71.5</v>
+      </c>
+      <c r="C67" s="14">
         <v>6</v>
       </c>
-      <c r="H67">
+      <c r="D67" s="14">
         <v>54</v>
       </c>
-      <c r="I67">
+      <c r="E67" s="14">
         <v>21</v>
       </c>
-      <c r="J67">
+      <c r="F67" s="14">
         <v>424</v>
       </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67" s="11">
+      <c r="G67" s="14">
+        <v>0</v>
+      </c>
+      <c r="H67" s="14">
+        <v>0</v>
+      </c>
+      <c r="I67" s="14">
         <v>41</v>
       </c>
-      <c r="N67" s="11">
-        <v>0</v>
-      </c>
-      <c r="O67" s="11">
+      <c r="J67" s="14">
+        <v>0</v>
+      </c>
+      <c r="K67" s="14">
         <v>169</v>
       </c>
-      <c r="P67" s="11">
+      <c r="L67" s="14">
         <v>0</v>
       </c>
     </row>
@@ -25925,44 +26414,38 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <f t="shared" si="2"/>
-        <v>126.5</v>
+        <f>AVERAGE(C135:BA135)</f>
+        <v>161.1</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E135">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F135">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="G135">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H135">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="I135">
-        <v>52</v>
-      </c>
-      <c r="J135">
-        <v>24</v>
-      </c>
-      <c r="K135">
-        <v>175</v>
+        <v>402</v>
+      </c>
+      <c r="J135" s="14">
+        <v>332</v>
+      </c>
+      <c r="K135" s="14">
+        <v>202</v>
       </c>
       <c r="L135">
-        <v>402</v>
-      </c>
-      <c r="M135" s="11">
-        <v>332</v>
-      </c>
-      <c r="N135" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.3">
@@ -28002,13 +28485,16 @@
       </c>
       <c r="B200" s="1">
         <f t="shared" si="3"/>
-        <v>47.5</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="C200">
         <v>86</v>
       </c>
       <c r="D200">
         <v>9</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.3">
@@ -28265,38 +28751,38 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <f t="shared" si="3"/>
-        <v>100.4</v>
+        <f>AVERAGE(C206:BA206)</f>
+        <v>70.400000000000006</v>
       </c>
       <c r="C206">
-        <v>327</v>
+        <v>30</v>
       </c>
       <c r="D206">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="F206">
         <v>154</v>
       </c>
       <c r="G206">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="H206">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="I206">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="J206">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="K206">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="L206">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="207" spans="1:31" x14ac:dyDescent="0.3">
@@ -30219,40 +30705,37 @@
         <v>500</v>
       </c>
       <c r="B270" s="1">
-        <f t="shared" si="4"/>
-        <v>111</v>
-      </c>
-      <c r="C270">
-        <v>0</v>
-      </c>
-      <c r="D270">
-        <v>0</v>
-      </c>
-      <c r="E270">
+        <f>AVERAGE(C270:BA270)</f>
+        <v>122.1</v>
+      </c>
+      <c r="C270" s="14">
+        <v>0</v>
+      </c>
+      <c r="D270" s="14">
         <v>226</v>
       </c>
-      <c r="F270">
+      <c r="E270" s="14">
         <v>14</v>
       </c>
-      <c r="G270">
+      <c r="F270" s="14">
         <v>137</v>
       </c>
-      <c r="H270">
+      <c r="G270" s="14">
         <v>174</v>
       </c>
-      <c r="I270">
+      <c r="H270" s="14">
         <v>7</v>
       </c>
-      <c r="J270">
+      <c r="I270" s="14">
         <v>26</v>
       </c>
-      <c r="K270">
+      <c r="J270" s="14">
         <v>69</v>
       </c>
-      <c r="L270">
+      <c r="K270" s="14">
         <v>43</v>
       </c>
-      <c r="M270" s="11">
+      <c r="L270" s="14">
         <v>525</v>
       </c>
     </row>
@@ -30403,13 +30886,16 @@
       </c>
       <c r="B276" s="1">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>77.333333333333329</v>
       </c>
       <c r="C276">
         <v>104</v>
       </c>
       <c r="D276">
         <v>0</v>
+      </c>
+      <c r="E276">
+        <v>128</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -30526,7 +31012,7 @@
       </c>
       <c r="B281" s="1">
         <f t="shared" si="4"/>
-        <v>55.4</v>
+        <v>46.166666666666664</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -30542,6 +31028,9 @@
       </c>
       <c r="G281">
         <v>51</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
@@ -30600,35 +31089,35 @@
         <v>519</v>
       </c>
       <c r="B284" s="1">
-        <f t="shared" si="4"/>
-        <v>66.5</v>
+        <f>AVERAGE(C284:BA284)</f>
+        <v>56.7</v>
       </c>
       <c r="C284">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E284">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F284">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G284">
         <v>0</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I284">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="J284">
         <v>180</v>
       </c>
       <c r="K284">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="L284">
         <v>0</v>
@@ -31445,6 +31934,9 @@
       <c r="D314">
         <v>0</v>
       </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
@@ -31484,39 +31976,39 @@
         <v>554</v>
       </c>
       <c r="B317" s="1">
-        <f t="shared" si="5"/>
-        <v>99.1</v>
+        <f>AVERAGE(C317:BA317)</f>
+        <v>106.9</v>
       </c>
       <c r="C317">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D317">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E317">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="F317">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="G317">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H317">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I317">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J317">
-        <v>64</v>
-      </c>
-      <c r="K317">
         <f>9*60+34</f>
         <v>574</v>
       </c>
+      <c r="K317">
+        <v>42</v>
+      </c>
       <c r="L317">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
@@ -31549,13 +32041,16 @@
       </c>
       <c r="B319" s="1">
         <f t="shared" si="5"/>
-        <v>38.5</v>
+        <v>99.666666666666671</v>
       </c>
       <c r="C319">
         <v>30</v>
       </c>
       <c r="D319">
         <v>47</v>
+      </c>
+      <c r="E319">
+        <v>222</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
@@ -33835,7 +34330,7 @@
       </c>
       <c r="B402" s="1">
         <f t="shared" si="6"/>
-        <v>61.4</v>
+        <v>55.666666666666664</v>
       </c>
       <c r="C402">
         <v>34</v>
@@ -33851,6 +34346,9 @@
       </c>
       <c r="G402">
         <v>125</v>
+      </c>
+      <c r="H402">
+        <v>27</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.3">
@@ -34892,7 +35390,7 @@
         <v>691</v>
       </c>
       <c r="B442" s="1">
-        <f t="shared" ref="B442:B499" si="7">AVERAGE(C442:BA442)</f>
+        <f t="shared" ref="B442:B505" si="7">AVERAGE(C442:BA442)</f>
         <v>97.6</v>
       </c>
       <c r="C442">
@@ -36108,7 +36606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>746</v>
       </c>
@@ -36123,7 +36621,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>747</v>
       </c>
@@ -36153,7 +36651,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>748</v>
       </c>
@@ -36175,6 +36673,357 @@
       </c>
       <c r="G499">
         <v>307</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A500" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B500" s="1">
+        <f t="shared" si="7"/>
+        <v>114</v>
+      </c>
+      <c r="C500">
+        <v>29</v>
+      </c>
+      <c r="D500">
+        <v>142</v>
+      </c>
+      <c r="E500">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>750</v>
+      </c>
+      <c r="B501" s="1">
+        <f t="shared" si="7"/>
+        <v>139.4</v>
+      </c>
+      <c r="C501">
+        <v>422</v>
+      </c>
+      <c r="D501">
+        <v>219</v>
+      </c>
+      <c r="E501">
+        <v>56</v>
+      </c>
+      <c r="F501">
+        <v>0</v>
+      </c>
+      <c r="G501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>751</v>
+      </c>
+      <c r="B502" s="1">
+        <f t="shared" si="7"/>
+        <v>136.19999999999999</v>
+      </c>
+      <c r="C502">
+        <v>123</v>
+      </c>
+      <c r="D502">
+        <v>8</v>
+      </c>
+      <c r="E502">
+        <v>464</v>
+      </c>
+      <c r="F502">
+        <v>86</v>
+      </c>
+      <c r="G502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>752</v>
+      </c>
+      <c r="B503" s="1">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+      <c r="C503">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>753</v>
+      </c>
+      <c r="B504" s="1">
+        <f t="shared" si="7"/>
+        <v>43.5</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>754</v>
+      </c>
+      <c r="B505" s="1">
+        <f t="shared" si="7"/>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="C505">
+        <v>96</v>
+      </c>
+      <c r="D505">
+        <v>0</v>
+      </c>
+      <c r="E505">
+        <v>49</v>
+      </c>
+      <c r="F505">
+        <v>0</v>
+      </c>
+      <c r="G505">
+        <v>32</v>
+      </c>
+      <c r="H505">
+        <v>36</v>
+      </c>
+      <c r="I505">
+        <v>0</v>
+      </c>
+      <c r="J505">
+        <v>1</v>
+      </c>
+      <c r="K505">
+        <v>38</v>
+      </c>
+      <c r="L505">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>755</v>
+      </c>
+      <c r="B506" s="1">
+        <f t="shared" ref="B506:B511" si="8">AVERAGE(C506:BA506)</f>
+        <v>54.2</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506">
+        <v>15</v>
+      </c>
+      <c r="E506">
+        <v>19</v>
+      </c>
+      <c r="F506">
+        <v>121</v>
+      </c>
+      <c r="G506">
+        <v>114</v>
+      </c>
+      <c r="H506">
+        <v>0</v>
+      </c>
+      <c r="I506">
+        <v>38</v>
+      </c>
+      <c r="J506">
+        <v>0</v>
+      </c>
+      <c r="K506">
+        <v>15</v>
+      </c>
+      <c r="L506">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>756</v>
+      </c>
+      <c r="B507" s="1">
+        <f t="shared" si="8"/>
+        <v>21.555555555555557</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507">
+        <v>0</v>
+      </c>
+      <c r="E507">
+        <v>0</v>
+      </c>
+      <c r="F507">
+        <v>0</v>
+      </c>
+      <c r="G507">
+        <v>0</v>
+      </c>
+      <c r="H507">
+        <v>57</v>
+      </c>
+      <c r="I507">
+        <v>9</v>
+      </c>
+      <c r="J507">
+        <v>0</v>
+      </c>
+      <c r="K507">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>757</v>
+      </c>
+      <c r="B508" s="1">
+        <f t="shared" si="8"/>
+        <v>28.857142857142858</v>
+      </c>
+      <c r="C508">
+        <v>8</v>
+      </c>
+      <c r="D508">
+        <v>6</v>
+      </c>
+      <c r="E508">
+        <v>0</v>
+      </c>
+      <c r="F508">
+        <v>0</v>
+      </c>
+      <c r="G508">
+        <v>34</v>
+      </c>
+      <c r="H508">
+        <v>12</v>
+      </c>
+      <c r="I508">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>758</v>
+      </c>
+      <c r="B509" s="1">
+        <f t="shared" si="8"/>
+        <v>172</v>
+      </c>
+      <c r="C509">
+        <v>164</v>
+      </c>
+      <c r="D509">
+        <v>0</v>
+      </c>
+      <c r="E509">
+        <v>10</v>
+      </c>
+      <c r="F509">
+        <v>174</v>
+      </c>
+      <c r="G509">
+        <v>251</v>
+      </c>
+      <c r="H509">
+        <v>431</v>
+      </c>
+      <c r="I509">
+        <v>0</v>
+      </c>
+      <c r="J509">
+        <v>242</v>
+      </c>
+      <c r="K509">
+        <v>101</v>
+      </c>
+      <c r="L509">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>759</v>
+      </c>
+      <c r="B510" s="1">
+        <f t="shared" si="8"/>
+        <v>85.2</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="D510">
+        <v>0</v>
+      </c>
+      <c r="E510">
+        <v>0</v>
+      </c>
+      <c r="F510">
+        <v>0</v>
+      </c>
+      <c r="G510">
+        <v>8</v>
+      </c>
+      <c r="H510">
+        <v>509</v>
+      </c>
+      <c r="I510">
+        <v>4</v>
+      </c>
+      <c r="J510">
+        <v>57</v>
+      </c>
+      <c r="K510">
+        <v>2</v>
+      </c>
+      <c r="L510">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>760</v>
+      </c>
+      <c r="B511" s="1">
+        <f t="shared" si="8"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511">
+        <v>0</v>
+      </c>
+      <c r="E511">
+        <v>0</v>
+      </c>
+      <c r="F511">
+        <v>0</v>
+      </c>
+      <c r="G511">
+        <v>0</v>
+      </c>
+      <c r="H511">
+        <v>1</v>
+      </c>
+      <c r="I511">
+        <v>0</v>
+      </c>
+      <c r="J511">
+        <v>0</v>
+      </c>
+      <c r="K511">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36184,10 +37033,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
-  <dimension ref="A1:B499"/>
+  <dimension ref="A1:B511"/>
   <sheetViews>
     <sheetView topLeftCell="A489" workbookViewId="0">
-      <selection activeCell="B489" sqref="B489:B499"/>
+      <selection activeCell="B499" sqref="B499:B511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36336,7 +37185,7 @@
       </c>
       <c r="B16">
         <f>Controlled!B16/'Fight Time'!B16</f>
-        <v>0.1276595744680851</v>
+        <v>0.13775510204081631</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -36795,7 +37644,7 @@
       </c>
       <c r="B67">
         <f>Controlled!B67/'Fight Time'!B67</f>
-        <v>0.1131928181108509</v>
+        <v>9.6102150537634407E-2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -37407,7 +38256,7 @@
       </c>
       <c r="B135">
         <f>Controlled!B135/'Fight Time'!B135</f>
-        <v>0.16053299492385786</v>
+        <v>0.2018796992481203</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -37992,7 +38841,7 @@
       </c>
       <c r="B200">
         <f>Controlled!B200/'Fight Time'!B200</f>
-        <v>6.8247126436781616E-2</v>
+        <v>4.1448516579406632E-2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -38046,7 +38895,7 @@
       </c>
       <c r="B206">
         <f>Controlled!B206/'Fight Time'!B206</f>
-        <v>0.14200848656294202</v>
+        <v>9.7237569060773493E-2</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -38622,7 +39471,7 @@
       </c>
       <c r="B270">
         <f>Controlled!B270/'Fight Time'!B270</f>
-        <v>0.15020297699594046</v>
+        <v>0.19350237717908081</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -38676,7 +39525,7 @@
       </c>
       <c r="B276">
         <f>Controlled!B276/'Fight Time'!B276</f>
-        <v>0.11304347826086956</v>
+        <v>0.12761276127612761</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -38721,7 +39570,7 @@
       </c>
       <c r="B281">
         <f>Controlled!B281/'Fight Time'!B281</f>
-        <v>9.5517241379310336E-2</v>
+        <v>8.9124839124839123E-2</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -38748,7 +39597,7 @@
       </c>
       <c r="B284">
         <f>Controlled!B284/'Fight Time'!B284</f>
-        <v>0.11981981981981982</v>
+        <v>9.7255574614065185E-2</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -39045,7 +39894,7 @@
       </c>
       <c r="B317">
         <f>Controlled!B317/'Fight Time'!B317</f>
-        <v>0.13997175141242937</v>
+        <v>0.14765193370165747</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -39063,7 +39912,7 @@
       </c>
       <c r="B319">
         <f>Controlled!B319/'Fight Time'!B319</f>
-        <v>4.2777777777777776E-2</v>
+        <v>0.11074074074074075</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -39810,7 +40659,7 @@
       </c>
       <c r="B402">
         <f>Controlled!B402/'Fight Time'!B402</f>
-        <v>0.10459965928449744</v>
+        <v>7.3828470380194522E-2</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -40684,6 +41533,114 @@
       <c r="B499">
         <f>Controlled!B499/'Fight Time'!B499</f>
         <v>0.14248021108179421</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B500">
+        <f>Controlled!B500/'Fight Time'!B500</f>
+        <v>0.12666666666666668</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>750</v>
+      </c>
+      <c r="B501">
+        <f>Controlled!B501/'Fight Time'!B501</f>
+        <v>0.2862422997946612</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>751</v>
+      </c>
+      <c r="B502">
+        <f>Controlled!B502/'Fight Time'!B502</f>
+        <v>0.29868421052631577</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>752</v>
+      </c>
+      <c r="B503">
+        <f>Controlled!B503/'Fight Time'!B503</f>
+        <v>0.25239005736137665</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>753</v>
+      </c>
+      <c r="B504">
+        <f>Controlled!B504/'Fight Time'!B504</f>
+        <v>5.6129032258064517E-2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>754</v>
+      </c>
+      <c r="B505">
+        <f>Controlled!B505/'Fight Time'!B505</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>755</v>
+      </c>
+      <c r="B506">
+        <f>Controlled!B506/'Fight Time'!B506</f>
+        <v>6.9755469755469757E-2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>756</v>
+      </c>
+      <c r="B507">
+        <f>Controlled!B507/'Fight Time'!B507</f>
+        <v>5.2574525745257457E-2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>757</v>
+      </c>
+      <c r="B508">
+        <f>Controlled!B508/'Fight Time'!B508</f>
+        <v>3.4851621808143544E-2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>758</v>
+      </c>
+      <c r="B509">
+        <f>Controlled!B509/'Fight Time'!B509</f>
+        <v>0.21313506815365552</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>759</v>
+      </c>
+      <c r="B510">
+        <f>Controlled!B510/'Fight Time'!B510</f>
+        <v>9.9649122807017543E-2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>760</v>
+      </c>
+      <c r="B511">
+        <f>Controlled!B511/'Fight Time'!B511</f>
+        <v>9.1074681238615665E-4</v>
       </c>
     </row>
   </sheetData>
@@ -40693,10 +41650,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
-  <dimension ref="A1:C499"/>
+  <dimension ref="A1:C511"/>
   <sheetViews>
-    <sheetView topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="B360" sqref="B360"/>
+    <sheetView topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="B403" sqref="B403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40841,7 +41798,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>282</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -41280,8 +42237,8 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f>12*60+12</f>
-        <v>732</v>
+        <f>12*60+24</f>
+        <v>744</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -41856,8 +42813,8 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <f>13*60+8</f>
-        <v>788</v>
+        <f>13*60+18</f>
+        <v>798</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -42413,7 +43370,8 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>696</v>
+        <f>12*60+44</f>
+        <v>764</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -42462,7 +43420,8 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>707</v>
+        <f>12*60+4</f>
+        <v>724</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -43002,8 +43961,7 @@
         <v>500</v>
       </c>
       <c r="B270">
-        <f>12*60+19</f>
-        <v>739</v>
+        <v>631</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -43055,7 +44013,7 @@
         <v>510</v>
       </c>
       <c r="B276">
-        <v>460</v>
+        <v>606</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -43096,7 +44054,7 @@
         <v>515</v>
       </c>
       <c r="B281">
-        <v>580</v>
+        <v>518</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -43121,7 +44079,7 @@
         <v>519</v>
       </c>
       <c r="B284">
-        <v>555</v>
+        <v>583</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -43402,8 +44360,7 @@
         <v>554</v>
       </c>
       <c r="B317">
-        <f>11*60+48</f>
-        <v>708</v>
+        <v>724</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -44125,8 +45082,8 @@
         <v>649</v>
       </c>
       <c r="B402">
-        <f>9*60+47</f>
-        <v>587</v>
+        <f>12*60+34</f>
+        <v>754</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -44935,6 +45892,107 @@
       <c r="B499">
         <f>12*60+38</f>
         <v>758</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B500">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>750</v>
+      </c>
+      <c r="B501">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>751</v>
+      </c>
+      <c r="B502">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>752</v>
+      </c>
+      <c r="B503">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>753</v>
+      </c>
+      <c r="B504">
+        <f>12*60+55</f>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>754</v>
+      </c>
+      <c r="B505">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>755</v>
+      </c>
+      <c r="B506">
+        <f>12*60+57</f>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>756</v>
+      </c>
+      <c r="B507">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>757</v>
+      </c>
+      <c r="B508">
+        <f>13*60+48</f>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>758</v>
+      </c>
+      <c r="B509">
+        <f>13*60+27</f>
+        <v>807</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>759</v>
+      </c>
+      <c r="B510">
+        <f>14*60+15</f>
+        <v>855</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>760</v>
+      </c>
+      <c r="B511">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -44946,10 +46004,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A382" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AB362" sqref="AB362"/>
+      <selection pane="topRight" activeCell="AB405" sqref="AB405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46211,13 +47269,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -46229,39 +47287,39 @@
         <v>1</v>
       </c>
       <c r="O18" s="8">
-        <v>6.5</v>
+        <v>7.13</v>
       </c>
       <c r="P18" s="8">
-        <v>3.52</v>
+        <v>3.67</v>
       </c>
       <c r="T18">
-        <v>4.8</v>
+        <v>4.58</v>
       </c>
       <c r="U18">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="V18">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="W18">
         <f>Control!B16</f>
-        <v>51</v>
+        <v>38.75</v>
       </c>
       <c r="X18">
         <f>'Ctrl pct'!B16</f>
-        <v>0.18085106382978725</v>
+        <v>0.19770408163265307</v>
       </c>
       <c r="Y18">
         <f>Controlled!B16</f>
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Z18">
         <f>'Controlled pct'!B16</f>
-        <v>0.1276595744680851</v>
+        <v>0.13775510204081631</v>
       </c>
       <c r="AA18">
         <f>'Fight Time'!B16</f>
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="AB18">
         <v>7</v>
@@ -49674,6 +50732,15 @@
         <f>Control!A67</f>
         <v>Nasrat Haqparast</v>
       </c>
+      <c r="B69">
+        <v>30</v>
+      </c>
+      <c r="C69">
+        <v>178</v>
+      </c>
+      <c r="D69">
+        <v>183</v>
+      </c>
       <c r="E69">
         <v>18</v>
       </c>
@@ -49686,25 +50753,61 @@
       <c r="H69">
         <v>4</v>
       </c>
+      <c r="I69">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J69">
+        <v>0.2</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0.2</v>
+      </c>
+      <c r="M69">
+        <v>0.44</v>
+      </c>
+      <c r="N69">
+        <v>0.6</v>
+      </c>
+      <c r="O69" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="P69" s="8">
+        <v>6.01</v>
+      </c>
+      <c r="T69">
+        <v>0.35</v>
+      </c>
+      <c r="U69">
+        <v>0.2</v>
+      </c>
+      <c r="V69">
+        <v>0.84</v>
+      </c>
       <c r="W69">
         <f>Control!B67</f>
-        <v>29.357142857142858</v>
+        <v>11.8</v>
       </c>
       <c r="X69">
         <f>'Ctrl pct'!B67</f>
-        <v>4.010538641686183E-2</v>
+        <v>1.5860215053763442E-2</v>
       </c>
       <c r="Y69">
         <f>Controlled!B67</f>
-        <v>82.857142857142861</v>
+        <v>71.5</v>
       </c>
       <c r="Z69">
         <f>'Controlled pct'!B67</f>
-        <v>0.1131928181108509</v>
+        <v>9.6102150537634407E-2</v>
       </c>
       <c r="AA69">
         <f>'Fight Time'!B67</f>
-        <v>732</v>
+        <v>744</v>
+      </c>
+      <c r="AB69">
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.3">
@@ -54178,6 +55281,15 @@
         <f>Control!A135</f>
         <v>Nathaniel Wood</v>
       </c>
+      <c r="B137">
+        <v>32</v>
+      </c>
+      <c r="C137">
+        <v>168</v>
+      </c>
+      <c r="D137">
+        <v>175</v>
+      </c>
       <c r="E137">
         <v>21</v>
       </c>
@@ -54190,25 +55302,61 @@
       <c r="H137">
         <v>3</v>
       </c>
+      <c r="I137">
+        <v>0.33</v>
+      </c>
+      <c r="J137">
+        <v>0.33</v>
+      </c>
+      <c r="K137">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L137">
+        <v>0.33</v>
+      </c>
+      <c r="M137">
+        <v>0.38</v>
+      </c>
+      <c r="N137">
+        <v>0.33</v>
+      </c>
+      <c r="O137" s="8">
+        <v>5.66</v>
+      </c>
+      <c r="P137" s="8">
+        <v>3.89</v>
+      </c>
+      <c r="T137">
+        <v>1.41</v>
+      </c>
+      <c r="U137">
+        <v>0.48</v>
+      </c>
+      <c r="V137">
+        <v>0.72</v>
+      </c>
       <c r="W137">
         <f>Control!B135</f>
-        <v>96.083333333333329</v>
+        <v>107.7</v>
       </c>
       <c r="X137">
         <f>'Ctrl pct'!B135</f>
-        <v>0.12193316412859559</v>
+        <v>0.13496240601503759</v>
       </c>
       <c r="Y137">
         <f>Controlled!B135</f>
-        <v>126.5</v>
+        <v>161.1</v>
       </c>
       <c r="Z137">
         <f>'Controlled pct'!B135</f>
-        <v>0.16053299492385786</v>
+        <v>0.2018796992481203</v>
       </c>
       <c r="AA137">
         <f>'Fight Time'!B135</f>
-        <v>788</v>
+        <v>798</v>
+      </c>
+      <c r="AB137">
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.3">
@@ -58100,6 +59248,15 @@
         <f>Control!A200</f>
         <v>Mitch Raposo</v>
       </c>
+      <c r="B202">
+        <v>27</v>
+      </c>
+      <c r="C202">
+        <v>165</v>
+      </c>
+      <c r="D202">
+        <v>164</v>
+      </c>
       <c r="E202">
         <v>9</v>
       </c>
@@ -58112,25 +59269,61 @@
       <c r="H202">
         <v>2</v>
       </c>
+      <c r="I202">
+        <v>0.44</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0.33</v>
+      </c>
+      <c r="L202">
+        <v>0.33</v>
+      </c>
+      <c r="M202">
+        <v>0.22</v>
+      </c>
+      <c r="N202">
+        <v>0.67</v>
+      </c>
+      <c r="O202" s="8">
+        <v>1.62</v>
+      </c>
+      <c r="P202" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="T202">
+        <v>3.54</v>
+      </c>
+      <c r="U202">
+        <v>0.37</v>
+      </c>
+      <c r="V202">
+        <v>0.5</v>
+      </c>
       <c r="W202">
         <f>Control!B200</f>
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="X202">
         <f>'Ctrl pct'!B200</f>
-        <v>7.7586206896551727E-2</v>
+        <v>0.15968586387434555</v>
       </c>
       <c r="Y202">
         <f>Controlled!B200</f>
-        <v>47.5</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="Z202">
         <f>'Controlled pct'!B200</f>
-        <v>6.8247126436781616E-2</v>
+        <v>4.1448516579406632E-2</v>
       </c>
       <c r="AA202">
         <f>'Fight Time'!B200</f>
-        <v>696</v>
+        <v>764</v>
+      </c>
+      <c r="AB202">
+        <v>-2</v>
       </c>
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.3">
@@ -58463,6 +59656,15 @@
         <f>Control!A206</f>
         <v>Virna Jandiroba</v>
       </c>
+      <c r="B208">
+        <v>37</v>
+      </c>
+      <c r="C208">
+        <v>160</v>
+      </c>
+      <c r="D208">
+        <v>163</v>
+      </c>
       <c r="E208">
         <v>22</v>
       </c>
@@ -58475,25 +59677,61 @@
       <c r="H208">
         <v>3</v>
       </c>
+      <c r="I208">
+        <v>0.05</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0.64</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>0.32</v>
+      </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+      <c r="O208" s="8">
+        <v>1.97</v>
+      </c>
+      <c r="P208" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="T208">
+        <v>2.38</v>
+      </c>
+      <c r="U208">
+        <v>0.33</v>
+      </c>
+      <c r="V208">
+        <v>0.73</v>
+      </c>
       <c r="W208">
         <f>Control!B206</f>
-        <v>286.89999999999998</v>
+        <v>324.60000000000002</v>
       </c>
       <c r="X208">
         <f>'Ctrl pct'!B206</f>
-        <v>0.40579915134370576</v>
+        <v>0.44834254143646413</v>
       </c>
       <c r="Y208">
         <f>Controlled!B206</f>
-        <v>100.4</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="Z208">
         <f>'Controlled pct'!B206</f>
-        <v>0.14200848656294202</v>
+        <v>9.7237569060773493E-2</v>
       </c>
       <c r="AA208">
         <f>'Fight Time'!B206</f>
-        <v>707</v>
+        <v>724</v>
+      </c>
+      <c r="AB208">
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.3">
@@ -62396,25 +63634,25 @@
         <v>0.39</v>
       </c>
       <c r="J272">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K272">
         <v>0.35</v>
       </c>
       <c r="L272">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="M272">
         <v>0.26</v>
       </c>
       <c r="N272">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="O272" s="8">
-        <v>3.81</v>
+        <v>3.57</v>
       </c>
       <c r="P272" s="8">
-        <v>3.22</v>
+        <v>3.34</v>
       </c>
       <c r="Q272">
         <v>0.56000000000000005</v>
@@ -62426,33 +63664,33 @@
         <v>0.13</v>
       </c>
       <c r="T272">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="U272">
         <v>0.51</v>
       </c>
       <c r="V272">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
       <c r="W272">
         <f>Control!B270</f>
-        <v>215.54545454545453</v>
+        <v>236.8</v>
       </c>
       <c r="X272">
         <f>'Ctrl pct'!B270</f>
-        <v>0.29167179234838231</v>
+        <v>0.37527733755942949</v>
       </c>
       <c r="Y272">
         <f>Controlled!B270</f>
-        <v>111</v>
+        <v>122.1</v>
       </c>
       <c r="Z272">
         <f>'Controlled pct'!B270</f>
-        <v>0.15020297699594046</v>
+        <v>0.19350237717908081</v>
       </c>
       <c r="AA272">
         <f>'Fight Time'!B270</f>
-        <v>739</v>
+        <v>631</v>
       </c>
       <c r="AB272">
         <v>-1</v>
@@ -62952,23 +64190,23 @@
       </c>
       <c r="W278">
         <f>Control!B276</f>
-        <v>230.5</v>
+        <v>305.33333333333331</v>
       </c>
       <c r="X278">
         <f>'Ctrl pct'!B276</f>
-        <v>0.50108695652173918</v>
+        <v>0.50385038503850377</v>
       </c>
       <c r="Y278">
         <f>Controlled!B276</f>
-        <v>52</v>
+        <v>77.333333333333329</v>
       </c>
       <c r="Z278">
         <f>'Controlled pct'!B276</f>
-        <v>0.11304347826086956</v>
+        <v>0.12761276127612761</v>
       </c>
       <c r="AA278">
         <f>'Fight Time'!B276</f>
-        <v>460</v>
+        <v>606</v>
       </c>
       <c r="AB278">
         <v>8</v>
@@ -63333,7 +64571,7 @@
         <v>0</v>
       </c>
       <c r="I283">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="J283">
         <v>0</v>
@@ -63345,19 +64583,19 @@
         <v>0</v>
       </c>
       <c r="M283">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="N283">
         <v>0</v>
       </c>
       <c r="O283" s="8">
-        <v>4.72</v>
+        <v>4.93</v>
       </c>
       <c r="P283" s="8">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="T283">
-        <v>0.62</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U283">
         <v>0.15</v>
@@ -63367,26 +64605,26 @@
       </c>
       <c r="W283">
         <f>Control!B281</f>
-        <v>63.8</v>
+        <v>57.666666666666664</v>
       </c>
       <c r="X283">
         <f>'Ctrl pct'!B281</f>
-        <v>0.11</v>
+        <v>0.11132561132561132</v>
       </c>
       <c r="Y283">
         <f>Controlled!B281</f>
-        <v>55.4</v>
+        <v>46.166666666666664</v>
       </c>
       <c r="Z283">
         <f>'Controlled pct'!B281</f>
-        <v>9.5517241379310336E-2</v>
+        <v>8.9124839124839123E-2</v>
       </c>
       <c r="AA283">
         <f>'Fight Time'!B281</f>
-        <v>580</v>
+        <v>518</v>
       </c>
       <c r="AB283">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.3">
@@ -63561,7 +64799,7 @@
         <v>Mario Bautista</v>
       </c>
       <c r="B286">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C286">
         <v>175</v>
@@ -63582,31 +64820,31 @@
         <v>2</v>
       </c>
       <c r="I286">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="J286">
         <v>0.5</v>
       </c>
       <c r="K286">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="L286">
         <v>0.5</v>
       </c>
       <c r="M286">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="N286">
         <v>0</v>
       </c>
       <c r="O286" s="8">
-        <v>5.33</v>
+        <v>6.13</v>
       </c>
       <c r="P286" s="8">
-        <v>3.91</v>
+        <v>4.45</v>
       </c>
       <c r="T286">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="U286">
         <v>0.33</v>
@@ -63616,26 +64854,26 @@
       </c>
       <c r="W286">
         <f>Control!B284</f>
-        <v>155.1</v>
+        <v>149.6</v>
       </c>
       <c r="X286">
         <f>'Ctrl pct'!B284</f>
-        <v>0.27945945945945944</v>
+        <v>0.25660377358490566</v>
       </c>
       <c r="Y286">
         <f>Controlled!B284</f>
-        <v>66.5</v>
+        <v>56.7</v>
       </c>
       <c r="Z286">
         <f>'Controlled pct'!B284</f>
-        <v>0.11981981981981982</v>
+        <v>9.7255574614065185E-2</v>
       </c>
       <c r="AA286">
         <f>'Fight Time'!B284</f>
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="AB286">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:28" x14ac:dyDescent="0.3">
@@ -66264,13 +67502,13 @@
         <v>4</v>
       </c>
       <c r="F316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G316">
         <v>1</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I316">
         <v>0.75</v>
@@ -66288,13 +67526,13 @@
         <v>0.25</v>
       </c>
       <c r="N316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O316" s="8">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="P316" s="8">
-        <v>3.87</v>
+        <v>4.49</v>
       </c>
       <c r="Q316">
         <v>0.75</v>
@@ -66306,21 +67544,21 @@
         <v>0.18</v>
       </c>
       <c r="T316">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="U316">
-        <v>0.8</v>
+        <v>0.66</v>
       </c>
       <c r="V316">
         <v>1</v>
       </c>
       <c r="W316">
         <f>Control!B314</f>
-        <v>226.5</v>
+        <v>151.66666666666666</v>
       </c>
       <c r="X316">
         <f>'Ctrl pct'!B314</f>
-        <v>0.25166666666666665</v>
+        <v>0.16851851851851851</v>
       </c>
       <c r="Y316">
         <f>Controlled!B314</f>
@@ -66335,7 +67573,7 @@
         <v>900</v>
       </c>
       <c r="AB316">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317" spans="1:28" x14ac:dyDescent="0.3">
@@ -66537,40 +67775,40 @@
         <v>185</v>
       </c>
       <c r="E319">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F319">
         <v>6</v>
       </c>
       <c r="G319">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H319">
         <v>3</v>
       </c>
       <c r="I319">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="J319">
         <v>0.17</v>
       </c>
       <c r="K319">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="L319">
         <v>0.33</v>
       </c>
       <c r="M319">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="N319">
         <v>0.5</v>
       </c>
       <c r="O319" s="8">
-        <v>4.7699999999999996</v>
+        <v>4.59</v>
       </c>
       <c r="P319" s="8">
-        <v>3.42</v>
+        <v>3.59</v>
       </c>
       <c r="Q319">
         <v>0.81</v>
@@ -66582,36 +67820,36 @@
         <v>0.11</v>
       </c>
       <c r="T319">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="U319">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="V319">
         <v>0.56999999999999995</v>
       </c>
       <c r="W319">
         <f>Control!B317</f>
-        <v>268.60000000000002</v>
+        <v>287.7</v>
       </c>
       <c r="X319">
         <f>'Ctrl pct'!B317</f>
-        <v>0.37937853107344638</v>
+        <v>0.39737569060773481</v>
       </c>
       <c r="Y319">
         <f>Controlled!B317</f>
-        <v>99.1</v>
+        <v>106.9</v>
       </c>
       <c r="Z319">
         <f>'Controlled pct'!B317</f>
-        <v>0.13997175141242937</v>
+        <v>0.14765193370165747</v>
       </c>
       <c r="AA319">
         <f>'Fight Time'!B317</f>
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="AB319">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:28" x14ac:dyDescent="0.3">
@@ -66724,13 +67962,13 @@
         <v>15</v>
       </c>
       <c r="F321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G321">
         <v>1</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321">
         <v>0.28000000000000003</v>
@@ -66751,10 +67989,10 @@
         <v>1</v>
       </c>
       <c r="O321" s="8">
-        <v>2.8</v>
+        <v>3.24</v>
       </c>
       <c r="P321" s="8">
-        <v>5.23</v>
+        <v>5</v>
       </c>
       <c r="Q321">
         <v>0.69</v>
@@ -66766,36 +68004,36 @@
         <v>0.1</v>
       </c>
       <c r="T321">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="U321">
-        <v>0.22</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V321">
-        <v>0.66</v>
+        <v>0.85</v>
       </c>
       <c r="W321">
         <f>Control!B319</f>
-        <v>85.5</v>
+        <v>75.666666666666671</v>
       </c>
       <c r="X321">
         <f>'Ctrl pct'!B319</f>
-        <v>9.5000000000000001E-2</v>
+        <v>8.4074074074074079E-2</v>
       </c>
       <c r="Y321">
         <f>Controlled!B319</f>
-        <v>38.5</v>
+        <v>99.666666666666671</v>
       </c>
       <c r="Z321">
         <f>'Controlled pct'!B319</f>
-        <v>4.2777777777777776E-2</v>
+        <v>0.11074074074074075</v>
       </c>
       <c r="AA321">
         <f>'Fight Time'!B319</f>
         <v>900</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="322" spans="1:28" x14ac:dyDescent="0.3">
@@ -73825,7 +75063,7 @@
         <v>Mateusz Rebecki</v>
       </c>
       <c r="B404">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C404">
         <v>169</v>
@@ -73837,19 +75075,19 @@
         <v>20</v>
       </c>
       <c r="F404">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G404">
         <v>4</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I404">
         <v>0.45</v>
       </c>
       <c r="J404">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="K404">
         <v>0.35</v>
@@ -73861,45 +75099,45 @@
         <v>0.2</v>
       </c>
       <c r="N404">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="O404" s="8">
-        <v>4.7</v>
+        <v>5.29</v>
       </c>
       <c r="P404" s="8">
-        <v>4.13</v>
+        <v>3.34</v>
       </c>
       <c r="T404">
-        <v>3.84</v>
+        <v>3.46</v>
       </c>
       <c r="U404">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="V404">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="W404">
         <f>Control!B402</f>
-        <v>209.6</v>
+        <v>188.5</v>
       </c>
       <c r="X404">
         <f>'Ctrl pct'!B402</f>
-        <v>0.35706984667802383</v>
+        <v>0.25</v>
       </c>
       <c r="Y404">
         <f>Controlled!B402</f>
-        <v>61.4</v>
+        <v>55.666666666666664</v>
       </c>
       <c r="Z404">
         <f>'Controlled pct'!B402</f>
-        <v>0.10459965928449744</v>
+        <v>7.3828470380194522E-2</v>
       </c>
       <c r="AA404">
         <f>'Fight Time'!B402</f>
-        <v>587</v>
+        <v>754</v>
       </c>
       <c r="AB404">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405" spans="1:28" x14ac:dyDescent="0.3">
@@ -81957,270 +83195,1002 @@
       </c>
     </row>
     <row r="502" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A502" t="str">
+        <f>Control!A500</f>
+        <v>Mizuki Inoue</v>
+      </c>
+      <c r="B502">
+        <v>31</v>
+      </c>
+      <c r="C502">
+        <v>160</v>
+      </c>
+      <c r="D502">
+        <v>163</v>
+      </c>
+      <c r="E502">
+        <v>15</v>
+      </c>
+      <c r="F502">
+        <v>6</v>
+      </c>
+      <c r="G502">
+        <v>2</v>
+      </c>
+      <c r="H502">
+        <v>1</v>
+      </c>
+      <c r="I502">
+        <v>0</v>
+      </c>
+      <c r="J502">
+        <v>0</v>
+      </c>
+      <c r="K502">
+        <v>0.6</v>
+      </c>
+      <c r="L502">
+        <v>0</v>
+      </c>
+      <c r="M502">
+        <v>0.4</v>
+      </c>
+      <c r="N502">
+        <v>0.83</v>
+      </c>
+      <c r="O502" s="8">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="P502" s="8">
+        <v>5.62</v>
+      </c>
+      <c r="T502">
+        <v>0.33</v>
+      </c>
+      <c r="U502">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V502">
+        <v>0.85</v>
+      </c>
       <c r="W502">
         <f>Control!B500</f>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="X502">
         <f>'Ctrl pct'!B500</f>
-        <v>0</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="Y502">
         <f>Controlled!B500</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="Z502">
         <f>'Controlled pct'!B500</f>
-        <v>0</v>
+        <v>0.12666666666666668</v>
       </c>
       <c r="AA502">
         <f>'Fight Time'!B500</f>
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="AB502">
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A503" t="str">
+        <f>Control!A501</f>
+        <v>Jaqueline Amorim</v>
+      </c>
+      <c r="B503">
+        <v>30</v>
+      </c>
+      <c r="C503">
+        <v>160</v>
+      </c>
+      <c r="D503">
+        <v>173</v>
+      </c>
+      <c r="E503">
+        <v>10</v>
+      </c>
+      <c r="F503">
+        <v>1</v>
+      </c>
+      <c r="G503">
+        <v>4</v>
+      </c>
+      <c r="H503">
+        <v>1</v>
+      </c>
+      <c r="I503">
+        <v>0.2</v>
+      </c>
+      <c r="J503">
+        <v>0</v>
+      </c>
+      <c r="K503">
+        <v>0.8</v>
+      </c>
+      <c r="L503">
+        <v>0</v>
+      </c>
+      <c r="M503">
+        <v>0</v>
+      </c>
+      <c r="N503">
+        <v>1</v>
+      </c>
+      <c r="O503" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="P503" s="8">
+        <v>1.43</v>
+      </c>
+      <c r="T503">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="U503">
+        <v>0.37</v>
+      </c>
+      <c r="V503">
+        <v>0</v>
+      </c>
       <c r="W503">
         <f>Control!B501</f>
-        <v>0</v>
+        <v>257.2</v>
       </c>
       <c r="X503">
         <f>'Ctrl pct'!B501</f>
-        <v>0</v>
+        <v>0.52813141683778231</v>
       </c>
       <c r="Y503">
         <f>Controlled!B501</f>
-        <v>0</v>
+        <v>139.4</v>
       </c>
       <c r="Z503">
         <f>'Controlled pct'!B501</f>
-        <v>0</v>
+        <v>0.2862422997946612</v>
       </c>
       <c r="AA503">
         <f>'Fight Time'!B501</f>
-        <v>0</v>
+        <v>487</v>
+      </c>
+      <c r="AB503">
+        <v>4</v>
       </c>
     </row>
     <row r="504" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A504" t="str">
+        <f>Control!A502</f>
+        <v>Chris Barnett</v>
+      </c>
+      <c r="B504">
+        <v>39</v>
+      </c>
+      <c r="C504">
+        <v>175</v>
+      </c>
+      <c r="D504">
+        <v>191</v>
+      </c>
+      <c r="E504">
+        <v>23</v>
+      </c>
+      <c r="F504">
+        <v>9</v>
+      </c>
+      <c r="G504">
+        <v>2</v>
+      </c>
+      <c r="H504">
+        <v>3</v>
+      </c>
+      <c r="I504">
+        <v>0.78</v>
+      </c>
+      <c r="J504">
+        <v>0.44</v>
+      </c>
+      <c r="K504">
+        <v>0</v>
+      </c>
+      <c r="L504">
+        <v>0.11</v>
+      </c>
+      <c r="M504">
+        <v>0.22</v>
+      </c>
+      <c r="N504">
+        <v>0.44</v>
+      </c>
+      <c r="O504" s="8">
+        <v>4.21</v>
+      </c>
+      <c r="P504" s="8">
+        <v>6.53</v>
+      </c>
+      <c r="T504">
+        <v>0</v>
+      </c>
+      <c r="U504">
+        <v>0</v>
+      </c>
+      <c r="V504">
+        <v>0.33</v>
+      </c>
       <c r="W504">
         <f>Control!B502</f>
-        <v>0</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="X504">
         <f>'Ctrl pct'!B502</f>
-        <v>0</v>
+        <v>4.2982456140350879E-2</v>
       </c>
       <c r="Y504">
         <f>Controlled!B502</f>
-        <v>0</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="Z504">
         <f>'Controlled pct'!B502</f>
-        <v>0</v>
+        <v>0.29868421052631577</v>
       </c>
       <c r="AA504">
         <f>'Fight Time'!B502</f>
-        <v>0</v>
+        <v>456</v>
+      </c>
+      <c r="AB504">
+        <v>-1</v>
       </c>
     </row>
     <row r="505" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A505" t="str">
+        <f>Control!A503</f>
+        <v>Matheus Camilo</v>
+      </c>
+      <c r="B505">
+        <v>24</v>
+      </c>
+      <c r="C505">
+        <v>178</v>
+      </c>
+      <c r="D505">
+        <v>175</v>
+      </c>
+      <c r="E505">
+        <v>9</v>
+      </c>
+      <c r="F505">
+        <v>3</v>
+      </c>
+      <c r="G505">
+        <v>0</v>
+      </c>
+      <c r="H505">
+        <v>1</v>
+      </c>
+      <c r="I505">
+        <v>0.44</v>
+      </c>
+      <c r="J505">
+        <v>0</v>
+      </c>
+      <c r="K505">
+        <v>0.22</v>
+      </c>
+      <c r="L505">
+        <v>1</v>
+      </c>
+      <c r="M505">
+        <v>0.33</v>
+      </c>
+      <c r="N505">
+        <v>0</v>
+      </c>
+      <c r="O505" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="P505" s="8">
+        <v>1.38</v>
+      </c>
+      <c r="T505">
+        <v>3.44</v>
+      </c>
+      <c r="U505">
+        <v>0.66</v>
+      </c>
+      <c r="V505">
+        <v>0</v>
+      </c>
       <c r="W505">
         <f>Control!B503</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="X505">
         <f>'Ctrl pct'!B503</f>
-        <v>0</v>
+        <v>0.28680688336520077</v>
       </c>
       <c r="Y505">
         <f>Controlled!B503</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="Z505">
         <f>'Controlled pct'!B503</f>
-        <v>0</v>
+        <v>0.25239005736137665</v>
       </c>
       <c r="AA505">
         <f>'Fight Time'!B503</f>
-        <v>0</v>
+        <v>523</v>
+      </c>
+      <c r="AB505">
+        <v>-1</v>
       </c>
     </row>
     <row r="506" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A506" t="str">
+        <f>Control!A504</f>
+        <v>Abdul Al-Selwady</v>
+      </c>
+      <c r="B506">
+        <v>30</v>
+      </c>
+      <c r="C506">
+        <v>173</v>
+      </c>
+      <c r="D506">
+        <v>175</v>
+      </c>
+      <c r="E506">
+        <v>15</v>
+      </c>
+      <c r="F506">
+        <v>4</v>
+      </c>
+      <c r="G506">
+        <v>0</v>
+      </c>
+      <c r="H506">
+        <v>1</v>
+      </c>
+      <c r="I506">
+        <v>0.53</v>
+      </c>
+      <c r="J506">
+        <v>1</v>
+      </c>
+      <c r="K506">
+        <v>0.13</v>
+      </c>
+      <c r="L506">
+        <v>0</v>
+      </c>
+      <c r="M506">
+        <v>0.33</v>
+      </c>
+      <c r="N506">
+        <v>0</v>
+      </c>
+      <c r="O506" s="8">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="P506" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="T506">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="U506">
+        <v>0.3</v>
+      </c>
+      <c r="V506">
+        <v>0.2</v>
+      </c>
       <c r="W506">
         <f>Control!B504</f>
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="X506">
         <f>'Ctrl pct'!B504</f>
-        <v>0</v>
+        <v>0.1832258064516129</v>
       </c>
       <c r="Y506">
         <f>Controlled!B504</f>
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="Z506">
         <f>'Controlled pct'!B504</f>
-        <v>0</v>
+        <v>5.6129032258064517E-2</v>
       </c>
       <c r="AA506">
         <f>'Fight Time'!B504</f>
-        <v>0</v>
+        <v>775</v>
+      </c>
+      <c r="AB506">
+        <v>-1</v>
       </c>
     </row>
     <row r="507" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A507" t="str">
+        <f>Control!A505</f>
+        <v>Aleksandar Rakic</v>
+      </c>
+      <c r="B507">
+        <v>33</v>
+      </c>
+      <c r="C507">
+        <v>194</v>
+      </c>
+      <c r="D507">
+        <v>198</v>
+      </c>
+      <c r="E507">
+        <v>14</v>
+      </c>
+      <c r="F507">
+        <v>5</v>
+      </c>
+      <c r="G507">
+        <v>6</v>
+      </c>
+      <c r="H507">
+        <v>4</v>
+      </c>
+      <c r="I507">
+        <v>0.64</v>
+      </c>
+      <c r="J507">
+        <v>0.4</v>
+      </c>
+      <c r="K507">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L507">
+        <v>0.2</v>
+      </c>
+      <c r="M507">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N507">
+        <v>0.4</v>
+      </c>
+      <c r="O507" s="8">
+        <v>4.16</v>
+      </c>
+      <c r="P507" s="8">
+        <v>2.91</v>
+      </c>
+      <c r="T507">
+        <v>0.66</v>
+      </c>
+      <c r="U507">
+        <v>0.23</v>
+      </c>
+      <c r="V507">
+        <v>0.85</v>
+      </c>
       <c r="W507">
         <f>Control!B505</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="X507">
         <f>'Ctrl pct'!B505</f>
-        <v>0</v>
+        <v>0.32069970845481049</v>
       </c>
       <c r="Y507">
         <f>Controlled!B505</f>
-        <v>0</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="Z507">
         <f>'Controlled pct'!B505</f>
-        <v>0</v>
+        <v>4.9999999999999996E-2</v>
       </c>
       <c r="AA507">
         <f>'Fight Time'!B505</f>
-        <v>0</v>
+        <v>686</v>
+      </c>
+      <c r="AB507">
+        <v>-3</v>
       </c>
     </row>
     <row r="508" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A508" t="str">
+        <f>Control!A506</f>
+        <v>Alexander Volkov</v>
+      </c>
+      <c r="B508">
+        <v>37</v>
+      </c>
+      <c r="C508">
+        <v>201</v>
+      </c>
+      <c r="D508">
+        <v>203</v>
+      </c>
+      <c r="E508">
+        <v>38</v>
+      </c>
+      <c r="F508">
+        <v>11</v>
+      </c>
+      <c r="G508">
+        <v>12</v>
+      </c>
+      <c r="H508">
+        <v>5</v>
+      </c>
+      <c r="I508">
+        <v>0.63</v>
+      </c>
+      <c r="J508">
+        <v>0.18</v>
+      </c>
+      <c r="K508">
+        <v>0.11</v>
+      </c>
+      <c r="L508">
+        <v>0.27</v>
+      </c>
+      <c r="M508">
+        <v>0.26</v>
+      </c>
+      <c r="N508">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O508" s="8">
+        <v>4.97</v>
+      </c>
+      <c r="P508" s="8">
+        <v>2.99</v>
+      </c>
+      <c r="T508">
+        <v>0.61</v>
+      </c>
+      <c r="U508">
+        <v>0.66</v>
+      </c>
+      <c r="V508">
+        <v>0.72</v>
+      </c>
       <c r="W508">
         <f>Control!B506</f>
-        <v>0</v>
+        <v>62.6</v>
       </c>
       <c r="X508">
         <f>'Ctrl pct'!B506</f>
-        <v>0</v>
+        <v>8.0566280566280568E-2</v>
       </c>
       <c r="Y508">
         <f>Controlled!B506</f>
-        <v>0</v>
+        <v>54.2</v>
       </c>
       <c r="Z508">
         <f>'Controlled pct'!B506</f>
-        <v>0</v>
+        <v>6.9755469755469757E-2</v>
       </c>
       <c r="AA508">
         <f>'Fight Time'!B506</f>
-        <v>0</v>
+        <v>777</v>
+      </c>
+      <c r="AB508">
+        <v>-1</v>
       </c>
     </row>
     <row r="509" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A509" t="str">
+        <f>Control!A507</f>
+        <v>Jailton Almeida</v>
+      </c>
+      <c r="B509">
+        <v>34</v>
+      </c>
+      <c r="C509">
+        <v>191</v>
+      </c>
+      <c r="D509">
+        <v>201</v>
+      </c>
+      <c r="E509">
+        <v>22</v>
+      </c>
+      <c r="F509">
+        <v>3</v>
+      </c>
+      <c r="G509">
+        <v>8</v>
+      </c>
+      <c r="H509">
+        <v>1</v>
+      </c>
+      <c r="I509">
+        <v>0.36</v>
+      </c>
+      <c r="J509">
+        <v>0.67</v>
+      </c>
+      <c r="K509">
+        <v>0.59</v>
+      </c>
+      <c r="L509">
+        <v>0</v>
+      </c>
+      <c r="M509">
+        <v>0.05</v>
+      </c>
+      <c r="N509">
+        <v>0.33</v>
+      </c>
+      <c r="O509" s="8">
+        <v>2.62</v>
+      </c>
+      <c r="P509" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="T509">
+        <v>6.58</v>
+      </c>
+      <c r="U509">
+        <v>0.6</v>
+      </c>
+      <c r="V509">
+        <v>0.6</v>
+      </c>
       <c r="W509">
         <f>Control!B507</f>
-        <v>0</v>
+        <v>345.77777777777777</v>
       </c>
       <c r="X509">
         <f>'Ctrl pct'!B507</f>
-        <v>0</v>
+        <v>0.84336043360433599</v>
       </c>
       <c r="Y509">
         <f>Controlled!B507</f>
-        <v>0</v>
+        <v>21.555555555555557</v>
       </c>
       <c r="Z509">
         <f>'Controlled pct'!B507</f>
-        <v>0</v>
+        <v>5.2574525745257457E-2</v>
       </c>
       <c r="AA509">
         <f>'Fight Time'!B507</f>
-        <v>0</v>
+        <v>410</v>
+      </c>
+      <c r="AB509">
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A510" t="str">
+        <f>Control!A508</f>
+        <v>Umar Nurmagomedov</v>
+      </c>
+      <c r="B510">
+        <v>29</v>
+      </c>
+      <c r="C510">
+        <v>172</v>
+      </c>
+      <c r="D510">
+        <v>175</v>
+      </c>
+      <c r="E510">
+        <v>18</v>
+      </c>
+      <c r="F510">
+        <v>1</v>
+      </c>
+      <c r="G510">
+        <v>6</v>
+      </c>
+      <c r="H510">
+        <v>1</v>
+      </c>
+      <c r="I510">
+        <v>0.11</v>
+      </c>
+      <c r="J510">
+        <v>0</v>
+      </c>
+      <c r="K510">
+        <v>0.39</v>
+      </c>
+      <c r="L510">
+        <v>0</v>
+      </c>
+      <c r="M510">
+        <v>0.5</v>
+      </c>
+      <c r="N510">
+        <v>1</v>
+      </c>
+      <c r="O510" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="P510" s="8">
+        <v>2.15</v>
+      </c>
+      <c r="T510">
+        <v>3.26</v>
+      </c>
+      <c r="U510">
+        <v>0.39</v>
+      </c>
+      <c r="V510">
+        <v>0.78</v>
+      </c>
       <c r="W510">
         <f>Control!B508</f>
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="X510">
         <f>'Ctrl pct'!B508</f>
-        <v>0</v>
+        <v>0.34661835748792269</v>
       </c>
       <c r="Y510">
         <f>Controlled!B508</f>
-        <v>0</v>
+        <v>28.857142857142858</v>
       </c>
       <c r="Z510">
         <f>'Controlled pct'!B508</f>
-        <v>0</v>
+        <v>3.4851621808143544E-2</v>
       </c>
       <c r="AA510">
         <f>'Fight Time'!B508</f>
-        <v>0</v>
+        <v>828</v>
+      </c>
+      <c r="AB510">
+        <v>-1</v>
       </c>
     </row>
     <row r="511" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A511" t="str">
+        <f>Control!A509</f>
+        <v>Mackenzie Dern</v>
+      </c>
+      <c r="B511">
+        <v>32</v>
+      </c>
+      <c r="C511">
+        <v>163</v>
+      </c>
+      <c r="D511">
+        <v>160</v>
+      </c>
+      <c r="E511">
+        <v>15</v>
+      </c>
+      <c r="F511">
+        <v>5</v>
+      </c>
+      <c r="G511">
+        <v>10</v>
+      </c>
+      <c r="H511">
+        <v>5</v>
+      </c>
+      <c r="I511">
+        <v>0</v>
+      </c>
+      <c r="J511">
+        <v>0.2</v>
+      </c>
+      <c r="K511">
+        <v>0.53</v>
+      </c>
+      <c r="L511">
+        <v>0</v>
+      </c>
+      <c r="M511">
+        <v>0.47</v>
+      </c>
+      <c r="N511">
+        <v>0.8</v>
+      </c>
+      <c r="O511" s="8">
+        <v>3.31</v>
+      </c>
+      <c r="P511" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="T511">
+        <v>0.89</v>
+      </c>
+      <c r="U511">
+        <v>0.17</v>
+      </c>
+      <c r="V511">
+        <v>0.25</v>
+      </c>
       <c r="W511">
         <f>Control!B509</f>
-        <v>0</v>
+        <v>332.2</v>
       </c>
       <c r="X511">
         <f>'Ctrl pct'!B509</f>
-        <v>0</v>
+        <v>0.41164807930607183</v>
       </c>
       <c r="Y511">
         <f>Controlled!B509</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="Z511">
         <f>'Controlled pct'!B509</f>
-        <v>0</v>
+        <v>0.21313506815365552</v>
       </c>
       <c r="AA511">
         <f>'Fight Time'!B509</f>
-        <v>0</v>
+        <v>807</v>
+      </c>
+      <c r="AB511">
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A512" t="str">
+        <f>Control!A510</f>
+        <v>Ciryl Gane</v>
+      </c>
+      <c r="B512">
+        <v>35</v>
+      </c>
+      <c r="C512">
+        <v>193</v>
+      </c>
+      <c r="D512">
+        <v>206</v>
+      </c>
+      <c r="E512">
+        <v>13</v>
+      </c>
+      <c r="F512">
+        <v>2</v>
+      </c>
+      <c r="G512">
+        <v>10</v>
+      </c>
+      <c r="H512">
+        <v>2</v>
+      </c>
+      <c r="I512">
+        <v>0.46</v>
+      </c>
+      <c r="J512">
+        <v>0</v>
+      </c>
+      <c r="K512">
+        <v>0.23</v>
+      </c>
+      <c r="L512">
+        <v>0.5</v>
+      </c>
+      <c r="M512">
+        <v>0.31</v>
+      </c>
+      <c r="N512">
+        <v>0.5</v>
+      </c>
+      <c r="O512" s="8">
+        <v>5.26</v>
+      </c>
+      <c r="P512" s="8">
+        <v>2.23</v>
+      </c>
+      <c r="T512">
+        <v>0.7</v>
+      </c>
+      <c r="U512">
+        <v>0.25</v>
+      </c>
+      <c r="V512">
+        <v>0.43</v>
+      </c>
       <c r="W512">
         <f>Control!B510</f>
-        <v>0</v>
+        <v>79.5</v>
       </c>
       <c r="X512">
         <f>'Ctrl pct'!B510</f>
-        <v>0</v>
+        <v>9.2982456140350875E-2</v>
       </c>
       <c r="Y512">
         <f>Controlled!B510</f>
-        <v>0</v>
+        <v>85.2</v>
       </c>
       <c r="Z512">
         <f>'Controlled pct'!B510</f>
-        <v>0</v>
+        <v>9.9649122807017543E-2</v>
       </c>
       <c r="AA512">
         <f>'Fight Time'!B510</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="23:27" x14ac:dyDescent="0.3">
+        <v>855</v>
+      </c>
+      <c r="AB512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A513" t="str">
+        <f>Control!A511</f>
+        <v>Tom Aspinall</v>
+      </c>
+      <c r="B513">
+        <v>32</v>
+      </c>
+      <c r="C513">
+        <v>196</v>
+      </c>
+      <c r="D513">
+        <v>198</v>
+      </c>
+      <c r="E513">
+        <v>15</v>
+      </c>
+      <c r="F513">
+        <v>3</v>
+      </c>
+      <c r="G513">
+        <v>8</v>
+      </c>
+      <c r="H513">
+        <v>1</v>
+      </c>
+      <c r="I513">
+        <v>0.73</v>
+      </c>
+      <c r="J513">
+        <v>0.33</v>
+      </c>
+      <c r="K513">
+        <v>0.27</v>
+      </c>
+      <c r="L513">
+        <v>0.33</v>
+      </c>
+      <c r="M513">
+        <v>0</v>
+      </c>
+      <c r="N513">
+        <v>0</v>
+      </c>
+      <c r="O513" s="8">
+        <v>8.07</v>
+      </c>
+      <c r="P513" s="8">
+        <v>2.89</v>
+      </c>
+      <c r="T513">
+        <v>3.27</v>
+      </c>
+      <c r="U513">
+        <v>1</v>
+      </c>
+      <c r="V513">
+        <v>1</v>
+      </c>
       <c r="W513">
         <f>Control!B511</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="X513">
         <f>'Ctrl pct'!B511</f>
-        <v>0</v>
+        <v>0.27868852459016391</v>
       </c>
       <c r="Y513">
         <f>Controlled!B511</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Z513">
         <f>'Controlled pct'!B511</f>
-        <v>0</v>
+        <v>9.1074681238615665E-4</v>
       </c>
       <c r="AA513">
         <f>'Fight Time'!B511</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514" spans="23:27" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="AB513">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W514">
         <f>Control!B512</f>
         <v>0</v>
@@ -82242,7 +84212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W515">
         <f>Control!B513</f>
         <v>0</v>
@@ -82264,7 +84234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W516">
         <f>Control!B514</f>
         <v>0</v>
@@ -82286,7 +84256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W517">
         <f>Control!B515</f>
         <v>0</v>
@@ -82308,7 +84278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W518">
         <f>Control!B516</f>
         <v>0</v>
@@ -82330,7 +84300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W519">
         <f>Control!B517</f>
         <v>0</v>
@@ -82352,7 +84322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W520">
         <f>Control!B518</f>
         <v>0</v>
@@ -82374,7 +84344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W521">
         <f>Control!B519</f>
         <v>0</v>
@@ -82396,7 +84366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W522">
         <f>Control!B520</f>
         <v>0</v>
@@ -82418,7 +84388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W523">
         <f>Control!B521</f>
         <v>0</v>
@@ -82440,7 +84410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W524">
         <f>Control!B522</f>
         <v>0</v>
@@ -82462,7 +84432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W525">
         <f>Control!B523</f>
         <v>0</v>
@@ -82484,7 +84454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W526">
         <f>Control!B524</f>
         <v>0</v>
@@ -82506,7 +84476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W527">
         <f>Control!B525</f>
         <v>0</v>
@@ -82528,7 +84498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="23:27" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W528">
         <f>Control!B526</f>
         <v>0</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D72A11-F3B1-4023-9E20-151FEBF255BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0BFC4C-0A70-4F05-B9CB-DA10FB44AC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="773">
   <si>
     <t>Khaos</t>
   </si>
@@ -2314,6 +2314,42 @@
   <si>
     <t>Tom Aspinall</t>
   </si>
+  <si>
+    <t>Ariane Carnelossi</t>
+  </si>
+  <si>
+    <t>Montserrat Conejo Ruiz</t>
+  </si>
+  <si>
+    <t>Norma Dumont</t>
+  </si>
+  <si>
+    <t>Donte Johnson</t>
+  </si>
+  <si>
+    <t>Timmy Cuamba</t>
+  </si>
+  <si>
+    <t>Kevin Christian</t>
+  </si>
+  <si>
+    <t>Yadier del Valle</t>
+  </si>
+  <si>
+    <t>Isaac Dulgarian</t>
+  </si>
+  <si>
+    <t>Themba Gorimbo</t>
+  </si>
+  <si>
+    <t>Jeremiah Wells</t>
+  </si>
+  <si>
+    <t>David Onama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -2741,10 +2777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
-  <dimension ref="A1:AE511"/>
+  <dimension ref="A1:AE522"/>
   <sheetViews>
-    <sheetView topLeftCell="A382" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H403" sqref="H403"/>
+    <sheetView topLeftCell="A428" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C450" sqref="C450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6159,7 +6195,7 @@
       </c>
       <c r="B109" s="1">
         <f t="shared" si="2"/>
-        <v>88.777777777777771</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="C109">
         <v>103</v>
@@ -6189,6 +6225,9 @@
       <c r="K109">
         <v>0</v>
       </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
@@ -8233,7 +8272,7 @@
       </c>
       <c r="B172" s="1">
         <f t="shared" si="3"/>
-        <v>337</v>
+        <v>421.2</v>
       </c>
       <c r="C172">
         <v>388</v>
@@ -8248,6 +8287,9 @@
         <f>12*60+38</f>
         <v>758</v>
       </c>
+      <c r="G172">
+        <v>758</v>
+      </c>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
@@ -8396,15 +8438,12 @@
       </c>
       <c r="B178" s="1">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>12.5</v>
       </c>
       <c r="C178">
         <v>25</v>
       </c>
       <c r="D178">
-        <v>195</v>
-      </c>
-      <c r="E178">
         <v>0</v>
       </c>
     </row>
@@ -10490,7 +10529,7 @@
       </c>
       <c r="B244" s="1">
         <f t="shared" si="4"/>
-        <v>147.25</v>
+        <v>117.8</v>
       </c>
       <c r="C244">
         <v>581</v>
@@ -10502,6 +10541,9 @@
         <v>0</v>
       </c>
       <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
         <v>0</v>
       </c>
     </row>
@@ -10829,7 +10871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>487</v>
       </c>
@@ -10850,7 +10892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>488</v>
       </c>
@@ -10871,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>489</v>
       </c>
@@ -10904,7 +10946,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>490</v>
       </c>
@@ -10919,7 +10961,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>491</v>
       </c>
@@ -10958,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>492</v>
       </c>
@@ -10997,55 +11039,46 @@
         <v>33</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>493</v>
       </c>
       <c r="B263" s="1">
-        <f t="shared" si="5"/>
-        <v>293.46153846153845</v>
-      </c>
-      <c r="C263">
-        <v>504</v>
-      </c>
-      <c r="D263">
-        <v>246</v>
-      </c>
-      <c r="E263">
-        <v>105</v>
-      </c>
-      <c r="F263">
+        <f xml:space="preserve"> AVERAGE(C263:BC263)</f>
+        <v>290</v>
+      </c>
+      <c r="C263" s="14">
         <v>609</v>
       </c>
-      <c r="G263">
-        <v>0</v>
-      </c>
-      <c r="H263">
+      <c r="D263" s="14">
+        <v>0</v>
+      </c>
+      <c r="E263" s="14">
         <v>147</v>
       </c>
-      <c r="I263">
+      <c r="F263" s="14">
         <v>518</v>
       </c>
-      <c r="J263">
+      <c r="G263" s="14">
         <v>2</v>
       </c>
-      <c r="K263">
+      <c r="H263" s="14">
         <v>84</v>
       </c>
-      <c r="L263">
+      <c r="I263" s="14">
         <v>285</v>
       </c>
-      <c r="M263" s="10">
+      <c r="J263" s="13">
         <v>649</v>
       </c>
-      <c r="N263" s="10">
-        <v>0</v>
-      </c>
-      <c r="O263" s="10">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K263" s="13">
+        <v>0</v>
+      </c>
+      <c r="L263" s="13">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>494</v>
       </c>
@@ -11067,7 +11100,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>495</v>
       </c>
@@ -11091,7 +11124,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>496</v>
       </c>
@@ -11127,7 +11160,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>497</v>
       </c>
@@ -11154,7 +11187,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>498</v>
       </c>
@@ -11175,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>499</v>
       </c>
@@ -11217,7 +11250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>500</v>
       </c>
@@ -11257,7 +11290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>501</v>
       </c>
@@ -11297,7 +11330,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>502</v>
       </c>
@@ -11872,7 +11905,7 @@
       </c>
       <c r="B293" s="1">
         <f t="shared" si="5"/>
-        <v>138.83333333333334</v>
+        <v>120.42857142857143</v>
       </c>
       <c r="C293">
         <v>343</v>
@@ -11891,6 +11924,9 @@
       </c>
       <c r="H293">
         <v>110</v>
+      </c>
+      <c r="I293">
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
@@ -11952,40 +11988,40 @@
         <v>533</v>
       </c>
       <c r="B296" s="1">
-        <f t="shared" si="5"/>
-        <v>253</v>
+        <f xml:space="preserve"> AVERAGE(C296:BC296)</f>
+        <v>229.3</v>
       </c>
       <c r="C296">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="D296">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E296">
-        <v>26</v>
-      </c>
-      <c r="F296">
         <f>12*60+32</f>
         <v>752</v>
       </c>
-      <c r="G296">
+      <c r="F296">
         <f>9*60+33</f>
         <v>573</v>
       </c>
+      <c r="G296">
+        <v>445</v>
+      </c>
       <c r="H296">
-        <v>445</v>
+        <v>36</v>
       </c>
       <c r="I296">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="J296">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="K296">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="L296">
-        <v>194</v>
+        <v>102</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
@@ -12800,10 +12836,13 @@
       </c>
       <c r="B328" s="1">
         <f t="shared" si="6"/>
-        <v>366</v>
+        <v>490.5</v>
       </c>
       <c r="C328">
         <v>366</v>
+      </c>
+      <c r="D328">
+        <v>615</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.3">
@@ -13745,7 +13784,7 @@
       </c>
       <c r="B361" s="1">
         <f t="shared" si="6"/>
-        <v>76.875</v>
+        <v>68.666666666666671</v>
       </c>
       <c r="C361">
         <v>14</v>
@@ -13770,6 +13809,9 @@
       </c>
       <c r="J361">
         <v>96</v>
+      </c>
+      <c r="K361">
+        <v>3</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -14432,10 +14474,13 @@
       </c>
       <c r="B387" s="1">
         <f t="shared" si="7"/>
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="C387">
         <v>220</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.3">
@@ -16113,10 +16158,10 @@
       </c>
       <c r="B450" s="1">
         <f t="shared" si="8"/>
-        <v>120</v>
-      </c>
-      <c r="C450" s="8">
-        <v>120</v>
+        <v>8</v>
+      </c>
+      <c r="C450" s="14">
+        <v>8</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.3">
@@ -17546,7 +17591,7 @@
         <v>760</v>
       </c>
       <c r="B511" s="1">
-        <f t="shared" ref="B511" si="9" xml:space="preserve"> AVERAGE(C511:BC511)</f>
+        <f t="shared" ref="B511:B522" si="9" xml:space="preserve"> AVERAGE(C511:BC511)</f>
         <v>34</v>
       </c>
       <c r="C511">
@@ -17575,6 +17620,252 @@
       </c>
       <c r="K511">
         <v>13</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A512" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B512" s="1">
+        <f t="shared" si="9"/>
+        <v>145</v>
+      </c>
+      <c r="C512">
+        <v>156</v>
+      </c>
+      <c r="D512">
+        <v>424</v>
+      </c>
+      <c r="E512">
+        <v>0</v>
+      </c>
+      <c r="F512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>762</v>
+      </c>
+      <c r="B513" s="1">
+        <f t="shared" si="9"/>
+        <v>203.5</v>
+      </c>
+      <c r="C513">
+        <v>593</v>
+      </c>
+      <c r="D513">
+        <v>0</v>
+      </c>
+      <c r="E513">
+        <v>219</v>
+      </c>
+      <c r="F513">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>763</v>
+      </c>
+      <c r="B514" s="1">
+        <f t="shared" si="9"/>
+        <v>243.7</v>
+      </c>
+      <c r="C514">
+        <v>140</v>
+      </c>
+      <c r="D514">
+        <v>241</v>
+      </c>
+      <c r="E514">
+        <v>81</v>
+      </c>
+      <c r="F514">
+        <v>107</v>
+      </c>
+      <c r="G514">
+        <v>26</v>
+      </c>
+      <c r="H514">
+        <v>401</v>
+      </c>
+      <c r="I514">
+        <v>294</v>
+      </c>
+      <c r="J514">
+        <v>538</v>
+      </c>
+      <c r="K514">
+        <v>604</v>
+      </c>
+      <c r="L514">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>764</v>
+      </c>
+      <c r="B515" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>765</v>
+      </c>
+      <c r="B516" s="1">
+        <f t="shared" si="9"/>
+        <v>67.75</v>
+      </c>
+      <c r="C516">
+        <v>6</v>
+      </c>
+      <c r="D516">
+        <v>115</v>
+      </c>
+      <c r="E516">
+        <v>138</v>
+      </c>
+      <c r="F516">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>766</v>
+      </c>
+      <c r="B517" s="1">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="C517">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>767</v>
+      </c>
+      <c r="B518" s="1">
+        <f t="shared" si="9"/>
+        <v>213.5</v>
+      </c>
+      <c r="C518">
+        <v>346</v>
+      </c>
+      <c r="D518">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>768</v>
+      </c>
+      <c r="B519" s="1">
+        <f t="shared" si="9"/>
+        <v>457.33333333333331</v>
+      </c>
+      <c r="C519">
+        <v>258</v>
+      </c>
+      <c r="D519">
+        <v>562</v>
+      </c>
+      <c r="E519">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>769</v>
+      </c>
+      <c r="B520" s="1">
+        <f t="shared" si="9"/>
+        <v>327.83333333333331</v>
+      </c>
+      <c r="C520">
+        <v>120</v>
+      </c>
+      <c r="D520">
+        <v>675</v>
+      </c>
+      <c r="E520">
+        <v>5</v>
+      </c>
+      <c r="F520">
+        <v>613</v>
+      </c>
+      <c r="G520">
+        <v>554</v>
+      </c>
+      <c r="H520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>770</v>
+      </c>
+      <c r="B521" s="1">
+        <f t="shared" si="9"/>
+        <v>302.83333333333331</v>
+      </c>
+      <c r="C521">
+        <v>212</v>
+      </c>
+      <c r="D521">
+        <v>265</v>
+      </c>
+      <c r="E521">
+        <v>2</v>
+      </c>
+      <c r="F521">
+        <v>672</v>
+      </c>
+      <c r="G521">
+        <v>566</v>
+      </c>
+      <c r="H521">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>771</v>
+      </c>
+      <c r="B522" s="1">
+        <f t="shared" si="9"/>
+        <v>149.375</v>
+      </c>
+      <c r="C522">
+        <v>11</v>
+      </c>
+      <c r="D522">
+        <v>10</v>
+      </c>
+      <c r="E522">
+        <v>155</v>
+      </c>
+      <c r="F522">
+        <v>73</v>
+      </c>
+      <c r="G522">
+        <v>173</v>
+      </c>
+      <c r="H522">
+        <v>135</v>
+      </c>
+      <c r="I522">
+        <v>263</v>
+      </c>
+      <c r="J522">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -17585,10 +17876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
-  <dimension ref="A1:B511"/>
+  <dimension ref="A1:B522"/>
   <sheetViews>
-    <sheetView topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="B499" sqref="B499:B511"/>
+    <sheetView topLeftCell="A507" workbookViewId="0">
+      <selection activeCell="F517" sqref="F517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18574,7 +18865,7 @@
       </c>
       <c r="B109">
         <f>Control!B109/'Fight Time'!B109</f>
-        <v>0.1250391236306729</v>
+        <v>0.10960219478737998</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -19141,7 +19432,7 @@
       </c>
       <c r="B172">
         <f>Control!B172/'Fight Time'!B172</f>
-        <v>0.37444444444444447</v>
+        <v>0.46799999999999997</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -19195,7 +19486,7 @@
       </c>
       <c r="B178">
         <f>Control!B178/'Fight Time'!B178</f>
-        <v>0.1437908496732026</v>
+        <v>3.0864197530864196E-2</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -19303,7 +19594,7 @@
       </c>
       <c r="B190">
         <f>Control!B190/'Fight Time'!B190</f>
-        <v>0.35208012326656396</v>
+        <v>0.36914378029079159</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -19420,7 +19711,7 @@
       </c>
       <c r="B203">
         <f>Control!B203/'Fight Time'!B203</f>
-        <v>0.26148705096073516</v>
+        <v>0.29417293233082709</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -19787,9 +20078,9 @@
       <c r="A244" t="s">
         <v>240</v>
       </c>
-      <c r="B244" t="e">
+      <c r="B244">
         <f>Control!B244/'Fight Time'!B244</f>
-        <v>#DIV/0!</v>
+        <v>0.31837837837837835</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -19960,7 +20251,7 @@
       </c>
       <c r="B263">
         <f>Control!B263/'Fight Time'!B263</f>
-        <v>0.31863359224922744</v>
+        <v>0.31556039173014144</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -19969,7 +20260,7 @@
       </c>
       <c r="B264">
         <f>Control!B264/'Fight Time'!B264</f>
-        <v>0.39675414364640882</v>
+        <v>0.3784584980237154</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -20230,7 +20521,7 @@
       </c>
       <c r="B293">
         <f>Control!B293/'Fight Time'!B293</f>
-        <v>0.18992248062015504</v>
+        <v>0.1616490891658677</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -20257,7 +20548,7 @@
       </c>
       <c r="B296">
         <f>Control!B296/'Fight Time'!B296</f>
-        <v>0.42808798646362101</v>
+        <v>0.40228070175438596</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -20545,7 +20836,7 @@
       </c>
       <c r="B328">
         <f>Control!B328/'Fight Time'!B328</f>
-        <v>0.40666666666666668</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -20842,7 +21133,7 @@
       </c>
       <c r="B361">
         <f>Control!B361/'Fight Time'!B361</f>
-        <v>0.24959415584415584</v>
+        <v>0.18968692449355434</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -21076,7 +21367,7 @@
       </c>
       <c r="B387">
         <f>Control!B387/'Fight Time'!B387</f>
-        <v>0.42884990253411304</v>
+        <v>0.15558698727015557</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -21643,7 +21934,7 @@
       </c>
       <c r="B450">
         <f>Control!B450/'Fight Time'!B450</f>
-        <v>0.24</v>
+        <v>6.5040650406504072E-2</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -22193,6 +22484,105 @@
       <c r="B511">
         <f>Control!B511/'Fight Time'!B511</f>
         <v>0.27868852459016391</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B512">
+        <f>Control!B512/'Fight Time'!B512</f>
+        <v>0.22137404580152673</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>762</v>
+      </c>
+      <c r="B513">
+        <f>Control!B513/'Fight Time'!B513</f>
+        <v>0.37135036496350365</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>763</v>
+      </c>
+      <c r="B514">
+        <f>Control!B514/'Fight Time'!B514</f>
+        <v>0.27351290684624019</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>764</v>
+      </c>
+      <c r="B515">
+        <f>Control!B515/'Fight Time'!B515</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>765</v>
+      </c>
+      <c r="B516">
+        <f>Control!B516/'Fight Time'!B516</f>
+        <v>8.3745364647713233E-2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>766</v>
+      </c>
+      <c r="B517">
+        <f>Control!B517/'Fight Time'!B517</f>
+        <v>4.8473967684021541E-2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>767</v>
+      </c>
+      <c r="B518">
+        <f>Control!B518/'Fight Time'!B518</f>
+        <v>0.39757914338919925</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>768</v>
+      </c>
+      <c r="B519">
+        <f>Control!B519/'Fight Time'!B519</f>
+        <v>0.78579610538373423</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>769</v>
+      </c>
+      <c r="B520">
+        <f>Control!B520/'Fight Time'!B520</f>
+        <v>0.61855345911949677</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>770</v>
+      </c>
+      <c r="B521">
+        <f>Control!B521/'Fight Time'!B521</f>
+        <v>0.56604361370716505</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>771</v>
+      </c>
+      <c r="B522">
+        <f>Control!B522/'Fight Time'!B522</f>
+        <v>0.20575068870523416</v>
       </c>
     </row>
   </sheetData>
@@ -22202,10 +22592,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE6061D-61FC-4C09-B7C6-10300652FA01}">
-  <dimension ref="A1:AE511"/>
+  <dimension ref="A1:AE522"/>
   <sheetViews>
-    <sheetView topLeftCell="A387" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H403" sqref="H403"/>
+    <sheetView topLeftCell="A429" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H442" sqref="H442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25645,7 +26035,7 @@
       </c>
       <c r="B109" s="1">
         <f t="shared" si="1"/>
-        <v>64.111111111111114</v>
+        <v>58.5</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -25673,6 +26063,9 @@
       </c>
       <c r="K109">
         <v>145</v>
+      </c>
+      <c r="L109">
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -30312,7 +30705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>487</v>
       </c>
@@ -30333,7 +30726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>488</v>
       </c>
@@ -30354,7 +30747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>489</v>
       </c>
@@ -30387,7 +30780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>490</v>
       </c>
@@ -30402,7 +30795,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>491</v>
       </c>
@@ -30441,7 +30834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>492</v>
       </c>
@@ -30480,55 +30873,46 @@
         <v>606</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>493</v>
       </c>
       <c r="B263" s="1">
-        <f t="shared" si="4"/>
-        <v>172.07692307692307</v>
-      </c>
-      <c r="C263">
-        <v>45</v>
-      </c>
-      <c r="D263">
-        <v>5</v>
-      </c>
-      <c r="E263">
-        <v>332</v>
-      </c>
-      <c r="F263">
+        <f>AVERAGE(C263:BA263)</f>
+        <v>185.5</v>
+      </c>
+      <c r="C263" s="14">
         <v>14</v>
       </c>
-      <c r="G263">
+      <c r="D263" s="14">
         <v>2</v>
       </c>
-      <c r="H263">
+      <c r="E263" s="14">
         <v>39</v>
       </c>
-      <c r="I263">
+      <c r="F263" s="14">
         <v>309</v>
       </c>
-      <c r="J263">
+      <c r="G263" s="14">
         <v>172</v>
       </c>
-      <c r="K263">
+      <c r="H263" s="14">
         <v>603</v>
       </c>
-      <c r="L263">
+      <c r="I263" s="14">
         <v>78</v>
       </c>
-      <c r="M263" s="11">
+      <c r="J263" s="14">
         <v>131</v>
       </c>
-      <c r="N263" s="11">
+      <c r="K263" s="14">
         <v>474</v>
       </c>
-      <c r="O263" s="11">
+      <c r="L263" s="14">
         <v>33</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>494</v>
       </c>
@@ -30550,7 +30934,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>495</v>
       </c>
@@ -30574,7 +30958,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>496</v>
       </c>
@@ -30610,7 +30994,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>497</v>
       </c>
@@ -30637,7 +31021,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>498</v>
       </c>
@@ -30658,7 +31042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>499</v>
       </c>
@@ -30700,7 +31084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>500</v>
       </c>
@@ -30739,7 +31123,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>501</v>
       </c>
@@ -30778,7 +31162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>502</v>
       </c>
@@ -31348,7 +31732,7 @@
       </c>
       <c r="B293" s="1">
         <f t="shared" si="4"/>
-        <v>240.33333333333334</v>
+        <v>259.28571428571428</v>
       </c>
       <c r="C293">
         <v>193</v>
@@ -31367,6 +31751,9 @@
       </c>
       <c r="H293">
         <v>184</v>
+      </c>
+      <c r="I293">
+        <v>373</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
@@ -31428,38 +31815,38 @@
         <v>533</v>
       </c>
       <c r="B296" s="1">
-        <f t="shared" si="4"/>
-        <v>63.7</v>
+        <f>AVERAGE(C296:BA296)</f>
+        <v>57.3</v>
       </c>
       <c r="C296">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
         <v>11</v>
       </c>
-      <c r="E296">
-        <v>0</v>
-      </c>
       <c r="F296">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G296">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="H296">
-        <v>124</v>
+        <v>363</v>
       </c>
       <c r="I296">
-        <v>363</v>
+        <v>23</v>
       </c>
       <c r="J296">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K296">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L296">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
@@ -32269,10 +32656,13 @@
       </c>
       <c r="B328" s="1">
         <f t="shared" si="5"/>
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C328">
         <v>54</v>
+      </c>
+      <c r="D328">
+        <v>104</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.3">
@@ -33213,7 +33603,7 @@
       </c>
       <c r="B361" s="1">
         <f t="shared" si="5"/>
-        <v>184.875</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="C361">
         <f>14*60+2</f>
@@ -33240,6 +33630,9 @@
       <c r="J361">
         <v>133</v>
       </c>
+      <c r="K361">
+        <v>21</v>
+      </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
@@ -33901,10 +34294,13 @@
       </c>
       <c r="B387" s="1">
         <f t="shared" si="6"/>
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C387">
         <v>84</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.3">
@@ -35574,10 +35970,10 @@
       </c>
       <c r="B450" s="1">
         <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-      <c r="C450" s="8">
-        <v>65</v>
+        <v>78</v>
+      </c>
+      <c r="C450" s="14">
+        <v>78</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.3">
@@ -36812,7 +37208,7 @@
         <v>755</v>
       </c>
       <c r="B506" s="1">
-        <f t="shared" ref="B506:B511" si="8">AVERAGE(C506:BA506)</f>
+        <f t="shared" ref="B506:B522" si="8">AVERAGE(C506:BA506)</f>
         <v>54.2</v>
       </c>
       <c r="C506">
@@ -37023,6 +37419,253 @@
         <v>0</v>
       </c>
       <c r="K511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A512" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B512" s="1">
+        <f t="shared" si="8"/>
+        <v>301.75</v>
+      </c>
+      <c r="C512">
+        <v>168</v>
+      </c>
+      <c r="D512">
+        <v>0</v>
+      </c>
+      <c r="E512">
+        <f>13*60+26</f>
+        <v>806</v>
+      </c>
+      <c r="F512">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>762</v>
+      </c>
+      <c r="B513" s="1">
+        <f t="shared" si="8"/>
+        <v>227.5</v>
+      </c>
+      <c r="C513">
+        <v>64</v>
+      </c>
+      <c r="D513">
+        <v>4</v>
+      </c>
+      <c r="E513">
+        <v>485</v>
+      </c>
+      <c r="F513">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>763</v>
+      </c>
+      <c r="B514" s="1">
+        <f t="shared" si="8"/>
+        <v>159.19999999999999</v>
+      </c>
+      <c r="C514">
+        <v>14</v>
+      </c>
+      <c r="D514">
+        <v>10</v>
+      </c>
+      <c r="E514">
+        <v>178</v>
+      </c>
+      <c r="F514">
+        <v>452</v>
+      </c>
+      <c r="G514">
+        <v>454</v>
+      </c>
+      <c r="H514">
+        <v>0</v>
+      </c>
+      <c r="I514">
+        <v>193</v>
+      </c>
+      <c r="J514">
+        <v>150</v>
+      </c>
+      <c r="K514">
+        <v>141</v>
+      </c>
+      <c r="L514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>764</v>
+      </c>
+      <c r="B515" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>765</v>
+      </c>
+      <c r="B516" s="1">
+        <f t="shared" si="8"/>
+        <v>134.75</v>
+      </c>
+      <c r="C516">
+        <v>244</v>
+      </c>
+      <c r="D516">
+        <v>109</v>
+      </c>
+      <c r="E516">
+        <v>47</v>
+      </c>
+      <c r="F516">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>766</v>
+      </c>
+      <c r="B517" s="1">
+        <f t="shared" si="8"/>
+        <v>282</v>
+      </c>
+      <c r="C517">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>767</v>
+      </c>
+      <c r="B518" s="1">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="C518">
+        <v>92</v>
+      </c>
+      <c r="D518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>768</v>
+      </c>
+      <c r="B519" s="1">
+        <f t="shared" si="8"/>
+        <v>66.333333333333329</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="D519">
+        <v>199</v>
+      </c>
+      <c r="E519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>769</v>
+      </c>
+      <c r="B520" s="1">
+        <f t="shared" si="8"/>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="C520">
+        <v>201</v>
+      </c>
+      <c r="D520">
+        <v>141</v>
+      </c>
+      <c r="E520">
+        <v>0</v>
+      </c>
+      <c r="F520">
+        <v>224</v>
+      </c>
+      <c r="G520">
+        <v>60</v>
+      </c>
+      <c r="H520">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>770</v>
+      </c>
+      <c r="B521" s="1">
+        <f t="shared" si="8"/>
+        <v>37.833333333333336</v>
+      </c>
+      <c r="C521">
+        <v>22</v>
+      </c>
+      <c r="D521">
+        <v>3</v>
+      </c>
+      <c r="E521">
+        <v>0</v>
+      </c>
+      <c r="F521">
+        <v>89</v>
+      </c>
+      <c r="G521">
+        <v>13</v>
+      </c>
+      <c r="H521">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>771</v>
+      </c>
+      <c r="B522" s="1">
+        <f t="shared" si="8"/>
+        <v>176.5</v>
+      </c>
+      <c r="C522">
+        <v>541</v>
+      </c>
+      <c r="D522">
+        <v>0</v>
+      </c>
+      <c r="E522">
+        <v>112</v>
+      </c>
+      <c r="F522">
+        <v>305</v>
+      </c>
+      <c r="G522">
+        <v>91</v>
+      </c>
+      <c r="H522">
+        <v>289</v>
+      </c>
+      <c r="I522">
+        <v>74</v>
+      </c>
+      <c r="J522">
         <v>0</v>
       </c>
     </row>
@@ -37033,10 +37676,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E546A375-0CBE-4881-9E54-2A2E05EDB135}">
-  <dimension ref="A1:B511"/>
+  <dimension ref="A1:B522"/>
   <sheetViews>
-    <sheetView topLeftCell="A489" workbookViewId="0">
-      <selection activeCell="B499" sqref="B499:B511"/>
+    <sheetView topLeftCell="A507" workbookViewId="0">
+      <selection activeCell="B511" sqref="B511:B522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38022,7 +38665,7 @@
       </c>
       <c r="B109">
         <f>Controlled!B109/'Fight Time'!B109</f>
-        <v>9.0297339593114243E-2</v>
+        <v>8.0246913580246909E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -38643,7 +39286,7 @@
       </c>
       <c r="B178">
         <f>Controlled!B178/'Fight Time'!B178</f>
-        <v>0.27941176470588236</v>
+        <v>0.35185185185185186</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -38751,7 +39394,7 @@
       </c>
       <c r="B190">
         <f>Controlled!B190/'Fight Time'!B190</f>
-        <v>0.36902927580893685</v>
+        <v>0.38691437802907919</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -38868,7 +39511,7 @@
       </c>
       <c r="B203">
         <f>Controlled!B203/'Fight Time'!B203</f>
-        <v>0.16624895572263995</v>
+        <v>0.18703007518796994</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -39235,9 +39878,9 @@
       <c r="A244" t="s">
         <v>240</v>
       </c>
-      <c r="B244" t="e">
+      <c r="B244">
         <f>Controlled!B244/'Fight Time'!B244</f>
-        <v>#DIV/0!</v>
+        <v>1.7567567567567569E-2</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -39408,7 +40051,7 @@
       </c>
       <c r="B263">
         <f>Controlled!B263/'Fight Time'!B263</f>
-        <v>0.18683705002923243</v>
+        <v>0.20184983677910773</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -39417,7 +40060,7 @@
       </c>
       <c r="B264">
         <f>Controlled!B264/'Fight Time'!B264</f>
-        <v>0.4606353591160221</v>
+        <v>0.43939393939393939</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -39678,7 +40321,7 @@
       </c>
       <c r="B293">
         <f>Controlled!B293/'Fight Time'!B293</f>
-        <v>0.3287733698130415</v>
+        <v>0.3480345158197507</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -39705,7 +40348,7 @@
       </c>
       <c r="B296">
         <f>Controlled!B296/'Fight Time'!B296</f>
-        <v>0.1077834179357022</v>
+        <v>0.10052631578947369</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -39993,7 +40636,7 @@
       </c>
       <c r="B328">
         <f>Controlled!B328/'Fight Time'!B328</f>
-        <v>0.06</v>
+        <v>8.7777777777777774E-2</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -40290,7 +40933,7 @@
       </c>
       <c r="B361">
         <f>Controlled!B361/'Fight Time'!B361</f>
-        <v>0.60024350649350644</v>
+        <v>0.46040515653775321</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -40524,7 +41167,7 @@
       </c>
       <c r="B387">
         <f>Controlled!B387/'Fight Time'!B387</f>
-        <v>0.16374269005847952</v>
+        <v>5.9405940594059403E-2</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -41091,7 +41734,7 @@
       </c>
       <c r="B450">
         <f>Controlled!B450/'Fight Time'!B450</f>
-        <v>0.13</v>
+        <v>0.63414634146341464</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -41641,6 +42284,105 @@
       <c r="B511">
         <f>Controlled!B511/'Fight Time'!B511</f>
         <v>9.1074681238615665E-4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B512">
+        <f>Controlled!B512/'Fight Time'!B512</f>
+        <v>0.46068702290076335</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>762</v>
+      </c>
+      <c r="B513">
+        <f>Controlled!B513/'Fight Time'!B513</f>
+        <v>0.41514598540145986</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>763</v>
+      </c>
+      <c r="B514">
+        <f>Controlled!B514/'Fight Time'!B514</f>
+        <v>0.17867564534231201</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>764</v>
+      </c>
+      <c r="B515">
+        <f>Controlled!B515/'Fight Time'!B515</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>765</v>
+      </c>
+      <c r="B516">
+        <f>Controlled!B516/'Fight Time'!B516</f>
+        <v>0.1665636588380717</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>766</v>
+      </c>
+      <c r="B517">
+        <f>Controlled!B517/'Fight Time'!B517</f>
+        <v>0.50628366247755829</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>767</v>
+      </c>
+      <c r="B518">
+        <f>Controlled!B518/'Fight Time'!B518</f>
+        <v>8.5661080074487903E-2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>768</v>
+      </c>
+      <c r="B519">
+        <f>Controlled!B519/'Fight Time'!B519</f>
+        <v>0.11397479954180985</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>769</v>
+      </c>
+      <c r="B520">
+        <f>Controlled!B520/'Fight Time'!B520</f>
+        <v>0.20125786163522014</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>770</v>
+      </c>
+      <c r="B521">
+        <f>Controlled!B521/'Fight Time'!B521</f>
+        <v>7.0716510903426802E-2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>771</v>
+      </c>
+      <c r="B522">
+        <f>Controlled!B522/'Fight Time'!B522</f>
+        <v>0.24311294765840222</v>
       </c>
     </row>
   </sheetData>
@@ -41650,10 +42392,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
-  <dimension ref="A1:C511"/>
+  <dimension ref="A1:C522"/>
   <sheetViews>
-    <sheetView topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="B403" sqref="B403"/>
+    <sheetView topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="B451" sqref="B451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42595,7 +43337,7 @@
         <v>102</v>
       </c>
       <c r="B109">
-        <v>710</v>
+        <v>729</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -43181,8 +43923,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <f>8*60+30</f>
-        <v>510</v>
+        <v>405</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -43284,7 +44025,7 @@
         <v>194</v>
       </c>
       <c r="B190">
-        <v>649</v>
+        <v>619</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -43395,7 +44136,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>513</v>
+        <v>456</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -43744,6 +44485,9 @@
       <c r="A244" t="s">
         <v>240</v>
       </c>
+      <c r="B244">
+        <v>370</v>
+      </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
@@ -43903,7 +44647,7 @@
         <v>493</v>
       </c>
       <c r="B263">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -43911,8 +44655,7 @@
         <v>494</v>
       </c>
       <c r="B264">
-        <f>12*60+4</f>
-        <v>724</v>
+        <v>759</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -44154,8 +44897,7 @@
         <v>530</v>
       </c>
       <c r="B293">
-        <f>12*60+11</f>
-        <v>731</v>
+        <v>745</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -44180,8 +44922,7 @@
         <v>533</v>
       </c>
       <c r="B296">
-        <f>9*60+51</f>
-        <v>591</v>
+        <v>570</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -44731,7 +45472,7 @@
         <v>605</v>
       </c>
       <c r="B361">
-        <v>308</v>
+        <v>362</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -44953,8 +45694,7 @@
         <v>632</v>
       </c>
       <c r="B387">
-        <f>8*60+33</f>
-        <v>513</v>
+        <v>707</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -45487,7 +46227,7 @@
         <v>699</v>
       </c>
       <c r="B450">
-        <v>500</v>
+        <v>123</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -45993,6 +46733,96 @@
       </c>
       <c r="B511">
         <v>122</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B512">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>762</v>
+      </c>
+      <c r="B513">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>763</v>
+      </c>
+      <c r="B514">
+        <f>14*60+51</f>
+        <v>891</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>764</v>
+      </c>
+      <c r="B515">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>765</v>
+      </c>
+      <c r="B516">
+        <f>13*60+29</f>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>766</v>
+      </c>
+      <c r="B517">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>767</v>
+      </c>
+      <c r="B518">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>768</v>
+      </c>
+      <c r="B519">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>769</v>
+      </c>
+      <c r="B520">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>770</v>
+      </c>
+      <c r="B521">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>771</v>
+      </c>
+      <c r="B522">
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -46004,10 +46834,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A427" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="AB405" sqref="AB405"/>
+      <selection pane="topRight" activeCell="A453" sqref="A453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53502,7 +54332,7 @@
         <v>Waldo Cortes Acosta</v>
       </c>
       <c r="B111">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C111">
         <v>193</v>
@@ -53514,13 +54344,13 @@
         <v>14</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111">
         <v>7</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <v>0.43</v>
@@ -53541,42 +54371,42 @@
         <v>1</v>
       </c>
       <c r="O111" s="8">
-        <v>5.98</v>
+        <v>5.61</v>
       </c>
       <c r="P111" s="8">
-        <v>3.53</v>
+        <v>3.51</v>
       </c>
       <c r="T111">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="U111">
         <v>0.5</v>
       </c>
       <c r="V111">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="W111">
         <f>Control!B109</f>
-        <v>88.777777777777771</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="X111">
         <f>'Ctrl pct'!B109</f>
-        <v>0.1250391236306729</v>
+        <v>0.10960219478737998</v>
       </c>
       <c r="Y111">
         <f>Controlled!B109</f>
-        <v>64.111111111111114</v>
+        <v>58.5</v>
       </c>
       <c r="Z111">
         <f>'Controlled pct'!B109</f>
-        <v>9.0297339593114243E-2</v>
+        <v>8.0246913580246909E-2</v>
       </c>
       <c r="AA111">
         <f>'Fight Time'!B109</f>
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="AB111">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.3">
@@ -57587,6 +58417,15 @@
         <f>Control!A172</f>
         <v>Talita Alencar</v>
       </c>
+      <c r="B174">
+        <v>35</v>
+      </c>
+      <c r="C174">
+        <v>155</v>
+      </c>
+      <c r="D174">
+        <v>149</v>
+      </c>
       <c r="E174">
         <v>6</v>
       </c>
@@ -57599,13 +58438,46 @@
       <c r="H174">
         <v>1</v>
       </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0.5</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0.5</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" s="8">
+        <v>2.62</v>
+      </c>
+      <c r="P174" s="8">
+        <v>3.77</v>
+      </c>
+      <c r="T174">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="U174">
+        <v>0.2</v>
+      </c>
+      <c r="V174">
+        <v>0.5</v>
+      </c>
       <c r="W174">
         <f>Control!B172</f>
-        <v>337</v>
+        <v>421.2</v>
       </c>
       <c r="X174">
         <f>'Ctrl pct'!B172</f>
-        <v>0.37444444444444447</v>
+        <v>0.46799999999999997</v>
       </c>
       <c r="Y174">
         <f>Controlled!B172</f>
@@ -57618,6 +58490,9 @@
       <c r="AA174">
         <f>'Fight Time'!B172</f>
         <v>900</v>
+      </c>
+      <c r="AB174">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.3">
@@ -57914,6 +58789,15 @@
         <f>Control!A178</f>
         <v>Daniel Frunza</v>
       </c>
+      <c r="B180">
+        <v>31</v>
+      </c>
+      <c r="C180">
+        <v>185</v>
+      </c>
+      <c r="D180">
+        <v>185</v>
+      </c>
       <c r="E180">
         <v>9</v>
       </c>
@@ -57926,13 +58810,46 @@
       <c r="H180">
         <v>1</v>
       </c>
+      <c r="I180">
+        <v>0.89</v>
+      </c>
+      <c r="J180">
+        <v>0.33</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0.67</v>
+      </c>
+      <c r="M180">
+        <v>0.11</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="P180" s="8">
+        <v>6.67</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <v>0.6</v>
+      </c>
       <c r="W180">
         <f>Control!B178</f>
-        <v>73.333333333333329</v>
+        <v>12.5</v>
       </c>
       <c r="X180">
         <f>'Ctrl pct'!B178</f>
-        <v>0.1437908496732026</v>
+        <v>3.0864197530864196E-2</v>
       </c>
       <c r="Y180">
         <f>Controlled!B178</f>
@@ -57940,11 +58857,14 @@
       </c>
       <c r="Z180">
         <f>'Controlled pct'!B178</f>
-        <v>0.27941176470588236</v>
+        <v>0.35185185185185186</v>
       </c>
       <c r="AA180">
         <f>'Fight Time'!B178</f>
-        <v>510</v>
+        <v>405</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.3">
@@ -58688,6 +59608,15 @@
         <f>Control!A190</f>
         <v>Lee ChangHo</v>
       </c>
+      <c r="B192">
+        <v>31</v>
+      </c>
+      <c r="C192">
+        <v>173</v>
+      </c>
+      <c r="D192">
+        <v>175</v>
+      </c>
       <c r="E192">
         <v>11</v>
       </c>
@@ -58699,6 +59628,39 @@
       </c>
       <c r="H192">
         <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0.45</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0.18</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>0.36</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192" s="8">
+        <v>4.92</v>
+      </c>
+      <c r="P192" s="8">
+        <v>2.35</v>
+      </c>
+      <c r="T192">
+        <v>3.27</v>
+      </c>
+      <c r="U192">
+        <v>0.33</v>
+      </c>
+      <c r="V192">
+        <v>0.37</v>
       </c>
       <c r="W192">
         <f>Control!B190</f>
@@ -58706,7 +59668,7 @@
       </c>
       <c r="X192">
         <f>'Ctrl pct'!B190</f>
-        <v>0.35208012326656396</v>
+        <v>0.36914378029079159</v>
       </c>
       <c r="Y192">
         <f>Controlled!B190</f>
@@ -58714,11 +59676,14 @@
       </c>
       <c r="Z192">
         <f>'Controlled pct'!B190</f>
-        <v>0.36902927580893685</v>
+        <v>0.38691437802907919</v>
       </c>
       <c r="AA192">
         <f>'Fight Time'!B190</f>
-        <v>649</v>
+        <v>619</v>
+      </c>
+      <c r="AB192">
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.3">
@@ -59557,7 +60522,7 @@
       </c>
       <c r="X205">
         <f>'Ctrl pct'!B203</f>
-        <v>0.26148705096073516</v>
+        <v>0.29417293233082709</v>
       </c>
       <c r="Y205">
         <f>Controlled!B203</f>
@@ -59565,11 +60530,11 @@
       </c>
       <c r="Z205">
         <f>'Controlled pct'!B203</f>
-        <v>0.16624895572263995</v>
+        <v>0.18703007518796994</v>
       </c>
       <c r="AA205">
         <f>'Fight Time'!B203</f>
-        <v>513</v>
+        <v>456</v>
       </c>
       <c r="AB205">
         <v>-1</v>
@@ -61829,6 +62794,15 @@
         <f>Control!A244</f>
         <v>Charles Radtke</v>
       </c>
+      <c r="B246">
+        <v>35</v>
+      </c>
+      <c r="C246">
+        <v>175</v>
+      </c>
+      <c r="D246">
+        <v>183</v>
+      </c>
       <c r="E246">
         <v>10</v>
       </c>
@@ -61841,25 +62815,61 @@
       <c r="H246">
         <v>2</v>
       </c>
+      <c r="I246">
+        <v>0.5</v>
+      </c>
+      <c r="J246">
+        <v>0.6</v>
+      </c>
+      <c r="K246">
+        <v>0.2</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>0.3</v>
+      </c>
+      <c r="N246">
+        <v>0.4</v>
+      </c>
+      <c r="O246" s="8">
+        <v>3.11</v>
+      </c>
+      <c r="P246" s="8">
+        <v>3.66</v>
+      </c>
+      <c r="T246">
+        <v>0.49</v>
+      </c>
+      <c r="U246">
+        <v>0.12</v>
+      </c>
+      <c r="V246">
+        <v>1</v>
+      </c>
       <c r="W246">
         <f>Control!B244</f>
-        <v>147.25</v>
-      </c>
-      <c r="X246" t="e">
+        <v>117.8</v>
+      </c>
+      <c r="X246">
         <f>'Ctrl pct'!B244</f>
-        <v>#DIV/0!</v>
+        <v>0.31837837837837835</v>
       </c>
       <c r="Y246">
         <f>Controlled!B244</f>
         <v>6.5</v>
       </c>
-      <c r="Z246" t="e">
+      <c r="Z246">
         <f>'Controlled pct'!B244</f>
-        <v>#DIV/0!</v>
+        <v>1.7567567567567569E-2</v>
       </c>
       <c r="AA246">
         <f>'Fight Time'!B244</f>
-        <v>0</v>
+        <v>370</v>
+      </c>
+      <c r="AB246">
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.3">
@@ -62352,28 +63362,28 @@
         <v>2</v>
       </c>
       <c r="I258">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="J258">
         <v>0</v>
       </c>
       <c r="K258">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="L258">
         <v>0.28000000000000003</v>
       </c>
       <c r="M258">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="N258">
         <v>0.71</v>
       </c>
       <c r="O258" s="8">
-        <v>4.97</v>
+        <v>6.73</v>
       </c>
       <c r="P258" s="8">
-        <v>4.97</v>
+        <v>5.04</v>
       </c>
       <c r="Q258">
         <v>0.68</v>
@@ -62388,10 +63398,10 @@
         <v>1</v>
       </c>
       <c r="U258">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="V258">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="W258">
         <f>Control!B256</f>
@@ -62966,7 +63976,7 @@
         <v>Ketlen Vieira</v>
       </c>
       <c r="B265">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C265">
         <v>173</v>
@@ -62987,28 +63997,28 @@
         <v>4</v>
       </c>
       <c r="I265">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="J265">
         <v>0.25</v>
       </c>
       <c r="K265">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="L265">
         <v>0</v>
       </c>
       <c r="M265">
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="N265">
         <v>0.75</v>
       </c>
       <c r="O265" s="8">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="P265" s="8">
-        <v>3.9</v>
+        <v>3.72</v>
       </c>
       <c r="Q265">
         <v>0.77</v>
@@ -63020,33 +64030,33 @@
         <v>0.09</v>
       </c>
       <c r="T265">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="U265">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="V265">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="W265">
         <f>Control!B263</f>
-        <v>293.46153846153845</v>
+        <v>290</v>
       </c>
       <c r="X265">
         <f>'Ctrl pct'!B263</f>
-        <v>0.31863359224922744</v>
+        <v>0.31556039173014144</v>
       </c>
       <c r="Y265">
         <f>Controlled!B263</f>
-        <v>172.07692307692307</v>
+        <v>185.5</v>
       </c>
       <c r="Z265">
         <f>'Controlled pct'!B263</f>
-        <v>0.18683705002923243</v>
+        <v>0.20184983677910773</v>
       </c>
       <c r="AA265">
         <f>'Fight Time'!B263</f>
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="AB265">
         <v>1</v>
@@ -63058,7 +64068,7 @@
         <v>Allan Nascimento</v>
       </c>
       <c r="B266">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C266">
         <v>173</v>
@@ -63085,22 +64095,22 @@
         <v>0</v>
       </c>
       <c r="K266">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="L266">
         <v>0</v>
       </c>
       <c r="M266">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="N266">
         <v>1</v>
       </c>
       <c r="O266" s="8">
-        <v>3.21</v>
+        <v>2.64</v>
       </c>
       <c r="P266" s="8">
-        <v>2.2799999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="Q266">
         <v>0.65</v>
@@ -63112,13 +64122,13 @@
         <v>0.21</v>
       </c>
       <c r="T266">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="U266">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="V266">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="W266">
         <f>Control!B264</f>
@@ -63126,7 +64136,7 @@
       </c>
       <c r="X266">
         <f>'Ctrl pct'!B264</f>
-        <v>0.39675414364640882</v>
+        <v>0.3784584980237154</v>
       </c>
       <c r="Y266">
         <f>Controlled!B264</f>
@@ -63134,11 +64144,11 @@
       </c>
       <c r="Z266">
         <f>'Controlled pct'!B264</f>
-        <v>0.4606353591160221</v>
+        <v>0.43939393939393939</v>
       </c>
       <c r="AA266">
         <f>'Fight Time'!B264</f>
-        <v>724</v>
+        <v>759</v>
       </c>
       <c r="AB266">
         <v>3</v>
@@ -65564,7 +66574,7 @@
         <v>Phil Rowe</v>
       </c>
       <c r="B295">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C295">
         <v>190</v>
@@ -65585,13 +66595,13 @@
         <v>3</v>
       </c>
       <c r="I295">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="J295">
         <v>0.2</v>
       </c>
       <c r="K295">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="L295">
         <v>0</v>
@@ -65603,10 +66613,10 @@
         <v>0.8</v>
       </c>
       <c r="O295" s="8">
-        <v>3.65</v>
+        <v>3.99</v>
       </c>
       <c r="P295" s="8">
-        <v>4.34</v>
+        <v>4.38</v>
       </c>
       <c r="Q295">
         <v>0.72</v>
@@ -65618,7 +66628,7 @@
         <v>0.13</v>
       </c>
       <c r="T295">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="U295">
         <v>0.36</v>
@@ -65628,26 +66638,26 @@
       </c>
       <c r="W295">
         <f>Control!B293</f>
-        <v>138.83333333333334</v>
+        <v>120.42857142857143</v>
       </c>
       <c r="X295">
         <f>'Ctrl pct'!B293</f>
-        <v>0.18992248062015504</v>
+        <v>0.1616490891658677</v>
       </c>
       <c r="Y295">
         <f>Controlled!B293</f>
-        <v>240.33333333333334</v>
+        <v>259.28571428571428</v>
       </c>
       <c r="Z295">
         <f>'Controlled pct'!B293</f>
-        <v>0.3287733698130415</v>
+        <v>0.3480345158197507</v>
       </c>
       <c r="AA295">
         <f>'Fight Time'!B293</f>
-        <v>731</v>
+        <v>745</v>
       </c>
       <c r="AB295">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:28" x14ac:dyDescent="0.3">
@@ -65858,25 +66868,25 @@
         <v>0.35</v>
       </c>
       <c r="J298">
-        <v>0.14000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="K298">
         <v>0.35</v>
       </c>
       <c r="L298">
-        <v>0.56000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="M298">
         <v>0.28000000000000003</v>
       </c>
       <c r="N298">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="O298" s="8">
-        <v>3.52</v>
+        <v>3.44</v>
       </c>
       <c r="P298" s="8">
-        <v>4.29</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="Q298">
         <v>0.73</v>
@@ -65888,7 +66898,7 @@
         <v>0.13</v>
       </c>
       <c r="T298">
-        <v>4.0599999999999996</v>
+        <v>4.13</v>
       </c>
       <c r="U298">
         <v>0.47</v>
@@ -65898,26 +66908,26 @@
       </c>
       <c r="W298">
         <f>Control!B296</f>
-        <v>253</v>
+        <v>229.3</v>
       </c>
       <c r="X298">
         <f>'Ctrl pct'!B296</f>
-        <v>0.42808798646362101</v>
+        <v>0.40228070175438596</v>
       </c>
       <c r="Y298">
         <f>Controlled!B296</f>
-        <v>63.7</v>
+        <v>57.3</v>
       </c>
       <c r="Z298">
         <f>'Controlled pct'!B296</f>
-        <v>0.1077834179357022</v>
+        <v>0.10052631578947369</v>
       </c>
       <c r="AA298">
         <f>'Fight Time'!B296</f>
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="AB298">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="299" spans="1:28" x14ac:dyDescent="0.3">
@@ -68769,7 +69779,7 @@
         <v>Seokhyeon Ko</v>
       </c>
       <c r="B330">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C330">
         <v>178</v>
@@ -68778,19 +69788,19 @@
         <v>180</v>
       </c>
       <c r="E330">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F330">
         <v>2</v>
       </c>
       <c r="G330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H330">
         <v>0</v>
       </c>
       <c r="I330">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="J330">
         <v>1</v>
@@ -68802,16 +69812,16 @@
         <v>0</v>
       </c>
       <c r="M330">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="N330">
         <v>0</v>
       </c>
       <c r="O330" s="8">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P330" s="8">
-        <v>3.33</v>
+        <v>2</v>
       </c>
       <c r="Q330">
         <v>0.83</v>
@@ -68823,36 +69833,36 @@
         <v>0.06</v>
       </c>
       <c r="T330">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U330">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
       <c r="V330">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="W330">
         <f>Control!B328</f>
-        <v>366</v>
+        <v>490.5</v>
       </c>
       <c r="X330">
         <f>'Ctrl pct'!B328</f>
-        <v>0.40666666666666668</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="Y330">
         <f>Controlled!B328</f>
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="Z330">
         <f>'Controlled pct'!B328</f>
-        <v>0.06</v>
+        <v>8.7777777777777774E-2</v>
       </c>
       <c r="AA330">
         <f>'Fight Time'!B328</f>
         <v>900</v>
       </c>
       <c r="AB330">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:28" x14ac:dyDescent="0.3">
@@ -71630,22 +72640,22 @@
         <v>183</v>
       </c>
       <c r="D363">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E363">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F363">
         <v>5</v>
       </c>
       <c r="G363">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H363">
         <v>2</v>
       </c>
       <c r="I363">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="J363">
         <v>0.2</v>
@@ -71657,16 +72667,16 @@
         <v>0.2</v>
       </c>
       <c r="M363">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="N363">
         <v>0.6</v>
       </c>
       <c r="O363" s="8">
-        <v>5.04</v>
+        <v>5.18</v>
       </c>
       <c r="P363" s="8">
-        <v>2.34</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q363">
         <v>0.77</v>
@@ -71678,7 +72688,7 @@
         <v>0.08</v>
       </c>
       <c r="T363">
-        <v>1.17</v>
+        <v>0.9</v>
       </c>
       <c r="U363">
         <v>0.4</v>
@@ -71688,26 +72698,26 @@
       </c>
       <c r="W363">
         <f>Control!B361</f>
-        <v>76.875</v>
+        <v>68.666666666666671</v>
       </c>
       <c r="X363">
         <f>'Ctrl pct'!B361</f>
-        <v>0.24959415584415584</v>
+        <v>0.18968692449355434</v>
       </c>
       <c r="Y363">
         <f>Controlled!B361</f>
-        <v>184.875</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="Z363">
         <f>'Controlled pct'!B361</f>
-        <v>0.60024350649350644</v>
+        <v>0.46040515653775321</v>
       </c>
       <c r="AA363">
         <f>'Fight Time'!B361</f>
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="AB363">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="364" spans="1:28" x14ac:dyDescent="0.3">
@@ -73821,37 +74831,37 @@
         <v>30</v>
       </c>
       <c r="C389">
-        <v>188</v>
+        <v>1.91</v>
       </c>
       <c r="D389">
         <v>196</v>
       </c>
       <c r="E389">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F389">
         <v>2</v>
       </c>
       <c r="G389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H389">
         <v>1</v>
       </c>
       <c r="I389">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="J389">
         <v>0</v>
       </c>
       <c r="K389">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="L389">
         <v>0.5</v>
       </c>
       <c r="M389">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="N389">
         <v>0.5</v>
@@ -73860,39 +74870,39 @@
         <v>2.34</v>
       </c>
       <c r="P389" s="8">
-        <v>5.5</v>
+        <v>3.18</v>
       </c>
       <c r="T389">
-        <v>1.75</v>
+        <v>0.64</v>
       </c>
       <c r="U389">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="V389">
         <v>0</v>
       </c>
       <c r="W389">
         <f>Control!B387</f>
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="X389">
         <f>'Ctrl pct'!B387</f>
-        <v>0.42884990253411304</v>
+        <v>0.15558698727015557</v>
       </c>
       <c r="Y389">
         <f>Controlled!B387</f>
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="Z389">
         <f>'Controlled pct'!B387</f>
-        <v>0.16374269005847952</v>
+        <v>5.9405940594059403E-2</v>
       </c>
       <c r="AA389">
         <f>'Fight Time'!B387</f>
-        <v>513</v>
+        <v>707</v>
       </c>
       <c r="AB389">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:28" x14ac:dyDescent="0.3">
@@ -79050,78 +80060,78 @@
         <v>35</v>
       </c>
       <c r="C452">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D452">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E452">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F452">
         <v>6</v>
       </c>
       <c r="G452">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H452">
         <v>0</v>
       </c>
       <c r="I452">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="J452">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="K452">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="L452">
         <v>0.33</v>
       </c>
       <c r="M452">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="N452">
         <v>0.17</v>
       </c>
       <c r="O452" s="8">
-        <v>4</v>
+        <v>6.34</v>
       </c>
       <c r="P452" s="8">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="T452">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U452">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V452">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="W452">
         <f>Control!B450</f>
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="X452">
         <f>'Ctrl pct'!B450</f>
-        <v>0.24</v>
+        <v>6.5040650406504072E-2</v>
       </c>
       <c r="Y452">
         <f>Controlled!B450</f>
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="Z452">
         <f>'Controlled pct'!B450</f>
-        <v>0.13</v>
+        <v>0.63414634146341464</v>
       </c>
       <c r="AA452">
         <f>'Fight Time'!B450</f>
-        <v>500</v>
+        <v>123</v>
       </c>
       <c r="AB452">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:28" x14ac:dyDescent="0.3">
@@ -84191,79 +85201,320 @@
       </c>
     </row>
     <row r="514" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A514" t="str">
+        <f>Control!A512</f>
+        <v>Ariane Carnelossi</v>
+      </c>
+      <c r="B514">
+        <v>32</v>
+      </c>
+      <c r="C514">
+        <v>158</v>
+      </c>
+      <c r="D514">
+        <v>156</v>
+      </c>
+      <c r="E514">
+        <v>15</v>
+      </c>
+      <c r="F514">
+        <v>3</v>
+      </c>
+      <c r="G514">
+        <v>3</v>
+      </c>
+      <c r="H514">
+        <v>2</v>
+      </c>
+      <c r="I514">
+        <v>0.6</v>
+      </c>
+      <c r="J514">
+        <v>0.33</v>
+      </c>
+      <c r="K514">
+        <v>0.13</v>
+      </c>
+      <c r="L514">
+        <v>0.33</v>
+      </c>
+      <c r="M514">
+        <v>0.2</v>
+      </c>
+      <c r="N514">
+        <v>0.33</v>
+      </c>
+      <c r="O514" s="8">
+        <v>2.87</v>
+      </c>
+      <c r="P514" s="8">
+        <v>4.74</v>
+      </c>
+      <c r="T514">
+        <v>1.37</v>
+      </c>
+      <c r="U514">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V514">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="W514">
         <f>Control!B512</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="X514">
         <f>'Ctrl pct'!B512</f>
-        <v>0</v>
+        <v>0.22137404580152673</v>
       </c>
       <c r="Y514">
         <f>Controlled!B512</f>
-        <v>0</v>
+        <v>301.75</v>
       </c>
       <c r="Z514">
         <f>'Controlled pct'!B512</f>
-        <v>0</v>
+        <v>0.46068702290076335</v>
       </c>
       <c r="AA514">
         <f>'Fight Time'!B512</f>
-        <v>0</v>
+        <v>655</v>
+      </c>
+      <c r="AB514">
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A515" t="str">
+        <f>Control!A513</f>
+        <v>Montserrat Conejo Ruiz</v>
+      </c>
+      <c r="B515">
+        <v>32</v>
+      </c>
+      <c r="C515">
+        <v>152</v>
+      </c>
+      <c r="D515">
+        <v>155</v>
+      </c>
+      <c r="E515">
+        <v>10</v>
+      </c>
+      <c r="F515">
+        <v>4</v>
+      </c>
+      <c r="G515">
+        <v>1</v>
+      </c>
+      <c r="H515">
+        <v>3</v>
+      </c>
+      <c r="I515">
+        <v>0.2</v>
+      </c>
+      <c r="J515">
+        <v>0.75</v>
+      </c>
+      <c r="K515">
+        <v>0.3</v>
+      </c>
+      <c r="L515">
+        <v>0</v>
+      </c>
+      <c r="M515">
+        <v>0.5</v>
+      </c>
+      <c r="N515">
+        <v>0.25</v>
+      </c>
+      <c r="O515" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="P515" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="T515">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="U515">
+        <v>0.83</v>
+      </c>
+      <c r="V515">
+        <v>0.33</v>
+      </c>
       <c r="W515">
         <f>Control!B513</f>
-        <v>0</v>
+        <v>203.5</v>
       </c>
       <c r="X515">
         <f>'Ctrl pct'!B513</f>
-        <v>0</v>
+        <v>0.37135036496350365</v>
       </c>
       <c r="Y515">
         <f>Controlled!B513</f>
-        <v>0</v>
+        <v>227.5</v>
       </c>
       <c r="Z515">
         <f>'Controlled pct'!B513</f>
-        <v>0</v>
+        <v>0.41514598540145986</v>
       </c>
       <c r="AA515">
         <f>'Fight Time'!B513</f>
-        <v>0</v>
+        <v>548</v>
+      </c>
+      <c r="AB515">
+        <v>-3</v>
       </c>
     </row>
     <row r="516" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A516" t="str">
+        <f>Control!A514</f>
+        <v>Norma Dumont</v>
+      </c>
+      <c r="B516">
+        <v>35</v>
+      </c>
+      <c r="C516">
+        <v>169</v>
+      </c>
+      <c r="D516">
+        <v>170</v>
+      </c>
+      <c r="E516">
+        <v>12</v>
+      </c>
+      <c r="F516">
+        <v>2</v>
+      </c>
+      <c r="G516">
+        <v>8</v>
+      </c>
+      <c r="H516">
+        <v>2</v>
+      </c>
+      <c r="I516">
+        <v>0</v>
+      </c>
+      <c r="J516">
+        <v>0.5</v>
+      </c>
+      <c r="K516">
+        <v>0.17</v>
+      </c>
+      <c r="L516">
+        <v>0</v>
+      </c>
+      <c r="M516">
+        <v>0.83</v>
+      </c>
+      <c r="N516">
+        <v>0.5</v>
+      </c>
+      <c r="O516" s="8">
+        <v>3.86</v>
+      </c>
+      <c r="P516" s="8">
+        <v>2.16</v>
+      </c>
+      <c r="T516">
+        <v>1.72</v>
+      </c>
+      <c r="U516">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V516">
+        <v>0.72</v>
+      </c>
       <c r="W516">
         <f>Control!B514</f>
-        <v>0</v>
+        <v>243.7</v>
       </c>
       <c r="X516">
         <f>'Ctrl pct'!B514</f>
-        <v>0</v>
+        <v>0.27351290684624019</v>
       </c>
       <c r="Y516">
         <f>Controlled!B514</f>
-        <v>0</v>
+        <v>159.19999999999999</v>
       </c>
       <c r="Z516">
         <f>'Controlled pct'!B514</f>
-        <v>0</v>
+        <v>0.17867564534231201</v>
       </c>
       <c r="AA516">
         <f>'Fight Time'!B514</f>
-        <v>0</v>
+        <v>891</v>
+      </c>
+      <c r="AB516">
+        <v>5</v>
       </c>
     </row>
     <row r="517" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A517" t="str">
+        <f>Control!A515</f>
+        <v>Donte Johnson</v>
+      </c>
+      <c r="B517">
+        <v>26</v>
+      </c>
+      <c r="C517">
+        <v>173</v>
+      </c>
+      <c r="D517">
+        <v>188</v>
+      </c>
+      <c r="E517">
+        <v>6</v>
+      </c>
+      <c r="F517">
+        <v>0</v>
+      </c>
+      <c r="G517">
+        <v>0</v>
+      </c>
+      <c r="H517">
+        <v>0</v>
+      </c>
+      <c r="I517">
+        <v>1</v>
+      </c>
+      <c r="J517">
+        <v>0</v>
+      </c>
+      <c r="K517">
+        <v>0</v>
+      </c>
+      <c r="L517">
+        <v>0</v>
+      </c>
+      <c r="M517">
+        <v>0</v>
+      </c>
+      <c r="N517">
+        <v>0</v>
+      </c>
+      <c r="O517" s="8">
+        <v>14.06</v>
+      </c>
+      <c r="P517" s="8">
+        <v>8.44</v>
+      </c>
+      <c r="T517">
+        <v>0</v>
+      </c>
+      <c r="U517">
+        <v>0</v>
+      </c>
+      <c r="V517">
+        <v>0</v>
+      </c>
       <c r="W517">
         <f>Control!B515</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X517">
         <f>'Ctrl pct'!B515</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="Y517">
         <f>Controlled!B515</f>
@@ -84275,164 +85526,597 @@
       </c>
       <c r="AA517">
         <f>'Fight Time'!B515</f>
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="AB517">
+        <v>6</v>
       </c>
     </row>
     <row r="518" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A518" t="str">
+        <f>Control!A516</f>
+        <v>Timmy Cuamba</v>
+      </c>
+      <c r="B518">
+        <v>26</v>
+      </c>
+      <c r="C518">
+        <v>175</v>
+      </c>
+      <c r="D518">
+        <v>180</v>
+      </c>
+      <c r="E518">
+        <v>9</v>
+      </c>
+      <c r="F518">
+        <v>3</v>
+      </c>
+      <c r="G518">
+        <v>1</v>
+      </c>
+      <c r="H518">
+        <v>2</v>
+      </c>
+      <c r="I518">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J518">
+        <v>0</v>
+      </c>
+      <c r="K518">
+        <v>0</v>
+      </c>
+      <c r="L518">
+        <v>0.33</v>
+      </c>
+      <c r="M518">
+        <v>0.44</v>
+      </c>
+      <c r="N518">
+        <v>0.67</v>
+      </c>
+      <c r="O518" s="8">
+        <v>3.12</v>
+      </c>
+      <c r="P518" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="T518">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="U518">
+        <v>0.26</v>
+      </c>
+      <c r="V518">
+        <v>0.8</v>
+      </c>
       <c r="W518">
         <f>Control!B516</f>
-        <v>0</v>
+        <v>67.75</v>
       </c>
       <c r="X518">
         <f>'Ctrl pct'!B516</f>
-        <v>0</v>
+        <v>8.3745364647713233E-2</v>
       </c>
       <c r="Y518">
         <f>Controlled!B516</f>
-        <v>0</v>
+        <v>134.75</v>
       </c>
       <c r="Z518">
         <f>'Controlled pct'!B516</f>
-        <v>0</v>
+        <v>0.1665636588380717</v>
       </c>
       <c r="AA518">
         <f>'Fight Time'!B516</f>
-        <v>0</v>
+        <v>809</v>
+      </c>
+      <c r="AB518">
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A519" t="str">
+        <f>Control!A517</f>
+        <v>Kevin Christian</v>
+      </c>
+      <c r="B519">
+        <v>30</v>
+      </c>
+      <c r="C519">
+        <v>201</v>
+      </c>
+      <c r="D519">
+        <v>203</v>
+      </c>
+      <c r="E519">
+        <v>9</v>
+      </c>
+      <c r="F519">
+        <v>2</v>
+      </c>
+      <c r="G519">
+        <v>0</v>
+      </c>
+      <c r="H519">
+        <v>0</v>
+      </c>
+      <c r="I519">
+        <v>0.38</v>
+      </c>
+      <c r="J519">
+        <v>0.5</v>
+      </c>
+      <c r="K519">
+        <v>0.62</v>
+      </c>
+      <c r="L519">
+        <v>0.5</v>
+      </c>
+      <c r="M519">
+        <v>0</v>
+      </c>
+      <c r="N519">
+        <v>0</v>
+      </c>
+      <c r="O519" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="P519" s="8">
+        <v>1.83</v>
+      </c>
+      <c r="T519">
+        <v>0</v>
+      </c>
+      <c r="U519">
+        <v>0</v>
+      </c>
+      <c r="V519">
+        <v>0.5</v>
+      </c>
       <c r="W519">
         <f>Control!B517</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="X519">
         <f>'Ctrl pct'!B517</f>
-        <v>0</v>
+        <v>4.8473967684021541E-2</v>
       </c>
       <c r="Y519">
         <f>Controlled!B517</f>
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="Z519">
         <f>'Controlled pct'!B517</f>
-        <v>0</v>
+        <v>0.50628366247755829</v>
       </c>
       <c r="AA519">
         <f>'Fight Time'!B517</f>
-        <v>0</v>
+        <v>557</v>
+      </c>
+      <c r="AB519">
+        <v>5</v>
       </c>
     </row>
     <row r="520" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A520" t="str">
+        <f>Control!A518</f>
+        <v>Yadier del Valle</v>
+      </c>
+      <c r="B520">
+        <v>29</v>
+      </c>
+      <c r="C520">
+        <v>175</v>
+      </c>
+      <c r="D520">
+        <v>175</v>
+      </c>
+      <c r="E520">
+        <v>9</v>
+      </c>
+      <c r="F520">
+        <v>0</v>
+      </c>
+      <c r="G520">
+        <v>1</v>
+      </c>
+      <c r="H520">
+        <v>0</v>
+      </c>
+      <c r="I520">
+        <v>0.22</v>
+      </c>
+      <c r="J520">
+        <v>0</v>
+      </c>
+      <c r="K520">
+        <v>0.33</v>
+      </c>
+      <c r="L520">
+        <v>0</v>
+      </c>
+      <c r="M520">
+        <v>0.44</v>
+      </c>
+      <c r="N520">
+        <v>0</v>
+      </c>
+      <c r="O520" s="8">
+        <v>7.49</v>
+      </c>
+      <c r="P520" s="8">
+        <v>3.46</v>
+      </c>
+      <c r="T520">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="U520">
+        <v>0.42</v>
+      </c>
+      <c r="V520">
+        <v>0.66</v>
+      </c>
       <c r="W520">
         <f>Control!B518</f>
-        <v>0</v>
+        <v>213.5</v>
       </c>
       <c r="X520">
         <f>'Ctrl pct'!B518</f>
-        <v>0</v>
+        <v>0.39757914338919925</v>
       </c>
       <c r="Y520">
         <f>Controlled!B518</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Z520">
         <f>'Controlled pct'!B518</f>
-        <v>0</v>
+        <v>8.5661080074487903E-2</v>
       </c>
       <c r="AA520">
         <f>'Fight Time'!B518</f>
-        <v>0</v>
+        <v>537</v>
+      </c>
+      <c r="AB520">
+        <v>9</v>
       </c>
     </row>
     <row r="521" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A521" t="str">
+        <f>Control!A519</f>
+        <v>Isaac Dulgarian</v>
+      </c>
+      <c r="B521">
+        <v>29</v>
+      </c>
+      <c r="C521">
+        <v>170</v>
+      </c>
+      <c r="D521">
+        <v>180</v>
+      </c>
+      <c r="E521">
+        <v>7</v>
+      </c>
+      <c r="F521">
+        <v>1</v>
+      </c>
+      <c r="G521">
+        <v>2</v>
+      </c>
+      <c r="H521">
+        <v>1</v>
+      </c>
+      <c r="I521">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J521">
+        <v>0</v>
+      </c>
+      <c r="K521">
+        <v>0.43</v>
+      </c>
+      <c r="L521">
+        <v>0</v>
+      </c>
+      <c r="M521">
+        <v>0</v>
+      </c>
+      <c r="N521">
+        <v>1</v>
+      </c>
+      <c r="O521" s="8">
+        <v>3.37</v>
+      </c>
+      <c r="P521" s="8">
+        <v>1.82</v>
+      </c>
+      <c r="T521">
+        <v>5.15</v>
+      </c>
+      <c r="U521">
+        <v>0.52</v>
+      </c>
+      <c r="V521">
+        <v>0</v>
+      </c>
       <c r="W521">
         <f>Control!B519</f>
-        <v>0</v>
+        <v>457.33333333333331</v>
       </c>
       <c r="X521">
         <f>'Ctrl pct'!B519</f>
-        <v>0</v>
+        <v>0.78579610538373423</v>
       </c>
       <c r="Y521">
         <f>Controlled!B519</f>
-        <v>0</v>
+        <v>66.333333333333329</v>
       </c>
       <c r="Z521">
         <f>'Controlled pct'!B519</f>
-        <v>0</v>
+        <v>0.11397479954180985</v>
       </c>
       <c r="AA521">
         <f>'Fight Time'!B519</f>
-        <v>0</v>
+        <v>582</v>
+      </c>
+      <c r="AB521">
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A522" t="str">
+        <f>Control!A520</f>
+        <v>Themba Gorimbo</v>
+      </c>
+      <c r="B522">
+        <v>34</v>
+      </c>
+      <c r="C522">
+        <v>185</v>
+      </c>
+      <c r="D522">
+        <v>196</v>
+      </c>
+      <c r="E522">
+        <v>14</v>
+      </c>
+      <c r="F522">
+        <v>5</v>
+      </c>
+      <c r="G522">
+        <v>4</v>
+      </c>
+      <c r="H522">
+        <v>2</v>
+      </c>
+      <c r="I522">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J522">
+        <v>0.2</v>
+      </c>
+      <c r="K522">
+        <v>0.43</v>
+      </c>
+      <c r="L522">
+        <v>0.6</v>
+      </c>
+      <c r="M522">
+        <v>0.43</v>
+      </c>
+      <c r="N522">
+        <v>0.2</v>
+      </c>
+      <c r="O522" s="8">
+        <v>3.15</v>
+      </c>
+      <c r="P522" s="8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="T522">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="U522">
+        <v>0.65</v>
+      </c>
+      <c r="V522">
+        <v>0.82</v>
+      </c>
       <c r="W522">
         <f>Control!B520</f>
-        <v>0</v>
+        <v>327.83333333333331</v>
       </c>
       <c r="X522">
         <f>'Ctrl pct'!B520</f>
-        <v>0</v>
+        <v>0.61855345911949677</v>
       </c>
       <c r="Y522">
         <f>Controlled!B520</f>
-        <v>0</v>
+        <v>106.66666666666667</v>
       </c>
       <c r="Z522">
         <f>'Controlled pct'!B520</f>
-        <v>0</v>
+        <v>0.20125786163522014</v>
       </c>
       <c r="AA522">
         <f>'Fight Time'!B520</f>
-        <v>0</v>
+        <v>530</v>
+      </c>
+      <c r="AB522">
+        <v>-1</v>
       </c>
     </row>
     <row r="523" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A523" t="str">
+        <f>Control!A521</f>
+        <v>Jeremiah Wells</v>
+      </c>
+      <c r="B523">
+        <v>39</v>
+      </c>
+      <c r="C523">
+        <v>175</v>
+      </c>
+      <c r="D523">
+        <v>188</v>
+      </c>
+      <c r="E523">
+        <v>12</v>
+      </c>
+      <c r="F523">
+        <v>4</v>
+      </c>
+      <c r="G523">
+        <v>4</v>
+      </c>
+      <c r="H523">
+        <v>2</v>
+      </c>
+      <c r="I523">
+        <v>0.42</v>
+      </c>
+      <c r="J523">
+        <v>0</v>
+      </c>
+      <c r="K523">
+        <v>0.33</v>
+      </c>
+      <c r="L523">
+        <v>0.25</v>
+      </c>
+      <c r="M523">
+        <v>0.25</v>
+      </c>
+      <c r="N523">
+        <v>0.75</v>
+      </c>
+      <c r="O523" s="8">
+        <v>2.41</v>
+      </c>
+      <c r="P523" s="8">
+        <v>1.31</v>
+      </c>
+      <c r="T523">
+        <v>3.08</v>
+      </c>
+      <c r="U523">
+        <v>0.44</v>
+      </c>
+      <c r="V523">
+        <v>0.8</v>
+      </c>
       <c r="W523">
         <f>Control!B521</f>
-        <v>0</v>
+        <v>302.83333333333331</v>
       </c>
       <c r="X523">
         <f>'Ctrl pct'!B521</f>
-        <v>0</v>
+        <v>0.56604361370716505</v>
       </c>
       <c r="Y523">
         <f>Controlled!B521</f>
-        <v>0</v>
+        <v>37.833333333333336</v>
       </c>
       <c r="Z523">
         <f>'Controlled pct'!B521</f>
-        <v>0</v>
+        <v>7.0716510903426802E-2</v>
       </c>
       <c r="AA523">
         <f>'Fight Time'!B521</f>
-        <v>0</v>
+        <v>535</v>
+      </c>
+      <c r="AB523">
+        <v>-2</v>
       </c>
     </row>
     <row r="524" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A524" t="str">
+        <f>Control!A522</f>
+        <v>David Onama</v>
+      </c>
+      <c r="B524">
+        <v>31</v>
+      </c>
+      <c r="C524">
+        <v>180</v>
+      </c>
+      <c r="D524">
+        <v>188</v>
+      </c>
+      <c r="E524">
+        <v>14</v>
+      </c>
+      <c r="F524">
+        <v>2</v>
+      </c>
+      <c r="G524">
+        <v>6</v>
+      </c>
+      <c r="H524">
+        <v>2</v>
+      </c>
+      <c r="I524">
+        <v>0.5</v>
+      </c>
+      <c r="J524">
+        <v>0</v>
+      </c>
+      <c r="K524">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L524">
+        <v>0</v>
+      </c>
+      <c r="M524">
+        <v>0.21</v>
+      </c>
+      <c r="N524">
+        <v>1</v>
+      </c>
+      <c r="O524" s="8">
+        <v>5.24</v>
+      </c>
+      <c r="P524" s="8">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="T524">
+        <v>1.08</v>
+      </c>
+      <c r="U524">
+        <v>0.3</v>
+      </c>
+      <c r="V524">
+        <v>0.52</v>
+      </c>
       <c r="W524">
         <f>Control!B522</f>
-        <v>0</v>
+        <v>149.375</v>
       </c>
       <c r="X524">
         <f>'Ctrl pct'!B522</f>
-        <v>0</v>
+        <v>0.20575068870523416</v>
       </c>
       <c r="Y524">
         <f>Controlled!B522</f>
-        <v>0</v>
+        <v>176.5</v>
       </c>
       <c r="Z524">
         <f>'Controlled pct'!B522</f>
-        <v>0</v>
+        <v>0.24311294765840222</v>
       </c>
       <c r="AA524">
         <f>'Fight Time'!B522</f>
-        <v>0</v>
+        <v>726</v>
+      </c>
+      <c r="AB524">
+        <v>4</v>
       </c>
     </row>
     <row r="525" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="V525" t="s">
+        <v>772</v>
+      </c>
       <c r="W525">
         <f>Control!B523</f>
         <v>0</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0BFC4C-0A70-4F05-B9CB-DA10FB44AC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4622941-D79D-4CB5-B650-5308C3213A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
@@ -2779,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
   <dimension ref="A1:AE522"/>
   <sheetViews>
-    <sheetView topLeftCell="A428" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C450" sqref="C450"/>
+    <sheetView topLeftCell="A473" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F454" sqref="F454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46834,10 +46834,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A499" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A453" sqref="A453"/>
+      <selection pane="topRight" activeCell="V525" sqref="V525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -74831,7 +74831,7 @@
         <v>30</v>
       </c>
       <c r="C389">
-        <v>1.91</v>
+        <v>191</v>
       </c>
       <c r="D389">
         <v>196</v>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4622941-D79D-4CB5-B650-5308C3213A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CA3BE7-41E7-4CDF-B9B8-C1F84DDC92FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
@@ -17878,7 +17878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F14444-E8DB-4B01-ACF9-FD755FD7D0A0}">
   <dimension ref="A1:B522"/>
   <sheetViews>
-    <sheetView topLeftCell="A507" workbookViewId="0">
+    <sheetView topLeftCell="A330" workbookViewId="0">
       <selection activeCell="F517" sqref="F517"/>
     </sheetView>
   </sheetViews>
@@ -37679,7 +37679,7 @@
   <dimension ref="A1:B522"/>
   <sheetViews>
     <sheetView topLeftCell="A507" workbookViewId="0">
-      <selection activeCell="B511" sqref="B511:B522"/>
+      <selection activeCell="D524" sqref="D524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42394,7 +42394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138861BB-8279-455B-8C5B-B2E558397DFC}">
   <dimension ref="A1:C522"/>
   <sheetViews>
-    <sheetView topLeftCell="A433" workbookViewId="0">
+    <sheetView topLeftCell="A496" workbookViewId="0">
       <selection activeCell="B451" sqref="B451"/>
     </sheetView>
   </sheetViews>
@@ -46834,8 +46834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF23280-7306-4EA1-9125-C9C4CB255CD1}">
   <dimension ref="A1:AB664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A499" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A496" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="V525" sqref="V525"/>
     </sheetView>
@@ -46847,8 +46847,10 @@
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="8.88671875" customWidth="1"/>
     <col min="15" max="15" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="8.88671875" customWidth="1"/>
     <col min="23" max="23" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -86087,7 +86089,7 @@
         <v>0.3</v>
       </c>
       <c r="V524">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="W524">
         <f>Control!B522</f>

--- a/APP/002 Stats.xlsx
+++ b/APP/002 Stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\EAGLE\STATS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CA3BE7-41E7-4CDF-B9B8-C1F84DDC92FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966A7731-BDDA-4187-90BE-8571EEF7B1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8AEBFDB5-19D6-44E4-9E05-09202A63E1F7}"/>
   </bookViews>
@@ -25,12 +25,24 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="784">
   <si>
     <t>Khaos</t>
   </si>
@@ -2348,7 +2360,40 @@
     <t>David Onama</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Denise Gomes</t>
+  </si>
+  <si>
+    <t>Tecia Pennington</t>
+  </si>
+  <si>
+    <t>Mayra Bueno Silva</t>
+  </si>
+  <si>
+    <t>Marco Tulio</t>
+  </si>
+  <si>
+    <t>Joseph Morales</t>
+  </si>
+  <si>
+    <t>Matt Schnell</t>
+  </si>
+  <si>
+    <t>Randy Brown</t>
+  </si>
+  <si>
+    <t>Baisangur Susurkaev</t>
+  </si>
+  <si>
+    <t>Ethyn Ewing</t>
+  </si>
+  <si>
+    <t>Michael Morales</t>
+  </si>
+  <si>
+    <t>Weili Zhang</t>
+  </si>
+  <si>
+    <t>Islam Makhachev</t>
   </si>
 </sst>
 </file>
@@ -2372,7 +2417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2427,6 +2472,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2440,7 +2491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2460,12 +2511,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2481,7 +2533,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2777,10 +2829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777EF9C-EF35-4CC9-A696-1EEEFA3BBF49}">
-  <dimension ref="A1:AE522"/>
+  <dimension ref="A1:AE534"/>
   <sheetViews>
-    <sheetView topLeftCell="A473" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F454" sqref="F454"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C503" sqref="C503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2832,7 +2884,7 @@
       </c>
       <c r="B2" s="1">
         <f t="shared" si="0"/>
-        <v>69.5</v>
+        <v>106.57142857142857</v>
       </c>
       <c r="C2">
         <v>16</v>
@@ -2853,6 +2905,9 @@
       <c r="H2">
         <v>102</v>
       </c>
+      <c r="I2">
+        <v>329</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2860,37 +2915,37 @@
       </c>
       <c r="B3" s="1">
         <f xml:space="preserve"> AVERAGE(C3:BC3)</f>
-        <v>192.5</v>
+        <v>188.8</v>
       </c>
       <c r="C3" s="13">
-        <v>116</v>
+        <v>264</v>
       </c>
       <c r="D3" s="13">
-        <v>264</v>
+        <v>128</v>
       </c>
       <c r="E3" s="13">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="F3" s="13">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
         <v>431</v>
       </c>
+      <c r="H3">
+        <v>483</v>
+      </c>
       <c r="I3">
-        <v>483</v>
+        <v>186</v>
       </c>
       <c r="J3">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>271</v>
       </c>
       <c r="L3">
-        <v>271</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -3048,7 +3103,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
-        <v>36.5</v>
+        <v>29.2</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3061,6 +3116,9 @@
       </c>
       <c r="F10">
         <v>69</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -3140,7 +3198,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
-        <v>171.75</v>
+        <v>174.22222222222223</v>
       </c>
       <c r="C13">
         <v>330</v>
@@ -3165,6 +3223,9 @@
       </c>
       <c r="J13">
         <v>110</v>
+      </c>
+      <c r="K13">
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -3250,7 +3311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3272,7 +3333,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>561</v>
       </c>
@@ -3297,7 +3358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>285</v>
       </c>
@@ -3321,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>286</v>
       </c>
@@ -3373,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>287</v>
       </c>
@@ -3420,47 +3481,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>288</v>
       </c>
       <c r="B22" s="1">
         <f xml:space="preserve"> AVERAGE(C22:BC22)</f>
-        <v>132.1</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="C22" s="13">
-        <v>17</v>
-      </c>
-      <c r="D22" s="13">
         <v>129</v>
       </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
       <c r="E22">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="F22">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="G22">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="H22">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="J22">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="K22">
-        <v>198</v>
-      </c>
-      <c r="L22">
         <f>8*60+20</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>289</v>
       </c>
@@ -3499,7 +3560,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3538,7 +3599,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>290</v>
       </c>
@@ -3553,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>291</v>
       </c>
@@ -3592,19 +3653,22 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>292</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>293</v>
       </c>
@@ -3628,62 +3692,47 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="1"/>
-        <v>199.13333333333333</v>
+        <f xml:space="preserve"> AVERAGE(C29:BC29)</f>
+        <v>261.3</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="D29">
-        <v>162</v>
+        <v>419</v>
       </c>
       <c r="E29">
-        <v>337</v>
-      </c>
-      <c r="F29">
-        <v>230</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>198</v>
-      </c>
-      <c r="I29">
-        <v>323</v>
-      </c>
-      <c r="J29">
-        <v>419</v>
-      </c>
-      <c r="K29">
         <f>8*60+14</f>
         <v>494</v>
       </c>
-      <c r="L29">
+      <c r="F29">
         <v>242</v>
       </c>
-      <c r="M29" s="10">
+      <c r="G29" s="13">
         <v>246</v>
       </c>
-      <c r="N29" s="10">
+      <c r="H29" s="13">
         <v>51</v>
       </c>
-      <c r="O29" s="10">
+      <c r="I29" s="13">
         <v>180</v>
       </c>
-      <c r="P29" s="10">
+      <c r="J29" s="13">
         <v>31</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="K29" s="13">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L29" s="13">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>294</v>
       </c>
@@ -3713,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>295</v>
       </c>
@@ -3734,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4822,7 +4871,7 @@
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
-        <v>150.80000000000001</v>
+        <v>118.2</v>
       </c>
       <c r="C64">
         <f>4*60+48</f>
@@ -4838,7 +4887,7 @@
         <v>163</v>
       </c>
       <c r="G64">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
@@ -6764,7 +6813,7 @@
       </c>
       <c r="B127" s="1">
         <f t="shared" si="2"/>
-        <v>162.33333333333334</v>
+        <v>144.71428571428572</v>
       </c>
       <c r="C127">
         <v>38</v>
@@ -6783,6 +6832,9 @@
       </c>
       <c r="H127">
         <v>336</v>
+      </c>
+      <c r="I127">
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.3">
@@ -7406,73 +7458,46 @@
         <v>670</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <f t="shared" si="3"/>
-        <v>212.94736842105263</v>
-      </c>
-      <c r="C145">
-        <v>97</v>
-      </c>
-      <c r="D145">
-        <v>2</v>
-      </c>
-      <c r="E145">
-        <v>423</v>
-      </c>
-      <c r="F145">
-        <v>40</v>
-      </c>
-      <c r="G145">
-        <v>191</v>
-      </c>
-      <c r="H145">
-        <v>272</v>
-      </c>
-      <c r="I145">
-        <v>312</v>
-      </c>
-      <c r="J145">
-        <v>488</v>
-      </c>
-      <c r="K145">
-        <v>501</v>
-      </c>
-      <c r="L145">
+        <f xml:space="preserve"> AVERAGE(C145:BC145)</f>
+        <v>172</v>
+      </c>
+      <c r="C145" s="14">
         <v>48</v>
       </c>
-      <c r="M145" s="10">
+      <c r="D145" s="13">
         <v>209</v>
       </c>
-      <c r="N145" s="10">
+      <c r="E145" s="13">
         <v>437</v>
       </c>
-      <c r="O145" s="10">
+      <c r="F145" s="13">
         <v>19</v>
       </c>
-      <c r="P145" s="10">
+      <c r="G145" s="13">
         <v>299</v>
       </c>
-      <c r="Q145" s="10">
+      <c r="H145" s="13">
         <v>175</v>
       </c>
-      <c r="R145" s="10">
-        <v>0</v>
-      </c>
-      <c r="S145" s="10">
+      <c r="I145" s="13">
+        <v>0</v>
+      </c>
+      <c r="J145" s="13">
         <v>87</v>
       </c>
-      <c r="T145" s="10">
+      <c r="K145" s="13">
         <v>431</v>
       </c>
-      <c r="U145" s="10">
+      <c r="L145" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>385</v>
       </c>
@@ -7487,7 +7512,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>386</v>
       </c>
@@ -7505,7 +7530,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>387</v>
       </c>
@@ -7544,7 +7569,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>388</v>
       </c>
@@ -7562,13 +7587,13 @@
         <v>67</v>
       </c>
     </row>
-    <ro